--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Ferroviario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1575BF5-3C98-49CC-A150-040017112C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AC3105-0CD1-4307-BF68-D2CDBA875DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -38,16 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
-  </si>
-  <si>
-    <t>Periodo</t>
   </si>
   <si>
     <t>Total</t>
@@ -108,6 +99,15 @@
   </si>
   <si>
     <t xml:space="preserve">Admin. Vía Corta Tijuana-Tecate </t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Actualización: agosto 2024.</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -368,18 +368,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -389,24 +380,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -419,27 +395,80 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -546,28 +575,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
@@ -633,32 +640,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:R82" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
-  <autoFilter ref="B5:R82" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S85" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="B5:S85" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{6FD22A4F-E740-4D66-9D13-2F083528EE3B}" name="Periodo" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{69D9BB11-29FE-4B97-8E28-78097BBD44F3}" name="Total" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A58B0BC4-DC40-4D6C-BF11-2B80C64AB947}" name="Kansas City Southern de México" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{38471942-D269-431A-8781-5F17763E42C2}" name="Ferrocarril Mexicano " dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{8D17F24F-3D96-4A78-BC0B-21740E97571C}" name="FERROSUR " dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{885F419C-86B5-48E0-8193-3BB946AC889A}" name="Ferrocarril y Terminal del Valle de México" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{0BBFB8A6-99E0-41E4-AE1D-69E141B15BF9}" name="Línea Coahuila Durango " dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{DE2FB221-E56C-41CE-8B60-FAAACAC84270}" name="Ferrocarril del Istmo de Tehuantepec" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{B3135452-3A6A-430F-8173-FD4D293C0D06}" name="Admin. Vía Corta Tijuana-Tecate" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{EDD4AEAE-3EF5-467D-9500-C43D2DEA67E8}" name="Total " dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{F8E65A35-CFAA-433E-880E-0745A06312F8}" name="Kansas City Southern de México " dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{99C74970-B9CC-4766-B50D-1B06C0B447E5}" name="Ferrocarril Mexicano" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{58125A09-AE0F-47B3-9199-6AD61950403F}" name="FERROSUR" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{5B02396F-D9E0-47F6-9A50-FFB572DE1C71}" name="Ferrocarril y Terminal del Valle de México " dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{EB76073F-0B65-479D-80CD-C7D064A173AA}" name="Línea Coahuila Durango" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{5FA538C5-3664-4FF5-8ECE-3030AC5A6BB2}" name="Ferrocarril del Istmo de Tehuantepec " dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{67681C8F-1F80-4560-B134-3F8A2B9DD5F3}" name="Admin. Vía Corta Tijuana-Tecate " dataDxfId="0"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{6FD22A4F-E740-4D66-9D13-2F083528EE3B}" name="Año" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{C22B88A7-6974-477E-9A13-EA43B2F14D30}" name="Mes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{69D9BB11-29FE-4B97-8E28-78097BBD44F3}" name="Total" dataDxfId="1">
+      <calculatedColumnFormula>SUM(E6:K6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A58B0BC4-DC40-4D6C-BF11-2B80C64AB947}" name="Kansas City Southern de México" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{38471942-D269-431A-8781-5F17763E42C2}" name="Ferrocarril Mexicano " dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{8D17F24F-3D96-4A78-BC0B-21740E97571C}" name="FERROSUR " dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{885F419C-86B5-48E0-8193-3BB946AC889A}" name="Ferrocarril y Terminal del Valle de México" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{0BBFB8A6-99E0-41E4-AE1D-69E141B15BF9}" name="Línea Coahuila Durango " dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{DE2FB221-E56C-41CE-8B60-FAAACAC84270}" name="Ferrocarril del Istmo de Tehuantepec" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{B3135452-3A6A-430F-8173-FD4D293C0D06}" name="Admin. Vía Corta Tijuana-Tecate" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{EDD4AEAE-3EF5-467D-9500-C43D2DEA67E8}" name="Total " dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{F8E65A35-CFAA-433E-880E-0745A06312F8}" name="Kansas City Southern de México " dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{99C74970-B9CC-4766-B50D-1B06C0B447E5}" name="Ferrocarril Mexicano" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{58125A09-AE0F-47B3-9199-6AD61950403F}" name="FERROSUR" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{5B02396F-D9E0-47F6-9A50-FFB572DE1C71}" name="Ferrocarril y Terminal del Valle de México " dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{EB76073F-0B65-479D-80CD-C7D064A173AA}" name="Línea Coahuila Durango" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{5FA538C5-3664-4FF5-8ECE-3030AC5A6BB2}" name="Ferrocarril del Istmo de Tehuantepec " dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{67681C8F-1F80-4560-B134-3F8A2B9DD5F3}" name="Admin. Vía Corta Tijuana-Tecate " dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -887,7 +898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:R84"/>
+  <dimension ref="B2:S87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -896,4365 +907,4775 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" customWidth="1"/>
-    <col min="8" max="8" width="11.8984375" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" customWidth="1"/>
-    <col min="10" max="10" width="13.796875" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.296875" customWidth="1"/>
-    <col min="13" max="13" width="9.69921875" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="16.69921875" customWidth="1"/>
-    <col min="16" max="16" width="11.19921875" customWidth="1"/>
-    <col min="17" max="17" width="14.796875" customWidth="1"/>
-    <col min="18" max="18" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" customWidth="1"/>
+    <col min="9" max="9" width="11.8984375" customWidth="1"/>
+    <col min="10" max="10" width="15.09765625" customWidth="1"/>
+    <col min="11" max="11" width="13.796875" customWidth="1"/>
+    <col min="12" max="12" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.296875" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="16.69921875" customWidth="1"/>
+    <col min="17" max="17" width="11.19921875" customWidth="1"/>
+    <col min="18" max="18" width="14.796875" customWidth="1"/>
+    <col min="19" max="19" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
+    </row>
+    <row r="5" spans="2:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:18" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="N5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="23"/>
-      <c r="C4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="20"/>
-    </row>
-    <row r="5" spans="2:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="Q5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="32">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="33">
+        <v>8</v>
+      </c>
+      <c r="D6" s="22">
+        <f>SUM(E6:K6)</f>
+        <v>11251.137121</v>
+      </c>
+      <c r="E6" s="17">
+        <v>4380.0285290000002</v>
+      </c>
+      <c r="F6" s="17">
+        <v>5224.974502</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1317.7201729999999</v>
+      </c>
+      <c r="H6" s="17">
+        <v>177.187535</v>
+      </c>
+      <c r="I6" s="17">
+        <v>105.991382</v>
+      </c>
+      <c r="J6" s="17">
+        <v>30.662199999999999</v>
+      </c>
+      <c r="K6" s="16">
+        <v>14.572800000000001</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" ref="L6:L14" si="0">SUM(M6:S6)</f>
+        <v>8231.3888027003995</v>
+      </c>
+      <c r="M6" s="17">
+        <v>2880.310271714</v>
+      </c>
+      <c r="N6" s="17">
+        <v>4609.8136975879997</v>
+      </c>
+      <c r="O6" s="16">
+        <v>698.22568952999995</v>
+      </c>
+      <c r="P6" s="16">
+        <v>5.5616272489999998</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>26.096916030999999</v>
+      </c>
+      <c r="R6" s="16">
+        <v>11.0747022284</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0.30589835999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="34">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="35">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <f>SUM(E7:K7)</f>
+        <v>11073.580067999997</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4264.3103259999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5088.2590179999997</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1297.469726</v>
+      </c>
+      <c r="H7" s="3">
+        <v>268.56850200000002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>126.038926</v>
+      </c>
+      <c r="J7" s="3">
+        <v>8.8992199999999997</v>
+      </c>
+      <c r="K7" s="11">
+        <v>20.03435</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>7865.3882907427005</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2769.2323164145</v>
+      </c>
+      <c r="N7" s="3">
+        <v>4334.8919746190004</v>
+      </c>
+      <c r="O7" s="3">
+        <v>700.48098283000002</v>
+      </c>
+      <c r="P7" s="3">
+        <v>10.097477002</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>37.109888814999998</v>
+      </c>
+      <c r="R7" s="3">
+        <v>13.1854440822</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.39020697999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="32">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="33">
+        <v>6</v>
+      </c>
+      <c r="D8" s="22">
+        <f>SUM(E8:K8)</f>
+        <v>11161.666198499997</v>
+      </c>
+      <c r="E8" s="17">
+        <v>4078.3567754999999</v>
+      </c>
+      <c r="F8" s="17">
+        <v>5481.9287759999997</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1221.811635</v>
+      </c>
+      <c r="H8" s="17">
+        <v>239.36940000000001</v>
+      </c>
+      <c r="I8" s="17">
+        <v>105.50866000000001</v>
+      </c>
+      <c r="J8" s="17">
+        <v>9.2501800000000003</v>
+      </c>
+      <c r="K8" s="16">
+        <v>25.440771999999999</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="0"/>
+        <v>7988.2967723501006</v>
+      </c>
+      <c r="M8" s="17">
+        <v>2693.4096534265</v>
+      </c>
+      <c r="N8" s="17">
+        <v>4598.9796150089996</v>
+      </c>
+      <c r="O8" s="16">
+        <v>647.17524848999994</v>
+      </c>
+      <c r="P8" s="16">
+        <v>8.870226637</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>29.502148497</v>
+      </c>
+      <c r="R8" s="16">
+        <v>9.9230392236</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0.43684106700000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="34">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="35">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
+        <f>SUM(E9:K9)</f>
+        <v>11385.153779999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4088.3985170000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5559.3460809999997</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1362.2324040000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>242.53355500000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>103.72531499999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.8760000000000003</v>
+      </c>
+      <c r="K9" s="11">
+        <v>24.041907999999999</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="0"/>
+        <v>8010.7375229999998</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2674.0050620000002</v>
+      </c>
+      <c r="N9" s="3">
+        <v>4545.2049290000004</v>
+      </c>
+      <c r="O9" s="3">
+        <v>749.43216500000005</v>
+      </c>
+      <c r="P9" s="3">
+        <v>9.3834619999999997</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>27.699843999999999</v>
+      </c>
+      <c r="R9" s="3">
+        <v>4.5218790000000002</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.49018200000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="32">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="33">
         <v>4</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="30">
-        <v>45413</v>
-      </c>
-      <c r="C6" s="31">
-        <f>SUM(D6:J6)</f>
-        <v>11385.153779999999</v>
-      </c>
-      <c r="D6" s="32">
-        <v>4088.3985170000001</v>
-      </c>
-      <c r="E6" s="32">
-        <v>5559.3460809999997</v>
-      </c>
-      <c r="F6" s="33">
-        <v>1362.2324040000001</v>
-      </c>
-      <c r="G6" s="32">
-        <v>242.53355500000001</v>
-      </c>
-      <c r="H6" s="32">
-        <v>103.72531499999999</v>
-      </c>
-      <c r="I6" s="32">
-        <v>4.8760000000000003</v>
-      </c>
-      <c r="J6" s="33">
-        <v>24.041907999999999</v>
-      </c>
-      <c r="K6" s="31">
-        <f t="shared" ref="K6:K11" si="0">SUM(L6:R6)</f>
-        <v>8010.7375229999998</v>
-      </c>
-      <c r="L6" s="32">
-        <v>2674.0050620000002</v>
-      </c>
-      <c r="M6" s="32">
-        <v>4545.2049290000004</v>
-      </c>
-      <c r="N6" s="33">
-        <v>749.43216500000005</v>
-      </c>
-      <c r="O6" s="33">
-        <v>9.3834619999999997</v>
-      </c>
-      <c r="P6" s="33">
-        <v>27.699843999999999</v>
-      </c>
-      <c r="Q6" s="33">
-        <v>4.5218790000000002</v>
-      </c>
-      <c r="R6" s="34">
-        <v>0.49018200000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="6">
-        <v>45383</v>
-      </c>
-      <c r="C7" s="35">
-        <f t="shared" ref="C7:C21" si="1">SUM(D7:J7)</f>
+      <c r="D10" s="22">
+        <f t="shared" ref="D10:D24" si="1">SUM(E10:K10)</f>
         <v>11518.385950000002</v>
       </c>
-      <c r="D7" s="25">
+      <c r="E10" s="17">
         <v>4300.1912899999998</v>
       </c>
-      <c r="E7" s="25">
+      <c r="F10" s="17">
         <v>5629.5263320000004</v>
       </c>
-      <c r="F7" s="24">
+      <c r="G10" s="16">
         <v>1319.029931</v>
       </c>
-      <c r="G7" s="25">
+      <c r="H10" s="17">
         <v>139.10685699999999</v>
       </c>
-      <c r="H7" s="25">
+      <c r="I10" s="17">
         <v>105.14566000000001</v>
       </c>
-      <c r="I7" s="25">
+      <c r="J10" s="17">
         <v>0</v>
       </c>
-      <c r="J7" s="24">
+      <c r="K10" s="16">
         <v>25.38588</v>
       </c>
-      <c r="K7" s="35">
+      <c r="L10" s="22">
         <f t="shared" si="0"/>
         <v>8190.6107430000002</v>
       </c>
-      <c r="L7" s="25">
+      <c r="M10" s="17">
         <v>2859.8718090000002</v>
       </c>
-      <c r="M7" s="25">
+      <c r="N10" s="17">
         <v>4557.1561849999998</v>
       </c>
-      <c r="N7" s="24">
+      <c r="O10" s="16">
         <v>740.54377399999998</v>
       </c>
-      <c r="O7" s="24">
+      <c r="P10" s="16">
         <v>3.9488479999999999</v>
       </c>
-      <c r="P7" s="24">
+      <c r="Q10" s="16">
         <v>27.069296000000001</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="R10" s="16">
         <v>1.465068</v>
       </c>
-      <c r="R7" s="16">
+      <c r="S10" s="13">
         <v>0.55576300000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="5">
-        <v>45352</v>
-      </c>
-      <c r="C8" s="7">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="34">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="35">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="1"/>
         <v>12058.836555</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E11" s="3">
         <v>4563.5082670000002</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F11" s="3">
         <v>5992.8884459999999</v>
       </c>
-      <c r="F8" s="14">
+      <c r="G11" s="11">
         <v>1246.3373630000001</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H11" s="3">
         <v>139.10685699999999</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I11" s="3">
         <v>96.219672000000003</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J11" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="14">
+      <c r="K11" s="11">
         <v>20.775950000000002</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L11" s="5">
         <f t="shared" si="0"/>
         <v>8839.7330359999996</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M11" s="3">
         <v>2957.5938150000002</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N11" s="3">
         <v>5127.0620630000003</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O11" s="3">
         <v>721.55657799999994</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P11" s="3">
         <v>3.9488479999999999</v>
       </c>
-      <c r="P8" s="14">
+      <c r="Q11" s="11">
         <v>26.56606</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R11" s="3">
         <v>2.5492699999999999</v>
       </c>
-      <c r="R8" s="8">
+      <c r="S11" s="6">
         <v>0.45640199999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="6">
-        <v>45323</v>
-      </c>
-      <c r="C9" s="35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="32">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="33">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22">
         <f t="shared" si="1"/>
         <v>11342.527755999999</v>
       </c>
-      <c r="D9" s="25">
+      <c r="E12" s="17">
         <v>4257.7457569999997</v>
       </c>
-      <c r="E9" s="25">
+      <c r="F12" s="17">
         <v>5478.1561410000004</v>
       </c>
-      <c r="F9" s="24">
+      <c r="G12" s="16">
         <v>1150.5672</v>
       </c>
-      <c r="G9" s="25">
+      <c r="H12" s="17">
         <v>347.88340299999999</v>
       </c>
-      <c r="H9" s="25">
+      <c r="I12" s="17">
         <v>97.409684999999996</v>
       </c>
-      <c r="I9" s="25">
+      <c r="J12" s="17">
         <v>0</v>
       </c>
-      <c r="J9" s="24">
+      <c r="K12" s="16">
         <v>10.76557</v>
       </c>
-      <c r="K9" s="35">
+      <c r="L12" s="22">
         <f t="shared" si="0"/>
         <v>8187.4507680000006</v>
       </c>
-      <c r="L9" s="25">
+      <c r="M12" s="17">
         <v>2792.3728390000001</v>
       </c>
-      <c r="M9" s="25">
+      <c r="N12" s="17">
         <v>4673.1630869999999</v>
       </c>
-      <c r="N9" s="25">
+      <c r="O12" s="17">
         <v>679.80545600000005</v>
       </c>
-      <c r="O9" s="25">
+      <c r="P12" s="17">
         <v>8.3948649999999994</v>
       </c>
-      <c r="P9" s="24">
+      <c r="Q12" s="16">
         <v>26.664881000000001</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="R12" s="17">
         <v>6.8661019999999997</v>
       </c>
-      <c r="R9" s="9">
+      <c r="S12" s="7">
         <v>0.18353800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
-        <v>45292</v>
-      </c>
-      <c r="C10" s="12">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" s="36">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="37">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" si="1"/>
         <v>11272.010199999999</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E13" s="8">
         <v>4393.4066000000003</v>
       </c>
-      <c r="E10" s="11">
+      <c r="F13" s="8">
         <v>5359.7539999999999</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G13" s="12">
         <v>1270.1172999999999</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H13" s="8">
         <v>121.57129999999999</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I13" s="8">
         <v>106.0236</v>
       </c>
-      <c r="I10" s="11">
+      <c r="J13" s="8">
         <v>0</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K13" s="12">
         <v>21.1374</v>
       </c>
-      <c r="K10" s="12">
+      <c r="L13" s="9">
         <f t="shared" si="0"/>
         <v>8342.0510054124934</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M13" s="8">
         <v>2834.6025592114943</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N13" s="8">
         <v>4774.6108969999996</v>
       </c>
-      <c r="N10" s="11">
+      <c r="O13" s="8">
         <v>698.27653098200028</v>
       </c>
-      <c r="O10" s="11">
+      <c r="P13" s="8">
         <v>3.7847089999999994</v>
       </c>
-      <c r="P10" s="15">
+      <c r="Q13" s="12">
         <v>28.277445269000239</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="R13" s="8">
         <v>2.0259563599999999</v>
       </c>
-      <c r="R10" s="13">
+      <c r="S13" s="10">
         <v>0.47290758999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="36">
-        <v>45261</v>
-      </c>
-      <c r="C11" s="37">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="38">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="39">
+        <v>12</v>
+      </c>
+      <c r="D14" s="23">
         <f t="shared" si="1"/>
         <v>10530.152879999996</v>
       </c>
-      <c r="D11" s="38">
+      <c r="E14" s="24">
         <v>4309.4661199999991</v>
       </c>
-      <c r="E11" s="38">
+      <c r="F14" s="24">
         <v>4678.9765120000002</v>
       </c>
-      <c r="F11" s="39">
+      <c r="G14" s="25">
         <v>1229.369512</v>
       </c>
-      <c r="G11" s="38">
+      <c r="H14" s="24">
         <v>196.09364099999999</v>
       </c>
-      <c r="H11" s="38">
+      <c r="I14" s="24">
         <v>98.409154999999998</v>
       </c>
-      <c r="I11" s="38">
+      <c r="J14" s="24">
         <v>0</v>
       </c>
-      <c r="J11" s="39">
+      <c r="K14" s="25">
         <v>17.83794</v>
       </c>
-      <c r="K11" s="37">
+      <c r="L14" s="23">
         <f t="shared" si="0"/>
         <v>7153.5113975900022</v>
       </c>
-      <c r="L11" s="38">
+      <c r="M14" s="24">
         <v>2868.2873435319998</v>
       </c>
-      <c r="M11" s="38">
+      <c r="N14" s="24">
         <v>3607.6925303660032</v>
       </c>
-      <c r="N11" s="38">
+      <c r="O14" s="24">
         <v>642.81335444999979</v>
       </c>
-      <c r="O11" s="38">
+      <c r="P14" s="24">
         <v>7.0967908270000004</v>
       </c>
-      <c r="P11" s="39">
+      <c r="Q14" s="25">
         <v>26.713847234999999</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="R14" s="24">
         <v>0.56659287000000003</v>
       </c>
-      <c r="R11" s="40">
+      <c r="S14" s="26">
         <v>0.34093830999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
-        <v>45231</v>
-      </c>
-      <c r="C12" s="7">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B15" s="34">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="35">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
         <v>10744.338341099994</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E15" s="3">
         <v>4156.0361599999969</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F15" s="3">
         <v>4940.157242999996</v>
       </c>
-      <c r="F12" s="14">
+      <c r="G15" s="11">
         <v>1327.2145460000011</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H15" s="3">
         <v>207.6338241</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I15" s="3">
         <v>97.280187999999995</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="14">
+      <c r="K15" s="11">
         <v>16.016380000000002</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" ref="K12:K21" si="2">SUM(L12:R12)</f>
+      <c r="L15" s="5">
+        <f t="shared" ref="L15:L24" si="2">SUM(M15:S15)</f>
         <v>7556.0425005755014</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M15" s="3">
         <v>2765.572963916999</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N15" s="3">
         <v>4124.8151506980021</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O15" s="3">
         <v>633.25968550699997</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P15" s="3">
         <v>7.8715812454999998</v>
       </c>
-      <c r="P12" s="14">
+      <c r="Q15" s="11">
         <v>24.216846367999999</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="8">
+      <c r="S15" s="6">
         <v>0.30627283999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6">
-        <v>45200</v>
-      </c>
-      <c r="C13" s="35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B16" s="32">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="33">
+        <v>10</v>
+      </c>
+      <c r="D16" s="22">
         <f t="shared" si="1"/>
         <v>11200.280935499999</v>
       </c>
-      <c r="D13" s="25">
+      <c r="E16" s="17">
         <v>4460.5444895000001</v>
       </c>
-      <c r="E13" s="25">
+      <c r="F16" s="17">
         <v>5121.4502369999991</v>
       </c>
-      <c r="F13" s="24">
+      <c r="G16" s="16">
         <v>1286.7112570000011</v>
       </c>
-      <c r="G13" s="25">
+      <c r="H16" s="17">
         <v>230.92582300000001</v>
       </c>
-      <c r="H13" s="25">
+      <c r="I16" s="17">
         <v>86.957749000000007</v>
       </c>
-      <c r="I13" s="25">
+      <c r="J16" s="17">
         <v>0</v>
       </c>
-      <c r="J13" s="24">
+      <c r="K16" s="16">
         <v>13.691380000000001</v>
       </c>
-      <c r="K13" s="35">
+      <c r="L16" s="22">
         <f t="shared" si="2"/>
         <v>7919.0054692064978</v>
       </c>
-      <c r="L13" s="25">
+      <c r="M16" s="17">
         <v>2888.4215667424992</v>
       </c>
-      <c r="M13" s="25">
+      <c r="N16" s="17">
         <v>4289.1214162529986</v>
       </c>
-      <c r="N13" s="25">
+      <c r="O16" s="17">
         <v>709.70213744500006</v>
       </c>
-      <c r="O13" s="25">
+      <c r="P16" s="17">
         <v>8.7303510430000006</v>
       </c>
-      <c r="P13" s="24">
+      <c r="Q16" s="16">
         <v>22.005873442999999</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="R16" s="17">
         <v>0.75646751999999995</v>
       </c>
-      <c r="R13" s="9">
+      <c r="S16" s="7">
         <v>0.26765675999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="5">
-        <v>45170</v>
-      </c>
-      <c r="C14" s="7">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B17" s="34">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="35">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="1"/>
         <v>10782.032769499994</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E17" s="3">
         <v>4218.6692064999988</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F17" s="3">
         <v>4942.4715439999973</v>
       </c>
-      <c r="F14" s="14">
+      <c r="G17" s="11">
         <v>1325.7413049999991</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H17" s="3">
         <v>196.98436699999999</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I17" s="3">
         <v>89.481097000000005</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="14">
+      <c r="K17" s="11">
         <v>8.6852500000000017</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L17" s="5">
         <f t="shared" si="2"/>
         <v>7622.1182945060009</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M17" s="3">
         <v>2723.4188917840002</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N17" s="3">
         <v>4168.1608000790002</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O17" s="3">
         <v>700.2680477920004</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P17" s="3">
         <v>6.950576074999999</v>
       </c>
-      <c r="P14" s="14">
+      <c r="Q17" s="11">
         <v>22.592782776</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R17" s="3">
         <v>0.46685416000000002</v>
       </c>
-      <c r="R14" s="8">
+      <c r="S17" s="6">
         <v>0.26034183999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6">
-        <v>45139</v>
-      </c>
-      <c r="C15" s="35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B18" s="32">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="33">
+        <v>8</v>
+      </c>
+      <c r="D18" s="22">
         <f t="shared" si="1"/>
         <v>11165.0871135</v>
       </c>
-      <c r="D15" s="25">
+      <c r="E18" s="17">
         <v>4073.677195499999</v>
       </c>
-      <c r="E15" s="25">
+      <c r="F18" s="17">
         <v>5295.6467410000023</v>
       </c>
-      <c r="F15" s="24">
+      <c r="G18" s="16">
         <v>1455.9837610000011</v>
       </c>
-      <c r="G15" s="25">
+      <c r="H18" s="17">
         <v>215.933054</v>
       </c>
-      <c r="H15" s="25">
+      <c r="I18" s="17">
         <v>102.351732</v>
       </c>
-      <c r="I15" s="25">
+      <c r="J18" s="17">
         <v>0</v>
       </c>
-      <c r="J15" s="24">
+      <c r="K18" s="16">
         <v>21.494630000000001</v>
       </c>
-      <c r="K15" s="35">
+      <c r="L18" s="22">
         <f t="shared" si="2"/>
         <v>7816.8766415225009</v>
       </c>
-      <c r="L15" s="25">
+      <c r="M18" s="17">
         <v>2578.8196566694969</v>
       </c>
-      <c r="M15" s="25">
+      <c r="N18" s="17">
         <v>4455.9987150990046</v>
       </c>
-      <c r="N15" s="25">
+      <c r="O18" s="17">
         <v>747.21557059399993</v>
       </c>
-      <c r="O15" s="25">
+      <c r="P18" s="17">
         <v>8.0505219500000003</v>
       </c>
-      <c r="P15" s="24">
+      <c r="Q18" s="16">
         <v>26.027712000000001</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="R18" s="17">
         <v>0.31483611000000011</v>
       </c>
-      <c r="R15" s="9">
+      <c r="S18" s="7">
         <v>0.44962910000000011</v>
       </c>
     </row>
-    <row r="16" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="5">
-        <v>45108</v>
-      </c>
-      <c r="C16" s="7">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B19" s="34">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="35">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
         <f t="shared" si="1"/>
         <v>10990.944824000002</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E19" s="3">
         <v>4146.4391699999987</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F19" s="3">
         <v>5135.3581670000012</v>
       </c>
-      <c r="F16" s="14">
+      <c r="G19" s="11">
         <v>1381.008404000002</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H19" s="3">
         <v>211.989563</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I19" s="3">
         <v>101.69627</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="14">
+      <c r="K19" s="11">
         <v>14.453250000000001</v>
       </c>
-      <c r="K16" s="7">
+      <c r="L19" s="5">
         <f t="shared" si="2"/>
         <v>7210.7837302764929</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M19" s="3">
         <v>2685.167804527498</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N19" s="3">
         <v>3862.1520296299959</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O19" s="3">
         <v>629.01834064099978</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P19" s="3">
         <v>7.3305904510000008</v>
       </c>
-      <c r="P16" s="14">
+      <c r="Q19" s="11">
         <v>26.805101397000001</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R19" s="3">
         <v>0</v>
       </c>
-      <c r="R16" s="8">
+      <c r="S19" s="6">
         <v>0.30986362999999989</v>
       </c>
     </row>
-    <row r="17" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6">
-        <v>45078</v>
-      </c>
-      <c r="C17" s="35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B20" s="32">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="33">
+        <v>6</v>
+      </c>
+      <c r="D20" s="22">
         <f t="shared" si="1"/>
         <v>10745.577094500002</v>
       </c>
-      <c r="D17" s="25">
+      <c r="E20" s="17">
         <v>3986.183454499997</v>
       </c>
-      <c r="E17" s="25">
+      <c r="F20" s="17">
         <v>5182.5897230000064</v>
       </c>
-      <c r="F17" s="24">
+      <c r="G20" s="16">
         <v>1263.786863</v>
       </c>
-      <c r="G17" s="25">
+      <c r="H20" s="17">
         <v>194.382002</v>
       </c>
-      <c r="H17" s="25">
+      <c r="I20" s="17">
         <v>110.79468199999999</v>
       </c>
-      <c r="I17" s="25">
+      <c r="J20" s="17">
         <v>0</v>
       </c>
-      <c r="J17" s="24">
+      <c r="K20" s="16">
         <v>7.8403699999999992</v>
       </c>
-      <c r="K17" s="35">
+      <c r="L20" s="22">
         <f t="shared" si="2"/>
         <v>7727.3830689805</v>
       </c>
-      <c r="L17" s="25">
+      <c r="M20" s="17">
         <v>2606.4418033855009</v>
       </c>
-      <c r="M17" s="25">
+      <c r="N20" s="17">
         <v>4443.8483745960002</v>
       </c>
-      <c r="N17" s="25">
+      <c r="O20" s="17">
         <v>641.33658918099911</v>
       </c>
-      <c r="O17" s="25">
+      <c r="P20" s="17">
         <v>7.5541058760000004</v>
       </c>
-      <c r="P17" s="24">
+      <c r="Q20" s="16">
         <v>27.942127822</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="R20" s="17">
         <v>0</v>
       </c>
-      <c r="R17" s="9">
+      <c r="S20" s="7">
         <v>0.26006812000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
-        <v>45047</v>
-      </c>
-      <c r="C18" s="7">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B21" s="34">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="35">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
         <f t="shared" si="1"/>
         <v>11106.930602500001</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E21" s="3">
         <v>4188.3383045000028</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F21" s="3">
         <v>5334.9094389999982</v>
       </c>
-      <c r="F18" s="14">
+      <c r="G21" s="11">
         <v>1326.3186040000001</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H21" s="3">
         <v>160.06881000000001</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I21" s="3">
         <v>88.829708000000011</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="14">
+      <c r="K21" s="11">
         <v>8.4657370000000007</v>
       </c>
-      <c r="K18" s="7">
+      <c r="L21" s="5">
         <f t="shared" si="2"/>
         <v>7787.991672169991</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M21" s="3">
         <v>2697.017603467998</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N21" s="3">
         <v>4364.7163814329933</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O21" s="3">
         <v>691.08870988800015</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P21" s="3">
         <v>5.5462157990000014</v>
       </c>
-      <c r="P18" s="14">
+      <c r="Q21" s="11">
         <v>28.462399068</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R21" s="3">
         <v>0.92623683999999995</v>
       </c>
-      <c r="R18" s="8">
+      <c r="S21" s="6">
         <v>0.23412567400000001</v>
       </c>
     </row>
-    <row r="19" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6">
-        <v>45017</v>
-      </c>
-      <c r="C19" s="35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B22" s="32">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="33">
+        <v>4</v>
+      </c>
+      <c r="D22" s="22">
         <f t="shared" si="1"/>
         <v>10801.941199499999</v>
       </c>
-      <c r="D19" s="25">
+      <c r="E22" s="17">
         <v>4120.2958385000038</v>
       </c>
-      <c r="E19" s="25">
+      <c r="F22" s="17">
         <v>5130.8270799999982</v>
       </c>
-      <c r="F19" s="24">
+      <c r="G22" s="16">
         <v>1278.4442729999989</v>
       </c>
-      <c r="G19" s="25">
+      <c r="H22" s="17">
         <v>164.83443199999999</v>
       </c>
-      <c r="H19" s="25">
+      <c r="I22" s="17">
         <v>97.153891000000002</v>
       </c>
-      <c r="I19" s="25">
+      <c r="J22" s="17">
         <v>0</v>
       </c>
-      <c r="J19" s="24">
+      <c r="K22" s="16">
         <v>10.385685</v>
       </c>
-      <c r="K19" s="35">
+      <c r="L22" s="22">
         <f t="shared" si="2"/>
         <v>7607.3085941089976</v>
       </c>
-      <c r="L19" s="25">
+      <c r="M22" s="17">
         <v>2709.2393107859962</v>
       </c>
-      <c r="M19" s="25">
+      <c r="N22" s="17">
         <v>4203.9729919080019</v>
       </c>
-      <c r="N19" s="25">
+      <c r="O22" s="17">
         <v>660.44165793399986</v>
       </c>
-      <c r="O19" s="25">
+      <c r="P22" s="17">
         <v>5.9482127840000008</v>
       </c>
-      <c r="P19" s="24">
+      <c r="Q22" s="16">
         <v>27.414852071999999</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="R22" s="17">
         <v>0</v>
       </c>
-      <c r="R19" s="9">
+      <c r="S22" s="7">
         <v>0.29156862500000003</v>
       </c>
     </row>
-    <row r="20" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
-        <v>44986</v>
-      </c>
-      <c r="C20" s="7">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B23" s="34">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="35">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5">
         <f t="shared" si="1"/>
         <v>11383.878990499992</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E23" s="3">
         <v>4435.0004595000009</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F23" s="3">
         <v>5403.7461159999912</v>
       </c>
-      <c r="F20" s="14">
+      <c r="G23" s="11">
         <v>1243.00846</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H23" s="3">
         <v>186.385561</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I23" s="3">
         <v>105.50189399999999</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="14">
+      <c r="K23" s="11">
         <v>10.236499999999999</v>
       </c>
-      <c r="K20" s="7">
+      <c r="L23" s="5">
         <f t="shared" si="2"/>
         <v>8168.6527303565072</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M23" s="3">
         <v>2855.8573844425018</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N23" s="3">
         <v>4595.0981872000057</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O23" s="3">
         <v>683.3527228519996</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P23" s="3">
         <v>6.7861570649999994</v>
       </c>
-      <c r="P20" s="14">
+      <c r="Q23" s="11">
         <v>27.308684076999999</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="8">
+      <c r="S23" s="6">
         <v>0.24959471999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6">
-        <v>44958</v>
-      </c>
-      <c r="C21" s="35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B24" s="32">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="33">
+        <v>2</v>
+      </c>
+      <c r="D24" s="22">
         <f t="shared" si="1"/>
         <v>10730.619191500007</v>
       </c>
-      <c r="D21" s="25">
+      <c r="E24" s="17">
         <v>4010.1023085000038</v>
       </c>
-      <c r="E21" s="25">
+      <c r="F24" s="17">
         <v>5163.3377450000035</v>
       </c>
-      <c r="F21" s="24">
+      <c r="G24" s="16">
         <v>1234.198350000001</v>
       </c>
-      <c r="G21" s="25">
+      <c r="H24" s="17">
         <v>213.06129999999999</v>
       </c>
-      <c r="H21" s="25">
+      <c r="I24" s="17">
         <v>97.967708000000016</v>
       </c>
-      <c r="I21" s="25">
+      <c r="J24" s="17">
         <v>0</v>
       </c>
-      <c r="J21" s="24">
+      <c r="K24" s="16">
         <v>11.951779999999999</v>
       </c>
-      <c r="K21" s="35">
+      <c r="L24" s="22">
         <f t="shared" si="2"/>
         <v>7460.9740902630037</v>
       </c>
-      <c r="L21" s="25">
+      <c r="M24" s="17">
         <v>2587.8190024130022</v>
       </c>
-      <c r="M21" s="25">
+      <c r="N24" s="17">
         <v>4189.8268443940005</v>
       </c>
-      <c r="N21" s="25">
+      <c r="O24" s="17">
         <v>650.21660514200039</v>
       </c>
-      <c r="O21" s="25">
+      <c r="P24" s="17">
         <v>7.5242899999999997</v>
       </c>
-      <c r="P21" s="24">
+      <c r="Q24" s="16">
         <v>25.314986824000002</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="R24" s="17">
         <v>0</v>
       </c>
-      <c r="R21" s="9">
+      <c r="S24" s="7">
         <v>0.27236148999999987</v>
       </c>
     </row>
-    <row r="22" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
-        <v>44927</v>
-      </c>
-      <c r="C22" s="12">
-        <f t="shared" ref="C22:C53" si="3">SUM(D22:J22)</f>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B25" s="36">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="37">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:D56" si="3">SUM(E25:K25)</f>
         <v>11294.197112000005</v>
       </c>
-      <c r="D22" s="11">
+      <c r="E25" s="8">
         <v>4300.673847</v>
       </c>
-      <c r="E22" s="11">
+      <c r="F25" s="8">
         <v>5333.398917000005</v>
       </c>
-      <c r="F22" s="15">
+      <c r="G25" s="12">
         <v>1381.829727000001</v>
       </c>
-      <c r="G22" s="11">
+      <c r="H25" s="8">
         <v>160.70500799999999</v>
       </c>
-      <c r="H22" s="11">
+      <c r="I25" s="8">
         <v>108.434686</v>
       </c>
-      <c r="I22" s="11">
+      <c r="J25" s="8">
         <v>0</v>
       </c>
-      <c r="J22" s="15">
+      <c r="K25" s="12">
         <v>9.1549269999999989</v>
       </c>
-      <c r="K22" s="12">
-        <f t="shared" ref="K22:K53" si="4">SUM(L22:R22)</f>
+      <c r="L25" s="9">
+        <f t="shared" ref="L25:L56" si="4">SUM(M25:S25)</f>
         <v>8101.5730074171943</v>
       </c>
-      <c r="L22" s="11">
+      <c r="M25" s="8">
         <v>2862.9090542549961</v>
       </c>
-      <c r="M22" s="11">
+      <c r="N25" s="8">
         <v>4475.0428370511981</v>
       </c>
-      <c r="N22" s="11">
+      <c r="O25" s="8">
         <v>730.13655983000001</v>
       </c>
-      <c r="O22" s="11">
+      <c r="P25" s="8">
         <v>5.6898014160000008</v>
       </c>
-      <c r="P22" s="15">
+      <c r="Q25" s="12">
         <v>26.430900990000001</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="R25" s="8">
         <v>1.1467497600000001</v>
       </c>
-      <c r="R22" s="13">
+      <c r="S25" s="10">
         <v>0.21710411499999999</v>
       </c>
     </row>
-    <row r="23" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="36">
-        <v>44896</v>
-      </c>
-      <c r="C23" s="37">
+    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="38">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="39">
+        <v>12</v>
+      </c>
+      <c r="D26" s="23">
         <f t="shared" si="3"/>
         <v>10579.2088245</v>
       </c>
-      <c r="D23" s="38">
+      <c r="E26" s="24">
         <v>3955.405141500004</v>
       </c>
-      <c r="E23" s="38">
+      <c r="F26" s="24">
         <v>5023.7809259999967</v>
       </c>
-      <c r="F23" s="39">
+      <c r="G26" s="25">
         <v>1253.435716</v>
       </c>
-      <c r="G23" s="38">
+      <c r="H26" s="24">
         <v>210.841139</v>
       </c>
-      <c r="H23" s="38">
+      <c r="I26" s="24">
         <v>127.258531</v>
       </c>
-      <c r="I23" s="38">
+      <c r="J26" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J23" s="39">
+      <c r="K26" s="25">
         <v>8.4723710000000008</v>
       </c>
-      <c r="K23" s="37">
+      <c r="L26" s="23">
         <f t="shared" si="4"/>
         <v>8010.7375229999998</v>
       </c>
-      <c r="L23" s="38">
+      <c r="M26" s="24">
         <v>2674.0050620000002</v>
       </c>
-      <c r="M23" s="38">
+      <c r="N26" s="24">
         <v>4545.2049290000004</v>
       </c>
-      <c r="N23" s="38">
+      <c r="O26" s="24">
         <v>749.43216500000005</v>
       </c>
-      <c r="O23" s="38">
+      <c r="P26" s="24">
         <v>9.3834619999999997</v>
       </c>
-      <c r="P23" s="39">
+      <c r="Q26" s="25">
         <v>27.699843999999999</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="R26" s="24">
         <v>4.5218790000000002</v>
       </c>
-      <c r="R23" s="40">
+      <c r="S26" s="26">
         <v>0.49018200000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
-        <v>44866</v>
-      </c>
-      <c r="C24" s="7">
+    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="34">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="35">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5">
         <f t="shared" si="3"/>
         <v>10527.497396789135</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E27" s="3">
         <v>4108.8534605000023</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F27" s="3">
         <v>4736.7273732891317</v>
       </c>
-      <c r="F24" s="14">
+      <c r="G27" s="11">
         <v>1295.0406599999999</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H27" s="3">
         <v>221.15105</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I27" s="3">
         <v>154.32011299999999</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="14">
+      <c r="K27" s="11">
         <v>11.40474</v>
       </c>
-      <c r="K24" s="7">
+      <c r="L27" s="5">
         <f t="shared" si="4"/>
         <v>8190.6107430000002</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M27" s="3">
         <v>2859.8718090000002</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N27" s="3">
         <v>4557.1561849999998</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O27" s="3">
         <v>740.54377399999998</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P27" s="3">
         <v>3.9488479999999999</v>
       </c>
-      <c r="P24" s="14">
+      <c r="Q27" s="11">
         <v>27.069296000000001</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R27" s="3">
         <v>1.465068</v>
       </c>
-      <c r="R24" s="8">
+      <c r="S27" s="6">
         <v>0.55576300000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="6">
-        <v>44835</v>
-      </c>
-      <c r="C25" s="35">
+    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="32">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="33">
+        <v>10</v>
+      </c>
+      <c r="D28" s="22">
         <f t="shared" si="3"/>
         <v>10705.692828500001</v>
       </c>
-      <c r="D25" s="25">
+      <c r="E28" s="17">
         <v>4175.4008985000046</v>
       </c>
-      <c r="E25" s="25">
+      <c r="F28" s="17">
         <v>4906.9342349999952</v>
       </c>
-      <c r="F25" s="24">
+      <c r="G28" s="16">
         <v>1288.9225799999999</v>
       </c>
-      <c r="G25" s="25">
+      <c r="H28" s="17">
         <v>177.480175</v>
       </c>
-      <c r="H25" s="25">
+      <c r="I28" s="17">
         <v>150.03629000000001</v>
       </c>
-      <c r="I25" s="25">
+      <c r="J28" s="17">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="J25" s="24">
+      <c r="K28" s="16">
         <v>6.9111500000000001</v>
       </c>
-      <c r="K25" s="35">
+      <c r="L28" s="22">
         <f t="shared" si="4"/>
         <v>8839.7330359999996</v>
       </c>
-      <c r="L25" s="25">
+      <c r="M28" s="17">
         <v>2957.5938150000002</v>
       </c>
-      <c r="M25" s="25">
+      <c r="N28" s="17">
         <v>5127.0620630000003</v>
       </c>
-      <c r="N25" s="25">
+      <c r="O28" s="17">
         <v>721.55657799999994</v>
       </c>
-      <c r="O25" s="25">
+      <c r="P28" s="17">
         <v>3.9488479999999999</v>
       </c>
-      <c r="P25" s="24">
+      <c r="Q28" s="16">
         <v>26.56606</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="R28" s="17">
         <v>2.5492699999999999</v>
       </c>
-      <c r="R25" s="9">
+      <c r="S28" s="7">
         <v>0.45640199999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="5">
-        <v>44805</v>
-      </c>
-      <c r="C26" s="7">
+    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="34">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="35">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5">
         <f t="shared" si="3"/>
         <v>10716.722789500005</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E29" s="3">
         <v>3921.109317500001</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F29" s="3">
         <v>5107.1348170000047</v>
       </c>
-      <c r="F26" s="14">
+      <c r="G29" s="11">
         <v>1304.2582520000001</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H29" s="3">
         <v>224.00600600000001</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I29" s="3">
         <v>150.00181699999999</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J29" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="J26" s="14">
+      <c r="K29" s="11">
         <v>10.205080000000001</v>
       </c>
-      <c r="K26" s="7">
+      <c r="L29" s="5">
         <f t="shared" si="4"/>
         <v>8187.4507680000006</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M29" s="3">
         <v>2792.3728390000001</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N29" s="3">
         <v>4673.1630869999999</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O29" s="3">
         <v>679.80545600000005</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P29" s="3">
         <v>8.3948649999999994</v>
       </c>
-      <c r="P26" s="14">
+      <c r="Q29" s="11">
         <v>26.664881000000001</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R29" s="3">
         <v>6.8661019999999997</v>
       </c>
-      <c r="R26" s="8">
+      <c r="S29" s="6">
         <v>0.18353800000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="6">
-        <v>44774</v>
-      </c>
-      <c r="C27" s="35">
+    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="32">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="33">
+        <v>8</v>
+      </c>
+      <c r="D30" s="22">
         <f t="shared" si="3"/>
         <v>11108.677028999993</v>
       </c>
-      <c r="D27" s="25">
+      <c r="E30" s="17">
         <v>3971.3969279999978</v>
       </c>
-      <c r="E27" s="25">
+      <c r="F30" s="17">
         <v>5268.769131999994</v>
       </c>
-      <c r="F27" s="24">
+      <c r="G30" s="16">
         <v>1417.7037560000001</v>
       </c>
-      <c r="G27" s="25">
+      <c r="H30" s="17">
         <v>247.12264200000001</v>
       </c>
-      <c r="H27" s="25">
+      <c r="I30" s="17">
         <v>188.83374499999999</v>
       </c>
-      <c r="I27" s="25">
+      <c r="J30" s="17">
         <v>0</v>
       </c>
-      <c r="J27" s="24">
+      <c r="K30" s="16">
         <v>14.850826</v>
       </c>
-      <c r="K27" s="35">
+      <c r="L30" s="22">
         <f t="shared" si="4"/>
         <v>8342.0510054124934</v>
       </c>
-      <c r="L27" s="25">
+      <c r="M30" s="17">
         <v>2834.6025592114943</v>
       </c>
-      <c r="M27" s="25">
+      <c r="N30" s="17">
         <v>4774.6108969999996</v>
       </c>
-      <c r="N27" s="25">
+      <c r="O30" s="17">
         <v>698.27653098200028</v>
       </c>
-      <c r="O27" s="25">
+      <c r="P30" s="17">
         <v>3.7847089999999994</v>
       </c>
-      <c r="P27" s="24">
+      <c r="Q30" s="16">
         <v>28.277445269000239</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="R30" s="17">
         <v>2.0259563599999999</v>
       </c>
-      <c r="R27" s="9">
+      <c r="S30" s="7">
         <v>0.47290758999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="5">
-        <v>44743</v>
-      </c>
-      <c r="C28" s="7">
+    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="34">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="35">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5">
         <f t="shared" si="3"/>
         <v>10611.250803000006</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E31" s="3">
         <v>3793.7436850000049</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F31" s="3">
         <v>5214.0921070000013</v>
       </c>
-      <c r="F28" s="14">
+      <c r="G31" s="11">
         <v>1247.337679</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H31" s="3">
         <v>194.861605</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I31" s="3">
         <v>147.825242</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="14">
+      <c r="K31" s="11">
         <v>13.390485</v>
       </c>
-      <c r="K28" s="7">
+      <c r="L31" s="5">
         <f t="shared" si="4"/>
         <v>7153.5113975900022</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M31" s="3">
         <v>2868.2873435319998</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N31" s="3">
         <v>3607.6925303660032</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O31" s="3">
         <v>642.81335444999979</v>
       </c>
-      <c r="O28" s="3">
+      <c r="P31" s="3">
         <v>7.0967908270000004</v>
       </c>
-      <c r="P28" s="14">
+      <c r="Q31" s="11">
         <v>26.713847234999999</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="R31" s="3">
         <v>0.56659287000000003</v>
       </c>
-      <c r="R28" s="8">
+      <c r="S31" s="6">
         <v>0.34093830999999991</v>
       </c>
     </row>
-    <row r="29" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6">
-        <v>44713</v>
-      </c>
-      <c r="C29" s="35">
+    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="32">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="33">
+        <v>6</v>
+      </c>
+      <c r="D32" s="22">
         <f t="shared" si="3"/>
         <v>11385.632823130651</v>
       </c>
-      <c r="D29" s="25">
+      <c r="E32" s="17">
         <v>4133.1845675000104</v>
       </c>
-      <c r="E29" s="25">
+      <c r="F32" s="17">
         <v>5576.317320630641</v>
       </c>
-      <c r="F29" s="24">
+      <c r="G32" s="16">
         <v>1291.3044649999999</v>
       </c>
-      <c r="G29" s="25">
+      <c r="H32" s="17">
         <v>204.62748999999999</v>
       </c>
-      <c r="H29" s="25">
+      <c r="I32" s="17">
         <v>168.44151099999999</v>
       </c>
-      <c r="I29" s="25">
+      <c r="J32" s="17">
         <v>0</v>
       </c>
-      <c r="J29" s="24">
+      <c r="K32" s="16">
         <v>11.757469</v>
       </c>
-      <c r="K29" s="35">
+      <c r="L32" s="22">
         <f t="shared" si="4"/>
         <v>7556.0425005755014</v>
       </c>
-      <c r="L29" s="25">
+      <c r="M32" s="17">
         <v>2765.572963916999</v>
       </c>
-      <c r="M29" s="25">
+      <c r="N32" s="17">
         <v>4124.8151506980021</v>
       </c>
-      <c r="N29" s="25">
+      <c r="O32" s="17">
         <v>633.25968550699997</v>
       </c>
-      <c r="O29" s="25">
+      <c r="P32" s="17">
         <v>7.8715812454999998</v>
       </c>
-      <c r="P29" s="24">
+      <c r="Q32" s="16">
         <v>24.216846367999999</v>
       </c>
-      <c r="Q29" s="25">
+      <c r="R32" s="17">
         <v>0</v>
       </c>
-      <c r="R29" s="9">
+      <c r="S32" s="7">
         <v>0.30627283999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="5">
-        <v>44682</v>
-      </c>
-      <c r="C30" s="7">
+    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="34">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="35">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5">
         <f t="shared" si="3"/>
         <v>10780.323722207198</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E33" s="3">
         <v>4137.0850310000033</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F33" s="3">
         <v>5186.775923207193</v>
       </c>
-      <c r="F30" s="14">
+      <c r="G33" s="11">
         <v>1080.597673</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H33" s="3">
         <v>208.890287</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I33" s="3">
         <v>154.938333</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="14">
+      <c r="K33" s="11">
         <v>12.036474999999999</v>
       </c>
-      <c r="K30" s="7">
+      <c r="L33" s="5">
         <f t="shared" si="4"/>
         <v>7919.0054692064978</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M33" s="3">
         <v>2888.4215667424992</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N33" s="3">
         <v>4289.1214162529986</v>
       </c>
-      <c r="N30" s="3">
+      <c r="O33" s="3">
         <v>709.70213744500006</v>
       </c>
-      <c r="O30" s="3">
+      <c r="P33" s="3">
         <v>8.7303510430000006</v>
       </c>
-      <c r="P30" s="14">
+      <c r="Q33" s="11">
         <v>22.005873442999999</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="R33" s="3">
         <v>0.75646751999999995</v>
       </c>
-      <c r="R30" s="8">
+      <c r="S33" s="6">
         <v>0.26765675999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="6">
-        <v>44652</v>
-      </c>
-      <c r="C31" s="35">
+    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="32">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="33">
+        <v>4</v>
+      </c>
+      <c r="D34" s="22">
         <f t="shared" si="3"/>
         <v>10829.844413999997</v>
       </c>
-      <c r="D31" s="25">
+      <c r="E34" s="17">
         <v>3962.7175100000009</v>
       </c>
-      <c r="E31" s="25">
+      <c r="F34" s="17">
         <v>5192.2296089999963</v>
       </c>
-      <c r="F31" s="24">
+      <c r="G34" s="16">
         <v>1309.012232</v>
       </c>
-      <c r="G31" s="25">
+      <c r="H34" s="17">
         <v>181.97084000000001</v>
       </c>
-      <c r="H31" s="25">
+      <c r="I34" s="17">
         <v>167.812794</v>
       </c>
-      <c r="I31" s="25">
+      <c r="J34" s="17">
         <v>0</v>
       </c>
-      <c r="J31" s="24">
+      <c r="K34" s="16">
         <v>16.101429</v>
       </c>
-      <c r="K31" s="35">
+      <c r="L34" s="22">
         <f t="shared" si="4"/>
         <v>7622.1182945060009</v>
       </c>
-      <c r="L31" s="25">
+      <c r="M34" s="17">
         <v>2723.4188917840002</v>
       </c>
-      <c r="M31" s="25">
+      <c r="N34" s="17">
         <v>4168.1608000790002</v>
       </c>
-      <c r="N31" s="25">
+      <c r="O34" s="17">
         <v>700.2680477920004</v>
       </c>
-      <c r="O31" s="25">
+      <c r="P34" s="17">
         <v>6.950576074999999</v>
       </c>
-      <c r="P31" s="24">
+      <c r="Q34" s="16">
         <v>22.592782776</v>
       </c>
-      <c r="Q31" s="25">
+      <c r="R34" s="17">
         <v>0.46685416000000002</v>
       </c>
-      <c r="R31" s="9">
+      <c r="S34" s="7">
         <v>0.26034183999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="5">
-        <v>44621</v>
-      </c>
-      <c r="C32" s="7">
+    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="34">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5">
         <f t="shared" si="3"/>
         <v>10958.977161499999</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E35" s="3">
         <v>4038.936546500001</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F35" s="3">
         <v>5268.3369729999977</v>
       </c>
-      <c r="F32" s="14">
+      <c r="G35" s="11">
         <v>1291.416300000001</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H35" s="3">
         <v>177.95099999999999</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I35" s="3">
         <v>167.63478000000001</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="14">
+      <c r="K35" s="11">
         <v>14.701561999999999</v>
       </c>
-      <c r="K32" s="7">
+      <c r="L35" s="5">
         <f t="shared" si="4"/>
         <v>7816.8766415225009</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M35" s="3">
         <v>2578.8196566694969</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N35" s="3">
         <v>4455.9987150990046</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O35" s="3">
         <v>747.21557059399993</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P35" s="3">
         <v>8.0505219500000003</v>
       </c>
-      <c r="P32" s="14">
+      <c r="Q35" s="11">
         <v>26.027712000000001</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R35" s="3">
         <v>0.31483611000000011</v>
       </c>
-      <c r="R32" s="8">
+      <c r="S35" s="6">
         <v>0.44962910000000011</v>
       </c>
     </row>
-    <row r="33" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="6">
-        <v>44593</v>
-      </c>
-      <c r="C33" s="35">
+    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="32">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="33">
+        <v>2</v>
+      </c>
+      <c r="D36" s="22">
         <f t="shared" si="3"/>
         <v>9793.3689548991515</v>
       </c>
-      <c r="D33" s="25">
+      <c r="E36" s="17">
         <v>3583.161939000001</v>
       </c>
-      <c r="E33" s="25">
+      <c r="F36" s="17">
         <v>4789.6931648991504</v>
       </c>
-      <c r="F33" s="24">
+      <c r="G36" s="16">
         <v>1070.14833</v>
       </c>
-      <c r="G33" s="25">
+      <c r="H36" s="17">
         <v>173.86282</v>
       </c>
-      <c r="H33" s="25">
+      <c r="I36" s="17">
         <v>164.508713</v>
       </c>
-      <c r="I33" s="25">
+      <c r="J36" s="17">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="J33" s="24">
+      <c r="K36" s="16">
         <v>11.987488000000001</v>
       </c>
-      <c r="K33" s="35">
+      <c r="L36" s="22">
         <f t="shared" si="4"/>
         <v>7210.7837302764929</v>
       </c>
-      <c r="L33" s="25">
+      <c r="M36" s="17">
         <v>2685.167804527498</v>
       </c>
-      <c r="M33" s="25">
+      <c r="N36" s="17">
         <v>3862.1520296299959</v>
       </c>
-      <c r="N33" s="25">
+      <c r="O36" s="17">
         <v>629.01834064099978</v>
       </c>
-      <c r="O33" s="25">
+      <c r="P36" s="17">
         <v>7.3305904510000008</v>
       </c>
-      <c r="P33" s="24">
+      <c r="Q36" s="16">
         <v>26.805101397000001</v>
       </c>
-      <c r="Q33" s="25">
+      <c r="R36" s="17">
         <v>0</v>
       </c>
-      <c r="R33" s="9">
+      <c r="S36" s="7">
         <v>0.30986362999999989</v>
       </c>
     </row>
-    <row r="34" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
-        <v>44562</v>
-      </c>
-      <c r="C34" s="12">
+    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="36">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9">
         <f t="shared" si="3"/>
         <v>10457.860871849636</v>
       </c>
-      <c r="D34" s="11">
+      <c r="E37" s="8">
         <v>3811.0277475000012</v>
       </c>
-      <c r="E34" s="11">
+      <c r="F37" s="8">
         <v>5081.9953543496349</v>
       </c>
-      <c r="F34" s="15">
+      <c r="G37" s="12">
         <v>1163.869772</v>
       </c>
-      <c r="G34" s="11">
+      <c r="H37" s="8">
         <v>216.800228</v>
       </c>
-      <c r="H34" s="11">
+      <c r="I37" s="8">
         <v>164.64285100000001</v>
       </c>
-      <c r="I34" s="11">
+      <c r="J37" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="J34" s="15">
+      <c r="K37" s="12">
         <v>19.518419000000002</v>
       </c>
-      <c r="K34" s="12">
+      <c r="L37" s="9">
         <f t="shared" si="4"/>
         <v>7727.3830689805</v>
       </c>
-      <c r="L34" s="11">
+      <c r="M37" s="8">
         <v>2606.4418033855009</v>
       </c>
-      <c r="M34" s="11">
+      <c r="N37" s="8">
         <v>4443.8483745960002</v>
       </c>
-      <c r="N34" s="11">
+      <c r="O37" s="8">
         <v>641.33658918099911</v>
       </c>
-      <c r="O34" s="11">
+      <c r="P37" s="8">
         <v>7.5541058760000004</v>
       </c>
-      <c r="P34" s="15">
+      <c r="Q37" s="12">
         <v>27.942127822</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="R37" s="8">
         <v>0</v>
       </c>
-      <c r="R34" s="13">
+      <c r="S37" s="10">
         <v>0.26006812000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="36">
-        <v>44531</v>
-      </c>
-      <c r="C35" s="37">
+    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="38">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="39">
+        <v>12</v>
+      </c>
+      <c r="D38" s="23">
         <f t="shared" si="3"/>
         <v>10554.11629972851</v>
       </c>
-      <c r="D35" s="38">
+      <c r="E38" s="24">
         <v>3704.487701</v>
       </c>
-      <c r="E35" s="38">
+      <c r="F38" s="24">
         <v>5168.8270517285082</v>
       </c>
-      <c r="F35" s="39">
+      <c r="G38" s="25">
         <v>1210.66284</v>
       </c>
-      <c r="G35" s="38">
+      <c r="H38" s="24">
         <v>278.57299999999998</v>
       </c>
-      <c r="H35" s="38">
+      <c r="I38" s="24">
         <v>176.88040100000001</v>
       </c>
-      <c r="I35" s="38">
+      <c r="J38" s="24">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="J35" s="39">
+      <c r="K38" s="25">
         <v>14.676906000000001</v>
       </c>
-      <c r="K35" s="37">
+      <c r="L38" s="23">
         <f t="shared" si="4"/>
         <v>7787.991672169991</v>
       </c>
-      <c r="L35" s="38">
+      <c r="M38" s="24">
         <v>2697.017603467998</v>
       </c>
-      <c r="M35" s="38">
+      <c r="N38" s="24">
         <v>4364.7163814329933</v>
       </c>
-      <c r="N35" s="38">
+      <c r="O38" s="24">
         <v>691.08870988800015</v>
       </c>
-      <c r="O35" s="38">
+      <c r="P38" s="24">
         <v>5.5462157990000014</v>
       </c>
-      <c r="P35" s="39">
+      <c r="Q38" s="25">
         <v>28.462399068</v>
       </c>
-      <c r="Q35" s="38">
+      <c r="R38" s="24">
         <v>0.92623683999999995</v>
       </c>
-      <c r="R35" s="40">
+      <c r="S38" s="26">
         <v>0.23412567400000001</v>
       </c>
     </row>
-    <row r="36" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="5">
-        <v>44501</v>
-      </c>
-      <c r="C36" s="7">
+    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="34">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="35">
+        <v>11</v>
+      </c>
+      <c r="D39" s="5">
         <f t="shared" si="3"/>
         <v>10628.511753666689</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E39" s="3">
         <v>3832.8486825000009</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F39" s="3">
         <v>5157.1098371666867</v>
       </c>
-      <c r="F36" s="14">
+      <c r="G39" s="11">
         <v>1198.8120699999999</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H39" s="3">
         <v>250.82408899999999</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I39" s="3">
         <v>171.39998600000001</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J39" s="3">
         <v>0.48580000000000001</v>
       </c>
-      <c r="J36" s="14">
+      <c r="K39" s="11">
         <v>17.031289000000001</v>
       </c>
-      <c r="K36" s="7">
+      <c r="L39" s="5">
         <f t="shared" si="4"/>
         <v>7607.3085941089976</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M39" s="3">
         <v>2709.2393107859962</v>
       </c>
-      <c r="M36" s="3">
+      <c r="N39" s="3">
         <v>4203.9729919080019</v>
       </c>
-      <c r="N36" s="3">
+      <c r="O39" s="3">
         <v>660.44165793399986</v>
       </c>
-      <c r="O36" s="3">
+      <c r="P39" s="3">
         <v>5.9482127840000008</v>
       </c>
-      <c r="P36" s="14">
+      <c r="Q39" s="11">
         <v>27.414852071999999</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="R39" s="3">
         <v>0</v>
       </c>
-      <c r="R36" s="8">
+      <c r="S39" s="6">
         <v>0.29156862500000003</v>
       </c>
     </row>
-    <row r="37" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="6">
-        <v>44470</v>
-      </c>
-      <c r="C37" s="35">
+    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="32">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="33">
+        <v>10</v>
+      </c>
+      <c r="D40" s="22">
         <f t="shared" si="3"/>
         <v>10447.886890621772</v>
       </c>
-      <c r="D37" s="25">
+      <c r="E40" s="17">
         <v>3568.6820320000061</v>
       </c>
-      <c r="E37" s="25">
+      <c r="F40" s="17">
         <v>5290.506152621766</v>
       </c>
-      <c r="F37" s="24">
+      <c r="G40" s="16">
         <v>1189.51099</v>
       </c>
-      <c r="G37" s="25">
+      <c r="H40" s="17">
         <v>218.87152699999999</v>
       </c>
-      <c r="H37" s="25">
+      <c r="I40" s="17">
         <v>164.760099</v>
       </c>
-      <c r="I37" s="25">
+      <c r="J40" s="17">
         <v>0</v>
       </c>
-      <c r="J37" s="24">
+      <c r="K40" s="16">
         <v>15.556089999999999</v>
       </c>
-      <c r="K37" s="35">
+      <c r="L40" s="22">
         <f t="shared" si="4"/>
         <v>8168.6527303565072</v>
       </c>
-      <c r="L37" s="25">
+      <c r="M40" s="17">
         <v>2855.8573844425018</v>
       </c>
-      <c r="M37" s="25">
+      <c r="N40" s="17">
         <v>4595.0981872000057</v>
       </c>
-      <c r="N37" s="25">
+      <c r="O40" s="17">
         <v>683.3527228519996</v>
       </c>
-      <c r="O37" s="25">
+      <c r="P40" s="17">
         <v>6.7861570649999994</v>
       </c>
-      <c r="P37" s="24">
+      <c r="Q40" s="16">
         <v>27.308684076999999</v>
       </c>
-      <c r="Q37" s="25">
+      <c r="R40" s="17">
         <v>0</v>
       </c>
-      <c r="R37" s="9">
+      <c r="S40" s="7">
         <v>0.24959471999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="5">
-        <v>44440</v>
-      </c>
-      <c r="C38" s="7">
+    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="34">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="35">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5">
         <f t="shared" si="3"/>
         <v>10310.171017315373</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E41" s="3">
         <v>3660.1919630000002</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F41" s="3">
         <v>5125.4300873153752</v>
       </c>
-      <c r="F38" s="14">
+      <c r="G41" s="11">
         <v>1106.3341800000001</v>
       </c>
-      <c r="G38" s="3">
+      <c r="H41" s="3">
         <v>225.05336800000001</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I41" s="3">
         <v>173.367749</v>
       </c>
-      <c r="I38" s="3">
+      <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="J38" s="14">
+      <c r="K41" s="11">
         <v>19.793669999999999</v>
       </c>
-      <c r="K38" s="7">
+      <c r="L41" s="5">
         <f t="shared" si="4"/>
         <v>7460.9740902630037</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M41" s="3">
         <v>2587.8190024130022</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N41" s="3">
         <v>4189.8268443940005</v>
       </c>
-      <c r="N38" s="3">
+      <c r="O41" s="3">
         <v>650.21660514200039</v>
       </c>
-      <c r="O38" s="3">
+      <c r="P41" s="3">
         <v>7.5242899999999997</v>
       </c>
-      <c r="P38" s="14">
+      <c r="Q41" s="11">
         <v>25.314986824000002</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="R38" s="8">
+      <c r="S41" s="6">
         <v>0.27236148999999987</v>
       </c>
     </row>
-    <row r="39" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="6">
-        <v>44409</v>
-      </c>
-      <c r="C39" s="35">
+    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="32">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="33">
+        <v>8</v>
+      </c>
+      <c r="D42" s="22">
         <f t="shared" si="3"/>
         <v>10858.20812040527</v>
       </c>
-      <c r="D39" s="25">
+      <c r="E42" s="17">
         <v>3521.7041924999971</v>
       </c>
-      <c r="E39" s="25">
+      <c r="F42" s="17">
         <v>5688.3567339052724</v>
       </c>
-      <c r="F39" s="24">
+      <c r="G42" s="16">
         <v>1217.1854400000011</v>
       </c>
-      <c r="G39" s="25">
+      <c r="H42" s="17">
         <v>237.21059299999999</v>
       </c>
-      <c r="H39" s="25">
+      <c r="I42" s="17">
         <v>181.48093</v>
       </c>
-      <c r="I39" s="25">
+      <c r="J42" s="17">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="J39" s="24">
+      <c r="K42" s="16">
         <v>12.261831000000001</v>
       </c>
-      <c r="K39" s="35">
+      <c r="L42" s="22">
         <f t="shared" si="4"/>
         <v>8101.5730074171943</v>
       </c>
-      <c r="L39" s="25">
+      <c r="M42" s="17">
         <v>2862.9090542549961</v>
       </c>
-      <c r="M39" s="25">
+      <c r="N42" s="17">
         <v>4475.0428370511981</v>
       </c>
-      <c r="N39" s="25">
+      <c r="O42" s="17">
         <v>730.13655983000001</v>
       </c>
-      <c r="O39" s="25">
+      <c r="P42" s="17">
         <v>5.6898014160000008</v>
       </c>
-      <c r="P39" s="24">
+      <c r="Q42" s="16">
         <v>26.430900990000001</v>
       </c>
-      <c r="Q39" s="25">
+      <c r="R42" s="17">
         <v>1.1467497600000001</v>
       </c>
-      <c r="R39" s="9">
+      <c r="S42" s="7">
         <v>0.21710411499999999</v>
       </c>
     </row>
-    <row r="40" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="5">
-        <v>44378</v>
-      </c>
-      <c r="C40" s="7">
+    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="34">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="35">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
         <f t="shared" si="3"/>
         <v>11255.030800119688</v>
       </c>
-      <c r="D40" s="3">
+      <c r="E43" s="3">
         <v>3793.7436850000049</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F43" s="3">
         <v>5713.976884119681</v>
       </c>
-      <c r="F40" s="14">
+      <c r="G43" s="11">
         <v>1315.6355450000001</v>
       </c>
-      <c r="G40" s="3">
+      <c r="H43" s="3">
         <v>235.601181</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I43" s="3">
         <v>181.74973800000001</v>
       </c>
-      <c r="I40" s="3">
+      <c r="J43" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J40" s="14">
+      <c r="K43" s="11">
         <v>14.308767</v>
       </c>
-      <c r="K40" s="7">
+      <c r="L43" s="5">
         <f t="shared" si="4"/>
         <v>7201.2110358610043</v>
       </c>
-      <c r="L40" s="3">
+      <c r="M43" s="3">
         <v>2606.642718893002</v>
       </c>
-      <c r="M40" s="3">
+      <c r="N43" s="3">
         <v>3840.3302240870012</v>
       </c>
-      <c r="N40" s="3">
+      <c r="O43" s="3">
         <v>714.07136763500023</v>
       </c>
-      <c r="O40" s="3">
+      <c r="P43" s="3">
         <v>8.1353823930000004</v>
       </c>
-      <c r="P40" s="14">
+      <c r="Q43" s="11">
         <v>29.287128408000001</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="R43" s="3">
         <v>2.5732544800000001</v>
       </c>
-      <c r="R40" s="8">
+      <c r="S43" s="6">
         <v>0.17095996499999999</v>
       </c>
     </row>
-    <row r="41" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="6">
-        <v>44348</v>
-      </c>
-      <c r="C41" s="35">
+    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="32">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="33">
+        <v>6</v>
+      </c>
+      <c r="D44" s="22">
         <f t="shared" si="3"/>
         <v>11085.875192119853</v>
       </c>
-      <c r="D41" s="25">
+      <c r="E44" s="17">
         <v>4014.4691365000031</v>
       </c>
-      <c r="E41" s="25">
+      <c r="F44" s="17">
         <v>5377.2218746198478</v>
       </c>
-      <c r="F41" s="24">
+      <c r="G44" s="16">
         <v>1234.1497800000011</v>
       </c>
-      <c r="G41" s="25">
+      <c r="H44" s="17">
         <v>253.12753699999999</v>
       </c>
-      <c r="H41" s="25">
+      <c r="I44" s="17">
         <v>192.660923</v>
       </c>
-      <c r="I41" s="25">
+      <c r="J44" s="17">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="J41" s="24">
+      <c r="K44" s="16">
         <v>14.224441000000001</v>
       </c>
-      <c r="K41" s="35">
+      <c r="L44" s="22">
         <f t="shared" si="4"/>
         <v>7310.8355932755139</v>
       </c>
-      <c r="L41" s="25">
+      <c r="M44" s="17">
         <v>2729.828865026504</v>
       </c>
-      <c r="M41" s="25">
+      <c r="N44" s="17">
         <v>3871.547411277008</v>
       </c>
-      <c r="N41" s="25">
+      <c r="O44" s="17">
         <v>666.57566130000077</v>
       </c>
-      <c r="O41" s="25">
+      <c r="P44" s="17">
         <v>8.3173960500000028</v>
       </c>
-      <c r="P41" s="24">
+      <c r="Q44" s="16">
         <v>33.740727692</v>
       </c>
-      <c r="Q41" s="25">
+      <c r="R44" s="17">
         <v>0.53808</v>
       </c>
-      <c r="R41" s="9">
+      <c r="S44" s="7">
         <v>0.28745193000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="5">
-        <v>44317</v>
-      </c>
-      <c r="C42" s="7">
+    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="34">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="35">
+        <v>5</v>
+      </c>
+      <c r="D45" s="5">
         <f t="shared" si="3"/>
         <v>12022.900882797225</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E45" s="3">
         <v>4361.3740710000029</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F45" s="3">
         <v>5936.7487387972214</v>
       </c>
-      <c r="F42" s="14">
+      <c r="G45" s="11">
         <v>1232.430877999999</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H45" s="3">
         <v>263.60899599999999</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I45" s="3">
         <v>207.02036000000001</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J45" s="3">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="J42" s="14">
+      <c r="K45" s="11">
         <v>21.698639</v>
       </c>
-      <c r="K42" s="7">
+      <c r="L45" s="5">
         <f t="shared" si="4"/>
         <v>7111.4425296700092</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M45" s="3">
         <v>2632.704658141005</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N45" s="3">
         <v>3750.413545484003</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O45" s="3">
         <v>687.66725051200081</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P45" s="3">
         <v>5.8990287250000009</v>
       </c>
-      <c r="P42" s="14">
+      <c r="Q45" s="11">
         <v>34.461750987999999</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R45" s="3">
         <v>0.12333404000000001</v>
       </c>
-      <c r="R42" s="8">
+      <c r="S45" s="6">
         <v>0.17296178000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="6">
-        <v>44287</v>
-      </c>
-      <c r="C43" s="35">
+    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="32">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="33">
+        <v>4</v>
+      </c>
+      <c r="D46" s="22">
         <f t="shared" si="3"/>
         <v>11202.965129249227</v>
       </c>
-      <c r="D43" s="25">
+      <c r="E46" s="17">
         <v>4088.1791725000012</v>
       </c>
-      <c r="E43" s="25">
+      <c r="F46" s="17">
         <v>5398.3324937492234</v>
       </c>
-      <c r="F43" s="24">
+      <c r="G46" s="16">
         <v>1215.8369100000009</v>
       </c>
-      <c r="G43" s="25">
+      <c r="H46" s="17">
         <v>280.81724400000002</v>
       </c>
-      <c r="H43" s="25">
+      <c r="I46" s="17">
         <v>191.078067</v>
       </c>
-      <c r="I43" s="25">
+      <c r="J46" s="17">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J43" s="24">
+      <c r="K46" s="16">
         <v>28.689242</v>
       </c>
-      <c r="K43" s="35">
+      <c r="L46" s="22">
         <f t="shared" si="4"/>
         <v>7332.3824997811334</v>
       </c>
-      <c r="L43" s="25">
+      <c r="M46" s="17">
         <v>2596.0057846039958</v>
       </c>
-      <c r="M43" s="25">
+      <c r="N46" s="17">
         <v>4043.7739947451369</v>
       </c>
-      <c r="N43" s="25">
+      <c r="O46" s="17">
         <v>650.93120328700036</v>
       </c>
-      <c r="O43" s="25">
+      <c r="P46" s="17">
         <v>8.6389721339999994</v>
       </c>
-      <c r="P43" s="24">
+      <c r="Q46" s="16">
         <v>32.781240101000002</v>
       </c>
-      <c r="Q43" s="25">
+      <c r="R46" s="17">
         <v>7.0588400000000003E-3</v>
       </c>
-      <c r="R43" s="9">
+      <c r="S46" s="7">
         <v>0.24424607000000009</v>
       </c>
     </row>
-    <row r="44" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="5">
-        <v>44256</v>
-      </c>
-      <c r="C44" s="7">
+    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="34">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="35">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5">
         <f t="shared" si="3"/>
         <v>11472.620926703923</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E47" s="3">
         <v>4090.808027499997</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F47" s="3">
         <v>5662.2790862039283</v>
       </c>
-      <c r="F44" s="14">
+      <c r="G47" s="11">
         <v>1207.80692</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H47" s="3">
         <v>294.74798299999998</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I47" s="3">
         <v>196.56426200000001</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J47" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="J44" s="14">
+      <c r="K47" s="11">
         <v>20.387647999999999</v>
       </c>
-      <c r="K44" s="7">
+      <c r="L47" s="5">
         <f t="shared" si="4"/>
         <v>7307.3132174754001</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M47" s="3">
         <v>2663.245486356001</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N47" s="3">
         <v>3914.0197377269992</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O47" s="3">
         <v>681.13219543499997</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P47" s="3">
         <v>9.831694658</v>
       </c>
-      <c r="P44" s="14">
+      <c r="Q47" s="11">
         <v>36.570021361999977</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R47" s="3">
         <v>2.1579242694</v>
       </c>
-      <c r="R44" s="8">
+      <c r="S47" s="6">
         <v>0.35615766800000009</v>
       </c>
     </row>
-    <row r="45" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="6">
-        <v>44228</v>
-      </c>
-      <c r="C45" s="35">
+    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="32">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="33">
+        <v>2</v>
+      </c>
+      <c r="D48" s="22">
         <f t="shared" si="3"/>
         <v>9383.1106395317038</v>
       </c>
-      <c r="D45" s="25">
+      <c r="E48" s="17">
         <v>3368.883307499998</v>
       </c>
-      <c r="E45" s="25">
+      <c r="F48" s="17">
         <v>4573.2690100317068</v>
       </c>
-      <c r="F45" s="24">
+      <c r="G48" s="16">
         <v>1036.92257</v>
       </c>
-      <c r="G45" s="25">
+      <c r="H48" s="17">
         <v>234.75769500000001</v>
       </c>
-      <c r="H45" s="25">
+      <c r="I48" s="17">
         <v>161.20675999999989</v>
       </c>
-      <c r="I45" s="25">
+      <c r="J48" s="17">
         <v>2.4E-2</v>
       </c>
-      <c r="J45" s="24">
+      <c r="K48" s="16">
         <v>8.0472970000000004</v>
       </c>
-      <c r="K45" s="35">
+      <c r="L48" s="22">
         <f t="shared" si="4"/>
         <v>7191.6636538718021</v>
       </c>
-      <c r="L45" s="25">
+      <c r="M48" s="17">
         <v>2575.3834254900021</v>
       </c>
-      <c r="M45" s="25">
+      <c r="N48" s="17">
         <v>3964.619205300799</v>
       </c>
-      <c r="N45" s="25">
+      <c r="O48" s="17">
         <v>609.31836305400043</v>
       </c>
-      <c r="O45" s="25">
+      <c r="P48" s="17">
         <v>7.2582579850000002</v>
       </c>
-      <c r="P45" s="24">
+      <c r="Q48" s="16">
         <v>34.682327189999988</v>
       </c>
-      <c r="Q45" s="25">
+      <c r="R48" s="17">
         <v>0.11073023999999999</v>
       </c>
-      <c r="R45" s="9">
+      <c r="S48" s="7">
         <v>0.291344612</v>
       </c>
     </row>
-    <row r="46" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="10">
-        <v>44197</v>
-      </c>
-      <c r="C46" s="12">
+    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="36">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="37">
+        <v>1</v>
+      </c>
+      <c r="D49" s="9">
         <f t="shared" si="3"/>
         <v>10668.087908957505</v>
       </c>
-      <c r="D46" s="11">
+      <c r="E49" s="8">
         <v>4020.238264000001</v>
       </c>
-      <c r="E46" s="11">
+      <c r="F49" s="8">
         <v>5144.8473599575036</v>
       </c>
-      <c r="F46" s="15">
+      <c r="G49" s="12">
         <v>1116.808546</v>
       </c>
-      <c r="G46" s="11">
+      <c r="H49" s="8">
         <v>177.10898</v>
       </c>
-      <c r="H46" s="11">
+      <c r="I49" s="8">
         <v>186.84795500000001</v>
       </c>
-      <c r="I46" s="11">
+      <c r="J49" s="8">
         <v>5.1790099999999999</v>
       </c>
-      <c r="J46" s="15">
+      <c r="K49" s="12">
         <v>17.057794000000001</v>
       </c>
-      <c r="K46" s="12">
+      <c r="L49" s="9">
         <f t="shared" si="4"/>
         <v>7426.6647824039028</v>
       </c>
-      <c r="L46" s="11">
+      <c r="M49" s="8">
         <v>2745.748891390494</v>
       </c>
-      <c r="M46" s="11">
+      <c r="N49" s="8">
         <v>4014.2422900054089</v>
       </c>
-      <c r="N46" s="11">
+      <c r="O49" s="8">
         <v>622.1854161710005</v>
       </c>
-      <c r="O46" s="11">
+      <c r="P49" s="8">
         <v>8.0573326499999993</v>
       </c>
-      <c r="P46" s="15">
+      <c r="Q49" s="12">
         <v>35.484382947000007</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="R49" s="8">
         <v>0.60199296000000002</v>
       </c>
-      <c r="R46" s="13">
+      <c r="S49" s="10">
         <v>0.34447628000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="36">
-        <v>44166</v>
-      </c>
-      <c r="C47" s="37">
+    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="38">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="39">
+        <v>12</v>
+      </c>
+      <c r="D50" s="23">
         <f t="shared" si="3"/>
         <v>10425.345499100005</v>
       </c>
-      <c r="D47" s="38">
+      <c r="E50" s="24">
         <v>3898.4186785000038</v>
       </c>
-      <c r="E47" s="38">
+      <c r="F50" s="24">
         <v>4882.8448936000004</v>
       </c>
-      <c r="F47" s="39">
+      <c r="G50" s="25">
         <v>1069.05969</v>
       </c>
-      <c r="G47" s="38">
+      <c r="H50" s="24">
         <v>347.73810900000001</v>
       </c>
-      <c r="H47" s="38">
+      <c r="I50" s="24">
         <v>196.70733799999999</v>
       </c>
-      <c r="I47" s="38">
+      <c r="J50" s="24">
         <v>18.026479999999999</v>
       </c>
-      <c r="J47" s="39">
+      <c r="K50" s="25">
         <v>12.55031</v>
       </c>
-      <c r="K47" s="37">
+      <c r="L50" s="23">
         <f t="shared" si="4"/>
         <v>7413.4131095932507</v>
       </c>
-      <c r="L47" s="38">
+      <c r="M50" s="24">
         <v>2681.1217716099991</v>
       </c>
-      <c r="M47" s="38">
+      <c r="N50" s="24">
         <v>4205.8755796282521</v>
       </c>
-      <c r="N47" s="38">
+      <c r="O50" s="24">
         <v>483.91754051100008</v>
       </c>
-      <c r="O47" s="38">
+      <c r="P50" s="24">
         <v>8.2003226500000004</v>
       </c>
-      <c r="P47" s="39">
+      <c r="Q50" s="25">
         <v>32.794367653999998</v>
       </c>
-      <c r="Q47" s="38">
+      <c r="R50" s="24">
         <v>1.2866841600000001</v>
       </c>
-      <c r="R47" s="40">
+      <c r="S50" s="26">
         <v>0.21684338000000011</v>
       </c>
     </row>
-    <row r="48" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="5">
-        <v>44136</v>
-      </c>
-      <c r="C48" s="7">
+    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="34">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="35">
+        <v>11</v>
+      </c>
+      <c r="D51" s="5">
         <f t="shared" si="3"/>
         <v>10381.153690500003</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E51" s="3">
         <v>3792.1774099999998</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F51" s="3">
         <v>5016.643987500006</v>
       </c>
-      <c r="F48" s="14">
+      <c r="G51" s="11">
         <v>1022.91</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H51" s="3">
         <v>376.49241599999999</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I51" s="3">
         <v>156.720607</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J51" s="3">
         <v>6.5342300000000009</v>
       </c>
-      <c r="J48" s="14">
+      <c r="K51" s="11">
         <v>9.6750399999999974</v>
       </c>
-      <c r="K48" s="7">
+      <c r="L51" s="5">
         <f t="shared" si="4"/>
         <v>7275.2969263750037</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M51" s="3">
         <v>2575.7223572010021</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N51" s="3">
         <v>4067.0187656300018</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O51" s="3">
         <v>589.9259630600003</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P51" s="3">
         <v>7.1673460699999998</v>
       </c>
-      <c r="P48" s="14">
+      <c r="Q51" s="11">
         <v>34.542283277999999</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R51" s="3">
         <v>0.48420864000000002</v>
       </c>
-      <c r="R48" s="8">
+      <c r="S51" s="6">
         <v>0.43600249600000002</v>
       </c>
     </row>
-    <row r="49" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="6">
-        <v>44105</v>
-      </c>
-      <c r="C49" s="35">
+    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="32">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="33">
+        <v>10</v>
+      </c>
+      <c r="D52" s="22">
         <f t="shared" si="3"/>
         <v>10304.857817457816</v>
       </c>
-      <c r="D49" s="25">
+      <c r="E52" s="17">
         <v>3959.7610744999961</v>
       </c>
-      <c r="E49" s="25">
+      <c r="F52" s="17">
         <v>4749.0987938578201</v>
       </c>
-      <c r="F49" s="24">
+      <c r="G52" s="16">
         <v>1197.7530099999999</v>
       </c>
-      <c r="G49" s="25">
+      <c r="H52" s="17">
         <v>186.51679809999999</v>
       </c>
-      <c r="H49" s="25">
+      <c r="I52" s="17">
         <v>178.59754699999999</v>
       </c>
-      <c r="I49" s="25">
+      <c r="J52" s="17">
         <v>16.072800000000001</v>
       </c>
-      <c r="J49" s="24">
+      <c r="K52" s="16">
         <v>17.057794000000001</v>
       </c>
-      <c r="K49" s="35">
+      <c r="L52" s="22">
         <f t="shared" si="4"/>
         <v>7541.4980275314938</v>
       </c>
-      <c r="L49" s="25">
+      <c r="M52" s="17">
         <v>2660.8203641194968</v>
       </c>
-      <c r="M49" s="25">
+      <c r="N52" s="17">
         <v>4208.7790816289962</v>
       </c>
-      <c r="N49" s="25">
+      <c r="O52" s="17">
         <v>621.14192796600003</v>
       </c>
-      <c r="O49" s="25">
+      <c r="P52" s="17">
         <v>6.623209000000001</v>
       </c>
-      <c r="P49" s="24">
+      <c r="Q52" s="16">
         <v>35.708474217000003</v>
       </c>
-      <c r="Q49" s="25">
+      <c r="R52" s="17">
         <v>8.0218468600000001</v>
       </c>
-      <c r="R49" s="9">
+      <c r="S52" s="7">
         <v>0.40312374000000012</v>
       </c>
     </row>
-    <row r="50" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="5">
-        <v>44075</v>
-      </c>
-      <c r="C50" s="7">
+    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="34">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="35">
+        <v>9</v>
+      </c>
+      <c r="D53" s="5">
         <f t="shared" si="3"/>
         <v>10010.860705133222</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E53" s="3">
         <v>4074.659214000003</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F53" s="3">
         <v>4534.2935971332181</v>
       </c>
-      <c r="F50" s="14">
+      <c r="G53" s="11">
         <v>1007.21459</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H53" s="3">
         <v>218.893238</v>
       </c>
-      <c r="H50" s="3">
+      <c r="I53" s="3">
         <v>160.24086600000001</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J53" s="3">
         <v>0.98</v>
       </c>
-      <c r="J50" s="14">
+      <c r="K53" s="11">
         <v>14.5792</v>
       </c>
-      <c r="K50" s="7">
+      <c r="L53" s="5">
         <f t="shared" si="4"/>
         <v>6646.5983968474375</v>
       </c>
-      <c r="L50" s="3">
+      <c r="M53" s="3">
         <v>2374.907421244</v>
       </c>
-      <c r="M50" s="3">
+      <c r="N53" s="3">
         <v>3680.0897351094382</v>
       </c>
-      <c r="N50" s="3">
+      <c r="O53" s="3">
         <v>540.62561002199982</v>
       </c>
-      <c r="O50" s="3">
+      <c r="P53" s="3">
         <v>6.8062315400000006</v>
       </c>
-      <c r="P50" s="14">
+      <c r="Q53" s="11">
         <v>35.044869748000004</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="R53" s="3">
         <v>8.8324161199999995</v>
       </c>
-      <c r="R50" s="8">
+      <c r="S53" s="6">
         <v>0.29211306399999998</v>
       </c>
     </row>
-    <row r="51" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="6">
-        <v>44044</v>
-      </c>
-      <c r="C51" s="35">
+    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="32">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="33">
+        <v>8</v>
+      </c>
+      <c r="D54" s="22">
         <f t="shared" si="3"/>
         <v>10140.746236042156</v>
       </c>
-      <c r="D51" s="25">
+      <c r="E54" s="17">
         <v>3720.288184500002</v>
       </c>
-      <c r="E51" s="25">
+      <c r="F54" s="17">
         <v>4994.2514095421539</v>
       </c>
-      <c r="F51" s="24">
+      <c r="G54" s="16">
         <v>1027.58536</v>
       </c>
-      <c r="G51" s="25">
+      <c r="H54" s="17">
         <v>187.64308500000001</v>
       </c>
-      <c r="H51" s="25">
+      <c r="I54" s="17">
         <v>186.38118700000001</v>
       </c>
-      <c r="I51" s="25">
+      <c r="J54" s="17">
         <v>13.8596</v>
       </c>
-      <c r="J51" s="24">
+      <c r="K54" s="16">
         <v>10.737410000000001</v>
       </c>
-      <c r="K51" s="35">
+      <c r="L54" s="22">
         <f t="shared" si="4"/>
         <v>7312.9253518064897</v>
       </c>
-      <c r="L51" s="25">
+      <c r="M54" s="17">
         <v>2516.776008406498</v>
       </c>
-      <c r="M51" s="25">
+      <c r="N54" s="17">
         <v>4165.2929514439929</v>
       </c>
-      <c r="N51" s="25">
+      <c r="O54" s="17">
         <v>584.89580469299949</v>
       </c>
-      <c r="O51" s="25">
+      <c r="P54" s="17">
         <v>7.9409832089999988</v>
       </c>
-      <c r="P51" s="24">
+      <c r="Q54" s="16">
         <v>36.984346221000003</v>
       </c>
-      <c r="Q51" s="25">
+      <c r="R54" s="17">
         <v>0.54593274000000003</v>
       </c>
-      <c r="R51" s="9">
+      <c r="S54" s="7">
         <v>0.48932509299999999</v>
       </c>
     </row>
-    <row r="52" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C52" s="7">
+    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="34">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="35">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5">
         <f t="shared" si="3"/>
         <v>10156.497411288225</v>
       </c>
-      <c r="D52" s="3">
+      <c r="E55" s="3">
         <v>3613.696181999997</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F55" s="3">
         <v>4968.204788288228</v>
       </c>
-      <c r="F52" s="14">
+      <c r="G55" s="11">
         <v>1194.003549999999</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H55" s="3">
         <v>179.13738699999999</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I55" s="3">
         <v>177.43138400000001</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J55" s="3">
         <v>13.854179999999999</v>
       </c>
-      <c r="J52" s="14">
+      <c r="K55" s="11">
         <v>10.16994</v>
       </c>
-      <c r="K52" s="7">
+      <c r="L55" s="5">
         <f t="shared" si="4"/>
         <v>7559.4957620836176</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M55" s="3">
         <v>2454.9251451284981</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N55" s="3">
         <v>4486.1274373061196</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O55" s="3">
         <v>564.50741046500013</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P55" s="3">
         <v>10.346456243</v>
       </c>
-      <c r="P52" s="14">
+      <c r="Q55" s="11">
         <v>38.567701272999997</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R55" s="3">
         <v>4.6980338499999998</v>
       </c>
-      <c r="R52" s="8">
+      <c r="S55" s="6">
         <v>0.32357781800000007</v>
       </c>
     </row>
-    <row r="53" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="6">
-        <v>43983</v>
-      </c>
-      <c r="C53" s="35">
+    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="32">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="33">
+        <v>6</v>
+      </c>
+      <c r="D56" s="22">
         <f t="shared" si="3"/>
         <v>9413.8401068405965</v>
       </c>
-      <c r="D53" s="25">
+      <c r="E56" s="17">
         <v>3299.4981385000028</v>
       </c>
-      <c r="E53" s="25">
+      <c r="F56" s="17">
         <v>4750.320989340591</v>
       </c>
-      <c r="F53" s="24">
+      <c r="G56" s="16">
         <v>1032.4139100000009</v>
       </c>
-      <c r="G53" s="25">
+      <c r="H56" s="17">
         <v>122.951718</v>
       </c>
-      <c r="H53" s="25">
+      <c r="I56" s="17">
         <v>176.151501</v>
       </c>
-      <c r="I53" s="25">
+      <c r="J56" s="17">
         <v>19.795500000000001</v>
       </c>
-      <c r="J53" s="24">
+      <c r="K56" s="16">
         <v>12.708349999999999</v>
       </c>
-      <c r="K53" s="35">
+      <c r="L56" s="22">
         <f t="shared" si="4"/>
         <v>7572.3847293000135</v>
       </c>
-      <c r="L53" s="25">
+      <c r="M56" s="17">
         <v>2487.2945403209969</v>
       </c>
-      <c r="M53" s="25">
+      <c r="N56" s="17">
         <v>4430.0140454000166</v>
       </c>
-      <c r="N53" s="25">
+      <c r="O56" s="17">
         <v>607.02709147300016</v>
       </c>
-      <c r="O53" s="25">
+      <c r="P56" s="17">
         <v>8.3345901050000002</v>
       </c>
-      <c r="P53" s="24">
+      <c r="Q56" s="16">
         <v>35.035225039999993</v>
       </c>
-      <c r="Q53" s="25">
+      <c r="R56" s="17">
         <v>4.35235971</v>
       </c>
-      <c r="R53" s="9">
+      <c r="S56" s="7">
         <v>0.32687725099999992</v>
       </c>
     </row>
-    <row r="54" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="5">
-        <v>43952</v>
-      </c>
-      <c r="C54" s="7">
-        <f t="shared" ref="C54:C85" si="5">SUM(D54:J54)</f>
+    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="34">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="35">
+        <v>5</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" ref="D57:D85" si="5">SUM(E57:K57)</f>
         <v>8958.3282716603189</v>
       </c>
-      <c r="D54" s="3">
+      <c r="E57" s="3">
         <v>2963.8515250000032</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F57" s="3">
         <v>4578.9250176603191</v>
       </c>
-      <c r="F54" s="14">
+      <c r="G57" s="11">
         <v>1046.3265299999989</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H57" s="3">
         <v>141.62878699999999</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I57" s="3">
         <v>181.326382</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J57" s="3">
         <v>35.391770000000001</v>
       </c>
-      <c r="J54" s="14">
+      <c r="K57" s="11">
         <v>10.878259999999999</v>
       </c>
-      <c r="K54" s="7">
-        <f t="shared" ref="K54:K85" si="6">SUM(L54:R54)</f>
+      <c r="L57" s="5">
+        <f t="shared" ref="L57:L85" si="6">SUM(M57:S57)</f>
         <v>7454.4569883743907</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M57" s="3">
         <v>2252.2121829349981</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N57" s="3">
         <v>4555.9238501633918</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O57" s="3">
         <v>598.34848022000062</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P57" s="3">
         <v>8.6802298340000004</v>
       </c>
-      <c r="P54" s="14">
+      <c r="Q57" s="11">
         <v>36.737191042000013</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R57" s="3">
         <v>2.1651060200000001</v>
       </c>
-      <c r="R54" s="8">
+      <c r="S57" s="6">
         <v>0.38994815999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="6">
-        <v>43922</v>
-      </c>
-      <c r="C55" s="35">
+    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="32">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="33">
+        <v>4</v>
+      </c>
+      <c r="D58" s="22">
         <f t="shared" si="5"/>
         <v>9180.7559098961865</v>
       </c>
-      <c r="D55" s="25">
+      <c r="E58" s="17">
         <v>3045.684487</v>
       </c>
-      <c r="E55" s="25">
+      <c r="F58" s="17">
         <v>4586.6569688961881</v>
       </c>
-      <c r="F55" s="24">
+      <c r="G58" s="16">
         <v>1232.8326999999999</v>
       </c>
-      <c r="G55" s="25">
+      <c r="H58" s="17">
         <v>80.286566999999991</v>
       </c>
-      <c r="H55" s="25">
+      <c r="I58" s="17">
         <v>185.73497699999999</v>
       </c>
-      <c r="I55" s="25">
+      <c r="J58" s="17">
         <v>37.784360000000007</v>
       </c>
-      <c r="J55" s="24">
+      <c r="K58" s="16">
         <v>11.77585</v>
       </c>
-      <c r="K55" s="35">
+      <c r="L58" s="22">
         <f t="shared" si="6"/>
         <v>7455.9332633507911</v>
       </c>
-      <c r="L55" s="25">
+      <c r="M58" s="17">
         <v>2336.1774044905001</v>
       </c>
-      <c r="M55" s="25">
+      <c r="N58" s="17">
         <v>4499.0870851722912</v>
       </c>
-      <c r="N55" s="25">
+      <c r="O58" s="17">
         <v>574.36416933199996</v>
       </c>
-      <c r="O55" s="25">
+      <c r="P58" s="17">
         <v>9.2197258459999993</v>
       </c>
-      <c r="P55" s="24">
+      <c r="Q58" s="16">
         <v>33.827011099000003</v>
       </c>
-      <c r="Q55" s="25">
+      <c r="R58" s="17">
         <v>2.7609138199999999</v>
       </c>
-      <c r="R55" s="9">
+      <c r="S58" s="7">
         <v>0.49695359099999997</v>
       </c>
     </row>
-    <row r="56" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="5">
-        <v>43891</v>
-      </c>
-      <c r="C56" s="7">
+    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="34">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="35">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5">
         <f t="shared" si="5"/>
         <v>10838.533316456946</v>
       </c>
-      <c r="D56" s="3">
+      <c r="E59" s="3">
         <v>3989.0247625000002</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F59" s="3">
         <v>5227.3044649569474</v>
       </c>
-      <c r="F56" s="14">
+      <c r="G59" s="11">
         <v>1164.59097</v>
       </c>
-      <c r="G56" s="3">
+      <c r="H59" s="3">
         <v>195.326954</v>
       </c>
-      <c r="H56" s="3">
+      <c r="I59" s="3">
         <v>192.162305</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J59" s="3">
         <v>55.761529999999993</v>
       </c>
-      <c r="J56" s="14">
+      <c r="K59" s="11">
         <v>14.36233</v>
       </c>
-      <c r="K56" s="7">
+      <c r="L59" s="5">
         <f t="shared" si="6"/>
         <v>7799.3527436193035</v>
       </c>
-      <c r="L56" s="3">
+      <c r="M59" s="3">
         <v>2294.5162238704979</v>
       </c>
-      <c r="M56" s="3">
+      <c r="N59" s="3">
         <v>4842.6990967668053</v>
       </c>
-      <c r="N56" s="3">
+      <c r="O59" s="3">
         <v>615.63413392999996</v>
       </c>
-      <c r="O56" s="3">
+      <c r="P59" s="3">
         <v>8.5407225140000023</v>
       </c>
-      <c r="P56" s="14">
+      <c r="Q59" s="11">
         <v>34.95596040800001</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="R59" s="3">
         <v>2.7197566399999999</v>
       </c>
-      <c r="R56" s="8">
+      <c r="S59" s="6">
         <v>0.28684948999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="6">
-        <v>43862</v>
-      </c>
-      <c r="C57" s="35">
+    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="32">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="33">
+        <v>2</v>
+      </c>
+      <c r="D60" s="22">
         <f t="shared" si="5"/>
         <v>10299.350069510732</v>
       </c>
-      <c r="D57" s="25">
+      <c r="E60" s="17">
         <v>3823.384485499997</v>
       </c>
-      <c r="E57" s="25">
+      <c r="F60" s="17">
         <v>4951.899973010738</v>
       </c>
-      <c r="F57" s="24">
+      <c r="G60" s="16">
         <v>1126.6304699999989</v>
       </c>
-      <c r="G57" s="25">
+      <c r="H60" s="17">
         <v>155.82070999999999</v>
       </c>
-      <c r="H57" s="25">
+      <c r="I60" s="17">
         <v>189.46652100000011</v>
       </c>
-      <c r="I57" s="25">
+      <c r="J60" s="17">
         <v>42.813149999999993</v>
       </c>
-      <c r="J57" s="24">
+      <c r="K60" s="16">
         <v>9.3347600000000028</v>
       </c>
-      <c r="K57" s="35">
+      <c r="L60" s="22">
         <f t="shared" si="6"/>
         <v>8093.1738756910991</v>
       </c>
-      <c r="L57" s="25">
+      <c r="M60" s="17">
         <v>2575.3834254900021</v>
       </c>
-      <c r="M57" s="25">
+      <c r="N60" s="17">
         <v>4833.7327735580984</v>
       </c>
-      <c r="N57" s="25">
+      <c r="O60" s="17">
         <v>635.0188110539998</v>
       </c>
-      <c r="O57" s="25">
+      <c r="P60" s="17">
         <v>8.7395811469999991</v>
       </c>
-      <c r="P57" s="24">
+      <c r="Q60" s="16">
         <v>36.949788237000007</v>
       </c>
-      <c r="Q57" s="25">
+      <c r="R60" s="17">
         <v>3.0379556999999999</v>
       </c>
-      <c r="R57" s="9">
+      <c r="S60" s="7">
         <v>0.31154050500000008</v>
       </c>
     </row>
-    <row r="58" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="10">
-        <v>43831</v>
-      </c>
-      <c r="C58" s="12">
+    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="36">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="37">
+        <v>1</v>
+      </c>
+      <c r="D61" s="9">
         <f t="shared" si="5"/>
         <v>10271.035696436747</v>
       </c>
-      <c r="D58" s="11">
+      <c r="E61" s="8">
         <v>3815.537451499998</v>
       </c>
-      <c r="E58" s="11">
+      <c r="F61" s="8">
         <v>4795.4483429367501</v>
       </c>
-      <c r="F58" s="15">
+      <c r="G61" s="12">
         <v>1231.876279999999</v>
       </c>
-      <c r="G58" s="11">
+      <c r="H61" s="8">
         <v>149.16394</v>
       </c>
-      <c r="H58" s="11">
+      <c r="I61" s="8">
         <v>225.18540200000001</v>
       </c>
-      <c r="I58" s="11">
+      <c r="J61" s="8">
         <v>42.674029999999988</v>
       </c>
-      <c r="J58" s="15">
+      <c r="K61" s="12">
         <v>11.15025</v>
       </c>
-      <c r="K58" s="12">
+      <c r="L61" s="9">
         <f t="shared" si="6"/>
         <v>7726.6787146596171</v>
       </c>
-      <c r="L58" s="11">
+      <c r="M61" s="8">
         <v>2629.796765055999</v>
       </c>
-      <c r="M58" s="11">
+      <c r="N61" s="8">
         <v>4464.5122847686171</v>
       </c>
-      <c r="N58" s="11">
+      <c r="O61" s="8">
         <v>581.68120659000044</v>
       </c>
-      <c r="O58" s="11">
+      <c r="P61" s="8">
         <v>9.1290644990000001</v>
       </c>
-      <c r="P58" s="15">
+      <c r="Q61" s="12">
         <v>36.782584659999998</v>
       </c>
-      <c r="Q58" s="11">
+      <c r="R61" s="8">
         <v>4.3888587000000001</v>
       </c>
-      <c r="R58" s="13">
+      <c r="S61" s="10">
         <v>0.38795038599999998</v>
       </c>
     </row>
-    <row r="59" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="36">
-        <v>43800</v>
-      </c>
-      <c r="C59" s="37">
+    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="38">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="39">
+        <v>12</v>
+      </c>
+      <c r="D62" s="23">
         <f t="shared" si="5"/>
         <v>10047.312890842448</v>
       </c>
-      <c r="D59" s="38">
+      <c r="E62" s="24">
         <v>3660.8761419999978</v>
       </c>
-      <c r="E59" s="38">
+      <c r="F62" s="24">
         <v>4803.7000258424505</v>
       </c>
-      <c r="F59" s="39">
+      <c r="G62" s="25">
         <v>1177.5281500000008</v>
       </c>
-      <c r="G59" s="38">
+      <c r="H62" s="24">
         <v>122.89328999999999</v>
       </c>
-      <c r="H59" s="38">
+      <c r="I62" s="24">
         <v>230.92350300000001</v>
       </c>
-      <c r="I59" s="38">
+      <c r="J62" s="24">
         <v>42.637639999999998</v>
       </c>
-      <c r="J59" s="39">
+      <c r="K62" s="25">
         <v>8.7541399999999996</v>
       </c>
-      <c r="K59" s="37">
+      <c r="L62" s="23">
         <f t="shared" si="6"/>
         <v>8508.790074300683</v>
       </c>
-      <c r="L59" s="38">
+      <c r="M62" s="24">
         <v>2922.9896007830021</v>
       </c>
-      <c r="M59" s="38">
+      <c r="N62" s="24">
         <v>4940.7335945086788</v>
       </c>
-      <c r="N59" s="38">
+      <c r="O62" s="24">
         <v>590.43121132199985</v>
       </c>
-      <c r="O59" s="38">
+      <c r="P62" s="24">
         <v>9.6548794559999997</v>
       </c>
-      <c r="P59" s="39">
+      <c r="Q62" s="25">
         <v>41.925393185999987</v>
       </c>
-      <c r="Q59" s="38">
+      <c r="R62" s="24">
         <v>2.55537546</v>
       </c>
-      <c r="R59" s="40">
+      <c r="S62" s="26">
         <v>0.50001958499999988</v>
       </c>
     </row>
-    <row r="60" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="5">
-        <v>43770</v>
-      </c>
-      <c r="C60" s="7">
+    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="34">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="35">
+        <v>11</v>
+      </c>
+      <c r="D63" s="5">
         <f t="shared" si="5"/>
         <v>10280.781962591729</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E63" s="3">
         <v>3610.9266754999981</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F63" s="3">
         <v>5041.7983650917313</v>
       </c>
-      <c r="F60" s="14">
+      <c r="G63" s="11">
         <v>1236.3706200000001</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H63" s="3">
         <v>119.94541900000002</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I63" s="3">
         <v>216.296423</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J63" s="3">
         <v>44.749820000000007</v>
       </c>
-      <c r="J60" s="14">
+      <c r="K63" s="11">
         <v>10.694639999999998</v>
       </c>
-      <c r="K60" s="7">
+      <c r="L63" s="5">
         <f t="shared" si="6"/>
         <v>7831.1461965570006</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M63" s="3">
         <v>2687.4059335134998</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N63" s="3">
         <v>4476.268327207501</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O63" s="3">
         <v>612.56275004999998</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P63" s="3">
         <v>10.506913092</v>
       </c>
-      <c r="P60" s="14">
+      <c r="Q63" s="11">
         <v>37.034007258999999</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R63" s="3">
         <v>6.8037442799999992</v>
       </c>
-      <c r="R60" s="8">
+      <c r="S63" s="6">
         <v>0.56452115499999989</v>
       </c>
     </row>
-    <row r="61" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="6">
-        <v>43739</v>
-      </c>
-      <c r="C61" s="35">
+    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="32">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="33">
+        <v>10</v>
+      </c>
+      <c r="D64" s="22">
         <f t="shared" si="5"/>
         <v>10705.327866000001</v>
       </c>
-      <c r="D61" s="25">
+      <c r="E64" s="17">
         <v>3801.481272</v>
       </c>
-      <c r="E61" s="25">
+      <c r="F64" s="17">
         <v>5236.960086</v>
       </c>
-      <c r="F61" s="24">
+      <c r="G64" s="16">
         <v>1235.93461</v>
       </c>
-      <c r="G61" s="25">
+      <c r="H64" s="17">
         <v>160.86355499999999</v>
       </c>
-      <c r="H61" s="25">
+      <c r="I64" s="17">
         <v>213.47005300000001</v>
       </c>
-      <c r="I61" s="25">
+      <c r="J64" s="17">
         <v>45.65587</v>
       </c>
-      <c r="J61" s="24">
+      <c r="K64" s="16">
         <v>10.96242</v>
       </c>
-      <c r="K61" s="35">
+      <c r="L64" s="22">
         <f t="shared" si="6"/>
         <v>8142.6430797048588</v>
       </c>
-      <c r="L61" s="25">
+      <c r="M64" s="17">
         <v>2745.9354684965042</v>
       </c>
-      <c r="M61" s="25">
+      <c r="N64" s="17">
         <v>4736.7506870613533</v>
       </c>
-      <c r="N61" s="25">
+      <c r="O64" s="17">
         <v>604.7617960900003</v>
       </c>
-      <c r="O61" s="25">
+      <c r="P64" s="17">
         <v>8.8911368260000003</v>
       </c>
-      <c r="P61" s="24">
+      <c r="Q64" s="16">
         <v>41.498002944</v>
       </c>
-      <c r="Q61" s="25">
+      <c r="R64" s="17">
         <v>4.35843588</v>
       </c>
-      <c r="R61" s="9">
+      <c r="S64" s="7">
         <v>0.44755240699999999</v>
       </c>
     </row>
-    <row r="62" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="5">
-        <v>43709</v>
-      </c>
-      <c r="C62" s="7">
+    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="34">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="35">
+        <v>9</v>
+      </c>
+      <c r="D65" s="5">
         <f t="shared" si="5"/>
         <v>10313.251420927023</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E65" s="3">
         <v>3763.4243204999998</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F65" s="3">
         <v>4794.4036324270237</v>
       </c>
-      <c r="F62" s="14">
+      <c r="G65" s="11">
         <v>1259.9243900000008</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H65" s="3">
         <v>164.26299700000001</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I65" s="3">
         <v>251.636821</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J65" s="3">
         <v>66.981439999999992</v>
       </c>
-      <c r="J62" s="14">
+      <c r="K65" s="11">
         <v>12.61782</v>
       </c>
-      <c r="K62" s="7">
+      <c r="L65" s="5">
         <f t="shared" si="6"/>
         <v>6633.7415436800029</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M65" s="3">
         <v>2289.3534260344968</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N65" s="3">
         <v>3773.8464727675068</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O65" s="3">
         <v>527.36503372999948</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P65" s="3">
         <v>8.0640420000000006</v>
       </c>
-      <c r="P62" s="14">
+      <c r="Q65" s="11">
         <v>32.601814822999998</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R65" s="3">
         <v>2.3511389399999998</v>
       </c>
-      <c r="R62" s="8">
+      <c r="S65" s="6">
         <v>0.159615385</v>
       </c>
     </row>
-    <row r="63" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="6">
-        <v>43678</v>
-      </c>
-      <c r="C63" s="35">
+    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="32">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="33">
+        <v>8</v>
+      </c>
+      <c r="D66" s="22">
         <f t="shared" si="5"/>
         <v>11096.380692382061</v>
       </c>
-      <c r="D63" s="25">
+      <c r="E66" s="17">
         <v>3917.8476439999995</v>
       </c>
-      <c r="E63" s="25">
+      <c r="F66" s="17">
         <v>5305.3281943820612</v>
       </c>
-      <c r="F63" s="24">
+      <c r="G66" s="16">
         <v>1265.0673000000011</v>
       </c>
-      <c r="G63" s="25">
+      <c r="H66" s="17">
         <v>254.105448</v>
       </c>
-      <c r="H63" s="25">
+      <c r="I66" s="17">
         <v>282.87777699999998</v>
       </c>
-      <c r="I63" s="25">
+      <c r="J66" s="17">
         <v>52.912410000000001</v>
       </c>
-      <c r="J63" s="24">
+      <c r="K66" s="16">
         <v>18.241918999999999</v>
       </c>
-      <c r="K63" s="35">
+      <c r="L66" s="22">
         <f t="shared" si="6"/>
         <v>7658.9491725908874</v>
       </c>
-      <c r="L63" s="25">
+      <c r="M66" s="17">
         <v>2719.7331992549998</v>
       </c>
-      <c r="M63" s="25">
+      <c r="N66" s="17">
         <v>4347.3157786078864</v>
       </c>
-      <c r="N63" s="25">
+      <c r="O66" s="17">
         <v>544.13671407200002</v>
       </c>
-      <c r="O63" s="25">
+      <c r="P66" s="17">
         <v>7.3822649800000004</v>
       </c>
-      <c r="P63" s="24">
+      <c r="Q66" s="16">
         <v>37.287069709999997</v>
       </c>
-      <c r="Q63" s="25">
+      <c r="R66" s="17">
         <v>2.7605594199999999</v>
       </c>
-      <c r="R63" s="9">
+      <c r="S66" s="7">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="64" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="5">
-        <v>43647</v>
-      </c>
-      <c r="C64" s="7">
+    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="34">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="35">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5">
         <f t="shared" si="5"/>
         <v>11150.650438969102</v>
       </c>
-      <c r="D64" s="3">
+      <c r="E67" s="3">
         <v>3873.3662050000003</v>
       </c>
-      <c r="E64" s="3">
+      <c r="F67" s="3">
         <v>5476.5920749691022</v>
       </c>
-      <c r="F64" s="14">
+      <c r="G67" s="11">
         <v>1295.4921899999999</v>
       </c>
-      <c r="G64" s="3">
+      <c r="H67" s="3">
         <v>130.167182</v>
       </c>
-      <c r="H64" s="3">
+      <c r="I67" s="3">
         <v>270.20667400000008</v>
       </c>
-      <c r="I64" s="3">
+      <c r="J67" s="3">
         <v>95.357079999999996</v>
       </c>
-      <c r="J64" s="14">
+      <c r="K67" s="11">
         <v>9.4690329999999996</v>
       </c>
-      <c r="K64" s="7">
+      <c r="L67" s="5">
         <f t="shared" si="6"/>
         <v>7353.1727623347024</v>
       </c>
-      <c r="L64" s="3">
+      <c r="M67" s="3">
         <v>2625.9467366160002</v>
       </c>
-      <c r="M64" s="3">
+      <c r="N67" s="3">
         <v>4157.4580108327018</v>
       </c>
-      <c r="N64" s="3">
+      <c r="O67" s="3">
         <v>517.70569403000059</v>
       </c>
-      <c r="O64" s="3">
+      <c r="P67" s="3">
         <v>9.0617785400000006</v>
       </c>
-      <c r="P64" s="14">
+      <c r="Q67" s="11">
         <v>36.825079076000002</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="R67" s="3">
         <v>5.8351311600000004</v>
       </c>
-      <c r="R64" s="8">
+      <c r="S67" s="6">
         <v>0.34033207999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="6">
-        <v>43617</v>
-      </c>
-      <c r="C65" s="35">
+    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="32">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="33">
+        <v>6</v>
+      </c>
+      <c r="D68" s="22">
         <f t="shared" si="5"/>
         <v>10374.818673051463</v>
       </c>
-      <c r="D65" s="25">
+      <c r="E68" s="17">
         <v>3549.9224370000029</v>
       </c>
-      <c r="E65" s="25">
+      <c r="F68" s="17">
         <v>5071.1049410514588</v>
       </c>
-      <c r="F65" s="24">
+      <c r="G68" s="16">
         <v>1261.1353490000001</v>
       </c>
-      <c r="G65" s="25">
+      <c r="H68" s="17">
         <v>189.70297400000001</v>
       </c>
-      <c r="H65" s="25">
+      <c r="I68" s="17">
         <v>241.36934199999999</v>
       </c>
-      <c r="I65" s="25">
+      <c r="J68" s="17">
         <v>51.38608</v>
       </c>
-      <c r="J65" s="24">
+      <c r="K68" s="16">
         <v>10.197550000000003</v>
       </c>
-      <c r="K65" s="35">
+      <c r="L68" s="22">
         <f t="shared" si="6"/>
         <v>7352.5100897651027</v>
       </c>
-      <c r="L65" s="25">
+      <c r="M68" s="17">
         <v>2476.4938742799982</v>
       </c>
-      <c r="M65" s="25">
+      <c r="N68" s="17">
         <v>4312.6025955031046</v>
       </c>
-      <c r="N65" s="25">
+      <c r="O68" s="17">
         <v>515.07792600000016</v>
       </c>
-      <c r="O65" s="25">
+      <c r="P68" s="17">
         <v>11.231821312999999</v>
       </c>
-      <c r="P65" s="24">
+      <c r="Q68" s="16">
         <v>34.256908838999998</v>
       </c>
-      <c r="Q65" s="25">
+      <c r="R68" s="17">
         <v>2.6046938000000002</v>
       </c>
-      <c r="R65" s="9">
+      <c r="S68" s="7">
         <v>0.24227003</v>
       </c>
     </row>
-    <row r="66" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="5">
-        <v>43586</v>
-      </c>
-      <c r="C66" s="7">
+    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="34">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="35">
+        <v>5</v>
+      </c>
+      <c r="D69" s="5">
         <f t="shared" si="5"/>
         <v>10971.576587143792</v>
       </c>
-      <c r="D66" s="3">
+      <c r="E69" s="3">
         <v>3859.9412885000029</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F69" s="3">
         <v>5135.6499426437886</v>
       </c>
-      <c r="F66" s="14">
+      <c r="G69" s="11">
         <v>1398.7275000000011</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H69" s="3">
         <v>201.93910199999996</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I69" s="3">
         <v>308.40207399999997</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J69" s="3">
         <v>52.276800000000001</v>
       </c>
-      <c r="J66" s="14">
+      <c r="K69" s="11">
         <v>14.63988</v>
       </c>
-      <c r="K66" s="7">
+      <c r="L69" s="5">
         <f t="shared" si="6"/>
         <v>7334.9599437122397</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M69" s="3">
         <v>2713.3960539770019</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N69" s="3">
         <v>4023.2553769225378</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O69" s="3">
         <v>542.79762977000007</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P69" s="3">
         <v>7.5060893896999996</v>
       </c>
-      <c r="P66" s="14">
+      <c r="Q69" s="11">
         <v>42.505763026999993</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R69" s="3">
         <v>5.1654440799999994</v>
       </c>
-      <c r="R66" s="8">
+      <c r="S69" s="6">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="67" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="6">
-        <v>43556</v>
-      </c>
-      <c r="C67" s="35">
+    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="32">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="33">
+        <v>4</v>
+      </c>
+      <c r="D70" s="22">
         <f t="shared" si="5"/>
         <v>10534.153393500883</v>
       </c>
-      <c r="D67" s="25">
+      <c r="E70" s="17">
         <v>3675.3372790000017</v>
       </c>
-      <c r="E67" s="25">
+      <c r="F70" s="17">
         <v>5077.1043255008817</v>
       </c>
-      <c r="F67" s="24">
+      <c r="G70" s="16">
         <v>1229.5152699999999</v>
       </c>
-      <c r="G67" s="25">
+      <c r="H70" s="17">
         <v>205.91515200000003</v>
       </c>
-      <c r="H67" s="25">
+      <c r="I70" s="17">
         <v>272.06735700000002</v>
       </c>
-      <c r="I67" s="25">
+      <c r="J70" s="17">
         <v>57.111829999999998</v>
       </c>
-      <c r="J67" s="24">
+      <c r="K70" s="16">
         <v>17.102179999999997</v>
       </c>
-      <c r="K67" s="35">
+      <c r="L70" s="22">
         <f t="shared" si="6"/>
         <v>7046.4603867411315</v>
       </c>
-      <c r="L67" s="25">
+      <c r="M70" s="17">
         <v>2750.463505591501</v>
       </c>
-      <c r="M67" s="25">
+      <c r="N70" s="17">
         <v>3736.9267533866309</v>
       </c>
-      <c r="N67" s="25">
+      <c r="O70" s="17">
         <v>516.3334641199998</v>
       </c>
-      <c r="O67" s="25">
+      <c r="P70" s="17">
         <v>8.9935901099999995</v>
       </c>
-      <c r="P67" s="24">
+      <c r="Q70" s="16">
         <v>32.577175492999999</v>
       </c>
-      <c r="Q67" s="25">
+      <c r="R70" s="17">
         <v>0.73748120000000006</v>
       </c>
-      <c r="R67" s="9">
+      <c r="S70" s="7">
         <v>0.42841684000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="5">
-        <v>43525</v>
-      </c>
-      <c r="C68" s="7">
+    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="34">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="35">
+        <v>3</v>
+      </c>
+      <c r="D71" s="5">
         <f t="shared" si="5"/>
         <v>10581.052353198915</v>
       </c>
-      <c r="D68" s="3">
+      <c r="E71" s="3">
         <v>3752.7021304999998</v>
       </c>
-      <c r="E68" s="3">
+      <c r="F71" s="3">
         <v>5042.9410756989164</v>
       </c>
-      <c r="F68" s="14">
+      <c r="G71" s="11">
         <v>1226.6793299999995</v>
       </c>
-      <c r="G68" s="3">
+      <c r="H71" s="3">
         <v>227.34326400000003</v>
       </c>
-      <c r="H68" s="3">
+      <c r="I71" s="3">
         <v>273.29974500000003</v>
       </c>
-      <c r="I68" s="3">
+      <c r="J71" s="3">
         <v>46.615569999999991</v>
       </c>
-      <c r="J68" s="14">
+      <c r="K71" s="11">
         <v>11.471238</v>
       </c>
-      <c r="K68" s="7">
+      <c r="L71" s="5">
         <f t="shared" si="6"/>
         <v>7449.2591429184022</v>
       </c>
-      <c r="L68" s="3">
+      <c r="M71" s="3">
         <v>2487.3447639574988</v>
       </c>
-      <c r="M68" s="3">
+      <c r="N71" s="3">
         <v>4328.973769747904</v>
       </c>
-      <c r="N68" s="3">
+      <c r="O71" s="3">
         <v>579.49765215000036</v>
       </c>
-      <c r="O68" s="3">
+      <c r="P71" s="3">
         <v>7.4413398099999997</v>
       </c>
-      <c r="P68" s="14">
+      <c r="Q71" s="11">
         <v>39.990465413000003</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="R71" s="3">
         <v>5.7537497800000006</v>
       </c>
-      <c r="R68" s="8">
+      <c r="S71" s="6">
         <v>0.25740205999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="6">
-        <v>43497</v>
-      </c>
-      <c r="C69" s="35">
+    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="32">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="33">
+        <v>2</v>
+      </c>
+      <c r="D72" s="22">
         <f t="shared" si="5"/>
         <v>9241.6055505618933</v>
       </c>
-      <c r="D69" s="25">
+      <c r="E72" s="17">
         <v>3275.5849539999986</v>
       </c>
-      <c r="E69" s="25">
+      <c r="F72" s="17">
         <v>4370.160919561893</v>
       </c>
-      <c r="F69" s="24">
+      <c r="G72" s="16">
         <v>1126.2545300000011</v>
       </c>
-      <c r="G69" s="25">
+      <c r="H72" s="17">
         <v>152.85569699999999</v>
       </c>
-      <c r="H69" s="25">
+      <c r="I72" s="17">
         <v>259.99696999999998</v>
       </c>
-      <c r="I69" s="25">
+      <c r="J72" s="17">
         <v>46.582780000000007</v>
       </c>
-      <c r="J69" s="24">
+      <c r="K72" s="16">
         <v>10.169700000000002</v>
       </c>
-      <c r="K69" s="35">
+      <c r="L72" s="22">
         <f t="shared" si="6"/>
         <v>7380.5613200561647</v>
       </c>
-      <c r="L69" s="25">
+      <c r="M72" s="17">
         <v>2428.846732166</v>
       </c>
-      <c r="M69" s="25">
+      <c r="N72" s="17">
         <v>4258.745057885164</v>
       </c>
-      <c r="N69" s="25">
+      <c r="O72" s="17">
         <v>616.52099685999997</v>
       </c>
-      <c r="O69" s="25">
+      <c r="P72" s="17">
         <v>6.897613637000001</v>
       </c>
-      <c r="P69" s="24">
+      <c r="Q72" s="16">
         <v>46.615575728000003</v>
       </c>
-      <c r="Q69" s="25">
+      <c r="R72" s="17">
         <v>22.688503149999999</v>
       </c>
-      <c r="R69" s="9">
+      <c r="S72" s="7">
         <v>0.24684063000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="10">
-        <v>43466</v>
-      </c>
-      <c r="C70" s="12">
+    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="36">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="37">
+        <v>1</v>
+      </c>
+      <c r="D73" s="9">
         <f t="shared" si="5"/>
         <v>9892.1436970006562</v>
       </c>
-      <c r="D70" s="11">
+      <c r="E73" s="8">
         <v>3499.7139435000031</v>
       </c>
-      <c r="E70" s="11">
+      <c r="F73" s="8">
         <v>4546.0874465006518</v>
       </c>
-      <c r="F70" s="15">
+      <c r="G73" s="12">
         <v>1267.5804000000005</v>
       </c>
-      <c r="G70" s="11">
+      <c r="H73" s="8">
         <v>224.06764100000001</v>
       </c>
-      <c r="H70" s="11">
+      <c r="I73" s="8">
         <v>293.47607299999999</v>
       </c>
-      <c r="I70" s="11">
+      <c r="J73" s="8">
         <v>50.833020000000005</v>
       </c>
-      <c r="J70" s="15">
+      <c r="K73" s="12">
         <v>10.385172999999998</v>
       </c>
-      <c r="K70" s="12">
+      <c r="L73" s="9">
         <f t="shared" si="6"/>
         <v>6838.7530584626184</v>
       </c>
-      <c r="L70" s="11">
+      <c r="M73" s="8">
         <v>2178.930646833498</v>
       </c>
-      <c r="M70" s="11">
+      <c r="N73" s="8">
         <v>4081.32299100612</v>
       </c>
-      <c r="N70" s="11">
+      <c r="O73" s="8">
         <v>505.39333284999958</v>
       </c>
-      <c r="O70" s="11">
+      <c r="P73" s="8">
         <v>4.1486682360000007</v>
       </c>
-      <c r="P70" s="15">
+      <c r="Q73" s="12">
         <v>48.516144666999992</v>
       </c>
-      <c r="Q70" s="11">
+      <c r="R73" s="8">
         <v>20.1564771</v>
       </c>
-      <c r="R70" s="13">
+      <c r="S73" s="10">
         <v>0.28479777000000012</v>
       </c>
     </row>
-    <row r="71" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="36">
-        <v>43435</v>
-      </c>
-      <c r="C71" s="37">
+    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="38">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="39">
+        <v>12</v>
+      </c>
+      <c r="D74" s="23">
         <f t="shared" si="5"/>
         <v>10362</v>
       </c>
-      <c r="D71" s="38">
+      <c r="E74" s="24">
         <v>3606</v>
       </c>
-      <c r="E71" s="38">
+      <c r="F74" s="24">
         <v>4918</v>
       </c>
-      <c r="F71" s="39">
+      <c r="G74" s="25">
         <v>1307</v>
       </c>
-      <c r="G71" s="38">
+      <c r="H74" s="24">
         <v>208</v>
       </c>
-      <c r="H71" s="38">
+      <c r="I74" s="24">
         <v>280</v>
       </c>
-      <c r="I71" s="38">
+      <c r="J74" s="24">
         <v>34</v>
       </c>
-      <c r="J71" s="39">
+      <c r="K74" s="25">
         <v>9</v>
       </c>
-      <c r="K71" s="37">
+      <c r="L74" s="23">
         <f t="shared" si="6"/>
         <v>6599.7211012138414</v>
       </c>
-      <c r="L71" s="38">
+      <c r="M74" s="24">
         <v>1955.6864974084999</v>
       </c>
-      <c r="M71" s="38">
+      <c r="N74" s="24">
         <v>4070.699793715341</v>
       </c>
-      <c r="N71" s="38">
+      <c r="O74" s="24">
         <v>490.43616353999971</v>
       </c>
-      <c r="O71" s="38">
+      <c r="P74" s="24">
         <v>4.9919812889999999</v>
       </c>
-      <c r="P71" s="39">
+      <c r="Q74" s="25">
         <v>49.262628410999987</v>
       </c>
-      <c r="Q71" s="38">
+      <c r="R74" s="24">
         <v>28.479580210000002</v>
       </c>
-      <c r="R71" s="40">
+      <c r="S74" s="26">
         <v>0.16445663999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="5">
-        <v>43405</v>
-      </c>
-      <c r="C72" s="7">
+    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="34">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="35">
+        <v>11</v>
+      </c>
+      <c r="D75" s="5">
         <f t="shared" si="5"/>
         <v>10847</v>
       </c>
-      <c r="D72" s="3">
+      <c r="E75" s="3">
         <v>3612</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F75" s="3">
         <v>5385</v>
       </c>
-      <c r="F72" s="14">
+      <c r="G75" s="11">
         <v>1299</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H75" s="3">
         <v>213</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I75" s="3">
         <v>284</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J75" s="3">
         <v>38</v>
       </c>
-      <c r="J72" s="14">
+      <c r="K75" s="11">
         <v>16</v>
       </c>
-      <c r="K72" s="7">
+      <c r="L75" s="5">
         <f t="shared" si="6"/>
         <v>6563.6809044984548</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M75" s="3">
         <v>2092.363650120501</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N75" s="3">
         <v>3810.8671320719541</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O75" s="3">
         <v>576.76851579999936</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P75" s="3">
         <v>2.1857480950000001</v>
       </c>
-      <c r="P72" s="14">
+      <c r="Q75" s="11">
         <v>48.091960541000013</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R75" s="3">
         <v>33.146718739999997</v>
       </c>
-      <c r="R72" s="8">
+      <c r="S75" s="6">
         <v>0.25717912999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="6">
-        <v>43374</v>
-      </c>
-      <c r="C73" s="35">
+    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="32">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="33">
+        <v>10</v>
+      </c>
+      <c r="D76" s="22">
         <f t="shared" si="5"/>
         <v>10926</v>
       </c>
-      <c r="D73" s="25">
+      <c r="E76" s="17">
         <v>3805</v>
       </c>
-      <c r="E73" s="25">
+      <c r="F76" s="17">
         <v>5324</v>
       </c>
-      <c r="F73" s="24">
+      <c r="G76" s="16">
         <v>1340</v>
       </c>
-      <c r="G73" s="25">
+      <c r="H76" s="17">
         <v>137</v>
       </c>
-      <c r="H73" s="25">
+      <c r="I76" s="17">
         <v>273</v>
       </c>
-      <c r="I73" s="25">
+      <c r="J76" s="17">
         <v>27</v>
       </c>
-      <c r="J73" s="24">
+      <c r="K76" s="16">
         <v>20</v>
       </c>
-      <c r="K73" s="35">
+      <c r="L76" s="22">
         <f t="shared" si="6"/>
         <v>7720.3875207885012</v>
       </c>
-      <c r="L73" s="25">
+      <c r="M76" s="17">
         <v>2719.9630072755008</v>
       </c>
-      <c r="M73" s="25">
+      <c r="N76" s="17">
         <v>4308.5178526390009</v>
       </c>
-      <c r="N73" s="25">
+      <c r="O76" s="17">
         <v>550.02743308999959</v>
       </c>
-      <c r="O73" s="25">
+      <c r="P76" s="17">
         <v>7.8376115140000007</v>
       </c>
-      <c r="P73" s="24">
+      <c r="Q76" s="16">
         <v>49.157905969999987</v>
       </c>
-      <c r="Q73" s="25">
+      <c r="R76" s="17">
         <v>84.630515320000001</v>
       </c>
-      <c r="R73" s="9">
+      <c r="S76" s="7">
         <v>0.25319498000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="5">
-        <v>43344</v>
-      </c>
-      <c r="C74" s="7">
+    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="34">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="35">
+        <v>9</v>
+      </c>
+      <c r="D77" s="5">
         <f t="shared" si="5"/>
         <v>10257</v>
       </c>
-      <c r="D74" s="3">
+      <c r="E77" s="3">
         <v>3485</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F77" s="3">
         <v>4900</v>
       </c>
-      <c r="F74" s="14">
+      <c r="G77" s="11">
         <v>1349</v>
       </c>
-      <c r="G74" s="3">
+      <c r="H77" s="3">
         <v>208</v>
       </c>
-      <c r="H74" s="3">
+      <c r="I77" s="3">
         <v>260</v>
       </c>
-      <c r="I74" s="3">
+      <c r="J77" s="3">
         <v>42</v>
       </c>
-      <c r="J74" s="14">
+      <c r="K77" s="11">
         <v>13</v>
       </c>
-      <c r="K74" s="7">
+      <c r="L77" s="5">
         <f t="shared" si="6"/>
         <v>7398.4236104454985</v>
       </c>
-      <c r="L74" s="3">
+      <c r="M77" s="3">
         <v>2611.3807745675008</v>
       </c>
-      <c r="M74" s="3">
+      <c r="N77" s="3">
         <v>4099.994935206998</v>
       </c>
-      <c r="N74" s="3">
+      <c r="O77" s="3">
         <v>576.65962569999999</v>
       </c>
-      <c r="O74" s="3">
+      <c r="P77" s="3">
         <v>5.8101744709999998</v>
       </c>
-      <c r="P74" s="14">
+      <c r="Q77" s="11">
         <v>48.975136419999998</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="R77" s="3">
         <v>55.332080869999999</v>
       </c>
-      <c r="R74" s="8">
+      <c r="S77" s="6">
         <v>0.2708832100000001</v>
       </c>
     </row>
-    <row r="75" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="6">
-        <v>43313</v>
-      </c>
-      <c r="C75" s="35">
+    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="32">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="33">
+        <v>8</v>
+      </c>
+      <c r="D78" s="22">
         <f t="shared" si="5"/>
         <v>10917</v>
       </c>
-      <c r="D75" s="25">
+      <c r="E78" s="17">
         <v>3674</v>
       </c>
-      <c r="E75" s="25">
+      <c r="F78" s="17">
         <v>5279</v>
       </c>
-      <c r="F75" s="24">
+      <c r="G78" s="16">
         <v>1420</v>
       </c>
-      <c r="G75" s="25">
+      <c r="H78" s="17">
         <v>210</v>
       </c>
-      <c r="H75" s="25">
+      <c r="I78" s="17">
         <v>270</v>
       </c>
-      <c r="I75" s="25">
+      <c r="J78" s="17">
         <v>45</v>
       </c>
-      <c r="J75" s="24">
+      <c r="K78" s="16">
         <v>19</v>
       </c>
-      <c r="K75" s="35">
+      <c r="L78" s="22">
         <f t="shared" si="6"/>
         <v>7185.7383871704087</v>
       </c>
-      <c r="L75" s="25">
+      <c r="M78" s="17">
         <v>2557.950665571791</v>
       </c>
-      <c r="M75" s="25">
+      <c r="N78" s="17">
         <v>3902.6936190776169</v>
       </c>
-      <c r="N75" s="25">
+      <c r="O78" s="17">
         <v>613.68125601999952</v>
       </c>
-      <c r="O75" s="25">
+      <c r="P78" s="17">
         <v>5.5450976610000007</v>
       </c>
-      <c r="P75" s="24">
+      <c r="Q78" s="16">
         <v>54.17302995</v>
       </c>
-      <c r="Q75" s="25">
+      <c r="R78" s="17">
         <v>51.401263659999998</v>
       </c>
-      <c r="R75" s="9">
+      <c r="S78" s="7">
         <v>0.29345523000000012</v>
       </c>
     </row>
-    <row r="76" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="5">
-        <v>43282</v>
-      </c>
-      <c r="C76" s="7">
+    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="34">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="35">
+        <v>7</v>
+      </c>
+      <c r="D79" s="5">
         <f t="shared" si="5"/>
         <v>11147</v>
       </c>
-      <c r="D76" s="3">
+      <c r="E79" s="3">
         <v>3756</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F79" s="3">
         <v>5273</v>
       </c>
-      <c r="F76" s="14">
+      <c r="G79" s="11">
         <v>1541</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H79" s="3">
         <v>217</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I79" s="3">
         <v>308</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J79" s="3">
         <v>42</v>
       </c>
-      <c r="J76" s="14">
+      <c r="K79" s="11">
         <v>10</v>
       </c>
-      <c r="K76" s="7">
+      <c r="L79" s="5">
         <f t="shared" si="6"/>
         <v>7283.4758425855061</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M79" s="3">
         <v>2545.6933826471468</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N79" s="3">
         <v>4050.2897667273596</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O79" s="3">
         <v>573.5496261799999</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P79" s="3">
         <v>4.2298997729999996</v>
       </c>
-      <c r="P76" s="14">
+      <c r="Q79" s="11">
         <v>56.884561087999998</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R79" s="3">
         <v>52.609621790000006</v>
       </c>
-      <c r="R76" s="8">
+      <c r="S79" s="6">
         <v>0.21898438000000003</v>
       </c>
     </row>
-    <row r="77" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="6">
-        <v>43252</v>
-      </c>
-      <c r="C77" s="35">
+    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="32">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="33">
+        <v>6</v>
+      </c>
+      <c r="D80" s="22">
         <f t="shared" si="5"/>
         <v>10948</v>
       </c>
-      <c r="D77" s="25">
+      <c r="E80" s="17">
         <v>3657</v>
       </c>
-      <c r="E77" s="25">
+      <c r="F80" s="17">
         <v>5338</v>
       </c>
-      <c r="F77" s="24">
+      <c r="G80" s="16">
         <v>1355</v>
       </c>
-      <c r="G77" s="25">
+      <c r="H80" s="17">
         <v>247</v>
       </c>
-      <c r="H77" s="25">
+      <c r="I80" s="17">
         <v>283</v>
       </c>
-      <c r="I77" s="25">
+      <c r="J80" s="17">
         <v>56</v>
       </c>
-      <c r="J77" s="24">
+      <c r="K80" s="16">
         <v>12</v>
       </c>
-      <c r="K77" s="35">
+      <c r="L80" s="22">
         <f t="shared" si="6"/>
         <v>7555.8940235339123</v>
       </c>
-      <c r="L77" s="25">
+      <c r="M80" s="17">
         <v>2480.4706212095998</v>
       </c>
-      <c r="M77" s="25">
+      <c r="N80" s="17">
         <v>4344.3803465193132</v>
       </c>
-      <c r="N77" s="25">
+      <c r="O80" s="17">
         <v>612.67386856000019</v>
       </c>
-      <c r="O77" s="25">
+      <c r="P80" s="17">
         <v>4.0122463450000003</v>
       </c>
-      <c r="P77" s="24">
+      <c r="Q80" s="16">
         <v>58.796987859999994</v>
       </c>
-      <c r="Q77" s="25">
+      <c r="R80" s="17">
         <v>55.348814779999998</v>
       </c>
-      <c r="R77" s="9">
+      <c r="S80" s="7">
         <v>0.21113825999999997</v>
       </c>
     </row>
-    <row r="78" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="5">
-        <v>43221</v>
-      </c>
-      <c r="C78" s="7">
+    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="34">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="35">
+        <v>5</v>
+      </c>
+      <c r="D81" s="5">
         <f t="shared" si="5"/>
         <v>11358</v>
       </c>
-      <c r="D78" s="3">
+      <c r="E81" s="3">
         <v>3901</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F81" s="3">
         <v>5805</v>
       </c>
-      <c r="F78" s="14">
+      <c r="G81" s="11">
         <v>1068</v>
       </c>
-      <c r="G78" s="3">
+      <c r="H81" s="3">
         <v>198</v>
       </c>
-      <c r="H78" s="3">
+      <c r="I81" s="3">
         <v>302</v>
       </c>
-      <c r="I78" s="3">
+      <c r="J81" s="3">
         <v>64</v>
       </c>
-      <c r="J78" s="14">
+      <c r="K81" s="11">
         <v>20</v>
       </c>
-      <c r="K78" s="7">
+      <c r="L81" s="5">
         <f t="shared" si="6"/>
         <v>7564.1221808391301</v>
       </c>
-      <c r="L78" s="3">
+      <c r="M81" s="3">
         <v>2532.7762513215766</v>
       </c>
-      <c r="M78" s="3">
+      <c r="N81" s="3">
         <v>4297.3858559405544</v>
       </c>
-      <c r="N78" s="3">
+      <c r="O81" s="3">
         <v>606.66118932999996</v>
       </c>
-      <c r="O78" s="3">
+      <c r="P81" s="3">
         <v>5.7111421819999997</v>
       </c>
-      <c r="P78" s="14">
+      <c r="Q81" s="11">
         <v>64.496729185000007</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="R81" s="3">
         <v>56.887522270000005</v>
       </c>
-      <c r="R78" s="8">
+      <c r="S81" s="6">
         <v>0.20349060999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="6">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="35">
+    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="32">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="33">
+        <v>4</v>
+      </c>
+      <c r="D82" s="22">
         <f t="shared" si="5"/>
         <v>10769</v>
       </c>
-      <c r="D79" s="25">
+      <c r="E82" s="17">
         <v>3736</v>
       </c>
-      <c r="E79" s="25">
+      <c r="F82" s="17">
         <v>5158</v>
       </c>
-      <c r="F79" s="24">
+      <c r="G82" s="16">
         <v>1304</v>
       </c>
-      <c r="G79" s="25">
+      <c r="H82" s="17">
         <v>210</v>
       </c>
-      <c r="H79" s="25">
+      <c r="I82" s="17">
         <v>309</v>
       </c>
-      <c r="I79" s="25">
+      <c r="J82" s="17">
         <v>38</v>
       </c>
-      <c r="J79" s="24">
+      <c r="K82" s="16">
         <v>14</v>
       </c>
-      <c r="K79" s="35">
+      <c r="L82" s="22">
         <f t="shared" si="6"/>
         <v>7368.223949700222</v>
       </c>
-      <c r="L79" s="25">
+      <c r="M82" s="17">
         <v>2492.5831110034319</v>
       </c>
-      <c r="M79" s="25">
+      <c r="N82" s="17">
         <v>4168.1941198527893</v>
       </c>
-      <c r="N79" s="25">
+      <c r="O82" s="17">
         <v>564.70797957000025</v>
       </c>
-      <c r="O79" s="25">
+      <c r="P82" s="17">
         <v>6.7826120650000004</v>
       </c>
-      <c r="P79" s="24">
+      <c r="Q82" s="16">
         <v>68.621584789000011</v>
       </c>
-      <c r="Q79" s="25">
+      <c r="R82" s="17">
         <v>67.080573079999994</v>
       </c>
-      <c r="R79" s="9">
+      <c r="S82" s="7">
         <v>0.25396934000000004</v>
       </c>
     </row>
-    <row r="80" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="5">
-        <v>43160</v>
-      </c>
-      <c r="C80" s="7">
+    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="34">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="35">
+        <v>3</v>
+      </c>
+      <c r="D83" s="5">
         <f t="shared" si="5"/>
         <v>10595</v>
       </c>
-      <c r="D80" s="3">
+      <c r="E83" s="3">
         <v>3510</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F83" s="3">
         <v>5158</v>
       </c>
-      <c r="F80" s="14">
+      <c r="G83" s="11">
         <v>1332</v>
       </c>
-      <c r="G80" s="3">
+      <c r="H83" s="3">
         <v>223</v>
       </c>
-      <c r="H80" s="3">
+      <c r="I83" s="3">
         <v>307</v>
       </c>
-      <c r="I80" s="3">
+      <c r="J83" s="3">
         <v>50</v>
       </c>
-      <c r="J80" s="14">
+      <c r="K83" s="11">
         <v>15</v>
       </c>
-      <c r="K80" s="7">
+      <c r="L83" s="5">
         <f t="shared" si="6"/>
         <v>7875.1347427823239</v>
       </c>
-      <c r="L80" s="3">
+      <c r="M83" s="3">
         <v>2623.4929048545905</v>
       </c>
-      <c r="M80" s="3">
+      <c r="N83" s="3">
         <v>4528.0558628127355</v>
       </c>
-      <c r="N80" s="3">
+      <c r="O83" s="3">
         <v>599.40095962999965</v>
       </c>
-      <c r="O80" s="3">
+      <c r="P83" s="3">
         <v>7.1929457959999992</v>
       </c>
-      <c r="P80" s="14">
+      <c r="Q83" s="11">
         <v>67.383048192999993</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="R83" s="3">
         <v>49.255862180000001</v>
       </c>
-      <c r="R80" s="8">
+      <c r="S83" s="6">
         <v>0.353159316</v>
       </c>
     </row>
-    <row r="81" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="6">
-        <v>43132</v>
-      </c>
-      <c r="C81" s="35">
+    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="32">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="33">
+        <v>2</v>
+      </c>
+      <c r="D84" s="22">
         <f t="shared" si="5"/>
         <v>9439</v>
       </c>
-      <c r="D81" s="25">
+      <c r="E84" s="17">
         <v>3213</v>
       </c>
-      <c r="E81" s="25">
+      <c r="F84" s="17">
         <v>4478</v>
       </c>
-      <c r="F81" s="24">
+      <c r="G84" s="16">
         <v>1214</v>
       </c>
-      <c r="G81" s="25">
+      <c r="H84" s="17">
         <v>203</v>
       </c>
-      <c r="H81" s="25">
+      <c r="I84" s="17">
         <v>273</v>
       </c>
-      <c r="I81" s="25">
+      <c r="J84" s="17">
         <v>50</v>
       </c>
-      <c r="J81" s="24">
+      <c r="K84" s="16">
         <v>8</v>
       </c>
-      <c r="K81" s="35">
+      <c r="L84" s="22">
         <f t="shared" si="6"/>
         <v>8143.3902304466164</v>
       </c>
-      <c r="L81" s="25">
+      <c r="M84" s="17">
         <v>2699.0426404251648</v>
       </c>
-      <c r="M81" s="25">
+      <c r="N84" s="17">
         <v>4690.7340326165104</v>
       </c>
-      <c r="N81" s="25">
+      <c r="O84" s="17">
         <v>626.75042356999995</v>
       </c>
-      <c r="O81" s="25">
+      <c r="P84" s="17">
         <v>4.2158850049414749</v>
       </c>
-      <c r="P81" s="24">
+      <c r="Q84" s="16">
         <v>69.891604407999992</v>
       </c>
-      <c r="Q81" s="25">
+      <c r="R84" s="17">
         <v>52.570641740000006</v>
       </c>
-      <c r="R81" s="9">
+      <c r="S84" s="7">
         <v>0.18500268199999997</v>
       </c>
     </row>
-    <row r="82" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="10">
-        <v>43101</v>
-      </c>
-      <c r="C82" s="12">
+    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="36">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="37">
+        <v>1</v>
+      </c>
+      <c r="D85" s="9">
         <f t="shared" si="5"/>
         <v>10479</v>
       </c>
-      <c r="D82" s="11">
+      <c r="E85" s="8">
         <v>3653</v>
       </c>
-      <c r="E82" s="11">
+      <c r="F85" s="8">
         <v>4773</v>
       </c>
-      <c r="F82" s="15">
+      <c r="G85" s="12">
         <v>1398</v>
       </c>
-      <c r="G82" s="11">
+      <c r="H85" s="8">
         <v>287</v>
       </c>
-      <c r="H82" s="11">
+      <c r="I85" s="8">
         <v>312</v>
       </c>
-      <c r="I82" s="11">
+      <c r="J85" s="8">
         <v>47</v>
       </c>
-      <c r="J82" s="15">
+      <c r="K85" s="12">
         <v>9</v>
       </c>
-      <c r="K82" s="12">
+      <c r="L85" s="9">
         <f t="shared" si="6"/>
         <v>7532.8116285687038</v>
       </c>
-      <c r="L82" s="11">
+      <c r="M85" s="8">
         <v>2498.5873912253655</v>
       </c>
-      <c r="M82" s="11">
+      <c r="N85" s="8">
         <v>4294.5408771924649</v>
       </c>
-      <c r="N82" s="11">
+      <c r="O85" s="8">
         <v>618.46245641899986</v>
       </c>
-      <c r="O82" s="11">
+      <c r="P85" s="8">
         <v>7.1837945668734235</v>
       </c>
-      <c r="P82" s="15">
+      <c r="Q85" s="12">
         <v>67.283344745000008</v>
       </c>
-      <c r="Q82" s="11">
+      <c r="R85" s="8">
         <v>46.514204849999999</v>
       </c>
-      <c r="R82" s="13">
+      <c r="S85" s="10">
         <v>0.23955957</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>2</v>
-      </c>
-      <c r="R83" s="2" t="s">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B86" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="R84" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="S87" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="D4:K4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AC3105-0CD1-4307-BF68-D2CDBA875DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F24A8F-DF23-4904-A3A3-E88F3C8B2A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_24" sheetId="1" r:id="rId1"/>
@@ -401,15 +401,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -437,38 +428,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -575,11 +549,30 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -589,6 +582,13 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S85" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S85" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="B5:S85" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
     <filterColumn colId="0">
       <filters>
@@ -650,26 +650,26 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{6FD22A4F-E740-4D66-9D13-2F083528EE3B}" name="Año" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{C22B88A7-6974-477E-9A13-EA43B2F14D30}" name="Mes" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{69D9BB11-29FE-4B97-8E28-78097BBD44F3}" name="Total" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{6FD22A4F-E740-4D66-9D13-2F083528EE3B}" name="Año" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{C22B88A7-6974-477E-9A13-EA43B2F14D30}" name="Mes" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{69D9BB11-29FE-4B97-8E28-78097BBD44F3}" name="Total" dataDxfId="15">
       <calculatedColumnFormula>SUM(E6:K6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A58B0BC4-DC40-4D6C-BF11-2B80C64AB947}" name="Kansas City Southern de México" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{38471942-D269-431A-8781-5F17763E42C2}" name="Ferrocarril Mexicano " dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{8D17F24F-3D96-4A78-BC0B-21740E97571C}" name="FERROSUR " dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{885F419C-86B5-48E0-8193-3BB946AC889A}" name="Ferrocarril y Terminal del Valle de México" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{0BBFB8A6-99E0-41E4-AE1D-69E141B15BF9}" name="Línea Coahuila Durango " dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{DE2FB221-E56C-41CE-8B60-FAAACAC84270}" name="Ferrocarril del Istmo de Tehuantepec" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{B3135452-3A6A-430F-8173-FD4D293C0D06}" name="Admin. Vía Corta Tijuana-Tecate" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{EDD4AEAE-3EF5-467D-9500-C43D2DEA67E8}" name="Total " dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{F8E65A35-CFAA-433E-880E-0745A06312F8}" name="Kansas City Southern de México " dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{99C74970-B9CC-4766-B50D-1B06C0B447E5}" name="Ferrocarril Mexicano" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{58125A09-AE0F-47B3-9199-6AD61950403F}" name="FERROSUR" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{5B02396F-D9E0-47F6-9A50-FFB572DE1C71}" name="Ferrocarril y Terminal del Valle de México " dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{EB76073F-0B65-479D-80CD-C7D064A173AA}" name="Línea Coahuila Durango" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{5FA538C5-3664-4FF5-8ECE-3030AC5A6BB2}" name="Ferrocarril del Istmo de Tehuantepec " dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{67681C8F-1F80-4560-B134-3F8A2B9DD5F3}" name="Admin. Vía Corta Tijuana-Tecate " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A58B0BC4-DC40-4D6C-BF11-2B80C64AB947}" name="Kansas City Southern de México" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{38471942-D269-431A-8781-5F17763E42C2}" name="Ferrocarril Mexicano " dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{8D17F24F-3D96-4A78-BC0B-21740E97571C}" name="FERROSUR " dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{885F419C-86B5-48E0-8193-3BB946AC889A}" name="Ferrocarril y Terminal del Valle de México" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{0BBFB8A6-99E0-41E4-AE1D-69E141B15BF9}" name="Línea Coahuila Durango " dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{DE2FB221-E56C-41CE-8B60-FAAACAC84270}" name="Ferrocarril del Istmo de Tehuantepec" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{B3135452-3A6A-430F-8173-FD4D293C0D06}" name="Admin. Vía Corta Tijuana-Tecate" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{EDD4AEAE-3EF5-467D-9500-C43D2DEA67E8}" name="Total " dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{F8E65A35-CFAA-433E-880E-0745A06312F8}" name="Kansas City Southern de México " dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{99C74970-B9CC-4766-B50D-1B06C0B447E5}" name="Ferrocarril Mexicano" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{58125A09-AE0F-47B3-9199-6AD61950403F}" name="FERROSUR" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{5B02396F-D9E0-47F6-9A50-FFB572DE1C71}" name="Ferrocarril y Terminal del Valle de México " dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{EB76073F-0B65-479D-80CD-C7D064A173AA}" name="Línea Coahuila Durango" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{5FA538C5-3664-4FF5-8ECE-3030AC5A6BB2}" name="Ferrocarril del Istmo de Tehuantepec " dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{67681C8F-1F80-4560-B134-3F8A2B9DD5F3}" name="Admin. Vía Corta Tijuana-Tecate " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -944,26 +944,26 @@
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="28" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="39"/>
     </row>
     <row r="5" spans="2:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
@@ -1022,10 +1022,10 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="32">
+      <c r="B6" s="29">
         <v>2024</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <v>8</v>
       </c>
       <c r="D6" s="22">
@@ -1080,10 +1080,10 @@
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="34">
+      <c r="B7" s="31">
         <v>2024</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>7</v>
       </c>
       <c r="D7" s="5">
@@ -1138,10 +1138,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="32">
+      <c r="B8" s="29">
         <v>2024</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="30">
         <v>6</v>
       </c>
       <c r="D8" s="22">
@@ -1196,10 +1196,10 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="34">
+      <c r="B9" s="31">
         <v>2024</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="32">
         <v>5</v>
       </c>
       <c r="D9" s="5">
@@ -1254,10 +1254,10 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="32">
+      <c r="B10" s="29">
         <v>2024</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="30">
         <v>4</v>
       </c>
       <c r="D10" s="22">
@@ -1312,10 +1312,10 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="34">
+      <c r="B11" s="31">
         <v>2024</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="32">
         <v>3</v>
       </c>
       <c r="D11" s="5">
@@ -1370,10 +1370,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="32">
+      <c r="B12" s="29">
         <v>2024</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="30">
         <v>2</v>
       </c>
       <c r="D12" s="22">
@@ -1428,10 +1428,10 @@
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="36">
+      <c r="B13" s="33">
         <v>2024</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="34">
         <v>1</v>
       </c>
       <c r="D13" s="9">
@@ -1486,10 +1486,10 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="38">
+      <c r="B14" s="35">
         <v>2023</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="36">
         <v>12</v>
       </c>
       <c r="D14" s="23">
@@ -1544,10 +1544,10 @@
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="34">
+      <c r="B15" s="31">
         <v>2023</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="32">
         <v>11</v>
       </c>
       <c r="D15" s="5">
@@ -1602,10 +1602,10 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="32">
+      <c r="B16" s="29">
         <v>2023</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="30">
         <v>10</v>
       </c>
       <c r="D16" s="22">
@@ -1660,10 +1660,10 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="34">
+      <c r="B17" s="31">
         <v>2023</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="32">
         <v>9</v>
       </c>
       <c r="D17" s="5">
@@ -1718,10 +1718,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="32">
+      <c r="B18" s="29">
         <v>2023</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <v>8</v>
       </c>
       <c r="D18" s="22">
@@ -1776,10 +1776,10 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="34">
+      <c r="B19" s="31">
         <v>2023</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="32">
         <v>7</v>
       </c>
       <c r="D19" s="5">
@@ -1834,10 +1834,10 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B20" s="32">
+      <c r="B20" s="29">
         <v>2023</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="30">
         <v>6</v>
       </c>
       <c r="D20" s="22">
@@ -1892,10 +1892,10 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B21" s="34">
+      <c r="B21" s="31">
         <v>2023</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="32">
         <v>5</v>
       </c>
       <c r="D21" s="5">
@@ -1950,10 +1950,10 @@
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="32">
+      <c r="B22" s="29">
         <v>2023</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="30">
         <v>4</v>
       </c>
       <c r="D22" s="22">
@@ -2008,10 +2008,10 @@
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="34">
+      <c r="B23" s="31">
         <v>2023</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="32">
         <v>3</v>
       </c>
       <c r="D23" s="5">
@@ -2066,10 +2066,10 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B24" s="32">
+      <c r="B24" s="29">
         <v>2023</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="30">
         <v>2</v>
       </c>
       <c r="D24" s="22">
@@ -2124,10 +2124,10 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B25" s="36">
+      <c r="B25" s="33">
         <v>2023</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="34">
         <v>1</v>
       </c>
       <c r="D25" s="9">
@@ -2182,10 +2182,10 @@
       </c>
     </row>
     <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="38">
+      <c r="B26" s="35">
         <v>2022</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="36">
         <v>12</v>
       </c>
       <c r="D26" s="23">
@@ -2215,35 +2215,35 @@
       </c>
       <c r="L26" s="23">
         <f t="shared" si="4"/>
-        <v>8010.7375229999998</v>
+        <v>7201.2110358610043</v>
       </c>
       <c r="M26" s="24">
-        <v>2674.0050620000002</v>
+        <v>2606.642718893002</v>
       </c>
       <c r="N26" s="24">
-        <v>4545.2049290000004</v>
+        <v>3840.3302240870012</v>
       </c>
       <c r="O26" s="24">
-        <v>749.43216500000005</v>
+        <v>714.07136763500023</v>
       </c>
       <c r="P26" s="24">
-        <v>9.3834619999999997</v>
+        <v>8.1353823930000004</v>
       </c>
       <c r="Q26" s="25">
-        <v>27.699843999999999</v>
+        <v>29.287128408000001</v>
       </c>
       <c r="R26" s="24">
-        <v>4.5218790000000002</v>
+        <v>2.5732544800000001</v>
       </c>
       <c r="S26" s="26">
-        <v>0.49018200000000001</v>
+        <v>0.17095996499999999</v>
       </c>
     </row>
     <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34">
+      <c r="B27" s="31">
         <v>2022</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="32">
         <v>11</v>
       </c>
       <c r="D27" s="5">
@@ -2273,35 +2273,35 @@
       </c>
       <c r="L27" s="5">
         <f t="shared" si="4"/>
-        <v>8190.6107430000002</v>
+        <v>7310.8355932755139</v>
       </c>
       <c r="M27" s="3">
-        <v>2859.8718090000002</v>
+        <v>2729.828865026504</v>
       </c>
       <c r="N27" s="3">
-        <v>4557.1561849999998</v>
+        <v>3871.547411277008</v>
       </c>
       <c r="O27" s="3">
-        <v>740.54377399999998</v>
+        <v>666.57566130000077</v>
       </c>
       <c r="P27" s="3">
-        <v>3.9488479999999999</v>
+        <v>8.3173960500000028</v>
       </c>
       <c r="Q27" s="11">
-        <v>27.069296000000001</v>
+        <v>33.740727692</v>
       </c>
       <c r="R27" s="3">
-        <v>1.465068</v>
+        <v>0.53808</v>
       </c>
       <c r="S27" s="6">
-        <v>0.55576300000000001</v>
+        <v>0.28745193000000002</v>
       </c>
     </row>
     <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="32">
+      <c r="B28" s="29">
         <v>2022</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="30">
         <v>10</v>
       </c>
       <c r="D28" s="22">
@@ -2331,35 +2331,35 @@
       </c>
       <c r="L28" s="22">
         <f t="shared" si="4"/>
-        <v>8839.7330359999996</v>
+        <v>7111.4425296700092</v>
       </c>
       <c r="M28" s="17">
-        <v>2957.5938150000002</v>
+        <v>2632.704658141005</v>
       </c>
       <c r="N28" s="17">
-        <v>5127.0620630000003</v>
+        <v>3750.413545484003</v>
       </c>
       <c r="O28" s="17">
-        <v>721.55657799999994</v>
+        <v>687.66725051200081</v>
       </c>
       <c r="P28" s="17">
-        <v>3.9488479999999999</v>
+        <v>5.8990287250000009</v>
       </c>
       <c r="Q28" s="16">
-        <v>26.56606</v>
+        <v>34.461750987999999</v>
       </c>
       <c r="R28" s="17">
-        <v>2.5492699999999999</v>
+        <v>0.12333404000000001</v>
       </c>
       <c r="S28" s="7">
-        <v>0.45640199999999997</v>
+        <v>0.17296178000000001</v>
       </c>
     </row>
     <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34">
+      <c r="B29" s="31">
         <v>2022</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="32">
         <v>9</v>
       </c>
       <c r="D29" s="5">
@@ -2389,35 +2389,35 @@
       </c>
       <c r="L29" s="5">
         <f t="shared" si="4"/>
-        <v>8187.4507680000006</v>
+        <v>7332.3824997811334</v>
       </c>
       <c r="M29" s="3">
-        <v>2792.3728390000001</v>
+        <v>2596.0057846039958</v>
       </c>
       <c r="N29" s="3">
-        <v>4673.1630869999999</v>
+        <v>4043.7739947451369</v>
       </c>
       <c r="O29" s="3">
-        <v>679.80545600000005</v>
+        <v>650.93120328700036</v>
       </c>
       <c r="P29" s="3">
-        <v>8.3948649999999994</v>
+        <v>8.6389721339999994</v>
       </c>
       <c r="Q29" s="11">
-        <v>26.664881000000001</v>
+        <v>32.781240101000002</v>
       </c>
       <c r="R29" s="3">
-        <v>6.8661019999999997</v>
+        <v>7.0588400000000003E-3</v>
       </c>
       <c r="S29" s="6">
-        <v>0.18353800000000001</v>
+        <v>0.24424607000000009</v>
       </c>
     </row>
     <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="32">
+      <c r="B30" s="29">
         <v>2022</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="30">
         <v>8</v>
       </c>
       <c r="D30" s="22">
@@ -2447,35 +2447,35 @@
       </c>
       <c r="L30" s="22">
         <f t="shared" si="4"/>
-        <v>8342.0510054124934</v>
+        <v>7307.3132174754001</v>
       </c>
       <c r="M30" s="17">
-        <v>2834.6025592114943</v>
+        <v>2663.245486356001</v>
       </c>
       <c r="N30" s="17">
-        <v>4774.6108969999996</v>
+        <v>3914.0197377269992</v>
       </c>
       <c r="O30" s="17">
-        <v>698.27653098200028</v>
+        <v>681.13219543499997</v>
       </c>
       <c r="P30" s="17">
-        <v>3.7847089999999994</v>
+        <v>9.831694658</v>
       </c>
       <c r="Q30" s="16">
-        <v>28.277445269000239</v>
+        <v>36.570021361999977</v>
       </c>
       <c r="R30" s="17">
-        <v>2.0259563599999999</v>
+        <v>2.1579242694</v>
       </c>
       <c r="S30" s="7">
-        <v>0.47290758999999999</v>
+        <v>0.35615766800000009</v>
       </c>
     </row>
     <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="34">
+      <c r="B31" s="31">
         <v>2022</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="32">
         <v>7</v>
       </c>
       <c r="D31" s="5">
@@ -2505,35 +2505,35 @@
       </c>
       <c r="L31" s="5">
         <f t="shared" si="4"/>
-        <v>7153.5113975900022</v>
+        <v>7191.6636538718021</v>
       </c>
       <c r="M31" s="3">
-        <v>2868.2873435319998</v>
+        <v>2575.3834254900021</v>
       </c>
       <c r="N31" s="3">
-        <v>3607.6925303660032</v>
+        <v>3964.619205300799</v>
       </c>
       <c r="O31" s="3">
-        <v>642.81335444999979</v>
+        <v>609.31836305400043</v>
       </c>
       <c r="P31" s="3">
-        <v>7.0967908270000004</v>
+        <v>7.2582579850000002</v>
       </c>
       <c r="Q31" s="11">
-        <v>26.713847234999999</v>
+        <v>34.682327189999988</v>
       </c>
       <c r="R31" s="3">
-        <v>0.56659287000000003</v>
+        <v>0.11073023999999999</v>
       </c>
       <c r="S31" s="6">
-        <v>0.34093830999999991</v>
+        <v>0.291344612</v>
       </c>
     </row>
     <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="32">
+      <c r="B32" s="29">
         <v>2022</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="30">
         <v>6</v>
       </c>
       <c r="D32" s="22">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="L32" s="22">
         <f t="shared" si="4"/>
-        <v>7556.0425005755014</v>
+        <v>7426.6647824039028</v>
       </c>
       <c r="M32" s="17">
-        <v>2765.572963916999</v>
+        <v>2745.748891390494</v>
       </c>
       <c r="N32" s="17">
-        <v>4124.8151506980021</v>
+        <v>4014.2422900054089</v>
       </c>
       <c r="O32" s="17">
-        <v>633.25968550699997</v>
+        <v>622.1854161710005</v>
       </c>
       <c r="P32" s="17">
-        <v>7.8715812454999998</v>
+        <v>8.0573326499999993</v>
       </c>
       <c r="Q32" s="16">
-        <v>24.216846367999999</v>
+        <v>35.484382947000007</v>
       </c>
       <c r="R32" s="17">
-        <v>0</v>
+        <v>0.60199296000000002</v>
       </c>
       <c r="S32" s="7">
-        <v>0.30627283999999999</v>
+        <v>0.34447628000000002</v>
       </c>
     </row>
     <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="34">
+      <c r="B33" s="31">
         <v>2022</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="32">
         <v>5</v>
       </c>
       <c r="D33" s="5">
@@ -2621,35 +2621,35 @@
       </c>
       <c r="L33" s="5">
         <f t="shared" si="4"/>
-        <v>7919.0054692064978</v>
+        <v>7413.4131095932507</v>
       </c>
       <c r="M33" s="3">
-        <v>2888.4215667424992</v>
+        <v>2681.1217716099991</v>
       </c>
       <c r="N33" s="3">
-        <v>4289.1214162529986</v>
+        <v>4205.8755796282521</v>
       </c>
       <c r="O33" s="3">
-        <v>709.70213744500006</v>
+        <v>483.91754051100008</v>
       </c>
       <c r="P33" s="3">
-        <v>8.7303510430000006</v>
+        <v>8.2003226500000004</v>
       </c>
       <c r="Q33" s="11">
-        <v>22.005873442999999</v>
+        <v>32.794367653999998</v>
       </c>
       <c r="R33" s="3">
-        <v>0.75646751999999995</v>
+        <v>1.2866841600000001</v>
       </c>
       <c r="S33" s="6">
-        <v>0.26765675999999999</v>
+        <v>0.21684338000000011</v>
       </c>
     </row>
     <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="32">
+      <c r="B34" s="29">
         <v>2022</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="30">
         <v>4</v>
       </c>
       <c r="D34" s="22">
@@ -2679,35 +2679,35 @@
       </c>
       <c r="L34" s="22">
         <f t="shared" si="4"/>
-        <v>7622.1182945060009</v>
+        <v>7275.2969263750037</v>
       </c>
       <c r="M34" s="17">
-        <v>2723.4188917840002</v>
+        <v>2575.7223572010021</v>
       </c>
       <c r="N34" s="17">
-        <v>4168.1608000790002</v>
+        <v>4067.0187656300018</v>
       </c>
       <c r="O34" s="17">
-        <v>700.2680477920004</v>
+        <v>589.9259630600003</v>
       </c>
       <c r="P34" s="17">
-        <v>6.950576074999999</v>
+        <v>7.1673460699999998</v>
       </c>
       <c r="Q34" s="16">
-        <v>22.592782776</v>
+        <v>34.542283277999999</v>
       </c>
       <c r="R34" s="17">
-        <v>0.46685416000000002</v>
+        <v>0.48420864000000002</v>
       </c>
       <c r="S34" s="7">
-        <v>0.26034183999999999</v>
+        <v>0.43600249600000002</v>
       </c>
     </row>
     <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="34">
+      <c r="B35" s="31">
         <v>2022</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="32">
         <v>3</v>
       </c>
       <c r="D35" s="5">
@@ -2737,35 +2737,35 @@
       </c>
       <c r="L35" s="5">
         <f t="shared" si="4"/>
-        <v>7816.8766415225009</v>
+        <v>7541.4980275314938</v>
       </c>
       <c r="M35" s="3">
-        <v>2578.8196566694969</v>
+        <v>2660.8203641194968</v>
       </c>
       <c r="N35" s="3">
-        <v>4455.9987150990046</v>
+        <v>4208.7790816289962</v>
       </c>
       <c r="O35" s="3">
-        <v>747.21557059399993</v>
+        <v>621.14192796600003</v>
       </c>
       <c r="P35" s="3">
-        <v>8.0505219500000003</v>
+        <v>6.623209000000001</v>
       </c>
       <c r="Q35" s="11">
-        <v>26.027712000000001</v>
+        <v>35.708474217000003</v>
       </c>
       <c r="R35" s="3">
-        <v>0.31483611000000011</v>
+        <v>8.0218468600000001</v>
       </c>
       <c r="S35" s="6">
-        <v>0.44962910000000011</v>
+        <v>0.40312374000000012</v>
       </c>
     </row>
     <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="32">
+      <c r="B36" s="29">
         <v>2022</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="30">
         <v>2</v>
       </c>
       <c r="D36" s="22">
@@ -2795,35 +2795,35 @@
       </c>
       <c r="L36" s="22">
         <f t="shared" si="4"/>
-        <v>7210.7837302764929</v>
+        <v>6646.5983968474375</v>
       </c>
       <c r="M36" s="17">
-        <v>2685.167804527498</v>
+        <v>2374.907421244</v>
       </c>
       <c r="N36" s="17">
-        <v>3862.1520296299959</v>
+        <v>3680.0897351094382</v>
       </c>
       <c r="O36" s="17">
-        <v>629.01834064099978</v>
+        <v>540.62561002199982</v>
       </c>
       <c r="P36" s="17">
-        <v>7.3305904510000008</v>
+        <v>6.8062315400000006</v>
       </c>
       <c r="Q36" s="16">
-        <v>26.805101397000001</v>
+        <v>35.044869748000004</v>
       </c>
       <c r="R36" s="17">
-        <v>0</v>
+        <v>8.8324161199999995</v>
       </c>
       <c r="S36" s="7">
-        <v>0.30986362999999989</v>
+        <v>0.29211306399999998</v>
       </c>
     </row>
     <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="36">
+      <c r="B37" s="33">
         <v>2022</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="34">
         <v>1</v>
       </c>
       <c r="D37" s="9">
@@ -2853,35 +2853,35 @@
       </c>
       <c r="L37" s="9">
         <f t="shared" si="4"/>
-        <v>7727.3830689805</v>
+        <v>7312.9253518064897</v>
       </c>
       <c r="M37" s="8">
-        <v>2606.4418033855009</v>
+        <v>2516.776008406498</v>
       </c>
       <c r="N37" s="8">
-        <v>4443.8483745960002</v>
+        <v>4165.2929514439929</v>
       </c>
       <c r="O37" s="8">
-        <v>641.33658918099911</v>
+        <v>584.89580469299949</v>
       </c>
       <c r="P37" s="8">
-        <v>7.5541058760000004</v>
+        <v>7.9409832089999988</v>
       </c>
       <c r="Q37" s="12">
-        <v>27.942127822</v>
+        <v>36.984346221000003</v>
       </c>
       <c r="R37" s="8">
-        <v>0</v>
+        <v>0.54593274000000003</v>
       </c>
       <c r="S37" s="10">
-        <v>0.26006812000000001</v>
+        <v>0.48932509299999999</v>
       </c>
     </row>
     <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="38">
+      <c r="B38" s="35">
         <v>2021</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="36">
         <v>12</v>
       </c>
       <c r="D38" s="23">
@@ -2911,35 +2911,35 @@
       </c>
       <c r="L38" s="23">
         <f t="shared" si="4"/>
-        <v>7787.991672169991</v>
+        <v>7559.4957620836176</v>
       </c>
       <c r="M38" s="24">
-        <v>2697.017603467998</v>
+        <v>2454.9251451284981</v>
       </c>
       <c r="N38" s="24">
-        <v>4364.7163814329933</v>
+        <v>4486.1274373061196</v>
       </c>
       <c r="O38" s="24">
-        <v>691.08870988800015</v>
+        <v>564.50741046500013</v>
       </c>
       <c r="P38" s="24">
-        <v>5.5462157990000014</v>
+        <v>10.346456243</v>
       </c>
       <c r="Q38" s="25">
-        <v>28.462399068</v>
+        <v>38.567701272999997</v>
       </c>
       <c r="R38" s="24">
-        <v>0.92623683999999995</v>
+        <v>4.6980338499999998</v>
       </c>
       <c r="S38" s="26">
-        <v>0.23412567400000001</v>
+        <v>0.32357781800000007</v>
       </c>
     </row>
     <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="34">
+      <c r="B39" s="31">
         <v>2021</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="32">
         <v>11</v>
       </c>
       <c r="D39" s="5">
@@ -2969,35 +2969,35 @@
       </c>
       <c r="L39" s="5">
         <f t="shared" si="4"/>
-        <v>7607.3085941089976</v>
+        <v>7572.3847293000135</v>
       </c>
       <c r="M39" s="3">
-        <v>2709.2393107859962</v>
+        <v>2487.2945403209969</v>
       </c>
       <c r="N39" s="3">
-        <v>4203.9729919080019</v>
+        <v>4430.0140454000166</v>
       </c>
       <c r="O39" s="3">
-        <v>660.44165793399986</v>
+        <v>607.02709147300016</v>
       </c>
       <c r="P39" s="3">
-        <v>5.9482127840000008</v>
+        <v>8.3345901050000002</v>
       </c>
       <c r="Q39" s="11">
-        <v>27.414852071999999</v>
+        <v>35.035225039999993</v>
       </c>
       <c r="R39" s="3">
-        <v>0</v>
+        <v>4.35235971</v>
       </c>
       <c r="S39" s="6">
-        <v>0.29156862500000003</v>
+        <v>0.32687725099999992</v>
       </c>
     </row>
     <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="32">
+      <c r="B40" s="29">
         <v>2021</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="30">
         <v>10</v>
       </c>
       <c r="D40" s="22">
@@ -3027,35 +3027,35 @@
       </c>
       <c r="L40" s="22">
         <f t="shared" si="4"/>
-        <v>8168.6527303565072</v>
+        <v>7454.4569883743907</v>
       </c>
       <c r="M40" s="17">
-        <v>2855.8573844425018</v>
+        <v>2252.2121829349981</v>
       </c>
       <c r="N40" s="17">
-        <v>4595.0981872000057</v>
+        <v>4555.9238501633918</v>
       </c>
       <c r="O40" s="17">
-        <v>683.3527228519996</v>
+        <v>598.34848022000062</v>
       </c>
       <c r="P40" s="17">
-        <v>6.7861570649999994</v>
+        <v>8.6802298340000004</v>
       </c>
       <c r="Q40" s="16">
-        <v>27.308684076999999</v>
+        <v>36.737191042000013</v>
       </c>
       <c r="R40" s="17">
-        <v>0</v>
+        <v>2.1651060200000001</v>
       </c>
       <c r="S40" s="7">
-        <v>0.24959471999999999</v>
+        <v>0.38994815999999999</v>
       </c>
     </row>
     <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="34">
+      <c r="B41" s="31">
         <v>2021</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="32">
         <v>9</v>
       </c>
       <c r="D41" s="5">
@@ -3085,35 +3085,35 @@
       </c>
       <c r="L41" s="5">
         <f t="shared" si="4"/>
-        <v>7460.9740902630037</v>
+        <v>7455.9332633507911</v>
       </c>
       <c r="M41" s="3">
-        <v>2587.8190024130022</v>
+        <v>2336.1774044905001</v>
       </c>
       <c r="N41" s="3">
-        <v>4189.8268443940005</v>
+        <v>4499.0870851722912</v>
       </c>
       <c r="O41" s="3">
-        <v>650.21660514200039</v>
+        <v>574.36416933199996</v>
       </c>
       <c r="P41" s="3">
-        <v>7.5242899999999997</v>
+        <v>9.2197258459999993</v>
       </c>
       <c r="Q41" s="11">
-        <v>25.314986824000002</v>
+        <v>33.827011099000003</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>2.7609138199999999</v>
       </c>
       <c r="S41" s="6">
-        <v>0.27236148999999987</v>
+        <v>0.49695359099999997</v>
       </c>
     </row>
     <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="32">
+      <c r="B42" s="29">
         <v>2021</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="30">
         <v>8</v>
       </c>
       <c r="D42" s="22">
@@ -3143,35 +3143,35 @@
       </c>
       <c r="L42" s="22">
         <f t="shared" si="4"/>
-        <v>8101.5730074171943</v>
+        <v>7799.3527436193035</v>
       </c>
       <c r="M42" s="17">
-        <v>2862.9090542549961</v>
+        <v>2294.5162238704979</v>
       </c>
       <c r="N42" s="17">
-        <v>4475.0428370511981</v>
+        <v>4842.6990967668053</v>
       </c>
       <c r="O42" s="17">
-        <v>730.13655983000001</v>
+        <v>615.63413392999996</v>
       </c>
       <c r="P42" s="17">
-        <v>5.6898014160000008</v>
+        <v>8.5407225140000023</v>
       </c>
       <c r="Q42" s="16">
-        <v>26.430900990000001</v>
+        <v>34.95596040800001</v>
       </c>
       <c r="R42" s="17">
-        <v>1.1467497600000001</v>
+        <v>2.7197566399999999</v>
       </c>
       <c r="S42" s="7">
-        <v>0.21710411499999999</v>
+        <v>0.28684948999999998</v>
       </c>
     </row>
     <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="34">
+      <c r="B43" s="31">
         <v>2021</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="32">
         <v>7</v>
       </c>
       <c r="D43" s="5">
@@ -3201,35 +3201,35 @@
       </c>
       <c r="L43" s="5">
         <f t="shared" si="4"/>
-        <v>7201.2110358610043</v>
+        <v>8093.1738756910991</v>
       </c>
       <c r="M43" s="3">
-        <v>2606.642718893002</v>
+        <v>2575.3834254900021</v>
       </c>
       <c r="N43" s="3">
-        <v>3840.3302240870012</v>
+        <v>4833.7327735580984</v>
       </c>
       <c r="O43" s="3">
-        <v>714.07136763500023</v>
+        <v>635.0188110539998</v>
       </c>
       <c r="P43" s="3">
-        <v>8.1353823930000004</v>
+        <v>8.7395811469999991</v>
       </c>
       <c r="Q43" s="11">
-        <v>29.287128408000001</v>
+        <v>36.949788237000007</v>
       </c>
       <c r="R43" s="3">
-        <v>2.5732544800000001</v>
+        <v>3.0379556999999999</v>
       </c>
       <c r="S43" s="6">
-        <v>0.17095996499999999</v>
+        <v>0.31154050500000008</v>
       </c>
     </row>
     <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="32">
+      <c r="B44" s="29">
         <v>2021</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="30">
         <v>6</v>
       </c>
       <c r="D44" s="22">
@@ -3259,35 +3259,35 @@
       </c>
       <c r="L44" s="22">
         <f t="shared" si="4"/>
-        <v>7310.8355932755139</v>
+        <v>7726.6787146596171</v>
       </c>
       <c r="M44" s="17">
-        <v>2729.828865026504</v>
+        <v>2629.796765055999</v>
       </c>
       <c r="N44" s="17">
-        <v>3871.547411277008</v>
+        <v>4464.5122847686171</v>
       </c>
       <c r="O44" s="17">
-        <v>666.57566130000077</v>
+        <v>581.68120659000044</v>
       </c>
       <c r="P44" s="17">
-        <v>8.3173960500000028</v>
+        <v>9.1290644990000001</v>
       </c>
       <c r="Q44" s="16">
-        <v>33.740727692</v>
+        <v>36.782584659999998</v>
       </c>
       <c r="R44" s="17">
-        <v>0.53808</v>
+        <v>4.3888587000000001</v>
       </c>
       <c r="S44" s="7">
-        <v>0.28745193000000002</v>
+        <v>0.38795038599999998</v>
       </c>
     </row>
     <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="34">
+      <c r="B45" s="31">
         <v>2021</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="32">
         <v>5</v>
       </c>
       <c r="D45" s="5">
@@ -3317,35 +3317,35 @@
       </c>
       <c r="L45" s="5">
         <f t="shared" si="4"/>
-        <v>7111.4425296700092</v>
+        <v>8508.790074300683</v>
       </c>
       <c r="M45" s="3">
-        <v>2632.704658141005</v>
+        <v>2922.9896007830021</v>
       </c>
       <c r="N45" s="3">
-        <v>3750.413545484003</v>
+        <v>4940.7335945086788</v>
       </c>
       <c r="O45" s="3">
-        <v>687.66725051200081</v>
+        <v>590.43121132199985</v>
       </c>
       <c r="P45" s="3">
-        <v>5.8990287250000009</v>
+        <v>9.6548794559999997</v>
       </c>
       <c r="Q45" s="11">
-        <v>34.461750987999999</v>
+        <v>41.925393185999987</v>
       </c>
       <c r="R45" s="3">
-        <v>0.12333404000000001</v>
+        <v>2.55537546</v>
       </c>
       <c r="S45" s="6">
-        <v>0.17296178000000001</v>
+        <v>0.50001958499999988</v>
       </c>
     </row>
     <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="32">
+      <c r="B46" s="29">
         <v>2021</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="30">
         <v>4</v>
       </c>
       <c r="D46" s="22">
@@ -3375,35 +3375,35 @@
       </c>
       <c r="L46" s="22">
         <f t="shared" si="4"/>
-        <v>7332.3824997811334</v>
+        <v>7831.1461965570006</v>
       </c>
       <c r="M46" s="17">
-        <v>2596.0057846039958</v>
+        <v>2687.4059335134998</v>
       </c>
       <c r="N46" s="17">
-        <v>4043.7739947451369</v>
+        <v>4476.268327207501</v>
       </c>
       <c r="O46" s="17">
-        <v>650.93120328700036</v>
+        <v>612.56275004999998</v>
       </c>
       <c r="P46" s="17">
-        <v>8.6389721339999994</v>
+        <v>10.506913092</v>
       </c>
       <c r="Q46" s="16">
-        <v>32.781240101000002</v>
+        <v>37.034007258999999</v>
       </c>
       <c r="R46" s="17">
-        <v>7.0588400000000003E-3</v>
+        <v>6.8037442799999992</v>
       </c>
       <c r="S46" s="7">
-        <v>0.24424607000000009</v>
+        <v>0.56452115499999989</v>
       </c>
     </row>
     <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="34">
+      <c r="B47" s="31">
         <v>2021</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="32">
         <v>3</v>
       </c>
       <c r="D47" s="5">
@@ -3433,35 +3433,35 @@
       </c>
       <c r="L47" s="5">
         <f t="shared" si="4"/>
-        <v>7307.3132174754001</v>
+        <v>8142.6430797048588</v>
       </c>
       <c r="M47" s="3">
-        <v>2663.245486356001</v>
+        <v>2745.9354684965042</v>
       </c>
       <c r="N47" s="3">
-        <v>3914.0197377269992</v>
+        <v>4736.7506870613533</v>
       </c>
       <c r="O47" s="3">
-        <v>681.13219543499997</v>
+        <v>604.7617960900003</v>
       </c>
       <c r="P47" s="3">
-        <v>9.831694658</v>
+        <v>8.8911368260000003</v>
       </c>
       <c r="Q47" s="11">
-        <v>36.570021361999977</v>
+        <v>41.498002944</v>
       </c>
       <c r="R47" s="3">
-        <v>2.1579242694</v>
+        <v>4.35843588</v>
       </c>
       <c r="S47" s="6">
-        <v>0.35615766800000009</v>
+        <v>0.44755240699999999</v>
       </c>
     </row>
     <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="32">
+      <c r="B48" s="29">
         <v>2021</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="30">
         <v>2</v>
       </c>
       <c r="D48" s="22">
@@ -3491,35 +3491,35 @@
       </c>
       <c r="L48" s="22">
         <f t="shared" si="4"/>
-        <v>7191.6636538718021</v>
+        <v>6633.7415436800029</v>
       </c>
       <c r="M48" s="17">
-        <v>2575.3834254900021</v>
+        <v>2289.3534260344968</v>
       </c>
       <c r="N48" s="17">
-        <v>3964.619205300799</v>
+        <v>3773.8464727675068</v>
       </c>
       <c r="O48" s="17">
-        <v>609.31836305400043</v>
+        <v>527.36503372999948</v>
       </c>
       <c r="P48" s="17">
-        <v>7.2582579850000002</v>
+        <v>8.0640420000000006</v>
       </c>
       <c r="Q48" s="16">
-        <v>34.682327189999988</v>
+        <v>32.601814822999998</v>
       </c>
       <c r="R48" s="17">
-        <v>0.11073023999999999</v>
+        <v>2.3511389399999998</v>
       </c>
       <c r="S48" s="7">
-        <v>0.291344612</v>
+        <v>0.159615385</v>
       </c>
     </row>
     <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="36">
+      <c r="B49" s="33">
         <v>2021</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="34">
         <v>1</v>
       </c>
       <c r="D49" s="9">
@@ -3549,35 +3549,35 @@
       </c>
       <c r="L49" s="9">
         <f t="shared" si="4"/>
-        <v>7426.6647824039028</v>
+        <v>7658.9491725908874</v>
       </c>
       <c r="M49" s="8">
-        <v>2745.748891390494</v>
+        <v>2719.7331992549998</v>
       </c>
       <c r="N49" s="8">
-        <v>4014.2422900054089</v>
+        <v>4347.3157786078864</v>
       </c>
       <c r="O49" s="8">
-        <v>622.1854161710005</v>
+        <v>544.13671407200002</v>
       </c>
       <c r="P49" s="8">
-        <v>8.0573326499999993</v>
+        <v>7.3822649800000004</v>
       </c>
       <c r="Q49" s="12">
-        <v>35.484382947000007</v>
+        <v>37.287069709999997</v>
       </c>
       <c r="R49" s="8">
-        <v>0.60199296000000002</v>
+        <v>2.7605594199999999</v>
       </c>
       <c r="S49" s="10">
-        <v>0.34447628000000002</v>
+        <v>0.33358654599999998</v>
       </c>
     </row>
     <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="38">
+      <c r="B50" s="35">
         <v>2020</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="36">
         <v>12</v>
       </c>
       <c r="D50" s="23">
@@ -3607,35 +3607,35 @@
       </c>
       <c r="L50" s="23">
         <f t="shared" si="4"/>
-        <v>7413.4131095932507</v>
+        <v>7353.1727623347024</v>
       </c>
       <c r="M50" s="24">
-        <v>2681.1217716099991</v>
+        <v>2625.9467366160002</v>
       </c>
       <c r="N50" s="24">
-        <v>4205.8755796282521</v>
+        <v>4157.4580108327018</v>
       </c>
       <c r="O50" s="24">
-        <v>483.91754051100008</v>
+        <v>517.70569403000059</v>
       </c>
       <c r="P50" s="24">
-        <v>8.2003226500000004</v>
+        <v>9.0617785400000006</v>
       </c>
       <c r="Q50" s="25">
-        <v>32.794367653999998</v>
+        <v>36.825079076000002</v>
       </c>
       <c r="R50" s="24">
-        <v>1.2866841600000001</v>
+        <v>5.8351311600000004</v>
       </c>
       <c r="S50" s="26">
-        <v>0.21684338000000011</v>
+        <v>0.34033207999999998</v>
       </c>
     </row>
     <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="34">
+      <c r="B51" s="31">
         <v>2020</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="32">
         <v>11</v>
       </c>
       <c r="D51" s="5">
@@ -3665,35 +3665,35 @@
       </c>
       <c r="L51" s="5">
         <f t="shared" si="4"/>
-        <v>7275.2969263750037</v>
+        <v>7352.5100897651027</v>
       </c>
       <c r="M51" s="3">
-        <v>2575.7223572010021</v>
+        <v>2476.4938742799982</v>
       </c>
       <c r="N51" s="3">
-        <v>4067.0187656300018</v>
+        <v>4312.6025955031046</v>
       </c>
       <c r="O51" s="3">
-        <v>589.9259630600003</v>
+        <v>515.07792600000016</v>
       </c>
       <c r="P51" s="3">
-        <v>7.1673460699999998</v>
+        <v>11.231821312999999</v>
       </c>
       <c r="Q51" s="11">
-        <v>34.542283277999999</v>
+        <v>34.256908838999998</v>
       </c>
       <c r="R51" s="3">
-        <v>0.48420864000000002</v>
+        <v>2.6046938000000002</v>
       </c>
       <c r="S51" s="6">
-        <v>0.43600249600000002</v>
+        <v>0.24227003</v>
       </c>
     </row>
     <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="32">
+      <c r="B52" s="29">
         <v>2020</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="30">
         <v>10</v>
       </c>
       <c r="D52" s="22">
@@ -3723,35 +3723,35 @@
       </c>
       <c r="L52" s="22">
         <f t="shared" si="4"/>
-        <v>7541.4980275314938</v>
+        <v>7334.9599437122397</v>
       </c>
       <c r="M52" s="17">
-        <v>2660.8203641194968</v>
+        <v>2713.3960539770019</v>
       </c>
       <c r="N52" s="17">
-        <v>4208.7790816289962</v>
+        <v>4023.2553769225378</v>
       </c>
       <c r="O52" s="17">
-        <v>621.14192796600003</v>
+        <v>542.79762977000007</v>
       </c>
       <c r="P52" s="17">
-        <v>6.623209000000001</v>
+        <v>7.5060893896999996</v>
       </c>
       <c r="Q52" s="16">
-        <v>35.708474217000003</v>
+        <v>42.505763026999993</v>
       </c>
       <c r="R52" s="17">
-        <v>8.0218468600000001</v>
+        <v>5.1654440799999994</v>
       </c>
       <c r="S52" s="7">
-        <v>0.40312374000000012</v>
+        <v>0.33358654599999998</v>
       </c>
     </row>
     <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="34">
+      <c r="B53" s="31">
         <v>2020</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="32">
         <v>9</v>
       </c>
       <c r="D53" s="5">
@@ -3781,35 +3781,35 @@
       </c>
       <c r="L53" s="5">
         <f t="shared" si="4"/>
-        <v>6646.5983968474375</v>
+        <v>7046.4603867411315</v>
       </c>
       <c r="M53" s="3">
-        <v>2374.907421244</v>
+        <v>2750.463505591501</v>
       </c>
       <c r="N53" s="3">
-        <v>3680.0897351094382</v>
+        <v>3736.9267533866309</v>
       </c>
       <c r="O53" s="3">
-        <v>540.62561002199982</v>
+        <v>516.3334641199998</v>
       </c>
       <c r="P53" s="3">
-        <v>6.8062315400000006</v>
+        <v>8.9935901099999995</v>
       </c>
       <c r="Q53" s="11">
-        <v>35.044869748000004</v>
+        <v>32.577175492999999</v>
       </c>
       <c r="R53" s="3">
-        <v>8.8324161199999995</v>
+        <v>0.73748120000000006</v>
       </c>
       <c r="S53" s="6">
-        <v>0.29211306399999998</v>
+        <v>0.42841684000000002</v>
       </c>
     </row>
     <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="32">
+      <c r="B54" s="29">
         <v>2020</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="30">
         <v>8</v>
       </c>
       <c r="D54" s="22">
@@ -3839,35 +3839,35 @@
       </c>
       <c r="L54" s="22">
         <f t="shared" si="4"/>
-        <v>7312.9253518064897</v>
+        <v>7449.2591429184022</v>
       </c>
       <c r="M54" s="17">
-        <v>2516.776008406498</v>
+        <v>2487.3447639574988</v>
       </c>
       <c r="N54" s="17">
-        <v>4165.2929514439929</v>
+        <v>4328.973769747904</v>
       </c>
       <c r="O54" s="17">
-        <v>584.89580469299949</v>
+        <v>579.49765215000036</v>
       </c>
       <c r="P54" s="17">
-        <v>7.9409832089999988</v>
+        <v>7.4413398099999997</v>
       </c>
       <c r="Q54" s="16">
-        <v>36.984346221000003</v>
+        <v>39.990465413000003</v>
       </c>
       <c r="R54" s="17">
-        <v>0.54593274000000003</v>
+        <v>5.7537497800000006</v>
       </c>
       <c r="S54" s="7">
-        <v>0.48932509299999999</v>
+        <v>0.25740205999999999</v>
       </c>
     </row>
     <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="34">
+      <c r="B55" s="31">
         <v>2020</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="32">
         <v>7</v>
       </c>
       <c r="D55" s="5">
@@ -3897,35 +3897,35 @@
       </c>
       <c r="L55" s="5">
         <f t="shared" si="4"/>
-        <v>7559.4957620836176</v>
+        <v>7380.5613200561647</v>
       </c>
       <c r="M55" s="3">
-        <v>2454.9251451284981</v>
+        <v>2428.846732166</v>
       </c>
       <c r="N55" s="3">
-        <v>4486.1274373061196</v>
+        <v>4258.745057885164</v>
       </c>
       <c r="O55" s="3">
-        <v>564.50741046500013</v>
+        <v>616.52099685999997</v>
       </c>
       <c r="P55" s="3">
-        <v>10.346456243</v>
+        <v>6.897613637000001</v>
       </c>
       <c r="Q55" s="11">
-        <v>38.567701272999997</v>
+        <v>46.615575728000003</v>
       </c>
       <c r="R55" s="3">
-        <v>4.6980338499999998</v>
+        <v>22.688503149999999</v>
       </c>
       <c r="S55" s="6">
-        <v>0.32357781800000007</v>
+        <v>0.24684063000000001</v>
       </c>
     </row>
     <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="32">
+      <c r="B56" s="29">
         <v>2020</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="30">
         <v>6</v>
       </c>
       <c r="D56" s="22">
@@ -3955,35 +3955,35 @@
       </c>
       <c r="L56" s="22">
         <f t="shared" si="4"/>
-        <v>7572.3847293000135</v>
+        <v>6838.7530584626184</v>
       </c>
       <c r="M56" s="17">
-        <v>2487.2945403209969</v>
+        <v>2178.930646833498</v>
       </c>
       <c r="N56" s="17">
-        <v>4430.0140454000166</v>
+        <v>4081.32299100612</v>
       </c>
       <c r="O56" s="17">
-        <v>607.02709147300016</v>
+        <v>505.39333284999958</v>
       </c>
       <c r="P56" s="17">
-        <v>8.3345901050000002</v>
+        <v>4.1486682360000007</v>
       </c>
       <c r="Q56" s="16">
-        <v>35.035225039999993</v>
+        <v>48.516144666999992</v>
       </c>
       <c r="R56" s="17">
-        <v>4.35235971</v>
+        <v>20.1564771</v>
       </c>
       <c r="S56" s="7">
-        <v>0.32687725099999992</v>
+        <v>0.28479777000000012</v>
       </c>
     </row>
     <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="34">
+      <c r="B57" s="31">
         <v>2020</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="32">
         <v>5</v>
       </c>
       <c r="D57" s="5">
@@ -4013,35 +4013,35 @@
       </c>
       <c r="L57" s="5">
         <f t="shared" ref="L57:L85" si="6">SUM(M57:S57)</f>
-        <v>7454.4569883743907</v>
+        <v>6599.7211012138414</v>
       </c>
       <c r="M57" s="3">
-        <v>2252.2121829349981</v>
+        <v>1955.6864974084999</v>
       </c>
       <c r="N57" s="3">
-        <v>4555.9238501633918</v>
+        <v>4070.699793715341</v>
       </c>
       <c r="O57" s="3">
-        <v>598.34848022000062</v>
+        <v>490.43616353999971</v>
       </c>
       <c r="P57" s="3">
-        <v>8.6802298340000004</v>
+        <v>4.9919812889999999</v>
       </c>
       <c r="Q57" s="11">
-        <v>36.737191042000013</v>
+        <v>49.262628410999987</v>
       </c>
       <c r="R57" s="3">
-        <v>2.1651060200000001</v>
+        <v>28.479580210000002</v>
       </c>
       <c r="S57" s="6">
-        <v>0.38994815999999999</v>
+        <v>0.16445663999999999</v>
       </c>
     </row>
     <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="32">
+      <c r="B58" s="29">
         <v>2020</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="30">
         <v>4</v>
       </c>
       <c r="D58" s="22">
@@ -4071,35 +4071,35 @@
       </c>
       <c r="L58" s="22">
         <f t="shared" si="6"/>
-        <v>7455.9332633507911</v>
+        <v>6563.6809044984548</v>
       </c>
       <c r="M58" s="17">
-        <v>2336.1774044905001</v>
+        <v>2092.363650120501</v>
       </c>
       <c r="N58" s="17">
-        <v>4499.0870851722912</v>
+        <v>3810.8671320719541</v>
       </c>
       <c r="O58" s="17">
-        <v>574.36416933199996</v>
+        <v>576.76851579999936</v>
       </c>
       <c r="P58" s="17">
-        <v>9.2197258459999993</v>
+        <v>2.1857480950000001</v>
       </c>
       <c r="Q58" s="16">
-        <v>33.827011099000003</v>
+        <v>48.091960541000013</v>
       </c>
       <c r="R58" s="17">
-        <v>2.7609138199999999</v>
+        <v>33.146718739999997</v>
       </c>
       <c r="S58" s="7">
-        <v>0.49695359099999997</v>
+        <v>0.25717912999999998</v>
       </c>
     </row>
     <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="34">
+      <c r="B59" s="31">
         <v>2020</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="32">
         <v>3</v>
       </c>
       <c r="D59" s="5">
@@ -4129,35 +4129,35 @@
       </c>
       <c r="L59" s="5">
         <f t="shared" si="6"/>
-        <v>7799.3527436193035</v>
+        <v>7720.3875207885012</v>
       </c>
       <c r="M59" s="3">
-        <v>2294.5162238704979</v>
+        <v>2719.9630072755008</v>
       </c>
       <c r="N59" s="3">
-        <v>4842.6990967668053</v>
+        <v>4308.5178526390009</v>
       </c>
       <c r="O59" s="3">
-        <v>615.63413392999996</v>
+        <v>550.02743308999959</v>
       </c>
       <c r="P59" s="3">
-        <v>8.5407225140000023</v>
+        <v>7.8376115140000007</v>
       </c>
       <c r="Q59" s="11">
-        <v>34.95596040800001</v>
+        <v>49.157905969999987</v>
       </c>
       <c r="R59" s="3">
-        <v>2.7197566399999999</v>
+        <v>84.630515320000001</v>
       </c>
       <c r="S59" s="6">
-        <v>0.28684948999999998</v>
+        <v>0.25319498000000001</v>
       </c>
     </row>
     <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="32">
+      <c r="B60" s="29">
         <v>2020</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="30">
         <v>2</v>
       </c>
       <c r="D60" s="22">
@@ -4187,35 +4187,35 @@
       </c>
       <c r="L60" s="22">
         <f t="shared" si="6"/>
-        <v>8093.1738756910991</v>
+        <v>7398.4236104454985</v>
       </c>
       <c r="M60" s="17">
-        <v>2575.3834254900021</v>
+        <v>2611.3807745675008</v>
       </c>
       <c r="N60" s="17">
-        <v>4833.7327735580984</v>
+        <v>4099.994935206998</v>
       </c>
       <c r="O60" s="17">
-        <v>635.0188110539998</v>
+        <v>576.65962569999999</v>
       </c>
       <c r="P60" s="17">
-        <v>8.7395811469999991</v>
+        <v>5.8101744709999998</v>
       </c>
       <c r="Q60" s="16">
-        <v>36.949788237000007</v>
+        <v>48.975136419999998</v>
       </c>
       <c r="R60" s="17">
-        <v>3.0379556999999999</v>
+        <v>55.332080869999999</v>
       </c>
       <c r="S60" s="7">
-        <v>0.31154050500000008</v>
+        <v>0.2708832100000001</v>
       </c>
     </row>
     <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="36">
+      <c r="B61" s="33">
         <v>2020</v>
       </c>
-      <c r="C61" s="37">
+      <c r="C61" s="34">
         <v>1</v>
       </c>
       <c r="D61" s="9">
@@ -4245,35 +4245,35 @@
       </c>
       <c r="L61" s="9">
         <f t="shared" si="6"/>
-        <v>7726.6787146596171</v>
+        <v>7185.7383871704087</v>
       </c>
       <c r="M61" s="8">
-        <v>2629.796765055999</v>
+        <v>2557.950665571791</v>
       </c>
       <c r="N61" s="8">
-        <v>4464.5122847686171</v>
+        <v>3902.6936190776169</v>
       </c>
       <c r="O61" s="8">
-        <v>581.68120659000044</v>
+        <v>613.68125601999952</v>
       </c>
       <c r="P61" s="8">
-        <v>9.1290644990000001</v>
+        <v>5.5450976610000007</v>
       </c>
       <c r="Q61" s="12">
-        <v>36.782584659999998</v>
+        <v>54.17302995</v>
       </c>
       <c r="R61" s="8">
-        <v>4.3888587000000001</v>
+        <v>51.401263659999998</v>
       </c>
       <c r="S61" s="10">
-        <v>0.38795038599999998</v>
+        <v>0.29345523000000012</v>
       </c>
     </row>
     <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="38">
+      <c r="B62" s="35">
         <v>2019</v>
       </c>
-      <c r="C62" s="39">
+      <c r="C62" s="36">
         <v>12</v>
       </c>
       <c r="D62" s="23">
@@ -4303,35 +4303,35 @@
       </c>
       <c r="L62" s="23">
         <f t="shared" si="6"/>
-        <v>8508.790074300683</v>
+        <v>7283.4758425855061</v>
       </c>
       <c r="M62" s="24">
-        <v>2922.9896007830021</v>
+        <v>2545.6933826471468</v>
       </c>
       <c r="N62" s="24">
-        <v>4940.7335945086788</v>
+        <v>4050.2897667273596</v>
       </c>
       <c r="O62" s="24">
-        <v>590.43121132199985</v>
+        <v>573.5496261799999</v>
       </c>
       <c r="P62" s="24">
-        <v>9.6548794559999997</v>
+        <v>4.2298997729999996</v>
       </c>
       <c r="Q62" s="25">
-        <v>41.925393185999987</v>
+        <v>56.884561087999998</v>
       </c>
       <c r="R62" s="24">
-        <v>2.55537546</v>
+        <v>52.609621790000006</v>
       </c>
       <c r="S62" s="26">
-        <v>0.50001958499999988</v>
+        <v>0.21898438000000003</v>
       </c>
     </row>
     <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34">
+      <c r="B63" s="31">
         <v>2019</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="32">
         <v>11</v>
       </c>
       <c r="D63" s="5">
@@ -4361,35 +4361,35 @@
       </c>
       <c r="L63" s="5">
         <f t="shared" si="6"/>
-        <v>7831.1461965570006</v>
+        <v>7555.8940235339123</v>
       </c>
       <c r="M63" s="3">
-        <v>2687.4059335134998</v>
+        <v>2480.4706212095998</v>
       </c>
       <c r="N63" s="3">
-        <v>4476.268327207501</v>
+        <v>4344.3803465193132</v>
       </c>
       <c r="O63" s="3">
-        <v>612.56275004999998</v>
+        <v>612.67386856000019</v>
       </c>
       <c r="P63" s="3">
-        <v>10.506913092</v>
+        <v>4.0122463450000003</v>
       </c>
       <c r="Q63" s="11">
-        <v>37.034007258999999</v>
+        <v>58.796987859999994</v>
       </c>
       <c r="R63" s="3">
-        <v>6.8037442799999992</v>
+        <v>55.348814779999998</v>
       </c>
       <c r="S63" s="6">
-        <v>0.56452115499999989</v>
+        <v>0.21113825999999997</v>
       </c>
     </row>
     <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="32">
+      <c r="B64" s="29">
         <v>2019</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="30">
         <v>10</v>
       </c>
       <c r="D64" s="22">
@@ -4419,35 +4419,35 @@
       </c>
       <c r="L64" s="22">
         <f t="shared" si="6"/>
-        <v>8142.6430797048588</v>
+        <v>7564.1221808391301</v>
       </c>
       <c r="M64" s="17">
-        <v>2745.9354684965042</v>
+        <v>2532.7762513215766</v>
       </c>
       <c r="N64" s="17">
-        <v>4736.7506870613533</v>
+        <v>4297.3858559405544</v>
       </c>
       <c r="O64" s="17">
-        <v>604.7617960900003</v>
+        <v>606.66118932999996</v>
       </c>
       <c r="P64" s="17">
-        <v>8.8911368260000003</v>
+        <v>5.7111421819999997</v>
       </c>
       <c r="Q64" s="16">
-        <v>41.498002944</v>
+        <v>64.496729185000007</v>
       </c>
       <c r="R64" s="17">
-        <v>4.35843588</v>
+        <v>56.887522270000005</v>
       </c>
       <c r="S64" s="7">
-        <v>0.44755240699999999</v>
+        <v>0.20349060999999999</v>
       </c>
     </row>
     <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="34">
+      <c r="B65" s="31">
         <v>2019</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="32">
         <v>9</v>
       </c>
       <c r="D65" s="5">
@@ -4477,35 +4477,35 @@
       </c>
       <c r="L65" s="5">
         <f t="shared" si="6"/>
-        <v>6633.7415436800029</v>
+        <v>7368.223949700222</v>
       </c>
       <c r="M65" s="3">
-        <v>2289.3534260344968</v>
+        <v>2492.5831110034319</v>
       </c>
       <c r="N65" s="3">
-        <v>3773.8464727675068</v>
+        <v>4168.1941198527893</v>
       </c>
       <c r="O65" s="3">
-        <v>527.36503372999948</v>
+        <v>564.70797957000025</v>
       </c>
       <c r="P65" s="3">
-        <v>8.0640420000000006</v>
+        <v>6.7826120650000004</v>
       </c>
       <c r="Q65" s="11">
-        <v>32.601814822999998</v>
+        <v>68.621584789000011</v>
       </c>
       <c r="R65" s="3">
-        <v>2.3511389399999998</v>
+        <v>67.080573079999994</v>
       </c>
       <c r="S65" s="6">
-        <v>0.159615385</v>
+        <v>0.25396934000000004</v>
       </c>
     </row>
     <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="32">
+      <c r="B66" s="29">
         <v>2019</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="30">
         <v>8</v>
       </c>
       <c r="D66" s="22">
@@ -4535,35 +4535,35 @@
       </c>
       <c r="L66" s="22">
         <f t="shared" si="6"/>
-        <v>7658.9491725908874</v>
+        <v>7875.1347427823239</v>
       </c>
       <c r="M66" s="17">
-        <v>2719.7331992549998</v>
+        <v>2623.4929048545905</v>
       </c>
       <c r="N66" s="17">
-        <v>4347.3157786078864</v>
+        <v>4528.0558628127355</v>
       </c>
       <c r="O66" s="17">
-        <v>544.13671407200002</v>
+        <v>599.40095962999965</v>
       </c>
       <c r="P66" s="17">
-        <v>7.3822649800000004</v>
+        <v>7.1929457959999992</v>
       </c>
       <c r="Q66" s="16">
-        <v>37.287069709999997</v>
+        <v>67.383048192999993</v>
       </c>
       <c r="R66" s="17">
-        <v>2.7605594199999999</v>
+        <v>49.255862180000001</v>
       </c>
       <c r="S66" s="7">
-        <v>0.33358654599999998</v>
+        <v>0.353159316</v>
       </c>
     </row>
     <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="34">
+      <c r="B67" s="31">
         <v>2019</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="32">
         <v>7</v>
       </c>
       <c r="D67" s="5">
@@ -4593,35 +4593,35 @@
       </c>
       <c r="L67" s="5">
         <f t="shared" si="6"/>
-        <v>7353.1727623347024</v>
+        <v>8143.3902304466164</v>
       </c>
       <c r="M67" s="3">
-        <v>2625.9467366160002</v>
+        <v>2699.0426404251648</v>
       </c>
       <c r="N67" s="3">
-        <v>4157.4580108327018</v>
+        <v>4690.7340326165104</v>
       </c>
       <c r="O67" s="3">
-        <v>517.70569403000059</v>
+        <v>626.75042356999995</v>
       </c>
       <c r="P67" s="3">
-        <v>9.0617785400000006</v>
+        <v>4.2158850049414749</v>
       </c>
       <c r="Q67" s="11">
-        <v>36.825079076000002</v>
+        <v>69.891604407999992</v>
       </c>
       <c r="R67" s="3">
-        <v>5.8351311600000004</v>
+        <v>52.570641740000006</v>
       </c>
       <c r="S67" s="6">
-        <v>0.34033207999999998</v>
+        <v>0.18500268199999997</v>
       </c>
     </row>
     <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="32">
+      <c r="B68" s="29">
         <v>2019</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="30">
         <v>6</v>
       </c>
       <c r="D68" s="22">
@@ -4651,35 +4651,35 @@
       </c>
       <c r="L68" s="22">
         <f t="shared" si="6"/>
-        <v>7352.5100897651027</v>
+        <v>7532.8116285687038</v>
       </c>
       <c r="M68" s="17">
-        <v>2476.4938742799982</v>
+        <v>2498.5873912253655</v>
       </c>
       <c r="N68" s="17">
-        <v>4312.6025955031046</v>
+        <v>4294.5408771924649</v>
       </c>
       <c r="O68" s="17">
-        <v>515.07792600000016</v>
+        <v>618.46245641899986</v>
       </c>
       <c r="P68" s="17">
-        <v>11.231821312999999</v>
+        <v>7.1837945668734235</v>
       </c>
       <c r="Q68" s="16">
-        <v>34.256908838999998</v>
+        <v>67.283344745000008</v>
       </c>
       <c r="R68" s="17">
-        <v>2.6046938000000002</v>
+        <v>46.514204849999999</v>
       </c>
       <c r="S68" s="7">
-        <v>0.24227003</v>
+        <v>0.23955957</v>
       </c>
     </row>
     <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="34">
+      <c r="B69" s="31">
         <v>2019</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="32">
         <v>5</v>
       </c>
       <c r="D69" s="5">
@@ -4709,35 +4709,35 @@
       </c>
       <c r="L69" s="5">
         <f t="shared" si="6"/>
-        <v>7334.9599437122397</v>
+        <v>7918.5192805454762</v>
       </c>
       <c r="M69" s="3">
-        <v>2713.3960539770019</v>
+        <v>2715.5986838884046</v>
       </c>
       <c r="N69" s="3">
-        <v>4023.2553769225378</v>
+        <v>4370.5287118188699</v>
       </c>
       <c r="O69" s="3">
-        <v>542.79762977000007</v>
+        <v>688.65007213000047</v>
       </c>
       <c r="P69" s="3">
-        <v>7.5060893896999996</v>
+        <v>6.9957881702000009</v>
       </c>
       <c r="Q69" s="11">
-        <v>42.505763026999993</v>
+        <v>77.028830357999993</v>
       </c>
       <c r="R69" s="3">
-        <v>5.1654440799999994</v>
+        <v>59.42133875999999</v>
       </c>
       <c r="S69" s="6">
-        <v>0.33358654599999998</v>
+        <v>0.29585541999999998</v>
       </c>
     </row>
     <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="32">
+      <c r="B70" s="29">
         <v>2019</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="30">
         <v>4</v>
       </c>
       <c r="D70" s="22">
@@ -4767,35 +4767,35 @@
       </c>
       <c r="L70" s="22">
         <f t="shared" si="6"/>
-        <v>7046.4603867411315</v>
+        <v>7390.6301600856887</v>
       </c>
       <c r="M70" s="17">
-        <v>2750.463505591501</v>
+        <v>2482.4826125118411</v>
       </c>
       <c r="N70" s="17">
-        <v>3736.9267533866309</v>
+        <v>4183.7452393018466</v>
       </c>
       <c r="O70" s="17">
-        <v>516.3334641199998</v>
+        <v>594.52454974000057</v>
       </c>
       <c r="P70" s="17">
-        <v>8.9935901099999995</v>
+        <v>6.8929467899999999</v>
       </c>
       <c r="Q70" s="16">
-        <v>32.577175492999999</v>
+        <v>61.99332402200001</v>
       </c>
       <c r="R70" s="17">
-        <v>0.73748120000000006</v>
+        <v>60.632588310000003</v>
       </c>
       <c r="S70" s="7">
-        <v>0.42841684000000002</v>
+        <v>0.35889941000000009</v>
       </c>
     </row>
     <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="34">
+      <c r="B71" s="31">
         <v>2019</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="32">
         <v>3</v>
       </c>
       <c r="D71" s="5">
@@ -4825,35 +4825,35 @@
       </c>
       <c r="L71" s="5">
         <f t="shared" si="6"/>
-        <v>7449.2591429184022</v>
+        <v>7316.8442337622519</v>
       </c>
       <c r="M71" s="3">
-        <v>2487.3447639574988</v>
+        <v>2584.8546054208359</v>
       </c>
       <c r="N71" s="3">
-        <v>4328.973769747904</v>
+        <v>3971.3774654550916</v>
       </c>
       <c r="O71" s="3">
-        <v>579.49765215000036</v>
+        <v>628.3360908439995</v>
       </c>
       <c r="P71" s="3">
-        <v>7.4413398099999997</v>
+        <v>8.5075610303260056</v>
       </c>
       <c r="Q71" s="11">
-        <v>39.990465413000003</v>
+        <v>68.783462650000004</v>
       </c>
       <c r="R71" s="3">
-        <v>5.7537497800000006</v>
+        <v>54.71253209999999</v>
       </c>
       <c r="S71" s="6">
-        <v>0.25740205999999999</v>
+        <v>0.27251626200000001</v>
       </c>
     </row>
     <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="32">
+      <c r="B72" s="29">
         <v>2019</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="30">
         <v>2</v>
       </c>
       <c r="D72" s="22">
@@ -4883,35 +4883,35 @@
       </c>
       <c r="L72" s="22">
         <f t="shared" si="6"/>
-        <v>7380.5613200561647</v>
+        <v>6363.5933863084483</v>
       </c>
       <c r="M72" s="17">
-        <v>2428.846732166</v>
+        <v>2189.6104131855614</v>
       </c>
       <c r="N72" s="17">
-        <v>4258.745057885164</v>
+        <v>3499.6909835169613</v>
       </c>
       <c r="O72" s="17">
-        <v>616.52099685999997</v>
+        <v>547.40245832199946</v>
       </c>
       <c r="P72" s="17">
-        <v>6.897613637000001</v>
+        <v>5.1177584499260034</v>
       </c>
       <c r="Q72" s="16">
-        <v>46.615575728000003</v>
+        <v>63.306209223999993</v>
       </c>
       <c r="R72" s="17">
-        <v>22.688503149999999</v>
+        <v>58.28962554000001</v>
       </c>
       <c r="S72" s="7">
-        <v>0.24684063000000001</v>
+        <v>0.17593807</v>
       </c>
     </row>
     <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="36">
+      <c r="B73" s="33">
         <v>2019</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="34">
         <v>1</v>
       </c>
       <c r="D73" s="9">
@@ -4941,35 +4941,35 @@
       </c>
       <c r="L73" s="9">
         <f t="shared" si="6"/>
-        <v>6838.7530584626184</v>
+        <v>6769.108553604312</v>
       </c>
       <c r="M73" s="8">
-        <v>2178.930646833498</v>
+        <v>2315.0380047690219</v>
       </c>
       <c r="N73" s="8">
-        <v>4081.32299100612</v>
+        <v>3695.4581032397491</v>
       </c>
       <c r="O73" s="8">
-        <v>505.39333284999958</v>
+        <v>592.54793959300025</v>
       </c>
       <c r="P73" s="8">
-        <v>4.1486682360000007</v>
+        <v>8.0988788035407904</v>
       </c>
       <c r="Q73" s="12">
-        <v>48.516144666999992</v>
+        <v>68.810378116999999</v>
       </c>
       <c r="R73" s="8">
-        <v>20.1564771</v>
+        <v>88.897206580000002</v>
       </c>
       <c r="S73" s="10">
-        <v>0.28479777000000012</v>
+        <v>0.25804250200000001</v>
       </c>
     </row>
     <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="38">
+      <c r="B74" s="35">
         <v>2018</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C74" s="36">
         <v>12</v>
       </c>
       <c r="D74" s="23">
@@ -4999,35 +4999,33 @@
       </c>
       <c r="L74" s="23">
         <f t="shared" si="6"/>
-        <v>6599.7211012138414</v>
+        <v>7145</v>
       </c>
       <c r="M74" s="24">
-        <v>1955.6864974084999</v>
+        <v>2425</v>
       </c>
       <c r="N74" s="24">
-        <v>4070.699793715341</v>
+        <v>3948</v>
       </c>
       <c r="O74" s="24">
-        <v>490.43616353999971</v>
+        <v>638</v>
       </c>
       <c r="P74" s="24">
-        <v>4.9919812889999999</v>
+        <v>8</v>
       </c>
       <c r="Q74" s="25">
-        <v>49.262628410999987</v>
+        <v>74</v>
       </c>
       <c r="R74" s="24">
-        <v>28.479580210000002</v>
-      </c>
-      <c r="S74" s="26">
-        <v>0.16445663999999999</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="S74" s="26"/>
     </row>
     <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="34">
+      <c r="B75" s="31">
         <v>2018</v>
       </c>
-      <c r="C75" s="35">
+      <c r="C75" s="32">
         <v>11</v>
       </c>
       <c r="D75" s="5">
@@ -5057,35 +5055,33 @@
       </c>
       <c r="L75" s="5">
         <f t="shared" si="6"/>
-        <v>6563.6809044984548</v>
+        <v>7655</v>
       </c>
       <c r="M75" s="3">
-        <v>2092.363650120501</v>
+        <v>2466</v>
       </c>
       <c r="N75" s="3">
-        <v>3810.8671320719541</v>
+        <v>4397</v>
       </c>
       <c r="O75" s="3">
-        <v>576.76851579999936</v>
+        <v>669</v>
       </c>
       <c r="P75" s="3">
-        <v>2.1857480950000001</v>
+        <v>8</v>
       </c>
       <c r="Q75" s="11">
-        <v>48.091960541000013</v>
+        <v>74</v>
       </c>
       <c r="R75" s="3">
-        <v>33.146718739999997</v>
-      </c>
-      <c r="S75" s="6">
-        <v>0.25717912999999998</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="S75" s="6"/>
     </row>
     <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="32">
+      <c r="B76" s="29">
         <v>2018</v>
       </c>
-      <c r="C76" s="33">
+      <c r="C76" s="30">
         <v>10</v>
       </c>
       <c r="D76" s="22">
@@ -5115,35 +5111,33 @@
       </c>
       <c r="L76" s="22">
         <f t="shared" si="6"/>
-        <v>7720.3875207885012</v>
+        <v>7509</v>
       </c>
       <c r="M76" s="17">
-        <v>2719.9630072755008</v>
+        <v>2604</v>
       </c>
       <c r="N76" s="17">
-        <v>4308.5178526390009</v>
+        <v>4133</v>
       </c>
       <c r="O76" s="17">
-        <v>550.02743308999959</v>
+        <v>655</v>
       </c>
       <c r="P76" s="17">
-        <v>7.8376115140000007</v>
+        <v>4</v>
       </c>
       <c r="Q76" s="16">
-        <v>49.157905969999987</v>
+        <v>72</v>
       </c>
       <c r="R76" s="17">
-        <v>84.630515320000001</v>
-      </c>
-      <c r="S76" s="7">
-        <v>0.25319498000000001</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="S76" s="7"/>
     </row>
     <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="34">
+      <c r="B77" s="31">
         <v>2018</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="32">
         <v>9</v>
       </c>
       <c r="D77" s="5">
@@ -5173,35 +5167,33 @@
       </c>
       <c r="L77" s="5">
         <f t="shared" si="6"/>
-        <v>7398.4236104454985</v>
+        <v>7135</v>
       </c>
       <c r="M77" s="3">
-        <v>2611.3807745675008</v>
+        <v>2350</v>
       </c>
       <c r="N77" s="3">
-        <v>4099.994935206998</v>
+        <v>4008</v>
       </c>
       <c r="O77" s="3">
-        <v>576.65962569999999</v>
+        <v>655</v>
       </c>
       <c r="P77" s="3">
-        <v>5.8101744709999998</v>
+        <v>8</v>
       </c>
       <c r="Q77" s="11">
-        <v>48.975136419999998</v>
+        <v>63</v>
       </c>
       <c r="R77" s="3">
-        <v>55.332080869999999</v>
-      </c>
-      <c r="S77" s="6">
-        <v>0.2708832100000001</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="S77" s="6"/>
     </row>
     <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="32">
+      <c r="B78" s="29">
         <v>2018</v>
       </c>
-      <c r="C78" s="33">
+      <c r="C78" s="30">
         <v>8</v>
       </c>
       <c r="D78" s="22">
@@ -5231,35 +5223,33 @@
       </c>
       <c r="L78" s="22">
         <f t="shared" si="6"/>
-        <v>7185.7383871704087</v>
+        <v>7620</v>
       </c>
       <c r="M78" s="17">
-        <v>2557.950665571791</v>
+        <v>2514</v>
       </c>
       <c r="N78" s="17">
-        <v>3902.6936190776169</v>
+        <v>4292</v>
       </c>
       <c r="O78" s="17">
-        <v>613.68125601999952</v>
+        <v>680</v>
       </c>
       <c r="P78" s="17">
-        <v>5.5450976610000007</v>
+        <v>8</v>
       </c>
       <c r="Q78" s="16">
-        <v>54.17302995</v>
+        <v>69</v>
       </c>
       <c r="R78" s="17">
-        <v>51.401263659999998</v>
-      </c>
-      <c r="S78" s="7">
-        <v>0.29345523000000012</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="S78" s="7"/>
     </row>
     <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="34">
+      <c r="B79" s="31">
         <v>2018</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="32">
         <v>7</v>
       </c>
       <c r="D79" s="5">
@@ -5289,35 +5279,33 @@
       </c>
       <c r="L79" s="5">
         <f t="shared" si="6"/>
-        <v>7283.4758425855061</v>
+        <v>7610</v>
       </c>
       <c r="M79" s="3">
-        <v>2545.6933826471468</v>
+        <v>2530</v>
       </c>
       <c r="N79" s="3">
-        <v>4050.2897667273596</v>
+        <v>4228</v>
       </c>
       <c r="O79" s="3">
-        <v>573.5496261799999</v>
+        <v>716</v>
       </c>
       <c r="P79" s="3">
-        <v>4.2298997729999996</v>
+        <v>8</v>
       </c>
       <c r="Q79" s="11">
-        <v>56.884561087999998</v>
+        <v>77</v>
       </c>
       <c r="R79" s="3">
-        <v>52.609621790000006</v>
-      </c>
-      <c r="S79" s="6">
-        <v>0.21898438000000003</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="S79" s="6"/>
     </row>
     <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="32">
+      <c r="B80" s="29">
         <v>2018</v>
       </c>
-      <c r="C80" s="33">
+      <c r="C80" s="30">
         <v>6</v>
       </c>
       <c r="D80" s="22">
@@ -5347,35 +5335,33 @@
       </c>
       <c r="L80" s="22">
         <f t="shared" si="6"/>
-        <v>7555.8940235339123</v>
+        <v>7627</v>
       </c>
       <c r="M80" s="17">
-        <v>2480.4706212095998</v>
+        <v>2524</v>
       </c>
       <c r="N80" s="17">
-        <v>4344.3803465193132</v>
+        <v>4291</v>
       </c>
       <c r="O80" s="17">
-        <v>612.67386856000019</v>
+        <v>673</v>
       </c>
       <c r="P80" s="17">
-        <v>4.0122463450000003</v>
+        <v>9</v>
       </c>
       <c r="Q80" s="16">
-        <v>58.796987859999994</v>
+        <v>74</v>
       </c>
       <c r="R80" s="17">
-        <v>55.348814779999998</v>
-      </c>
-      <c r="S80" s="7">
-        <v>0.21113825999999997</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="S80" s="7"/>
     </row>
     <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="34">
+      <c r="B81" s="31">
         <v>2018</v>
       </c>
-      <c r="C81" s="35">
+      <c r="C81" s="32">
         <v>5</v>
       </c>
       <c r="D81" s="5">
@@ -5405,35 +5391,33 @@
       </c>
       <c r="L81" s="5">
         <f t="shared" si="6"/>
-        <v>7564.1221808391301</v>
+        <v>7899</v>
       </c>
       <c r="M81" s="3">
-        <v>2532.7762513215766</v>
+        <v>2695</v>
       </c>
       <c r="N81" s="3">
-        <v>4297.3858559405544</v>
+        <v>4507</v>
       </c>
       <c r="O81" s="3">
-        <v>606.66118932999996</v>
+        <v>556</v>
       </c>
       <c r="P81" s="3">
-        <v>5.7111421819999997</v>
+        <v>8</v>
       </c>
       <c r="Q81" s="11">
-        <v>64.496729185000007</v>
+        <v>78</v>
       </c>
       <c r="R81" s="3">
-        <v>56.887522270000005</v>
-      </c>
-      <c r="S81" s="6">
-        <v>0.20349060999999999</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="S81" s="6"/>
     </row>
     <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="32">
+      <c r="B82" s="29">
         <v>2018</v>
       </c>
-      <c r="C82" s="33">
+      <c r="C82" s="30">
         <v>4</v>
       </c>
       <c r="D82" s="22">
@@ -5463,35 +5447,33 @@
       </c>
       <c r="L82" s="22">
         <f t="shared" si="6"/>
-        <v>7368.223949700222</v>
+        <v>7284</v>
       </c>
       <c r="M82" s="17">
-        <v>2492.5831110034319</v>
+        <v>2592</v>
       </c>
       <c r="N82" s="17">
-        <v>4168.1941198527893</v>
+        <v>3860</v>
       </c>
       <c r="O82" s="17">
-        <v>564.70797957000025</v>
+        <v>701</v>
       </c>
       <c r="P82" s="17">
-        <v>6.7826120650000004</v>
+        <v>8</v>
       </c>
       <c r="Q82" s="16">
-        <v>68.621584789000011</v>
+        <v>73</v>
       </c>
       <c r="R82" s="17">
-        <v>67.080573079999994</v>
-      </c>
-      <c r="S82" s="7">
-        <v>0.25396934000000004</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="S82" s="7"/>
     </row>
     <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="34">
+      <c r="B83" s="31">
         <v>2018</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="32">
         <v>3</v>
       </c>
       <c r="D83" s="5">
@@ -5521,35 +5503,33 @@
       </c>
       <c r="L83" s="5">
         <f t="shared" si="6"/>
-        <v>7875.1347427823239</v>
+        <v>7079</v>
       </c>
       <c r="M83" s="3">
-        <v>2623.4929048545905</v>
+        <v>2512</v>
       </c>
       <c r="N83" s="3">
-        <v>4528.0558628127355</v>
+        <v>3719</v>
       </c>
       <c r="O83" s="3">
-        <v>599.40095962999965</v>
+        <v>718</v>
       </c>
       <c r="P83" s="3">
-        <v>7.1929457959999992</v>
+        <v>9</v>
       </c>
       <c r="Q83" s="11">
-        <v>67.383048192999993</v>
+        <v>68</v>
       </c>
       <c r="R83" s="3">
-        <v>49.255862180000001</v>
-      </c>
-      <c r="S83" s="6">
-        <v>0.353159316</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="S83" s="6"/>
     </row>
     <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="32">
+      <c r="B84" s="29">
         <v>2018</v>
       </c>
-      <c r="C84" s="33">
+      <c r="C84" s="30">
         <v>2</v>
       </c>
       <c r="D84" s="22">
@@ -5579,35 +5559,33 @@
       </c>
       <c r="L84" s="22">
         <f t="shared" si="6"/>
-        <v>8143.3902304466164</v>
+        <v>6237</v>
       </c>
       <c r="M84" s="17">
-        <v>2699.0426404251648</v>
+        <v>2209</v>
       </c>
       <c r="N84" s="17">
-        <v>4690.7340326165104</v>
+        <v>3275</v>
       </c>
       <c r="O84" s="17">
-        <v>626.75042356999995</v>
+        <v>646</v>
       </c>
       <c r="P84" s="17">
-        <v>4.2158850049414749</v>
+        <v>8</v>
       </c>
       <c r="Q84" s="16">
-        <v>69.891604407999992</v>
+        <v>60</v>
       </c>
       <c r="R84" s="17">
-        <v>52.570641740000006</v>
-      </c>
-      <c r="S84" s="7">
-        <v>0.18500268199999997</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="S84" s="7"/>
     </row>
     <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="36">
+      <c r="B85" s="33">
         <v>2018</v>
       </c>
-      <c r="C85" s="37">
+      <c r="C85" s="34">
         <v>1</v>
       </c>
       <c r="D85" s="9">
@@ -5637,32 +5615,32 @@
       </c>
       <c r="L85" s="9">
         <f t="shared" si="6"/>
-        <v>7532.8116285687038</v>
+        <v>7153</v>
       </c>
       <c r="M85" s="8">
-        <v>2498.5873912253655</v>
+        <v>2519</v>
       </c>
       <c r="N85" s="8">
-        <v>4294.5408771924649</v>
+        <v>3737</v>
       </c>
       <c r="O85" s="8">
-        <v>618.46245641899986</v>
+        <v>754</v>
       </c>
       <c r="P85" s="8">
-        <v>7.1837945668734235</v>
+        <v>11</v>
       </c>
       <c r="Q85" s="12">
-        <v>67.283344745000008</v>
+        <v>66</v>
       </c>
       <c r="R85" s="8">
-        <v>46.514204849999999</v>
+        <v>65</v>
       </c>
       <c r="S85" s="10">
-        <v>0.23955957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="28" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F24A8F-DF23-4904-A3A3-E88F3C8B2A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB20B21C-DD7B-4F7B-89DF-13EF6FEE8095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_24" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -108,6 +108,42 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1061,8 @@
       <c r="B6" s="29">
         <v>2024</v>
       </c>
-      <c r="C6" s="30">
-        <v>8</v>
+      <c r="C6" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="22">
         <f>SUM(E6:K6)</f>
@@ -1083,8 +1119,8 @@
       <c r="B7" s="31">
         <v>2024</v>
       </c>
-      <c r="C7" s="32">
-        <v>7</v>
+      <c r="C7" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="5">
         <f>SUM(E7:K7)</f>
@@ -1141,8 +1177,8 @@
       <c r="B8" s="29">
         <v>2024</v>
       </c>
-      <c r="C8" s="30">
-        <v>6</v>
+      <c r="C8" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="22">
         <f>SUM(E8:K8)</f>
@@ -1199,8 +1235,8 @@
       <c r="B9" s="31">
         <v>2024</v>
       </c>
-      <c r="C9" s="32">
-        <v>5</v>
+      <c r="C9" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="5">
         <f>SUM(E9:K9)</f>
@@ -1257,8 +1293,8 @@
       <c r="B10" s="29">
         <v>2024</v>
       </c>
-      <c r="C10" s="30">
-        <v>4</v>
+      <c r="C10" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D24" si="1">SUM(E10:K10)</f>
@@ -1315,8 +1351,8 @@
       <c r="B11" s="31">
         <v>2024</v>
       </c>
-      <c r="C11" s="32">
-        <v>3</v>
+      <c r="C11" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
@@ -1373,8 +1409,8 @@
       <c r="B12" s="29">
         <v>2024</v>
       </c>
-      <c r="C12" s="30">
-        <v>2</v>
+      <c r="C12" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" si="1"/>
@@ -1431,8 +1467,8 @@
       <c r="B13" s="33">
         <v>2024</v>
       </c>
-      <c r="C13" s="34">
-        <v>1</v>
+      <c r="C13" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="1"/>
@@ -1489,8 +1525,8 @@
       <c r="B14" s="35">
         <v>2023</v>
       </c>
-      <c r="C14" s="36">
-        <v>12</v>
+      <c r="C14" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="23">
         <f t="shared" si="1"/>
@@ -1547,8 +1583,8 @@
       <c r="B15" s="31">
         <v>2023</v>
       </c>
-      <c r="C15" s="32">
-        <v>11</v>
+      <c r="C15" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
@@ -1605,8 +1641,8 @@
       <c r="B16" s="29">
         <v>2023</v>
       </c>
-      <c r="C16" s="30">
-        <v>10</v>
+      <c r="C16" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="22">
         <f t="shared" si="1"/>
@@ -1663,8 +1699,8 @@
       <c r="B17" s="31">
         <v>2023</v>
       </c>
-      <c r="C17" s="32">
-        <v>9</v>
+      <c r="C17" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
@@ -1721,8 +1757,8 @@
       <c r="B18" s="29">
         <v>2023</v>
       </c>
-      <c r="C18" s="30">
-        <v>8</v>
+      <c r="C18" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="22">
         <f t="shared" si="1"/>
@@ -1779,8 +1815,8 @@
       <c r="B19" s="31">
         <v>2023</v>
       </c>
-      <c r="C19" s="32">
-        <v>7</v>
+      <c r="C19" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="1"/>
@@ -1837,8 +1873,8 @@
       <c r="B20" s="29">
         <v>2023</v>
       </c>
-      <c r="C20" s="30">
-        <v>6</v>
+      <c r="C20" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="22">
         <f t="shared" si="1"/>
@@ -1895,8 +1931,8 @@
       <c r="B21" s="31">
         <v>2023</v>
       </c>
-      <c r="C21" s="32">
-        <v>5</v>
+      <c r="C21" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
@@ -1953,8 +1989,8 @@
       <c r="B22" s="29">
         <v>2023</v>
       </c>
-      <c r="C22" s="30">
-        <v>4</v>
+      <c r="C22" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="22">
         <f t="shared" si="1"/>
@@ -2011,8 +2047,8 @@
       <c r="B23" s="31">
         <v>2023</v>
       </c>
-      <c r="C23" s="32">
-        <v>3</v>
+      <c r="C23" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="1"/>
@@ -2069,8 +2105,8 @@
       <c r="B24" s="29">
         <v>2023</v>
       </c>
-      <c r="C24" s="30">
-        <v>2</v>
+      <c r="C24" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="D24" s="22">
         <f t="shared" si="1"/>
@@ -2127,8 +2163,8 @@
       <c r="B25" s="33">
         <v>2023</v>
       </c>
-      <c r="C25" s="34">
-        <v>1</v>
+      <c r="C25" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ref="D25:D56" si="3">SUM(E25:K25)</f>
@@ -2185,8 +2221,8 @@
       <c r="B26" s="35">
         <v>2022</v>
       </c>
-      <c r="C26" s="36">
-        <v>12</v>
+      <c r="C26" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="D26" s="23">
         <f t="shared" si="3"/>
@@ -2243,8 +2279,8 @@
       <c r="B27" s="31">
         <v>2022</v>
       </c>
-      <c r="C27" s="32">
-        <v>11</v>
+      <c r="C27" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="3"/>
@@ -2301,8 +2337,8 @@
       <c r="B28" s="29">
         <v>2022</v>
       </c>
-      <c r="C28" s="30">
-        <v>10</v>
+      <c r="C28" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="D28" s="22">
         <f t="shared" si="3"/>
@@ -2359,8 +2395,8 @@
       <c r="B29" s="31">
         <v>2022</v>
       </c>
-      <c r="C29" s="32">
-        <v>9</v>
+      <c r="C29" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" si="3"/>
@@ -2417,8 +2453,8 @@
       <c r="B30" s="29">
         <v>2022</v>
       </c>
-      <c r="C30" s="30">
-        <v>8</v>
+      <c r="C30" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="D30" s="22">
         <f t="shared" si="3"/>
@@ -2475,8 +2511,8 @@
       <c r="B31" s="31">
         <v>2022</v>
       </c>
-      <c r="C31" s="32">
-        <v>7</v>
+      <c r="C31" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="3"/>
@@ -2533,8 +2569,8 @@
       <c r="B32" s="29">
         <v>2022</v>
       </c>
-      <c r="C32" s="30">
-        <v>6</v>
+      <c r="C32" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="D32" s="22">
         <f t="shared" si="3"/>
@@ -2591,8 +2627,8 @@
       <c r="B33" s="31">
         <v>2022</v>
       </c>
-      <c r="C33" s="32">
-        <v>5</v>
+      <c r="C33" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="D33" s="5">
         <f t="shared" si="3"/>
@@ -2649,8 +2685,8 @@
       <c r="B34" s="29">
         <v>2022</v>
       </c>
-      <c r="C34" s="30">
-        <v>4</v>
+      <c r="C34" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="D34" s="22">
         <f t="shared" si="3"/>
@@ -2707,8 +2743,8 @@
       <c r="B35" s="31">
         <v>2022</v>
       </c>
-      <c r="C35" s="32">
-        <v>3</v>
+      <c r="C35" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="3"/>
@@ -2765,8 +2801,8 @@
       <c r="B36" s="29">
         <v>2022</v>
       </c>
-      <c r="C36" s="30">
-        <v>2</v>
+      <c r="C36" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="D36" s="22">
         <f t="shared" si="3"/>
@@ -2823,8 +2859,8 @@
       <c r="B37" s="33">
         <v>2022</v>
       </c>
-      <c r="C37" s="34">
-        <v>1</v>
+      <c r="C37" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" si="3"/>
@@ -2881,8 +2917,8 @@
       <c r="B38" s="35">
         <v>2021</v>
       </c>
-      <c r="C38" s="36">
-        <v>12</v>
+      <c r="C38" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="D38" s="23">
         <f t="shared" si="3"/>
@@ -2939,8 +2975,8 @@
       <c r="B39" s="31">
         <v>2021</v>
       </c>
-      <c r="C39" s="32">
-        <v>11</v>
+      <c r="C39" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" si="3"/>
@@ -2997,8 +3033,8 @@
       <c r="B40" s="29">
         <v>2021</v>
       </c>
-      <c r="C40" s="30">
-        <v>10</v>
+      <c r="C40" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="D40" s="22">
         <f t="shared" si="3"/>
@@ -3055,8 +3091,8 @@
       <c r="B41" s="31">
         <v>2021</v>
       </c>
-      <c r="C41" s="32">
-        <v>9</v>
+      <c r="C41" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="3"/>
@@ -3113,8 +3149,8 @@
       <c r="B42" s="29">
         <v>2021</v>
       </c>
-      <c r="C42" s="30">
-        <v>8</v>
+      <c r="C42" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="D42" s="22">
         <f t="shared" si="3"/>
@@ -3171,8 +3207,8 @@
       <c r="B43" s="31">
         <v>2021</v>
       </c>
-      <c r="C43" s="32">
-        <v>7</v>
+      <c r="C43" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="D43" s="5">
         <f t="shared" si="3"/>
@@ -3229,8 +3265,8 @@
       <c r="B44" s="29">
         <v>2021</v>
       </c>
-      <c r="C44" s="30">
-        <v>6</v>
+      <c r="C44" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="D44" s="22">
         <f t="shared" si="3"/>
@@ -3287,8 +3323,8 @@
       <c r="B45" s="31">
         <v>2021</v>
       </c>
-      <c r="C45" s="32">
-        <v>5</v>
+      <c r="C45" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="D45" s="5">
         <f t="shared" si="3"/>
@@ -3345,8 +3381,8 @@
       <c r="B46" s="29">
         <v>2021</v>
       </c>
-      <c r="C46" s="30">
-        <v>4</v>
+      <c r="C46" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="D46" s="22">
         <f t="shared" si="3"/>
@@ -3403,8 +3439,8 @@
       <c r="B47" s="31">
         <v>2021</v>
       </c>
-      <c r="C47" s="32">
-        <v>3</v>
+      <c r="C47" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" si="3"/>
@@ -3461,8 +3497,8 @@
       <c r="B48" s="29">
         <v>2021</v>
       </c>
-      <c r="C48" s="30">
-        <v>2</v>
+      <c r="C48" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="D48" s="22">
         <f t="shared" si="3"/>
@@ -3519,8 +3555,8 @@
       <c r="B49" s="33">
         <v>2021</v>
       </c>
-      <c r="C49" s="34">
-        <v>1</v>
+      <c r="C49" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" si="3"/>
@@ -3577,8 +3613,8 @@
       <c r="B50" s="35">
         <v>2020</v>
       </c>
-      <c r="C50" s="36">
-        <v>12</v>
+      <c r="C50" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="D50" s="23">
         <f t="shared" si="3"/>
@@ -3635,8 +3671,8 @@
       <c r="B51" s="31">
         <v>2020</v>
       </c>
-      <c r="C51" s="32">
-        <v>11</v>
+      <c r="C51" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" si="3"/>
@@ -3693,8 +3729,8 @@
       <c r="B52" s="29">
         <v>2020</v>
       </c>
-      <c r="C52" s="30">
-        <v>10</v>
+      <c r="C52" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="D52" s="22">
         <f t="shared" si="3"/>
@@ -3751,8 +3787,8 @@
       <c r="B53" s="31">
         <v>2020</v>
       </c>
-      <c r="C53" s="32">
-        <v>9</v>
+      <c r="C53" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" si="3"/>
@@ -3809,8 +3845,8 @@
       <c r="B54" s="29">
         <v>2020</v>
       </c>
-      <c r="C54" s="30">
-        <v>8</v>
+      <c r="C54" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="D54" s="22">
         <f t="shared" si="3"/>
@@ -3867,8 +3903,8 @@
       <c r="B55" s="31">
         <v>2020</v>
       </c>
-      <c r="C55" s="32">
-        <v>7</v>
+      <c r="C55" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="D55" s="5">
         <f t="shared" si="3"/>
@@ -3925,8 +3961,8 @@
       <c r="B56" s="29">
         <v>2020</v>
       </c>
-      <c r="C56" s="30">
-        <v>6</v>
+      <c r="C56" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="D56" s="22">
         <f t="shared" si="3"/>
@@ -3983,8 +4019,8 @@
       <c r="B57" s="31">
         <v>2020</v>
       </c>
-      <c r="C57" s="32">
-        <v>5</v>
+      <c r="C57" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="D57" s="5">
         <f t="shared" ref="D57:D85" si="5">SUM(E57:K57)</f>
@@ -4041,8 +4077,8 @@
       <c r="B58" s="29">
         <v>2020</v>
       </c>
-      <c r="C58" s="30">
-        <v>4</v>
+      <c r="C58" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="D58" s="22">
         <f t="shared" si="5"/>
@@ -4099,8 +4135,8 @@
       <c r="B59" s="31">
         <v>2020</v>
       </c>
-      <c r="C59" s="32">
-        <v>3</v>
+      <c r="C59" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="D59" s="5">
         <f t="shared" si="5"/>
@@ -4157,8 +4193,8 @@
       <c r="B60" s="29">
         <v>2020</v>
       </c>
-      <c r="C60" s="30">
-        <v>2</v>
+      <c r="C60" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="D60" s="22">
         <f t="shared" si="5"/>
@@ -4215,8 +4251,8 @@
       <c r="B61" s="33">
         <v>2020</v>
       </c>
-      <c r="C61" s="34">
-        <v>1</v>
+      <c r="C61" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D61" s="9">
         <f t="shared" si="5"/>
@@ -4273,8 +4309,8 @@
       <c r="B62" s="35">
         <v>2019</v>
       </c>
-      <c r="C62" s="36">
-        <v>12</v>
+      <c r="C62" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="D62" s="23">
         <f t="shared" si="5"/>
@@ -4331,8 +4367,8 @@
       <c r="B63" s="31">
         <v>2019</v>
       </c>
-      <c r="C63" s="32">
-        <v>11</v>
+      <c r="C63" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="D63" s="5">
         <f t="shared" si="5"/>
@@ -4389,8 +4425,8 @@
       <c r="B64" s="29">
         <v>2019</v>
       </c>
-      <c r="C64" s="30">
-        <v>10</v>
+      <c r="C64" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="D64" s="22">
         <f t="shared" si="5"/>
@@ -4447,8 +4483,8 @@
       <c r="B65" s="31">
         <v>2019</v>
       </c>
-      <c r="C65" s="32">
-        <v>9</v>
+      <c r="C65" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="D65" s="5">
         <f t="shared" si="5"/>
@@ -4505,8 +4541,8 @@
       <c r="B66" s="29">
         <v>2019</v>
       </c>
-      <c r="C66" s="30">
-        <v>8</v>
+      <c r="C66" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="D66" s="22">
         <f t="shared" si="5"/>
@@ -4563,8 +4599,8 @@
       <c r="B67" s="31">
         <v>2019</v>
       </c>
-      <c r="C67" s="32">
-        <v>7</v>
+      <c r="C67" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="D67" s="5">
         <f t="shared" si="5"/>
@@ -4621,8 +4657,8 @@
       <c r="B68" s="29">
         <v>2019</v>
       </c>
-      <c r="C68" s="30">
-        <v>6</v>
+      <c r="C68" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="D68" s="22">
         <f t="shared" si="5"/>
@@ -4679,8 +4715,8 @@
       <c r="B69" s="31">
         <v>2019</v>
       </c>
-      <c r="C69" s="32">
-        <v>5</v>
+      <c r="C69" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="D69" s="5">
         <f t="shared" si="5"/>
@@ -4737,8 +4773,8 @@
       <c r="B70" s="29">
         <v>2019</v>
       </c>
-      <c r="C70" s="30">
-        <v>4</v>
+      <c r="C70" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="D70" s="22">
         <f t="shared" si="5"/>
@@ -4795,8 +4831,8 @@
       <c r="B71" s="31">
         <v>2019</v>
       </c>
-      <c r="C71" s="32">
-        <v>3</v>
+      <c r="C71" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="D71" s="5">
         <f t="shared" si="5"/>
@@ -4853,8 +4889,8 @@
       <c r="B72" s="29">
         <v>2019</v>
       </c>
-      <c r="C72" s="30">
-        <v>2</v>
+      <c r="C72" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="D72" s="22">
         <f t="shared" si="5"/>
@@ -4911,8 +4947,8 @@
       <c r="B73" s="33">
         <v>2019</v>
       </c>
-      <c r="C73" s="34">
-        <v>1</v>
+      <c r="C73" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" si="5"/>
@@ -4969,8 +5005,8 @@
       <c r="B74" s="35">
         <v>2018</v>
       </c>
-      <c r="C74" s="36">
-        <v>12</v>
+      <c r="C74" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="D74" s="23">
         <f t="shared" si="5"/>
@@ -5025,8 +5061,8 @@
       <c r="B75" s="31">
         <v>2018</v>
       </c>
-      <c r="C75" s="32">
-        <v>11</v>
+      <c r="C75" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="D75" s="5">
         <f t="shared" si="5"/>
@@ -5081,8 +5117,8 @@
       <c r="B76" s="29">
         <v>2018</v>
       </c>
-      <c r="C76" s="30">
-        <v>10</v>
+      <c r="C76" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="D76" s="22">
         <f t="shared" si="5"/>
@@ -5137,8 +5173,8 @@
       <c r="B77" s="31">
         <v>2018</v>
       </c>
-      <c r="C77" s="32">
-        <v>9</v>
+      <c r="C77" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="D77" s="5">
         <f t="shared" si="5"/>
@@ -5193,8 +5229,8 @@
       <c r="B78" s="29">
         <v>2018</v>
       </c>
-      <c r="C78" s="30">
-        <v>8</v>
+      <c r="C78" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="D78" s="22">
         <f t="shared" si="5"/>
@@ -5249,8 +5285,8 @@
       <c r="B79" s="31">
         <v>2018</v>
       </c>
-      <c r="C79" s="32">
-        <v>7</v>
+      <c r="C79" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="D79" s="5">
         <f t="shared" si="5"/>
@@ -5305,8 +5341,8 @@
       <c r="B80" s="29">
         <v>2018</v>
       </c>
-      <c r="C80" s="30">
-        <v>6</v>
+      <c r="C80" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="D80" s="22">
         <f t="shared" si="5"/>
@@ -5361,8 +5397,8 @@
       <c r="B81" s="31">
         <v>2018</v>
       </c>
-      <c r="C81" s="32">
-        <v>5</v>
+      <c r="C81" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="D81" s="5">
         <f t="shared" si="5"/>
@@ -5417,8 +5453,8 @@
       <c r="B82" s="29">
         <v>2018</v>
       </c>
-      <c r="C82" s="30">
-        <v>4</v>
+      <c r="C82" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="D82" s="22">
         <f t="shared" si="5"/>
@@ -5473,8 +5509,8 @@
       <c r="B83" s="31">
         <v>2018</v>
       </c>
-      <c r="C83" s="32">
-        <v>3</v>
+      <c r="C83" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="D83" s="5">
         <f t="shared" si="5"/>
@@ -5529,8 +5565,8 @@
       <c r="B84" s="29">
         <v>2018</v>
       </c>
-      <c r="C84" s="30">
-        <v>2</v>
+      <c r="C84" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="D84" s="22">
         <f t="shared" si="5"/>
@@ -5585,8 +5621,8 @@
       <c r="B85" s="33">
         <v>2018</v>
       </c>
-      <c r="C85" s="34">
-        <v>1</v>
+      <c r="C85" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D85" s="9">
         <f t="shared" si="5"/>

--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB20B21C-DD7B-4F7B-89DF-13EF6FEE8095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA7B64D-8064-4F05-B1AC-D3C5F1B97EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Ago.</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Sep.</t>
+  </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -612,19 +612,19 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -676,8 +676,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S85" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="B5:S85" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S86" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="B5:S86" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -934,7 +934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:S87"/>
+  <dimension ref="B2:S88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1057,4634 +1057,4692 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="29">
+    <row r="6" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="31">
         <v>2024</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5">
+        <f>SUM(E6:K6)</f>
+        <v>10170.542102500001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4225.2215324999997</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4638.9146110000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1003.004611</v>
+      </c>
+      <c r="H6" s="3">
+        <v>176.79925700000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>101.900481</v>
+      </c>
+      <c r="J6" s="3">
+        <v>8.8647200000000002</v>
+      </c>
+      <c r="K6" s="11">
+        <v>15.83689</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6:L15" si="0">SUM(M6:S6)</f>
+        <v>7310.5741896424306</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2773.4403533764998</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3963.623746364</v>
+      </c>
+      <c r="O6" s="3">
+        <v>532.89884495000001</v>
+      </c>
+      <c r="P6" s="3">
+        <v>5.771046664</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>25.803035709</v>
+      </c>
+      <c r="R6" s="3">
+        <v>8.7877683089299996</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.24939427</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="29">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="22">
+        <f>SUM(E7:K7)</f>
+        <v>11251.137121</v>
+      </c>
+      <c r="E7" s="17">
+        <v>4380.0285290000002</v>
+      </c>
+      <c r="F7" s="17">
+        <v>5224.974502</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1317.7201729999999</v>
+      </c>
+      <c r="H7" s="17">
+        <v>177.187535</v>
+      </c>
+      <c r="I7" s="17">
+        <v>105.991382</v>
+      </c>
+      <c r="J7" s="17">
+        <v>30.662199999999999</v>
+      </c>
+      <c r="K7" s="16">
+        <v>14.572800000000001</v>
+      </c>
+      <c r="L7" s="22">
+        <f t="shared" si="0"/>
+        <v>8231.3888027003995</v>
+      </c>
+      <c r="M7" s="17">
+        <v>2880.310271714</v>
+      </c>
+      <c r="N7" s="17">
+        <v>4609.8136975879997</v>
+      </c>
+      <c r="O7" s="16">
+        <v>698.22568952999995</v>
+      </c>
+      <c r="P7" s="16">
+        <v>5.5616272489999998</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>26.096916030999999</v>
+      </c>
+      <c r="R7" s="16">
+        <v>11.0747022284</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0.30589835999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="31">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="22">
-        <f>SUM(E6:K6)</f>
-        <v>11251.137121</v>
-      </c>
-      <c r="E6" s="17">
-        <v>4380.0285290000002</v>
-      </c>
-      <c r="F6" s="17">
-        <v>5224.974502</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1317.7201729999999</v>
-      </c>
-      <c r="H6" s="17">
-        <v>177.187535</v>
-      </c>
-      <c r="I6" s="17">
-        <v>105.991382</v>
-      </c>
-      <c r="J6" s="17">
-        <v>30.662199999999999</v>
-      </c>
-      <c r="K6" s="16">
-        <v>14.572800000000001</v>
-      </c>
-      <c r="L6" s="22">
-        <f t="shared" ref="L6:L14" si="0">SUM(M6:S6)</f>
-        <v>8231.3888027003995</v>
-      </c>
-      <c r="M6" s="17">
-        <v>2880.310271714</v>
-      </c>
-      <c r="N6" s="17">
-        <v>4609.8136975879997</v>
-      </c>
-      <c r="O6" s="16">
-        <v>698.22568952999995</v>
-      </c>
-      <c r="P6" s="16">
-        <v>5.5616272489999998</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>26.096916030999999</v>
-      </c>
-      <c r="R6" s="16">
-        <v>11.0747022284</v>
-      </c>
-      <c r="S6" s="13">
-        <v>0.30589835999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="31">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5">
-        <f>SUM(E7:K7)</f>
+      <c r="D8" s="5">
+        <f>SUM(E8:K8)</f>
         <v>11073.580067999997</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>4264.3103259999998</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>5088.2590179999997</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>1297.469726</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <v>268.56850200000002</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="3">
         <v>126.038926</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="3">
         <v>8.8992199999999997</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K8" s="11">
         <v>20.03435</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L8" s="5">
         <f t="shared" si="0"/>
         <v>7865.3882907427005</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M8" s="3">
         <v>2769.2323164145</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N8" s="3">
         <v>4334.8919746190004</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O8" s="3">
         <v>700.48098283000002</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P8" s="3">
         <v>10.097477002</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q8" s="11">
         <v>37.109888814999998</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R8" s="3">
         <v>13.1854440822</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S8" s="6">
         <v>0.39020697999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="29">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="29">
         <v>2024</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="22">
-        <f>SUM(E8:K8)</f>
+      <c r="C9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="22">
+        <f>SUM(E9:K9)</f>
         <v>11161.666198499997</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>4078.3567754999999</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>5481.9287759999997</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G9" s="16">
         <v>1221.811635</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="17">
         <v>239.36940000000001</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <v>105.50866000000001</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J9" s="17">
         <v>9.2501800000000003</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K9" s="16">
         <v>25.440771999999999</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L9" s="22">
         <f t="shared" si="0"/>
         <v>7988.2967723501006</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M9" s="17">
         <v>2693.4096534265</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N9" s="17">
         <v>4598.9796150089996</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O9" s="16">
         <v>647.17524848999994</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P9" s="16">
         <v>8.870226637</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q9" s="16">
         <v>29.502148497</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R9" s="16">
         <v>9.9230392236</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S9" s="13">
         <v>0.43684106700000003</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="31">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="31">
         <v>2024</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5">
-        <f>SUM(E9:K9)</f>
+      <c r="C10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5">
+        <f>SUM(E10:K10)</f>
         <v>11385.153779999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>4088.3985170000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>5559.3460809999997</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>1362.2324040000001</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>242.53355500000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <v>103.72531499999999</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <v>4.8760000000000003</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K10" s="11">
         <v>24.041907999999999</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L10" s="5">
         <f t="shared" si="0"/>
         <v>8010.7375229999998</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <v>2674.0050620000002</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N10" s="3">
         <v>4545.2049290000004</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O10" s="3">
         <v>749.43216500000005</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P10" s="3">
         <v>9.3834619999999997</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q10" s="11">
         <v>27.699843999999999</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R10" s="3">
         <v>4.5218790000000002</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S10" s="6">
         <v>0.49018200000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="29">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="29">
         <v>2024</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="22">
-        <f t="shared" ref="D10:D24" si="1">SUM(E10:K10)</f>
+      <c r="C11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="22">
+        <f t="shared" ref="D11:D25" si="1">SUM(E11:K11)</f>
         <v>11518.385950000002</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>4300.1912899999998</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>5629.5263320000004</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G11" s="16">
         <v>1319.029931</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H11" s="17">
         <v>139.10685699999999</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="17">
         <v>105.14566000000001</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J11" s="17">
         <v>0</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K11" s="16">
         <v>25.38588</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L11" s="22">
         <f t="shared" si="0"/>
         <v>8190.6107430000002</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M11" s="17">
         <v>2859.8718090000002</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N11" s="17">
         <v>4557.1561849999998</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O11" s="16">
         <v>740.54377399999998</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P11" s="16">
         <v>3.9488479999999999</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q11" s="16">
         <v>27.069296000000001</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R11" s="16">
         <v>1.465068</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S11" s="13">
         <v>0.55576300000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="31">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="31">
         <v>2024</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5">
         <f t="shared" si="1"/>
         <v>12058.836555</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>4563.5082670000002</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <v>5992.8884459999999</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>1246.3373630000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="3">
         <v>139.10685699999999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <v>96.219672000000003</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K12" s="11">
         <v>20.775950000000002</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L12" s="5">
         <f t="shared" si="0"/>
         <v>8839.7330359999996</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M12" s="3">
         <v>2957.5938150000002</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N12" s="3">
         <v>5127.0620630000003</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O12" s="3">
         <v>721.55657799999994</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P12" s="3">
         <v>3.9488479999999999</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q12" s="11">
         <v>26.56606</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R12" s="3">
         <v>2.5492699999999999</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S12" s="6">
         <v>0.45640199999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="29">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" s="29">
         <v>2024</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="C13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="22">
         <f t="shared" si="1"/>
         <v>11342.527755999999</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>4257.7457569999997</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>5478.1561410000004</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G13" s="16">
         <v>1150.5672</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="17">
         <v>347.88340299999999</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <v>97.409684999999996</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="17">
         <v>0</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K13" s="16">
         <v>10.76557</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L13" s="22">
         <f t="shared" si="0"/>
         <v>8187.4507680000006</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M13" s="17">
         <v>2792.3728390000001</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N13" s="17">
         <v>4673.1630869999999</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O13" s="17">
         <v>679.80545600000005</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P13" s="17">
         <v>8.3948649999999994</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q13" s="16">
         <v>26.664881000000001</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R13" s="17">
         <v>6.8661019999999997</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S13" s="7">
         <v>0.18353800000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="33">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="33">
         <v>2024</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9">
         <f t="shared" si="1"/>
         <v>11272.010199999999</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>4393.4066000000003</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>5359.7539999999999</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <v>1270.1172999999999</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>121.57129999999999</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <v>106.0236</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J14" s="8">
         <v>0</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K14" s="12">
         <v>21.1374</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <f t="shared" si="0"/>
         <v>8342.0510054124934</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M14" s="8">
         <v>2834.6025592114943</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N14" s="8">
         <v>4774.6108969999996</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="8">
         <v>698.27653098200028</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P14" s="8">
         <v>3.7847089999999994</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q14" s="12">
         <v>28.277445269000239</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R14" s="8">
         <v>2.0259563599999999</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S14" s="10">
         <v>0.47290758999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B15" s="35">
         <v>2023</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="C15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="23">
         <f t="shared" si="1"/>
         <v>10530.152879999996</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E15" s="24">
         <v>4309.4661199999991</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F15" s="24">
         <v>4678.9765120000002</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G15" s="25">
         <v>1229.369512</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H15" s="24">
         <v>196.09364099999999</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I15" s="24">
         <v>98.409154999999998</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J15" s="24">
         <v>0</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K15" s="25">
         <v>17.83794</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L15" s="23">
         <f t="shared" si="0"/>
         <v>7153.5113975900022</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M15" s="24">
         <v>2868.2873435319998</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N15" s="24">
         <v>3607.6925303660032</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O15" s="24">
         <v>642.81335444999979</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P15" s="24">
         <v>7.0967908270000004</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q15" s="25">
         <v>26.713847234999999</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R15" s="24">
         <v>0.56659287000000003</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S15" s="26">
         <v>0.34093830999999991</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="31">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B16" s="31">
         <v>2023</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C16" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
         <v>10744.338341099994</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>4156.0361599999969</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F16" s="3">
         <v>4940.157242999996</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>1327.2145460000011</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <v>207.6338241</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="3">
         <v>97.280187999999995</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K16" s="11">
         <v>16.016380000000002</v>
       </c>
-      <c r="L15" s="5">
-        <f t="shared" ref="L15:L24" si="2">SUM(M15:S15)</f>
+      <c r="L16" s="5">
+        <f t="shared" ref="L16:L25" si="2">SUM(M16:S16)</f>
         <v>7556.0425005755014</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M16" s="3">
         <v>2765.572963916999</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N16" s="3">
         <v>4124.8151506980021</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O16" s="3">
         <v>633.25968550699997</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P16" s="3">
         <v>7.8715812454999998</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q16" s="11">
         <v>24.216846367999999</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R16" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S16" s="6">
         <v>0.30627283999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="29">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B17" s="29">
         <v>2023</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="C17" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="22">
         <f t="shared" si="1"/>
         <v>11200.280935499999</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>4460.5444895000001</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>5121.4502369999991</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="16">
         <v>1286.7112570000011</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="17">
         <v>230.92582300000001</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="17">
         <v>86.957749000000007</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J17" s="17">
         <v>0</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K17" s="16">
         <v>13.691380000000001</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L17" s="22">
         <f t="shared" si="2"/>
         <v>7919.0054692064978</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M17" s="17">
         <v>2888.4215667424992</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N17" s="17">
         <v>4289.1214162529986</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O17" s="17">
         <v>709.70213744500006</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P17" s="17">
         <v>8.7303510430000006</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q17" s="16">
         <v>22.005873442999999</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R17" s="17">
         <v>0.75646751999999995</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S17" s="7">
         <v>0.26765675999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="31">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B18" s="31">
         <v>2023</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C18" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5">
         <f t="shared" si="1"/>
         <v>10782.032769499994</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>4218.6692064999988</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>4942.4715439999973</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>1325.7413049999991</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <v>196.98436699999999</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="3">
         <v>89.481097000000005</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K18" s="11">
         <v>8.6852500000000017</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L18" s="5">
         <f t="shared" si="2"/>
         <v>7622.1182945060009</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M18" s="3">
         <v>2723.4188917840002</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N18" s="3">
         <v>4168.1608000790002</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O18" s="3">
         <v>700.2680477920004</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P18" s="3">
         <v>6.950576074999999</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q18" s="11">
         <v>22.592782776</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R18" s="3">
         <v>0.46685416000000002</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S18" s="6">
         <v>0.26034183999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="29">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B19" s="29">
         <v>2023</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C19" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="22">
         <f t="shared" si="1"/>
         <v>11165.0871135</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="17">
         <v>4073.677195499999</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="17">
         <v>5295.6467410000023</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="16">
         <v>1455.9837610000011</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H19" s="17">
         <v>215.933054</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I19" s="17">
         <v>102.351732</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J19" s="17">
         <v>0</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K19" s="16">
         <v>21.494630000000001</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L19" s="22">
         <f t="shared" si="2"/>
         <v>7816.8766415225009</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M19" s="17">
         <v>2578.8196566694969</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N19" s="17">
         <v>4455.9987150990046</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O19" s="17">
         <v>747.21557059399993</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P19" s="17">
         <v>8.0505219500000003</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q19" s="16">
         <v>26.027712000000001</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R19" s="17">
         <v>0.31483611000000011</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S19" s="7">
         <v>0.44962910000000011</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="31">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B20" s="31">
         <v>2023</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C20" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5">
         <f t="shared" si="1"/>
         <v>10990.944824000002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>4146.4391699999987</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>5135.3581670000012</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>1381.008404000002</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <v>211.989563</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <v>101.69627</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K20" s="11">
         <v>14.453250000000001</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="5">
         <f t="shared" si="2"/>
         <v>7210.7837302764929</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="3">
         <v>2685.167804527498</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N20" s="3">
         <v>3862.1520296299959</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O20" s="3">
         <v>629.01834064099978</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P20" s="3">
         <v>7.3305904510000008</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q20" s="11">
         <v>26.805101397000001</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S20" s="6">
         <v>0.30986362999999989</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B20" s="29">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B21" s="29">
         <v>2023</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="C21" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="22">
         <f t="shared" si="1"/>
         <v>10745.577094500002</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>3986.183454499997</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>5182.5897230000064</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="16">
         <v>1263.786863</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H21" s="17">
         <v>194.382002</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I21" s="17">
         <v>110.79468199999999</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J21" s="17">
         <v>0</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K21" s="16">
         <v>7.8403699999999992</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L21" s="22">
         <f t="shared" si="2"/>
         <v>7727.3830689805</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M21" s="17">
         <v>2606.4418033855009</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N21" s="17">
         <v>4443.8483745960002</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O21" s="17">
         <v>641.33658918099911</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P21" s="17">
         <v>7.5541058760000004</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q21" s="16">
         <v>27.942127822</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R21" s="17">
         <v>0</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S21" s="7">
         <v>0.26006812000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B21" s="31">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B22" s="31">
         <v>2023</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C22" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5">
         <f t="shared" si="1"/>
         <v>11106.930602500001</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>4188.3383045000028</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>5334.9094389999982</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>1326.3186040000001</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>160.06881000000001</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="3">
         <v>88.829708000000011</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K22" s="11">
         <v>8.4657370000000007</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L22" s="5">
         <f t="shared" si="2"/>
         <v>7787.991672169991</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M22" s="3">
         <v>2697.017603467998</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N22" s="3">
         <v>4364.7163814329933</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O22" s="3">
         <v>691.08870988800015</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P22" s="3">
         <v>5.5462157990000014</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q22" s="11">
         <v>28.462399068</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R22" s="3">
         <v>0.92623683999999995</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S22" s="6">
         <v>0.23412567400000001</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="29">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B23" s="29">
         <v>2023</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="C23" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="22">
         <f t="shared" si="1"/>
         <v>10801.941199499999</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="17">
         <v>4120.2958385000038</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>5130.8270799999982</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G23" s="16">
         <v>1278.4442729999989</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H23" s="17">
         <v>164.83443199999999</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I23" s="17">
         <v>97.153891000000002</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J23" s="17">
         <v>0</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K23" s="16">
         <v>10.385685</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L23" s="22">
         <f t="shared" si="2"/>
         <v>7607.3085941089976</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M23" s="17">
         <v>2709.2393107859962</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N23" s="17">
         <v>4203.9729919080019</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O23" s="17">
         <v>660.44165793399986</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P23" s="17">
         <v>5.9482127840000008</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q23" s="16">
         <v>27.414852071999999</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R23" s="17">
         <v>0</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S23" s="7">
         <v>0.29156862500000003</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="31">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B24" s="31">
         <v>2023</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C24" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5">
         <f t="shared" si="1"/>
         <v>11383.878990499992</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <v>4435.0004595000009</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="3">
         <v>5403.7461159999912</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>1243.00846</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>186.385561</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <v>105.50189399999999</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K24" s="11">
         <v>10.236499999999999</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L24" s="5">
         <f t="shared" si="2"/>
         <v>8168.6527303565072</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M24" s="3">
         <v>2855.8573844425018</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N24" s="3">
         <v>4595.0981872000057</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O24" s="3">
         <v>683.3527228519996</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P24" s="3">
         <v>6.7861570649999994</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q24" s="11">
         <v>27.308684076999999</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S24" s="6">
         <v>0.24959471999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B24" s="29">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B25" s="29">
         <v>2023</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="22">
+      <c r="C25" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="22">
         <f t="shared" si="1"/>
         <v>10730.619191500007</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>4010.1023085000038</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>5163.3377450000035</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G25" s="16">
         <v>1234.198350000001</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H25" s="17">
         <v>213.06129999999999</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I25" s="17">
         <v>97.967708000000016</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J25" s="17">
         <v>0</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K25" s="16">
         <v>11.951779999999999</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L25" s="22">
         <f t="shared" si="2"/>
         <v>7460.9740902630037</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M25" s="17">
         <v>2587.8190024130022</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N25" s="17">
         <v>4189.8268443940005</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O25" s="17">
         <v>650.21660514200039</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P25" s="17">
         <v>7.5242899999999997</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q25" s="16">
         <v>25.314986824000002</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R25" s="17">
         <v>0</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S25" s="7">
         <v>0.27236148999999987</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B25" s="33">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B26" s="33">
         <v>2023</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C26" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" ref="D26:D57" si="3">SUM(E26:K26)</f>
+        <v>11294.197112000005</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4300.673847</v>
+      </c>
+      <c r="F26" s="8">
+        <v>5333.398917000005</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1381.829727000001</v>
+      </c>
+      <c r="H26" s="8">
+        <v>160.70500799999999</v>
+      </c>
+      <c r="I26" s="8">
+        <v>108.434686</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>9.1549269999999989</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" ref="L26:L57" si="4">SUM(M26:S26)</f>
+        <v>8101.5730074171943</v>
+      </c>
+      <c r="M26" s="8">
+        <v>2862.9090542549961</v>
+      </c>
+      <c r="N26" s="8">
+        <v>4475.0428370511981</v>
+      </c>
+      <c r="O26" s="8">
+        <v>730.13655983000001</v>
+      </c>
+      <c r="P26" s="8">
+        <v>5.6898014160000008</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>26.430900990000001</v>
+      </c>
+      <c r="R26" s="8">
+        <v>1.1467497600000001</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0.21710411499999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="35">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="9">
-        <f t="shared" ref="D25:D56" si="3">SUM(E25:K25)</f>
-        <v>11294.197112000005</v>
-      </c>
-      <c r="E25" s="8">
-        <v>4300.673847</v>
-      </c>
-      <c r="F25" s="8">
-        <v>5333.398917000005</v>
-      </c>
-      <c r="G25" s="12">
-        <v>1381.829727000001</v>
-      </c>
-      <c r="H25" s="8">
-        <v>160.70500799999999</v>
-      </c>
-      <c r="I25" s="8">
-        <v>108.434686</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="12">
-        <v>9.1549269999999989</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" ref="L25:L56" si="4">SUM(M25:S25)</f>
-        <v>8101.5730074171943</v>
-      </c>
-      <c r="M25" s="8">
-        <v>2862.9090542549961</v>
-      </c>
-      <c r="N25" s="8">
-        <v>4475.0428370511981</v>
-      </c>
-      <c r="O25" s="8">
-        <v>730.13655983000001</v>
-      </c>
-      <c r="P25" s="8">
-        <v>5.6898014160000008</v>
-      </c>
-      <c r="Q25" s="12">
-        <v>26.430900990000001</v>
-      </c>
-      <c r="R25" s="8">
-        <v>1.1467497600000001</v>
-      </c>
-      <c r="S25" s="10">
-        <v>0.21710411499999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="35">
-        <v>2022</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="D27" s="23">
         <f t="shared" si="3"/>
         <v>10579.2088245</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E27" s="24">
         <v>3955.405141500004</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F27" s="24">
         <v>5023.7809259999967</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G27" s="25">
         <v>1253.435716</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H27" s="24">
         <v>210.841139</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I27" s="24">
         <v>127.258531</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J27" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K27" s="25">
         <v>8.4723710000000008</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L27" s="23">
         <f t="shared" si="4"/>
         <v>7201.2110358610043</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M27" s="24">
         <v>2606.642718893002</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N27" s="24">
         <v>3840.3302240870012</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O27" s="24">
         <v>714.07136763500023</v>
       </c>
-      <c r="P26" s="24">
+      <c r="P27" s="24">
         <v>8.1353823930000004</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q27" s="25">
         <v>29.287128408000001</v>
       </c>
-      <c r="R26" s="24">
+      <c r="R27" s="24">
         <v>2.5732544800000001</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S27" s="26">
         <v>0.17095996499999999</v>
       </c>
     </row>
-    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="31">
+    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="31">
         <v>2022</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C28" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="5">
         <f t="shared" si="3"/>
         <v>10527.497396789135</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="3">
         <v>4108.8534605000023</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>4736.7273732891317</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>1295.0406599999999</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>221.15105</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I28" s="3">
         <v>154.32011299999999</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K28" s="11">
         <v>11.40474</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L28" s="5">
         <f t="shared" si="4"/>
         <v>7310.8355932755139</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M28" s="3">
         <v>2729.828865026504</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N28" s="3">
         <v>3871.547411277008</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O28" s="3">
         <v>666.57566130000077</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P28" s="3">
         <v>8.3173960500000028</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q28" s="11">
         <v>33.740727692</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R28" s="3">
         <v>0.53808</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S28" s="6">
         <v>0.28745193000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="29">
+    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="29">
         <v>2022</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="22">
+      <c r="C29" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="22">
         <f t="shared" si="3"/>
         <v>10705.692828500001</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>4175.4008985000046</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>4906.9342349999952</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G29" s="16">
         <v>1288.9225799999999</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H29" s="17">
         <v>177.480175</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I29" s="17">
         <v>150.03629000000001</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J29" s="17">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K29" s="16">
         <v>6.9111500000000001</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L29" s="22">
         <f t="shared" si="4"/>
         <v>7111.4425296700092</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M29" s="17">
         <v>2632.704658141005</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N29" s="17">
         <v>3750.413545484003</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O29" s="17">
         <v>687.66725051200081</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P29" s="17">
         <v>5.8990287250000009</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q29" s="16">
         <v>34.461750987999999</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R29" s="17">
         <v>0.12333404000000001</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S29" s="7">
         <v>0.17296178000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="31">
+    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="31">
         <v>2022</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C30" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="5">
         <f t="shared" si="3"/>
         <v>10716.722789500005</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="3">
         <v>3921.109317500001</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="3">
         <v>5107.1348170000047</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>1304.2582520000001</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="3">
         <v>224.00600600000001</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I30" s="3">
         <v>150.00181699999999</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J30" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K30" s="11">
         <v>10.205080000000001</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L30" s="5">
         <f t="shared" si="4"/>
         <v>7332.3824997811334</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M30" s="3">
         <v>2596.0057846039958</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N30" s="3">
         <v>4043.7739947451369</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O30" s="3">
         <v>650.93120328700036</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P30" s="3">
         <v>8.6389721339999994</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q30" s="11">
         <v>32.781240101000002</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R30" s="3">
         <v>7.0588400000000003E-3</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S30" s="6">
         <v>0.24424607000000009</v>
       </c>
     </row>
-    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="29">
+    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="29">
         <v>2022</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="22">
+      <c r="C31" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="22">
         <f t="shared" si="3"/>
         <v>11108.677028999993</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <v>3971.3969279999978</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>5268.769131999994</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G31" s="16">
         <v>1417.7037560000001</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H31" s="17">
         <v>247.12264200000001</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I31" s="17">
         <v>188.83374499999999</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J31" s="17">
         <v>0</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K31" s="16">
         <v>14.850826</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L31" s="22">
         <f t="shared" si="4"/>
         <v>7307.3132174754001</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M31" s="17">
         <v>2663.245486356001</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N31" s="17">
         <v>3914.0197377269992</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O31" s="17">
         <v>681.13219543499997</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P31" s="17">
         <v>9.831694658</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q31" s="16">
         <v>36.570021361999977</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R31" s="17">
         <v>2.1579242694</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S31" s="7">
         <v>0.35615766800000009</v>
       </c>
     </row>
-    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="31">
+    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="31">
         <v>2022</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="5">
         <f t="shared" si="3"/>
         <v>10611.250803000006</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="3">
         <v>3793.7436850000049</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="3">
         <v>5214.0921070000013</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>1247.337679</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H32" s="3">
         <v>194.861605</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I32" s="3">
         <v>147.825242</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K32" s="11">
         <v>13.390485</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L32" s="5">
         <f t="shared" si="4"/>
         <v>7191.6636538718021</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M32" s="3">
         <v>2575.3834254900021</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N32" s="3">
         <v>3964.619205300799</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O32" s="3">
         <v>609.31836305400043</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P32" s="3">
         <v>7.2582579850000002</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q32" s="11">
         <v>34.682327189999988</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R32" s="3">
         <v>0.11073023999999999</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S32" s="6">
         <v>0.291344612</v>
       </c>
     </row>
-    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="29">
+    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="29">
         <v>2022</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C33" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="22">
         <f t="shared" si="3"/>
         <v>11385.632823130651</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>4133.1845675000104</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>5576.317320630641</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="16">
         <v>1291.3044649999999</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H33" s="17">
         <v>204.62748999999999</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I33" s="17">
         <v>168.44151099999999</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J33" s="17">
         <v>0</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K33" s="16">
         <v>11.757469</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L33" s="22">
         <f t="shared" si="4"/>
         <v>7426.6647824039028</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M33" s="17">
         <v>2745.748891390494</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N33" s="17">
         <v>4014.2422900054089</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O33" s="17">
         <v>622.1854161710005</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P33" s="17">
         <v>8.0573326499999993</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="Q33" s="16">
         <v>35.484382947000007</v>
       </c>
-      <c r="R32" s="17">
+      <c r="R33" s="17">
         <v>0.60199296000000002</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S33" s="7">
         <v>0.34447628000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="31">
+    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="31">
         <v>2022</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C34" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="5">
         <f t="shared" si="3"/>
         <v>10780.323722207198</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="3">
         <v>4137.0850310000033</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <v>5186.775923207193</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>1080.597673</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H34" s="3">
         <v>208.890287</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I34" s="3">
         <v>154.938333</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K34" s="11">
         <v>12.036474999999999</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L34" s="5">
         <f t="shared" si="4"/>
         <v>7413.4131095932507</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M34" s="3">
         <v>2681.1217716099991</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N34" s="3">
         <v>4205.8755796282521</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O34" s="3">
         <v>483.91754051100008</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P34" s="3">
         <v>8.2003226500000004</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q34" s="11">
         <v>32.794367653999998</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R34" s="3">
         <v>1.2866841600000001</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S34" s="6">
         <v>0.21684338000000011</v>
       </c>
     </row>
-    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="29">
+    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="29">
         <v>2022</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="22">
+      <c r="C35" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="22">
         <f t="shared" si="3"/>
         <v>10829.844413999997</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>3962.7175100000009</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>5192.2296089999963</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G35" s="16">
         <v>1309.012232</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="17">
         <v>181.97084000000001</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I35" s="17">
         <v>167.812794</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J35" s="17">
         <v>0</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K35" s="16">
         <v>16.101429</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L35" s="22">
         <f t="shared" si="4"/>
         <v>7275.2969263750037</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M35" s="17">
         <v>2575.7223572010021</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N35" s="17">
         <v>4067.0187656300018</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O35" s="17">
         <v>589.9259630600003</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P35" s="17">
         <v>7.1673460699999998</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q35" s="16">
         <v>34.542283277999999</v>
       </c>
-      <c r="R34" s="17">
+      <c r="R35" s="17">
         <v>0.48420864000000002</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S35" s="7">
         <v>0.43600249600000002</v>
       </c>
     </row>
-    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="31">
+    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="31">
         <v>2022</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C36" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="5">
         <f t="shared" si="3"/>
         <v>10958.977161499999</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E36" s="3">
         <v>4038.936546500001</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="3">
         <v>5268.3369729999977</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>1291.416300000001</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H36" s="3">
         <v>177.95099999999999</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I36" s="3">
         <v>167.63478000000001</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J36" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K36" s="11">
         <v>14.701561999999999</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L36" s="5">
         <f t="shared" si="4"/>
         <v>7541.4980275314938</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M36" s="3">
         <v>2660.8203641194968</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N36" s="3">
         <v>4208.7790816289962</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O36" s="3">
         <v>621.14192796600003</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P36" s="3">
         <v>6.623209000000001</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q36" s="11">
         <v>35.708474217000003</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R36" s="3">
         <v>8.0218468600000001</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S36" s="6">
         <v>0.40312374000000012</v>
       </c>
     </row>
-    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="29">
+    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="29">
         <v>2022</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="22">
+      <c r="C37" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="22">
         <f t="shared" si="3"/>
         <v>9793.3689548991515</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>3583.161939000001</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>4789.6931648991504</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="16">
         <v>1070.14833</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="17">
         <v>173.86282</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I37" s="17">
         <v>164.508713</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J37" s="17">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K37" s="16">
         <v>11.987488000000001</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L37" s="22">
         <f t="shared" si="4"/>
         <v>6646.5983968474375</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M37" s="17">
         <v>2374.907421244</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N37" s="17">
         <v>3680.0897351094382</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O37" s="17">
         <v>540.62561002199982</v>
       </c>
-      <c r="P36" s="17">
+      <c r="P37" s="17">
         <v>6.8062315400000006</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q37" s="16">
         <v>35.044869748000004</v>
       </c>
-      <c r="R36" s="17">
+      <c r="R37" s="17">
         <v>8.8324161199999995</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S37" s="7">
         <v>0.29211306399999998</v>
       </c>
     </row>
-    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="33">
+    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="33">
         <v>2022</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="9">
+      <c r="C38" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="9">
         <f t="shared" si="3"/>
         <v>10457.860871849636</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>3811.0277475000012</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="8">
         <v>5081.9953543496349</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G38" s="12">
         <v>1163.869772</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H38" s="8">
         <v>216.800228</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I38" s="8">
         <v>164.64285100000001</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J38" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K38" s="12">
         <v>19.518419000000002</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L38" s="9">
         <f t="shared" si="4"/>
         <v>7312.9253518064897</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M38" s="8">
         <v>2516.776008406498</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N38" s="8">
         <v>4165.2929514439929</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O38" s="8">
         <v>584.89580469299949</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P38" s="8">
         <v>7.9409832089999988</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q38" s="12">
         <v>36.984346221000003</v>
       </c>
-      <c r="R37" s="8">
+      <c r="R38" s="8">
         <v>0.54593274000000003</v>
       </c>
-      <c r="S37" s="10">
+      <c r="S38" s="10">
         <v>0.48932509299999999</v>
       </c>
     </row>
-    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="35">
+    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="35">
         <v>2021</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="23">
+      <c r="C39" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="23">
         <f t="shared" si="3"/>
         <v>10554.11629972851</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E39" s="24">
         <v>3704.487701</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F39" s="24">
         <v>5168.8270517285082</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G39" s="25">
         <v>1210.66284</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H39" s="24">
         <v>278.57299999999998</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I39" s="24">
         <v>176.88040100000001</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J39" s="24">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K39" s="25">
         <v>14.676906000000001</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L39" s="23">
         <f t="shared" si="4"/>
         <v>7559.4957620836176</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M39" s="24">
         <v>2454.9251451284981</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N39" s="24">
         <v>4486.1274373061196</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O39" s="24">
         <v>564.50741046500013</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P39" s="24">
         <v>10.346456243</v>
       </c>
-      <c r="Q38" s="25">
+      <c r="Q39" s="25">
         <v>38.567701272999997</v>
       </c>
-      <c r="R38" s="24">
+      <c r="R39" s="24">
         <v>4.6980338499999998</v>
       </c>
-      <c r="S38" s="26">
+      <c r="S39" s="26">
         <v>0.32357781800000007</v>
       </c>
     </row>
-    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="31">
+    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="31">
         <v>2021</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C40" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="5">
         <f t="shared" si="3"/>
         <v>10628.511753666689</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E40" s="3">
         <v>3832.8486825000009</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F40" s="3">
         <v>5157.1098371666867</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>1198.8120699999999</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H40" s="3">
         <v>250.82408899999999</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I40" s="3">
         <v>171.39998600000001</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J40" s="3">
         <v>0.48580000000000001</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K40" s="11">
         <v>17.031289000000001</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L40" s="5">
         <f t="shared" si="4"/>
         <v>7572.3847293000135</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M40" s="3">
         <v>2487.2945403209969</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N40" s="3">
         <v>4430.0140454000166</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O40" s="3">
         <v>607.02709147300016</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P40" s="3">
         <v>8.3345901050000002</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q40" s="11">
         <v>35.035225039999993</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R40" s="3">
         <v>4.35235971</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S40" s="6">
         <v>0.32687725099999992</v>
       </c>
     </row>
-    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="29">
+    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="29">
         <v>2021</v>
       </c>
-      <c r="C40" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="22">
+      <c r="C41" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="22">
         <f t="shared" si="3"/>
         <v>10447.886890621772</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>3568.6820320000061</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>5290.506152621766</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="16">
         <v>1189.51099</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="17">
         <v>218.87152699999999</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I41" s="17">
         <v>164.760099</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J41" s="17">
         <v>0</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K41" s="16">
         <v>15.556089999999999</v>
       </c>
-      <c r="L40" s="22">
+      <c r="L41" s="22">
         <f t="shared" si="4"/>
         <v>7454.4569883743907</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M41" s="17">
         <v>2252.2121829349981</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N41" s="17">
         <v>4555.9238501633918</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O41" s="17">
         <v>598.34848022000062</v>
       </c>
-      <c r="P40" s="17">
+      <c r="P41" s="17">
         <v>8.6802298340000004</v>
       </c>
-      <c r="Q40" s="16">
+      <c r="Q41" s="16">
         <v>36.737191042000013</v>
       </c>
-      <c r="R40" s="17">
+      <c r="R41" s="17">
         <v>2.1651060200000001</v>
       </c>
-      <c r="S40" s="7">
+      <c r="S41" s="7">
         <v>0.38994815999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="31">
+    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="31">
         <v>2021</v>
       </c>
-      <c r="C41" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C42" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="5">
         <f t="shared" si="3"/>
         <v>10310.171017315373</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="3">
         <v>3660.1919630000002</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="3">
         <v>5125.4300873153752</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>1106.3341800000001</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H42" s="3">
         <v>225.05336800000001</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I42" s="3">
         <v>173.367749</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K42" s="11">
         <v>19.793669999999999</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L42" s="5">
         <f t="shared" si="4"/>
         <v>7455.9332633507911</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M42" s="3">
         <v>2336.1774044905001</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N42" s="3">
         <v>4499.0870851722912</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O42" s="3">
         <v>574.36416933199996</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P42" s="3">
         <v>9.2197258459999993</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q42" s="11">
         <v>33.827011099000003</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R42" s="3">
         <v>2.7609138199999999</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S42" s="6">
         <v>0.49695359099999997</v>
       </c>
     </row>
-    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="29">
+    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="29">
         <v>2021</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="22">
+      <c r="C43" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="22">
         <f t="shared" si="3"/>
         <v>10858.20812040527</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>3521.7041924999971</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>5688.3567339052724</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="16">
         <v>1217.1854400000011</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H43" s="17">
         <v>237.21059299999999</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I43" s="17">
         <v>181.48093</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J43" s="17">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K43" s="16">
         <v>12.261831000000001</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L43" s="22">
         <f t="shared" si="4"/>
         <v>7799.3527436193035</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M43" s="17">
         <v>2294.5162238704979</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N43" s="17">
         <v>4842.6990967668053</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O43" s="17">
         <v>615.63413392999996</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P43" s="17">
         <v>8.5407225140000023</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q43" s="16">
         <v>34.95596040800001</v>
       </c>
-      <c r="R42" s="17">
+      <c r="R43" s="17">
         <v>2.7197566399999999</v>
       </c>
-      <c r="S42" s="7">
+      <c r="S43" s="7">
         <v>0.28684948999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="31">
+    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="31">
         <v>2021</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C44" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="5">
         <f t="shared" si="3"/>
         <v>11255.030800119688</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="3">
         <v>3793.7436850000049</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="3">
         <v>5713.976884119681</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G44" s="11">
         <v>1315.6355450000001</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H44" s="3">
         <v>235.601181</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I44" s="3">
         <v>181.74973800000001</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J44" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K44" s="11">
         <v>14.308767</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L44" s="5">
         <f t="shared" si="4"/>
         <v>8093.1738756910991</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M44" s="3">
         <v>2575.3834254900021</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N44" s="3">
         <v>4833.7327735580984</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O44" s="3">
         <v>635.0188110539998</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P44" s="3">
         <v>8.7395811469999991</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="Q44" s="11">
         <v>36.949788237000007</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R44" s="3">
         <v>3.0379556999999999</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S44" s="6">
         <v>0.31154050500000008</v>
       </c>
     </row>
-    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="29">
+    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="29">
         <v>2021</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="22">
+      <c r="C45" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="22">
         <f t="shared" si="3"/>
         <v>11085.875192119853</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>4014.4691365000031</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>5377.2218746198478</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G45" s="16">
         <v>1234.1497800000011</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H45" s="17">
         <v>253.12753699999999</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I45" s="17">
         <v>192.660923</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J45" s="17">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K45" s="16">
         <v>14.224441000000001</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L45" s="22">
         <f t="shared" si="4"/>
         <v>7726.6787146596171</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M45" s="17">
         <v>2629.796765055999</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N45" s="17">
         <v>4464.5122847686171</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O45" s="17">
         <v>581.68120659000044</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P45" s="17">
         <v>9.1290644990000001</v>
       </c>
-      <c r="Q44" s="16">
+      <c r="Q45" s="16">
         <v>36.782584659999998</v>
       </c>
-      <c r="R44" s="17">
+      <c r="R45" s="17">
         <v>4.3888587000000001</v>
       </c>
-      <c r="S44" s="7">
+      <c r="S45" s="7">
         <v>0.38795038599999998</v>
       </c>
     </row>
-    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="31">
+    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="31">
         <v>2021</v>
       </c>
-      <c r="C45" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C46" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="5">
         <f t="shared" si="3"/>
         <v>12022.900882797225</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="3">
         <v>4361.3740710000029</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="3">
         <v>5936.7487387972214</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>1232.430877999999</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H46" s="3">
         <v>263.60899599999999</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I46" s="3">
         <v>207.02036000000001</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J46" s="3">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K46" s="11">
         <v>21.698639</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L46" s="5">
         <f t="shared" si="4"/>
         <v>8508.790074300683</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M46" s="3">
         <v>2922.9896007830021</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N46" s="3">
         <v>4940.7335945086788</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O46" s="3">
         <v>590.43121132199985</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P46" s="3">
         <v>9.6548794559999997</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q46" s="11">
         <v>41.925393185999987</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R46" s="3">
         <v>2.55537546</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S46" s="6">
         <v>0.50001958499999988</v>
       </c>
     </row>
-    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="29">
+    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="29">
         <v>2021</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="22">
+      <c r="C47" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="22">
         <f t="shared" si="3"/>
         <v>11202.965129249227</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>4088.1791725000012</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>5398.3324937492234</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G47" s="16">
         <v>1215.8369100000009</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H47" s="17">
         <v>280.81724400000002</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I47" s="17">
         <v>191.078067</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J47" s="17">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K47" s="16">
         <v>28.689242</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L47" s="22">
         <f t="shared" si="4"/>
         <v>7831.1461965570006</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M47" s="17">
         <v>2687.4059335134998</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N47" s="17">
         <v>4476.268327207501</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O47" s="17">
         <v>612.56275004999998</v>
       </c>
-      <c r="P46" s="17">
+      <c r="P47" s="17">
         <v>10.506913092</v>
       </c>
-      <c r="Q46" s="16">
+      <c r="Q47" s="16">
         <v>37.034007258999999</v>
       </c>
-      <c r="R46" s="17">
+      <c r="R47" s="17">
         <v>6.8037442799999992</v>
       </c>
-      <c r="S46" s="7">
+      <c r="S47" s="7">
         <v>0.56452115499999989</v>
       </c>
     </row>
-    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="31">
+    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="31">
         <v>2021</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C48" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="5">
         <f t="shared" si="3"/>
         <v>11472.620926703923</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="3">
         <v>4090.808027499997</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="3">
         <v>5662.2790862039283</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>1207.80692</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H48" s="3">
         <v>294.74798299999998</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I48" s="3">
         <v>196.56426200000001</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J48" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K48" s="11">
         <v>20.387647999999999</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L48" s="5">
         <f t="shared" si="4"/>
         <v>8142.6430797048588</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M48" s="3">
         <v>2745.9354684965042</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N48" s="3">
         <v>4736.7506870613533</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O48" s="3">
         <v>604.7617960900003</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P48" s="3">
         <v>8.8911368260000003</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q48" s="11">
         <v>41.498002944</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R48" s="3">
         <v>4.35843588</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S48" s="6">
         <v>0.44755240699999999</v>
       </c>
     </row>
-    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="29">
+    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="29">
         <v>2021</v>
       </c>
-      <c r="C48" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="22">
+      <c r="C49" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="22">
         <f t="shared" si="3"/>
         <v>9383.1106395317038</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>3368.883307499998</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>4573.2690100317068</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="16">
         <v>1036.92257</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H49" s="17">
         <v>234.75769500000001</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I49" s="17">
         <v>161.20675999999989</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J49" s="17">
         <v>2.4E-2</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K49" s="16">
         <v>8.0472970000000004</v>
       </c>
-      <c r="L48" s="22">
+      <c r="L49" s="22">
         <f t="shared" si="4"/>
         <v>6633.7415436800029</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M49" s="17">
         <v>2289.3534260344968</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N49" s="17">
         <v>3773.8464727675068</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O49" s="17">
         <v>527.36503372999948</v>
       </c>
-      <c r="P48" s="17">
+      <c r="P49" s="17">
         <v>8.0640420000000006</v>
       </c>
-      <c r="Q48" s="16">
+      <c r="Q49" s="16">
         <v>32.601814822999998</v>
       </c>
-      <c r="R48" s="17">
+      <c r="R49" s="17">
         <v>2.3511389399999998</v>
       </c>
-      <c r="S48" s="7">
+      <c r="S49" s="7">
         <v>0.159615385</v>
       </c>
     </row>
-    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="33">
+    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="33">
         <v>2021</v>
       </c>
-      <c r="C49" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="9">
+      <c r="C50" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="9">
         <f t="shared" si="3"/>
         <v>10668.087908957505</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E50" s="8">
         <v>4020.238264000001</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F50" s="8">
         <v>5144.8473599575036</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G50" s="12">
         <v>1116.808546</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H50" s="8">
         <v>177.10898</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I50" s="8">
         <v>186.84795500000001</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J50" s="8">
         <v>5.1790099999999999</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K50" s="12">
         <v>17.057794000000001</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L50" s="9">
         <f t="shared" si="4"/>
         <v>7658.9491725908874</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M50" s="8">
         <v>2719.7331992549998</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N50" s="8">
         <v>4347.3157786078864</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O50" s="8">
         <v>544.13671407200002</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P50" s="8">
         <v>7.3822649800000004</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="Q50" s="12">
         <v>37.287069709999997</v>
       </c>
-      <c r="R49" s="8">
+      <c r="R50" s="8">
         <v>2.7605594199999999</v>
       </c>
-      <c r="S49" s="10">
+      <c r="S50" s="10">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="35">
+    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="35">
         <v>2020</v>
       </c>
-      <c r="C50" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="23">
+      <c r="C51" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="23">
         <f t="shared" si="3"/>
         <v>10425.345499100005</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E51" s="24">
         <v>3898.4186785000038</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F51" s="24">
         <v>4882.8448936000004</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G51" s="25">
         <v>1069.05969</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H51" s="24">
         <v>347.73810900000001</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I51" s="24">
         <v>196.70733799999999</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J51" s="24">
         <v>18.026479999999999</v>
       </c>
-      <c r="K50" s="25">
+      <c r="K51" s="25">
         <v>12.55031</v>
       </c>
-      <c r="L50" s="23">
+      <c r="L51" s="23">
         <f t="shared" si="4"/>
         <v>7353.1727623347024</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M51" s="24">
         <v>2625.9467366160002</v>
       </c>
-      <c r="N50" s="24">
+      <c r="N51" s="24">
         <v>4157.4580108327018</v>
       </c>
-      <c r="O50" s="24">
+      <c r="O51" s="24">
         <v>517.70569403000059</v>
       </c>
-      <c r="P50" s="24">
+      <c r="P51" s="24">
         <v>9.0617785400000006</v>
       </c>
-      <c r="Q50" s="25">
+      <c r="Q51" s="25">
         <v>36.825079076000002</v>
       </c>
-      <c r="R50" s="24">
+      <c r="R51" s="24">
         <v>5.8351311600000004</v>
       </c>
-      <c r="S50" s="26">
+      <c r="S51" s="26">
         <v>0.34033207999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="31">
+    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="31">
         <v>2020</v>
       </c>
-      <c r="C51" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C52" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="5">
         <f t="shared" si="3"/>
         <v>10381.153690500003</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E52" s="3">
         <v>3792.1774099999998</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F52" s="3">
         <v>5016.643987500006</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>1022.91</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H52" s="3">
         <v>376.49241599999999</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I52" s="3">
         <v>156.720607</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J52" s="3">
         <v>6.5342300000000009</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K52" s="11">
         <v>9.6750399999999974</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L52" s="5">
         <f t="shared" si="4"/>
         <v>7352.5100897651027</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M52" s="3">
         <v>2476.4938742799982</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N52" s="3">
         <v>4312.6025955031046</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O52" s="3">
         <v>515.07792600000016</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P52" s="3">
         <v>11.231821312999999</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q52" s="11">
         <v>34.256908838999998</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R52" s="3">
         <v>2.6046938000000002</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S52" s="6">
         <v>0.24227003</v>
       </c>
     </row>
-    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="29">
+    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="29">
         <v>2020</v>
       </c>
-      <c r="C52" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="22">
+      <c r="C53" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="22">
         <f t="shared" si="3"/>
         <v>10304.857817457816</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>3959.7610744999961</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>4749.0987938578201</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G53" s="16">
         <v>1197.7530099999999</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H53" s="17">
         <v>186.51679809999999</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I53" s="17">
         <v>178.59754699999999</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J53" s="17">
         <v>16.072800000000001</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K53" s="16">
         <v>17.057794000000001</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L53" s="22">
         <f t="shared" si="4"/>
         <v>7334.9599437122397</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M53" s="17">
         <v>2713.3960539770019</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N53" s="17">
         <v>4023.2553769225378</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O53" s="17">
         <v>542.79762977000007</v>
       </c>
-      <c r="P52" s="17">
+      <c r="P53" s="17">
         <v>7.5060893896999996</v>
       </c>
-      <c r="Q52" s="16">
+      <c r="Q53" s="16">
         <v>42.505763026999993</v>
       </c>
-      <c r="R52" s="17">
+      <c r="R53" s="17">
         <v>5.1654440799999994</v>
       </c>
-      <c r="S52" s="7">
+      <c r="S53" s="7">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="31">
+    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="31">
         <v>2020</v>
       </c>
-      <c r="C53" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C54" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="5">
         <f t="shared" si="3"/>
         <v>10010.860705133222</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="3">
         <v>4074.659214000003</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="3">
         <v>4534.2935971332181</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>1007.21459</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H54" s="3">
         <v>218.893238</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I54" s="3">
         <v>160.24086600000001</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J54" s="3">
         <v>0.98</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K54" s="11">
         <v>14.5792</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L54" s="5">
         <f t="shared" si="4"/>
         <v>7046.4603867411315</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M54" s="3">
         <v>2750.463505591501</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N54" s="3">
         <v>3736.9267533866309</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O54" s="3">
         <v>516.3334641199998</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P54" s="3">
         <v>8.9935901099999995</v>
       </c>
-      <c r="Q53" s="11">
+      <c r="Q54" s="11">
         <v>32.577175492999999</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R54" s="3">
         <v>0.73748120000000006</v>
       </c>
-      <c r="S53" s="6">
+      <c r="S54" s="6">
         <v>0.42841684000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="29">
+    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="29">
         <v>2020</v>
       </c>
-      <c r="C54" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="22">
+      <c r="C55" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="22">
         <f t="shared" si="3"/>
         <v>10140.746236042156</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>3720.288184500002</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>4994.2514095421539</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G55" s="16">
         <v>1027.58536</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H55" s="17">
         <v>187.64308500000001</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I55" s="17">
         <v>186.38118700000001</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J55" s="17">
         <v>13.8596</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K55" s="16">
         <v>10.737410000000001</v>
       </c>
-      <c r="L54" s="22">
+      <c r="L55" s="22">
         <f t="shared" si="4"/>
         <v>7449.2591429184022</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M55" s="17">
         <v>2487.3447639574988</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N55" s="17">
         <v>4328.973769747904</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O55" s="17">
         <v>579.49765215000036</v>
       </c>
-      <c r="P54" s="17">
+      <c r="P55" s="17">
         <v>7.4413398099999997</v>
       </c>
-      <c r="Q54" s="16">
+      <c r="Q55" s="16">
         <v>39.990465413000003</v>
       </c>
-      <c r="R54" s="17">
+      <c r="R55" s="17">
         <v>5.7537497800000006</v>
       </c>
-      <c r="S54" s="7">
+      <c r="S55" s="7">
         <v>0.25740205999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="31">
+    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="31">
         <v>2020</v>
       </c>
-      <c r="C55" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C56" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="5">
         <f t="shared" si="3"/>
         <v>10156.497411288225</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="3">
         <v>3613.696181999997</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="3">
         <v>4968.204788288228</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <v>1194.003549999999</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H56" s="3">
         <v>179.13738699999999</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I56" s="3">
         <v>177.43138400000001</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J56" s="3">
         <v>13.854179999999999</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K56" s="11">
         <v>10.16994</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L56" s="5">
         <f t="shared" si="4"/>
         <v>7380.5613200561647</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M56" s="3">
         <v>2428.846732166</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N56" s="3">
         <v>4258.745057885164</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O56" s="3">
         <v>616.52099685999997</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P56" s="3">
         <v>6.897613637000001</v>
       </c>
-      <c r="Q55" s="11">
+      <c r="Q56" s="11">
         <v>46.615575728000003</v>
       </c>
-      <c r="R55" s="3">
+      <c r="R56" s="3">
         <v>22.688503149999999</v>
       </c>
-      <c r="S55" s="6">
+      <c r="S56" s="6">
         <v>0.24684063000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="29">
+    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="29">
         <v>2020</v>
       </c>
-      <c r="C56" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="22">
+      <c r="C57" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="22">
         <f t="shared" si="3"/>
         <v>9413.8401068405965</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>3299.4981385000028</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>4750.320989340591</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G57" s="16">
         <v>1032.4139100000009</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H57" s="17">
         <v>122.951718</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I57" s="17">
         <v>176.151501</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J57" s="17">
         <v>19.795500000000001</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K57" s="16">
         <v>12.708349999999999</v>
       </c>
-      <c r="L56" s="22">
+      <c r="L57" s="22">
         <f t="shared" si="4"/>
         <v>6838.7530584626184</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M57" s="17">
         <v>2178.930646833498</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N57" s="17">
         <v>4081.32299100612</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O57" s="17">
         <v>505.39333284999958</v>
       </c>
-      <c r="P56" s="17">
+      <c r="P57" s="17">
         <v>4.1486682360000007</v>
       </c>
-      <c r="Q56" s="16">
+      <c r="Q57" s="16">
         <v>48.516144666999992</v>
       </c>
-      <c r="R56" s="17">
+      <c r="R57" s="17">
         <v>20.1564771</v>
       </c>
-      <c r="S56" s="7">
+      <c r="S57" s="7">
         <v>0.28479777000000012</v>
       </c>
     </row>
-    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="31">
+    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="31">
         <v>2020</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C58" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" ref="D58:D86" si="5">SUM(E58:K58)</f>
+        <v>8958.3282716603189</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2963.8515250000032</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4578.9250176603191</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1046.3265299999989</v>
+      </c>
+      <c r="H58" s="3">
+        <v>141.62878699999999</v>
+      </c>
+      <c r="I58" s="3">
+        <v>181.326382</v>
+      </c>
+      <c r="J58" s="3">
+        <v>35.391770000000001</v>
+      </c>
+      <c r="K58" s="11">
+        <v>10.878259999999999</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" ref="L58:L86" si="6">SUM(M58:S58)</f>
+        <v>6599.7211012138414</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1955.6864974084999</v>
+      </c>
+      <c r="N58" s="3">
+        <v>4070.699793715341</v>
+      </c>
+      <c r="O58" s="3">
+        <v>490.43616353999971</v>
+      </c>
+      <c r="P58" s="3">
+        <v>4.9919812889999999</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>49.262628410999987</v>
+      </c>
+      <c r="R58" s="3">
+        <v>28.479580210000002</v>
+      </c>
+      <c r="S58" s="6">
+        <v>0.16445663999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="29">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="5">
-        <f t="shared" ref="D57:D85" si="5">SUM(E57:K57)</f>
-        <v>8958.3282716603189</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2963.8515250000032</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4578.9250176603191</v>
-      </c>
-      <c r="G57" s="11">
-        <v>1046.3265299999989</v>
-      </c>
-      <c r="H57" s="3">
-        <v>141.62878699999999</v>
-      </c>
-      <c r="I57" s="3">
-        <v>181.326382</v>
-      </c>
-      <c r="J57" s="3">
-        <v>35.391770000000001</v>
-      </c>
-      <c r="K57" s="11">
-        <v>10.878259999999999</v>
-      </c>
-      <c r="L57" s="5">
-        <f t="shared" ref="L57:L85" si="6">SUM(M57:S57)</f>
-        <v>6599.7211012138414</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1955.6864974084999</v>
-      </c>
-      <c r="N57" s="3">
-        <v>4070.699793715341</v>
-      </c>
-      <c r="O57" s="3">
-        <v>490.43616353999971</v>
-      </c>
-      <c r="P57" s="3">
-        <v>4.9919812889999999</v>
-      </c>
-      <c r="Q57" s="11">
-        <v>49.262628410999987</v>
-      </c>
-      <c r="R57" s="3">
-        <v>28.479580210000002</v>
-      </c>
-      <c r="S57" s="6">
-        <v>0.16445663999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="29">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="22">
+      <c r="D59" s="22">
         <f t="shared" si="5"/>
         <v>9180.7559098961865</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>3045.684487</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>4586.6569688961881</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G59" s="16">
         <v>1232.8326999999999</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H59" s="17">
         <v>80.286566999999991</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I59" s="17">
         <v>185.73497699999999</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J59" s="17">
         <v>37.784360000000007</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K59" s="16">
         <v>11.77585</v>
       </c>
-      <c r="L58" s="22">
+      <c r="L59" s="22">
         <f t="shared" si="6"/>
         <v>6563.6809044984548</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M59" s="17">
         <v>2092.363650120501</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N59" s="17">
         <v>3810.8671320719541</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O59" s="17">
         <v>576.76851579999936</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P59" s="17">
         <v>2.1857480950000001</v>
       </c>
-      <c r="Q58" s="16">
+      <c r="Q59" s="16">
         <v>48.091960541000013</v>
       </c>
-      <c r="R58" s="17">
+      <c r="R59" s="17">
         <v>33.146718739999997</v>
       </c>
-      <c r="S58" s="7">
+      <c r="S59" s="7">
         <v>0.25717912999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="31">
+    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="31">
         <v>2020</v>
       </c>
-      <c r="C59" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C60" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="5">
         <f t="shared" si="5"/>
         <v>10838.533316456946</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="3">
         <v>3989.0247625000002</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F60" s="3">
         <v>5227.3044649569474</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="11">
         <v>1164.59097</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H60" s="3">
         <v>195.326954</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I60" s="3">
         <v>192.162305</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J60" s="3">
         <v>55.761529999999993</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K60" s="11">
         <v>14.36233</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L60" s="5">
         <f t="shared" si="6"/>
         <v>7720.3875207885012</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M60" s="3">
         <v>2719.9630072755008</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N60" s="3">
         <v>4308.5178526390009</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O60" s="3">
         <v>550.02743308999959</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P60" s="3">
         <v>7.8376115140000007</v>
       </c>
-      <c r="Q59" s="11">
+      <c r="Q60" s="11">
         <v>49.157905969999987</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R60" s="3">
         <v>84.630515320000001</v>
       </c>
-      <c r="S59" s="6">
+      <c r="S60" s="6">
         <v>0.25319498000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="29">
+    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="29">
         <v>2020</v>
       </c>
-      <c r="C60" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="22">
+      <c r="C61" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="22">
         <f t="shared" si="5"/>
         <v>10299.350069510732</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>3823.384485499997</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>4951.899973010738</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G61" s="16">
         <v>1126.6304699999989</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H61" s="17">
         <v>155.82070999999999</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I61" s="17">
         <v>189.46652100000011</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J61" s="17">
         <v>42.813149999999993</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K61" s="16">
         <v>9.3347600000000028</v>
       </c>
-      <c r="L60" s="22">
+      <c r="L61" s="22">
         <f t="shared" si="6"/>
         <v>7398.4236104454985</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M61" s="17">
         <v>2611.3807745675008</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N61" s="17">
         <v>4099.994935206998</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O61" s="17">
         <v>576.65962569999999</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P61" s="17">
         <v>5.8101744709999998</v>
       </c>
-      <c r="Q60" s="16">
+      <c r="Q61" s="16">
         <v>48.975136419999998</v>
       </c>
-      <c r="R60" s="17">
+      <c r="R61" s="17">
         <v>55.332080869999999</v>
       </c>
-      <c r="S60" s="7">
+      <c r="S61" s="7">
         <v>0.2708832100000001</v>
       </c>
     </row>
-    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="33">
+    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="33">
         <v>2020</v>
       </c>
-      <c r="C61" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="9">
+      <c r="C62" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="9">
         <f t="shared" si="5"/>
         <v>10271.035696436747</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <v>3815.537451499998</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F62" s="8">
         <v>4795.4483429367501</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="12">
         <v>1231.876279999999</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H62" s="8">
         <v>149.16394</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I62" s="8">
         <v>225.18540200000001</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J62" s="8">
         <v>42.674029999999988</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K62" s="12">
         <v>11.15025</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L62" s="9">
         <f t="shared" si="6"/>
         <v>7185.7383871704087</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M62" s="8">
         <v>2557.950665571791</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N62" s="8">
         <v>3902.6936190776169</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O62" s="8">
         <v>613.68125601999952</v>
       </c>
-      <c r="P61" s="8">
+      <c r="P62" s="8">
         <v>5.5450976610000007</v>
       </c>
-      <c r="Q61" s="12">
+      <c r="Q62" s="12">
         <v>54.17302995</v>
       </c>
-      <c r="R61" s="8">
+      <c r="R62" s="8">
         <v>51.401263659999998</v>
       </c>
-      <c r="S61" s="10">
+      <c r="S62" s="10">
         <v>0.29345523000000012</v>
       </c>
     </row>
-    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="35">
+    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="35">
         <v>2019</v>
       </c>
-      <c r="C62" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="23">
+      <c r="C63" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="23">
         <f t="shared" si="5"/>
         <v>10047.312890842448</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E63" s="24">
         <v>3660.8761419999978</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F63" s="24">
         <v>4803.7000258424505</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G63" s="25">
         <v>1177.5281500000008</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H63" s="24">
         <v>122.89328999999999</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I63" s="24">
         <v>230.92350300000001</v>
       </c>
-      <c r="J62" s="24">
+      <c r="J63" s="24">
         <v>42.637639999999998</v>
       </c>
-      <c r="K62" s="25">
+      <c r="K63" s="25">
         <v>8.7541399999999996</v>
       </c>
-      <c r="L62" s="23">
+      <c r="L63" s="23">
         <f t="shared" si="6"/>
         <v>7283.4758425855061</v>
       </c>
-      <c r="M62" s="24">
+      <c r="M63" s="24">
         <v>2545.6933826471468</v>
       </c>
-      <c r="N62" s="24">
+      <c r="N63" s="24">
         <v>4050.2897667273596</v>
       </c>
-      <c r="O62" s="24">
+      <c r="O63" s="24">
         <v>573.5496261799999</v>
       </c>
-      <c r="P62" s="24">
+      <c r="P63" s="24">
         <v>4.2298997729999996</v>
       </c>
-      <c r="Q62" s="25">
+      <c r="Q63" s="25">
         <v>56.884561087999998</v>
       </c>
-      <c r="R62" s="24">
+      <c r="R63" s="24">
         <v>52.609621790000006</v>
       </c>
-      <c r="S62" s="26">
+      <c r="S63" s="26">
         <v>0.21898438000000003</v>
       </c>
     </row>
-    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="31">
+    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="31">
         <v>2019</v>
       </c>
-      <c r="C63" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="C64" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="5">
         <f t="shared" si="5"/>
         <v>10280.781962591729</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E64" s="3">
         <v>3610.9266754999981</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F64" s="3">
         <v>5041.7983650917313</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>1236.3706200000001</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H64" s="3">
         <v>119.94541900000002</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I64" s="3">
         <v>216.296423</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J64" s="3">
         <v>44.749820000000007</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K64" s="11">
         <v>10.694639999999998</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L64" s="5">
         <f t="shared" si="6"/>
         <v>7555.8940235339123</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M64" s="3">
         <v>2480.4706212095998</v>
       </c>
-      <c r="N63" s="3">
+      <c r="N64" s="3">
         <v>4344.3803465193132</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O64" s="3">
         <v>612.67386856000019</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P64" s="3">
         <v>4.0122463450000003</v>
       </c>
-      <c r="Q63" s="11">
+      <c r="Q64" s="11">
         <v>58.796987859999994</v>
       </c>
-      <c r="R63" s="3">
+      <c r="R64" s="3">
         <v>55.348814779999998</v>
       </c>
-      <c r="S63" s="6">
+      <c r="S64" s="6">
         <v>0.21113825999999997</v>
       </c>
     </row>
-    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="29">
+    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="29">
         <v>2019</v>
       </c>
-      <c r="C64" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="22">
+      <c r="C65" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="22">
         <f t="shared" si="5"/>
         <v>10705.327866000001</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>3801.481272</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>5236.960086</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G65" s="16">
         <v>1235.93461</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H65" s="17">
         <v>160.86355499999999</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I65" s="17">
         <v>213.47005300000001</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J65" s="17">
         <v>45.65587</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K65" s="16">
         <v>10.96242</v>
       </c>
-      <c r="L64" s="22">
+      <c r="L65" s="22">
         <f t="shared" si="6"/>
         <v>7564.1221808391301</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M65" s="17">
         <v>2532.7762513215766</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N65" s="17">
         <v>4297.3858559405544</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O65" s="17">
         <v>606.66118932999996</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P65" s="17">
         <v>5.7111421819999997</v>
       </c>
-      <c r="Q64" s="16">
+      <c r="Q65" s="16">
         <v>64.496729185000007</v>
       </c>
-      <c r="R64" s="17">
+      <c r="R65" s="17">
         <v>56.887522270000005</v>
       </c>
-      <c r="S64" s="7">
+      <c r="S65" s="7">
         <v>0.20349060999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="31">
+    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="31">
         <v>2019</v>
       </c>
-      <c r="C65" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="5">
+      <c r="C66" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="5">
         <f t="shared" si="5"/>
         <v>10313.251420927023</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E66" s="3">
         <v>3763.4243204999998</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F66" s="3">
         <v>4794.4036324270237</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>1259.9243900000008</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H66" s="3">
         <v>164.26299700000001</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I66" s="3">
         <v>251.636821</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J66" s="3">
         <v>66.981439999999992</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K66" s="11">
         <v>12.61782</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L66" s="5">
         <f t="shared" si="6"/>
         <v>7368.223949700222</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M66" s="3">
         <v>2492.5831110034319</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N66" s="3">
         <v>4168.1941198527893</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O66" s="3">
         <v>564.70797957000025</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P66" s="3">
         <v>6.7826120650000004</v>
       </c>
-      <c r="Q65" s="11">
+      <c r="Q66" s="11">
         <v>68.621584789000011</v>
       </c>
-      <c r="R65" s="3">
+      <c r="R66" s="3">
         <v>67.080573079999994</v>
       </c>
-      <c r="S65" s="6">
+      <c r="S66" s="6">
         <v>0.25396934000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="29">
+    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="29">
         <v>2019</v>
       </c>
-      <c r="C66" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="22">
+      <c r="C67" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="22">
         <f t="shared" si="5"/>
         <v>11096.380692382061</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>3917.8476439999995</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="17">
         <v>5305.3281943820612</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G67" s="16">
         <v>1265.0673000000011</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H67" s="17">
         <v>254.105448</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I67" s="17">
         <v>282.87777699999998</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J67" s="17">
         <v>52.912410000000001</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K67" s="16">
         <v>18.241918999999999</v>
       </c>
-      <c r="L66" s="22">
+      <c r="L67" s="22">
         <f t="shared" si="6"/>
         <v>7875.1347427823239</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M67" s="17">
         <v>2623.4929048545905</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N67" s="17">
         <v>4528.0558628127355</v>
       </c>
-      <c r="O66" s="17">
+      <c r="O67" s="17">
         <v>599.40095962999965</v>
       </c>
-      <c r="P66" s="17">
+      <c r="P67" s="17">
         <v>7.1929457959999992</v>
       </c>
-      <c r="Q66" s="16">
+      <c r="Q67" s="16">
         <v>67.383048192999993</v>
       </c>
-      <c r="R66" s="17">
+      <c r="R67" s="17">
         <v>49.255862180000001</v>
       </c>
-      <c r="S66" s="7">
+      <c r="S67" s="7">
         <v>0.353159316</v>
       </c>
     </row>
-    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="31">
+    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="31">
         <v>2019</v>
       </c>
-      <c r="C67" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C68" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="5">
         <f t="shared" si="5"/>
         <v>11150.650438969102</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E68" s="3">
         <v>3873.3662050000003</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F68" s="3">
         <v>5476.5920749691022</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G68" s="11">
         <v>1295.4921899999999</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H68" s="3">
         <v>130.167182</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I68" s="3">
         <v>270.20667400000008</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J68" s="3">
         <v>95.357079999999996</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K68" s="11">
         <v>9.4690329999999996</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L68" s="5">
         <f t="shared" si="6"/>
         <v>8143.3902304466164</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M68" s="3">
         <v>2699.0426404251648</v>
       </c>
-      <c r="N67" s="3">
+      <c r="N68" s="3">
         <v>4690.7340326165104</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O68" s="3">
         <v>626.75042356999995</v>
       </c>
-      <c r="P67" s="3">
+      <c r="P68" s="3">
         <v>4.2158850049414749</v>
       </c>
-      <c r="Q67" s="11">
+      <c r="Q68" s="11">
         <v>69.891604407999992</v>
       </c>
-      <c r="R67" s="3">
+      <c r="R68" s="3">
         <v>52.570641740000006</v>
       </c>
-      <c r="S67" s="6">
+      <c r="S68" s="6">
         <v>0.18500268199999997</v>
       </c>
     </row>
-    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="29">
+    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="29">
         <v>2019</v>
       </c>
-      <c r="C68" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="22">
+      <c r="C69" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="22">
         <f t="shared" si="5"/>
         <v>10374.818673051463</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>3549.9224370000029</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="17">
         <v>5071.1049410514588</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G69" s="16">
         <v>1261.1353490000001</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H69" s="17">
         <v>189.70297400000001</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I69" s="17">
         <v>241.36934199999999</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J69" s="17">
         <v>51.38608</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K69" s="16">
         <v>10.197550000000003</v>
       </c>
-      <c r="L68" s="22">
+      <c r="L69" s="22">
         <f t="shared" si="6"/>
         <v>7532.8116285687038</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M69" s="17">
         <v>2498.5873912253655</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N69" s="17">
         <v>4294.5408771924649</v>
       </c>
-      <c r="O68" s="17">
+      <c r="O69" s="17">
         <v>618.46245641899986</v>
       </c>
-      <c r="P68" s="17">
+      <c r="P69" s="17">
         <v>7.1837945668734235</v>
       </c>
-      <c r="Q68" s="16">
+      <c r="Q69" s="16">
         <v>67.283344745000008</v>
       </c>
-      <c r="R68" s="17">
+      <c r="R69" s="17">
         <v>46.514204849999999</v>
       </c>
-      <c r="S68" s="7">
+      <c r="S69" s="7">
         <v>0.23955957</v>
       </c>
     </row>
-    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="31">
+    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="31">
         <v>2019</v>
       </c>
-      <c r="C69" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C70" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="5">
         <f t="shared" si="5"/>
         <v>10971.576587143792</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E70" s="3">
         <v>3859.9412885000029</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="3">
         <v>5135.6499426437886</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>1398.7275000000011</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H70" s="3">
         <v>201.93910199999996</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I70" s="3">
         <v>308.40207399999997</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J70" s="3">
         <v>52.276800000000001</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K70" s="11">
         <v>14.63988</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L70" s="5">
         <f t="shared" si="6"/>
         <v>7918.5192805454762</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M70" s="3">
         <v>2715.5986838884046</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N70" s="3">
         <v>4370.5287118188699</v>
       </c>
-      <c r="O69" s="3">
+      <c r="O70" s="3">
         <v>688.65007213000047</v>
       </c>
-      <c r="P69" s="3">
+      <c r="P70" s="3">
         <v>6.9957881702000009</v>
       </c>
-      <c r="Q69" s="11">
+      <c r="Q70" s="11">
         <v>77.028830357999993</v>
       </c>
-      <c r="R69" s="3">
+      <c r="R70" s="3">
         <v>59.42133875999999</v>
       </c>
-      <c r="S69" s="6">
+      <c r="S70" s="6">
         <v>0.29585541999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="29">
+    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="29">
         <v>2019</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="22">
+      <c r="C71" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="22">
         <f t="shared" si="5"/>
         <v>10534.153393500883</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>3675.3372790000017</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>5077.1043255008817</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G71" s="16">
         <v>1229.5152699999999</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H71" s="17">
         <v>205.91515200000003</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I71" s="17">
         <v>272.06735700000002</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J71" s="17">
         <v>57.111829999999998</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K71" s="16">
         <v>17.102179999999997</v>
       </c>
-      <c r="L70" s="22">
+      <c r="L71" s="22">
         <f t="shared" si="6"/>
         <v>7390.6301600856887</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M71" s="17">
         <v>2482.4826125118411</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N71" s="17">
         <v>4183.7452393018466</v>
       </c>
-      <c r="O70" s="17">
+      <c r="O71" s="17">
         <v>594.52454974000057</v>
       </c>
-      <c r="P70" s="17">
+      <c r="P71" s="17">
         <v>6.8929467899999999</v>
       </c>
-      <c r="Q70" s="16">
+      <c r="Q71" s="16">
         <v>61.99332402200001</v>
       </c>
-      <c r="R70" s="17">
+      <c r="R71" s="17">
         <v>60.632588310000003</v>
       </c>
-      <c r="S70" s="7">
+      <c r="S71" s="7">
         <v>0.35889941000000009</v>
       </c>
     </row>
-    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="31">
+    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="31">
         <v>2019</v>
       </c>
-      <c r="C71" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="5">
+      <c r="C72" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="5">
         <f t="shared" si="5"/>
         <v>10581.052353198915</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E72" s="3">
         <v>3752.7021304999998</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F72" s="3">
         <v>5042.9410756989164</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>1226.6793299999995</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H72" s="3">
         <v>227.34326400000003</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I72" s="3">
         <v>273.29974500000003</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J72" s="3">
         <v>46.615569999999991</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K72" s="11">
         <v>11.471238</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L72" s="5">
         <f t="shared" si="6"/>
         <v>7316.8442337622519</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M72" s="3">
         <v>2584.8546054208359</v>
       </c>
-      <c r="N71" s="3">
+      <c r="N72" s="3">
         <v>3971.3774654550916</v>
       </c>
-      <c r="O71" s="3">
+      <c r="O72" s="3">
         <v>628.3360908439995</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P72" s="3">
         <v>8.5075610303260056</v>
       </c>
-      <c r="Q71" s="11">
+      <c r="Q72" s="11">
         <v>68.783462650000004</v>
       </c>
-      <c r="R71" s="3">
+      <c r="R72" s="3">
         <v>54.71253209999999</v>
       </c>
-      <c r="S71" s="6">
+      <c r="S72" s="6">
         <v>0.27251626200000001</v>
       </c>
     </row>
-    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="29">
+    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="29">
         <v>2019</v>
       </c>
-      <c r="C72" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="22">
+      <c r="C73" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="22">
         <f t="shared" si="5"/>
         <v>9241.6055505618933</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>3275.5849539999986</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="17">
         <v>4370.160919561893</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G73" s="16">
         <v>1126.2545300000011</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H73" s="17">
         <v>152.85569699999999</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I73" s="17">
         <v>259.99696999999998</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J73" s="17">
         <v>46.582780000000007</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K73" s="16">
         <v>10.169700000000002</v>
       </c>
-      <c r="L72" s="22">
+      <c r="L73" s="22">
         <f t="shared" si="6"/>
         <v>6363.5933863084483</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M73" s="17">
         <v>2189.6104131855614</v>
       </c>
-      <c r="N72" s="17">
+      <c r="N73" s="17">
         <v>3499.6909835169613</v>
       </c>
-      <c r="O72" s="17">
+      <c r="O73" s="17">
         <v>547.40245832199946</v>
       </c>
-      <c r="P72" s="17">
+      <c r="P73" s="17">
         <v>5.1177584499260034</v>
       </c>
-      <c r="Q72" s="16">
+      <c r="Q73" s="16">
         <v>63.306209223999993</v>
       </c>
-      <c r="R72" s="17">
+      <c r="R73" s="17">
         <v>58.28962554000001</v>
       </c>
-      <c r="S72" s="7">
+      <c r="S73" s="7">
         <v>0.17593807</v>
       </c>
     </row>
-    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="33">
+    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="33">
         <v>2019</v>
       </c>
-      <c r="C73" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="9">
+      <c r="C74" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="9">
         <f t="shared" si="5"/>
         <v>9892.1436970006562</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>3499.7139435000031</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F74" s="8">
         <v>4546.0874465006518</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="12">
         <v>1267.5804000000005</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H74" s="8">
         <v>224.06764100000001</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I74" s="8">
         <v>293.47607299999999</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J74" s="8">
         <v>50.833020000000005</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K74" s="12">
         <v>10.385172999999998</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L74" s="9">
         <f t="shared" si="6"/>
         <v>6769.108553604312</v>
       </c>
-      <c r="M73" s="8">
+      <c r="M74" s="8">
         <v>2315.0380047690219</v>
       </c>
-      <c r="N73" s="8">
+      <c r="N74" s="8">
         <v>3695.4581032397491</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O74" s="8">
         <v>592.54793959300025</v>
       </c>
-      <c r="P73" s="8">
+      <c r="P74" s="8">
         <v>8.0988788035407904</v>
       </c>
-      <c r="Q73" s="12">
+      <c r="Q74" s="12">
         <v>68.810378116999999</v>
       </c>
-      <c r="R73" s="8">
+      <c r="R74" s="8">
         <v>88.897206580000002</v>
       </c>
-      <c r="S73" s="10">
+      <c r="S74" s="10">
         <v>0.25804250200000001</v>
       </c>
     </row>
-    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="35">
+    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="35">
         <v>2018</v>
       </c>
-      <c r="C74" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="23">
+      <c r="C75" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="23">
         <f t="shared" si="5"/>
         <v>10362</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E75" s="24">
         <v>3606</v>
       </c>
-      <c r="F74" s="24">
+      <c r="F75" s="24">
         <v>4918</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G75" s="25">
         <v>1307</v>
       </c>
-      <c r="H74" s="24">
+      <c r="H75" s="24">
         <v>208</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I75" s="24">
         <v>280</v>
       </c>
-      <c r="J74" s="24">
+      <c r="J75" s="24">
         <v>34</v>
       </c>
-      <c r="K74" s="25">
+      <c r="K75" s="25">
         <v>9</v>
       </c>
-      <c r="L74" s="23">
+      <c r="L75" s="23">
         <f t="shared" si="6"/>
         <v>7145</v>
       </c>
-      <c r="M74" s="24">
+      <c r="M75" s="24">
         <v>2425</v>
       </c>
-      <c r="N74" s="24">
+      <c r="N75" s="24">
         <v>3948</v>
       </c>
-      <c r="O74" s="24">
+      <c r="O75" s="24">
         <v>638</v>
       </c>
-      <c r="P74" s="24">
+      <c r="P75" s="24">
         <v>8</v>
       </c>
-      <c r="Q74" s="25">
+      <c r="Q75" s="25">
         <v>74</v>
       </c>
-      <c r="R74" s="24">
+      <c r="R75" s="24">
         <v>52</v>
       </c>
-      <c r="S74" s="26"/>
-    </row>
-    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="31">
+      <c r="S75" s="26"/>
+    </row>
+    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="31">
         <v>2018</v>
       </c>
-      <c r="C75" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="C76" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="5">
         <f t="shared" si="5"/>
         <v>10847</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E76" s="3">
         <v>3612</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F76" s="3">
         <v>5385</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>1299</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H76" s="3">
         <v>213</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I76" s="3">
         <v>284</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J76" s="3">
         <v>38</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K76" s="11">
         <v>16</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L76" s="5">
         <f t="shared" si="6"/>
         <v>7655</v>
       </c>
-      <c r="M75" s="3">
+      <c r="M76" s="3">
         <v>2466</v>
       </c>
-      <c r="N75" s="3">
+      <c r="N76" s="3">
         <v>4397</v>
       </c>
-      <c r="O75" s="3">
+      <c r="O76" s="3">
         <v>669</v>
       </c>
-      <c r="P75" s="3">
+      <c r="P76" s="3">
         <v>8</v>
       </c>
-      <c r="Q75" s="11">
+      <c r="Q76" s="11">
         <v>74</v>
       </c>
-      <c r="R75" s="3">
+      <c r="R76" s="3">
         <v>41</v>
       </c>
-      <c r="S75" s="6"/>
-    </row>
-    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="29">
+      <c r="S76" s="6"/>
+    </row>
+    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="29">
         <v>2018</v>
       </c>
-      <c r="C76" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" s="22">
+      <c r="C77" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="22">
         <f t="shared" si="5"/>
         <v>10926</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>3805</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>5324</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G77" s="16">
         <v>1340</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H77" s="17">
         <v>137</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I77" s="17">
         <v>273</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J77" s="17">
         <v>27</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K77" s="16">
         <v>20</v>
       </c>
-      <c r="L76" s="22">
+      <c r="L77" s="22">
         <f t="shared" si="6"/>
         <v>7509</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M77" s="17">
         <v>2604</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N77" s="17">
         <v>4133</v>
       </c>
-      <c r="O76" s="17">
+      <c r="O77" s="17">
         <v>655</v>
       </c>
-      <c r="P76" s="17">
+      <c r="P77" s="17">
         <v>4</v>
       </c>
-      <c r="Q76" s="16">
+      <c r="Q77" s="16">
         <v>72</v>
       </c>
-      <c r="R76" s="17">
+      <c r="R77" s="17">
         <v>41</v>
       </c>
-      <c r="S76" s="7"/>
-    </row>
-    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="31">
+      <c r="S77" s="7"/>
+    </row>
+    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="31">
         <v>2018</v>
       </c>
-      <c r="C77" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="C78" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="5">
         <f t="shared" si="5"/>
         <v>10257</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E78" s="3">
         <v>3485</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F78" s="3">
         <v>4900</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>1349</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H78" s="3">
         <v>208</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I78" s="3">
         <v>260</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J78" s="3">
         <v>42</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K78" s="11">
         <v>13</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L78" s="5">
         <f t="shared" si="6"/>
         <v>7135</v>
       </c>
-      <c r="M77" s="3">
+      <c r="M78" s="3">
         <v>2350</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N78" s="3">
         <v>4008</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O78" s="3">
         <v>655</v>
       </c>
-      <c r="P77" s="3">
+      <c r="P78" s="3">
         <v>8</v>
       </c>
-      <c r="Q77" s="11">
+      <c r="Q78" s="11">
         <v>63</v>
       </c>
-      <c r="R77" s="3">
+      <c r="R78" s="3">
         <v>51</v>
       </c>
-      <c r="S77" s="6"/>
-    </row>
-    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="29">
+      <c r="S78" s="6"/>
+    </row>
+    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="29">
         <v>2018</v>
       </c>
-      <c r="C78" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="22">
+      <c r="C79" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="22">
         <f t="shared" si="5"/>
         <v>10917</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>3674</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>5279</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G79" s="16">
         <v>1420</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H79" s="17">
         <v>210</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I79" s="17">
         <v>270</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J79" s="17">
         <v>45</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K79" s="16">
         <v>19</v>
       </c>
-      <c r="L78" s="22">
+      <c r="L79" s="22">
         <f t="shared" si="6"/>
         <v>7620</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M79" s="17">
         <v>2514</v>
       </c>
-      <c r="N78" s="17">
+      <c r="N79" s="17">
         <v>4292</v>
       </c>
-      <c r="O78" s="17">
+      <c r="O79" s="17">
         <v>680</v>
       </c>
-      <c r="P78" s="17">
+      <c r="P79" s="17">
         <v>8</v>
       </c>
-      <c r="Q78" s="16">
+      <c r="Q79" s="16">
         <v>69</v>
       </c>
-      <c r="R78" s="17">
+      <c r="R79" s="17">
         <v>57</v>
       </c>
-      <c r="S78" s="7"/>
-    </row>
-    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="31">
+      <c r="S79" s="7"/>
+    </row>
+    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="31">
         <v>2018</v>
       </c>
-      <c r="C79" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="5">
+      <c r="C80" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="5">
         <f t="shared" si="5"/>
         <v>11147</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E80" s="3">
         <v>3756</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F80" s="3">
         <v>5273</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>1541</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H80" s="3">
         <v>217</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I80" s="3">
         <v>308</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J80" s="3">
         <v>42</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K80" s="11">
         <v>10</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L80" s="5">
         <f t="shared" si="6"/>
         <v>7610</v>
       </c>
-      <c r="M79" s="3">
+      <c r="M80" s="3">
         <v>2530</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N80" s="3">
         <v>4228</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O80" s="3">
         <v>716</v>
       </c>
-      <c r="P79" s="3">
+      <c r="P80" s="3">
         <v>8</v>
       </c>
-      <c r="Q79" s="11">
+      <c r="Q80" s="11">
         <v>77</v>
       </c>
-      <c r="R79" s="3">
+      <c r="R80" s="3">
         <v>51</v>
       </c>
-      <c r="S79" s="6"/>
-    </row>
-    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="29">
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="29">
         <v>2018</v>
       </c>
-      <c r="C80" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="22">
+      <c r="C81" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="22">
         <f t="shared" si="5"/>
         <v>10948</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>3657</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>5338</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G81" s="16">
         <v>1355</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="17">
         <v>247</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I81" s="17">
         <v>283</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J81" s="17">
         <v>56</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K81" s="16">
         <v>12</v>
       </c>
-      <c r="L80" s="22">
+      <c r="L81" s="22">
         <f t="shared" si="6"/>
         <v>7627</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M81" s="17">
         <v>2524</v>
       </c>
-      <c r="N80" s="17">
+      <c r="N81" s="17">
         <v>4291</v>
       </c>
-      <c r="O80" s="17">
+      <c r="O81" s="17">
         <v>673</v>
       </c>
-      <c r="P80" s="17">
+      <c r="P81" s="17">
         <v>9</v>
       </c>
-      <c r="Q80" s="16">
+      <c r="Q81" s="16">
         <v>74</v>
       </c>
-      <c r="R80" s="17">
+      <c r="R81" s="17">
         <v>56</v>
       </c>
-      <c r="S80" s="7"/>
-    </row>
-    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="31">
+      <c r="S81" s="7"/>
+    </row>
+    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="31">
         <v>2018</v>
       </c>
-      <c r="C81" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="5">
+      <c r="C82" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="5">
         <f t="shared" si="5"/>
         <v>11358</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E82" s="3">
         <v>3901</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F82" s="3">
         <v>5805</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>1068</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H82" s="3">
         <v>198</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I82" s="3">
         <v>302</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J82" s="3">
         <v>64</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K82" s="11">
         <v>20</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L82" s="5">
         <f t="shared" si="6"/>
         <v>7899</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M82" s="3">
         <v>2695</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N82" s="3">
         <v>4507</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O82" s="3">
         <v>556</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P82" s="3">
         <v>8</v>
       </c>
-      <c r="Q81" s="11">
+      <c r="Q82" s="11">
         <v>78</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R82" s="3">
         <v>55</v>
       </c>
-      <c r="S81" s="6"/>
-    </row>
-    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="29">
+      <c r="S82" s="6"/>
+    </row>
+    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="29">
         <v>2018</v>
       </c>
-      <c r="C82" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="22">
+      <c r="C83" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="22">
         <f t="shared" si="5"/>
         <v>10769</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>3736</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>5158</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G83" s="16">
         <v>1304</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H83" s="17">
         <v>210</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I83" s="17">
         <v>309</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J83" s="17">
         <v>38</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K83" s="16">
         <v>14</v>
       </c>
-      <c r="L82" s="22">
+      <c r="L83" s="22">
         <f t="shared" si="6"/>
         <v>7284</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M83" s="17">
         <v>2592</v>
       </c>
-      <c r="N82" s="17">
+      <c r="N83" s="17">
         <v>3860</v>
       </c>
-      <c r="O82" s="17">
+      <c r="O83" s="17">
         <v>701</v>
       </c>
-      <c r="P82" s="17">
+      <c r="P83" s="17">
         <v>8</v>
       </c>
-      <c r="Q82" s="16">
+      <c r="Q83" s="16">
         <v>73</v>
       </c>
-      <c r="R82" s="17">
+      <c r="R83" s="17">
         <v>50</v>
       </c>
-      <c r="S82" s="7"/>
-    </row>
-    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="31">
+      <c r="S83" s="7"/>
+    </row>
+    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="31">
         <v>2018</v>
       </c>
-      <c r="C83" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="5">
+      <c r="C84" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="5">
         <f t="shared" si="5"/>
         <v>10595</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E84" s="3">
         <v>3510</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F84" s="3">
         <v>5158</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>1332</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H84" s="3">
         <v>223</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I84" s="3">
         <v>307</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J84" s="3">
         <v>50</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K84" s="11">
         <v>15</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L84" s="5">
         <f t="shared" si="6"/>
         <v>7079</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M84" s="3">
         <v>2512</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N84" s="3">
         <v>3719</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O84" s="3">
         <v>718</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P84" s="3">
         <v>9</v>
       </c>
-      <c r="Q83" s="11">
+      <c r="Q84" s="11">
         <v>68</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R84" s="3">
         <v>53</v>
       </c>
-      <c r="S83" s="6"/>
-    </row>
-    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="29">
+      <c r="S84" s="6"/>
+    </row>
+    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="29">
         <v>2018</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" s="22">
+      <c r="C85" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="22">
         <f t="shared" si="5"/>
         <v>9439</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>3213</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>4478</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G85" s="16">
         <v>1214</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H85" s="17">
         <v>203</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="17">
         <v>273</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J85" s="17">
         <v>50</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K85" s="16">
         <v>8</v>
       </c>
-      <c r="L84" s="22">
+      <c r="L85" s="22">
         <f t="shared" si="6"/>
         <v>6237</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M85" s="17">
         <v>2209</v>
       </c>
-      <c r="N84" s="17">
+      <c r="N85" s="17">
         <v>3275</v>
       </c>
-      <c r="O84" s="17">
+      <c r="O85" s="17">
         <v>646</v>
       </c>
-      <c r="P84" s="17">
+      <c r="P85" s="17">
         <v>8</v>
       </c>
-      <c r="Q84" s="16">
+      <c r="Q85" s="16">
         <v>60</v>
       </c>
-      <c r="R84" s="17">
+      <c r="R85" s="17">
         <v>39</v>
       </c>
-      <c r="S84" s="7"/>
-    </row>
-    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="33">
+      <c r="S85" s="7"/>
+    </row>
+    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="33">
         <v>2018</v>
       </c>
-      <c r="C85" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" s="9">
+      <c r="C86" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="9">
         <f t="shared" si="5"/>
         <v>10479</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E86" s="8">
         <v>3653</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F86" s="8">
         <v>4773</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>1398</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H86" s="8">
         <v>287</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I86" s="8">
         <v>312</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J86" s="8">
         <v>47</v>
       </c>
-      <c r="K85" s="12">
+      <c r="K86" s="12">
         <v>9</v>
       </c>
-      <c r="L85" s="9">
+      <c r="L86" s="9">
         <f t="shared" si="6"/>
         <v>7153</v>
       </c>
-      <c r="M85" s="8">
+      <c r="M86" s="8">
         <v>2519</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N86" s="8">
         <v>3737</v>
       </c>
-      <c r="O85" s="8">
+      <c r="O86" s="8">
         <v>754</v>
       </c>
-      <c r="P85" s="8">
+      <c r="P86" s="8">
         <v>11</v>
       </c>
-      <c r="Q85" s="12">
+      <c r="Q86" s="12">
         <v>66</v>
       </c>
-      <c r="R85" s="8">
+      <c r="R86" s="8">
         <v>65</v>
       </c>
-      <c r="S85" s="10">
+      <c r="S86" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B86" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+      <c r="B87" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
         <v>0</v>
       </c>
-      <c r="S87" s="2"/>
+      <c r="S88" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA7B64D-8064-4F05-B1AC-D3C5F1B97EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B26AC12-4B8E-44E7-B6AB-178E29A02BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -153,26 +153,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Montserrat Medium"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -188,30 +175,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat Medium"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -390,242 +388,103 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -640,9 +499,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -662,6 +522,307 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -676,7 +837,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S86" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S86" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="B5:S86" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
     <filterColumn colId="0">
       <filters>
@@ -686,26 +847,26 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{6FD22A4F-E740-4D66-9D13-2F083528EE3B}" name="Año" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{C22B88A7-6974-477E-9A13-EA43B2F14D30}" name="Mes" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{69D9BB11-29FE-4B97-8E28-78097BBD44F3}" name="Total" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{6FD22A4F-E740-4D66-9D13-2F083528EE3B}" name="Año" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{C22B88A7-6974-477E-9A13-EA43B2F14D30}" name="Mes" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{69D9BB11-29FE-4B97-8E28-78097BBD44F3}" name="Total" dataDxfId="17">
       <calculatedColumnFormula>SUM(E6:K6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A58B0BC4-DC40-4D6C-BF11-2B80C64AB947}" name="Kansas City Southern de México" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{38471942-D269-431A-8781-5F17763E42C2}" name="Ferrocarril Mexicano " dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{8D17F24F-3D96-4A78-BC0B-21740E97571C}" name="FERROSUR " dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{885F419C-86B5-48E0-8193-3BB946AC889A}" name="Ferrocarril y Terminal del Valle de México" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{0BBFB8A6-99E0-41E4-AE1D-69E141B15BF9}" name="Línea Coahuila Durango " dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{DE2FB221-E56C-41CE-8B60-FAAACAC84270}" name="Ferrocarril del Istmo de Tehuantepec" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{B3135452-3A6A-430F-8173-FD4D293C0D06}" name="Admin. Vía Corta Tijuana-Tecate" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{EDD4AEAE-3EF5-467D-9500-C43D2DEA67E8}" name="Total " dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{F8E65A35-CFAA-433E-880E-0745A06312F8}" name="Kansas City Southern de México " dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{99C74970-B9CC-4766-B50D-1B06C0B447E5}" name="Ferrocarril Mexicano" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{58125A09-AE0F-47B3-9199-6AD61950403F}" name="FERROSUR" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{5B02396F-D9E0-47F6-9A50-FFB572DE1C71}" name="Ferrocarril y Terminal del Valle de México " dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{EB76073F-0B65-479D-80CD-C7D064A173AA}" name="Línea Coahuila Durango" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{5FA538C5-3664-4FF5-8ECE-3030AC5A6BB2}" name="Ferrocarril del Istmo de Tehuantepec " dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{67681C8F-1F80-4560-B134-3F8A2B9DD5F3}" name="Admin. Vía Corta Tijuana-Tecate " dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A58B0BC4-DC40-4D6C-BF11-2B80C64AB947}" name="Kansas City Southern de México" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{38471942-D269-431A-8781-5F17763E42C2}" name="Ferrocarril Mexicano " dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{8D17F24F-3D96-4A78-BC0B-21740E97571C}" name="FERROSUR " dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{885F419C-86B5-48E0-8193-3BB946AC889A}" name="Ferrocarril y Terminal del Valle de México" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{0BBFB8A6-99E0-41E4-AE1D-69E141B15BF9}" name="Línea Coahuila Durango " dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{DE2FB221-E56C-41CE-8B60-FAAACAC84270}" name="Ferrocarril del Istmo de Tehuantepec" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{B3135452-3A6A-430F-8173-FD4D293C0D06}" name="Admin. Vía Corta Tijuana-Tecate" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{EDD4AEAE-3EF5-467D-9500-C43D2DEA67E8}" name="Total " dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{F8E65A35-CFAA-433E-880E-0745A06312F8}" name="Kansas City Southern de México " dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{99C74970-B9CC-4766-B50D-1B06C0B447E5}" name="Ferrocarril Mexicano" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{58125A09-AE0F-47B3-9199-6AD61950403F}" name="FERROSUR" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{5B02396F-D9E0-47F6-9A50-FFB572DE1C71}" name="Ferrocarril y Terminal del Valle de México " dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{EB76073F-0B65-479D-80CD-C7D064A173AA}" name="Línea Coahuila Durango" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{5FA538C5-3664-4FF5-8ECE-3030AC5A6BB2}" name="Ferrocarril del Istmo de Tehuantepec " dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{67681C8F-1F80-4560-B134-3F8A2B9DD5F3}" name="Admin. Vía Corta Tijuana-Tecate " dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -940,4816 +1101,4817 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" customWidth="1"/>
-    <col min="9" max="9" width="11.8984375" customWidth="1"/>
-    <col min="10" max="10" width="15.09765625" customWidth="1"/>
-    <col min="11" max="11" width="13.796875" customWidth="1"/>
-    <col min="12" max="12" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.296875" customWidth="1"/>
-    <col min="14" max="14" width="9.69921875" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="16.69921875" customWidth="1"/>
-    <col min="17" max="17" width="11.19921875" customWidth="1"/>
-    <col min="18" max="18" width="14.796875" customWidth="1"/>
-    <col min="19" max="19" width="13.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.09765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.296875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.69921875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.19921875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.796875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.8984375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="37" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="37" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="39"/>
-    </row>
-    <row r="5" spans="2:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="2:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31">
+    <row r="6" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="14">
         <v>2024</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="16">
         <f>SUM(E6:K6)</f>
         <v>10170.542102500001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="17">
         <v>4225.2215324999997</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="17">
         <v>4638.9146110000001</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="17">
         <v>1003.004611</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="17">
         <v>176.79925700000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="17">
         <v>101.900481</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="17">
         <v>8.8647200000000002</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="17">
         <v>15.83689</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="16">
         <f t="shared" ref="L6:L15" si="0">SUM(M6:S6)</f>
         <v>7310.5741896424306</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="17">
         <v>2773.4403533764998</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="17">
         <v>3963.623746364</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="17">
         <v>532.89884495000001</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="17">
         <v>5.771046664</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="17">
         <v>25.803035709</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="17">
         <v>8.7877683089299996</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="18">
         <v>0.24939427</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="29">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B7" s="19">
         <v>2024</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <f>SUM(E7:K7)</f>
         <v>11251.137121</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="22">
         <v>4380.0285290000002</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="22">
         <v>5224.974502</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="22">
         <v>1317.7201729999999</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="22">
         <v>177.187535</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="22">
         <v>105.991382</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="22">
         <v>30.662199999999999</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="22">
         <v>14.572800000000001</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="21">
         <f t="shared" si="0"/>
         <v>8231.3888027003995</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="22">
         <v>2880.310271714</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="22">
         <v>4609.8136975879997</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="22">
         <v>698.22568952999995</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="22">
         <v>5.5616272489999998</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="22">
         <v>26.096916030999999</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="22">
         <v>11.0747022284</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="23">
         <v>0.30589835999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="31">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B8" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="16">
         <f>SUM(E8:K8)</f>
         <v>11073.580067999997</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="17">
         <v>4264.3103259999998</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="17">
         <v>5088.2590179999997</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="17">
         <v>1297.469726</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="17">
         <v>268.56850200000002</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="17">
         <v>126.038926</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="17">
         <v>8.8992199999999997</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="17">
         <v>20.03435</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="16">
         <f t="shared" si="0"/>
         <v>7865.3882907427005</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="17">
         <v>2769.2323164145</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="17">
         <v>4334.8919746190004</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="17">
         <v>700.48098283000002</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="17">
         <v>10.097477002</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="17">
         <v>37.109888814999998</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="17">
         <v>13.1854440822</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="18">
         <v>0.39020697999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="29">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" s="19">
         <v>2024</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <f>SUM(E9:K9)</f>
         <v>11161.666198499997</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="22">
         <v>4078.3567754999999</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="22">
         <v>5481.9287759999997</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="22">
         <v>1221.811635</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="22">
         <v>239.36940000000001</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="22">
         <v>105.50866000000001</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="22">
         <v>9.2501800000000003</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="22">
         <v>25.440771999999999</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="21">
         <f t="shared" si="0"/>
         <v>7988.2967723501006</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="22">
         <v>2693.4096534265</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="22">
         <v>4598.9796150089996</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="22">
         <v>647.17524848999994</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="22">
         <v>8.870226637</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="22">
         <v>29.502148497</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="22">
         <v>9.9230392236</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="23">
         <v>0.43684106700000003</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="31">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="16">
         <f>SUM(E10:K10)</f>
         <v>11385.153779999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="17">
         <v>4088.3985170000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="17">
         <v>5559.3460809999997</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="17">
         <v>1362.2324040000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="17">
         <v>242.53355500000001</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="17">
         <v>103.72531499999999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="17">
         <v>4.8760000000000003</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="17">
         <v>24.041907999999999</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="16">
         <f t="shared" si="0"/>
         <v>8010.7375229999998</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="17">
         <v>2674.0050620000002</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="17">
         <v>4545.2049290000004</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="17">
         <v>749.43216500000005</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="17">
         <v>9.3834619999999997</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="17">
         <v>27.699843999999999</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="17">
         <v>4.5218790000000002</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="18">
         <v>0.49018200000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="29">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="19">
         <v>2024</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <f t="shared" ref="D11:D25" si="1">SUM(E11:K11)</f>
         <v>11518.385950000002</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="22">
         <v>4300.1912899999998</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="22">
         <v>5629.5263320000004</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="22">
         <v>1319.029931</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="22">
         <v>139.10685699999999</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="22">
         <v>105.14566000000001</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="22">
         <v>0</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="22">
         <v>25.38588</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="21">
         <f t="shared" si="0"/>
         <v>8190.6107430000002</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="22">
         <v>2859.8718090000002</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="22">
         <v>4557.1561849999998</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="22">
         <v>740.54377399999998</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="22">
         <v>3.9488479999999999</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="22">
         <v>27.069296000000001</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="22">
         <v>1.465068</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="23">
         <v>0.55576300000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="31">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="16">
         <f t="shared" si="1"/>
         <v>12058.836555</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="17">
         <v>4563.5082670000002</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="17">
         <v>5992.8884459999999</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="17">
         <v>1246.3373630000001</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="17">
         <v>139.10685699999999</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="17">
         <v>96.219672000000003</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="17">
         <v>0</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="17">
         <v>20.775950000000002</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="16">
         <f t="shared" si="0"/>
         <v>8839.7330359999996</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="17">
         <v>2957.5938150000002</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="17">
         <v>5127.0620630000003</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="17">
         <v>721.55657799999994</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="17">
         <v>3.9488479999999999</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="17">
         <v>26.56606</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="17">
         <v>2.5492699999999999</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="18">
         <v>0.45640199999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="29">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B13" s="19">
         <v>2024</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <f t="shared" si="1"/>
         <v>11342.527755999999</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="22">
         <v>4257.7457569999997</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="22">
         <v>5478.1561410000004</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="22">
         <v>1150.5672</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="22">
         <v>347.88340299999999</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="22">
         <v>97.409684999999996</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="22">
         <v>0</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="22">
         <v>10.76557</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="21">
         <f t="shared" si="0"/>
         <v>8187.4507680000006</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="22">
         <v>2792.3728390000001</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="22">
         <v>4673.1630869999999</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="22">
         <v>679.80545600000005</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="22">
         <v>8.3948649999999994</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="22">
         <v>26.664881000000001</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="22">
         <v>6.8661019999999997</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="23">
         <v>0.18353800000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="33">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" s="24">
         <v>2024</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="26">
         <f t="shared" si="1"/>
         <v>11272.010199999999</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="27">
         <v>4393.4066000000003</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="27">
         <v>5359.7539999999999</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="27">
         <v>1270.1172999999999</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="27">
         <v>121.57129999999999</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="27">
         <v>106.0236</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="27">
         <v>0</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="27">
         <v>21.1374</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="26">
         <f t="shared" si="0"/>
         <v>8342.0510054124934</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="27">
         <v>2834.6025592114943</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="27">
         <v>4774.6108969999996</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="27">
         <v>698.27653098200028</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="27">
         <v>3.7847089999999994</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="27">
         <v>28.277445269000239</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="27">
         <v>2.0259563599999999</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="28">
         <v>0.47290758999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B15" s="29">
         <v>2023</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="31">
         <f t="shared" si="1"/>
         <v>10530.152879999996</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="32">
         <v>4309.4661199999991</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="32">
         <v>4678.9765120000002</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="32">
         <v>1229.369512</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="32">
         <v>196.09364099999999</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="32">
         <v>98.409154999999998</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="32">
         <v>0</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="32">
         <v>17.83794</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="31">
         <f t="shared" si="0"/>
         <v>7153.5113975900022</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="32">
         <v>2868.2873435319998</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="32">
         <v>3607.6925303660032</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="32">
         <v>642.81335444999979</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="32">
         <v>7.0967908270000004</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="32">
         <v>26.713847234999999</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="32">
         <v>0.56659287000000003</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="33">
         <v>0.34093830999999991</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="31">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B16" s="14">
         <v>2023</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="16">
         <f t="shared" si="1"/>
         <v>10744.338341099994</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="17">
         <v>4156.0361599999969</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="17">
         <v>4940.157242999996</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="17">
         <v>1327.2145460000011</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="17">
         <v>207.6338241</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="17">
         <v>97.280187999999995</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="17">
         <v>0</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="17">
         <v>16.016380000000002</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="16">
         <f t="shared" ref="L16:L25" si="2">SUM(M16:S16)</f>
         <v>7556.0425005755014</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="17">
         <v>2765.572963916999</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="17">
         <v>4124.8151506980021</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="17">
         <v>633.25968550699997</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="17">
         <v>7.8715812454999998</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="17">
         <v>24.216846367999999</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="17">
         <v>0</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="18">
         <v>0.30627283999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="29">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B17" s="19">
         <v>2023</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <f t="shared" si="1"/>
         <v>11200.280935499999</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="22">
         <v>4460.5444895000001</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="22">
         <v>5121.4502369999991</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="22">
         <v>1286.7112570000011</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="22">
         <v>230.92582300000001</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="22">
         <v>86.957749000000007</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="22">
         <v>0</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="22">
         <v>13.691380000000001</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="21">
         <f t="shared" si="2"/>
         <v>7919.0054692064978</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="22">
         <v>2888.4215667424992</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="22">
         <v>4289.1214162529986</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="22">
         <v>709.70213744500006</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="22">
         <v>8.7303510430000006</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="22">
         <v>22.005873442999999</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="22">
         <v>0.75646751999999995</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="23">
         <v>0.26765675999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="31">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B18" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="16">
         <f t="shared" si="1"/>
         <v>10782.032769499994</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="17">
         <v>4218.6692064999988</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="17">
         <v>4942.4715439999973</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="17">
         <v>1325.7413049999991</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="17">
         <v>196.98436699999999</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="17">
         <v>89.481097000000005</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="17">
         <v>0</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="17">
         <v>8.6852500000000017</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="16">
         <f t="shared" si="2"/>
         <v>7622.1182945060009</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="17">
         <v>2723.4188917840002</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="17">
         <v>4168.1608000790002</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="17">
         <v>700.2680477920004</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="17">
         <v>6.950576074999999</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="17">
         <v>22.592782776</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="17">
         <v>0.46685416000000002</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="18">
         <v>0.26034183999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="29">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B19" s="19">
         <v>2023</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <f t="shared" si="1"/>
         <v>11165.0871135</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="22">
         <v>4073.677195499999</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="22">
         <v>5295.6467410000023</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="22">
         <v>1455.9837610000011</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="22">
         <v>215.933054</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="22">
         <v>102.351732</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="22">
         <v>0</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="22">
         <v>21.494630000000001</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="21">
         <f t="shared" si="2"/>
         <v>7816.8766415225009</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="22">
         <v>2578.8196566694969</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="22">
         <v>4455.9987150990046</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="22">
         <v>747.21557059399993</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="22">
         <v>8.0505219500000003</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="22">
         <v>26.027712000000001</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="22">
         <v>0.31483611000000011</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="23">
         <v>0.44962910000000011</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B20" s="31">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="16">
         <f t="shared" si="1"/>
         <v>10990.944824000002</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="17">
         <v>4146.4391699999987</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="17">
         <v>5135.3581670000012</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="17">
         <v>1381.008404000002</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="17">
         <v>211.989563</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="17">
         <v>101.69627</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="17">
         <v>0</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="17">
         <v>14.453250000000001</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="16">
         <f t="shared" si="2"/>
         <v>7210.7837302764929</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="17">
         <v>2685.167804527498</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="17">
         <v>3862.1520296299959</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="17">
         <v>629.01834064099978</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="17">
         <v>7.3305904510000008</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="17">
         <v>26.805101397000001</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="17">
         <v>0</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="18">
         <v>0.30986362999999989</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B21" s="29">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B21" s="19">
         <v>2023</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <f t="shared" si="1"/>
         <v>10745.577094500002</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="22">
         <v>3986.183454499997</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="22">
         <v>5182.5897230000064</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="22">
         <v>1263.786863</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="22">
         <v>194.382002</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="22">
         <v>110.79468199999999</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="22">
         <v>0</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="22">
         <v>7.8403699999999992</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="21">
         <f t="shared" si="2"/>
         <v>7727.3830689805</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="22">
         <v>2606.4418033855009</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="22">
         <v>4443.8483745960002</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="22">
         <v>641.33658918099911</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="22">
         <v>7.5541058760000004</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="22">
         <v>27.942127822</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="22">
         <v>0</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="23">
         <v>0.26006812000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="31">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="16">
         <f t="shared" si="1"/>
         <v>11106.930602500001</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="17">
         <v>4188.3383045000028</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="17">
         <v>5334.9094389999982</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="17">
         <v>1326.3186040000001</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="17">
         <v>160.06881000000001</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="17">
         <v>88.829708000000011</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="17">
         <v>0</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="17">
         <v>8.4657370000000007</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="16">
         <f t="shared" si="2"/>
         <v>7787.991672169991</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="17">
         <v>2697.017603467998</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="17">
         <v>4364.7163814329933</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="17">
         <v>691.08870988800015</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="17">
         <v>5.5462157990000014</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="17">
         <v>28.462399068</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="17">
         <v>0.92623683999999995</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="18">
         <v>0.23412567400000001</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="29">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B23" s="19">
         <v>2023</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <f t="shared" si="1"/>
         <v>10801.941199499999</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="22">
         <v>4120.2958385000038</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="22">
         <v>5130.8270799999982</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="22">
         <v>1278.4442729999989</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="22">
         <v>164.83443199999999</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="22">
         <v>97.153891000000002</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="22">
         <v>0</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="22">
         <v>10.385685</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="21">
         <f t="shared" si="2"/>
         <v>7607.3085941089976</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="22">
         <v>2709.2393107859962</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="22">
         <v>4203.9729919080019</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="22">
         <v>660.44165793399986</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="22">
         <v>5.9482127840000008</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="22">
         <v>27.414852071999999</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="22">
         <v>0</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="23">
         <v>0.29156862500000003</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B24" s="31">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="16">
         <f t="shared" si="1"/>
         <v>11383.878990499992</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="17">
         <v>4435.0004595000009</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="17">
         <v>5403.7461159999912</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="17">
         <v>1243.00846</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="17">
         <v>186.385561</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="17">
         <v>105.50189399999999</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="17">
         <v>0</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="17">
         <v>10.236499999999999</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="16">
         <f t="shared" si="2"/>
         <v>8168.6527303565072</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="17">
         <v>2855.8573844425018</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="17">
         <v>4595.0981872000057</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="17">
         <v>683.3527228519996</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="17">
         <v>6.7861570649999994</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="17">
         <v>27.308684076999999</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="17">
         <v>0</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="18">
         <v>0.24959471999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B25" s="29">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B25" s="19">
         <v>2023</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <f t="shared" si="1"/>
         <v>10730.619191500007</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="22">
         <v>4010.1023085000038</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="22">
         <v>5163.3377450000035</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="22">
         <v>1234.198350000001</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="22">
         <v>213.06129999999999</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="22">
         <v>97.967708000000016</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="22">
         <v>0</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="22">
         <v>11.951779999999999</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="21">
         <f t="shared" si="2"/>
         <v>7460.9740902630037</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="22">
         <v>2587.8190024130022</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="22">
         <v>4189.8268443940005</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="22">
         <v>650.21660514200039</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="22">
         <v>7.5242899999999997</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="22">
         <v>25.314986824000002</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="22">
         <v>0</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="23">
         <v>0.27236148999999987</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B26" s="33">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B26" s="24">
         <v>2023</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="26">
         <f t="shared" ref="D26:D57" si="3">SUM(E26:K26)</f>
         <v>11294.197112000005</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="27">
         <v>4300.673847</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="27">
         <v>5333.398917000005</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="27">
         <v>1381.829727000001</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="27">
         <v>160.70500799999999</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="27">
         <v>108.434686</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="27">
         <v>0</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="27">
         <v>9.1549269999999989</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="26">
         <f t="shared" ref="L26:L57" si="4">SUM(M26:S26)</f>
         <v>8101.5730074171943</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="27">
         <v>2862.9090542549961</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="27">
         <v>4475.0428370511981</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="27">
         <v>730.13655983000001</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="27">
         <v>5.6898014160000008</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="27">
         <v>26.430900990000001</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="27">
         <v>1.1467497600000001</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="28">
         <v>0.21710411499999999</v>
       </c>
     </row>
-    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="35">
+    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="29">
         <v>2022</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="31">
         <f t="shared" si="3"/>
         <v>10579.2088245</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="32">
         <v>3955.405141500004</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="32">
         <v>5023.7809259999967</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="32">
         <v>1253.435716</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="32">
         <v>210.841139</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="32">
         <v>127.258531</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="32">
         <v>8.4723710000000008</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="31">
         <f t="shared" si="4"/>
         <v>7201.2110358610043</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="32">
         <v>2606.642718893002</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="32">
         <v>3840.3302240870012</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="32">
         <v>714.07136763500023</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="32">
         <v>8.1353823930000004</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="Q27" s="32">
         <v>29.287128408000001</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27" s="32">
         <v>2.5732544800000001</v>
       </c>
-      <c r="S27" s="26">
+      <c r="S27" s="33">
         <v>0.17095996499999999</v>
       </c>
     </row>
-    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="31">
+    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="14">
         <v>2022</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="16">
         <f t="shared" si="3"/>
         <v>10527.497396789135</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="17">
         <v>4108.8534605000023</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="17">
         <v>4736.7273732891317</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="17">
         <v>1295.0406599999999</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="17">
         <v>221.15105</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="17">
         <v>154.32011299999999</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="17">
         <v>0</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="17">
         <v>11.40474</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="16">
         <f t="shared" si="4"/>
         <v>7310.8355932755139</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="17">
         <v>2729.828865026504</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="17">
         <v>3871.547411277008</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="17">
         <v>666.57566130000077</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="17">
         <v>8.3173960500000028</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="17">
         <v>33.740727692</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="17">
         <v>0.53808</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="18">
         <v>0.28745193000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="29">
+    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="19">
         <v>2022</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <f t="shared" si="3"/>
         <v>10705.692828500001</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="22">
         <v>4175.4008985000046</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="22">
         <v>4906.9342349999952</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="22">
         <v>1288.9225799999999</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="22">
         <v>177.480175</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="22">
         <v>150.03629000000001</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="22">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="22">
         <v>6.9111500000000001</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="21">
         <f t="shared" si="4"/>
         <v>7111.4425296700092</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="22">
         <v>2632.704658141005</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="22">
         <v>3750.413545484003</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="22">
         <v>687.66725051200081</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="22">
         <v>5.8990287250000009</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="22">
         <v>34.461750987999999</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="22">
         <v>0.12333404000000001</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="23">
         <v>0.17296178000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="31">
+    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="16">
         <f t="shared" si="3"/>
         <v>10716.722789500005</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="17">
         <v>3921.109317500001</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="17">
         <v>5107.1348170000047</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="17">
         <v>1304.2582520000001</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="17">
         <v>224.00600600000001</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="17">
         <v>150.00181699999999</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="17">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="17">
         <v>10.205080000000001</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="16">
         <f t="shared" si="4"/>
         <v>7332.3824997811334</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="17">
         <v>2596.0057846039958</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="17">
         <v>4043.7739947451369</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="17">
         <v>650.93120328700036</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="17">
         <v>8.6389721339999994</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="17">
         <v>32.781240101000002</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="17">
         <v>7.0588400000000003E-3</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="18">
         <v>0.24424607000000009</v>
       </c>
     </row>
-    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="29">
+    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="19">
         <v>2022</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <f t="shared" si="3"/>
         <v>11108.677028999993</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="22">
         <v>3971.3969279999978</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="22">
         <v>5268.769131999994</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="22">
         <v>1417.7037560000001</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="22">
         <v>247.12264200000001</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="22">
         <v>188.83374499999999</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="22">
         <v>0</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="22">
         <v>14.850826</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="21">
         <f t="shared" si="4"/>
         <v>7307.3132174754001</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="22">
         <v>2663.245486356001</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="22">
         <v>3914.0197377269992</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="22">
         <v>681.13219543499997</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="22">
         <v>9.831694658</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="22">
         <v>36.570021361999977</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="22">
         <v>2.1579242694</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="23">
         <v>0.35615766800000009</v>
       </c>
     </row>
-    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="31">
+    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="16">
         <f t="shared" si="3"/>
         <v>10611.250803000006</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="17">
         <v>3793.7436850000049</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="17">
         <v>5214.0921070000013</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="17">
         <v>1247.337679</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="17">
         <v>194.861605</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="17">
         <v>147.825242</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="17">
         <v>0</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="17">
         <v>13.390485</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="16">
         <f t="shared" si="4"/>
         <v>7191.6636538718021</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="17">
         <v>2575.3834254900021</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="17">
         <v>3964.619205300799</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="17">
         <v>609.31836305400043</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="17">
         <v>7.2582579850000002</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="17">
         <v>34.682327189999988</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="17">
         <v>0.11073023999999999</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="18">
         <v>0.291344612</v>
       </c>
     </row>
-    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="29">
+    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="19">
         <v>2022</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <f t="shared" si="3"/>
         <v>11385.632823130651</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="22">
         <v>4133.1845675000104</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="22">
         <v>5576.317320630641</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="22">
         <v>1291.3044649999999</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="22">
         <v>204.62748999999999</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="22">
         <v>168.44151099999999</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="22">
         <v>0</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="22">
         <v>11.757469</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="21">
         <f t="shared" si="4"/>
         <v>7426.6647824039028</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="22">
         <v>2745.748891390494</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="22">
         <v>4014.2422900054089</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="22">
         <v>622.1854161710005</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P33" s="22">
         <v>8.0573326499999993</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q33" s="22">
         <v>35.484382947000007</v>
       </c>
-      <c r="R33" s="17">
+      <c r="R33" s="22">
         <v>0.60199296000000002</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="23">
         <v>0.34447628000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="31">
+    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="16">
         <f t="shared" si="3"/>
         <v>10780.323722207198</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="17">
         <v>4137.0850310000033</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="17">
         <v>5186.775923207193</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="17">
         <v>1080.597673</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="17">
         <v>208.890287</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="17">
         <v>154.938333</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="17">
         <v>0</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="17">
         <v>12.036474999999999</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="16">
         <f t="shared" si="4"/>
         <v>7413.4131095932507</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="17">
         <v>2681.1217716099991</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="17">
         <v>4205.8755796282521</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="17">
         <v>483.91754051100008</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="17">
         <v>8.2003226500000004</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="17">
         <v>32.794367653999998</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="17">
         <v>1.2866841600000001</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="18">
         <v>0.21684338000000011</v>
       </c>
     </row>
-    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="29">
+    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="19">
         <v>2022</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <f t="shared" si="3"/>
         <v>10829.844413999997</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="22">
         <v>3962.7175100000009</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="22">
         <v>5192.2296089999963</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="22">
         <v>1309.012232</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="22">
         <v>181.97084000000001</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="22">
         <v>167.812794</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="22">
         <v>0</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="22">
         <v>16.101429</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="21">
         <f t="shared" si="4"/>
         <v>7275.2969263750037</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="22">
         <v>2575.7223572010021</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="22">
         <v>4067.0187656300018</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="22">
         <v>589.9259630600003</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P35" s="22">
         <v>7.1673460699999998</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="22">
         <v>34.542283277999999</v>
       </c>
-      <c r="R35" s="17">
+      <c r="R35" s="22">
         <v>0.48420864000000002</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="23">
         <v>0.43600249600000002</v>
       </c>
     </row>
-    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="31">
+    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="16">
         <f t="shared" si="3"/>
         <v>10958.977161499999</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="17">
         <v>4038.936546500001</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="17">
         <v>5268.3369729999977</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="17">
         <v>1291.416300000001</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="17">
         <v>177.95099999999999</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="17">
         <v>167.63478000000001</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="17">
         <v>0</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="17">
         <v>14.701561999999999</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="16">
         <f t="shared" si="4"/>
         <v>7541.4980275314938</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="17">
         <v>2660.8203641194968</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="17">
         <v>4208.7790816289962</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="17">
         <v>621.14192796600003</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="17">
         <v>6.623209000000001</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="17">
         <v>35.708474217000003</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R36" s="17">
         <v>8.0218468600000001</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="18">
         <v>0.40312374000000012</v>
       </c>
     </row>
-    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="29">
+    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="19">
         <v>2022</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <f t="shared" si="3"/>
         <v>9793.3689548991515</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="22">
         <v>3583.161939000001</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="22">
         <v>4789.6931648991504</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="22">
         <v>1070.14833</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="22">
         <v>173.86282</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="22">
         <v>164.508713</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="22">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="22">
         <v>11.987488000000001</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L37" s="21">
         <f t="shared" si="4"/>
         <v>6646.5983968474375</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="22">
         <v>2374.907421244</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="22">
         <v>3680.0897351094382</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="22">
         <v>540.62561002199982</v>
       </c>
-      <c r="P37" s="17">
+      <c r="P37" s="22">
         <v>6.8062315400000006</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="Q37" s="22">
         <v>35.044869748000004</v>
       </c>
-      <c r="R37" s="17">
+      <c r="R37" s="22">
         <v>8.8324161199999995</v>
       </c>
-      <c r="S37" s="7">
+      <c r="S37" s="23">
         <v>0.29211306399999998</v>
       </c>
     </row>
-    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="33">
+    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="24">
         <v>2022</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="26">
         <f t="shared" si="3"/>
         <v>10457.860871849636</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="27">
         <v>3811.0277475000012</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="27">
         <v>5081.9953543496349</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="27">
         <v>1163.869772</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="27">
         <v>216.800228</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="27">
         <v>164.64285100000001</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="27">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="27">
         <v>19.518419000000002</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="26">
         <f t="shared" si="4"/>
         <v>7312.9253518064897</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="27">
         <v>2516.776008406498</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="27">
         <v>4165.2929514439929</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="27">
         <v>584.89580469299949</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="27">
         <v>7.9409832089999988</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q38" s="27">
         <v>36.984346221000003</v>
       </c>
-      <c r="R38" s="8">
+      <c r="R38" s="27">
         <v>0.54593274000000003</v>
       </c>
-      <c r="S38" s="10">
+      <c r="S38" s="28">
         <v>0.48932509299999999</v>
       </c>
     </row>
-    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="35">
+    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="29">
         <v>2021</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="31">
         <f t="shared" si="3"/>
         <v>10554.11629972851</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="32">
         <v>3704.487701</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="32">
         <v>5168.8270517285082</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="32">
         <v>1210.66284</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="32">
         <v>278.57299999999998</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="32">
         <v>176.88040100000001</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="32">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K39" s="25">
+      <c r="K39" s="32">
         <v>14.676906000000001</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="31">
         <f t="shared" si="4"/>
         <v>7559.4957620836176</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="32">
         <v>2454.9251451284981</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N39" s="32">
         <v>4486.1274373061196</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="32">
         <v>564.50741046500013</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P39" s="32">
         <v>10.346456243</v>
       </c>
-      <c r="Q39" s="25">
+      <c r="Q39" s="32">
         <v>38.567701272999997</v>
       </c>
-      <c r="R39" s="24">
+      <c r="R39" s="32">
         <v>4.6980338499999998</v>
       </c>
-      <c r="S39" s="26">
+      <c r="S39" s="33">
         <v>0.32357781800000007</v>
       </c>
     </row>
-    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="31">
+    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="14">
         <v>2021</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="16">
         <f t="shared" si="3"/>
         <v>10628.511753666689</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="17">
         <v>3832.8486825000009</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="17">
         <v>5157.1098371666867</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="17">
         <v>1198.8120699999999</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="17">
         <v>250.82408899999999</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="17">
         <v>171.39998600000001</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="17">
         <v>0.48580000000000001</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="17">
         <v>17.031289000000001</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="16">
         <f t="shared" si="4"/>
         <v>7572.3847293000135</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="17">
         <v>2487.2945403209969</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="17">
         <v>4430.0140454000166</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="17">
         <v>607.02709147300016</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="17">
         <v>8.3345901050000002</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q40" s="17">
         <v>35.035225039999993</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40" s="17">
         <v>4.35235971</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="18">
         <v>0.32687725099999992</v>
       </c>
     </row>
-    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="29">
+    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="19">
         <v>2021</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <f t="shared" si="3"/>
         <v>10447.886890621772</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="22">
         <v>3568.6820320000061</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="22">
         <v>5290.506152621766</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="22">
         <v>1189.51099</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="22">
         <v>218.87152699999999</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="22">
         <v>164.760099</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="22">
         <v>0</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="22">
         <v>15.556089999999999</v>
       </c>
-      <c r="L41" s="22">
+      <c r="L41" s="21">
         <f t="shared" si="4"/>
         <v>7454.4569883743907</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="22">
         <v>2252.2121829349981</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="22">
         <v>4555.9238501633918</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="22">
         <v>598.34848022000062</v>
       </c>
-      <c r="P41" s="17">
+      <c r="P41" s="22">
         <v>8.6802298340000004</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q41" s="22">
         <v>36.737191042000013</v>
       </c>
-      <c r="R41" s="17">
+      <c r="R41" s="22">
         <v>2.1651060200000001</v>
       </c>
-      <c r="S41" s="7">
+      <c r="S41" s="23">
         <v>0.38994815999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="31">
+    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="16">
         <f t="shared" si="3"/>
         <v>10310.171017315373</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="17">
         <v>3660.1919630000002</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="17">
         <v>5125.4300873153752</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="17">
         <v>1106.3341800000001</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="17">
         <v>225.05336800000001</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="17">
         <v>173.367749</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="17">
         <v>0</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="17">
         <v>19.793669999999999</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="16">
         <f t="shared" si="4"/>
         <v>7455.9332633507911</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="17">
         <v>2336.1774044905001</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="17">
         <v>4499.0870851722912</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="17">
         <v>574.36416933199996</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="17">
         <v>9.2197258459999993</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q42" s="17">
         <v>33.827011099000003</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="17">
         <v>2.7609138199999999</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="18">
         <v>0.49695359099999997</v>
       </c>
     </row>
-    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="29">
+    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="19">
         <v>2021</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <f t="shared" si="3"/>
         <v>10858.20812040527</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="22">
         <v>3521.7041924999971</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="22">
         <v>5688.3567339052724</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="22">
         <v>1217.1854400000011</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="22">
         <v>237.21059299999999</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="22">
         <v>181.48093</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="22">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="22">
         <v>12.261831000000001</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="21">
         <f t="shared" si="4"/>
         <v>7799.3527436193035</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="22">
         <v>2294.5162238704979</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N43" s="22">
         <v>4842.6990967668053</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O43" s="22">
         <v>615.63413392999996</v>
       </c>
-      <c r="P43" s="17">
+      <c r="P43" s="22">
         <v>8.5407225140000023</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="22">
         <v>34.95596040800001</v>
       </c>
-      <c r="R43" s="17">
+      <c r="R43" s="22">
         <v>2.7197566399999999</v>
       </c>
-      <c r="S43" s="7">
+      <c r="S43" s="23">
         <v>0.28684948999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="31">
+    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="16">
         <f t="shared" si="3"/>
         <v>11255.030800119688</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="17">
         <v>3793.7436850000049</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="17">
         <v>5713.976884119681</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="17">
         <v>1315.6355450000001</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="17">
         <v>235.601181</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="17">
         <v>181.74973800000001</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="17">
         <v>14.308767</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="16">
         <f t="shared" si="4"/>
         <v>8093.1738756910991</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="17">
         <v>2575.3834254900021</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="17">
         <v>4833.7327735580984</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="17">
         <v>635.0188110539998</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="17">
         <v>8.7395811469999991</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q44" s="17">
         <v>36.949788237000007</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="17">
         <v>3.0379556999999999</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="18">
         <v>0.31154050500000008</v>
       </c>
     </row>
-    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="29">
+    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="19">
         <v>2021</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <f t="shared" si="3"/>
         <v>11085.875192119853</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="22">
         <v>4014.4691365000031</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="22">
         <v>5377.2218746198478</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="22">
         <v>1234.1497800000011</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="22">
         <v>253.12753699999999</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="22">
         <v>192.660923</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="22">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="22">
         <v>14.224441000000001</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L45" s="21">
         <f t="shared" si="4"/>
         <v>7726.6787146596171</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="22">
         <v>2629.796765055999</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="22">
         <v>4464.5122847686171</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="22">
         <v>581.68120659000044</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="22">
         <v>9.1290644990000001</v>
       </c>
-      <c r="Q45" s="16">
+      <c r="Q45" s="22">
         <v>36.782584659999998</v>
       </c>
-      <c r="R45" s="17">
+      <c r="R45" s="22">
         <v>4.3888587000000001</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S45" s="23">
         <v>0.38795038599999998</v>
       </c>
     </row>
-    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="31">
+    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="16">
         <f t="shared" si="3"/>
         <v>12022.900882797225</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="17">
         <v>4361.3740710000029</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="17">
         <v>5936.7487387972214</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="17">
         <v>1232.430877999999</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="17">
         <v>263.60899599999999</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="17">
         <v>207.02036000000001</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="17">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="17">
         <v>21.698639</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="16">
         <f t="shared" si="4"/>
         <v>8508.790074300683</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="17">
         <v>2922.9896007830021</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="17">
         <v>4940.7335945086788</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="17">
         <v>590.43121132199985</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="17">
         <v>9.6548794559999997</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="17">
         <v>41.925393185999987</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="17">
         <v>2.55537546</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="18">
         <v>0.50001958499999988</v>
       </c>
     </row>
-    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="29">
+    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="19">
         <v>2021</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <f t="shared" si="3"/>
         <v>11202.965129249227</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="22">
         <v>4088.1791725000012</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="22">
         <v>5398.3324937492234</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="22">
         <v>1215.8369100000009</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="22">
         <v>280.81724400000002</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="22">
         <v>191.078067</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="22">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="22">
         <v>28.689242</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L47" s="21">
         <f t="shared" si="4"/>
         <v>7831.1461965570006</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="22">
         <v>2687.4059335134998</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="22">
         <v>4476.268327207501</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="22">
         <v>612.56275004999998</v>
       </c>
-      <c r="P47" s="17">
+      <c r="P47" s="22">
         <v>10.506913092</v>
       </c>
-      <c r="Q47" s="16">
+      <c r="Q47" s="22">
         <v>37.034007258999999</v>
       </c>
-      <c r="R47" s="17">
+      <c r="R47" s="22">
         <v>6.8037442799999992</v>
       </c>
-      <c r="S47" s="7">
+      <c r="S47" s="23">
         <v>0.56452115499999989</v>
       </c>
     </row>
-    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="31">
+    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="16">
         <f t="shared" si="3"/>
         <v>11472.620926703923</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="17">
         <v>4090.808027499997</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="17">
         <v>5662.2790862039283</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="17">
         <v>1207.80692</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="17">
         <v>294.74798299999998</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="17">
         <v>196.56426200000001</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="17">
         <v>2.7E-2</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="17">
         <v>20.387647999999999</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="16">
         <f t="shared" si="4"/>
         <v>8142.6430797048588</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="17">
         <v>2745.9354684965042</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="17">
         <v>4736.7506870613533</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="17">
         <v>604.7617960900003</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="17">
         <v>8.8911368260000003</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q48" s="17">
         <v>41.498002944</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="17">
         <v>4.35843588</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="18">
         <v>0.44755240699999999</v>
       </c>
     </row>
-    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="29">
+    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="19">
         <v>2021</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <f t="shared" si="3"/>
         <v>9383.1106395317038</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="22">
         <v>3368.883307499998</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="22">
         <v>4573.2690100317068</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="22">
         <v>1036.92257</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="22">
         <v>234.75769500000001</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="22">
         <v>161.20675999999989</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="22">
         <v>2.4E-2</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="22">
         <v>8.0472970000000004</v>
       </c>
-      <c r="L49" s="22">
+      <c r="L49" s="21">
         <f t="shared" si="4"/>
         <v>6633.7415436800029</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="22">
         <v>2289.3534260344968</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N49" s="22">
         <v>3773.8464727675068</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="22">
         <v>527.36503372999948</v>
       </c>
-      <c r="P49" s="17">
+      <c r="P49" s="22">
         <v>8.0640420000000006</v>
       </c>
-      <c r="Q49" s="16">
+      <c r="Q49" s="22">
         <v>32.601814822999998</v>
       </c>
-      <c r="R49" s="17">
+      <c r="R49" s="22">
         <v>2.3511389399999998</v>
       </c>
-      <c r="S49" s="7">
+      <c r="S49" s="23">
         <v>0.159615385</v>
       </c>
     </row>
-    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="33">
+    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="24">
         <v>2021</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="26">
         <f t="shared" si="3"/>
         <v>10668.087908957505</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="27">
         <v>4020.238264000001</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="27">
         <v>5144.8473599575036</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="27">
         <v>1116.808546</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="27">
         <v>177.10898</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="27">
         <v>186.84795500000001</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="27">
         <v>5.1790099999999999</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="27">
         <v>17.057794000000001</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="26">
         <f t="shared" si="4"/>
         <v>7658.9491725908874</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="27">
         <v>2719.7331992549998</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="27">
         <v>4347.3157786078864</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O50" s="27">
         <v>544.13671407200002</v>
       </c>
-      <c r="P50" s="8">
+      <c r="P50" s="27">
         <v>7.3822649800000004</v>
       </c>
-      <c r="Q50" s="12">
+      <c r="Q50" s="27">
         <v>37.287069709999997</v>
       </c>
-      <c r="R50" s="8">
+      <c r="R50" s="27">
         <v>2.7605594199999999</v>
       </c>
-      <c r="S50" s="10">
+      <c r="S50" s="28">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="35">
+    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="29">
         <v>2020</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="31">
         <f t="shared" si="3"/>
         <v>10425.345499100005</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="32">
         <v>3898.4186785000038</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="32">
         <v>4882.8448936000004</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="32">
         <v>1069.05969</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="32">
         <v>347.73810900000001</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="32">
         <v>196.70733799999999</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="32">
         <v>18.026479999999999</v>
       </c>
-      <c r="K51" s="25">
+      <c r="K51" s="32">
         <v>12.55031</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="31">
         <f t="shared" si="4"/>
         <v>7353.1727623347024</v>
       </c>
-      <c r="M51" s="24">
+      <c r="M51" s="32">
         <v>2625.9467366160002</v>
       </c>
-      <c r="N51" s="24">
+      <c r="N51" s="32">
         <v>4157.4580108327018</v>
       </c>
-      <c r="O51" s="24">
+      <c r="O51" s="32">
         <v>517.70569403000059</v>
       </c>
-      <c r="P51" s="24">
+      <c r="P51" s="32">
         <v>9.0617785400000006</v>
       </c>
-      <c r="Q51" s="25">
+      <c r="Q51" s="32">
         <v>36.825079076000002</v>
       </c>
-      <c r="R51" s="24">
+      <c r="R51" s="32">
         <v>5.8351311600000004</v>
       </c>
-      <c r="S51" s="26">
+      <c r="S51" s="33">
         <v>0.34033207999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="31">
+    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="14">
         <v>2020</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="16">
         <f t="shared" si="3"/>
         <v>10381.153690500003</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="17">
         <v>3792.1774099999998</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="17">
         <v>5016.643987500006</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="17">
         <v>1022.91</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="17">
         <v>376.49241599999999</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="17">
         <v>156.720607</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="17">
         <v>6.5342300000000009</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="17">
         <v>9.6750399999999974</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="16">
         <f t="shared" si="4"/>
         <v>7352.5100897651027</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="17">
         <v>2476.4938742799982</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="17">
         <v>4312.6025955031046</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="17">
         <v>515.07792600000016</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="17">
         <v>11.231821312999999</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q52" s="17">
         <v>34.256908838999998</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="17">
         <v>2.6046938000000002</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="18">
         <v>0.24227003</v>
       </c>
     </row>
-    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="29">
+    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="19">
         <v>2020</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <f t="shared" si="3"/>
         <v>10304.857817457816</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="22">
         <v>3959.7610744999961</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="22">
         <v>4749.0987938578201</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="22">
         <v>1197.7530099999999</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="22">
         <v>186.51679809999999</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="22">
         <v>178.59754699999999</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="22">
         <v>16.072800000000001</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="22">
         <v>17.057794000000001</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="21">
         <f t="shared" si="4"/>
         <v>7334.9599437122397</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="22">
         <v>2713.3960539770019</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N53" s="22">
         <v>4023.2553769225378</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O53" s="22">
         <v>542.79762977000007</v>
       </c>
-      <c r="P53" s="17">
+      <c r="P53" s="22">
         <v>7.5060893896999996</v>
       </c>
-      <c r="Q53" s="16">
+      <c r="Q53" s="22">
         <v>42.505763026999993</v>
       </c>
-      <c r="R53" s="17">
+      <c r="R53" s="22">
         <v>5.1654440799999994</v>
       </c>
-      <c r="S53" s="7">
+      <c r="S53" s="23">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="31">
+    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="16">
         <f t="shared" si="3"/>
         <v>10010.860705133222</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="17">
         <v>4074.659214000003</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="17">
         <v>4534.2935971332181</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="17">
         <v>1007.21459</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="17">
         <v>218.893238</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="17">
         <v>160.24086600000001</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="17">
         <v>0.98</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="17">
         <v>14.5792</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="16">
         <f t="shared" si="4"/>
         <v>7046.4603867411315</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="17">
         <v>2750.463505591501</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="17">
         <v>3736.9267533866309</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="17">
         <v>516.3334641199998</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="17">
         <v>8.9935901099999995</v>
       </c>
-      <c r="Q54" s="11">
+      <c r="Q54" s="17">
         <v>32.577175492999999</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="17">
         <v>0.73748120000000006</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="18">
         <v>0.42841684000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="29">
+    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="19">
         <v>2020</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="21">
         <f t="shared" si="3"/>
         <v>10140.746236042156</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="22">
         <v>3720.288184500002</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="22">
         <v>4994.2514095421539</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="22">
         <v>1027.58536</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="22">
         <v>187.64308500000001</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="22">
         <v>186.38118700000001</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="22">
         <v>13.8596</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="22">
         <v>10.737410000000001</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L55" s="21">
         <f t="shared" si="4"/>
         <v>7449.2591429184022</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="22">
         <v>2487.3447639574988</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N55" s="22">
         <v>4328.973769747904</v>
       </c>
-      <c r="O55" s="17">
+      <c r="O55" s="22">
         <v>579.49765215000036</v>
       </c>
-      <c r="P55" s="17">
+      <c r="P55" s="22">
         <v>7.4413398099999997</v>
       </c>
-      <c r="Q55" s="16">
+      <c r="Q55" s="22">
         <v>39.990465413000003</v>
       </c>
-      <c r="R55" s="17">
+      <c r="R55" s="22">
         <v>5.7537497800000006</v>
       </c>
-      <c r="S55" s="7">
+      <c r="S55" s="23">
         <v>0.25740205999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="31">
+    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="16">
         <f t="shared" si="3"/>
         <v>10156.497411288225</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="17">
         <v>3613.696181999997</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="17">
         <v>4968.204788288228</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="17">
         <v>1194.003549999999</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="17">
         <v>179.13738699999999</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="17">
         <v>177.43138400000001</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="17">
         <v>13.854179999999999</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="17">
         <v>10.16994</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="16">
         <f t="shared" si="4"/>
         <v>7380.5613200561647</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="17">
         <v>2428.846732166</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="17">
         <v>4258.745057885164</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56" s="17">
         <v>616.52099685999997</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P56" s="17">
         <v>6.897613637000001</v>
       </c>
-      <c r="Q56" s="11">
+      <c r="Q56" s="17">
         <v>46.615575728000003</v>
       </c>
-      <c r="R56" s="3">
+      <c r="R56" s="17">
         <v>22.688503149999999</v>
       </c>
-      <c r="S56" s="6">
+      <c r="S56" s="18">
         <v>0.24684063000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="29">
+    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="19">
         <v>2020</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <f t="shared" si="3"/>
         <v>9413.8401068405965</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="22">
         <v>3299.4981385000028</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="22">
         <v>4750.320989340591</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="22">
         <v>1032.4139100000009</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="22">
         <v>122.951718</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="22">
         <v>176.151501</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="22">
         <v>19.795500000000001</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="22">
         <v>12.708349999999999</v>
       </c>
-      <c r="L57" s="22">
+      <c r="L57" s="21">
         <f t="shared" si="4"/>
         <v>6838.7530584626184</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="22">
         <v>2178.930646833498</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="22">
         <v>4081.32299100612</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O57" s="22">
         <v>505.39333284999958</v>
       </c>
-      <c r="P57" s="17">
+      <c r="P57" s="22">
         <v>4.1486682360000007</v>
       </c>
-      <c r="Q57" s="16">
+      <c r="Q57" s="22">
         <v>48.516144666999992</v>
       </c>
-      <c r="R57" s="17">
+      <c r="R57" s="22">
         <v>20.1564771</v>
       </c>
-      <c r="S57" s="7">
+      <c r="S57" s="23">
         <v>0.28479777000000012</v>
       </c>
     </row>
-    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="31">
+    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="16">
         <f t="shared" ref="D58:D86" si="5">SUM(E58:K58)</f>
         <v>8958.3282716603189</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="17">
         <v>2963.8515250000032</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="17">
         <v>4578.9250176603191</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="17">
         <v>1046.3265299999989</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="17">
         <v>141.62878699999999</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="17">
         <v>181.326382</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="17">
         <v>35.391770000000001</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="17">
         <v>10.878259999999999</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="16">
         <f t="shared" ref="L58:L86" si="6">SUM(M58:S58)</f>
         <v>6599.7211012138414</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="17">
         <v>1955.6864974084999</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="17">
         <v>4070.699793715341</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="17">
         <v>490.43616353999971</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="17">
         <v>4.9919812889999999</v>
       </c>
-      <c r="Q58" s="11">
+      <c r="Q58" s="17">
         <v>49.262628410999987</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="17">
         <v>28.479580210000002</v>
       </c>
-      <c r="S58" s="6">
+      <c r="S58" s="18">
         <v>0.16445663999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="29">
+    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="19">
         <v>2020</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="21">
         <f t="shared" si="5"/>
         <v>9180.7559098961865</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="22">
         <v>3045.684487</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="22">
         <v>4586.6569688961881</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="22">
         <v>1232.8326999999999</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="22">
         <v>80.286566999999991</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="22">
         <v>185.73497699999999</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="22">
         <v>37.784360000000007</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="22">
         <v>11.77585</v>
       </c>
-      <c r="L59" s="22">
+      <c r="L59" s="21">
         <f t="shared" si="6"/>
         <v>6563.6809044984548</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="22">
         <v>2092.363650120501</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N59" s="22">
         <v>3810.8671320719541</v>
       </c>
-      <c r="O59" s="17">
+      <c r="O59" s="22">
         <v>576.76851579999936</v>
       </c>
-      <c r="P59" s="17">
+      <c r="P59" s="22">
         <v>2.1857480950000001</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59" s="22">
         <v>48.091960541000013</v>
       </c>
-      <c r="R59" s="17">
+      <c r="R59" s="22">
         <v>33.146718739999997</v>
       </c>
-      <c r="S59" s="7">
+      <c r="S59" s="23">
         <v>0.25717912999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="31">
+    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="16">
         <f t="shared" si="5"/>
         <v>10838.533316456946</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="17">
         <v>3989.0247625000002</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="17">
         <v>5227.3044649569474</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="17">
         <v>1164.59097</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="17">
         <v>195.326954</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="17">
         <v>192.162305</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="17">
         <v>55.761529999999993</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="17">
         <v>14.36233</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="16">
         <f t="shared" si="6"/>
         <v>7720.3875207885012</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="17">
         <v>2719.9630072755008</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="17">
         <v>4308.5178526390009</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="17">
         <v>550.02743308999959</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="17">
         <v>7.8376115140000007</v>
       </c>
-      <c r="Q60" s="11">
+      <c r="Q60" s="17">
         <v>49.157905969999987</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="17">
         <v>84.630515320000001</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S60" s="18">
         <v>0.25319498000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="29">
+    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="19">
         <v>2020</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="21">
         <f t="shared" si="5"/>
         <v>10299.350069510732</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="22">
         <v>3823.384485499997</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="22">
         <v>4951.899973010738</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="22">
         <v>1126.6304699999989</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="22">
         <v>155.82070999999999</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="22">
         <v>189.46652100000011</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="22">
         <v>42.813149999999993</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="22">
         <v>9.3347600000000028</v>
       </c>
-      <c r="L61" s="22">
+      <c r="L61" s="21">
         <f t="shared" si="6"/>
         <v>7398.4236104454985</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M61" s="22">
         <v>2611.3807745675008</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N61" s="22">
         <v>4099.994935206998</v>
       </c>
-      <c r="O61" s="17">
+      <c r="O61" s="22">
         <v>576.65962569999999</v>
       </c>
-      <c r="P61" s="17">
+      <c r="P61" s="22">
         <v>5.8101744709999998</v>
       </c>
-      <c r="Q61" s="16">
+      <c r="Q61" s="22">
         <v>48.975136419999998</v>
       </c>
-      <c r="R61" s="17">
+      <c r="R61" s="22">
         <v>55.332080869999999</v>
       </c>
-      <c r="S61" s="7">
+      <c r="S61" s="23">
         <v>0.2708832100000001</v>
       </c>
     </row>
-    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="33">
+    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="24">
         <v>2020</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="26">
         <f t="shared" si="5"/>
         <v>10271.035696436747</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="27">
         <v>3815.537451499998</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="27">
         <v>4795.4483429367501</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="27">
         <v>1231.876279999999</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="27">
         <v>149.16394</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="27">
         <v>225.18540200000001</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="27">
         <v>42.674029999999988</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62" s="27">
         <v>11.15025</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="26">
         <f t="shared" si="6"/>
         <v>7185.7383871704087</v>
       </c>
-      <c r="M62" s="8">
+      <c r="M62" s="27">
         <v>2557.950665571791</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="27">
         <v>3902.6936190776169</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O62" s="27">
         <v>613.68125601999952</v>
       </c>
-      <c r="P62" s="8">
+      <c r="P62" s="27">
         <v>5.5450976610000007</v>
       </c>
-      <c r="Q62" s="12">
+      <c r="Q62" s="27">
         <v>54.17302995</v>
       </c>
-      <c r="R62" s="8">
+      <c r="R62" s="27">
         <v>51.401263659999998</v>
       </c>
-      <c r="S62" s="10">
+      <c r="S62" s="28">
         <v>0.29345523000000012</v>
       </c>
     </row>
-    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="35">
+    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="29">
         <v>2019</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="31">
         <f t="shared" si="5"/>
         <v>10047.312890842448</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="32">
         <v>3660.8761419999978</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="32">
         <v>4803.7000258424505</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="32">
         <v>1177.5281500000008</v>
       </c>
-      <c r="H63" s="24">
+      <c r="H63" s="32">
         <v>122.89328999999999</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I63" s="32">
         <v>230.92350300000001</v>
       </c>
-      <c r="J63" s="24">
+      <c r="J63" s="32">
         <v>42.637639999999998</v>
       </c>
-      <c r="K63" s="25">
+      <c r="K63" s="32">
         <v>8.7541399999999996</v>
       </c>
-      <c r="L63" s="23">
+      <c r="L63" s="31">
         <f t="shared" si="6"/>
         <v>7283.4758425855061</v>
       </c>
-      <c r="M63" s="24">
+      <c r="M63" s="32">
         <v>2545.6933826471468</v>
       </c>
-      <c r="N63" s="24">
+      <c r="N63" s="32">
         <v>4050.2897667273596</v>
       </c>
-      <c r="O63" s="24">
+      <c r="O63" s="32">
         <v>573.5496261799999</v>
       </c>
-      <c r="P63" s="24">
+      <c r="P63" s="32">
         <v>4.2298997729999996</v>
       </c>
-      <c r="Q63" s="25">
+      <c r="Q63" s="32">
         <v>56.884561087999998</v>
       </c>
-      <c r="R63" s="24">
+      <c r="R63" s="32">
         <v>52.609621790000006</v>
       </c>
-      <c r="S63" s="26">
+      <c r="S63" s="33">
         <v>0.21898438000000003</v>
       </c>
     </row>
-    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="31">
+    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="14">
         <v>2019</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="16">
         <f t="shared" si="5"/>
         <v>10280.781962591729</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="17">
         <v>3610.9266754999981</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="17">
         <v>5041.7983650917313</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="17">
         <v>1236.3706200000001</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="17">
         <v>119.94541900000002</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="17">
         <v>216.296423</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="17">
         <v>44.749820000000007</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="17">
         <v>10.694639999999998</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="16">
         <f t="shared" si="6"/>
         <v>7555.8940235339123</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="17">
         <v>2480.4706212095998</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64" s="17">
         <v>4344.3803465193132</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64" s="17">
         <v>612.67386856000019</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P64" s="17">
         <v>4.0122463450000003</v>
       </c>
-      <c r="Q64" s="11">
+      <c r="Q64" s="17">
         <v>58.796987859999994</v>
       </c>
-      <c r="R64" s="3">
+      <c r="R64" s="17">
         <v>55.348814779999998</v>
       </c>
-      <c r="S64" s="6">
+      <c r="S64" s="18">
         <v>0.21113825999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="29">
+    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="19">
         <v>2019</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <f t="shared" si="5"/>
         <v>10705.327866000001</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="22">
         <v>3801.481272</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="22">
         <v>5236.960086</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="22">
         <v>1235.93461</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="22">
         <v>160.86355499999999</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="22">
         <v>213.47005300000001</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J65" s="22">
         <v>45.65587</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K65" s="22">
         <v>10.96242</v>
       </c>
-      <c r="L65" s="22">
+      <c r="L65" s="21">
         <f t="shared" si="6"/>
         <v>7564.1221808391301</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="22">
         <v>2532.7762513215766</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N65" s="22">
         <v>4297.3858559405544</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O65" s="22">
         <v>606.66118932999996</v>
       </c>
-      <c r="P65" s="17">
+      <c r="P65" s="22">
         <v>5.7111421819999997</v>
       </c>
-      <c r="Q65" s="16">
+      <c r="Q65" s="22">
         <v>64.496729185000007</v>
       </c>
-      <c r="R65" s="17">
+      <c r="R65" s="22">
         <v>56.887522270000005</v>
       </c>
-      <c r="S65" s="7">
+      <c r="S65" s="23">
         <v>0.20349060999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="31">
+    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="16">
         <f t="shared" si="5"/>
         <v>10313.251420927023</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="17">
         <v>3763.4243204999998</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="17">
         <v>4794.4036324270237</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="17">
         <v>1259.9243900000008</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="17">
         <v>164.26299700000001</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="17">
         <v>251.636821</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="17">
         <v>66.981439999999992</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="17">
         <v>12.61782</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="16">
         <f t="shared" si="6"/>
         <v>7368.223949700222</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="17">
         <v>2492.5831110034319</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="17">
         <v>4168.1941198527893</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="17">
         <v>564.70797957000025</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="17">
         <v>6.7826120650000004</v>
       </c>
-      <c r="Q66" s="11">
+      <c r="Q66" s="17">
         <v>68.621584789000011</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="17">
         <v>67.080573079999994</v>
       </c>
-      <c r="S66" s="6">
+      <c r="S66" s="18">
         <v>0.25396934000000004</v>
       </c>
     </row>
-    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="29">
+    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="19">
         <v>2019</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="21">
         <f t="shared" si="5"/>
         <v>11096.380692382061</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="22">
         <v>3917.8476439999995</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="22">
         <v>5305.3281943820612</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G67" s="22">
         <v>1265.0673000000011</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="22">
         <v>254.105448</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="22">
         <v>282.87777699999998</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J67" s="22">
         <v>52.912410000000001</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K67" s="22">
         <v>18.241918999999999</v>
       </c>
-      <c r="L67" s="22">
+      <c r="L67" s="21">
         <f t="shared" si="6"/>
         <v>7875.1347427823239</v>
       </c>
-      <c r="M67" s="17">
+      <c r="M67" s="22">
         <v>2623.4929048545905</v>
       </c>
-      <c r="N67" s="17">
+      <c r="N67" s="22">
         <v>4528.0558628127355</v>
       </c>
-      <c r="O67" s="17">
+      <c r="O67" s="22">
         <v>599.40095962999965</v>
       </c>
-      <c r="P67" s="17">
+      <c r="P67" s="22">
         <v>7.1929457959999992</v>
       </c>
-      <c r="Q67" s="16">
+      <c r="Q67" s="22">
         <v>67.383048192999993</v>
       </c>
-      <c r="R67" s="17">
+      <c r="R67" s="22">
         <v>49.255862180000001</v>
       </c>
-      <c r="S67" s="7">
+      <c r="S67" s="23">
         <v>0.353159316</v>
       </c>
     </row>
-    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="31">
+    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="16">
         <f t="shared" si="5"/>
         <v>11150.650438969102</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="17">
         <v>3873.3662050000003</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="17">
         <v>5476.5920749691022</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="17">
         <v>1295.4921899999999</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="17">
         <v>130.167182</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="17">
         <v>270.20667400000008</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="17">
         <v>95.357079999999996</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="17">
         <v>9.4690329999999996</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="16">
         <f t="shared" si="6"/>
         <v>8143.3902304466164</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68" s="17">
         <v>2699.0426404251648</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N68" s="17">
         <v>4690.7340326165104</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O68" s="17">
         <v>626.75042356999995</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P68" s="17">
         <v>4.2158850049414749</v>
       </c>
-      <c r="Q68" s="11">
+      <c r="Q68" s="17">
         <v>69.891604407999992</v>
       </c>
-      <c r="R68" s="3">
+      <c r="R68" s="17">
         <v>52.570641740000006</v>
       </c>
-      <c r="S68" s="6">
+      <c r="S68" s="18">
         <v>0.18500268199999997</v>
       </c>
     </row>
-    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="29">
+    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="19">
         <v>2019</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="21">
         <f t="shared" si="5"/>
         <v>10374.818673051463</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="22">
         <v>3549.9224370000029</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="22">
         <v>5071.1049410514588</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="22">
         <v>1261.1353490000001</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="22">
         <v>189.70297400000001</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="22">
         <v>241.36934199999999</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="22">
         <v>51.38608</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K69" s="22">
         <v>10.197550000000003</v>
       </c>
-      <c r="L69" s="22">
+      <c r="L69" s="21">
         <f t="shared" si="6"/>
         <v>7532.8116285687038</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="22">
         <v>2498.5873912253655</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N69" s="22">
         <v>4294.5408771924649</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O69" s="22">
         <v>618.46245641899986</v>
       </c>
-      <c r="P69" s="17">
+      <c r="P69" s="22">
         <v>7.1837945668734235</v>
       </c>
-      <c r="Q69" s="16">
+      <c r="Q69" s="22">
         <v>67.283344745000008</v>
       </c>
-      <c r="R69" s="17">
+      <c r="R69" s="22">
         <v>46.514204849999999</v>
       </c>
-      <c r="S69" s="7">
+      <c r="S69" s="23">
         <v>0.23955957</v>
       </c>
     </row>
-    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="31">
+    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="16">
         <f t="shared" si="5"/>
         <v>10971.576587143792</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="17">
         <v>3859.9412885000029</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="17">
         <v>5135.6499426437886</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="17">
         <v>1398.7275000000011</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="17">
         <v>201.93910199999996</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="17">
         <v>308.40207399999997</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="17">
         <v>52.276800000000001</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="17">
         <v>14.63988</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="16">
         <f t="shared" si="6"/>
         <v>7918.5192805454762</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="17">
         <v>2715.5986838884046</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N70" s="17">
         <v>4370.5287118188699</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O70" s="17">
         <v>688.65007213000047</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P70" s="17">
         <v>6.9957881702000009</v>
       </c>
-      <c r="Q70" s="11">
+      <c r="Q70" s="17">
         <v>77.028830357999993</v>
       </c>
-      <c r="R70" s="3">
+      <c r="R70" s="17">
         <v>59.42133875999999</v>
       </c>
-      <c r="S70" s="6">
+      <c r="S70" s="18">
         <v>0.29585541999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="29">
+    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="19">
         <v>2019</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="21">
         <f t="shared" si="5"/>
         <v>10534.153393500883</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="22">
         <v>3675.3372790000017</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="22">
         <v>5077.1043255008817</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="22">
         <v>1229.5152699999999</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="22">
         <v>205.91515200000003</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="22">
         <v>272.06735700000002</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="22">
         <v>57.111829999999998</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="22">
         <v>17.102179999999997</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L71" s="21">
         <f t="shared" si="6"/>
         <v>7390.6301600856887</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="22">
         <v>2482.4826125118411</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N71" s="22">
         <v>4183.7452393018466</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O71" s="22">
         <v>594.52454974000057</v>
       </c>
-      <c r="P71" s="17">
+      <c r="P71" s="22">
         <v>6.8929467899999999</v>
       </c>
-      <c r="Q71" s="16">
+      <c r="Q71" s="22">
         <v>61.99332402200001</v>
       </c>
-      <c r="R71" s="17">
+      <c r="R71" s="22">
         <v>60.632588310000003</v>
       </c>
-      <c r="S71" s="7">
+      <c r="S71" s="23">
         <v>0.35889941000000009</v>
       </c>
     </row>
-    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="31">
+    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="16">
         <f t="shared" si="5"/>
         <v>10581.052353198915</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="17">
         <v>3752.7021304999998</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="17">
         <v>5042.9410756989164</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="17">
         <v>1226.6793299999995</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="17">
         <v>227.34326400000003</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="17">
         <v>273.29974500000003</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="17">
         <v>46.615569999999991</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="17">
         <v>11.471238</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="16">
         <f t="shared" si="6"/>
         <v>7316.8442337622519</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="17">
         <v>2584.8546054208359</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="17">
         <v>3971.3774654550916</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="17">
         <v>628.3360908439995</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="17">
         <v>8.5075610303260056</v>
       </c>
-      <c r="Q72" s="11">
+      <c r="Q72" s="17">
         <v>68.783462650000004</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="17">
         <v>54.71253209999999</v>
       </c>
-      <c r="S72" s="6">
+      <c r="S72" s="18">
         <v>0.27251626200000001</v>
       </c>
     </row>
-    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="29">
+    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="19">
         <v>2019</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="21">
         <f t="shared" si="5"/>
         <v>9241.6055505618933</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="22">
         <v>3275.5849539999986</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="22">
         <v>4370.160919561893</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="22">
         <v>1126.2545300000011</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="22">
         <v>152.85569699999999</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="22">
         <v>259.99696999999998</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J73" s="22">
         <v>46.582780000000007</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="22">
         <v>10.169700000000002</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L73" s="21">
         <f t="shared" si="6"/>
         <v>6363.5933863084483</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="22">
         <v>2189.6104131855614</v>
       </c>
-      <c r="N73" s="17">
+      <c r="N73" s="22">
         <v>3499.6909835169613</v>
       </c>
-      <c r="O73" s="17">
+      <c r="O73" s="22">
         <v>547.40245832199946</v>
       </c>
-      <c r="P73" s="17">
+      <c r="P73" s="22">
         <v>5.1177584499260034</v>
       </c>
-      <c r="Q73" s="16">
+      <c r="Q73" s="22">
         <v>63.306209223999993</v>
       </c>
-      <c r="R73" s="17">
+      <c r="R73" s="22">
         <v>58.28962554000001</v>
       </c>
-      <c r="S73" s="7">
+      <c r="S73" s="23">
         <v>0.17593807</v>
       </c>
     </row>
-    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="33">
+    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="24">
         <v>2019</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="26">
         <f t="shared" si="5"/>
         <v>9892.1436970006562</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="27">
         <v>3499.7139435000031</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="27">
         <v>4546.0874465006518</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="27">
         <v>1267.5804000000005</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="27">
         <v>224.06764100000001</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="27">
         <v>293.47607299999999</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="27">
         <v>50.833020000000005</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="27">
         <v>10.385172999999998</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L74" s="26">
         <f t="shared" si="6"/>
         <v>6769.108553604312</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M74" s="27">
         <v>2315.0380047690219</v>
       </c>
-      <c r="N74" s="8">
+      <c r="N74" s="27">
         <v>3695.4581032397491</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O74" s="27">
         <v>592.54793959300025</v>
       </c>
-      <c r="P74" s="8">
+      <c r="P74" s="27">
         <v>8.0988788035407904</v>
       </c>
-      <c r="Q74" s="12">
+      <c r="Q74" s="27">
         <v>68.810378116999999</v>
       </c>
-      <c r="R74" s="8">
+      <c r="R74" s="27">
         <v>88.897206580000002</v>
       </c>
-      <c r="S74" s="10">
+      <c r="S74" s="28">
         <v>0.25804250200000001</v>
       </c>
     </row>
-    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="35">
+    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="29">
         <v>2018</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="31">
         <f t="shared" si="5"/>
         <v>10362</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="32">
         <v>3606</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F75" s="32">
         <v>4918</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G75" s="32">
         <v>1307</v>
       </c>
-      <c r="H75" s="24">
+      <c r="H75" s="32">
         <v>208</v>
       </c>
-      <c r="I75" s="24">
+      <c r="I75" s="32">
         <v>280</v>
       </c>
-      <c r="J75" s="24">
+      <c r="J75" s="32">
         <v>34</v>
       </c>
-      <c r="K75" s="25">
+      <c r="K75" s="32">
         <v>9</v>
       </c>
-      <c r="L75" s="23">
+      <c r="L75" s="31">
         <f t="shared" si="6"/>
         <v>7145</v>
       </c>
-      <c r="M75" s="24">
+      <c r="M75" s="32">
         <v>2425</v>
       </c>
-      <c r="N75" s="24">
+      <c r="N75" s="32">
         <v>3948</v>
       </c>
-      <c r="O75" s="24">
+      <c r="O75" s="32">
         <v>638</v>
       </c>
-      <c r="P75" s="24">
+      <c r="P75" s="32">
         <v>8</v>
       </c>
-      <c r="Q75" s="25">
+      <c r="Q75" s="32">
         <v>74</v>
       </c>
-      <c r="R75" s="24">
+      <c r="R75" s="32">
         <v>52</v>
       </c>
-      <c r="S75" s="26"/>
-    </row>
-    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="31">
+      <c r="S75" s="33"/>
+    </row>
+    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="14">
         <v>2018</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="16">
         <f t="shared" si="5"/>
         <v>10847</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="17">
         <v>3612</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="17">
         <v>5385</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="17">
         <v>1299</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="17">
         <v>213</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="17">
         <v>284</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="17">
         <v>38</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="17">
         <v>16</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76" s="16">
         <f t="shared" si="6"/>
         <v>7655</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="17">
         <v>2466</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="17">
         <v>4397</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="17">
         <v>669</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="17">
         <v>8</v>
       </c>
-      <c r="Q76" s="11">
+      <c r="Q76" s="17">
         <v>74</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="17">
         <v>41</v>
       </c>
-      <c r="S76" s="6"/>
-    </row>
-    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="29">
+      <c r="S76" s="18"/>
+    </row>
+    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="19">
         <v>2018</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="21">
         <f t="shared" si="5"/>
         <v>10926</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="22">
         <v>3805</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="22">
         <v>5324</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="22">
         <v>1340</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="22">
         <v>137</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="22">
         <v>273</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J77" s="22">
         <v>27</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="22">
         <v>20</v>
       </c>
-      <c r="L77" s="22">
+      <c r="L77" s="21">
         <f t="shared" si="6"/>
         <v>7509</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M77" s="22">
         <v>2604</v>
       </c>
-      <c r="N77" s="17">
+      <c r="N77" s="22">
         <v>4133</v>
       </c>
-      <c r="O77" s="17">
+      <c r="O77" s="22">
         <v>655</v>
       </c>
-      <c r="P77" s="17">
+      <c r="P77" s="22">
         <v>4</v>
       </c>
-      <c r="Q77" s="16">
+      <c r="Q77" s="22">
         <v>72</v>
       </c>
-      <c r="R77" s="17">
+      <c r="R77" s="22">
         <v>41</v>
       </c>
-      <c r="S77" s="7"/>
-    </row>
-    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="31">
+      <c r="S77" s="23"/>
+    </row>
+    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="16">
         <f t="shared" si="5"/>
         <v>10257</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="17">
         <v>3485</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="17">
         <v>4900</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="17">
         <v>1349</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="17">
         <v>208</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="17">
         <v>260</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="17">
         <v>42</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="17">
         <v>13</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="16">
         <f t="shared" si="6"/>
         <v>7135</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78" s="17">
         <v>2350</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N78" s="17">
         <v>4008</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78" s="17">
         <v>655</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78" s="17">
         <v>8</v>
       </c>
-      <c r="Q78" s="11">
+      <c r="Q78" s="17">
         <v>63</v>
       </c>
-      <c r="R78" s="3">
+      <c r="R78" s="17">
         <v>51</v>
       </c>
-      <c r="S78" s="6"/>
-    </row>
-    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="29">
+      <c r="S78" s="18"/>
+    </row>
+    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="19">
         <v>2018</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="21">
         <f t="shared" si="5"/>
         <v>10917</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="22">
         <v>3674</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="22">
         <v>5279</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G79" s="22">
         <v>1420</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="22">
         <v>210</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="22">
         <v>270</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J79" s="22">
         <v>45</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K79" s="22">
         <v>19</v>
       </c>
-      <c r="L79" s="22">
+      <c r="L79" s="21">
         <f t="shared" si="6"/>
         <v>7620</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M79" s="22">
         <v>2514</v>
       </c>
-      <c r="N79" s="17">
+      <c r="N79" s="22">
         <v>4292</v>
       </c>
-      <c r="O79" s="17">
+      <c r="O79" s="22">
         <v>680</v>
       </c>
-      <c r="P79" s="17">
+      <c r="P79" s="22">
         <v>8</v>
       </c>
-      <c r="Q79" s="16">
+      <c r="Q79" s="22">
         <v>69</v>
       </c>
-      <c r="R79" s="17">
+      <c r="R79" s="22">
         <v>57</v>
       </c>
-      <c r="S79" s="7"/>
-    </row>
-    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="31">
+      <c r="S79" s="23"/>
+    </row>
+    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="16">
         <f t="shared" si="5"/>
         <v>11147</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="17">
         <v>3756</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="17">
         <v>5273</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="17">
         <v>1541</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="17">
         <v>217</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="17">
         <v>308</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="17">
         <v>42</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="17">
         <v>10</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="16">
         <f t="shared" si="6"/>
         <v>7610</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M80" s="17">
         <v>2530</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N80" s="17">
         <v>4228</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O80" s="17">
         <v>716</v>
       </c>
-      <c r="P80" s="3">
+      <c r="P80" s="17">
         <v>8</v>
       </c>
-      <c r="Q80" s="11">
+      <c r="Q80" s="17">
         <v>77</v>
       </c>
-      <c r="R80" s="3">
+      <c r="R80" s="17">
         <v>51</v>
       </c>
-      <c r="S80" s="6"/>
-    </row>
-    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="29">
+      <c r="S80" s="18"/>
+    </row>
+    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="19">
         <v>2018</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="21">
         <f t="shared" si="5"/>
         <v>10948</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="22">
         <v>3657</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="22">
         <v>5338</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G81" s="22">
         <v>1355</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="22">
         <v>247</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="22">
         <v>283</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J81" s="22">
         <v>56</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K81" s="22">
         <v>12</v>
       </c>
-      <c r="L81" s="22">
+      <c r="L81" s="21">
         <f t="shared" si="6"/>
         <v>7627</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M81" s="22">
         <v>2524</v>
       </c>
-      <c r="N81" s="17">
+      <c r="N81" s="22">
         <v>4291</v>
       </c>
-      <c r="O81" s="17">
+      <c r="O81" s="22">
         <v>673</v>
       </c>
-      <c r="P81" s="17">
+      <c r="P81" s="22">
         <v>9</v>
       </c>
-      <c r="Q81" s="16">
+      <c r="Q81" s="22">
         <v>74</v>
       </c>
-      <c r="R81" s="17">
+      <c r="R81" s="22">
         <v>56</v>
       </c>
-      <c r="S81" s="7"/>
-    </row>
-    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="31">
+      <c r="S81" s="23"/>
+    </row>
+    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="16">
         <f t="shared" si="5"/>
         <v>11358</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="17">
         <v>3901</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="17">
         <v>5805</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="17">
         <v>1068</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="17">
         <v>198</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="17">
         <v>302</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="17">
         <v>64</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="17">
         <v>20</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="16">
         <f t="shared" si="6"/>
         <v>7899</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82" s="17">
         <v>2695</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N82" s="17">
         <v>4507</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82" s="17">
         <v>556</v>
       </c>
-      <c r="P82" s="3">
+      <c r="P82" s="17">
         <v>8</v>
       </c>
-      <c r="Q82" s="11">
+      <c r="Q82" s="17">
         <v>78</v>
       </c>
-      <c r="R82" s="3">
+      <c r="R82" s="17">
         <v>55</v>
       </c>
-      <c r="S82" s="6"/>
-    </row>
-    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="29">
+      <c r="S82" s="18"/>
+    </row>
+    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="19">
         <v>2018</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D83" s="21">
         <f t="shared" si="5"/>
         <v>10769</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E83" s="22">
         <v>3736</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="22">
         <v>5158</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G83" s="22">
         <v>1304</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H83" s="22">
         <v>210</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="22">
         <v>309</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J83" s="22">
         <v>38</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K83" s="22">
         <v>14</v>
       </c>
-      <c r="L83" s="22">
+      <c r="L83" s="21">
         <f t="shared" si="6"/>
         <v>7284</v>
       </c>
-      <c r="M83" s="17">
+      <c r="M83" s="22">
         <v>2592</v>
       </c>
-      <c r="N83" s="17">
+      <c r="N83" s="22">
         <v>3860</v>
       </c>
-      <c r="O83" s="17">
+      <c r="O83" s="22">
         <v>701</v>
       </c>
-      <c r="P83" s="17">
+      <c r="P83" s="22">
         <v>8</v>
       </c>
-      <c r="Q83" s="16">
+      <c r="Q83" s="22">
         <v>73</v>
       </c>
-      <c r="R83" s="17">
+      <c r="R83" s="22">
         <v>50</v>
       </c>
-      <c r="S83" s="7"/>
-    </row>
-    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="31">
+      <c r="S83" s="23"/>
+    </row>
+    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="16">
         <f t="shared" si="5"/>
         <v>10595</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="17">
         <v>3510</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="17">
         <v>5158</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="17">
         <v>1332</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="17">
         <v>223</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="17">
         <v>307</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="17">
         <v>50</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="17">
         <v>15</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84" s="16">
         <f t="shared" si="6"/>
         <v>7079</v>
       </c>
-      <c r="M84" s="3">
+      <c r="M84" s="17">
         <v>2512</v>
       </c>
-      <c r="N84" s="3">
+      <c r="N84" s="17">
         <v>3719</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O84" s="17">
         <v>718</v>
       </c>
-      <c r="P84" s="3">
+      <c r="P84" s="17">
         <v>9</v>
       </c>
-      <c r="Q84" s="11">
+      <c r="Q84" s="17">
         <v>68</v>
       </c>
-      <c r="R84" s="3">
+      <c r="R84" s="17">
         <v>53</v>
       </c>
-      <c r="S84" s="6"/>
-    </row>
-    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="29">
+      <c r="S84" s="18"/>
+    </row>
+    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="19">
         <v>2018</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="21">
         <f t="shared" si="5"/>
         <v>9439</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E85" s="22">
         <v>3213</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F85" s="22">
         <v>4478</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="22">
         <v>1214</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H85" s="22">
         <v>203</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I85" s="22">
         <v>273</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J85" s="22">
         <v>50</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="22">
         <v>8</v>
       </c>
-      <c r="L85" s="22">
+      <c r="L85" s="21">
         <f t="shared" si="6"/>
         <v>6237</v>
       </c>
-      <c r="M85" s="17">
+      <c r="M85" s="22">
         <v>2209</v>
       </c>
-      <c r="N85" s="17">
+      <c r="N85" s="22">
         <v>3275</v>
       </c>
-      <c r="O85" s="17">
+      <c r="O85" s="22">
         <v>646</v>
       </c>
-      <c r="P85" s="17">
+      <c r="P85" s="22">
         <v>8</v>
       </c>
-      <c r="Q85" s="16">
+      <c r="Q85" s="22">
         <v>60</v>
       </c>
-      <c r="R85" s="17">
+      <c r="R85" s="22">
         <v>39</v>
       </c>
-      <c r="S85" s="7"/>
-    </row>
-    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="33">
+      <c r="S85" s="23"/>
+    </row>
+    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="24">
         <v>2018</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="26">
         <f t="shared" si="5"/>
         <v>10479</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="27">
         <v>3653</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="27">
         <v>4773</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="27">
         <v>1398</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="27">
         <v>287</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I86" s="27">
         <v>312</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="27">
         <v>47</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K86" s="27">
         <v>9</v>
       </c>
-      <c r="L86" s="9">
+      <c r="L86" s="26">
         <f t="shared" si="6"/>
         <v>7153</v>
       </c>
-      <c r="M86" s="8">
+      <c r="M86" s="27">
         <v>2519</v>
       </c>
-      <c r="N86" s="8">
+      <c r="N86" s="27">
         <v>3737</v>
       </c>
-      <c r="O86" s="8">
+      <c r="O86" s="27">
         <v>754</v>
       </c>
-      <c r="P86" s="8">
+      <c r="P86" s="27">
         <v>11</v>
       </c>
-      <c r="Q86" s="12">
+      <c r="Q86" s="27">
         <v>66</v>
       </c>
-      <c r="R86" s="8">
+      <c r="R86" s="27">
         <v>65</v>
       </c>
-      <c r="S86" s="10">
+      <c r="S86" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B87" s="28" t="s">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B87" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S88" s="2"/>
+      <c r="S88" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L4:S4"/>
     <mergeCell ref="D4:K4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B26AC12-4B8E-44E7-B6AB-178E29A02BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87332CC-3AC9-48F4-961E-5B81DFD09800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_24" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -404,15 +404,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -467,61 +458,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -808,6 +759,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -817,10 +775,52 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -837,36 +837,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S86" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
-  <autoFilter ref="B5:S86" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S87" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="B5:S87" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{6FD22A4F-E740-4D66-9D13-2F083528EE3B}" name="Año" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{C22B88A7-6974-477E-9A13-EA43B2F14D30}" name="Mes" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{69D9BB11-29FE-4B97-8E28-78097BBD44F3}" name="Total" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{6FD22A4F-E740-4D66-9D13-2F083528EE3B}" name="Año" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{C22B88A7-6974-477E-9A13-EA43B2F14D30}" name="Mes" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{69D9BB11-29FE-4B97-8E28-78097BBD44F3}" name="Total" dataDxfId="15">
       <calculatedColumnFormula>SUM(E6:K6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A58B0BC4-DC40-4D6C-BF11-2B80C64AB947}" name="Kansas City Southern de México" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{38471942-D269-431A-8781-5F17763E42C2}" name="Ferrocarril Mexicano " dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{8D17F24F-3D96-4A78-BC0B-21740E97571C}" name="FERROSUR " dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{885F419C-86B5-48E0-8193-3BB946AC889A}" name="Ferrocarril y Terminal del Valle de México" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{0BBFB8A6-99E0-41E4-AE1D-69E141B15BF9}" name="Línea Coahuila Durango " dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{DE2FB221-E56C-41CE-8B60-FAAACAC84270}" name="Ferrocarril del Istmo de Tehuantepec" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{B3135452-3A6A-430F-8173-FD4D293C0D06}" name="Admin. Vía Corta Tijuana-Tecate" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{EDD4AEAE-3EF5-467D-9500-C43D2DEA67E8}" name="Total " dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{F8E65A35-CFAA-433E-880E-0745A06312F8}" name="Kansas City Southern de México " dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{99C74970-B9CC-4766-B50D-1B06C0B447E5}" name="Ferrocarril Mexicano" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{58125A09-AE0F-47B3-9199-6AD61950403F}" name="FERROSUR" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{5B02396F-D9E0-47F6-9A50-FFB572DE1C71}" name="Ferrocarril y Terminal del Valle de México " dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{EB76073F-0B65-479D-80CD-C7D064A173AA}" name="Línea Coahuila Durango" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{5FA538C5-3664-4FF5-8ECE-3030AC5A6BB2}" name="Ferrocarril del Istmo de Tehuantepec " dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{67681C8F-1F80-4560-B134-3F8A2B9DD5F3}" name="Admin. Vía Corta Tijuana-Tecate " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A58B0BC4-DC40-4D6C-BF11-2B80C64AB947}" name="Kansas City Southern de México" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{38471942-D269-431A-8781-5F17763E42C2}" name="Ferrocarril Mexicano " dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{8D17F24F-3D96-4A78-BC0B-21740E97571C}" name="FERROSUR " dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{885F419C-86B5-48E0-8193-3BB946AC889A}" name="Ferrocarril y Terminal del Valle de México" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{0BBFB8A6-99E0-41E4-AE1D-69E141B15BF9}" name="Línea Coahuila Durango " dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{DE2FB221-E56C-41CE-8B60-FAAACAC84270}" name="Ferrocarril del Istmo de Tehuantepec" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{B3135452-3A6A-430F-8173-FD4D293C0D06}" name="Admin. Vía Corta Tijuana-Tecate" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{EDD4AEAE-3EF5-467D-9500-C43D2DEA67E8}" name="Total " dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{F8E65A35-CFAA-433E-880E-0745A06312F8}" name="Kansas City Southern de México " dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{99C74970-B9CC-4766-B50D-1B06C0B447E5}" name="Ferrocarril Mexicano" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{58125A09-AE0F-47B3-9199-6AD61950403F}" name="FERROSUR" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{5B02396F-D9E0-47F6-9A50-FFB572DE1C71}" name="Ferrocarril y Terminal del Valle de México " dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{EB76073F-0B65-479D-80CD-C7D064A173AA}" name="Línea Coahuila Durango" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{5FA538C5-3664-4FF5-8ECE-3030AC5A6BB2}" name="Ferrocarril del Istmo de Tehuantepec " dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{67681C8F-1F80-4560-B134-3F8A2B9DD5F3}" name="Admin. Vía Corta Tijuana-Tecate " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1095,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:S88"/>
+  <dimension ref="B2:S89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1142,4769 +1141,4827 @@
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="7" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="9"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
     </row>
     <row r="5" spans="2:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="14">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B6" s="16">
         <v>2024</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(E6:K6)</f>
+        <v>10627.751215000002</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4621.2502850000001</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4847.8326420000003</v>
+      </c>
+      <c r="G6" s="19">
+        <v>883.41127600000004</v>
+      </c>
+      <c r="H6" s="19">
+        <v>164.42353700000001</v>
+      </c>
+      <c r="I6" s="19">
+        <v>86.575890000000001</v>
+      </c>
+      <c r="J6" s="19">
+        <v>8.5300799999999999</v>
+      </c>
+      <c r="K6" s="19">
+        <v>15.727505000000001</v>
+      </c>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6:L16" si="0">SUM(M6:S6)</f>
+        <v>7740.7245669875992</v>
+      </c>
+      <c r="M6" s="19">
+        <v>3074.0600736719998</v>
+      </c>
+      <c r="N6" s="19">
+        <v>4209.4804649380003</v>
+      </c>
+      <c r="O6" s="19">
+        <v>420.6767304</v>
+      </c>
+      <c r="P6" s="19">
+        <v>5.6841813920000002</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>27.009476482</v>
+      </c>
+      <c r="R6" s="19">
+        <v>3.5642458335999998</v>
+      </c>
+      <c r="S6" s="20">
+        <v>0.24939427</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="16">
-        <f>SUM(E6:K6)</f>
+      <c r="D7" s="13">
+        <f>SUM(E7:K7)</f>
         <v>10170.542102500001</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="14">
         <v>4225.2215324999997</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="14">
         <v>4638.9146110000001</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="14">
         <v>1003.004611</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H7" s="14">
         <v>176.79925700000001</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I7" s="14">
         <v>101.900481</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J7" s="14">
         <v>8.8647200000000002</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K7" s="14">
         <v>15.83689</v>
       </c>
-      <c r="L6" s="16">
-        <f t="shared" ref="L6:L15" si="0">SUM(M6:S6)</f>
+      <c r="L7" s="13">
+        <f t="shared" si="0"/>
         <v>7310.5741896424306</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M7" s="14">
         <v>2773.4403533764998</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N7" s="14">
         <v>3963.623746364</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O7" s="14">
         <v>532.89884495000001</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P7" s="14">
         <v>5.771046664</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q7" s="14">
         <v>25.803035709</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R7" s="14">
         <v>8.7877683089299996</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S7" s="15">
         <v>0.24939427</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B7" s="19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B8" s="16">
         <v>2024</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21">
-        <f>SUM(E7:K7)</f>
+      <c r="D8" s="18">
+        <f>SUM(E8:K8)</f>
         <v>11251.137121</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E8" s="19">
         <v>4380.0285290000002</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F8" s="19">
         <v>5224.974502</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G8" s="19">
         <v>1317.7201729999999</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H8" s="19">
         <v>177.187535</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I8" s="19">
         <v>105.991382</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J8" s="19">
         <v>30.662199999999999</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K8" s="19">
         <v>14.572800000000001</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L8" s="18">
         <f t="shared" si="0"/>
         <v>8231.3888027003995</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M8" s="19">
         <v>2880.310271714</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N8" s="19">
         <v>4609.8136975879997</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O8" s="19">
         <v>698.22568952999995</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P8" s="19">
         <v>5.5616272489999998</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q8" s="19">
         <v>26.096916030999999</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R8" s="19">
         <v>11.0747022284</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S8" s="20">
         <v>0.30589835999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B8" s="14">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16">
-        <f>SUM(E8:K8)</f>
+      <c r="D9" s="13">
+        <f>SUM(E9:K9)</f>
         <v>11073.580067999997</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="14">
         <v>4264.3103259999998</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="14">
         <v>5088.2590179999997</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="14">
         <v>1297.469726</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="14">
         <v>268.56850200000002</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="14">
         <v>126.038926</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J9" s="14">
         <v>8.8992199999999997</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K9" s="14">
         <v>20.03435</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L9" s="13">
         <f t="shared" si="0"/>
         <v>7865.3882907427005</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M9" s="14">
         <v>2769.2323164145</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N9" s="14">
         <v>4334.8919746190004</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O9" s="14">
         <v>700.48098283000002</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P9" s="14">
         <v>10.097477002</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q9" s="14">
         <v>37.109888814999998</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R9" s="14">
         <v>13.1854440822</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S9" s="15">
         <v>0.39020697999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B9" s="19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" s="16">
         <v>2024</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="21">
-        <f>SUM(E9:K9)</f>
+      <c r="D10" s="18">
+        <f>SUM(E10:K10)</f>
         <v>11161.666198499997</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E10" s="19">
         <v>4078.3567754999999</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F10" s="19">
         <v>5481.9287759999997</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G10" s="19">
         <v>1221.811635</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H10" s="19">
         <v>239.36940000000001</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I10" s="19">
         <v>105.50866000000001</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J10" s="19">
         <v>9.2501800000000003</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K10" s="19">
         <v>25.440771999999999</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L10" s="18">
         <f t="shared" si="0"/>
         <v>7988.2967723501006</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M10" s="19">
         <v>2693.4096534265</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N10" s="19">
         <v>4598.9796150089996</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O10" s="19">
         <v>647.17524848999994</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P10" s="19">
         <v>8.870226637</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q10" s="19">
         <v>29.502148497</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R10" s="19">
         <v>9.9230392236</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S10" s="20">
         <v>0.43684106700000003</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B10" s="14">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="16">
-        <f>SUM(E10:K10)</f>
+      <c r="D11" s="13">
+        <f>SUM(E11:K11)</f>
         <v>11385.153779999999</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="14">
         <v>4088.3985170000001</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="14">
         <v>5559.3460809999997</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="14">
         <v>1362.2324040000001</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H11" s="14">
         <v>242.53355500000001</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="14">
         <v>103.72531499999999</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J11" s="14">
         <v>4.8760000000000003</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K11" s="14">
         <v>24.041907999999999</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>8010.7375229999998</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M11" s="14">
         <v>2674.0050620000002</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N11" s="14">
         <v>4545.2049290000004</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O11" s="14">
         <v>749.43216500000005</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P11" s="14">
         <v>9.3834619999999997</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q11" s="14">
         <v>27.699843999999999</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R11" s="14">
         <v>4.5218790000000002</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S11" s="15">
         <v>0.49018200000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B11" s="19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B12" s="16">
         <v>2024</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="21">
-        <f t="shared" ref="D11:D25" si="1">SUM(E11:K11)</f>
+      <c r="D12" s="18">
+        <f t="shared" ref="D12:D26" si="1">SUM(E12:K12)</f>
         <v>11518.385950000002</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E12" s="19">
         <v>4300.1912899999998</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F12" s="19">
         <v>5629.5263320000004</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G12" s="19">
         <v>1319.029931</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H12" s="19">
         <v>139.10685699999999</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I12" s="19">
         <v>105.14566000000001</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J12" s="19">
         <v>0</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K12" s="19">
         <v>25.38588</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L12" s="18">
         <f t="shared" si="0"/>
         <v>8190.6107430000002</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M12" s="19">
         <v>2859.8718090000002</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N12" s="19">
         <v>4557.1561849999998</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O12" s="19">
         <v>740.54377399999998</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P12" s="19">
         <v>3.9488479999999999</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q12" s="19">
         <v>27.069296000000001</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R12" s="19">
         <v>1.465068</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S12" s="20">
         <v>0.55576300000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B12" s="14">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="13">
         <f t="shared" si="1"/>
         <v>12058.836555</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="14">
         <v>4563.5082670000002</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="14">
         <v>5992.8884459999999</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="14">
         <v>1246.3373630000001</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="14">
         <v>139.10685699999999</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="14">
         <v>96.219672000000003</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="14">
         <v>0</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K13" s="14">
         <v>20.775950000000002</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L13" s="13">
         <f t="shared" si="0"/>
         <v>8839.7330359999996</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M13" s="14">
         <v>2957.5938150000002</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N13" s="14">
         <v>5127.0620630000003</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O13" s="14">
         <v>721.55657799999994</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P13" s="14">
         <v>3.9488479999999999</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q13" s="14">
         <v>26.56606</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R13" s="14">
         <v>2.5492699999999999</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S13" s="15">
         <v>0.45640199999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B13" s="19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" s="16">
         <v>2024</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D14" s="18">
         <f t="shared" si="1"/>
         <v>11342.527755999999</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E14" s="19">
         <v>4257.7457569999997</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F14" s="19">
         <v>5478.1561410000004</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G14" s="19">
         <v>1150.5672</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H14" s="19">
         <v>347.88340299999999</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I14" s="19">
         <v>97.409684999999996</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J14" s="19">
         <v>0</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K14" s="19">
         <v>10.76557</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L14" s="18">
         <f t="shared" si="0"/>
         <v>8187.4507680000006</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M14" s="19">
         <v>2792.3728390000001</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N14" s="19">
         <v>4673.1630869999999</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O14" s="19">
         <v>679.80545600000005</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P14" s="19">
         <v>8.3948649999999994</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q14" s="19">
         <v>26.664881000000001</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R14" s="19">
         <v>6.8661019999999997</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S14" s="20">
         <v>0.18353800000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B14" s="24">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B15" s="21">
         <v>2024</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D15" s="23">
         <f t="shared" si="1"/>
         <v>11272.010199999999</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E15" s="24">
         <v>4393.4066000000003</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F15" s="24">
         <v>5359.7539999999999</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G15" s="24">
         <v>1270.1172999999999</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H15" s="24">
         <v>121.57129999999999</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I15" s="24">
         <v>106.0236</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J15" s="24">
         <v>0</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K15" s="24">
         <v>21.1374</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L15" s="23">
         <f t="shared" si="0"/>
         <v>8342.0510054124934</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M15" s="24">
         <v>2834.6025592114943</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N15" s="24">
         <v>4774.6108969999996</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O15" s="24">
         <v>698.27653098200028</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P15" s="24">
         <v>3.7847089999999994</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q15" s="24">
         <v>28.277445269000239</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R15" s="24">
         <v>2.0259563599999999</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S15" s="25">
         <v>0.47290758999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B15" s="29">
+    <row r="16" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="26">
         <v>2023</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D16" s="28">
         <f t="shared" si="1"/>
         <v>10530.152879999996</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E16" s="29">
         <v>4309.4661199999991</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F16" s="29">
         <v>4678.9765120000002</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G16" s="29">
         <v>1229.369512</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H16" s="29">
         <v>196.09364099999999</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I16" s="29">
         <v>98.409154999999998</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J16" s="29">
         <v>0</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K16" s="29">
         <v>17.83794</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L16" s="28">
         <f t="shared" si="0"/>
         <v>7153.5113975900022</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M16" s="29">
         <v>2868.2873435319998</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N16" s="29">
         <v>3607.6925303660032</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O16" s="29">
         <v>642.81335444999979</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P16" s="29">
         <v>7.0967908270000004</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q16" s="29">
         <v>26.713847234999999</v>
       </c>
-      <c r="R15" s="32">
+      <c r="R16" s="29">
         <v>0.56659287000000003</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S16" s="30">
         <v>0.34093830999999991</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
+    <row r="17" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="11">
         <v>2023</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="13">
         <f t="shared" si="1"/>
         <v>10744.338341099994</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="14">
         <v>4156.0361599999969</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="14">
         <v>4940.157242999996</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="14">
         <v>1327.2145460000011</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="14">
         <v>207.6338241</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="14">
         <v>97.280187999999995</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J17" s="14">
         <v>0</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K17" s="14">
         <v>16.016380000000002</v>
       </c>
-      <c r="L16" s="16">
-        <f t="shared" ref="L16:L25" si="2">SUM(M16:S16)</f>
+      <c r="L17" s="13">
+        <f t="shared" ref="L17:L26" si="2">SUM(M17:S17)</f>
         <v>7556.0425005755014</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M17" s="14">
         <v>2765.572963916999</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N17" s="14">
         <v>4124.8151506980021</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O17" s="14">
         <v>633.25968550699997</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P17" s="14">
         <v>7.8715812454999998</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q17" s="14">
         <v>24.216846367999999</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R17" s="14">
         <v>0</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S17" s="15">
         <v>0.30627283999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B17" s="19">
+    <row r="18" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="16">
         <v>2023</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D18" s="18">
         <f t="shared" si="1"/>
         <v>11200.280935499999</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E18" s="19">
         <v>4460.5444895000001</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F18" s="19">
         <v>5121.4502369999991</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G18" s="19">
         <v>1286.7112570000011</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H18" s="19">
         <v>230.92582300000001</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I18" s="19">
         <v>86.957749000000007</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J18" s="19">
         <v>0</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K18" s="19">
         <v>13.691380000000001</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L18" s="18">
         <f t="shared" si="2"/>
         <v>7919.0054692064978</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M18" s="19">
         <v>2888.4215667424992</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N18" s="19">
         <v>4289.1214162529986</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O18" s="19">
         <v>709.70213744500006</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P18" s="19">
         <v>8.7303510430000006</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q18" s="19">
         <v>22.005873442999999</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R18" s="19">
         <v>0.75646751999999995</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S18" s="20">
         <v>0.26765675999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B18" s="14">
+    <row r="19" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
         <v>2023</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="13">
         <f t="shared" si="1"/>
         <v>10782.032769499994</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="14">
         <v>4218.6692064999988</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="14">
         <v>4942.4715439999973</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G19" s="14">
         <v>1325.7413049999991</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H19" s="14">
         <v>196.98436699999999</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I19" s="14">
         <v>89.481097000000005</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J19" s="14">
         <v>0</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K19" s="14">
         <v>8.6852500000000017</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L19" s="13">
         <f t="shared" si="2"/>
         <v>7622.1182945060009</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M19" s="14">
         <v>2723.4188917840002</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N19" s="14">
         <v>4168.1608000790002</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O19" s="14">
         <v>700.2680477920004</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P19" s="14">
         <v>6.950576074999999</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q19" s="14">
         <v>22.592782776</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R19" s="14">
         <v>0.46685416000000002</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S19" s="15">
         <v>0.26034183999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B19" s="19">
+    <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="16">
         <v>2023</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D20" s="18">
         <f t="shared" si="1"/>
         <v>11165.0871135</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E20" s="19">
         <v>4073.677195499999</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F20" s="19">
         <v>5295.6467410000023</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G20" s="19">
         <v>1455.9837610000011</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H20" s="19">
         <v>215.933054</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I20" s="19">
         <v>102.351732</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J20" s="19">
         <v>0</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K20" s="19">
         <v>21.494630000000001</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L20" s="18">
         <f t="shared" si="2"/>
         <v>7816.8766415225009</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M20" s="19">
         <v>2578.8196566694969</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N20" s="19">
         <v>4455.9987150990046</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O20" s="19">
         <v>747.21557059399993</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P20" s="19">
         <v>8.0505219500000003</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q20" s="19">
         <v>26.027712000000001</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R20" s="19">
         <v>0.31483611000000011</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S20" s="20">
         <v>0.44962910000000011</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B20" s="14">
+    <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="13">
         <f t="shared" si="1"/>
         <v>10990.944824000002</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="14">
         <v>4146.4391699999987</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="14">
         <v>5135.3581670000012</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="14">
         <v>1381.008404000002</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H21" s="14">
         <v>211.989563</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I21" s="14">
         <v>101.69627</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J21" s="14">
         <v>0</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K21" s="14">
         <v>14.453250000000001</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L21" s="13">
         <f t="shared" si="2"/>
         <v>7210.7837302764929</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M21" s="14">
         <v>2685.167804527498</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N21" s="14">
         <v>3862.1520296299959</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O21" s="14">
         <v>629.01834064099978</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P21" s="14">
         <v>7.3305904510000008</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q21" s="14">
         <v>26.805101397000001</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R21" s="14">
         <v>0</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S21" s="15">
         <v>0.30986362999999989</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B21" s="19">
+    <row r="22" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="16">
         <v>2023</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D22" s="18">
         <f t="shared" si="1"/>
         <v>10745.577094500002</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E22" s="19">
         <v>3986.183454499997</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F22" s="19">
         <v>5182.5897230000064</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G22" s="19">
         <v>1263.786863</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H22" s="19">
         <v>194.382002</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I22" s="19">
         <v>110.79468199999999</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J22" s="19">
         <v>0</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K22" s="19">
         <v>7.8403699999999992</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L22" s="18">
         <f t="shared" si="2"/>
         <v>7727.3830689805</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M22" s="19">
         <v>2606.4418033855009</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N22" s="19">
         <v>4443.8483745960002</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O22" s="19">
         <v>641.33658918099911</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P22" s="19">
         <v>7.5541058760000004</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q22" s="19">
         <v>27.942127822</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R22" s="19">
         <v>0</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S22" s="20">
         <v>0.26006812000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B22" s="14">
+    <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="13">
         <f t="shared" si="1"/>
         <v>11106.930602500001</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="14">
         <v>4188.3383045000028</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="14">
         <v>5334.9094389999982</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G23" s="14">
         <v>1326.3186040000001</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H23" s="14">
         <v>160.06881000000001</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I23" s="14">
         <v>88.829708000000011</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J23" s="14">
         <v>0</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K23" s="14">
         <v>8.4657370000000007</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L23" s="13">
         <f t="shared" si="2"/>
         <v>7787.991672169991</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M23" s="14">
         <v>2697.017603467998</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N23" s="14">
         <v>4364.7163814329933</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O23" s="14">
         <v>691.08870988800015</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P23" s="14">
         <v>5.5462157990000014</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q23" s="14">
         <v>28.462399068</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R23" s="14">
         <v>0.92623683999999995</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S23" s="15">
         <v>0.23412567400000001</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B23" s="19">
+    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="16">
         <v>2023</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D24" s="18">
         <f t="shared" si="1"/>
         <v>10801.941199499999</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E24" s="19">
         <v>4120.2958385000038</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F24" s="19">
         <v>5130.8270799999982</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G24" s="19">
         <v>1278.4442729999989</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H24" s="19">
         <v>164.83443199999999</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I24" s="19">
         <v>97.153891000000002</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J24" s="19">
         <v>0</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K24" s="19">
         <v>10.385685</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L24" s="18">
         <f t="shared" si="2"/>
         <v>7607.3085941089976</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M24" s="19">
         <v>2709.2393107859962</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N24" s="19">
         <v>4203.9729919080019</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O24" s="19">
         <v>660.44165793399986</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P24" s="19">
         <v>5.9482127840000008</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q24" s="19">
         <v>27.414852071999999</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R24" s="19">
         <v>0</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S24" s="20">
         <v>0.29156862500000003</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B24" s="14">
+    <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="13">
         <f t="shared" si="1"/>
         <v>11383.878990499992</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="14">
         <v>4435.0004595000009</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="14">
         <v>5403.7461159999912</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G25" s="14">
         <v>1243.00846</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H25" s="14">
         <v>186.385561</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I25" s="14">
         <v>105.50189399999999</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J25" s="14">
         <v>0</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K25" s="14">
         <v>10.236499999999999</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L25" s="13">
         <f t="shared" si="2"/>
         <v>8168.6527303565072</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M25" s="14">
         <v>2855.8573844425018</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N25" s="14">
         <v>4595.0981872000057</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O25" s="14">
         <v>683.3527228519996</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P25" s="14">
         <v>6.7861570649999994</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q25" s="14">
         <v>27.308684076999999</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R25" s="14">
         <v>0</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S25" s="15">
         <v>0.24959471999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B25" s="19">
+    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="16">
         <v>2023</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D26" s="18">
         <f t="shared" si="1"/>
         <v>10730.619191500007</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E26" s="19">
         <v>4010.1023085000038</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F26" s="19">
         <v>5163.3377450000035</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G26" s="19">
         <v>1234.198350000001</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H26" s="19">
         <v>213.06129999999999</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I26" s="19">
         <v>97.967708000000016</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J26" s="19">
         <v>0</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K26" s="19">
         <v>11.951779999999999</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L26" s="18">
         <f t="shared" si="2"/>
         <v>7460.9740902630037</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M26" s="19">
         <v>2587.8190024130022</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N26" s="19">
         <v>4189.8268443940005</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O26" s="19">
         <v>650.21660514200039</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P26" s="19">
         <v>7.5242899999999997</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q26" s="19">
         <v>25.314986824000002</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R26" s="19">
         <v>0</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S26" s="20">
         <v>0.27236148999999987</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B26" s="24">
+    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="21">
         <v>2023</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="26">
-        <f t="shared" ref="D26:D57" si="3">SUM(E26:K26)</f>
+      <c r="D27" s="23">
+        <f t="shared" ref="D27:D58" si="3">SUM(E27:K27)</f>
         <v>11294.197112000005</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E27" s="24">
         <v>4300.673847</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F27" s="24">
         <v>5333.398917000005</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G27" s="24">
         <v>1381.829727000001</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H27" s="24">
         <v>160.70500799999999</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I27" s="24">
         <v>108.434686</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J27" s="24">
         <v>0</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K27" s="24">
         <v>9.1549269999999989</v>
       </c>
-      <c r="L26" s="26">
-        <f t="shared" ref="L26:L57" si="4">SUM(M26:S26)</f>
+      <c r="L27" s="23">
+        <f t="shared" ref="L27:L58" si="4">SUM(M27:S27)</f>
         <v>8101.5730074171943</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M27" s="24">
         <v>2862.9090542549961</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N27" s="24">
         <v>4475.0428370511981</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O27" s="24">
         <v>730.13655983000001</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P27" s="24">
         <v>5.6898014160000008</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q27" s="24">
         <v>26.430900990000001</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R27" s="24">
         <v>1.1467497600000001</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S27" s="25">
         <v>0.21710411499999999</v>
       </c>
     </row>
-    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="29">
+    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="26">
         <v>2022</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C28" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D28" s="28">
         <f t="shared" si="3"/>
         <v>10579.2088245</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E28" s="29">
         <v>3955.405141500004</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F28" s="29">
         <v>5023.7809259999967</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G28" s="29">
         <v>1253.435716</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H28" s="29">
         <v>210.841139</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I28" s="29">
         <v>127.258531</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J28" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K28" s="29">
         <v>8.4723710000000008</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L28" s="28">
         <f t="shared" si="4"/>
         <v>7201.2110358610043</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M28" s="29">
         <v>2606.642718893002</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N28" s="29">
         <v>3840.3302240870012</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O28" s="29">
         <v>714.07136763500023</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P28" s="29">
         <v>8.1353823930000004</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q28" s="29">
         <v>29.287128408000001</v>
       </c>
-      <c r="R27" s="32">
+      <c r="R28" s="29">
         <v>2.5732544800000001</v>
       </c>
-      <c r="S27" s="33">
+      <c r="S28" s="30">
         <v>0.17095996499999999</v>
       </c>
     </row>
-    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="14">
+    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="11">
         <v>2022</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="13">
         <f t="shared" si="3"/>
         <v>10527.497396789135</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="14">
         <v>4108.8534605000023</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="14">
         <v>4736.7273732891317</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G29" s="14">
         <v>1295.0406599999999</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H29" s="14">
         <v>221.15105</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I29" s="14">
         <v>154.32011299999999</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J29" s="14">
         <v>0</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K29" s="14">
         <v>11.40474</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L29" s="13">
         <f t="shared" si="4"/>
         <v>7310.8355932755139</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M29" s="14">
         <v>2729.828865026504</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N29" s="14">
         <v>3871.547411277008</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O29" s="14">
         <v>666.57566130000077</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P29" s="14">
         <v>8.3173960500000028</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q29" s="14">
         <v>33.740727692</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R29" s="14">
         <v>0.53808</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S29" s="15">
         <v>0.28745193000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="19">
+    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="16">
         <v>2022</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D30" s="18">
         <f t="shared" si="3"/>
         <v>10705.692828500001</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E30" s="19">
         <v>4175.4008985000046</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F30" s="19">
         <v>4906.9342349999952</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G30" s="19">
         <v>1288.9225799999999</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H30" s="19">
         <v>177.480175</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I30" s="19">
         <v>150.03629000000001</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J30" s="19">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K30" s="19">
         <v>6.9111500000000001</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L30" s="18">
         <f t="shared" si="4"/>
         <v>7111.4425296700092</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M30" s="19">
         <v>2632.704658141005</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N30" s="19">
         <v>3750.413545484003</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O30" s="19">
         <v>687.66725051200081</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P30" s="19">
         <v>5.8990287250000009</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q30" s="19">
         <v>34.461750987999999</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R30" s="19">
         <v>0.12333404000000001</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S30" s="20">
         <v>0.17296178000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="14">
+    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="11">
         <v>2022</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="13">
         <f t="shared" si="3"/>
         <v>10716.722789500005</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="14">
         <v>3921.109317500001</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="14">
         <v>5107.1348170000047</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G31" s="14">
         <v>1304.2582520000001</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H31" s="14">
         <v>224.00600600000001</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I31" s="14">
         <v>150.00181699999999</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J31" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K31" s="14">
         <v>10.205080000000001</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L31" s="13">
         <f t="shared" si="4"/>
         <v>7332.3824997811334</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M31" s="14">
         <v>2596.0057846039958</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N31" s="14">
         <v>4043.7739947451369</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O31" s="14">
         <v>650.93120328700036</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P31" s="14">
         <v>8.6389721339999994</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q31" s="14">
         <v>32.781240101000002</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R31" s="14">
         <v>7.0588400000000003E-3</v>
       </c>
-      <c r="S30" s="18">
+      <c r="S31" s="15">
         <v>0.24424607000000009</v>
       </c>
     </row>
-    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="19">
+    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="16">
         <v>2022</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D32" s="18">
         <f t="shared" si="3"/>
         <v>11108.677028999993</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E32" s="19">
         <v>3971.3969279999978</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="19">
         <v>5268.769131999994</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G32" s="19">
         <v>1417.7037560000001</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H32" s="19">
         <v>247.12264200000001</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I32" s="19">
         <v>188.83374499999999</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J32" s="19">
         <v>0</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K32" s="19">
         <v>14.850826</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L32" s="18">
         <f t="shared" si="4"/>
         <v>7307.3132174754001</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M32" s="19">
         <v>2663.245486356001</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N32" s="19">
         <v>3914.0197377269992</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O32" s="19">
         <v>681.13219543499997</v>
       </c>
-      <c r="P31" s="22">
+      <c r="P32" s="19">
         <v>9.831694658</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="Q32" s="19">
         <v>36.570021361999977</v>
       </c>
-      <c r="R31" s="22">
+      <c r="R32" s="19">
         <v>2.1579242694</v>
       </c>
-      <c r="S31" s="23">
+      <c r="S32" s="20">
         <v>0.35615766800000009</v>
       </c>
     </row>
-    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="14">
+    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="13">
         <f t="shared" si="3"/>
         <v>10611.250803000006</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="14">
         <v>3793.7436850000049</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="14">
         <v>5214.0921070000013</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G33" s="14">
         <v>1247.337679</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H33" s="14">
         <v>194.861605</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I33" s="14">
         <v>147.825242</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J33" s="14">
         <v>0</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K33" s="14">
         <v>13.390485</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L33" s="13">
         <f t="shared" si="4"/>
         <v>7191.6636538718021</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M33" s="14">
         <v>2575.3834254900021</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N33" s="14">
         <v>3964.619205300799</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O33" s="14">
         <v>609.31836305400043</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P33" s="14">
         <v>7.2582579850000002</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q33" s="14">
         <v>34.682327189999988</v>
       </c>
-      <c r="R32" s="17">
+      <c r="R33" s="14">
         <v>0.11073023999999999</v>
       </c>
-      <c r="S32" s="18">
+      <c r="S33" s="15">
         <v>0.291344612</v>
       </c>
     </row>
-    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="19">
+    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="16">
         <v>2022</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D34" s="18">
         <f t="shared" si="3"/>
         <v>11385.632823130651</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E34" s="19">
         <v>4133.1845675000104</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F34" s="19">
         <v>5576.317320630641</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G34" s="19">
         <v>1291.3044649999999</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H34" s="19">
         <v>204.62748999999999</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I34" s="19">
         <v>168.44151099999999</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J34" s="19">
         <v>0</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K34" s="19">
         <v>11.757469</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L34" s="18">
         <f t="shared" si="4"/>
         <v>7426.6647824039028</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M34" s="19">
         <v>2745.748891390494</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N34" s="19">
         <v>4014.2422900054089</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O34" s="19">
         <v>622.1854161710005</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P34" s="19">
         <v>8.0573326499999993</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q34" s="19">
         <v>35.484382947000007</v>
       </c>
-      <c r="R33" s="22">
+      <c r="R34" s="19">
         <v>0.60199296000000002</v>
       </c>
-      <c r="S33" s="23">
+      <c r="S34" s="20">
         <v>0.34447628000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="14">
+    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="13">
         <f t="shared" si="3"/>
         <v>10780.323722207198</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="14">
         <v>4137.0850310000033</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="14">
         <v>5186.775923207193</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G35" s="14">
         <v>1080.597673</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="14">
         <v>208.890287</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I35" s="14">
         <v>154.938333</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J35" s="14">
         <v>0</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K35" s="14">
         <v>12.036474999999999</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L35" s="13">
         <f t="shared" si="4"/>
         <v>7413.4131095932507</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M35" s="14">
         <v>2681.1217716099991</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N35" s="14">
         <v>4205.8755796282521</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O35" s="14">
         <v>483.91754051100008</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P35" s="14">
         <v>8.2003226500000004</v>
       </c>
-      <c r="Q34" s="17">
+      <c r="Q35" s="14">
         <v>32.794367653999998</v>
       </c>
-      <c r="R34" s="17">
+      <c r="R35" s="14">
         <v>1.2866841600000001</v>
       </c>
-      <c r="S34" s="18">
+      <c r="S35" s="15">
         <v>0.21684338000000011</v>
       </c>
     </row>
-    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="19">
+    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="16">
         <v>2022</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D36" s="18">
         <f t="shared" si="3"/>
         <v>10829.844413999997</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E36" s="19">
         <v>3962.7175100000009</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F36" s="19">
         <v>5192.2296089999963</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G36" s="19">
         <v>1309.012232</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H36" s="19">
         <v>181.97084000000001</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I36" s="19">
         <v>167.812794</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J36" s="19">
         <v>0</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K36" s="19">
         <v>16.101429</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L36" s="18">
         <f t="shared" si="4"/>
         <v>7275.2969263750037</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M36" s="19">
         <v>2575.7223572010021</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N36" s="19">
         <v>4067.0187656300018</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O36" s="19">
         <v>589.9259630600003</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P36" s="19">
         <v>7.1673460699999998</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q36" s="19">
         <v>34.542283277999999</v>
       </c>
-      <c r="R35" s="22">
+      <c r="R36" s="19">
         <v>0.48420864000000002</v>
       </c>
-      <c r="S35" s="23">
+      <c r="S36" s="20">
         <v>0.43600249600000002</v>
       </c>
     </row>
-    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="14">
+    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="13">
         <f t="shared" si="3"/>
         <v>10958.977161499999</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="14">
         <v>4038.936546500001</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="14">
         <v>5268.3369729999977</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G37" s="14">
         <v>1291.416300000001</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="14">
         <v>177.95099999999999</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I37" s="14">
         <v>167.63478000000001</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J37" s="14">
         <v>0</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K37" s="14">
         <v>14.701561999999999</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L37" s="13">
         <f t="shared" si="4"/>
         <v>7541.4980275314938</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M37" s="14">
         <v>2660.8203641194968</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N37" s="14">
         <v>4208.7790816289962</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O37" s="14">
         <v>621.14192796600003</v>
       </c>
-      <c r="P36" s="17">
+      <c r="P37" s="14">
         <v>6.623209000000001</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q37" s="14">
         <v>35.708474217000003</v>
       </c>
-      <c r="R36" s="17">
+      <c r="R37" s="14">
         <v>8.0218468600000001</v>
       </c>
-      <c r="S36" s="18">
+      <c r="S37" s="15">
         <v>0.40312374000000012</v>
       </c>
     </row>
-    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="19">
+    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="16">
         <v>2022</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D38" s="18">
         <f t="shared" si="3"/>
         <v>9793.3689548991515</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E38" s="19">
         <v>3583.161939000001</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F38" s="19">
         <v>4789.6931648991504</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G38" s="19">
         <v>1070.14833</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H38" s="19">
         <v>173.86282</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I38" s="19">
         <v>164.508713</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J38" s="19">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K38" s="19">
         <v>11.987488000000001</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L38" s="18">
         <f t="shared" si="4"/>
         <v>6646.5983968474375</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M38" s="19">
         <v>2374.907421244</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N38" s="19">
         <v>3680.0897351094382</v>
       </c>
-      <c r="O37" s="22">
+      <c r="O38" s="19">
         <v>540.62561002199982</v>
       </c>
-      <c r="P37" s="22">
+      <c r="P38" s="19">
         <v>6.8062315400000006</v>
       </c>
-      <c r="Q37" s="22">
+      <c r="Q38" s="19">
         <v>35.044869748000004</v>
       </c>
-      <c r="R37" s="22">
+      <c r="R38" s="19">
         <v>8.8324161199999995</v>
       </c>
-      <c r="S37" s="23">
+      <c r="S38" s="20">
         <v>0.29211306399999998</v>
       </c>
     </row>
-    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="24">
+    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="21">
         <v>2022</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C39" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D39" s="23">
         <f t="shared" si="3"/>
         <v>10457.860871849636</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E39" s="24">
         <v>3811.0277475000012</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F39" s="24">
         <v>5081.9953543496349</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G39" s="24">
         <v>1163.869772</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H39" s="24">
         <v>216.800228</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I39" s="24">
         <v>164.64285100000001</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J39" s="24">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K39" s="24">
         <v>19.518419000000002</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L39" s="23">
         <f t="shared" si="4"/>
         <v>7312.9253518064897</v>
       </c>
-      <c r="M38" s="27">
+      <c r="M39" s="24">
         <v>2516.776008406498</v>
       </c>
-      <c r="N38" s="27">
+      <c r="N39" s="24">
         <v>4165.2929514439929</v>
       </c>
-      <c r="O38" s="27">
+      <c r="O39" s="24">
         <v>584.89580469299949</v>
       </c>
-      <c r="P38" s="27">
+      <c r="P39" s="24">
         <v>7.9409832089999988</v>
       </c>
-      <c r="Q38" s="27">
+      <c r="Q39" s="24">
         <v>36.984346221000003</v>
       </c>
-      <c r="R38" s="27">
+      <c r="R39" s="24">
         <v>0.54593274000000003</v>
       </c>
-      <c r="S38" s="28">
+      <c r="S39" s="25">
         <v>0.48932509299999999</v>
       </c>
     </row>
-    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="29">
+    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="26">
         <v>2021</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C40" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D40" s="28">
         <f t="shared" si="3"/>
         <v>10554.11629972851</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E40" s="29">
         <v>3704.487701</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F40" s="29">
         <v>5168.8270517285082</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G40" s="29">
         <v>1210.66284</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H40" s="29">
         <v>278.57299999999998</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I40" s="29">
         <v>176.88040100000001</v>
       </c>
-      <c r="J39" s="32">
+      <c r="J40" s="29">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K39" s="32">
+      <c r="K40" s="29">
         <v>14.676906000000001</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L40" s="28">
         <f t="shared" si="4"/>
         <v>7559.4957620836176</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M40" s="29">
         <v>2454.9251451284981</v>
       </c>
-      <c r="N39" s="32">
+      <c r="N40" s="29">
         <v>4486.1274373061196</v>
       </c>
-      <c r="O39" s="32">
+      <c r="O40" s="29">
         <v>564.50741046500013</v>
       </c>
-      <c r="P39" s="32">
+      <c r="P40" s="29">
         <v>10.346456243</v>
       </c>
-      <c r="Q39" s="32">
+      <c r="Q40" s="29">
         <v>38.567701272999997</v>
       </c>
-      <c r="R39" s="32">
+      <c r="R40" s="29">
         <v>4.6980338499999998</v>
       </c>
-      <c r="S39" s="33">
+      <c r="S40" s="30">
         <v>0.32357781800000007</v>
       </c>
     </row>
-    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="14">
+    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="11">
         <v>2021</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="13">
         <f t="shared" si="3"/>
         <v>10628.511753666689</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="14">
         <v>3832.8486825000009</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="14">
         <v>5157.1098371666867</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="14">
         <v>1198.8120699999999</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="14">
         <v>250.82408899999999</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I41" s="14">
         <v>171.39998600000001</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J41" s="14">
         <v>0.48580000000000001</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K41" s="14">
         <v>17.031289000000001</v>
       </c>
-      <c r="L40" s="16">
+      <c r="L41" s="13">
         <f t="shared" si="4"/>
         <v>7572.3847293000135</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M41" s="14">
         <v>2487.2945403209969</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N41" s="14">
         <v>4430.0140454000166</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O41" s="14">
         <v>607.02709147300016</v>
       </c>
-      <c r="P40" s="17">
+      <c r="P41" s="14">
         <v>8.3345901050000002</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q41" s="14">
         <v>35.035225039999993</v>
       </c>
-      <c r="R40" s="17">
+      <c r="R41" s="14">
         <v>4.35235971</v>
       </c>
-      <c r="S40" s="18">
+      <c r="S41" s="15">
         <v>0.32687725099999992</v>
       </c>
     </row>
-    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="19">
+    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="16">
         <v>2021</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D42" s="18">
         <f t="shared" si="3"/>
         <v>10447.886890621772</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E42" s="19">
         <v>3568.6820320000061</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F42" s="19">
         <v>5290.506152621766</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G42" s="19">
         <v>1189.51099</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H42" s="19">
         <v>218.87152699999999</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I42" s="19">
         <v>164.760099</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J42" s="19">
         <v>0</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K42" s="19">
         <v>15.556089999999999</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L42" s="18">
         <f t="shared" si="4"/>
         <v>7454.4569883743907</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M42" s="19">
         <v>2252.2121829349981</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N42" s="19">
         <v>4555.9238501633918</v>
       </c>
-      <c r="O41" s="22">
+      <c r="O42" s="19">
         <v>598.34848022000062</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P42" s="19">
         <v>8.6802298340000004</v>
       </c>
-      <c r="Q41" s="22">
+      <c r="Q42" s="19">
         <v>36.737191042000013</v>
       </c>
-      <c r="R41" s="22">
+      <c r="R42" s="19">
         <v>2.1651060200000001</v>
       </c>
-      <c r="S41" s="23">
+      <c r="S42" s="20">
         <v>0.38994815999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="14">
+    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="11">
         <v>2021</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="13">
         <f t="shared" si="3"/>
         <v>10310.171017315373</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="14">
         <v>3660.1919630000002</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="14">
         <v>5125.4300873153752</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G43" s="14">
         <v>1106.3341800000001</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H43" s="14">
         <v>225.05336800000001</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I43" s="14">
         <v>173.367749</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J43" s="14">
         <v>0</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K43" s="14">
         <v>19.793669999999999</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L43" s="13">
         <f t="shared" si="4"/>
         <v>7455.9332633507911</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M43" s="14">
         <v>2336.1774044905001</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N43" s="14">
         <v>4499.0870851722912</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O43" s="14">
         <v>574.36416933199996</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P43" s="14">
         <v>9.2197258459999993</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q43" s="14">
         <v>33.827011099000003</v>
       </c>
-      <c r="R42" s="17">
+      <c r="R43" s="14">
         <v>2.7609138199999999</v>
       </c>
-      <c r="S42" s="18">
+      <c r="S43" s="15">
         <v>0.49695359099999997</v>
       </c>
     </row>
-    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="19">
+    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="16">
         <v>2021</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D44" s="18">
         <f t="shared" si="3"/>
         <v>10858.20812040527</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E44" s="19">
         <v>3521.7041924999971</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F44" s="19">
         <v>5688.3567339052724</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G44" s="19">
         <v>1217.1854400000011</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H44" s="19">
         <v>237.21059299999999</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I44" s="19">
         <v>181.48093</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J44" s="19">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K44" s="19">
         <v>12.261831000000001</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L44" s="18">
         <f t="shared" si="4"/>
         <v>7799.3527436193035</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M44" s="19">
         <v>2294.5162238704979</v>
       </c>
-      <c r="N43" s="22">
+      <c r="N44" s="19">
         <v>4842.6990967668053</v>
       </c>
-      <c r="O43" s="22">
+      <c r="O44" s="19">
         <v>615.63413392999996</v>
       </c>
-      <c r="P43" s="22">
+      <c r="P44" s="19">
         <v>8.5407225140000023</v>
       </c>
-      <c r="Q43" s="22">
+      <c r="Q44" s="19">
         <v>34.95596040800001</v>
       </c>
-      <c r="R43" s="22">
+      <c r="R44" s="19">
         <v>2.7197566399999999</v>
       </c>
-      <c r="S43" s="23">
+      <c r="S44" s="20">
         <v>0.28684948999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="14">
+    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="11">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="13">
         <f t="shared" si="3"/>
         <v>11255.030800119688</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="14">
         <v>3793.7436850000049</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="14">
         <v>5713.976884119681</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G45" s="14">
         <v>1315.6355450000001</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H45" s="14">
         <v>235.601181</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I45" s="14">
         <v>181.74973800000001</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J45" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K45" s="14">
         <v>14.308767</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L45" s="13">
         <f t="shared" si="4"/>
         <v>8093.1738756910991</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M45" s="14">
         <v>2575.3834254900021</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N45" s="14">
         <v>4833.7327735580984</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O45" s="14">
         <v>635.0188110539998</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P45" s="14">
         <v>8.7395811469999991</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q45" s="14">
         <v>36.949788237000007</v>
       </c>
-      <c r="R44" s="17">
+      <c r="R45" s="14">
         <v>3.0379556999999999</v>
       </c>
-      <c r="S44" s="18">
+      <c r="S45" s="15">
         <v>0.31154050500000008</v>
       </c>
     </row>
-    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="19">
+    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="16">
         <v>2021</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C46" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D46" s="18">
         <f t="shared" si="3"/>
         <v>11085.875192119853</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E46" s="19">
         <v>4014.4691365000031</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F46" s="19">
         <v>5377.2218746198478</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G46" s="19">
         <v>1234.1497800000011</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H46" s="19">
         <v>253.12753699999999</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I46" s="19">
         <v>192.660923</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J46" s="19">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K46" s="19">
         <v>14.224441000000001</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L46" s="18">
         <f t="shared" si="4"/>
         <v>7726.6787146596171</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M46" s="19">
         <v>2629.796765055999</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N46" s="19">
         <v>4464.5122847686171</v>
       </c>
-      <c r="O45" s="22">
+      <c r="O46" s="19">
         <v>581.68120659000044</v>
       </c>
-      <c r="P45" s="22">
+      <c r="P46" s="19">
         <v>9.1290644990000001</v>
       </c>
-      <c r="Q45" s="22">
+      <c r="Q46" s="19">
         <v>36.782584659999998</v>
       </c>
-      <c r="R45" s="22">
+      <c r="R46" s="19">
         <v>4.3888587000000001</v>
       </c>
-      <c r="S45" s="23">
+      <c r="S46" s="20">
         <v>0.38795038599999998</v>
       </c>
     </row>
-    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="14">
+    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="13">
         <f t="shared" si="3"/>
         <v>12022.900882797225</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="14">
         <v>4361.3740710000029</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="14">
         <v>5936.7487387972214</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G47" s="14">
         <v>1232.430877999999</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H47" s="14">
         <v>263.60899599999999</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I47" s="14">
         <v>207.02036000000001</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J47" s="14">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K47" s="14">
         <v>21.698639</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L47" s="13">
         <f t="shared" si="4"/>
         <v>8508.790074300683</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M47" s="14">
         <v>2922.9896007830021</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N47" s="14">
         <v>4940.7335945086788</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O47" s="14">
         <v>590.43121132199985</v>
       </c>
-      <c r="P46" s="17">
+      <c r="P47" s="14">
         <v>9.6548794559999997</v>
       </c>
-      <c r="Q46" s="17">
+      <c r="Q47" s="14">
         <v>41.925393185999987</v>
       </c>
-      <c r="R46" s="17">
+      <c r="R47" s="14">
         <v>2.55537546</v>
       </c>
-      <c r="S46" s="18">
+      <c r="S47" s="15">
         <v>0.50001958499999988</v>
       </c>
     </row>
-    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="19">
+    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="16">
         <v>2021</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D48" s="18">
         <f t="shared" si="3"/>
         <v>11202.965129249227</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E48" s="19">
         <v>4088.1791725000012</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F48" s="19">
         <v>5398.3324937492234</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G48" s="19">
         <v>1215.8369100000009</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H48" s="19">
         <v>280.81724400000002</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I48" s="19">
         <v>191.078067</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J48" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K48" s="19">
         <v>28.689242</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L48" s="18">
         <f t="shared" si="4"/>
         <v>7831.1461965570006</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M48" s="19">
         <v>2687.4059335134998</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N48" s="19">
         <v>4476.268327207501</v>
       </c>
-      <c r="O47" s="22">
+      <c r="O48" s="19">
         <v>612.56275004999998</v>
       </c>
-      <c r="P47" s="22">
+      <c r="P48" s="19">
         <v>10.506913092</v>
       </c>
-      <c r="Q47" s="22">
+      <c r="Q48" s="19">
         <v>37.034007258999999</v>
       </c>
-      <c r="R47" s="22">
+      <c r="R48" s="19">
         <v>6.8037442799999992</v>
       </c>
-      <c r="S47" s="23">
+      <c r="S48" s="20">
         <v>0.56452115499999989</v>
       </c>
     </row>
-    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="14">
+    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="13">
         <f t="shared" si="3"/>
         <v>11472.620926703923</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="14">
         <v>4090.808027499997</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="14">
         <v>5662.2790862039283</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="14">
         <v>1207.80692</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H49" s="14">
         <v>294.74798299999998</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I49" s="14">
         <v>196.56426200000001</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J49" s="14">
         <v>2.7E-2</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K49" s="14">
         <v>20.387647999999999</v>
       </c>
-      <c r="L48" s="16">
+      <c r="L49" s="13">
         <f t="shared" si="4"/>
         <v>8142.6430797048588</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M49" s="14">
         <v>2745.9354684965042</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N49" s="14">
         <v>4736.7506870613533</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O49" s="14">
         <v>604.7617960900003</v>
       </c>
-      <c r="P48" s="17">
+      <c r="P49" s="14">
         <v>8.8911368260000003</v>
       </c>
-      <c r="Q48" s="17">
+      <c r="Q49" s="14">
         <v>41.498002944</v>
       </c>
-      <c r="R48" s="17">
+      <c r="R49" s="14">
         <v>4.35843588</v>
       </c>
-      <c r="S48" s="18">
+      <c r="S49" s="15">
         <v>0.44755240699999999</v>
       </c>
     </row>
-    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="19">
+    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="16">
         <v>2021</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D50" s="18">
         <f t="shared" si="3"/>
         <v>9383.1106395317038</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E50" s="19">
         <v>3368.883307499998</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F50" s="19">
         <v>4573.2690100317068</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G50" s="19">
         <v>1036.92257</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H50" s="19">
         <v>234.75769500000001</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I50" s="19">
         <v>161.20675999999989</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J50" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K50" s="19">
         <v>8.0472970000000004</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L50" s="18">
         <f t="shared" si="4"/>
         <v>6633.7415436800029</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M50" s="19">
         <v>2289.3534260344968</v>
       </c>
-      <c r="N49" s="22">
+      <c r="N50" s="19">
         <v>3773.8464727675068</v>
       </c>
-      <c r="O49" s="22">
+      <c r="O50" s="19">
         <v>527.36503372999948</v>
       </c>
-      <c r="P49" s="22">
+      <c r="P50" s="19">
         <v>8.0640420000000006</v>
       </c>
-      <c r="Q49" s="22">
+      <c r="Q50" s="19">
         <v>32.601814822999998</v>
       </c>
-      <c r="R49" s="22">
+      <c r="R50" s="19">
         <v>2.3511389399999998</v>
       </c>
-      <c r="S49" s="23">
+      <c r="S50" s="20">
         <v>0.159615385</v>
       </c>
     </row>
-    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="24">
+    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="21">
         <v>2021</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D51" s="23">
         <f t="shared" si="3"/>
         <v>10668.087908957505</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E51" s="24">
         <v>4020.238264000001</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F51" s="24">
         <v>5144.8473599575036</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G51" s="24">
         <v>1116.808546</v>
       </c>
-      <c r="H50" s="27">
+      <c r="H51" s="24">
         <v>177.10898</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I51" s="24">
         <v>186.84795500000001</v>
       </c>
-      <c r="J50" s="27">
+      <c r="J51" s="24">
         <v>5.1790099999999999</v>
       </c>
-      <c r="K50" s="27">
+      <c r="K51" s="24">
         <v>17.057794000000001</v>
       </c>
-      <c r="L50" s="26">
+      <c r="L51" s="23">
         <f t="shared" si="4"/>
         <v>7658.9491725908874</v>
       </c>
-      <c r="M50" s="27">
+      <c r="M51" s="24">
         <v>2719.7331992549998</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N51" s="24">
         <v>4347.3157786078864</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O51" s="24">
         <v>544.13671407200002</v>
       </c>
-      <c r="P50" s="27">
+      <c r="P51" s="24">
         <v>7.3822649800000004</v>
       </c>
-      <c r="Q50" s="27">
+      <c r="Q51" s="24">
         <v>37.287069709999997</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R51" s="24">
         <v>2.7605594199999999</v>
       </c>
-      <c r="S50" s="28">
+      <c r="S51" s="25">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="29">
+    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="26">
         <v>2020</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C52" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D52" s="28">
         <f t="shared" si="3"/>
         <v>10425.345499100005</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E52" s="29">
         <v>3898.4186785000038</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F52" s="29">
         <v>4882.8448936000004</v>
       </c>
-      <c r="G51" s="32">
+      <c r="G52" s="29">
         <v>1069.05969</v>
       </c>
-      <c r="H51" s="32">
+      <c r="H52" s="29">
         <v>347.73810900000001</v>
       </c>
-      <c r="I51" s="32">
+      <c r="I52" s="29">
         <v>196.70733799999999</v>
       </c>
-      <c r="J51" s="32">
+      <c r="J52" s="29">
         <v>18.026479999999999</v>
       </c>
-      <c r="K51" s="32">
+      <c r="K52" s="29">
         <v>12.55031</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L52" s="28">
         <f t="shared" si="4"/>
         <v>7353.1727623347024</v>
       </c>
-      <c r="M51" s="32">
+      <c r="M52" s="29">
         <v>2625.9467366160002</v>
       </c>
-      <c r="N51" s="32">
+      <c r="N52" s="29">
         <v>4157.4580108327018</v>
       </c>
-      <c r="O51" s="32">
+      <c r="O52" s="29">
         <v>517.70569403000059</v>
       </c>
-      <c r="P51" s="32">
+      <c r="P52" s="29">
         <v>9.0617785400000006</v>
       </c>
-      <c r="Q51" s="32">
+      <c r="Q52" s="29">
         <v>36.825079076000002</v>
       </c>
-      <c r="R51" s="32">
+      <c r="R52" s="29">
         <v>5.8351311600000004</v>
       </c>
-      <c r="S51" s="33">
+      <c r="S52" s="30">
         <v>0.34033207999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="14">
+    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="11">
         <v>2020</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="13">
         <f t="shared" si="3"/>
         <v>10381.153690500003</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="14">
         <v>3792.1774099999998</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="14">
         <v>5016.643987500006</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="14">
         <v>1022.91</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H53" s="14">
         <v>376.49241599999999</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I53" s="14">
         <v>156.720607</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J53" s="14">
         <v>6.5342300000000009</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K53" s="14">
         <v>9.6750399999999974</v>
       </c>
-      <c r="L52" s="16">
+      <c r="L53" s="13">
         <f t="shared" si="4"/>
         <v>7352.5100897651027</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M53" s="14">
         <v>2476.4938742799982</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N53" s="14">
         <v>4312.6025955031046</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O53" s="14">
         <v>515.07792600000016</v>
       </c>
-      <c r="P52" s="17">
+      <c r="P53" s="14">
         <v>11.231821312999999</v>
       </c>
-      <c r="Q52" s="17">
+      <c r="Q53" s="14">
         <v>34.256908838999998</v>
       </c>
-      <c r="R52" s="17">
+      <c r="R53" s="14">
         <v>2.6046938000000002</v>
       </c>
-      <c r="S52" s="18">
+      <c r="S53" s="15">
         <v>0.24227003</v>
       </c>
     </row>
-    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="19">
+    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="16">
         <v>2020</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D54" s="18">
         <f t="shared" si="3"/>
         <v>10304.857817457816</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E54" s="19">
         <v>3959.7610744999961</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F54" s="19">
         <v>4749.0987938578201</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G54" s="19">
         <v>1197.7530099999999</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H54" s="19">
         <v>186.51679809999999</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I54" s="19">
         <v>178.59754699999999</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J54" s="19">
         <v>16.072800000000001</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K54" s="19">
         <v>17.057794000000001</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L54" s="18">
         <f t="shared" si="4"/>
         <v>7334.9599437122397</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M54" s="19">
         <v>2713.3960539770019</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N54" s="19">
         <v>4023.2553769225378</v>
       </c>
-      <c r="O53" s="22">
+      <c r="O54" s="19">
         <v>542.79762977000007</v>
       </c>
-      <c r="P53" s="22">
+      <c r="P54" s="19">
         <v>7.5060893896999996</v>
       </c>
-      <c r="Q53" s="22">
+      <c r="Q54" s="19">
         <v>42.505763026999993</v>
       </c>
-      <c r="R53" s="22">
+      <c r="R54" s="19">
         <v>5.1654440799999994</v>
       </c>
-      <c r="S53" s="23">
+      <c r="S54" s="20">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="14">
+    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="11">
         <v>2020</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="13">
         <f t="shared" si="3"/>
         <v>10010.860705133222</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="14">
         <v>4074.659214000003</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="14">
         <v>4534.2935971332181</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G55" s="14">
         <v>1007.21459</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H55" s="14">
         <v>218.893238</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I55" s="14">
         <v>160.24086600000001</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J55" s="14">
         <v>0.98</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K55" s="14">
         <v>14.5792</v>
       </c>
-      <c r="L54" s="16">
+      <c r="L55" s="13">
         <f t="shared" si="4"/>
         <v>7046.4603867411315</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M55" s="14">
         <v>2750.463505591501</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N55" s="14">
         <v>3736.9267533866309</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O55" s="14">
         <v>516.3334641199998</v>
       </c>
-      <c r="P54" s="17">
+      <c r="P55" s="14">
         <v>8.9935901099999995</v>
       </c>
-      <c r="Q54" s="17">
+      <c r="Q55" s="14">
         <v>32.577175492999999</v>
       </c>
-      <c r="R54" s="17">
+      <c r="R55" s="14">
         <v>0.73748120000000006</v>
       </c>
-      <c r="S54" s="18">
+      <c r="S55" s="15">
         <v>0.42841684000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="19">
+    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="16">
         <v>2020</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D56" s="18">
         <f t="shared" si="3"/>
         <v>10140.746236042156</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E56" s="19">
         <v>3720.288184500002</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F56" s="19">
         <v>4994.2514095421539</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G56" s="19">
         <v>1027.58536</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H56" s="19">
         <v>187.64308500000001</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I56" s="19">
         <v>186.38118700000001</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J56" s="19">
         <v>13.8596</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K56" s="19">
         <v>10.737410000000001</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L56" s="18">
         <f t="shared" si="4"/>
         <v>7449.2591429184022</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M56" s="19">
         <v>2487.3447639574988</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N56" s="19">
         <v>4328.973769747904</v>
       </c>
-      <c r="O55" s="22">
+      <c r="O56" s="19">
         <v>579.49765215000036</v>
       </c>
-      <c r="P55" s="22">
+      <c r="P56" s="19">
         <v>7.4413398099999997</v>
       </c>
-      <c r="Q55" s="22">
+      <c r="Q56" s="19">
         <v>39.990465413000003</v>
       </c>
-      <c r="R55" s="22">
+      <c r="R56" s="19">
         <v>5.7537497800000006</v>
       </c>
-      <c r="S55" s="23">
+      <c r="S56" s="20">
         <v>0.25740205999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="14">
+    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="11">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="13">
         <f t="shared" si="3"/>
         <v>10156.497411288225</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="14">
         <v>3613.696181999997</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="14">
         <v>4968.204788288228</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G57" s="14">
         <v>1194.003549999999</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H57" s="14">
         <v>179.13738699999999</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I57" s="14">
         <v>177.43138400000001</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J57" s="14">
         <v>13.854179999999999</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K57" s="14">
         <v>10.16994</v>
       </c>
-      <c r="L56" s="16">
+      <c r="L57" s="13">
         <f t="shared" si="4"/>
         <v>7380.5613200561647</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M57" s="14">
         <v>2428.846732166</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N57" s="14">
         <v>4258.745057885164</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O57" s="14">
         <v>616.52099685999997</v>
       </c>
-      <c r="P56" s="17">
+      <c r="P57" s="14">
         <v>6.897613637000001</v>
       </c>
-      <c r="Q56" s="17">
+      <c r="Q57" s="14">
         <v>46.615575728000003</v>
       </c>
-      <c r="R56" s="17">
+      <c r="R57" s="14">
         <v>22.688503149999999</v>
       </c>
-      <c r="S56" s="18">
+      <c r="S57" s="15">
         <v>0.24684063000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="19">
+    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="16">
         <v>2020</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D58" s="18">
         <f t="shared" si="3"/>
         <v>9413.8401068405965</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E58" s="19">
         <v>3299.4981385000028</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F58" s="19">
         <v>4750.320989340591</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G58" s="19">
         <v>1032.4139100000009</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H58" s="19">
         <v>122.951718</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I58" s="19">
         <v>176.151501</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J58" s="19">
         <v>19.795500000000001</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K58" s="19">
         <v>12.708349999999999</v>
       </c>
-      <c r="L57" s="21">
+      <c r="L58" s="18">
         <f t="shared" si="4"/>
         <v>6838.7530584626184</v>
       </c>
-      <c r="M57" s="22">
+      <c r="M58" s="19">
         <v>2178.930646833498</v>
       </c>
-      <c r="N57" s="22">
+      <c r="N58" s="19">
         <v>4081.32299100612</v>
       </c>
-      <c r="O57" s="22">
+      <c r="O58" s="19">
         <v>505.39333284999958</v>
       </c>
-      <c r="P57" s="22">
+      <c r="P58" s="19">
         <v>4.1486682360000007</v>
       </c>
-      <c r="Q57" s="22">
+      <c r="Q58" s="19">
         <v>48.516144666999992</v>
       </c>
-      <c r="R57" s="22">
+      <c r="R58" s="19">
         <v>20.1564771</v>
       </c>
-      <c r="S57" s="23">
+      <c r="S58" s="20">
         <v>0.28479777000000012</v>
       </c>
     </row>
-    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="14">
+    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="16">
-        <f t="shared" ref="D58:D86" si="5">SUM(E58:K58)</f>
+      <c r="D59" s="13">
+        <f t="shared" ref="D59:D87" si="5">SUM(E59:K59)</f>
         <v>8958.3282716603189</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="14">
         <v>2963.8515250000032</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="14">
         <v>4578.9250176603191</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G59" s="14">
         <v>1046.3265299999989</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H59" s="14">
         <v>141.62878699999999</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I59" s="14">
         <v>181.326382</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J59" s="14">
         <v>35.391770000000001</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K59" s="14">
         <v>10.878259999999999</v>
       </c>
-      <c r="L58" s="16">
-        <f t="shared" ref="L58:L86" si="6">SUM(M58:S58)</f>
+      <c r="L59" s="13">
+        <f t="shared" ref="L59:L87" si="6">SUM(M59:S59)</f>
         <v>6599.7211012138414</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M59" s="14">
         <v>1955.6864974084999</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N59" s="14">
         <v>4070.699793715341</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O59" s="14">
         <v>490.43616353999971</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P59" s="14">
         <v>4.9919812889999999</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q59" s="14">
         <v>49.262628410999987</v>
       </c>
-      <c r="R58" s="17">
+      <c r="R59" s="14">
         <v>28.479580210000002</v>
       </c>
-      <c r="S58" s="18">
+      <c r="S59" s="15">
         <v>0.16445663999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="19">
+    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="16">
         <v>2020</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D60" s="18">
         <f t="shared" si="5"/>
         <v>9180.7559098961865</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E60" s="19">
         <v>3045.684487</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F60" s="19">
         <v>4586.6569688961881</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G60" s="19">
         <v>1232.8326999999999</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H60" s="19">
         <v>80.286566999999991</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I60" s="19">
         <v>185.73497699999999</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J60" s="19">
         <v>37.784360000000007</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K60" s="19">
         <v>11.77585</v>
       </c>
-      <c r="L59" s="21">
+      <c r="L60" s="18">
         <f t="shared" si="6"/>
         <v>6563.6809044984548</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M60" s="19">
         <v>2092.363650120501</v>
       </c>
-      <c r="N59" s="22">
+      <c r="N60" s="19">
         <v>3810.8671320719541</v>
       </c>
-      <c r="O59" s="22">
+      <c r="O60" s="19">
         <v>576.76851579999936</v>
       </c>
-      <c r="P59" s="22">
+      <c r="P60" s="19">
         <v>2.1857480950000001</v>
       </c>
-      <c r="Q59" s="22">
+      <c r="Q60" s="19">
         <v>48.091960541000013</v>
       </c>
-      <c r="R59" s="22">
+      <c r="R60" s="19">
         <v>33.146718739999997</v>
       </c>
-      <c r="S59" s="23">
+      <c r="S60" s="20">
         <v>0.25717912999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="14">
+    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="13">
         <f t="shared" si="5"/>
         <v>10838.533316456946</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="14">
         <v>3989.0247625000002</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="14">
         <v>5227.3044649569474</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G61" s="14">
         <v>1164.59097</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H61" s="14">
         <v>195.326954</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I61" s="14">
         <v>192.162305</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J61" s="14">
         <v>55.761529999999993</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K61" s="14">
         <v>14.36233</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L61" s="13">
         <f t="shared" si="6"/>
         <v>7720.3875207885012</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M61" s="14">
         <v>2719.9630072755008</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N61" s="14">
         <v>4308.5178526390009</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O61" s="14">
         <v>550.02743308999959</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P61" s="14">
         <v>7.8376115140000007</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q61" s="14">
         <v>49.157905969999987</v>
       </c>
-      <c r="R60" s="17">
+      <c r="R61" s="14">
         <v>84.630515320000001</v>
       </c>
-      <c r="S60" s="18">
+      <c r="S61" s="15">
         <v>0.25319498000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="19">
+    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="16">
         <v>2020</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C62" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D62" s="18">
         <f t="shared" si="5"/>
         <v>10299.350069510732</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E62" s="19">
         <v>3823.384485499997</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F62" s="19">
         <v>4951.899973010738</v>
       </c>
-      <c r="G61" s="22">
+      <c r="G62" s="19">
         <v>1126.6304699999989</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H62" s="19">
         <v>155.82070999999999</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I62" s="19">
         <v>189.46652100000011</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J62" s="19">
         <v>42.813149999999993</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K62" s="19">
         <v>9.3347600000000028</v>
       </c>
-      <c r="L61" s="21">
+      <c r="L62" s="18">
         <f t="shared" si="6"/>
         <v>7398.4236104454985</v>
       </c>
-      <c r="M61" s="22">
+      <c r="M62" s="19">
         <v>2611.3807745675008</v>
       </c>
-      <c r="N61" s="22">
+      <c r="N62" s="19">
         <v>4099.994935206998</v>
       </c>
-      <c r="O61" s="22">
+      <c r="O62" s="19">
         <v>576.65962569999999</v>
       </c>
-      <c r="P61" s="22">
+      <c r="P62" s="19">
         <v>5.8101744709999998</v>
       </c>
-      <c r="Q61" s="22">
+      <c r="Q62" s="19">
         <v>48.975136419999998</v>
       </c>
-      <c r="R61" s="22">
+      <c r="R62" s="19">
         <v>55.332080869999999</v>
       </c>
-      <c r="S61" s="23">
+      <c r="S62" s="20">
         <v>0.2708832100000001</v>
       </c>
     </row>
-    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="24">
+    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="21">
         <v>2020</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C63" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D63" s="23">
         <f t="shared" si="5"/>
         <v>10271.035696436747</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E63" s="24">
         <v>3815.537451499998</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F63" s="24">
         <v>4795.4483429367501</v>
       </c>
-      <c r="G62" s="27">
+      <c r="G63" s="24">
         <v>1231.876279999999</v>
       </c>
-      <c r="H62" s="27">
+      <c r="H63" s="24">
         <v>149.16394</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I63" s="24">
         <v>225.18540200000001</v>
       </c>
-      <c r="J62" s="27">
+      <c r="J63" s="24">
         <v>42.674029999999988</v>
       </c>
-      <c r="K62" s="27">
+      <c r="K63" s="24">
         <v>11.15025</v>
       </c>
-      <c r="L62" s="26">
+      <c r="L63" s="23">
         <f t="shared" si="6"/>
         <v>7185.7383871704087</v>
       </c>
-      <c r="M62" s="27">
+      <c r="M63" s="24">
         <v>2557.950665571791</v>
       </c>
-      <c r="N62" s="27">
+      <c r="N63" s="24">
         <v>3902.6936190776169</v>
       </c>
-      <c r="O62" s="27">
+      <c r="O63" s="24">
         <v>613.68125601999952</v>
       </c>
-      <c r="P62" s="27">
+      <c r="P63" s="24">
         <v>5.5450976610000007</v>
       </c>
-      <c r="Q62" s="27">
+      <c r="Q63" s="24">
         <v>54.17302995</v>
       </c>
-      <c r="R62" s="27">
+      <c r="R63" s="24">
         <v>51.401263659999998</v>
       </c>
-      <c r="S62" s="28">
+      <c r="S63" s="25">
         <v>0.29345523000000012</v>
       </c>
     </row>
-    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="29">
+    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="26">
         <v>2019</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D64" s="28">
         <f t="shared" si="5"/>
         <v>10047.312890842448</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E64" s="29">
         <v>3660.8761419999978</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F64" s="29">
         <v>4803.7000258424505</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G64" s="29">
         <v>1177.5281500000008</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H64" s="29">
         <v>122.89328999999999</v>
       </c>
-      <c r="I63" s="32">
+      <c r="I64" s="29">
         <v>230.92350300000001</v>
       </c>
-      <c r="J63" s="32">
+      <c r="J64" s="29">
         <v>42.637639999999998</v>
       </c>
-      <c r="K63" s="32">
+      <c r="K64" s="29">
         <v>8.7541399999999996</v>
       </c>
-      <c r="L63" s="31">
+      <c r="L64" s="28">
         <f t="shared" si="6"/>
         <v>7283.4758425855061</v>
       </c>
-      <c r="M63" s="32">
+      <c r="M64" s="29">
         <v>2545.6933826471468</v>
       </c>
-      <c r="N63" s="32">
+      <c r="N64" s="29">
         <v>4050.2897667273596</v>
       </c>
-      <c r="O63" s="32">
+      <c r="O64" s="29">
         <v>573.5496261799999</v>
       </c>
-      <c r="P63" s="32">
+      <c r="P64" s="29">
         <v>4.2298997729999996</v>
       </c>
-      <c r="Q63" s="32">
+      <c r="Q64" s="29">
         <v>56.884561087999998</v>
       </c>
-      <c r="R63" s="32">
+      <c r="R64" s="29">
         <v>52.609621790000006</v>
       </c>
-      <c r="S63" s="33">
+      <c r="S64" s="30">
         <v>0.21898438000000003</v>
       </c>
     </row>
-    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="14">
+    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="11">
         <v>2019</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="13">
         <f t="shared" si="5"/>
         <v>10280.781962591729</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="14">
         <v>3610.9266754999981</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="14">
         <v>5041.7983650917313</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="14">
         <v>1236.3706200000001</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H65" s="14">
         <v>119.94541900000002</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I65" s="14">
         <v>216.296423</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J65" s="14">
         <v>44.749820000000007</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K65" s="14">
         <v>10.694639999999998</v>
       </c>
-      <c r="L64" s="16">
+      <c r="L65" s="13">
         <f t="shared" si="6"/>
         <v>7555.8940235339123</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M65" s="14">
         <v>2480.4706212095998</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N65" s="14">
         <v>4344.3803465193132</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O65" s="14">
         <v>612.67386856000019</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P65" s="14">
         <v>4.0122463450000003</v>
       </c>
-      <c r="Q64" s="17">
+      <c r="Q65" s="14">
         <v>58.796987859999994</v>
       </c>
-      <c r="R64" s="17">
+      <c r="R65" s="14">
         <v>55.348814779999998</v>
       </c>
-      <c r="S64" s="18">
+      <c r="S65" s="15">
         <v>0.21113825999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="19">
+    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="16">
         <v>2019</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D66" s="18">
         <f t="shared" si="5"/>
         <v>10705.327866000001</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E66" s="19">
         <v>3801.481272</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F66" s="19">
         <v>5236.960086</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G66" s="19">
         <v>1235.93461</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H66" s="19">
         <v>160.86355499999999</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I66" s="19">
         <v>213.47005300000001</v>
       </c>
-      <c r="J65" s="22">
+      <c r="J66" s="19">
         <v>45.65587</v>
       </c>
-      <c r="K65" s="22">
+      <c r="K66" s="19">
         <v>10.96242</v>
       </c>
-      <c r="L65" s="21">
+      <c r="L66" s="18">
         <f t="shared" si="6"/>
         <v>7564.1221808391301</v>
       </c>
-      <c r="M65" s="22">
+      <c r="M66" s="19">
         <v>2532.7762513215766</v>
       </c>
-      <c r="N65" s="22">
+      <c r="N66" s="19">
         <v>4297.3858559405544</v>
       </c>
-      <c r="O65" s="22">
+      <c r="O66" s="19">
         <v>606.66118932999996</v>
       </c>
-      <c r="P65" s="22">
+      <c r="P66" s="19">
         <v>5.7111421819999997</v>
       </c>
-      <c r="Q65" s="22">
+      <c r="Q66" s="19">
         <v>64.496729185000007</v>
       </c>
-      <c r="R65" s="22">
+      <c r="R66" s="19">
         <v>56.887522270000005</v>
       </c>
-      <c r="S65" s="23">
+      <c r="S66" s="20">
         <v>0.20349060999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="14">
+    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="11">
         <v>2019</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="13">
         <f t="shared" si="5"/>
         <v>10313.251420927023</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="14">
         <v>3763.4243204999998</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="14">
         <v>4794.4036324270237</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G67" s="14">
         <v>1259.9243900000008</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H67" s="14">
         <v>164.26299700000001</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I67" s="14">
         <v>251.636821</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J67" s="14">
         <v>66.981439999999992</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K67" s="14">
         <v>12.61782</v>
       </c>
-      <c r="L66" s="16">
+      <c r="L67" s="13">
         <f t="shared" si="6"/>
         <v>7368.223949700222</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M67" s="14">
         <v>2492.5831110034319</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N67" s="14">
         <v>4168.1941198527893</v>
       </c>
-      <c r="O66" s="17">
+      <c r="O67" s="14">
         <v>564.70797957000025</v>
       </c>
-      <c r="P66" s="17">
+      <c r="P67" s="14">
         <v>6.7826120650000004</v>
       </c>
-      <c r="Q66" s="17">
+      <c r="Q67" s="14">
         <v>68.621584789000011</v>
       </c>
-      <c r="R66" s="17">
+      <c r="R67" s="14">
         <v>67.080573079999994</v>
       </c>
-      <c r="S66" s="18">
+      <c r="S67" s="15">
         <v>0.25396934000000004</v>
       </c>
     </row>
-    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="19">
+    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="16">
         <v>2019</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D68" s="18">
         <f t="shared" si="5"/>
         <v>11096.380692382061</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E68" s="19">
         <v>3917.8476439999995</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F68" s="19">
         <v>5305.3281943820612</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G68" s="19">
         <v>1265.0673000000011</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H68" s="19">
         <v>254.105448</v>
       </c>
-      <c r="I67" s="22">
+      <c r="I68" s="19">
         <v>282.87777699999998</v>
       </c>
-      <c r="J67" s="22">
+      <c r="J68" s="19">
         <v>52.912410000000001</v>
       </c>
-      <c r="K67" s="22">
+      <c r="K68" s="19">
         <v>18.241918999999999</v>
       </c>
-      <c r="L67" s="21">
+      <c r="L68" s="18">
         <f t="shared" si="6"/>
         <v>7875.1347427823239</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M68" s="19">
         <v>2623.4929048545905</v>
       </c>
-      <c r="N67" s="22">
+      <c r="N68" s="19">
         <v>4528.0558628127355</v>
       </c>
-      <c r="O67" s="22">
+      <c r="O68" s="19">
         <v>599.40095962999965</v>
       </c>
-      <c r="P67" s="22">
+      <c r="P68" s="19">
         <v>7.1929457959999992</v>
       </c>
-      <c r="Q67" s="22">
+      <c r="Q68" s="19">
         <v>67.383048192999993</v>
       </c>
-      <c r="R67" s="22">
+      <c r="R68" s="19">
         <v>49.255862180000001</v>
       </c>
-      <c r="S67" s="23">
+      <c r="S68" s="20">
         <v>0.353159316</v>
       </c>
     </row>
-    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="14">
+    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="11">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="13">
         <f t="shared" si="5"/>
         <v>11150.650438969102</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="14">
         <v>3873.3662050000003</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="14">
         <v>5476.5920749691022</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G69" s="14">
         <v>1295.4921899999999</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H69" s="14">
         <v>130.167182</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I69" s="14">
         <v>270.20667400000008</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J69" s="14">
         <v>95.357079999999996</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K69" s="14">
         <v>9.4690329999999996</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L69" s="13">
         <f t="shared" si="6"/>
         <v>8143.3902304466164</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M69" s="14">
         <v>2699.0426404251648</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N69" s="14">
         <v>4690.7340326165104</v>
       </c>
-      <c r="O68" s="17">
+      <c r="O69" s="14">
         <v>626.75042356999995</v>
       </c>
-      <c r="P68" s="17">
+      <c r="P69" s="14">
         <v>4.2158850049414749</v>
       </c>
-      <c r="Q68" s="17">
+      <c r="Q69" s="14">
         <v>69.891604407999992</v>
       </c>
-      <c r="R68" s="17">
+      <c r="R69" s="14">
         <v>52.570641740000006</v>
       </c>
-      <c r="S68" s="18">
+      <c r="S69" s="15">
         <v>0.18500268199999997</v>
       </c>
     </row>
-    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="19">
+    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="16">
         <v>2019</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C70" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D70" s="18">
         <f t="shared" si="5"/>
         <v>10374.818673051463</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E70" s="19">
         <v>3549.9224370000029</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F70" s="19">
         <v>5071.1049410514588</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G70" s="19">
         <v>1261.1353490000001</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H70" s="19">
         <v>189.70297400000001</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I70" s="19">
         <v>241.36934199999999</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J70" s="19">
         <v>51.38608</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K70" s="19">
         <v>10.197550000000003</v>
       </c>
-      <c r="L69" s="21">
+      <c r="L70" s="18">
         <f t="shared" si="6"/>
         <v>7532.8116285687038</v>
       </c>
-      <c r="M69" s="22">
+      <c r="M70" s="19">
         <v>2498.5873912253655</v>
       </c>
-      <c r="N69" s="22">
+      <c r="N70" s="19">
         <v>4294.5408771924649</v>
       </c>
-      <c r="O69" s="22">
+      <c r="O70" s="19">
         <v>618.46245641899986</v>
       </c>
-      <c r="P69" s="22">
+      <c r="P70" s="19">
         <v>7.1837945668734235</v>
       </c>
-      <c r="Q69" s="22">
+      <c r="Q70" s="19">
         <v>67.283344745000008</v>
       </c>
-      <c r="R69" s="22">
+      <c r="R70" s="19">
         <v>46.514204849999999</v>
       </c>
-      <c r="S69" s="23">
+      <c r="S70" s="20">
         <v>0.23955957</v>
       </c>
     </row>
-    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="14">
+    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="13">
         <f t="shared" si="5"/>
         <v>10971.576587143792</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="14">
         <v>3859.9412885000029</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="14">
         <v>5135.6499426437886</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G71" s="14">
         <v>1398.7275000000011</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H71" s="14">
         <v>201.93910199999996</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I71" s="14">
         <v>308.40207399999997</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J71" s="14">
         <v>52.276800000000001</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K71" s="14">
         <v>14.63988</v>
       </c>
-      <c r="L70" s="16">
+      <c r="L71" s="13">
         <f t="shared" si="6"/>
         <v>7918.5192805454762</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M71" s="14">
         <v>2715.5986838884046</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N71" s="14">
         <v>4370.5287118188699</v>
       </c>
-      <c r="O70" s="17">
+      <c r="O71" s="14">
         <v>688.65007213000047</v>
       </c>
-      <c r="P70" s="17">
+      <c r="P71" s="14">
         <v>6.9957881702000009</v>
       </c>
-      <c r="Q70" s="17">
+      <c r="Q71" s="14">
         <v>77.028830357999993</v>
       </c>
-      <c r="R70" s="17">
+      <c r="R71" s="14">
         <v>59.42133875999999</v>
       </c>
-      <c r="S70" s="18">
+      <c r="S71" s="15">
         <v>0.29585541999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="19">
+    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="16">
         <v>2019</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D72" s="18">
         <f t="shared" si="5"/>
         <v>10534.153393500883</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E72" s="19">
         <v>3675.3372790000017</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F72" s="19">
         <v>5077.1043255008817</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G72" s="19">
         <v>1229.5152699999999</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H72" s="19">
         <v>205.91515200000003</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I72" s="19">
         <v>272.06735700000002</v>
       </c>
-      <c r="J71" s="22">
+      <c r="J72" s="19">
         <v>57.111829999999998</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K72" s="19">
         <v>17.102179999999997</v>
       </c>
-      <c r="L71" s="21">
+      <c r="L72" s="18">
         <f t="shared" si="6"/>
         <v>7390.6301600856887</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M72" s="19">
         <v>2482.4826125118411</v>
       </c>
-      <c r="N71" s="22">
+      <c r="N72" s="19">
         <v>4183.7452393018466</v>
       </c>
-      <c r="O71" s="22">
+      <c r="O72" s="19">
         <v>594.52454974000057</v>
       </c>
-      <c r="P71" s="22">
+      <c r="P72" s="19">
         <v>6.8929467899999999</v>
       </c>
-      <c r="Q71" s="22">
+      <c r="Q72" s="19">
         <v>61.99332402200001</v>
       </c>
-      <c r="R71" s="22">
+      <c r="R72" s="19">
         <v>60.632588310000003</v>
       </c>
-      <c r="S71" s="23">
+      <c r="S72" s="20">
         <v>0.35889941000000009</v>
       </c>
     </row>
-    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="14">
+    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="13">
         <f t="shared" si="5"/>
         <v>10581.052353198915</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="14">
         <v>3752.7021304999998</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="14">
         <v>5042.9410756989164</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G73" s="14">
         <v>1226.6793299999995</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H73" s="14">
         <v>227.34326400000003</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I73" s="14">
         <v>273.29974500000003</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J73" s="14">
         <v>46.615569999999991</v>
       </c>
-      <c r="K72" s="17">
+      <c r="K73" s="14">
         <v>11.471238</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L73" s="13">
         <f t="shared" si="6"/>
         <v>7316.8442337622519</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M73" s="14">
         <v>2584.8546054208359</v>
       </c>
-      <c r="N72" s="17">
+      <c r="N73" s="14">
         <v>3971.3774654550916</v>
       </c>
-      <c r="O72" s="17">
+      <c r="O73" s="14">
         <v>628.3360908439995</v>
       </c>
-      <c r="P72" s="17">
+      <c r="P73" s="14">
         <v>8.5075610303260056</v>
       </c>
-      <c r="Q72" s="17">
+      <c r="Q73" s="14">
         <v>68.783462650000004</v>
       </c>
-      <c r="R72" s="17">
+      <c r="R73" s="14">
         <v>54.71253209999999</v>
       </c>
-      <c r="S72" s="18">
+      <c r="S73" s="15">
         <v>0.27251626200000001</v>
       </c>
     </row>
-    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="19">
+    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="16">
         <v>2019</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D74" s="18">
         <f t="shared" si="5"/>
         <v>9241.6055505618933</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E74" s="19">
         <v>3275.5849539999986</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F74" s="19">
         <v>4370.160919561893</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G74" s="19">
         <v>1126.2545300000011</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H74" s="19">
         <v>152.85569699999999</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I74" s="19">
         <v>259.99696999999998</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J74" s="19">
         <v>46.582780000000007</v>
       </c>
-      <c r="K73" s="22">
+      <c r="K74" s="19">
         <v>10.169700000000002</v>
       </c>
-      <c r="L73" s="21">
+      <c r="L74" s="18">
         <f t="shared" si="6"/>
         <v>6363.5933863084483</v>
       </c>
-      <c r="M73" s="22">
+      <c r="M74" s="19">
         <v>2189.6104131855614</v>
       </c>
-      <c r="N73" s="22">
+      <c r="N74" s="19">
         <v>3499.6909835169613</v>
       </c>
-      <c r="O73" s="22">
+      <c r="O74" s="19">
         <v>547.40245832199946</v>
       </c>
-      <c r="P73" s="22">
+      <c r="P74" s="19">
         <v>5.1177584499260034</v>
       </c>
-      <c r="Q73" s="22">
+      <c r="Q74" s="19">
         <v>63.306209223999993</v>
       </c>
-      <c r="R73" s="22">
+      <c r="R74" s="19">
         <v>58.28962554000001</v>
       </c>
-      <c r="S73" s="23">
+      <c r="S74" s="20">
         <v>0.17593807</v>
       </c>
     </row>
-    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="24">
+    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="21">
         <v>2019</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C75" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D75" s="23">
         <f t="shared" si="5"/>
         <v>9892.1436970006562</v>
       </c>
-      <c r="E74" s="27">
+      <c r="E75" s="24">
         <v>3499.7139435000031</v>
       </c>
-      <c r="F74" s="27">
+      <c r="F75" s="24">
         <v>4546.0874465006518</v>
       </c>
-      <c r="G74" s="27">
+      <c r="G75" s="24">
         <v>1267.5804000000005</v>
       </c>
-      <c r="H74" s="27">
+      <c r="H75" s="24">
         <v>224.06764100000001</v>
       </c>
-      <c r="I74" s="27">
+      <c r="I75" s="24">
         <v>293.47607299999999</v>
       </c>
-      <c r="J74" s="27">
+      <c r="J75" s="24">
         <v>50.833020000000005</v>
       </c>
-      <c r="K74" s="27">
+      <c r="K75" s="24">
         <v>10.385172999999998</v>
       </c>
-      <c r="L74" s="26">
+      <c r="L75" s="23">
         <f t="shared" si="6"/>
         <v>6769.108553604312</v>
       </c>
-      <c r="M74" s="27">
+      <c r="M75" s="24">
         <v>2315.0380047690219</v>
       </c>
-      <c r="N74" s="27">
+      <c r="N75" s="24">
         <v>3695.4581032397491</v>
       </c>
-      <c r="O74" s="27">
+      <c r="O75" s="24">
         <v>592.54793959300025</v>
       </c>
-      <c r="P74" s="27">
+      <c r="P75" s="24">
         <v>8.0988788035407904</v>
       </c>
-      <c r="Q74" s="27">
+      <c r="Q75" s="24">
         <v>68.810378116999999</v>
       </c>
-      <c r="R74" s="27">
+      <c r="R75" s="24">
         <v>88.897206580000002</v>
       </c>
-      <c r="S74" s="28">
+      <c r="S75" s="25">
         <v>0.25804250200000001</v>
       </c>
     </row>
-    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="29">
+    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="26">
         <v>2018</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C76" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D76" s="28">
         <f t="shared" si="5"/>
         <v>10362</v>
       </c>
-      <c r="E75" s="32">
+      <c r="E76" s="29">
         <v>3606</v>
       </c>
-      <c r="F75" s="32">
+      <c r="F76" s="29">
         <v>4918</v>
       </c>
-      <c r="G75" s="32">
+      <c r="G76" s="29">
         <v>1307</v>
       </c>
-      <c r="H75" s="32">
+      <c r="H76" s="29">
         <v>208</v>
       </c>
-      <c r="I75" s="32">
+      <c r="I76" s="29">
         <v>280</v>
       </c>
-      <c r="J75" s="32">
+      <c r="J76" s="29">
         <v>34</v>
       </c>
-      <c r="K75" s="32">
+      <c r="K76" s="29">
         <v>9</v>
       </c>
-      <c r="L75" s="31">
+      <c r="L76" s="28">
         <f t="shared" si="6"/>
         <v>7145</v>
       </c>
-      <c r="M75" s="32">
+      <c r="M76" s="29">
         <v>2425</v>
       </c>
-      <c r="N75" s="32">
+      <c r="N76" s="29">
         <v>3948</v>
       </c>
-      <c r="O75" s="32">
+      <c r="O76" s="29">
         <v>638</v>
       </c>
-      <c r="P75" s="32">
+      <c r="P76" s="29">
         <v>8</v>
       </c>
-      <c r="Q75" s="32">
+      <c r="Q76" s="29">
         <v>74</v>
       </c>
-      <c r="R75" s="32">
+      <c r="R76" s="29">
         <v>52</v>
       </c>
-      <c r="S75" s="33"/>
-    </row>
-    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="14">
+      <c r="S76" s="30"/>
+    </row>
+    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="11">
         <v>2018</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="13">
         <f t="shared" si="5"/>
         <v>10847</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="14">
         <v>3612</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="14">
         <v>5385</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G77" s="14">
         <v>1299</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H77" s="14">
         <v>213</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I77" s="14">
         <v>284</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J77" s="14">
         <v>38</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K77" s="14">
         <v>16</v>
       </c>
-      <c r="L76" s="16">
+      <c r="L77" s="13">
         <f t="shared" si="6"/>
         <v>7655</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M77" s="14">
         <v>2466</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N77" s="14">
         <v>4397</v>
       </c>
-      <c r="O76" s="17">
+      <c r="O77" s="14">
         <v>669</v>
       </c>
-      <c r="P76" s="17">
+      <c r="P77" s="14">
         <v>8</v>
       </c>
-      <c r="Q76" s="17">
+      <c r="Q77" s="14">
         <v>74</v>
       </c>
-      <c r="R76" s="17">
+      <c r="R77" s="14">
         <v>41</v>
       </c>
-      <c r="S76" s="18"/>
-    </row>
-    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="19">
+      <c r="S77" s="15"/>
+    </row>
+    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="16">
         <v>2018</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D78" s="18">
         <f t="shared" si="5"/>
         <v>10926</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E78" s="19">
         <v>3805</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F78" s="19">
         <v>5324</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G78" s="19">
         <v>1340</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H78" s="19">
         <v>137</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I78" s="19">
         <v>273</v>
       </c>
-      <c r="J77" s="22">
+      <c r="J78" s="19">
         <v>27</v>
       </c>
-      <c r="K77" s="22">
+      <c r="K78" s="19">
         <v>20</v>
       </c>
-      <c r="L77" s="21">
+      <c r="L78" s="18">
         <f t="shared" si="6"/>
         <v>7509</v>
       </c>
-      <c r="M77" s="22">
+      <c r="M78" s="19">
         <v>2604</v>
       </c>
-      <c r="N77" s="22">
+      <c r="N78" s="19">
         <v>4133</v>
       </c>
-      <c r="O77" s="22">
+      <c r="O78" s="19">
         <v>655</v>
       </c>
-      <c r="P77" s="22">
+      <c r="P78" s="19">
         <v>4</v>
       </c>
-      <c r="Q77" s="22">
+      <c r="Q78" s="19">
         <v>72</v>
       </c>
-      <c r="R77" s="22">
+      <c r="R78" s="19">
         <v>41</v>
       </c>
-      <c r="S77" s="23"/>
-    </row>
-    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="14">
+      <c r="S78" s="20"/>
+    </row>
+    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="11">
         <v>2018</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="13">
         <f t="shared" si="5"/>
         <v>10257</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="14">
         <v>3485</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="14">
         <v>4900</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G79" s="14">
         <v>1349</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H79" s="14">
         <v>208</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I79" s="14">
         <v>260</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J79" s="14">
         <v>42</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K79" s="14">
         <v>13</v>
       </c>
-      <c r="L78" s="16">
+      <c r="L79" s="13">
         <f t="shared" si="6"/>
         <v>7135</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M79" s="14">
         <v>2350</v>
       </c>
-      <c r="N78" s="17">
+      <c r="N79" s="14">
         <v>4008</v>
       </c>
-      <c r="O78" s="17">
+      <c r="O79" s="14">
         <v>655</v>
       </c>
-      <c r="P78" s="17">
+      <c r="P79" s="14">
         <v>8</v>
       </c>
-      <c r="Q78" s="17">
+      <c r="Q79" s="14">
         <v>63</v>
       </c>
-      <c r="R78" s="17">
+      <c r="R79" s="14">
         <v>51</v>
       </c>
-      <c r="S78" s="18"/>
-    </row>
-    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="19">
+      <c r="S79" s="15"/>
+    </row>
+    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="16">
         <v>2018</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C80" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D80" s="18">
         <f t="shared" si="5"/>
         <v>10917</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E80" s="19">
         <v>3674</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F80" s="19">
         <v>5279</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G80" s="19">
         <v>1420</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H80" s="19">
         <v>210</v>
       </c>
-      <c r="I79" s="22">
+      <c r="I80" s="19">
         <v>270</v>
       </c>
-      <c r="J79" s="22">
+      <c r="J80" s="19">
         <v>45</v>
       </c>
-      <c r="K79" s="22">
+      <c r="K80" s="19">
         <v>19</v>
       </c>
-      <c r="L79" s="21">
+      <c r="L80" s="18">
         <f t="shared" si="6"/>
         <v>7620</v>
       </c>
-      <c r="M79" s="22">
+      <c r="M80" s="19">
         <v>2514</v>
       </c>
-      <c r="N79" s="22">
+      <c r="N80" s="19">
         <v>4292</v>
       </c>
-      <c r="O79" s="22">
+      <c r="O80" s="19">
         <v>680</v>
       </c>
-      <c r="P79" s="22">
+      <c r="P80" s="19">
         <v>8</v>
       </c>
-      <c r="Q79" s="22">
+      <c r="Q80" s="19">
         <v>69</v>
       </c>
-      <c r="R79" s="22">
+      <c r="R80" s="19">
         <v>57</v>
       </c>
-      <c r="S79" s="23"/>
-    </row>
-    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="14">
+      <c r="S80" s="20"/>
+    </row>
+    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="13">
         <f t="shared" si="5"/>
         <v>11147</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="14">
         <v>3756</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="14">
         <v>5273</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="14">
         <v>1541</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="14">
         <v>217</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I81" s="14">
         <v>308</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J81" s="14">
         <v>42</v>
       </c>
-      <c r="K80" s="17">
+      <c r="K81" s="14">
         <v>10</v>
       </c>
-      <c r="L80" s="16">
+      <c r="L81" s="13">
         <f t="shared" si="6"/>
         <v>7610</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M81" s="14">
         <v>2530</v>
       </c>
-      <c r="N80" s="17">
+      <c r="N81" s="14">
         <v>4228</v>
       </c>
-      <c r="O80" s="17">
+      <c r="O81" s="14">
         <v>716</v>
       </c>
-      <c r="P80" s="17">
+      <c r="P81" s="14">
         <v>8</v>
       </c>
-      <c r="Q80" s="17">
+      <c r="Q81" s="14">
         <v>77</v>
       </c>
-      <c r="R80" s="17">
+      <c r="R81" s="14">
         <v>51</v>
       </c>
-      <c r="S80" s="18"/>
-    </row>
-    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="19">
+      <c r="S81" s="15"/>
+    </row>
+    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="16">
         <v>2018</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D82" s="18">
         <f t="shared" si="5"/>
         <v>10948</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E82" s="19">
         <v>3657</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F82" s="19">
         <v>5338</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G82" s="19">
         <v>1355</v>
       </c>
-      <c r="H81" s="22">
+      <c r="H82" s="19">
         <v>247</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I82" s="19">
         <v>283</v>
       </c>
-      <c r="J81" s="22">
+      <c r="J82" s="19">
         <v>56</v>
       </c>
-      <c r="K81" s="22">
+      <c r="K82" s="19">
         <v>12</v>
       </c>
-      <c r="L81" s="21">
+      <c r="L82" s="18">
         <f t="shared" si="6"/>
         <v>7627</v>
       </c>
-      <c r="M81" s="22">
+      <c r="M82" s="19">
         <v>2524</v>
       </c>
-      <c r="N81" s="22">
+      <c r="N82" s="19">
         <v>4291</v>
       </c>
-      <c r="O81" s="22">
+      <c r="O82" s="19">
         <v>673</v>
       </c>
-      <c r="P81" s="22">
+      <c r="P82" s="19">
         <v>9</v>
       </c>
-      <c r="Q81" s="22">
+      <c r="Q82" s="19">
         <v>74</v>
       </c>
-      <c r="R81" s="22">
+      <c r="R82" s="19">
         <v>56</v>
       </c>
-      <c r="S81" s="23"/>
-    </row>
-    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="14">
+      <c r="S82" s="20"/>
+    </row>
+    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="13">
         <f t="shared" si="5"/>
         <v>11358</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="14">
         <v>3901</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="14">
         <v>5805</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G83" s="14">
         <v>1068</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H83" s="14">
         <v>198</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I83" s="14">
         <v>302</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J83" s="14">
         <v>64</v>
       </c>
-      <c r="K82" s="17">
+      <c r="K83" s="14">
         <v>20</v>
       </c>
-      <c r="L82" s="16">
+      <c r="L83" s="13">
         <f t="shared" si="6"/>
         <v>7899</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M83" s="14">
         <v>2695</v>
       </c>
-      <c r="N82" s="17">
+      <c r="N83" s="14">
         <v>4507</v>
       </c>
-      <c r="O82" s="17">
+      <c r="O83" s="14">
         <v>556</v>
       </c>
-      <c r="P82" s="17">
+      <c r="P83" s="14">
         <v>8</v>
       </c>
-      <c r="Q82" s="17">
+      <c r="Q83" s="14">
         <v>78</v>
       </c>
-      <c r="R82" s="17">
+      <c r="R83" s="14">
         <v>55</v>
       </c>
-      <c r="S82" s="18"/>
-    </row>
-    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="19">
+      <c r="S83" s="15"/>
+    </row>
+    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="16">
         <v>2018</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C84" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D84" s="18">
         <f t="shared" si="5"/>
         <v>10769</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E84" s="19">
         <v>3736</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F84" s="19">
         <v>5158</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G84" s="19">
         <v>1304</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H84" s="19">
         <v>210</v>
       </c>
-      <c r="I83" s="22">
+      <c r="I84" s="19">
         <v>309</v>
       </c>
-      <c r="J83" s="22">
+      <c r="J84" s="19">
         <v>38</v>
       </c>
-      <c r="K83" s="22">
+      <c r="K84" s="19">
         <v>14</v>
       </c>
-      <c r="L83" s="21">
+      <c r="L84" s="18">
         <f t="shared" si="6"/>
         <v>7284</v>
       </c>
-      <c r="M83" s="22">
+      <c r="M84" s="19">
         <v>2592</v>
       </c>
-      <c r="N83" s="22">
+      <c r="N84" s="19">
         <v>3860</v>
       </c>
-      <c r="O83" s="22">
+      <c r="O84" s="19">
         <v>701</v>
       </c>
-      <c r="P83" s="22">
+      <c r="P84" s="19">
         <v>8</v>
       </c>
-      <c r="Q83" s="22">
+      <c r="Q84" s="19">
         <v>73</v>
       </c>
-      <c r="R83" s="22">
+      <c r="R84" s="19">
         <v>50</v>
       </c>
-      <c r="S83" s="23"/>
-    </row>
-    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="14">
+      <c r="S84" s="20"/>
+    </row>
+    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="13">
         <f t="shared" si="5"/>
         <v>10595</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="14">
         <v>3510</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="14">
         <v>5158</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G85" s="14">
         <v>1332</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H85" s="14">
         <v>223</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="14">
         <v>307</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J85" s="14">
         <v>50</v>
       </c>
-      <c r="K84" s="17">
+      <c r="K85" s="14">
         <v>15</v>
       </c>
-      <c r="L84" s="16">
+      <c r="L85" s="13">
         <f t="shared" si="6"/>
         <v>7079</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M85" s="14">
         <v>2512</v>
       </c>
-      <c r="N84" s="17">
+      <c r="N85" s="14">
         <v>3719</v>
       </c>
-      <c r="O84" s="17">
+      <c r="O85" s="14">
         <v>718</v>
       </c>
-      <c r="P84" s="17">
+      <c r="P85" s="14">
         <v>9</v>
       </c>
-      <c r="Q84" s="17">
+      <c r="Q85" s="14">
         <v>68</v>
       </c>
-      <c r="R84" s="17">
+      <c r="R85" s="14">
         <v>53</v>
       </c>
-      <c r="S84" s="18"/>
-    </row>
-    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="19">
+      <c r="S85" s="15"/>
+    </row>
+    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C86" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D86" s="18">
         <f t="shared" si="5"/>
         <v>9439</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E86" s="19">
         <v>3213</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F86" s="19">
         <v>4478</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G86" s="19">
         <v>1214</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H86" s="19">
         <v>203</v>
       </c>
-      <c r="I85" s="22">
+      <c r="I86" s="19">
         <v>273</v>
       </c>
-      <c r="J85" s="22">
+      <c r="J86" s="19">
         <v>50</v>
       </c>
-      <c r="K85" s="22">
+      <c r="K86" s="19">
         <v>8</v>
       </c>
-      <c r="L85" s="21">
+      <c r="L86" s="18">
         <f t="shared" si="6"/>
         <v>6237</v>
       </c>
-      <c r="M85" s="22">
+      <c r="M86" s="19">
         <v>2209</v>
       </c>
-      <c r="N85" s="22">
+      <c r="N86" s="19">
         <v>3275</v>
       </c>
-      <c r="O85" s="22">
+      <c r="O86" s="19">
         <v>646</v>
       </c>
-      <c r="P85" s="22">
+      <c r="P86" s="19">
         <v>8</v>
       </c>
-      <c r="Q85" s="22">
+      <c r="Q86" s="19">
         <v>60</v>
       </c>
-      <c r="R85" s="22">
+      <c r="R86" s="19">
         <v>39</v>
       </c>
-      <c r="S85" s="23"/>
-    </row>
-    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="24">
+      <c r="S86" s="20"/>
+    </row>
+    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="21">
         <v>2018</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C87" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="26">
+      <c r="D87" s="23">
         <f t="shared" si="5"/>
         <v>10479</v>
       </c>
-      <c r="E86" s="27">
+      <c r="E87" s="24">
         <v>3653</v>
       </c>
-      <c r="F86" s="27">
+      <c r="F87" s="24">
         <v>4773</v>
       </c>
-      <c r="G86" s="27">
+      <c r="G87" s="24">
         <v>1398</v>
       </c>
-      <c r="H86" s="27">
+      <c r="H87" s="24">
         <v>287</v>
       </c>
-      <c r="I86" s="27">
+      <c r="I87" s="24">
         <v>312</v>
       </c>
-      <c r="J86" s="27">
+      <c r="J87" s="24">
         <v>47</v>
       </c>
-      <c r="K86" s="27">
+      <c r="K87" s="24">
         <v>9</v>
       </c>
-      <c r="L86" s="26">
+      <c r="L87" s="23">
         <f t="shared" si="6"/>
         <v>7153</v>
       </c>
-      <c r="M86" s="27">
+      <c r="M87" s="24">
         <v>2519</v>
       </c>
-      <c r="N86" s="27">
+      <c r="N87" s="24">
         <v>3737</v>
       </c>
-      <c r="O86" s="27">
+      <c r="O87" s="24">
         <v>754</v>
       </c>
-      <c r="P86" s="27">
+      <c r="P87" s="24">
         <v>11</v>
       </c>
-      <c r="Q86" s="27">
+      <c r="Q87" s="24">
         <v>66</v>
       </c>
-      <c r="R86" s="27">
+      <c r="R87" s="24">
         <v>65</v>
       </c>
-      <c r="S86" s="28">
+      <c r="S87" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B87" s="34" t="s">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B88" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B88" s="2" t="s">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S88" s="35"/>
+      <c r="S89" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87332CC-3AC9-48F4-961E-5B81DFD09800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C2BBD8-5B1F-427D-8C7D-7886FF6FFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -759,13 +759,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -786,6 +779,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -837,8 +837,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S87" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
-  <autoFilter ref="B5:S87" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S89" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+  <autoFilter ref="B5:S89" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1094,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:S89"/>
+  <dimension ref="B2:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1223,115 +1223,115 @@
         <v>2024</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="18">
-        <f>SUM(E6:K6)</f>
-        <v>10627.751215000002</v>
+        <f t="shared" ref="D6:D7" si="0">SUM(E6:K6)</f>
+        <v>10531.168920500006</v>
       </c>
       <c r="E6" s="19">
-        <v>4621.2502850000001</v>
+        <v>4403.8653655000062</v>
       </c>
       <c r="F6" s="19">
-        <v>4847.8326420000003</v>
+        <v>4561.0179649999991</v>
       </c>
       <c r="G6" s="19">
-        <v>883.41127600000004</v>
+        <v>1249.3825690000003</v>
       </c>
       <c r="H6" s="19">
-        <v>164.42353700000001</v>
+        <v>185.75494600000002</v>
       </c>
       <c r="I6" s="19">
-        <v>86.575890000000001</v>
+        <v>92.695411999999536</v>
       </c>
       <c r="J6" s="19">
-        <v>8.5300799999999999</v>
+        <v>22.807550000000003</v>
       </c>
       <c r="K6" s="19">
-        <v>15.727505000000001</v>
+        <v>15.645113000000002</v>
       </c>
       <c r="L6" s="18">
-        <f t="shared" ref="L6:L16" si="0">SUM(M6:S6)</f>
-        <v>7740.7245669875992</v>
+        <f>SUM(M6:S6)</f>
+        <v>7573.6432846844991</v>
       </c>
       <c r="M6" s="19">
-        <v>3074.0600736719998</v>
+        <v>2985.2792777564991</v>
       </c>
       <c r="N6" s="19">
-        <v>4209.4804649380003</v>
+        <v>3977.6579078809991</v>
       </c>
       <c r="O6" s="19">
-        <v>420.6767304</v>
+        <v>564.31985714999962</v>
       </c>
       <c r="P6" s="19">
-        <v>5.6841813920000002</v>
+        <v>6.0120059109999984</v>
       </c>
       <c r="Q6" s="19">
-        <v>27.009476482</v>
+        <v>24.991510190000174</v>
       </c>
       <c r="R6" s="19">
-        <v>3.5642458335999998</v>
+        <v>15.075261706000004</v>
       </c>
       <c r="S6" s="20">
-        <v>0.24939427</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.30746408999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" s="11">
         <v>2024</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="13">
-        <f>SUM(E7:K7)</f>
-        <v>10170.542102500001</v>
+        <f t="shared" si="0"/>
+        <v>10293.216345500003</v>
       </c>
       <c r="E7" s="14">
-        <v>4225.2215324999997</v>
+        <v>4074.3531224999974</v>
       </c>
       <c r="F7" s="14">
-        <v>4638.9146110000001</v>
+        <v>4591.2098260000075</v>
       </c>
       <c r="G7" s="14">
-        <v>1003.004611</v>
+        <v>1250.6662779999986</v>
       </c>
       <c r="H7" s="14">
-        <v>176.79925700000001</v>
+        <v>236.92333399999995</v>
       </c>
       <c r="I7" s="14">
-        <v>101.900481</v>
+        <v>107.48781899999955</v>
       </c>
       <c r="J7" s="14">
-        <v>8.8647200000000002</v>
+        <v>17.693559999999998</v>
       </c>
       <c r="K7" s="14">
-        <v>15.83689</v>
+        <v>14.882406000000001</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" si="0"/>
-        <v>7310.5741896424306</v>
+        <f>SUM(M7:S7)</f>
+        <v>7483.7337101601415</v>
       </c>
       <c r="M7" s="14">
-        <v>2773.4403533764998</v>
+        <v>2727.5133536075004</v>
       </c>
       <c r="N7" s="14">
-        <v>3963.623746364</v>
+        <v>4141.6578731970003</v>
       </c>
       <c r="O7" s="14">
-        <v>532.89884495000001</v>
+        <v>563.5016914100006</v>
       </c>
       <c r="P7" s="14">
-        <v>5.771046664</v>
+        <v>8.2360092920000021</v>
       </c>
       <c r="Q7" s="14">
-        <v>25.803035709</v>
+        <v>29.147426476000163</v>
       </c>
       <c r="R7" s="14">
-        <v>8.7877683089299996</v>
+        <v>13.431654407639998</v>
       </c>
       <c r="S7" s="15">
-        <v>0.24939427</v>
+        <v>0.24570176999999996</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.45">
@@ -1339,115 +1339,115 @@
         <v>2024</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D8" s="18">
-        <f>SUM(E8:K8)</f>
-        <v>11251.137121</v>
+        <f t="shared" ref="D8:D13" si="1">SUM(E8:K8)</f>
+        <v>10627.751215000002</v>
       </c>
       <c r="E8" s="19">
-        <v>4380.0285290000002</v>
+        <v>4621.2502850000001</v>
       </c>
       <c r="F8" s="19">
-        <v>5224.974502</v>
+        <v>4847.8326420000003</v>
       </c>
       <c r="G8" s="19">
-        <v>1317.7201729999999</v>
+        <v>883.41127600000004</v>
       </c>
       <c r="H8" s="19">
-        <v>177.187535</v>
+        <v>164.42353700000001</v>
       </c>
       <c r="I8" s="19">
-        <v>105.991382</v>
+        <v>86.575890000000001</v>
       </c>
       <c r="J8" s="19">
-        <v>30.662199999999999</v>
+        <v>8.5300799999999999</v>
       </c>
       <c r="K8" s="19">
-        <v>14.572800000000001</v>
+        <v>15.727505000000001</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="0"/>
-        <v>8231.3888027003995</v>
+        <f t="shared" ref="L6:L10" si="2">SUM(M8:S8)</f>
+        <v>7740.759690927599</v>
       </c>
       <c r="M8" s="19">
-        <v>2880.310271714</v>
+        <v>3074.0600736719998</v>
       </c>
       <c r="N8" s="19">
-        <v>4609.8136975879997</v>
+        <v>4209.4804649380003</v>
       </c>
       <c r="O8" s="19">
-        <v>698.22568952999995</v>
+        <v>420.6767304</v>
       </c>
       <c r="P8" s="19">
-        <v>5.5616272489999998</v>
+        <v>5.6841813920000002</v>
       </c>
       <c r="Q8" s="19">
-        <v>26.096916030999999</v>
+        <v>27.009476482</v>
       </c>
       <c r="R8" s="19">
-        <v>11.0747022284</v>
+        <v>3.5642458335999998</v>
       </c>
       <c r="S8" s="20">
-        <v>0.30589835999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+        <v>0.28451820999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="11">
         <v>2024</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D9" s="13">
-        <f>SUM(E9:K9)</f>
-        <v>11073.580067999997</v>
+        <f t="shared" si="1"/>
+        <v>10170.542102500001</v>
       </c>
       <c r="E9" s="14">
-        <v>4264.3103259999998</v>
+        <v>4225.2215324999997</v>
       </c>
       <c r="F9" s="14">
-        <v>5088.2590179999997</v>
+        <v>4638.9146110000001</v>
       </c>
       <c r="G9" s="14">
-        <v>1297.469726</v>
+        <v>1003.004611</v>
       </c>
       <c r="H9" s="14">
-        <v>268.56850200000002</v>
+        <v>176.79925700000001</v>
       </c>
       <c r="I9" s="14">
-        <v>126.038926</v>
+        <v>101.900481</v>
       </c>
       <c r="J9" s="14">
-        <v>8.8992199999999997</v>
+        <v>8.8647200000000002</v>
       </c>
       <c r="K9" s="14">
-        <v>20.03435</v>
+        <v>15.83689</v>
       </c>
       <c r="L9" s="13">
-        <f t="shared" si="0"/>
-        <v>7865.3882907427005</v>
+        <f t="shared" si="2"/>
+        <v>7310.5741896424306</v>
       </c>
       <c r="M9" s="14">
-        <v>2769.2323164145</v>
+        <v>2773.4403533764998</v>
       </c>
       <c r="N9" s="14">
-        <v>4334.8919746190004</v>
+        <v>3963.623746364</v>
       </c>
       <c r="O9" s="14">
-        <v>700.48098283000002</v>
+        <v>532.89884495000001</v>
       </c>
       <c r="P9" s="14">
-        <v>10.097477002</v>
+        <v>5.771046664</v>
       </c>
       <c r="Q9" s="14">
-        <v>37.109888814999998</v>
+        <v>25.803035709</v>
       </c>
       <c r="R9" s="14">
-        <v>13.1854440822</v>
+        <v>8.7877683089299996</v>
       </c>
       <c r="S9" s="15">
-        <v>0.39020697999999998</v>
+        <v>0.24939427</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.45">
@@ -1455,57 +1455,57 @@
         <v>2024</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="18">
-        <f>SUM(E10:K10)</f>
-        <v>11161.666198499997</v>
+        <f t="shared" si="1"/>
+        <v>11251.137121</v>
       </c>
       <c r="E10" s="19">
-        <v>4078.3567754999999</v>
+        <v>4380.0285290000002</v>
       </c>
       <c r="F10" s="19">
-        <v>5481.9287759999997</v>
+        <v>5224.974502</v>
       </c>
       <c r="G10" s="19">
-        <v>1221.811635</v>
+        <v>1317.7201729999999</v>
       </c>
       <c r="H10" s="19">
-        <v>239.36940000000001</v>
+        <v>177.187535</v>
       </c>
       <c r="I10" s="19">
-        <v>105.50866000000001</v>
+        <v>105.991382</v>
       </c>
       <c r="J10" s="19">
-        <v>9.2501800000000003</v>
+        <v>30.662199999999999</v>
       </c>
       <c r="K10" s="19">
-        <v>25.440771999999999</v>
+        <v>14.572800000000001</v>
       </c>
       <c r="L10" s="18">
-        <f t="shared" si="0"/>
-        <v>7988.2967723501006</v>
+        <f t="shared" si="2"/>
+        <v>8231.3888027003995</v>
       </c>
       <c r="M10" s="19">
-        <v>2693.4096534265</v>
+        <v>2880.310271714</v>
       </c>
       <c r="N10" s="19">
-        <v>4598.9796150089996</v>
+        <v>4609.8136975879997</v>
       </c>
       <c r="O10" s="19">
-        <v>647.17524848999994</v>
+        <v>698.22568952999995</v>
       </c>
       <c r="P10" s="19">
-        <v>8.870226637</v>
+        <v>5.5616272489999998</v>
       </c>
       <c r="Q10" s="19">
-        <v>29.502148497</v>
+        <v>26.096916030999999</v>
       </c>
       <c r="R10" s="19">
-        <v>9.9230392236</v>
+        <v>11.0747022284</v>
       </c>
       <c r="S10" s="20">
-        <v>0.43684106700000003</v>
+        <v>0.30589835999999998</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.45">
@@ -1513,57 +1513,57 @@
         <v>2024</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="13">
-        <f>SUM(E11:K11)</f>
-        <v>11385.153779999999</v>
+        <f t="shared" si="1"/>
+        <v>11073.580067999997</v>
       </c>
       <c r="E11" s="14">
-        <v>4088.3985170000001</v>
+        <v>4264.3103259999998</v>
       </c>
       <c r="F11" s="14">
-        <v>5559.3460809999997</v>
+        <v>5088.2590179999997</v>
       </c>
       <c r="G11" s="14">
-        <v>1362.2324040000001</v>
+        <v>1297.469726</v>
       </c>
       <c r="H11" s="14">
-        <v>242.53355500000001</v>
+        <v>268.56850200000002</v>
       </c>
       <c r="I11" s="14">
-        <v>103.72531499999999</v>
+        <v>126.038926</v>
       </c>
       <c r="J11" s="14">
-        <v>4.8760000000000003</v>
+        <v>8.8992199999999997</v>
       </c>
       <c r="K11" s="14">
-        <v>24.041907999999999</v>
+        <v>20.03435</v>
       </c>
       <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>8010.7375229999998</v>
+        <f t="shared" ref="L8:L18" si="3">SUM(M11:S11)</f>
+        <v>7865.3882907427005</v>
       </c>
       <c r="M11" s="14">
-        <v>2674.0050620000002</v>
+        <v>2769.2323164145</v>
       </c>
       <c r="N11" s="14">
-        <v>4545.2049290000004</v>
+        <v>4334.8919746190004</v>
       </c>
       <c r="O11" s="14">
-        <v>749.43216500000005</v>
+        <v>700.48098283000002</v>
       </c>
       <c r="P11" s="14">
-        <v>9.3834619999999997</v>
+        <v>10.097477002</v>
       </c>
       <c r="Q11" s="14">
-        <v>27.699843999999999</v>
+        <v>37.109888814999998</v>
       </c>
       <c r="R11" s="14">
-        <v>4.5218790000000002</v>
+        <v>13.1854440822</v>
       </c>
       <c r="S11" s="15">
-        <v>0.49018200000000001</v>
+        <v>0.39020697999999998</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.45">
@@ -1571,57 +1571,57 @@
         <v>2024</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="18">
-        <f t="shared" ref="D12:D26" si="1">SUM(E12:K12)</f>
-        <v>11518.385950000002</v>
+        <f t="shared" si="1"/>
+        <v>11161.666198499997</v>
       </c>
       <c r="E12" s="19">
-        <v>4300.1912899999998</v>
+        <v>4078.3567754999999</v>
       </c>
       <c r="F12" s="19">
-        <v>5629.5263320000004</v>
+        <v>5481.9287759999997</v>
       </c>
       <c r="G12" s="19">
-        <v>1319.029931</v>
+        <v>1221.811635</v>
       </c>
       <c r="H12" s="19">
-        <v>139.10685699999999</v>
+        <v>239.36940000000001</v>
       </c>
       <c r="I12" s="19">
-        <v>105.14566000000001</v>
+        <v>105.50866000000001</v>
       </c>
       <c r="J12" s="19">
-        <v>0</v>
+        <v>9.2501800000000003</v>
       </c>
       <c r="K12" s="19">
-        <v>25.38588</v>
+        <v>25.440771999999999</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" si="0"/>
-        <v>8190.6107430000002</v>
+        <f t="shared" si="3"/>
+        <v>7988.2967723501006</v>
       </c>
       <c r="M12" s="19">
-        <v>2859.8718090000002</v>
+        <v>2693.4096534265</v>
       </c>
       <c r="N12" s="19">
-        <v>4557.1561849999998</v>
+        <v>4598.9796150089996</v>
       </c>
       <c r="O12" s="19">
-        <v>740.54377399999998</v>
+        <v>647.17524848999994</v>
       </c>
       <c r="P12" s="19">
-        <v>3.9488479999999999</v>
+        <v>8.870226637</v>
       </c>
       <c r="Q12" s="19">
-        <v>27.069296000000001</v>
+        <v>29.502148497</v>
       </c>
       <c r="R12" s="19">
-        <v>1.465068</v>
+        <v>9.9230392236</v>
       </c>
       <c r="S12" s="20">
-        <v>0.55576300000000001</v>
+        <v>0.43684106700000003</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.45">
@@ -1629,57 +1629,57 @@
         <v>2024</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="1"/>
-        <v>12058.836555</v>
+        <v>11385.153779999999</v>
       </c>
       <c r="E13" s="14">
-        <v>4563.5082670000002</v>
+        <v>4088.3985170000001</v>
       </c>
       <c r="F13" s="14">
-        <v>5992.8884459999999</v>
+        <v>5559.3460809999997</v>
       </c>
       <c r="G13" s="14">
-        <v>1246.3373630000001</v>
+        <v>1362.2324040000001</v>
       </c>
       <c r="H13" s="14">
-        <v>139.10685699999999</v>
+        <v>242.53355500000001</v>
       </c>
       <c r="I13" s="14">
-        <v>96.219672000000003</v>
+        <v>103.72531499999999</v>
       </c>
       <c r="J13" s="14">
-        <v>0</v>
+        <v>4.8760000000000003</v>
       </c>
       <c r="K13" s="14">
-        <v>20.775950000000002</v>
+        <v>24.041907999999999</v>
       </c>
       <c r="L13" s="13">
-        <f t="shared" si="0"/>
-        <v>8839.7330359999996</v>
+        <f t="shared" si="3"/>
+        <v>8010.7375229999998</v>
       </c>
       <c r="M13" s="14">
-        <v>2957.5938150000002</v>
+        <v>2674.0050620000002</v>
       </c>
       <c r="N13" s="14">
-        <v>5127.0620630000003</v>
+        <v>4545.2049290000004</v>
       </c>
       <c r="O13" s="14">
-        <v>721.55657799999994</v>
+        <v>749.43216500000005</v>
       </c>
       <c r="P13" s="14">
-        <v>3.9488479999999999</v>
+        <v>9.3834619999999997</v>
       </c>
       <c r="Q13" s="14">
-        <v>26.56606</v>
+        <v>27.699843999999999</v>
       </c>
       <c r="R13" s="14">
-        <v>2.5492699999999999</v>
+        <v>4.5218790000000002</v>
       </c>
       <c r="S13" s="15">
-        <v>0.45640199999999997</v>
+        <v>0.49018200000000001</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.45">
@@ -1687,289 +1687,289 @@
         <v>2024</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="18">
-        <f t="shared" si="1"/>
-        <v>11342.527755999999</v>
+        <f t="shared" ref="D14:D28" si="4">SUM(E14:K14)</f>
+        <v>11518.385950000002</v>
       </c>
       <c r="E14" s="19">
-        <v>4257.7457569999997</v>
+        <v>4300.1912899999998</v>
       </c>
       <c r="F14" s="19">
-        <v>5478.1561410000004</v>
+        <v>5629.5263320000004</v>
       </c>
       <c r="G14" s="19">
-        <v>1150.5672</v>
+        <v>1319.029931</v>
       </c>
       <c r="H14" s="19">
-        <v>347.88340299999999</v>
+        <v>139.10685699999999</v>
       </c>
       <c r="I14" s="19">
-        <v>97.409684999999996</v>
+        <v>105.14566000000001</v>
       </c>
       <c r="J14" s="19">
         <v>0</v>
       </c>
       <c r="K14" s="19">
+        <v>25.38588</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="3"/>
+        <v>8190.6107430000002</v>
+      </c>
+      <c r="M14" s="19">
+        <v>2859.8718090000002</v>
+      </c>
+      <c r="N14" s="19">
+        <v>4557.1561849999998</v>
+      </c>
+      <c r="O14" s="19">
+        <v>740.54377399999998</v>
+      </c>
+      <c r="P14" s="19">
+        <v>3.9488479999999999</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>27.069296000000001</v>
+      </c>
+      <c r="R14" s="19">
+        <v>1.465068</v>
+      </c>
+      <c r="S14" s="20">
+        <v>0.55576300000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="4"/>
+        <v>12058.836555</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4563.5082670000002</v>
+      </c>
+      <c r="F15" s="14">
+        <v>5992.8884459999999</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1246.3373630000001</v>
+      </c>
+      <c r="H15" s="14">
+        <v>139.10685699999999</v>
+      </c>
+      <c r="I15" s="14">
+        <v>96.219672000000003</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <v>20.775950000000002</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="3"/>
+        <v>8839.7330359999996</v>
+      </c>
+      <c r="M15" s="14">
+        <v>2957.5938150000002</v>
+      </c>
+      <c r="N15" s="14">
+        <v>5127.0620630000003</v>
+      </c>
+      <c r="O15" s="14">
+        <v>721.55657799999994</v>
+      </c>
+      <c r="P15" s="14">
+        <v>3.9488479999999999</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>26.56606</v>
+      </c>
+      <c r="R15" s="14">
+        <v>2.5492699999999999</v>
+      </c>
+      <c r="S15" s="15">
+        <v>0.45640199999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B16" s="16">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="4"/>
+        <v>11342.527755999999</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4257.7457569999997</v>
+      </c>
+      <c r="F16" s="19">
+        <v>5478.1561410000004</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1150.5672</v>
+      </c>
+      <c r="H16" s="19">
+        <v>347.88340299999999</v>
+      </c>
+      <c r="I16" s="19">
+        <v>97.409684999999996</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
         <v>10.76557</v>
       </c>
-      <c r="L14" s="18">
-        <f t="shared" si="0"/>
+      <c r="L16" s="18">
+        <f t="shared" si="3"/>
         <v>8187.4507680000006</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M16" s="19">
         <v>2792.3728390000001</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N16" s="19">
         <v>4673.1630869999999</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O16" s="19">
         <v>679.80545600000005</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P16" s="19">
         <v>8.3948649999999994</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q16" s="19">
         <v>26.664881000000001</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R16" s="19">
         <v>6.8661019999999997</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S16" s="20">
         <v>0.18353800000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B15" s="21">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B17" s="21">
         <v>2024</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="23">
-        <f t="shared" si="1"/>
+      <c r="D17" s="23">
+        <f t="shared" si="4"/>
         <v>11272.010199999999</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E17" s="24">
         <v>4393.4066000000003</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F17" s="24">
         <v>5359.7539999999999</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G17" s="24">
         <v>1270.1172999999999</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H17" s="24">
         <v>121.57129999999999</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I17" s="24">
         <v>106.0236</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J17" s="24">
         <v>0</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K17" s="24">
         <v>21.1374</v>
       </c>
-      <c r="L15" s="23">
-        <f t="shared" si="0"/>
+      <c r="L17" s="23">
+        <f t="shared" si="3"/>
         <v>8342.0510054124934</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M17" s="24">
         <v>2834.6025592114943</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N17" s="24">
         <v>4774.6108969999996</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O17" s="24">
         <v>698.27653098200028</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P17" s="24">
         <v>3.7847089999999994</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q17" s="24">
         <v>28.277445269000239</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R17" s="24">
         <v>2.0259563599999999</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S17" s="25">
         <v>0.47290758999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="26">
+    <row r="18" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="26">
         <v>2023</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="28">
-        <f t="shared" si="1"/>
+      <c r="D18" s="28">
+        <f t="shared" si="4"/>
         <v>10530.152879999996</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E18" s="29">
         <v>4309.4661199999991</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F18" s="29">
         <v>4678.9765120000002</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G18" s="29">
         <v>1229.369512</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H18" s="29">
         <v>196.09364099999999</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I18" s="29">
         <v>98.409154999999998</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J18" s="29">
         <v>0</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K18" s="29">
         <v>17.83794</v>
       </c>
-      <c r="L16" s="28">
-        <f t="shared" si="0"/>
+      <c r="L18" s="28">
+        <f t="shared" si="3"/>
         <v>7153.5113975900022</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M18" s="29">
         <v>2868.2873435319998</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N18" s="29">
         <v>3607.6925303660032</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O18" s="29">
         <v>642.81335444999979</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P18" s="29">
         <v>7.0967908270000004</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q18" s="29">
         <v>26.713847234999999</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R18" s="29">
         <v>0.56659287000000003</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S18" s="30">
         <v>0.34093830999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="1"/>
-        <v>10744.338341099994</v>
-      </c>
-      <c r="E17" s="14">
-        <v>4156.0361599999969</v>
-      </c>
-      <c r="F17" s="14">
-        <v>4940.157242999996</v>
-      </c>
-      <c r="G17" s="14">
-        <v>1327.2145460000011</v>
-      </c>
-      <c r="H17" s="14">
-        <v>207.6338241</v>
-      </c>
-      <c r="I17" s="14">
-        <v>97.280187999999995</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0</v>
-      </c>
-      <c r="K17" s="14">
-        <v>16.016380000000002</v>
-      </c>
-      <c r="L17" s="13">
-        <f t="shared" ref="L17:L26" si="2">SUM(M17:S17)</f>
-        <v>7556.0425005755014</v>
-      </c>
-      <c r="M17" s="14">
-        <v>2765.572963916999</v>
-      </c>
-      <c r="N17" s="14">
-        <v>4124.8151506980021</v>
-      </c>
-      <c r="O17" s="14">
-        <v>633.25968550699997</v>
-      </c>
-      <c r="P17" s="14">
-        <v>7.8715812454999998</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>24.216846367999999</v>
-      </c>
-      <c r="R17" s="14">
-        <v>0</v>
-      </c>
-      <c r="S17" s="15">
-        <v>0.30627283999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="16">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="18">
-        <f t="shared" si="1"/>
-        <v>11200.280935499999</v>
-      </c>
-      <c r="E18" s="19">
-        <v>4460.5444895000001</v>
-      </c>
-      <c r="F18" s="19">
-        <v>5121.4502369999991</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1286.7112570000011</v>
-      </c>
-      <c r="H18" s="19">
-        <v>230.92582300000001</v>
-      </c>
-      <c r="I18" s="19">
-        <v>86.957749000000007</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0</v>
-      </c>
-      <c r="K18" s="19">
-        <v>13.691380000000001</v>
-      </c>
-      <c r="L18" s="18">
-        <f t="shared" si="2"/>
-        <v>7919.0054692064978</v>
-      </c>
-      <c r="M18" s="19">
-        <v>2888.4215667424992</v>
-      </c>
-      <c r="N18" s="19">
-        <v>4289.1214162529986</v>
-      </c>
-      <c r="O18" s="19">
-        <v>709.70213744500006</v>
-      </c>
-      <c r="P18" s="19">
-        <v>8.7303510430000006</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>22.005873442999999</v>
-      </c>
-      <c r="R18" s="19">
-        <v>0.75646751999999995</v>
-      </c>
-      <c r="S18" s="20">
-        <v>0.26765675999999999</v>
       </c>
     </row>
     <row r="19" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -1977,57 +1977,57 @@
         <v>2023</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="13">
-        <f t="shared" si="1"/>
-        <v>10782.032769499994</v>
+        <f t="shared" si="4"/>
+        <v>10744.338341099994</v>
       </c>
       <c r="E19" s="14">
-        <v>4218.6692064999988</v>
+        <v>4156.0361599999969</v>
       </c>
       <c r="F19" s="14">
-        <v>4942.4715439999973</v>
+        <v>4940.157242999996</v>
       </c>
       <c r="G19" s="14">
-        <v>1325.7413049999991</v>
+        <v>1327.2145460000011</v>
       </c>
       <c r="H19" s="14">
-        <v>196.98436699999999</v>
+        <v>207.6338241</v>
       </c>
       <c r="I19" s="14">
-        <v>89.481097000000005</v>
+        <v>97.280187999999995</v>
       </c>
       <c r="J19" s="14">
         <v>0</v>
       </c>
       <c r="K19" s="14">
-        <v>8.6852500000000017</v>
+        <v>16.016380000000002</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="2"/>
-        <v>7622.1182945060009</v>
+        <f t="shared" ref="L19:L28" si="5">SUM(M19:S19)</f>
+        <v>7556.0425005755014</v>
       </c>
       <c r="M19" s="14">
-        <v>2723.4188917840002</v>
+        <v>2765.572963916999</v>
       </c>
       <c r="N19" s="14">
-        <v>4168.1608000790002</v>
+        <v>4124.8151506980021</v>
       </c>
       <c r="O19" s="14">
-        <v>700.2680477920004</v>
+        <v>633.25968550699997</v>
       </c>
       <c r="P19" s="14">
-        <v>6.950576074999999</v>
+        <v>7.8715812454999998</v>
       </c>
       <c r="Q19" s="14">
-        <v>22.592782776</v>
+        <v>24.216846367999999</v>
       </c>
       <c r="R19" s="14">
-        <v>0.46685416000000002</v>
+        <v>0</v>
       </c>
       <c r="S19" s="15">
-        <v>0.26034183999999999</v>
+        <v>0.30627283999999999</v>
       </c>
     </row>
     <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2035,57 +2035,57 @@
         <v>2023</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D20" s="18">
-        <f t="shared" si="1"/>
-        <v>11165.0871135</v>
+        <f t="shared" si="4"/>
+        <v>11200.280935499999</v>
       </c>
       <c r="E20" s="19">
-        <v>4073.677195499999</v>
+        <v>4460.5444895000001</v>
       </c>
       <c r="F20" s="19">
-        <v>5295.6467410000023</v>
+        <v>5121.4502369999991</v>
       </c>
       <c r="G20" s="19">
-        <v>1455.9837610000011</v>
+        <v>1286.7112570000011</v>
       </c>
       <c r="H20" s="19">
-        <v>215.933054</v>
+        <v>230.92582300000001</v>
       </c>
       <c r="I20" s="19">
-        <v>102.351732</v>
+        <v>86.957749000000007</v>
       </c>
       <c r="J20" s="19">
         <v>0</v>
       </c>
       <c r="K20" s="19">
-        <v>21.494630000000001</v>
+        <v>13.691380000000001</v>
       </c>
       <c r="L20" s="18">
-        <f t="shared" si="2"/>
-        <v>7816.8766415225009</v>
+        <f t="shared" si="5"/>
+        <v>7919.0054692064978</v>
       </c>
       <c r="M20" s="19">
-        <v>2578.8196566694969</v>
+        <v>2888.4215667424992</v>
       </c>
       <c r="N20" s="19">
-        <v>4455.9987150990046</v>
+        <v>4289.1214162529986</v>
       </c>
       <c r="O20" s="19">
-        <v>747.21557059399993</v>
+        <v>709.70213744500006</v>
       </c>
       <c r="P20" s="19">
-        <v>8.0505219500000003</v>
+        <v>8.7303510430000006</v>
       </c>
       <c r="Q20" s="19">
-        <v>26.027712000000001</v>
+        <v>22.005873442999999</v>
       </c>
       <c r="R20" s="19">
-        <v>0.31483611000000011</v>
+        <v>0.75646751999999995</v>
       </c>
       <c r="S20" s="20">
-        <v>0.44962910000000011</v>
+        <v>0.26765675999999999</v>
       </c>
     </row>
     <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2093,57 +2093,57 @@
         <v>2023</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D21" s="13">
-        <f t="shared" si="1"/>
-        <v>10990.944824000002</v>
+        <f t="shared" si="4"/>
+        <v>10782.032769499994</v>
       </c>
       <c r="E21" s="14">
-        <v>4146.4391699999987</v>
+        <v>4218.6692064999988</v>
       </c>
       <c r="F21" s="14">
-        <v>5135.3581670000012</v>
+        <v>4942.4715439999973</v>
       </c>
       <c r="G21" s="14">
-        <v>1381.008404000002</v>
+        <v>1325.7413049999991</v>
       </c>
       <c r="H21" s="14">
-        <v>211.989563</v>
+        <v>196.98436699999999</v>
       </c>
       <c r="I21" s="14">
-        <v>101.69627</v>
+        <v>89.481097000000005</v>
       </c>
       <c r="J21" s="14">
         <v>0</v>
       </c>
       <c r="K21" s="14">
-        <v>14.453250000000001</v>
+        <v>8.6852500000000017</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" si="2"/>
-        <v>7210.7837302764929</v>
+        <f t="shared" si="5"/>
+        <v>7622.1182945060009</v>
       </c>
       <c r="M21" s="14">
-        <v>2685.167804527498</v>
+        <v>2723.4188917840002</v>
       </c>
       <c r="N21" s="14">
-        <v>3862.1520296299959</v>
+        <v>4168.1608000790002</v>
       </c>
       <c r="O21" s="14">
-        <v>629.01834064099978</v>
+        <v>700.2680477920004</v>
       </c>
       <c r="P21" s="14">
-        <v>7.3305904510000008</v>
+        <v>6.950576074999999</v>
       </c>
       <c r="Q21" s="14">
-        <v>26.805101397000001</v>
+        <v>22.592782776</v>
       </c>
       <c r="R21" s="14">
-        <v>0</v>
+        <v>0.46685416000000002</v>
       </c>
       <c r="S21" s="15">
-        <v>0.30986362999999989</v>
+        <v>0.26034183999999999</v>
       </c>
     </row>
     <row r="22" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2151,57 +2151,57 @@
         <v>2023</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="18">
-        <f t="shared" si="1"/>
-        <v>10745.577094500002</v>
+        <f t="shared" si="4"/>
+        <v>11165.0871135</v>
       </c>
       <c r="E22" s="19">
-        <v>3986.183454499997</v>
+        <v>4073.677195499999</v>
       </c>
       <c r="F22" s="19">
-        <v>5182.5897230000064</v>
+        <v>5295.6467410000023</v>
       </c>
       <c r="G22" s="19">
-        <v>1263.786863</v>
+        <v>1455.9837610000011</v>
       </c>
       <c r="H22" s="19">
-        <v>194.382002</v>
+        <v>215.933054</v>
       </c>
       <c r="I22" s="19">
-        <v>110.79468199999999</v>
+        <v>102.351732</v>
       </c>
       <c r="J22" s="19">
         <v>0</v>
       </c>
       <c r="K22" s="19">
-        <v>7.8403699999999992</v>
+        <v>21.494630000000001</v>
       </c>
       <c r="L22" s="18">
-        <f t="shared" si="2"/>
-        <v>7727.3830689805</v>
+        <f t="shared" si="5"/>
+        <v>7816.8766415225009</v>
       </c>
       <c r="M22" s="19">
-        <v>2606.4418033855009</v>
+        <v>2578.8196566694969</v>
       </c>
       <c r="N22" s="19">
-        <v>4443.8483745960002</v>
+        <v>4455.9987150990046</v>
       </c>
       <c r="O22" s="19">
-        <v>641.33658918099911</v>
+        <v>747.21557059399993</v>
       </c>
       <c r="P22" s="19">
-        <v>7.5541058760000004</v>
+        <v>8.0505219500000003</v>
       </c>
       <c r="Q22" s="19">
-        <v>27.942127822</v>
+        <v>26.027712000000001</v>
       </c>
       <c r="R22" s="19">
-        <v>0</v>
+        <v>0.31483611000000011</v>
       </c>
       <c r="S22" s="20">
-        <v>0.26006812000000001</v>
+        <v>0.44962910000000011</v>
       </c>
     </row>
     <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2209,57 +2209,57 @@
         <v>2023</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="13">
-        <f t="shared" si="1"/>
-        <v>11106.930602500001</v>
+        <f t="shared" si="4"/>
+        <v>10990.944824000002</v>
       </c>
       <c r="E23" s="14">
-        <v>4188.3383045000028</v>
+        <v>4146.4391699999987</v>
       </c>
       <c r="F23" s="14">
-        <v>5334.9094389999982</v>
+        <v>5135.3581670000012</v>
       </c>
       <c r="G23" s="14">
-        <v>1326.3186040000001</v>
+        <v>1381.008404000002</v>
       </c>
       <c r="H23" s="14">
-        <v>160.06881000000001</v>
+        <v>211.989563</v>
       </c>
       <c r="I23" s="14">
-        <v>88.829708000000011</v>
+        <v>101.69627</v>
       </c>
       <c r="J23" s="14">
         <v>0</v>
       </c>
       <c r="K23" s="14">
-        <v>8.4657370000000007</v>
+        <v>14.453250000000001</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="2"/>
-        <v>7787.991672169991</v>
+        <f t="shared" si="5"/>
+        <v>7210.7837302764929</v>
       </c>
       <c r="M23" s="14">
-        <v>2697.017603467998</v>
+        <v>2685.167804527498</v>
       </c>
       <c r="N23" s="14">
-        <v>4364.7163814329933</v>
+        <v>3862.1520296299959</v>
       </c>
       <c r="O23" s="14">
-        <v>691.08870988800015</v>
+        <v>629.01834064099978</v>
       </c>
       <c r="P23" s="14">
-        <v>5.5462157990000014</v>
+        <v>7.3305904510000008</v>
       </c>
       <c r="Q23" s="14">
-        <v>28.462399068</v>
+        <v>26.805101397000001</v>
       </c>
       <c r="R23" s="14">
-        <v>0.92623683999999995</v>
+        <v>0</v>
       </c>
       <c r="S23" s="15">
-        <v>0.23412567400000001</v>
+        <v>0.30986362999999989</v>
       </c>
     </row>
     <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2267,57 +2267,57 @@
         <v>2023</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="18">
-        <f t="shared" si="1"/>
-        <v>10801.941199499999</v>
+        <f t="shared" si="4"/>
+        <v>10745.577094500002</v>
       </c>
       <c r="E24" s="19">
-        <v>4120.2958385000038</v>
+        <v>3986.183454499997</v>
       </c>
       <c r="F24" s="19">
-        <v>5130.8270799999982</v>
+        <v>5182.5897230000064</v>
       </c>
       <c r="G24" s="19">
-        <v>1278.4442729999989</v>
+        <v>1263.786863</v>
       </c>
       <c r="H24" s="19">
-        <v>164.83443199999999</v>
+        <v>194.382002</v>
       </c>
       <c r="I24" s="19">
-        <v>97.153891000000002</v>
+        <v>110.79468199999999</v>
       </c>
       <c r="J24" s="19">
         <v>0</v>
       </c>
       <c r="K24" s="19">
-        <v>10.385685</v>
+        <v>7.8403699999999992</v>
       </c>
       <c r="L24" s="18">
-        <f t="shared" si="2"/>
-        <v>7607.3085941089976</v>
+        <f t="shared" si="5"/>
+        <v>7727.3830689805</v>
       </c>
       <c r="M24" s="19">
-        <v>2709.2393107859962</v>
+        <v>2606.4418033855009</v>
       </c>
       <c r="N24" s="19">
-        <v>4203.9729919080019</v>
+        <v>4443.8483745960002</v>
       </c>
       <c r="O24" s="19">
-        <v>660.44165793399986</v>
+        <v>641.33658918099911</v>
       </c>
       <c r="P24" s="19">
-        <v>5.9482127840000008</v>
+        <v>7.5541058760000004</v>
       </c>
       <c r="Q24" s="19">
-        <v>27.414852071999999</v>
+        <v>27.942127822</v>
       </c>
       <c r="R24" s="19">
         <v>0</v>
       </c>
       <c r="S24" s="20">
-        <v>0.29156862500000003</v>
+        <v>0.26006812000000001</v>
       </c>
     </row>
     <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2325,57 +2325,57 @@
         <v>2023</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="1"/>
-        <v>11383.878990499992</v>
+        <f t="shared" si="4"/>
+        <v>11106.930602500001</v>
       </c>
       <c r="E25" s="14">
-        <v>4435.0004595000009</v>
+        <v>4188.3383045000028</v>
       </c>
       <c r="F25" s="14">
-        <v>5403.7461159999912</v>
+        <v>5334.9094389999982</v>
       </c>
       <c r="G25" s="14">
-        <v>1243.00846</v>
+        <v>1326.3186040000001</v>
       </c>
       <c r="H25" s="14">
-        <v>186.385561</v>
+        <v>160.06881000000001</v>
       </c>
       <c r="I25" s="14">
-        <v>105.50189399999999</v>
+        <v>88.829708000000011</v>
       </c>
       <c r="J25" s="14">
         <v>0</v>
       </c>
       <c r="K25" s="14">
-        <v>10.236499999999999</v>
+        <v>8.4657370000000007</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="2"/>
-        <v>8168.6527303565072</v>
+        <f t="shared" si="5"/>
+        <v>7787.991672169991</v>
       </c>
       <c r="M25" s="14">
-        <v>2855.8573844425018</v>
+        <v>2697.017603467998</v>
       </c>
       <c r="N25" s="14">
-        <v>4595.0981872000057</v>
+        <v>4364.7163814329933</v>
       </c>
       <c r="O25" s="14">
-        <v>683.3527228519996</v>
+        <v>691.08870988800015</v>
       </c>
       <c r="P25" s="14">
-        <v>6.7861570649999994</v>
+        <v>5.5462157990000014</v>
       </c>
       <c r="Q25" s="14">
-        <v>27.308684076999999</v>
+        <v>28.462399068</v>
       </c>
       <c r="R25" s="14">
-        <v>0</v>
+        <v>0.92623683999999995</v>
       </c>
       <c r="S25" s="15">
-        <v>0.24959471999999999</v>
+        <v>0.23412567400000001</v>
       </c>
     </row>
     <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2383,289 +2383,289 @@
         <v>2023</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" si="1"/>
-        <v>10730.619191500007</v>
+        <f t="shared" si="4"/>
+        <v>10801.941199499999</v>
       </c>
       <c r="E26" s="19">
-        <v>4010.1023085000038</v>
+        <v>4120.2958385000038</v>
       </c>
       <c r="F26" s="19">
-        <v>5163.3377450000035</v>
+        <v>5130.8270799999982</v>
       </c>
       <c r="G26" s="19">
-        <v>1234.198350000001</v>
+        <v>1278.4442729999989</v>
       </c>
       <c r="H26" s="19">
-        <v>213.06129999999999</v>
+        <v>164.83443199999999</v>
       </c>
       <c r="I26" s="19">
-        <v>97.967708000000016</v>
+        <v>97.153891000000002</v>
       </c>
       <c r="J26" s="19">
         <v>0</v>
       </c>
       <c r="K26" s="19">
-        <v>11.951779999999999</v>
+        <v>10.385685</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="2"/>
-        <v>7460.9740902630037</v>
+        <f t="shared" si="5"/>
+        <v>7607.3085941089976</v>
       </c>
       <c r="M26" s="19">
-        <v>2587.8190024130022</v>
+        <v>2709.2393107859962</v>
       </c>
       <c r="N26" s="19">
-        <v>4189.8268443940005</v>
+        <v>4203.9729919080019</v>
       </c>
       <c r="O26" s="19">
-        <v>650.21660514200039</v>
+        <v>660.44165793399986</v>
       </c>
       <c r="P26" s="19">
-        <v>7.5242899999999997</v>
+        <v>5.9482127840000008</v>
       </c>
       <c r="Q26" s="19">
-        <v>25.314986824000002</v>
+        <v>27.414852071999999</v>
       </c>
       <c r="R26" s="19">
         <v>0</v>
       </c>
       <c r="S26" s="20">
+        <v>0.29156862500000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="4"/>
+        <v>11383.878990499992</v>
+      </c>
+      <c r="E27" s="14">
+        <v>4435.0004595000009</v>
+      </c>
+      <c r="F27" s="14">
+        <v>5403.7461159999912</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1243.00846</v>
+      </c>
+      <c r="H27" s="14">
+        <v>186.385561</v>
+      </c>
+      <c r="I27" s="14">
+        <v>105.50189399999999</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>10.236499999999999</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" si="5"/>
+        <v>8168.6527303565072</v>
+      </c>
+      <c r="M27" s="14">
+        <v>2855.8573844425018</v>
+      </c>
+      <c r="N27" s="14">
+        <v>4595.0981872000057</v>
+      </c>
+      <c r="O27" s="14">
+        <v>683.3527228519996</v>
+      </c>
+      <c r="P27" s="14">
+        <v>6.7861570649999994</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>27.308684076999999</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0</v>
+      </c>
+      <c r="S27" s="15">
+        <v>0.24959471999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="16">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="4"/>
+        <v>10730.619191500007</v>
+      </c>
+      <c r="E28" s="19">
+        <v>4010.1023085000038</v>
+      </c>
+      <c r="F28" s="19">
+        <v>5163.3377450000035</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1234.198350000001</v>
+      </c>
+      <c r="H28" s="19">
+        <v>213.06129999999999</v>
+      </c>
+      <c r="I28" s="19">
+        <v>97.967708000000016</v>
+      </c>
+      <c r="J28" s="19">
+        <v>0</v>
+      </c>
+      <c r="K28" s="19">
+        <v>11.951779999999999</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="5"/>
+        <v>7460.9740902630037</v>
+      </c>
+      <c r="M28" s="19">
+        <v>2587.8190024130022</v>
+      </c>
+      <c r="N28" s="19">
+        <v>4189.8268443940005</v>
+      </c>
+      <c r="O28" s="19">
+        <v>650.21660514200039</v>
+      </c>
+      <c r="P28" s="19">
+        <v>7.5242899999999997</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>25.314986824000002</v>
+      </c>
+      <c r="R28" s="19">
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
         <v>0.27236148999999987</v>
       </c>
     </row>
-    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="21">
+    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="21">
         <v>2023</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C29" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="23">
-        <f t="shared" ref="D27:D58" si="3">SUM(E27:K27)</f>
+      <c r="D29" s="23">
+        <f t="shared" ref="D29:D60" si="6">SUM(E29:K29)</f>
         <v>11294.197112000005</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E29" s="24">
         <v>4300.673847</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F29" s="24">
         <v>5333.398917000005</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G29" s="24">
         <v>1381.829727000001</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H29" s="24">
         <v>160.70500799999999</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I29" s="24">
         <v>108.434686</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J29" s="24">
         <v>0</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K29" s="24">
         <v>9.1549269999999989</v>
       </c>
-      <c r="L27" s="23">
-        <f t="shared" ref="L27:L58" si="4">SUM(M27:S27)</f>
+      <c r="L29" s="23">
+        <f t="shared" ref="L29:L60" si="7">SUM(M29:S29)</f>
         <v>8101.5730074171943</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M29" s="24">
         <v>2862.9090542549961</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N29" s="24">
         <v>4475.0428370511981</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O29" s="24">
         <v>730.13655983000001</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P29" s="24">
         <v>5.6898014160000008</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q29" s="24">
         <v>26.430900990000001</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R29" s="24">
         <v>1.1467497600000001</v>
       </c>
-      <c r="S27" s="25">
+      <c r="S29" s="25">
         <v>0.21710411499999999</v>
       </c>
     </row>
-    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="26">
+    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="26">
         <v>2022</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C30" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="28">
-        <f t="shared" si="3"/>
+      <c r="D30" s="28">
+        <f t="shared" si="6"/>
         <v>10579.2088245</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E30" s="29">
         <v>3955.405141500004</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F30" s="29">
         <v>5023.7809259999967</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G30" s="29">
         <v>1253.435716</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H30" s="29">
         <v>210.841139</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I30" s="29">
         <v>127.258531</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J30" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K30" s="29">
         <v>8.4723710000000008</v>
       </c>
-      <c r="L28" s="28">
-        <f t="shared" si="4"/>
+      <c r="L30" s="28">
+        <f t="shared" si="7"/>
         <v>7201.2110358610043</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M30" s="29">
         <v>2606.642718893002</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N30" s="29">
         <v>3840.3302240870012</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O30" s="29">
         <v>714.07136763500023</v>
       </c>
-      <c r="P28" s="29">
+      <c r="P30" s="29">
         <v>8.1353823930000004</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q30" s="29">
         <v>29.287128408000001</v>
       </c>
-      <c r="R28" s="29">
+      <c r="R30" s="29">
         <v>2.5732544800000001</v>
       </c>
-      <c r="S28" s="30">
+      <c r="S30" s="30">
         <v>0.17095996499999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="13">
-        <f t="shared" si="3"/>
-        <v>10527.497396789135</v>
-      </c>
-      <c r="E29" s="14">
-        <v>4108.8534605000023</v>
-      </c>
-      <c r="F29" s="14">
-        <v>4736.7273732891317</v>
-      </c>
-      <c r="G29" s="14">
-        <v>1295.0406599999999</v>
-      </c>
-      <c r="H29" s="14">
-        <v>221.15105</v>
-      </c>
-      <c r="I29" s="14">
-        <v>154.32011299999999</v>
-      </c>
-      <c r="J29" s="14">
-        <v>0</v>
-      </c>
-      <c r="K29" s="14">
-        <v>11.40474</v>
-      </c>
-      <c r="L29" s="13">
-        <f t="shared" si="4"/>
-        <v>7310.8355932755139</v>
-      </c>
-      <c r="M29" s="14">
-        <v>2729.828865026504</v>
-      </c>
-      <c r="N29" s="14">
-        <v>3871.547411277008</v>
-      </c>
-      <c r="O29" s="14">
-        <v>666.57566130000077</v>
-      </c>
-      <c r="P29" s="14">
-        <v>8.3173960500000028</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>33.740727692</v>
-      </c>
-      <c r="R29" s="14">
-        <v>0.53808</v>
-      </c>
-      <c r="S29" s="15">
-        <v>0.28745193000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="16">
-        <v>2022</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="18">
-        <f t="shared" si="3"/>
-        <v>10705.692828500001</v>
-      </c>
-      <c r="E30" s="19">
-        <v>4175.4008985000046</v>
-      </c>
-      <c r="F30" s="19">
-        <v>4906.9342349999952</v>
-      </c>
-      <c r="G30" s="19">
-        <v>1288.9225799999999</v>
-      </c>
-      <c r="H30" s="19">
-        <v>177.480175</v>
-      </c>
-      <c r="I30" s="19">
-        <v>150.03629000000001</v>
-      </c>
-      <c r="J30" s="19">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="K30" s="19">
-        <v>6.9111500000000001</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="4"/>
-        <v>7111.4425296700092</v>
-      </c>
-      <c r="M30" s="19">
-        <v>2632.704658141005</v>
-      </c>
-      <c r="N30" s="19">
-        <v>3750.413545484003</v>
-      </c>
-      <c r="O30" s="19">
-        <v>687.66725051200081</v>
-      </c>
-      <c r="P30" s="19">
-        <v>5.8990287250000009</v>
-      </c>
-      <c r="Q30" s="19">
-        <v>34.461750987999999</v>
-      </c>
-      <c r="R30" s="19">
-        <v>0.12333404000000001</v>
-      </c>
-      <c r="S30" s="20">
-        <v>0.17296178000000001</v>
       </c>
     </row>
     <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2673,57 +2673,57 @@
         <v>2022</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" si="3"/>
-        <v>10716.722789500005</v>
+        <f t="shared" si="6"/>
+        <v>10527.497396789135</v>
       </c>
       <c r="E31" s="14">
-        <v>3921.109317500001</v>
+        <v>4108.8534605000023</v>
       </c>
       <c r="F31" s="14">
-        <v>5107.1348170000047</v>
+        <v>4736.7273732891317</v>
       </c>
       <c r="G31" s="14">
-        <v>1304.2582520000001</v>
+        <v>1295.0406599999999</v>
       </c>
       <c r="H31" s="14">
-        <v>224.00600600000001</v>
+        <v>221.15105</v>
       </c>
       <c r="I31" s="14">
-        <v>150.00181699999999</v>
+        <v>154.32011299999999</v>
       </c>
       <c r="J31" s="14">
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="K31" s="14">
-        <v>10.205080000000001</v>
+        <v>11.40474</v>
       </c>
       <c r="L31" s="13">
-        <f t="shared" si="4"/>
-        <v>7332.3824997811334</v>
+        <f t="shared" si="7"/>
+        <v>7310.8355932755139</v>
       </c>
       <c r="M31" s="14">
-        <v>2596.0057846039958</v>
+        <v>2729.828865026504</v>
       </c>
       <c r="N31" s="14">
-        <v>4043.7739947451369</v>
+        <v>3871.547411277008</v>
       </c>
       <c r="O31" s="14">
-        <v>650.93120328700036</v>
+        <v>666.57566130000077</v>
       </c>
       <c r="P31" s="14">
-        <v>8.6389721339999994</v>
+        <v>8.3173960500000028</v>
       </c>
       <c r="Q31" s="14">
-        <v>32.781240101000002</v>
+        <v>33.740727692</v>
       </c>
       <c r="R31" s="14">
-        <v>7.0588400000000003E-3</v>
+        <v>0.53808</v>
       </c>
       <c r="S31" s="15">
-        <v>0.24424607000000009</v>
+        <v>0.28745193000000002</v>
       </c>
     </row>
     <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2731,57 +2731,57 @@
         <v>2022</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D32" s="18">
-        <f t="shared" si="3"/>
-        <v>11108.677028999993</v>
+        <f t="shared" si="6"/>
+        <v>10705.692828500001</v>
       </c>
       <c r="E32" s="19">
-        <v>3971.3969279999978</v>
+        <v>4175.4008985000046</v>
       </c>
       <c r="F32" s="19">
-        <v>5268.769131999994</v>
+        <v>4906.9342349999952</v>
       </c>
       <c r="G32" s="19">
-        <v>1417.7037560000001</v>
+        <v>1288.9225799999999</v>
       </c>
       <c r="H32" s="19">
-        <v>247.12264200000001</v>
+        <v>177.480175</v>
       </c>
       <c r="I32" s="19">
-        <v>188.83374499999999</v>
+        <v>150.03629000000001</v>
       </c>
       <c r="J32" s="19">
-        <v>0</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K32" s="19">
-        <v>14.850826</v>
+        <v>6.9111500000000001</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" si="4"/>
-        <v>7307.3132174754001</v>
+        <f t="shared" si="7"/>
+        <v>7111.4425296700092</v>
       </c>
       <c r="M32" s="19">
-        <v>2663.245486356001</v>
+        <v>2632.704658141005</v>
       </c>
       <c r="N32" s="19">
-        <v>3914.0197377269992</v>
+        <v>3750.413545484003</v>
       </c>
       <c r="O32" s="19">
-        <v>681.13219543499997</v>
+        <v>687.66725051200081</v>
       </c>
       <c r="P32" s="19">
-        <v>9.831694658</v>
+        <v>5.8990287250000009</v>
       </c>
       <c r="Q32" s="19">
-        <v>36.570021361999977</v>
+        <v>34.461750987999999</v>
       </c>
       <c r="R32" s="19">
-        <v>2.1579242694</v>
+        <v>0.12333404000000001</v>
       </c>
       <c r="S32" s="20">
-        <v>0.35615766800000009</v>
+        <v>0.17296178000000001</v>
       </c>
     </row>
     <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2789,57 +2789,57 @@
         <v>2022</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D33" s="13">
-        <f t="shared" si="3"/>
-        <v>10611.250803000006</v>
+        <f t="shared" si="6"/>
+        <v>10716.722789500005</v>
       </c>
       <c r="E33" s="14">
-        <v>3793.7436850000049</v>
+        <v>3921.109317500001</v>
       </c>
       <c r="F33" s="14">
-        <v>5214.0921070000013</v>
+        <v>5107.1348170000047</v>
       </c>
       <c r="G33" s="14">
-        <v>1247.337679</v>
+        <v>1304.2582520000001</v>
       </c>
       <c r="H33" s="14">
-        <v>194.861605</v>
+        <v>224.00600600000001</v>
       </c>
       <c r="I33" s="14">
-        <v>147.825242</v>
+        <v>150.00181699999999</v>
       </c>
       <c r="J33" s="14">
-        <v>0</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K33" s="14">
-        <v>13.390485</v>
+        <v>10.205080000000001</v>
       </c>
       <c r="L33" s="13">
-        <f t="shared" si="4"/>
-        <v>7191.6636538718021</v>
+        <f t="shared" si="7"/>
+        <v>7332.3824997811334</v>
       </c>
       <c r="M33" s="14">
-        <v>2575.3834254900021</v>
+        <v>2596.0057846039958</v>
       </c>
       <c r="N33" s="14">
-        <v>3964.619205300799</v>
+        <v>4043.7739947451369</v>
       </c>
       <c r="O33" s="14">
-        <v>609.31836305400043</v>
+        <v>650.93120328700036</v>
       </c>
       <c r="P33" s="14">
-        <v>7.2582579850000002</v>
+        <v>8.6389721339999994</v>
       </c>
       <c r="Q33" s="14">
-        <v>34.682327189999988</v>
+        <v>32.781240101000002</v>
       </c>
       <c r="R33" s="14">
-        <v>0.11073023999999999</v>
+        <v>7.0588400000000003E-3</v>
       </c>
       <c r="S33" s="15">
-        <v>0.291344612</v>
+        <v>0.24424607000000009</v>
       </c>
     </row>
     <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2847,57 +2847,57 @@
         <v>2022</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" si="3"/>
-        <v>11385.632823130651</v>
+        <f t="shared" si="6"/>
+        <v>11108.677028999993</v>
       </c>
       <c r="E34" s="19">
-        <v>4133.1845675000104</v>
+        <v>3971.3969279999978</v>
       </c>
       <c r="F34" s="19">
-        <v>5576.317320630641</v>
+        <v>5268.769131999994</v>
       </c>
       <c r="G34" s="19">
-        <v>1291.3044649999999</v>
+        <v>1417.7037560000001</v>
       </c>
       <c r="H34" s="19">
-        <v>204.62748999999999</v>
+        <v>247.12264200000001</v>
       </c>
       <c r="I34" s="19">
-        <v>168.44151099999999</v>
+        <v>188.83374499999999</v>
       </c>
       <c r="J34" s="19">
         <v>0</v>
       </c>
       <c r="K34" s="19">
-        <v>11.757469</v>
+        <v>14.850826</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="4"/>
-        <v>7426.6647824039028</v>
+        <f t="shared" si="7"/>
+        <v>7307.3132174754001</v>
       </c>
       <c r="M34" s="19">
-        <v>2745.748891390494</v>
+        <v>2663.245486356001</v>
       </c>
       <c r="N34" s="19">
-        <v>4014.2422900054089</v>
+        <v>3914.0197377269992</v>
       </c>
       <c r="O34" s="19">
-        <v>622.1854161710005</v>
+        <v>681.13219543499997</v>
       </c>
       <c r="P34" s="19">
-        <v>8.0573326499999993</v>
+        <v>9.831694658</v>
       </c>
       <c r="Q34" s="19">
-        <v>35.484382947000007</v>
+        <v>36.570021361999977</v>
       </c>
       <c r="R34" s="19">
-        <v>0.60199296000000002</v>
+        <v>2.1579242694</v>
       </c>
       <c r="S34" s="20">
-        <v>0.34447628000000002</v>
+        <v>0.35615766800000009</v>
       </c>
     </row>
     <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2905,57 +2905,57 @@
         <v>2022</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" s="13">
-        <f t="shared" si="3"/>
-        <v>10780.323722207198</v>
+        <f t="shared" si="6"/>
+        <v>10611.250803000006</v>
       </c>
       <c r="E35" s="14">
-        <v>4137.0850310000033</v>
+        <v>3793.7436850000049</v>
       </c>
       <c r="F35" s="14">
-        <v>5186.775923207193</v>
+        <v>5214.0921070000013</v>
       </c>
       <c r="G35" s="14">
-        <v>1080.597673</v>
+        <v>1247.337679</v>
       </c>
       <c r="H35" s="14">
-        <v>208.890287</v>
+        <v>194.861605</v>
       </c>
       <c r="I35" s="14">
-        <v>154.938333</v>
+        <v>147.825242</v>
       </c>
       <c r="J35" s="14">
         <v>0</v>
       </c>
       <c r="K35" s="14">
-        <v>12.036474999999999</v>
+        <v>13.390485</v>
       </c>
       <c r="L35" s="13">
-        <f t="shared" si="4"/>
-        <v>7413.4131095932507</v>
+        <f t="shared" si="7"/>
+        <v>7191.6636538718021</v>
       </c>
       <c r="M35" s="14">
-        <v>2681.1217716099991</v>
+        <v>2575.3834254900021</v>
       </c>
       <c r="N35" s="14">
-        <v>4205.8755796282521</v>
+        <v>3964.619205300799</v>
       </c>
       <c r="O35" s="14">
-        <v>483.91754051100008</v>
+        <v>609.31836305400043</v>
       </c>
       <c r="P35" s="14">
-        <v>8.2003226500000004</v>
+        <v>7.2582579850000002</v>
       </c>
       <c r="Q35" s="14">
-        <v>32.794367653999998</v>
+        <v>34.682327189999988</v>
       </c>
       <c r="R35" s="14">
-        <v>1.2866841600000001</v>
+        <v>0.11073023999999999</v>
       </c>
       <c r="S35" s="15">
-        <v>0.21684338000000011</v>
+        <v>0.291344612</v>
       </c>
     </row>
     <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -2963,57 +2963,57 @@
         <v>2022</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" s="18">
-        <f t="shared" si="3"/>
-        <v>10829.844413999997</v>
+        <f t="shared" si="6"/>
+        <v>11385.632823130651</v>
       </c>
       <c r="E36" s="19">
-        <v>3962.7175100000009</v>
+        <v>4133.1845675000104</v>
       </c>
       <c r="F36" s="19">
-        <v>5192.2296089999963</v>
+        <v>5576.317320630641</v>
       </c>
       <c r="G36" s="19">
-        <v>1309.012232</v>
+        <v>1291.3044649999999</v>
       </c>
       <c r="H36" s="19">
-        <v>181.97084000000001</v>
+        <v>204.62748999999999</v>
       </c>
       <c r="I36" s="19">
-        <v>167.812794</v>
+        <v>168.44151099999999</v>
       </c>
       <c r="J36" s="19">
         <v>0</v>
       </c>
       <c r="K36" s="19">
-        <v>16.101429</v>
+        <v>11.757469</v>
       </c>
       <c r="L36" s="18">
-        <f t="shared" si="4"/>
-        <v>7275.2969263750037</v>
+        <f t="shared" si="7"/>
+        <v>7426.6647824039028</v>
       </c>
       <c r="M36" s="19">
-        <v>2575.7223572010021</v>
+        <v>2745.748891390494</v>
       </c>
       <c r="N36" s="19">
-        <v>4067.0187656300018</v>
+        <v>4014.2422900054089</v>
       </c>
       <c r="O36" s="19">
-        <v>589.9259630600003</v>
+        <v>622.1854161710005</v>
       </c>
       <c r="P36" s="19">
-        <v>7.1673460699999998</v>
+        <v>8.0573326499999993</v>
       </c>
       <c r="Q36" s="19">
-        <v>34.542283277999999</v>
+        <v>35.484382947000007</v>
       </c>
       <c r="R36" s="19">
-        <v>0.48420864000000002</v>
+        <v>0.60199296000000002</v>
       </c>
       <c r="S36" s="20">
-        <v>0.43600249600000002</v>
+        <v>0.34447628000000002</v>
       </c>
     </row>
     <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -3021,57 +3021,57 @@
         <v>2022</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" s="13">
-        <f t="shared" si="3"/>
-        <v>10958.977161499999</v>
+        <f t="shared" si="6"/>
+        <v>10780.323722207198</v>
       </c>
       <c r="E37" s="14">
-        <v>4038.936546500001</v>
+        <v>4137.0850310000033</v>
       </c>
       <c r="F37" s="14">
-        <v>5268.3369729999977</v>
+        <v>5186.775923207193</v>
       </c>
       <c r="G37" s="14">
-        <v>1291.416300000001</v>
+        <v>1080.597673</v>
       </c>
       <c r="H37" s="14">
-        <v>177.95099999999999</v>
+        <v>208.890287</v>
       </c>
       <c r="I37" s="14">
-        <v>167.63478000000001</v>
+        <v>154.938333</v>
       </c>
       <c r="J37" s="14">
         <v>0</v>
       </c>
       <c r="K37" s="14">
-        <v>14.701561999999999</v>
+        <v>12.036474999999999</v>
       </c>
       <c r="L37" s="13">
-        <f t="shared" si="4"/>
-        <v>7541.4980275314938</v>
+        <f t="shared" si="7"/>
+        <v>7413.4131095932507</v>
       </c>
       <c r="M37" s="14">
-        <v>2660.8203641194968</v>
+        <v>2681.1217716099991</v>
       </c>
       <c r="N37" s="14">
-        <v>4208.7790816289962</v>
+        <v>4205.8755796282521</v>
       </c>
       <c r="O37" s="14">
-        <v>621.14192796600003</v>
+        <v>483.91754051100008</v>
       </c>
       <c r="P37" s="14">
-        <v>6.623209000000001</v>
+        <v>8.2003226500000004</v>
       </c>
       <c r="Q37" s="14">
-        <v>35.708474217000003</v>
+        <v>32.794367653999998</v>
       </c>
       <c r="R37" s="14">
-        <v>8.0218468600000001</v>
+        <v>1.2866841600000001</v>
       </c>
       <c r="S37" s="15">
-        <v>0.40312374000000012</v>
+        <v>0.21684338000000011</v>
       </c>
     </row>
     <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -3079,289 +3079,289 @@
         <v>2022</v>
       </c>
       <c r="C38" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="18">
+        <f t="shared" si="6"/>
+        <v>10829.844413999997</v>
+      </c>
+      <c r="E38" s="19">
+        <v>3962.7175100000009</v>
+      </c>
+      <c r="F38" s="19">
+        <v>5192.2296089999963</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1309.012232</v>
+      </c>
+      <c r="H38" s="19">
+        <v>181.97084000000001</v>
+      </c>
+      <c r="I38" s="19">
+        <v>167.812794</v>
+      </c>
+      <c r="J38" s="19">
+        <v>0</v>
+      </c>
+      <c r="K38" s="19">
+        <v>16.101429</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" si="7"/>
+        <v>7275.2969263750037</v>
+      </c>
+      <c r="M38" s="19">
+        <v>2575.7223572010021</v>
+      </c>
+      <c r="N38" s="19">
+        <v>4067.0187656300018</v>
+      </c>
+      <c r="O38" s="19">
+        <v>589.9259630600003</v>
+      </c>
+      <c r="P38" s="19">
+        <v>7.1673460699999998</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>34.542283277999999</v>
+      </c>
+      <c r="R38" s="19">
+        <v>0.48420864000000002</v>
+      </c>
+      <c r="S38" s="20">
+        <v>0.43600249600000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="6"/>
+        <v>10958.977161499999</v>
+      </c>
+      <c r="E39" s="14">
+        <v>4038.936546500001</v>
+      </c>
+      <c r="F39" s="14">
+        <v>5268.3369729999977</v>
+      </c>
+      <c r="G39" s="14">
+        <v>1291.416300000001</v>
+      </c>
+      <c r="H39" s="14">
+        <v>177.95099999999999</v>
+      </c>
+      <c r="I39" s="14">
+        <v>167.63478000000001</v>
+      </c>
+      <c r="J39" s="14">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14">
+        <v>14.701561999999999</v>
+      </c>
+      <c r="L39" s="13">
+        <f t="shared" si="7"/>
+        <v>7541.4980275314938</v>
+      </c>
+      <c r="M39" s="14">
+        <v>2660.8203641194968</v>
+      </c>
+      <c r="N39" s="14">
+        <v>4208.7790816289962</v>
+      </c>
+      <c r="O39" s="14">
+        <v>621.14192796600003</v>
+      </c>
+      <c r="P39" s="14">
+        <v>6.623209000000001</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>35.708474217000003</v>
+      </c>
+      <c r="R39" s="14">
+        <v>8.0218468600000001</v>
+      </c>
+      <c r="S39" s="15">
+        <v>0.40312374000000012</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="16">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="18">
-        <f t="shared" si="3"/>
+      <c r="D40" s="18">
+        <f t="shared" si="6"/>
         <v>9793.3689548991515</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E40" s="19">
         <v>3583.161939000001</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F40" s="19">
         <v>4789.6931648991504</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G40" s="19">
         <v>1070.14833</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H40" s="19">
         <v>173.86282</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I40" s="19">
         <v>164.508713</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J40" s="19">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K40" s="19">
         <v>11.987488000000001</v>
       </c>
-      <c r="L38" s="18">
-        <f t="shared" si="4"/>
+      <c r="L40" s="18">
+        <f t="shared" si="7"/>
         <v>6646.5983968474375</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M40" s="19">
         <v>2374.907421244</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N40" s="19">
         <v>3680.0897351094382</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O40" s="19">
         <v>540.62561002199982</v>
       </c>
-      <c r="P38" s="19">
+      <c r="P40" s="19">
         <v>6.8062315400000006</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="Q40" s="19">
         <v>35.044869748000004</v>
       </c>
-      <c r="R38" s="19">
+      <c r="R40" s="19">
         <v>8.8324161199999995</v>
       </c>
-      <c r="S38" s="20">
+      <c r="S40" s="20">
         <v>0.29211306399999998</v>
       </c>
     </row>
-    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="21">
+    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="21">
         <v>2022</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C41" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="23">
-        <f t="shared" si="3"/>
+      <c r="D41" s="23">
+        <f t="shared" si="6"/>
         <v>10457.860871849636</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E41" s="24">
         <v>3811.0277475000012</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F41" s="24">
         <v>5081.9953543496349</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G41" s="24">
         <v>1163.869772</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H41" s="24">
         <v>216.800228</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I41" s="24">
         <v>164.64285100000001</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J41" s="24">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K41" s="24">
         <v>19.518419000000002</v>
       </c>
-      <c r="L39" s="23">
-        <f t="shared" si="4"/>
+      <c r="L41" s="23">
+        <f t="shared" si="7"/>
         <v>7312.9253518064897</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M41" s="24">
         <v>2516.776008406498</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N41" s="24">
         <v>4165.2929514439929</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O41" s="24">
         <v>584.89580469299949</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P41" s="24">
         <v>7.9409832089999988</v>
       </c>
-      <c r="Q39" s="24">
+      <c r="Q41" s="24">
         <v>36.984346221000003</v>
       </c>
-      <c r="R39" s="24">
+      <c r="R41" s="24">
         <v>0.54593274000000003</v>
       </c>
-      <c r="S39" s="25">
+      <c r="S41" s="25">
         <v>0.48932509299999999</v>
       </c>
     </row>
-    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="26">
+    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="26">
         <v>2021</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C42" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="28">
-        <f t="shared" si="3"/>
+      <c r="D42" s="28">
+        <f t="shared" si="6"/>
         <v>10554.11629972851</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E42" s="29">
         <v>3704.487701</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F42" s="29">
         <v>5168.8270517285082</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G42" s="29">
         <v>1210.66284</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H42" s="29">
         <v>278.57299999999998</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I42" s="29">
         <v>176.88040100000001</v>
       </c>
-      <c r="J40" s="29">
+      <c r="J42" s="29">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K42" s="29">
         <v>14.676906000000001</v>
       </c>
-      <c r="L40" s="28">
-        <f t="shared" si="4"/>
+      <c r="L42" s="28">
+        <f t="shared" si="7"/>
         <v>7559.4957620836176</v>
       </c>
-      <c r="M40" s="29">
+      <c r="M42" s="29">
         <v>2454.9251451284981</v>
       </c>
-      <c r="N40" s="29">
+      <c r="N42" s="29">
         <v>4486.1274373061196</v>
       </c>
-      <c r="O40" s="29">
+      <c r="O42" s="29">
         <v>564.50741046500013</v>
       </c>
-      <c r="P40" s="29">
+      <c r="P42" s="29">
         <v>10.346456243</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="Q42" s="29">
         <v>38.567701272999997</v>
       </c>
-      <c r="R40" s="29">
+      <c r="R42" s="29">
         <v>4.6980338499999998</v>
       </c>
-      <c r="S40" s="30">
+      <c r="S42" s="30">
         <v>0.32357781800000007</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="13">
-        <f t="shared" si="3"/>
-        <v>10628.511753666689</v>
-      </c>
-      <c r="E41" s="14">
-        <v>3832.8486825000009</v>
-      </c>
-      <c r="F41" s="14">
-        <v>5157.1098371666867</v>
-      </c>
-      <c r="G41" s="14">
-        <v>1198.8120699999999</v>
-      </c>
-      <c r="H41" s="14">
-        <v>250.82408899999999</v>
-      </c>
-      <c r="I41" s="14">
-        <v>171.39998600000001</v>
-      </c>
-      <c r="J41" s="14">
-        <v>0.48580000000000001</v>
-      </c>
-      <c r="K41" s="14">
-        <v>17.031289000000001</v>
-      </c>
-      <c r="L41" s="13">
-        <f t="shared" si="4"/>
-        <v>7572.3847293000135</v>
-      </c>
-      <c r="M41" s="14">
-        <v>2487.2945403209969</v>
-      </c>
-      <c r="N41" s="14">
-        <v>4430.0140454000166</v>
-      </c>
-      <c r="O41" s="14">
-        <v>607.02709147300016</v>
-      </c>
-      <c r="P41" s="14">
-        <v>8.3345901050000002</v>
-      </c>
-      <c r="Q41" s="14">
-        <v>35.035225039999993</v>
-      </c>
-      <c r="R41" s="14">
-        <v>4.35235971</v>
-      </c>
-      <c r="S41" s="15">
-        <v>0.32687725099999992</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="16">
-        <v>2021</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="18">
-        <f t="shared" si="3"/>
-        <v>10447.886890621772</v>
-      </c>
-      <c r="E42" s="19">
-        <v>3568.6820320000061</v>
-      </c>
-      <c r="F42" s="19">
-        <v>5290.506152621766</v>
-      </c>
-      <c r="G42" s="19">
-        <v>1189.51099</v>
-      </c>
-      <c r="H42" s="19">
-        <v>218.87152699999999</v>
-      </c>
-      <c r="I42" s="19">
-        <v>164.760099</v>
-      </c>
-      <c r="J42" s="19">
-        <v>0</v>
-      </c>
-      <c r="K42" s="19">
-        <v>15.556089999999999</v>
-      </c>
-      <c r="L42" s="18">
-        <f t="shared" si="4"/>
-        <v>7454.4569883743907</v>
-      </c>
-      <c r="M42" s="19">
-        <v>2252.2121829349981</v>
-      </c>
-      <c r="N42" s="19">
-        <v>4555.9238501633918</v>
-      </c>
-      <c r="O42" s="19">
-        <v>598.34848022000062</v>
-      </c>
-      <c r="P42" s="19">
-        <v>8.6802298340000004</v>
-      </c>
-      <c r="Q42" s="19">
-        <v>36.737191042000013</v>
-      </c>
-      <c r="R42" s="19">
-        <v>2.1651060200000001</v>
-      </c>
-      <c r="S42" s="20">
-        <v>0.38994815999999999</v>
       </c>
     </row>
     <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -3369,57 +3369,57 @@
         <v>2021</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="3"/>
-        <v>10310.171017315373</v>
+        <f t="shared" si="6"/>
+        <v>10628.511753666689</v>
       </c>
       <c r="E43" s="14">
-        <v>3660.1919630000002</v>
+        <v>3832.8486825000009</v>
       </c>
       <c r="F43" s="14">
-        <v>5125.4300873153752</v>
+        <v>5157.1098371666867</v>
       </c>
       <c r="G43" s="14">
-        <v>1106.3341800000001</v>
+        <v>1198.8120699999999</v>
       </c>
       <c r="H43" s="14">
-        <v>225.05336800000001</v>
+        <v>250.82408899999999</v>
       </c>
       <c r="I43" s="14">
-        <v>173.367749</v>
+        <v>171.39998600000001</v>
       </c>
       <c r="J43" s="14">
-        <v>0</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="K43" s="14">
-        <v>19.793669999999999</v>
+        <v>17.031289000000001</v>
       </c>
       <c r="L43" s="13">
-        <f t="shared" si="4"/>
-        <v>7455.9332633507911</v>
+        <f t="shared" si="7"/>
+        <v>7572.3847293000135</v>
       </c>
       <c r="M43" s="14">
-        <v>2336.1774044905001</v>
+        <v>2487.2945403209969</v>
       </c>
       <c r="N43" s="14">
-        <v>4499.0870851722912</v>
+        <v>4430.0140454000166</v>
       </c>
       <c r="O43" s="14">
-        <v>574.36416933199996</v>
+        <v>607.02709147300016</v>
       </c>
       <c r="P43" s="14">
-        <v>9.2197258459999993</v>
+        <v>8.3345901050000002</v>
       </c>
       <c r="Q43" s="14">
-        <v>33.827011099000003</v>
+        <v>35.035225039999993</v>
       </c>
       <c r="R43" s="14">
-        <v>2.7609138199999999</v>
+        <v>4.35235971</v>
       </c>
       <c r="S43" s="15">
-        <v>0.49695359099999997</v>
+        <v>0.32687725099999992</v>
       </c>
     </row>
     <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -3427,57 +3427,57 @@
         <v>2021</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D44" s="18">
-        <f t="shared" si="3"/>
-        <v>10858.20812040527</v>
+        <f t="shared" si="6"/>
+        <v>10447.886890621772</v>
       </c>
       <c r="E44" s="19">
-        <v>3521.7041924999971</v>
+        <v>3568.6820320000061</v>
       </c>
       <c r="F44" s="19">
-        <v>5688.3567339052724</v>
+        <v>5290.506152621766</v>
       </c>
       <c r="G44" s="19">
-        <v>1217.1854400000011</v>
+        <v>1189.51099</v>
       </c>
       <c r="H44" s="19">
-        <v>237.21059299999999</v>
+        <v>218.87152699999999</v>
       </c>
       <c r="I44" s="19">
-        <v>181.48093</v>
+        <v>164.760099</v>
       </c>
       <c r="J44" s="19">
-        <v>8.4000000000000012E-3</v>
+        <v>0</v>
       </c>
       <c r="K44" s="19">
-        <v>12.261831000000001</v>
+        <v>15.556089999999999</v>
       </c>
       <c r="L44" s="18">
-        <f t="shared" si="4"/>
-        <v>7799.3527436193035</v>
+        <f t="shared" si="7"/>
+        <v>7454.4569883743907</v>
       </c>
       <c r="M44" s="19">
-        <v>2294.5162238704979</v>
+        <v>2252.2121829349981</v>
       </c>
       <c r="N44" s="19">
-        <v>4842.6990967668053</v>
+        <v>4555.9238501633918</v>
       </c>
       <c r="O44" s="19">
-        <v>615.63413392999996</v>
+        <v>598.34848022000062</v>
       </c>
       <c r="P44" s="19">
-        <v>8.5407225140000023</v>
+        <v>8.6802298340000004</v>
       </c>
       <c r="Q44" s="19">
-        <v>34.95596040800001</v>
+        <v>36.737191042000013</v>
       </c>
       <c r="R44" s="19">
-        <v>2.7197566399999999</v>
+        <v>2.1651060200000001</v>
       </c>
       <c r="S44" s="20">
-        <v>0.28684948999999998</v>
+        <v>0.38994815999999999</v>
       </c>
     </row>
     <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -3485,57 +3485,57 @@
         <v>2021</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D45" s="13">
-        <f t="shared" si="3"/>
-        <v>11255.030800119688</v>
+        <f t="shared" si="6"/>
+        <v>10310.171017315373</v>
       </c>
       <c r="E45" s="14">
-        <v>3793.7436850000049</v>
+        <v>3660.1919630000002</v>
       </c>
       <c r="F45" s="14">
-        <v>5713.976884119681</v>
+        <v>5125.4300873153752</v>
       </c>
       <c r="G45" s="14">
-        <v>1315.6355450000001</v>
+        <v>1106.3341800000001</v>
       </c>
       <c r="H45" s="14">
-        <v>235.601181</v>
+        <v>225.05336800000001</v>
       </c>
       <c r="I45" s="14">
-        <v>181.74973800000001</v>
+        <v>173.367749</v>
       </c>
       <c r="J45" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="14">
-        <v>14.308767</v>
+        <v>19.793669999999999</v>
       </c>
       <c r="L45" s="13">
-        <f t="shared" si="4"/>
-        <v>8093.1738756910991</v>
+        <f t="shared" si="7"/>
+        <v>7455.9332633507911</v>
       </c>
       <c r="M45" s="14">
-        <v>2575.3834254900021</v>
+        <v>2336.1774044905001</v>
       </c>
       <c r="N45" s="14">
-        <v>4833.7327735580984</v>
+        <v>4499.0870851722912</v>
       </c>
       <c r="O45" s="14">
-        <v>635.0188110539998</v>
+        <v>574.36416933199996</v>
       </c>
       <c r="P45" s="14">
-        <v>8.7395811469999991</v>
+        <v>9.2197258459999993</v>
       </c>
       <c r="Q45" s="14">
-        <v>36.949788237000007</v>
+        <v>33.827011099000003</v>
       </c>
       <c r="R45" s="14">
-        <v>3.0379556999999999</v>
+        <v>2.7609138199999999</v>
       </c>
       <c r="S45" s="15">
-        <v>0.31154050500000008</v>
+        <v>0.49695359099999997</v>
       </c>
     </row>
     <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -3543,57 +3543,57 @@
         <v>2021</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="18">
-        <f t="shared" si="3"/>
-        <v>11085.875192119853</v>
+        <f t="shared" si="6"/>
+        <v>10858.20812040527</v>
       </c>
       <c r="E46" s="19">
-        <v>4014.4691365000031</v>
+        <v>3521.7041924999971</v>
       </c>
       <c r="F46" s="19">
-        <v>5377.2218746198478</v>
+        <v>5688.3567339052724</v>
       </c>
       <c r="G46" s="19">
-        <v>1234.1497800000011</v>
+        <v>1217.1854400000011</v>
       </c>
       <c r="H46" s="19">
-        <v>253.12753699999999</v>
+        <v>237.21059299999999</v>
       </c>
       <c r="I46" s="19">
-        <v>192.660923</v>
+        <v>181.48093</v>
       </c>
       <c r="J46" s="19">
-        <v>2.1499999999999998E-2</v>
+        <v>8.4000000000000012E-3</v>
       </c>
       <c r="K46" s="19">
-        <v>14.224441000000001</v>
+        <v>12.261831000000001</v>
       </c>
       <c r="L46" s="18">
-        <f t="shared" si="4"/>
-        <v>7726.6787146596171</v>
+        <f t="shared" si="7"/>
+        <v>7799.3527436193035</v>
       </c>
       <c r="M46" s="19">
-        <v>2629.796765055999</v>
+        <v>2294.5162238704979</v>
       </c>
       <c r="N46" s="19">
-        <v>4464.5122847686171</v>
+        <v>4842.6990967668053</v>
       </c>
       <c r="O46" s="19">
-        <v>581.68120659000044</v>
+        <v>615.63413392999996</v>
       </c>
       <c r="P46" s="19">
-        <v>9.1290644990000001</v>
+        <v>8.5407225140000023</v>
       </c>
       <c r="Q46" s="19">
-        <v>36.782584659999998</v>
+        <v>34.95596040800001</v>
       </c>
       <c r="R46" s="19">
-        <v>4.3888587000000001</v>
+        <v>2.7197566399999999</v>
       </c>
       <c r="S46" s="20">
-        <v>0.38795038599999998</v>
+        <v>0.28684948999999998</v>
       </c>
     </row>
     <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -3601,57 +3601,57 @@
         <v>2021</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" s="13">
-        <f t="shared" si="3"/>
-        <v>12022.900882797225</v>
+        <f t="shared" si="6"/>
+        <v>11255.030800119688</v>
       </c>
       <c r="E47" s="14">
-        <v>4361.3740710000029</v>
+        <v>3793.7436850000049</v>
       </c>
       <c r="F47" s="14">
-        <v>5936.7487387972214</v>
+        <v>5713.976884119681</v>
       </c>
       <c r="G47" s="14">
-        <v>1232.430877999999</v>
+        <v>1315.6355450000001</v>
       </c>
       <c r="H47" s="14">
-        <v>263.60899599999999</v>
+        <v>235.601181</v>
       </c>
       <c r="I47" s="14">
-        <v>207.02036000000001</v>
+        <v>181.74973800000001</v>
       </c>
       <c r="J47" s="14">
-        <v>1.9199999999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K47" s="14">
-        <v>21.698639</v>
+        <v>14.308767</v>
       </c>
       <c r="L47" s="13">
-        <f t="shared" si="4"/>
-        <v>8508.790074300683</v>
+        <f t="shared" si="7"/>
+        <v>8093.1738756910991</v>
       </c>
       <c r="M47" s="14">
-        <v>2922.9896007830021</v>
+        <v>2575.3834254900021</v>
       </c>
       <c r="N47" s="14">
-        <v>4940.7335945086788</v>
+        <v>4833.7327735580984</v>
       </c>
       <c r="O47" s="14">
-        <v>590.43121132199985</v>
+        <v>635.0188110539998</v>
       </c>
       <c r="P47" s="14">
-        <v>9.6548794559999997</v>
+        <v>8.7395811469999991</v>
       </c>
       <c r="Q47" s="14">
-        <v>41.925393185999987</v>
+        <v>36.949788237000007</v>
       </c>
       <c r="R47" s="14">
-        <v>2.55537546</v>
+        <v>3.0379556999999999</v>
       </c>
       <c r="S47" s="15">
-        <v>0.50001958499999988</v>
+        <v>0.31154050500000008</v>
       </c>
     </row>
     <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -3659,57 +3659,57 @@
         <v>2021</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D48" s="18">
-        <f t="shared" si="3"/>
-        <v>11202.965129249227</v>
+        <f t="shared" si="6"/>
+        <v>11085.875192119853</v>
       </c>
       <c r="E48" s="19">
-        <v>4088.1791725000012</v>
+        <v>4014.4691365000031</v>
       </c>
       <c r="F48" s="19">
-        <v>5398.3324937492234</v>
+        <v>5377.2218746198478</v>
       </c>
       <c r="G48" s="19">
-        <v>1215.8369100000009</v>
+        <v>1234.1497800000011</v>
       </c>
       <c r="H48" s="19">
-        <v>280.81724400000002</v>
+        <v>253.12753699999999</v>
       </c>
       <c r="I48" s="19">
-        <v>191.078067</v>
+        <v>192.660923</v>
       </c>
       <c r="J48" s="19">
-        <v>3.2000000000000001E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="K48" s="19">
-        <v>28.689242</v>
+        <v>14.224441000000001</v>
       </c>
       <c r="L48" s="18">
-        <f t="shared" si="4"/>
-        <v>7831.1461965570006</v>
+        <f t="shared" si="7"/>
+        <v>7726.6787146596171</v>
       </c>
       <c r="M48" s="19">
-        <v>2687.4059335134998</v>
+        <v>2629.796765055999</v>
       </c>
       <c r="N48" s="19">
-        <v>4476.268327207501</v>
+        <v>4464.5122847686171</v>
       </c>
       <c r="O48" s="19">
-        <v>612.56275004999998</v>
+        <v>581.68120659000044</v>
       </c>
       <c r="P48" s="19">
-        <v>10.506913092</v>
+        <v>9.1290644990000001</v>
       </c>
       <c r="Q48" s="19">
-        <v>37.034007258999999</v>
+        <v>36.782584659999998</v>
       </c>
       <c r="R48" s="19">
-        <v>6.8037442799999992</v>
+        <v>4.3888587000000001</v>
       </c>
       <c r="S48" s="20">
-        <v>0.56452115499999989</v>
+        <v>0.38795038599999998</v>
       </c>
     </row>
     <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -3717,57 +3717,57 @@
         <v>2021</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D49" s="13">
-        <f t="shared" si="3"/>
-        <v>11472.620926703923</v>
+        <f t="shared" si="6"/>
+        <v>12022.900882797225</v>
       </c>
       <c r="E49" s="14">
-        <v>4090.808027499997</v>
+        <v>4361.3740710000029</v>
       </c>
       <c r="F49" s="14">
-        <v>5662.2790862039283</v>
+        <v>5936.7487387972214</v>
       </c>
       <c r="G49" s="14">
-        <v>1207.80692</v>
+        <v>1232.430877999999</v>
       </c>
       <c r="H49" s="14">
-        <v>294.74798299999998</v>
+        <v>263.60899599999999</v>
       </c>
       <c r="I49" s="14">
-        <v>196.56426200000001</v>
+        <v>207.02036000000001</v>
       </c>
       <c r="J49" s="14">
-        <v>2.7E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="K49" s="14">
-        <v>20.387647999999999</v>
+        <v>21.698639</v>
       </c>
       <c r="L49" s="13">
-        <f t="shared" si="4"/>
-        <v>8142.6430797048588</v>
+        <f t="shared" si="7"/>
+        <v>8508.790074300683</v>
       </c>
       <c r="M49" s="14">
-        <v>2745.9354684965042</v>
+        <v>2922.9896007830021</v>
       </c>
       <c r="N49" s="14">
-        <v>4736.7506870613533</v>
+        <v>4940.7335945086788</v>
       </c>
       <c r="O49" s="14">
-        <v>604.7617960900003</v>
+        <v>590.43121132199985</v>
       </c>
       <c r="P49" s="14">
-        <v>8.8911368260000003</v>
+        <v>9.6548794559999997</v>
       </c>
       <c r="Q49" s="14">
-        <v>41.498002944</v>
+        <v>41.925393185999987</v>
       </c>
       <c r="R49" s="14">
-        <v>4.35843588</v>
+        <v>2.55537546</v>
       </c>
       <c r="S49" s="15">
-        <v>0.44755240699999999</v>
+        <v>0.50001958499999988</v>
       </c>
     </row>
     <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -3775,289 +3775,289 @@
         <v>2021</v>
       </c>
       <c r="C50" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="18">
+        <f t="shared" si="6"/>
+        <v>11202.965129249227</v>
+      </c>
+      <c r="E50" s="19">
+        <v>4088.1791725000012</v>
+      </c>
+      <c r="F50" s="19">
+        <v>5398.3324937492234</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1215.8369100000009</v>
+      </c>
+      <c r="H50" s="19">
+        <v>280.81724400000002</v>
+      </c>
+      <c r="I50" s="19">
+        <v>191.078067</v>
+      </c>
+      <c r="J50" s="19">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K50" s="19">
+        <v>28.689242</v>
+      </c>
+      <c r="L50" s="18">
+        <f t="shared" si="7"/>
+        <v>7831.1461965570006</v>
+      </c>
+      <c r="M50" s="19">
+        <v>2687.4059335134998</v>
+      </c>
+      <c r="N50" s="19">
+        <v>4476.268327207501</v>
+      </c>
+      <c r="O50" s="19">
+        <v>612.56275004999998</v>
+      </c>
+      <c r="P50" s="19">
+        <v>10.506913092</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>37.034007258999999</v>
+      </c>
+      <c r="R50" s="19">
+        <v>6.8037442799999992</v>
+      </c>
+      <c r="S50" s="20">
+        <v>0.56452115499999989</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="13">
+        <f t="shared" si="6"/>
+        <v>11472.620926703923</v>
+      </c>
+      <c r="E51" s="14">
+        <v>4090.808027499997</v>
+      </c>
+      <c r="F51" s="14">
+        <v>5662.2790862039283</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1207.80692</v>
+      </c>
+      <c r="H51" s="14">
+        <v>294.74798299999998</v>
+      </c>
+      <c r="I51" s="14">
+        <v>196.56426200000001</v>
+      </c>
+      <c r="J51" s="14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K51" s="14">
+        <v>20.387647999999999</v>
+      </c>
+      <c r="L51" s="13">
+        <f t="shared" si="7"/>
+        <v>8142.6430797048588</v>
+      </c>
+      <c r="M51" s="14">
+        <v>2745.9354684965042</v>
+      </c>
+      <c r="N51" s="14">
+        <v>4736.7506870613533</v>
+      </c>
+      <c r="O51" s="14">
+        <v>604.7617960900003</v>
+      </c>
+      <c r="P51" s="14">
+        <v>8.8911368260000003</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>41.498002944</v>
+      </c>
+      <c r="R51" s="14">
+        <v>4.35843588</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0.44755240699999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="18">
-        <f t="shared" si="3"/>
+      <c r="D52" s="18">
+        <f t="shared" si="6"/>
         <v>9383.1106395317038</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E52" s="19">
         <v>3368.883307499998</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F52" s="19">
         <v>4573.2690100317068</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G52" s="19">
         <v>1036.92257</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H52" s="19">
         <v>234.75769500000001</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I52" s="19">
         <v>161.20675999999989</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J52" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K52" s="19">
         <v>8.0472970000000004</v>
       </c>
-      <c r="L50" s="18">
-        <f t="shared" si="4"/>
+      <c r="L52" s="18">
+        <f t="shared" si="7"/>
         <v>6633.7415436800029</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M52" s="19">
         <v>2289.3534260344968</v>
       </c>
-      <c r="N50" s="19">
+      <c r="N52" s="19">
         <v>3773.8464727675068</v>
       </c>
-      <c r="O50" s="19">
+      <c r="O52" s="19">
         <v>527.36503372999948</v>
       </c>
-      <c r="P50" s="19">
+      <c r="P52" s="19">
         <v>8.0640420000000006</v>
       </c>
-      <c r="Q50" s="19">
+      <c r="Q52" s="19">
         <v>32.601814822999998</v>
       </c>
-      <c r="R50" s="19">
+      <c r="R52" s="19">
         <v>2.3511389399999998</v>
       </c>
-      <c r="S50" s="20">
+      <c r="S52" s="20">
         <v>0.159615385</v>
       </c>
     </row>
-    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="21">
+    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="21">
         <v>2021</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C53" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="23">
-        <f t="shared" si="3"/>
+      <c r="D53" s="23">
+        <f t="shared" si="6"/>
         <v>10668.087908957505</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E53" s="24">
         <v>4020.238264000001</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F53" s="24">
         <v>5144.8473599575036</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G53" s="24">
         <v>1116.808546</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H53" s="24">
         <v>177.10898</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I53" s="24">
         <v>186.84795500000001</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J53" s="24">
         <v>5.1790099999999999</v>
       </c>
-      <c r="K51" s="24">
+      <c r="K53" s="24">
         <v>17.057794000000001</v>
       </c>
-      <c r="L51" s="23">
-        <f t="shared" si="4"/>
+      <c r="L53" s="23">
+        <f t="shared" si="7"/>
         <v>7658.9491725908874</v>
       </c>
-      <c r="M51" s="24">
+      <c r="M53" s="24">
         <v>2719.7331992549998</v>
       </c>
-      <c r="N51" s="24">
+      <c r="N53" s="24">
         <v>4347.3157786078864</v>
       </c>
-      <c r="O51" s="24">
+      <c r="O53" s="24">
         <v>544.13671407200002</v>
       </c>
-      <c r="P51" s="24">
+      <c r="P53" s="24">
         <v>7.3822649800000004</v>
       </c>
-      <c r="Q51" s="24">
+      <c r="Q53" s="24">
         <v>37.287069709999997</v>
       </c>
-      <c r="R51" s="24">
+      <c r="R53" s="24">
         <v>2.7605594199999999</v>
       </c>
-      <c r="S51" s="25">
+      <c r="S53" s="25">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="26">
+    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="26">
         <v>2020</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C54" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="28">
-        <f t="shared" si="3"/>
+      <c r="D54" s="28">
+        <f t="shared" si="6"/>
         <v>10425.345499100005</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E54" s="29">
         <v>3898.4186785000038</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F54" s="29">
         <v>4882.8448936000004</v>
       </c>
-      <c r="G52" s="29">
+      <c r="G54" s="29">
         <v>1069.05969</v>
       </c>
-      <c r="H52" s="29">
+      <c r="H54" s="29">
         <v>347.73810900000001</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I54" s="29">
         <v>196.70733799999999</v>
       </c>
-      <c r="J52" s="29">
+      <c r="J54" s="29">
         <v>18.026479999999999</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K54" s="29">
         <v>12.55031</v>
       </c>
-      <c r="L52" s="28">
-        <f t="shared" si="4"/>
+      <c r="L54" s="28">
+        <f t="shared" si="7"/>
         <v>7353.1727623347024</v>
       </c>
-      <c r="M52" s="29">
+      <c r="M54" s="29">
         <v>2625.9467366160002</v>
       </c>
-      <c r="N52" s="29">
+      <c r="N54" s="29">
         <v>4157.4580108327018</v>
       </c>
-      <c r="O52" s="29">
+      <c r="O54" s="29">
         <v>517.70569403000059</v>
       </c>
-      <c r="P52" s="29">
+      <c r="P54" s="29">
         <v>9.0617785400000006</v>
       </c>
-      <c r="Q52" s="29">
+      <c r="Q54" s="29">
         <v>36.825079076000002</v>
       </c>
-      <c r="R52" s="29">
+      <c r="R54" s="29">
         <v>5.8351311600000004</v>
       </c>
-      <c r="S52" s="30">
+      <c r="S54" s="30">
         <v>0.34033207999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="13">
-        <f t="shared" si="3"/>
-        <v>10381.153690500003</v>
-      </c>
-      <c r="E53" s="14">
-        <v>3792.1774099999998</v>
-      </c>
-      <c r="F53" s="14">
-        <v>5016.643987500006</v>
-      </c>
-      <c r="G53" s="14">
-        <v>1022.91</v>
-      </c>
-      <c r="H53" s="14">
-        <v>376.49241599999999</v>
-      </c>
-      <c r="I53" s="14">
-        <v>156.720607</v>
-      </c>
-      <c r="J53" s="14">
-        <v>6.5342300000000009</v>
-      </c>
-      <c r="K53" s="14">
-        <v>9.6750399999999974</v>
-      </c>
-      <c r="L53" s="13">
-        <f t="shared" si="4"/>
-        <v>7352.5100897651027</v>
-      </c>
-      <c r="M53" s="14">
-        <v>2476.4938742799982</v>
-      </c>
-      <c r="N53" s="14">
-        <v>4312.6025955031046</v>
-      </c>
-      <c r="O53" s="14">
-        <v>515.07792600000016</v>
-      </c>
-      <c r="P53" s="14">
-        <v>11.231821312999999</v>
-      </c>
-      <c r="Q53" s="14">
-        <v>34.256908838999998</v>
-      </c>
-      <c r="R53" s="14">
-        <v>2.6046938000000002</v>
-      </c>
-      <c r="S53" s="15">
-        <v>0.24227003</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="18">
-        <f t="shared" si="3"/>
-        <v>10304.857817457816</v>
-      </c>
-      <c r="E54" s="19">
-        <v>3959.7610744999961</v>
-      </c>
-      <c r="F54" s="19">
-        <v>4749.0987938578201</v>
-      </c>
-      <c r="G54" s="19">
-        <v>1197.7530099999999</v>
-      </c>
-      <c r="H54" s="19">
-        <v>186.51679809999999</v>
-      </c>
-      <c r="I54" s="19">
-        <v>178.59754699999999</v>
-      </c>
-      <c r="J54" s="19">
-        <v>16.072800000000001</v>
-      </c>
-      <c r="K54" s="19">
-        <v>17.057794000000001</v>
-      </c>
-      <c r="L54" s="18">
-        <f t="shared" si="4"/>
-        <v>7334.9599437122397</v>
-      </c>
-      <c r="M54" s="19">
-        <v>2713.3960539770019</v>
-      </c>
-      <c r="N54" s="19">
-        <v>4023.2553769225378</v>
-      </c>
-      <c r="O54" s="19">
-        <v>542.79762977000007</v>
-      </c>
-      <c r="P54" s="19">
-        <v>7.5060893896999996</v>
-      </c>
-      <c r="Q54" s="19">
-        <v>42.505763026999993</v>
-      </c>
-      <c r="R54" s="19">
-        <v>5.1654440799999994</v>
-      </c>
-      <c r="S54" s="20">
-        <v>0.33358654599999998</v>
       </c>
     </row>
     <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4065,57 +4065,57 @@
         <v>2020</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D55" s="13">
-        <f t="shared" si="3"/>
-        <v>10010.860705133222</v>
+        <f t="shared" si="6"/>
+        <v>10381.153690500003</v>
       </c>
       <c r="E55" s="14">
-        <v>4074.659214000003</v>
+        <v>3792.1774099999998</v>
       </c>
       <c r="F55" s="14">
-        <v>4534.2935971332181</v>
+        <v>5016.643987500006</v>
       </c>
       <c r="G55" s="14">
-        <v>1007.21459</v>
+        <v>1022.91</v>
       </c>
       <c r="H55" s="14">
-        <v>218.893238</v>
+        <v>376.49241599999999</v>
       </c>
       <c r="I55" s="14">
-        <v>160.24086600000001</v>
+        <v>156.720607</v>
       </c>
       <c r="J55" s="14">
-        <v>0.98</v>
+        <v>6.5342300000000009</v>
       </c>
       <c r="K55" s="14">
-        <v>14.5792</v>
+        <v>9.6750399999999974</v>
       </c>
       <c r="L55" s="13">
-        <f t="shared" si="4"/>
-        <v>7046.4603867411315</v>
+        <f t="shared" si="7"/>
+        <v>7352.5100897651027</v>
       </c>
       <c r="M55" s="14">
-        <v>2750.463505591501</v>
+        <v>2476.4938742799982</v>
       </c>
       <c r="N55" s="14">
-        <v>3736.9267533866309</v>
+        <v>4312.6025955031046</v>
       </c>
       <c r="O55" s="14">
-        <v>516.3334641199998</v>
+        <v>515.07792600000016</v>
       </c>
       <c r="P55" s="14">
-        <v>8.9935901099999995</v>
+        <v>11.231821312999999</v>
       </c>
       <c r="Q55" s="14">
-        <v>32.577175492999999</v>
+        <v>34.256908838999998</v>
       </c>
       <c r="R55" s="14">
-        <v>0.73748120000000006</v>
+        <v>2.6046938000000002</v>
       </c>
       <c r="S55" s="15">
-        <v>0.42841684000000002</v>
+        <v>0.24227003</v>
       </c>
     </row>
     <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4123,57 +4123,57 @@
         <v>2020</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D56" s="18">
-        <f t="shared" si="3"/>
-        <v>10140.746236042156</v>
+        <f t="shared" si="6"/>
+        <v>10304.857817457816</v>
       </c>
       <c r="E56" s="19">
-        <v>3720.288184500002</v>
+        <v>3959.7610744999961</v>
       </c>
       <c r="F56" s="19">
-        <v>4994.2514095421539</v>
+        <v>4749.0987938578201</v>
       </c>
       <c r="G56" s="19">
-        <v>1027.58536</v>
+        <v>1197.7530099999999</v>
       </c>
       <c r="H56" s="19">
-        <v>187.64308500000001</v>
+        <v>186.51679809999999</v>
       </c>
       <c r="I56" s="19">
-        <v>186.38118700000001</v>
+        <v>178.59754699999999</v>
       </c>
       <c r="J56" s="19">
-        <v>13.8596</v>
+        <v>16.072800000000001</v>
       </c>
       <c r="K56" s="19">
-        <v>10.737410000000001</v>
+        <v>17.057794000000001</v>
       </c>
       <c r="L56" s="18">
-        <f t="shared" si="4"/>
-        <v>7449.2591429184022</v>
+        <f t="shared" si="7"/>
+        <v>7334.9599437122397</v>
       </c>
       <c r="M56" s="19">
-        <v>2487.3447639574988</v>
+        <v>2713.3960539770019</v>
       </c>
       <c r="N56" s="19">
-        <v>4328.973769747904</v>
+        <v>4023.2553769225378</v>
       </c>
       <c r="O56" s="19">
-        <v>579.49765215000036</v>
+        <v>542.79762977000007</v>
       </c>
       <c r="P56" s="19">
-        <v>7.4413398099999997</v>
+        <v>7.5060893896999996</v>
       </c>
       <c r="Q56" s="19">
-        <v>39.990465413000003</v>
+        <v>42.505763026999993</v>
       </c>
       <c r="R56" s="19">
-        <v>5.7537497800000006</v>
+        <v>5.1654440799999994</v>
       </c>
       <c r="S56" s="20">
-        <v>0.25740205999999999</v>
+        <v>0.33358654599999998</v>
       </c>
     </row>
     <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4181,57 +4181,57 @@
         <v>2020</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D57" s="13">
-        <f t="shared" si="3"/>
-        <v>10156.497411288225</v>
+        <f t="shared" si="6"/>
+        <v>10010.860705133222</v>
       </c>
       <c r="E57" s="14">
-        <v>3613.696181999997</v>
+        <v>4074.659214000003</v>
       </c>
       <c r="F57" s="14">
-        <v>4968.204788288228</v>
+        <v>4534.2935971332181</v>
       </c>
       <c r="G57" s="14">
-        <v>1194.003549999999</v>
+        <v>1007.21459</v>
       </c>
       <c r="H57" s="14">
-        <v>179.13738699999999</v>
+        <v>218.893238</v>
       </c>
       <c r="I57" s="14">
-        <v>177.43138400000001</v>
+        <v>160.24086600000001</v>
       </c>
       <c r="J57" s="14">
-        <v>13.854179999999999</v>
+        <v>0.98</v>
       </c>
       <c r="K57" s="14">
-        <v>10.16994</v>
+        <v>14.5792</v>
       </c>
       <c r="L57" s="13">
-        <f t="shared" si="4"/>
-        <v>7380.5613200561647</v>
+        <f t="shared" si="7"/>
+        <v>7046.4603867411315</v>
       </c>
       <c r="M57" s="14">
-        <v>2428.846732166</v>
+        <v>2750.463505591501</v>
       </c>
       <c r="N57" s="14">
-        <v>4258.745057885164</v>
+        <v>3736.9267533866309</v>
       </c>
       <c r="O57" s="14">
-        <v>616.52099685999997</v>
+        <v>516.3334641199998</v>
       </c>
       <c r="P57" s="14">
-        <v>6.897613637000001</v>
+        <v>8.9935901099999995</v>
       </c>
       <c r="Q57" s="14">
-        <v>46.615575728000003</v>
+        <v>32.577175492999999</v>
       </c>
       <c r="R57" s="14">
-        <v>22.688503149999999</v>
+        <v>0.73748120000000006</v>
       </c>
       <c r="S57" s="15">
-        <v>0.24684063000000001</v>
+        <v>0.42841684000000002</v>
       </c>
     </row>
     <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4239,57 +4239,57 @@
         <v>2020</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D58" s="18">
-        <f t="shared" si="3"/>
-        <v>9413.8401068405965</v>
+        <f t="shared" si="6"/>
+        <v>10140.746236042156</v>
       </c>
       <c r="E58" s="19">
-        <v>3299.4981385000028</v>
+        <v>3720.288184500002</v>
       </c>
       <c r="F58" s="19">
-        <v>4750.320989340591</v>
+        <v>4994.2514095421539</v>
       </c>
       <c r="G58" s="19">
-        <v>1032.4139100000009</v>
+        <v>1027.58536</v>
       </c>
       <c r="H58" s="19">
-        <v>122.951718</v>
+        <v>187.64308500000001</v>
       </c>
       <c r="I58" s="19">
-        <v>176.151501</v>
+        <v>186.38118700000001</v>
       </c>
       <c r="J58" s="19">
-        <v>19.795500000000001</v>
+        <v>13.8596</v>
       </c>
       <c r="K58" s="19">
-        <v>12.708349999999999</v>
+        <v>10.737410000000001</v>
       </c>
       <c r="L58" s="18">
-        <f t="shared" si="4"/>
-        <v>6838.7530584626184</v>
+        <f t="shared" si="7"/>
+        <v>7449.2591429184022</v>
       </c>
       <c r="M58" s="19">
-        <v>2178.930646833498</v>
+        <v>2487.3447639574988</v>
       </c>
       <c r="N58" s="19">
-        <v>4081.32299100612</v>
+        <v>4328.973769747904</v>
       </c>
       <c r="O58" s="19">
-        <v>505.39333284999958</v>
+        <v>579.49765215000036</v>
       </c>
       <c r="P58" s="19">
-        <v>4.1486682360000007</v>
+        <v>7.4413398099999997</v>
       </c>
       <c r="Q58" s="19">
-        <v>48.516144666999992</v>
+        <v>39.990465413000003</v>
       </c>
       <c r="R58" s="19">
-        <v>20.1564771</v>
+        <v>5.7537497800000006</v>
       </c>
       <c r="S58" s="20">
-        <v>0.28479777000000012</v>
+        <v>0.25740205999999999</v>
       </c>
     </row>
     <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4297,57 +4297,57 @@
         <v>2020</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D59" s="13">
-        <f t="shared" ref="D59:D87" si="5">SUM(E59:K59)</f>
-        <v>8958.3282716603189</v>
+        <f t="shared" si="6"/>
+        <v>10156.497411288225</v>
       </c>
       <c r="E59" s="14">
-        <v>2963.8515250000032</v>
+        <v>3613.696181999997</v>
       </c>
       <c r="F59" s="14">
-        <v>4578.9250176603191</v>
+        <v>4968.204788288228</v>
       </c>
       <c r="G59" s="14">
-        <v>1046.3265299999989</v>
+        <v>1194.003549999999</v>
       </c>
       <c r="H59" s="14">
-        <v>141.62878699999999</v>
+        <v>179.13738699999999</v>
       </c>
       <c r="I59" s="14">
-        <v>181.326382</v>
+        <v>177.43138400000001</v>
       </c>
       <c r="J59" s="14">
-        <v>35.391770000000001</v>
+        <v>13.854179999999999</v>
       </c>
       <c r="K59" s="14">
-        <v>10.878259999999999</v>
+        <v>10.16994</v>
       </c>
       <c r="L59" s="13">
-        <f t="shared" ref="L59:L87" si="6">SUM(M59:S59)</f>
-        <v>6599.7211012138414</v>
+        <f t="shared" si="7"/>
+        <v>7380.5613200561647</v>
       </c>
       <c r="M59" s="14">
-        <v>1955.6864974084999</v>
+        <v>2428.846732166</v>
       </c>
       <c r="N59" s="14">
-        <v>4070.699793715341</v>
+        <v>4258.745057885164</v>
       </c>
       <c r="O59" s="14">
-        <v>490.43616353999971</v>
+        <v>616.52099685999997</v>
       </c>
       <c r="P59" s="14">
-        <v>4.9919812889999999</v>
+        <v>6.897613637000001</v>
       </c>
       <c r="Q59" s="14">
-        <v>49.262628410999987</v>
+        <v>46.615575728000003</v>
       </c>
       <c r="R59" s="14">
-        <v>28.479580210000002</v>
+        <v>22.688503149999999</v>
       </c>
       <c r="S59" s="15">
-        <v>0.16445663999999999</v>
+        <v>0.24684063000000001</v>
       </c>
     </row>
     <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4355,57 +4355,57 @@
         <v>2020</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D60" s="18">
-        <f t="shared" si="5"/>
-        <v>9180.7559098961865</v>
+        <f t="shared" si="6"/>
+        <v>9413.8401068405965</v>
       </c>
       <c r="E60" s="19">
-        <v>3045.684487</v>
+        <v>3299.4981385000028</v>
       </c>
       <c r="F60" s="19">
-        <v>4586.6569688961881</v>
+        <v>4750.320989340591</v>
       </c>
       <c r="G60" s="19">
-        <v>1232.8326999999999</v>
+        <v>1032.4139100000009</v>
       </c>
       <c r="H60" s="19">
-        <v>80.286566999999991</v>
+        <v>122.951718</v>
       </c>
       <c r="I60" s="19">
-        <v>185.73497699999999</v>
+        <v>176.151501</v>
       </c>
       <c r="J60" s="19">
-        <v>37.784360000000007</v>
+        <v>19.795500000000001</v>
       </c>
       <c r="K60" s="19">
-        <v>11.77585</v>
+        <v>12.708349999999999</v>
       </c>
       <c r="L60" s="18">
-        <f t="shared" si="6"/>
-        <v>6563.6809044984548</v>
+        <f t="shared" si="7"/>
+        <v>6838.7530584626184</v>
       </c>
       <c r="M60" s="19">
-        <v>2092.363650120501</v>
+        <v>2178.930646833498</v>
       </c>
       <c r="N60" s="19">
-        <v>3810.8671320719541</v>
+        <v>4081.32299100612</v>
       </c>
       <c r="O60" s="19">
-        <v>576.76851579999936</v>
+        <v>505.39333284999958</v>
       </c>
       <c r="P60" s="19">
-        <v>2.1857480950000001</v>
+        <v>4.1486682360000007</v>
       </c>
       <c r="Q60" s="19">
-        <v>48.091960541000013</v>
+        <v>48.516144666999992</v>
       </c>
       <c r="R60" s="19">
-        <v>33.146718739999997</v>
+        <v>20.1564771</v>
       </c>
       <c r="S60" s="20">
-        <v>0.25717912999999998</v>
+        <v>0.28479777000000012</v>
       </c>
     </row>
     <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4413,57 +4413,57 @@
         <v>2020</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D61" s="13">
-        <f t="shared" si="5"/>
-        <v>10838.533316456946</v>
+        <f t="shared" ref="D61:D89" si="8">SUM(E61:K61)</f>
+        <v>8958.3282716603189</v>
       </c>
       <c r="E61" s="14">
-        <v>3989.0247625000002</v>
+        <v>2963.8515250000032</v>
       </c>
       <c r="F61" s="14">
-        <v>5227.3044649569474</v>
+        <v>4578.9250176603191</v>
       </c>
       <c r="G61" s="14">
-        <v>1164.59097</v>
+        <v>1046.3265299999989</v>
       </c>
       <c r="H61" s="14">
-        <v>195.326954</v>
+        <v>141.62878699999999</v>
       </c>
       <c r="I61" s="14">
-        <v>192.162305</v>
+        <v>181.326382</v>
       </c>
       <c r="J61" s="14">
-        <v>55.761529999999993</v>
+        <v>35.391770000000001</v>
       </c>
       <c r="K61" s="14">
-        <v>14.36233</v>
+        <v>10.878259999999999</v>
       </c>
       <c r="L61" s="13">
-        <f t="shared" si="6"/>
-        <v>7720.3875207885012</v>
+        <f t="shared" ref="L61:L89" si="9">SUM(M61:S61)</f>
+        <v>6599.7211012138414</v>
       </c>
       <c r="M61" s="14">
-        <v>2719.9630072755008</v>
+        <v>1955.6864974084999</v>
       </c>
       <c r="N61" s="14">
-        <v>4308.5178526390009</v>
+        <v>4070.699793715341</v>
       </c>
       <c r="O61" s="14">
-        <v>550.02743308999959</v>
+        <v>490.43616353999971</v>
       </c>
       <c r="P61" s="14">
-        <v>7.8376115140000007</v>
+        <v>4.9919812889999999</v>
       </c>
       <c r="Q61" s="14">
-        <v>49.157905969999987</v>
+        <v>49.262628410999987</v>
       </c>
       <c r="R61" s="14">
-        <v>84.630515320000001</v>
+        <v>28.479580210000002</v>
       </c>
       <c r="S61" s="15">
-        <v>0.25319498000000001</v>
+        <v>0.16445663999999999</v>
       </c>
     </row>
     <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4471,289 +4471,289 @@
         <v>2020</v>
       </c>
       <c r="C62" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="18">
+        <f t="shared" si="8"/>
+        <v>9180.7559098961865</v>
+      </c>
+      <c r="E62" s="19">
+        <v>3045.684487</v>
+      </c>
+      <c r="F62" s="19">
+        <v>4586.6569688961881</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1232.8326999999999</v>
+      </c>
+      <c r="H62" s="19">
+        <v>80.286566999999991</v>
+      </c>
+      <c r="I62" s="19">
+        <v>185.73497699999999</v>
+      </c>
+      <c r="J62" s="19">
+        <v>37.784360000000007</v>
+      </c>
+      <c r="K62" s="19">
+        <v>11.77585</v>
+      </c>
+      <c r="L62" s="18">
+        <f t="shared" si="9"/>
+        <v>6563.6809044984548</v>
+      </c>
+      <c r="M62" s="19">
+        <v>2092.363650120501</v>
+      </c>
+      <c r="N62" s="19">
+        <v>3810.8671320719541</v>
+      </c>
+      <c r="O62" s="19">
+        <v>576.76851579999936</v>
+      </c>
+      <c r="P62" s="19">
+        <v>2.1857480950000001</v>
+      </c>
+      <c r="Q62" s="19">
+        <v>48.091960541000013</v>
+      </c>
+      <c r="R62" s="19">
+        <v>33.146718739999997</v>
+      </c>
+      <c r="S62" s="20">
+        <v>0.25717912999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="13">
+        <f t="shared" si="8"/>
+        <v>10838.533316456946</v>
+      </c>
+      <c r="E63" s="14">
+        <v>3989.0247625000002</v>
+      </c>
+      <c r="F63" s="14">
+        <v>5227.3044649569474</v>
+      </c>
+      <c r="G63" s="14">
+        <v>1164.59097</v>
+      </c>
+      <c r="H63" s="14">
+        <v>195.326954</v>
+      </c>
+      <c r="I63" s="14">
+        <v>192.162305</v>
+      </c>
+      <c r="J63" s="14">
+        <v>55.761529999999993</v>
+      </c>
+      <c r="K63" s="14">
+        <v>14.36233</v>
+      </c>
+      <c r="L63" s="13">
+        <f t="shared" si="9"/>
+        <v>7720.3875207885012</v>
+      </c>
+      <c r="M63" s="14">
+        <v>2719.9630072755008</v>
+      </c>
+      <c r="N63" s="14">
+        <v>4308.5178526390009</v>
+      </c>
+      <c r="O63" s="14">
+        <v>550.02743308999959</v>
+      </c>
+      <c r="P63" s="14">
+        <v>7.8376115140000007</v>
+      </c>
+      <c r="Q63" s="14">
+        <v>49.157905969999987</v>
+      </c>
+      <c r="R63" s="14">
+        <v>84.630515320000001</v>
+      </c>
+      <c r="S63" s="15">
+        <v>0.25319498000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="16">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="18">
-        <f t="shared" si="5"/>
+      <c r="D64" s="18">
+        <f t="shared" si="8"/>
         <v>10299.350069510732</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E64" s="19">
         <v>3823.384485499997</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F64" s="19">
         <v>4951.899973010738</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G64" s="19">
         <v>1126.6304699999989</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H64" s="19">
         <v>155.82070999999999</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I64" s="19">
         <v>189.46652100000011</v>
       </c>
-      <c r="J62" s="19">
+      <c r="J64" s="19">
         <v>42.813149999999993</v>
       </c>
-      <c r="K62" s="19">
+      <c r="K64" s="19">
         <v>9.3347600000000028</v>
       </c>
-      <c r="L62" s="18">
-        <f t="shared" si="6"/>
+      <c r="L64" s="18">
+        <f t="shared" si="9"/>
         <v>7398.4236104454985</v>
       </c>
-      <c r="M62" s="19">
+      <c r="M64" s="19">
         <v>2611.3807745675008</v>
       </c>
-      <c r="N62" s="19">
+      <c r="N64" s="19">
         <v>4099.994935206998</v>
       </c>
-      <c r="O62" s="19">
+      <c r="O64" s="19">
         <v>576.65962569999999</v>
       </c>
-      <c r="P62" s="19">
+      <c r="P64" s="19">
         <v>5.8101744709999998</v>
       </c>
-      <c r="Q62" s="19">
+      <c r="Q64" s="19">
         <v>48.975136419999998</v>
       </c>
-      <c r="R62" s="19">
+      <c r="R64" s="19">
         <v>55.332080869999999</v>
       </c>
-      <c r="S62" s="20">
+      <c r="S64" s="20">
         <v>0.2708832100000001</v>
       </c>
     </row>
-    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="21">
+    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="21">
         <v>2020</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C65" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="23">
-        <f t="shared" si="5"/>
+      <c r="D65" s="23">
+        <f t="shared" si="8"/>
         <v>10271.035696436747</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E65" s="24">
         <v>3815.537451499998</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F65" s="24">
         <v>4795.4483429367501</v>
       </c>
-      <c r="G63" s="24">
+      <c r="G65" s="24">
         <v>1231.876279999999</v>
       </c>
-      <c r="H63" s="24">
+      <c r="H65" s="24">
         <v>149.16394</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I65" s="24">
         <v>225.18540200000001</v>
       </c>
-      <c r="J63" s="24">
+      <c r="J65" s="24">
         <v>42.674029999999988</v>
       </c>
-      <c r="K63" s="24">
+      <c r="K65" s="24">
         <v>11.15025</v>
       </c>
-      <c r="L63" s="23">
-        <f t="shared" si="6"/>
+      <c r="L65" s="23">
+        <f t="shared" si="9"/>
         <v>7185.7383871704087</v>
       </c>
-      <c r="M63" s="24">
+      <c r="M65" s="24">
         <v>2557.950665571791</v>
       </c>
-      <c r="N63" s="24">
+      <c r="N65" s="24">
         <v>3902.6936190776169</v>
       </c>
-      <c r="O63" s="24">
+      <c r="O65" s="24">
         <v>613.68125601999952</v>
       </c>
-      <c r="P63" s="24">
+      <c r="P65" s="24">
         <v>5.5450976610000007</v>
       </c>
-      <c r="Q63" s="24">
+      <c r="Q65" s="24">
         <v>54.17302995</v>
       </c>
-      <c r="R63" s="24">
+      <c r="R65" s="24">
         <v>51.401263659999998</v>
       </c>
-      <c r="S63" s="25">
+      <c r="S65" s="25">
         <v>0.29345523000000012</v>
       </c>
     </row>
-    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="26">
+    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="26">
         <v>2019</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C66" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="28">
-        <f t="shared" si="5"/>
+      <c r="D66" s="28">
+        <f t="shared" si="8"/>
         <v>10047.312890842448</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E66" s="29">
         <v>3660.8761419999978</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F66" s="29">
         <v>4803.7000258424505</v>
       </c>
-      <c r="G64" s="29">
+      <c r="G66" s="29">
         <v>1177.5281500000008</v>
       </c>
-      <c r="H64" s="29">
+      <c r="H66" s="29">
         <v>122.89328999999999</v>
       </c>
-      <c r="I64" s="29">
+      <c r="I66" s="29">
         <v>230.92350300000001</v>
       </c>
-      <c r="J64" s="29">
+      <c r="J66" s="29">
         <v>42.637639999999998</v>
       </c>
-      <c r="K64" s="29">
+      <c r="K66" s="29">
         <v>8.7541399999999996</v>
       </c>
-      <c r="L64" s="28">
-        <f t="shared" si="6"/>
+      <c r="L66" s="28">
+        <f t="shared" si="9"/>
         <v>7283.4758425855061</v>
       </c>
-      <c r="M64" s="29">
+      <c r="M66" s="29">
         <v>2545.6933826471468</v>
       </c>
-      <c r="N64" s="29">
+      <c r="N66" s="29">
         <v>4050.2897667273596</v>
       </c>
-      <c r="O64" s="29">
+      <c r="O66" s="29">
         <v>573.5496261799999</v>
       </c>
-      <c r="P64" s="29">
+      <c r="P66" s="29">
         <v>4.2298997729999996</v>
       </c>
-      <c r="Q64" s="29">
+      <c r="Q66" s="29">
         <v>56.884561087999998</v>
       </c>
-      <c r="R64" s="29">
+      <c r="R66" s="29">
         <v>52.609621790000006</v>
       </c>
-      <c r="S64" s="30">
+      <c r="S66" s="30">
         <v>0.21898438000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="13">
-        <f t="shared" si="5"/>
-        <v>10280.781962591729</v>
-      </c>
-      <c r="E65" s="14">
-        <v>3610.9266754999981</v>
-      </c>
-      <c r="F65" s="14">
-        <v>5041.7983650917313</v>
-      </c>
-      <c r="G65" s="14">
-        <v>1236.3706200000001</v>
-      </c>
-      <c r="H65" s="14">
-        <v>119.94541900000002</v>
-      </c>
-      <c r="I65" s="14">
-        <v>216.296423</v>
-      </c>
-      <c r="J65" s="14">
-        <v>44.749820000000007</v>
-      </c>
-      <c r="K65" s="14">
-        <v>10.694639999999998</v>
-      </c>
-      <c r="L65" s="13">
-        <f t="shared" si="6"/>
-        <v>7555.8940235339123</v>
-      </c>
-      <c r="M65" s="14">
-        <v>2480.4706212095998</v>
-      </c>
-      <c r="N65" s="14">
-        <v>4344.3803465193132</v>
-      </c>
-      <c r="O65" s="14">
-        <v>612.67386856000019</v>
-      </c>
-      <c r="P65" s="14">
-        <v>4.0122463450000003</v>
-      </c>
-      <c r="Q65" s="14">
-        <v>58.796987859999994</v>
-      </c>
-      <c r="R65" s="14">
-        <v>55.348814779999998</v>
-      </c>
-      <c r="S65" s="15">
-        <v>0.21113825999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="16">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="18">
-        <f t="shared" si="5"/>
-        <v>10705.327866000001</v>
-      </c>
-      <c r="E66" s="19">
-        <v>3801.481272</v>
-      </c>
-      <c r="F66" s="19">
-        <v>5236.960086</v>
-      </c>
-      <c r="G66" s="19">
-        <v>1235.93461</v>
-      </c>
-      <c r="H66" s="19">
-        <v>160.86355499999999</v>
-      </c>
-      <c r="I66" s="19">
-        <v>213.47005300000001</v>
-      </c>
-      <c r="J66" s="19">
-        <v>45.65587</v>
-      </c>
-      <c r="K66" s="19">
-        <v>10.96242</v>
-      </c>
-      <c r="L66" s="18">
-        <f t="shared" si="6"/>
-        <v>7564.1221808391301</v>
-      </c>
-      <c r="M66" s="19">
-        <v>2532.7762513215766</v>
-      </c>
-      <c r="N66" s="19">
-        <v>4297.3858559405544</v>
-      </c>
-      <c r="O66" s="19">
-        <v>606.66118932999996</v>
-      </c>
-      <c r="P66" s="19">
-        <v>5.7111421819999997</v>
-      </c>
-      <c r="Q66" s="19">
-        <v>64.496729185000007</v>
-      </c>
-      <c r="R66" s="19">
-        <v>56.887522270000005</v>
-      </c>
-      <c r="S66" s="20">
-        <v>0.20349060999999999</v>
       </c>
     </row>
     <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4761,57 +4761,57 @@
         <v>2019</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D67" s="13">
-        <f t="shared" si="5"/>
-        <v>10313.251420927023</v>
+        <f t="shared" si="8"/>
+        <v>10280.781962591729</v>
       </c>
       <c r="E67" s="14">
-        <v>3763.4243204999998</v>
+        <v>3610.9266754999981</v>
       </c>
       <c r="F67" s="14">
-        <v>4794.4036324270237</v>
+        <v>5041.7983650917313</v>
       </c>
       <c r="G67" s="14">
-        <v>1259.9243900000008</v>
+        <v>1236.3706200000001</v>
       </c>
       <c r="H67" s="14">
-        <v>164.26299700000001</v>
+        <v>119.94541900000002</v>
       </c>
       <c r="I67" s="14">
-        <v>251.636821</v>
+        <v>216.296423</v>
       </c>
       <c r="J67" s="14">
-        <v>66.981439999999992</v>
+        <v>44.749820000000007</v>
       </c>
       <c r="K67" s="14">
-        <v>12.61782</v>
+        <v>10.694639999999998</v>
       </c>
       <c r="L67" s="13">
-        <f t="shared" si="6"/>
-        <v>7368.223949700222</v>
+        <f t="shared" si="9"/>
+        <v>7555.8940235339123</v>
       </c>
       <c r="M67" s="14">
-        <v>2492.5831110034319</v>
+        <v>2480.4706212095998</v>
       </c>
       <c r="N67" s="14">
-        <v>4168.1941198527893</v>
+        <v>4344.3803465193132</v>
       </c>
       <c r="O67" s="14">
-        <v>564.70797957000025</v>
+        <v>612.67386856000019</v>
       </c>
       <c r="P67" s="14">
-        <v>6.7826120650000004</v>
+        <v>4.0122463450000003</v>
       </c>
       <c r="Q67" s="14">
-        <v>68.621584789000011</v>
+        <v>58.796987859999994</v>
       </c>
       <c r="R67" s="14">
-        <v>67.080573079999994</v>
+        <v>55.348814779999998</v>
       </c>
       <c r="S67" s="15">
-        <v>0.25396934000000004</v>
+        <v>0.21113825999999997</v>
       </c>
     </row>
     <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4819,57 +4819,57 @@
         <v>2019</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D68" s="18">
-        <f t="shared" si="5"/>
-        <v>11096.380692382061</v>
+        <f t="shared" si="8"/>
+        <v>10705.327866000001</v>
       </c>
       <c r="E68" s="19">
-        <v>3917.8476439999995</v>
+        <v>3801.481272</v>
       </c>
       <c r="F68" s="19">
-        <v>5305.3281943820612</v>
+        <v>5236.960086</v>
       </c>
       <c r="G68" s="19">
-        <v>1265.0673000000011</v>
+        <v>1235.93461</v>
       </c>
       <c r="H68" s="19">
-        <v>254.105448</v>
+        <v>160.86355499999999</v>
       </c>
       <c r="I68" s="19">
-        <v>282.87777699999998</v>
+        <v>213.47005300000001</v>
       </c>
       <c r="J68" s="19">
-        <v>52.912410000000001</v>
+        <v>45.65587</v>
       </c>
       <c r="K68" s="19">
-        <v>18.241918999999999</v>
+        <v>10.96242</v>
       </c>
       <c r="L68" s="18">
-        <f t="shared" si="6"/>
-        <v>7875.1347427823239</v>
+        <f t="shared" si="9"/>
+        <v>7564.1221808391301</v>
       </c>
       <c r="M68" s="19">
-        <v>2623.4929048545905</v>
+        <v>2532.7762513215766</v>
       </c>
       <c r="N68" s="19">
-        <v>4528.0558628127355</v>
+        <v>4297.3858559405544</v>
       </c>
       <c r="O68" s="19">
-        <v>599.40095962999965</v>
+        <v>606.66118932999996</v>
       </c>
       <c r="P68" s="19">
-        <v>7.1929457959999992</v>
+        <v>5.7111421819999997</v>
       </c>
       <c r="Q68" s="19">
-        <v>67.383048192999993</v>
+        <v>64.496729185000007</v>
       </c>
       <c r="R68" s="19">
-        <v>49.255862180000001</v>
+        <v>56.887522270000005</v>
       </c>
       <c r="S68" s="20">
-        <v>0.353159316</v>
+        <v>0.20349060999999999</v>
       </c>
     </row>
     <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4877,57 +4877,57 @@
         <v>2019</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D69" s="13">
-        <f t="shared" si="5"/>
-        <v>11150.650438969102</v>
+        <f t="shared" si="8"/>
+        <v>10313.251420927023</v>
       </c>
       <c r="E69" s="14">
-        <v>3873.3662050000003</v>
+        <v>3763.4243204999998</v>
       </c>
       <c r="F69" s="14">
-        <v>5476.5920749691022</v>
+        <v>4794.4036324270237</v>
       </c>
       <c r="G69" s="14">
-        <v>1295.4921899999999</v>
+        <v>1259.9243900000008</v>
       </c>
       <c r="H69" s="14">
-        <v>130.167182</v>
+        <v>164.26299700000001</v>
       </c>
       <c r="I69" s="14">
-        <v>270.20667400000008</v>
+        <v>251.636821</v>
       </c>
       <c r="J69" s="14">
-        <v>95.357079999999996</v>
+        <v>66.981439999999992</v>
       </c>
       <c r="K69" s="14">
-        <v>9.4690329999999996</v>
+        <v>12.61782</v>
       </c>
       <c r="L69" s="13">
-        <f t="shared" si="6"/>
-        <v>8143.3902304466164</v>
+        <f t="shared" si="9"/>
+        <v>7368.223949700222</v>
       </c>
       <c r="M69" s="14">
-        <v>2699.0426404251648</v>
+        <v>2492.5831110034319</v>
       </c>
       <c r="N69" s="14">
-        <v>4690.7340326165104</v>
+        <v>4168.1941198527893</v>
       </c>
       <c r="O69" s="14">
-        <v>626.75042356999995</v>
+        <v>564.70797957000025</v>
       </c>
       <c r="P69" s="14">
-        <v>4.2158850049414749</v>
+        <v>6.7826120650000004</v>
       </c>
       <c r="Q69" s="14">
-        <v>69.891604407999992</v>
+        <v>68.621584789000011</v>
       </c>
       <c r="R69" s="14">
-        <v>52.570641740000006</v>
+        <v>67.080573079999994</v>
       </c>
       <c r="S69" s="15">
-        <v>0.18500268199999997</v>
+        <v>0.25396934000000004</v>
       </c>
     </row>
     <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4935,57 +4935,57 @@
         <v>2019</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D70" s="18">
-        <f t="shared" si="5"/>
-        <v>10374.818673051463</v>
+        <f t="shared" si="8"/>
+        <v>11096.380692382061</v>
       </c>
       <c r="E70" s="19">
-        <v>3549.9224370000029</v>
+        <v>3917.8476439999995</v>
       </c>
       <c r="F70" s="19">
-        <v>5071.1049410514588</v>
+        <v>5305.3281943820612</v>
       </c>
       <c r="G70" s="19">
-        <v>1261.1353490000001</v>
+        <v>1265.0673000000011</v>
       </c>
       <c r="H70" s="19">
-        <v>189.70297400000001</v>
+        <v>254.105448</v>
       </c>
       <c r="I70" s="19">
-        <v>241.36934199999999</v>
+        <v>282.87777699999998</v>
       </c>
       <c r="J70" s="19">
-        <v>51.38608</v>
+        <v>52.912410000000001</v>
       </c>
       <c r="K70" s="19">
-        <v>10.197550000000003</v>
+        <v>18.241918999999999</v>
       </c>
       <c r="L70" s="18">
-        <f t="shared" si="6"/>
-        <v>7532.8116285687038</v>
+        <f t="shared" si="9"/>
+        <v>7875.1347427823239</v>
       </c>
       <c r="M70" s="19">
-        <v>2498.5873912253655</v>
+        <v>2623.4929048545905</v>
       </c>
       <c r="N70" s="19">
-        <v>4294.5408771924649</v>
+        <v>4528.0558628127355</v>
       </c>
       <c r="O70" s="19">
-        <v>618.46245641899986</v>
+        <v>599.40095962999965</v>
       </c>
       <c r="P70" s="19">
-        <v>7.1837945668734235</v>
+        <v>7.1929457959999992</v>
       </c>
       <c r="Q70" s="19">
-        <v>67.283344745000008</v>
+        <v>67.383048192999993</v>
       </c>
       <c r="R70" s="19">
-        <v>46.514204849999999</v>
+        <v>49.255862180000001</v>
       </c>
       <c r="S70" s="20">
-        <v>0.23955957</v>
+        <v>0.353159316</v>
       </c>
     </row>
     <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -4993,57 +4993,57 @@
         <v>2019</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D71" s="13">
-        <f t="shared" si="5"/>
-        <v>10971.576587143792</v>
+        <f t="shared" si="8"/>
+        <v>11150.650438969102</v>
       </c>
       <c r="E71" s="14">
-        <v>3859.9412885000029</v>
+        <v>3873.3662050000003</v>
       </c>
       <c r="F71" s="14">
-        <v>5135.6499426437886</v>
+        <v>5476.5920749691022</v>
       </c>
       <c r="G71" s="14">
-        <v>1398.7275000000011</v>
+        <v>1295.4921899999999</v>
       </c>
       <c r="H71" s="14">
-        <v>201.93910199999996</v>
+        <v>130.167182</v>
       </c>
       <c r="I71" s="14">
-        <v>308.40207399999997</v>
+        <v>270.20667400000008</v>
       </c>
       <c r="J71" s="14">
-        <v>52.276800000000001</v>
+        <v>95.357079999999996</v>
       </c>
       <c r="K71" s="14">
-        <v>14.63988</v>
+        <v>9.4690329999999996</v>
       </c>
       <c r="L71" s="13">
-        <f t="shared" si="6"/>
-        <v>7918.5192805454762</v>
+        <f t="shared" si="9"/>
+        <v>8143.3902304466164</v>
       </c>
       <c r="M71" s="14">
-        <v>2715.5986838884046</v>
+        <v>2699.0426404251648</v>
       </c>
       <c r="N71" s="14">
-        <v>4370.5287118188699</v>
+        <v>4690.7340326165104</v>
       </c>
       <c r="O71" s="14">
-        <v>688.65007213000047</v>
+        <v>626.75042356999995</v>
       </c>
       <c r="P71" s="14">
-        <v>6.9957881702000009</v>
+        <v>4.2158850049414749</v>
       </c>
       <c r="Q71" s="14">
-        <v>77.028830357999993</v>
+        <v>69.891604407999992</v>
       </c>
       <c r="R71" s="14">
-        <v>59.42133875999999</v>
+        <v>52.570641740000006</v>
       </c>
       <c r="S71" s="15">
-        <v>0.29585541999999998</v>
+        <v>0.18500268199999997</v>
       </c>
     </row>
     <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -5051,57 +5051,57 @@
         <v>2019</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D72" s="18">
-        <f t="shared" si="5"/>
-        <v>10534.153393500883</v>
+        <f t="shared" si="8"/>
+        <v>10374.818673051463</v>
       </c>
       <c r="E72" s="19">
-        <v>3675.3372790000017</v>
+        <v>3549.9224370000029</v>
       </c>
       <c r="F72" s="19">
-        <v>5077.1043255008817</v>
+        <v>5071.1049410514588</v>
       </c>
       <c r="G72" s="19">
-        <v>1229.5152699999999</v>
+        <v>1261.1353490000001</v>
       </c>
       <c r="H72" s="19">
-        <v>205.91515200000003</v>
+        <v>189.70297400000001</v>
       </c>
       <c r="I72" s="19">
-        <v>272.06735700000002</v>
+        <v>241.36934199999999</v>
       </c>
       <c r="J72" s="19">
-        <v>57.111829999999998</v>
+        <v>51.38608</v>
       </c>
       <c r="K72" s="19">
-        <v>17.102179999999997</v>
+        <v>10.197550000000003</v>
       </c>
       <c r="L72" s="18">
-        <f t="shared" si="6"/>
-        <v>7390.6301600856887</v>
+        <f t="shared" si="9"/>
+        <v>7532.8116285687038</v>
       </c>
       <c r="M72" s="19">
-        <v>2482.4826125118411</v>
+        <v>2498.5873912253655</v>
       </c>
       <c r="N72" s="19">
-        <v>4183.7452393018466</v>
+        <v>4294.5408771924649</v>
       </c>
       <c r="O72" s="19">
-        <v>594.52454974000057</v>
+        <v>618.46245641899986</v>
       </c>
       <c r="P72" s="19">
-        <v>6.8929467899999999</v>
+        <v>7.1837945668734235</v>
       </c>
       <c r="Q72" s="19">
-        <v>61.99332402200001</v>
+        <v>67.283344745000008</v>
       </c>
       <c r="R72" s="19">
-        <v>60.632588310000003</v>
+        <v>46.514204849999999</v>
       </c>
       <c r="S72" s="20">
-        <v>0.35889941000000009</v>
+        <v>0.23955957</v>
       </c>
     </row>
     <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -5109,57 +5109,57 @@
         <v>2019</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D73" s="13">
-        <f t="shared" si="5"/>
-        <v>10581.052353198915</v>
+        <f t="shared" si="8"/>
+        <v>10971.576587143792</v>
       </c>
       <c r="E73" s="14">
-        <v>3752.7021304999998</v>
+        <v>3859.9412885000029</v>
       </c>
       <c r="F73" s="14">
-        <v>5042.9410756989164</v>
+        <v>5135.6499426437886</v>
       </c>
       <c r="G73" s="14">
-        <v>1226.6793299999995</v>
+        <v>1398.7275000000011</v>
       </c>
       <c r="H73" s="14">
-        <v>227.34326400000003</v>
+        <v>201.93910199999996</v>
       </c>
       <c r="I73" s="14">
-        <v>273.29974500000003</v>
+        <v>308.40207399999997</v>
       </c>
       <c r="J73" s="14">
-        <v>46.615569999999991</v>
+        <v>52.276800000000001</v>
       </c>
       <c r="K73" s="14">
-        <v>11.471238</v>
+        <v>14.63988</v>
       </c>
       <c r="L73" s="13">
-        <f t="shared" si="6"/>
-        <v>7316.8442337622519</v>
+        <f t="shared" si="9"/>
+        <v>7918.5192805454762</v>
       </c>
       <c r="M73" s="14">
-        <v>2584.8546054208359</v>
+        <v>2715.5986838884046</v>
       </c>
       <c r="N73" s="14">
-        <v>3971.3774654550916</v>
+        <v>4370.5287118188699</v>
       </c>
       <c r="O73" s="14">
-        <v>628.3360908439995</v>
+        <v>688.65007213000047</v>
       </c>
       <c r="P73" s="14">
-        <v>8.5075610303260056</v>
+        <v>6.9957881702000009</v>
       </c>
       <c r="Q73" s="14">
-        <v>68.783462650000004</v>
+        <v>77.028830357999993</v>
       </c>
       <c r="R73" s="14">
-        <v>54.71253209999999</v>
+        <v>59.42133875999999</v>
       </c>
       <c r="S73" s="15">
-        <v>0.27251626200000001</v>
+        <v>0.29585541999999998</v>
       </c>
     </row>
     <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
@@ -5167,338 +5167,342 @@
         <v>2019</v>
       </c>
       <c r="C74" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="18">
+        <f t="shared" si="8"/>
+        <v>10534.153393500883</v>
+      </c>
+      <c r="E74" s="19">
+        <v>3675.3372790000017</v>
+      </c>
+      <c r="F74" s="19">
+        <v>5077.1043255008817</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1229.5152699999999</v>
+      </c>
+      <c r="H74" s="19">
+        <v>205.91515200000003</v>
+      </c>
+      <c r="I74" s="19">
+        <v>272.06735700000002</v>
+      </c>
+      <c r="J74" s="19">
+        <v>57.111829999999998</v>
+      </c>
+      <c r="K74" s="19">
+        <v>17.102179999999997</v>
+      </c>
+      <c r="L74" s="18">
+        <f t="shared" si="9"/>
+        <v>7390.6301600856887</v>
+      </c>
+      <c r="M74" s="19">
+        <v>2482.4826125118411</v>
+      </c>
+      <c r="N74" s="19">
+        <v>4183.7452393018466</v>
+      </c>
+      <c r="O74" s="19">
+        <v>594.52454974000057</v>
+      </c>
+      <c r="P74" s="19">
+        <v>6.8929467899999999</v>
+      </c>
+      <c r="Q74" s="19">
+        <v>61.99332402200001</v>
+      </c>
+      <c r="R74" s="19">
+        <v>60.632588310000003</v>
+      </c>
+      <c r="S74" s="20">
+        <v>0.35889941000000009</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="13">
+        <f t="shared" si="8"/>
+        <v>10581.052353198915</v>
+      </c>
+      <c r="E75" s="14">
+        <v>3752.7021304999998</v>
+      </c>
+      <c r="F75" s="14">
+        <v>5042.9410756989164</v>
+      </c>
+      <c r="G75" s="14">
+        <v>1226.6793299999995</v>
+      </c>
+      <c r="H75" s="14">
+        <v>227.34326400000003</v>
+      </c>
+      <c r="I75" s="14">
+        <v>273.29974500000003</v>
+      </c>
+      <c r="J75" s="14">
+        <v>46.615569999999991</v>
+      </c>
+      <c r="K75" s="14">
+        <v>11.471238</v>
+      </c>
+      <c r="L75" s="13">
+        <f t="shared" si="9"/>
+        <v>7316.8442337622519</v>
+      </c>
+      <c r="M75" s="14">
+        <v>2584.8546054208359</v>
+      </c>
+      <c r="N75" s="14">
+        <v>3971.3774654550916</v>
+      </c>
+      <c r="O75" s="14">
+        <v>628.3360908439995</v>
+      </c>
+      <c r="P75" s="14">
+        <v>8.5075610303260056</v>
+      </c>
+      <c r="Q75" s="14">
+        <v>68.783462650000004</v>
+      </c>
+      <c r="R75" s="14">
+        <v>54.71253209999999</v>
+      </c>
+      <c r="S75" s="15">
+        <v>0.27251626200000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="18">
-        <f t="shared" si="5"/>
+      <c r="D76" s="18">
+        <f t="shared" si="8"/>
         <v>9241.6055505618933</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E76" s="19">
         <v>3275.5849539999986</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F76" s="19">
         <v>4370.160919561893</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G76" s="19">
         <v>1126.2545300000011</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H76" s="19">
         <v>152.85569699999999</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I76" s="19">
         <v>259.99696999999998</v>
       </c>
-      <c r="J74" s="19">
+      <c r="J76" s="19">
         <v>46.582780000000007</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K76" s="19">
         <v>10.169700000000002</v>
       </c>
-      <c r="L74" s="18">
-        <f t="shared" si="6"/>
+      <c r="L76" s="18">
+        <f t="shared" si="9"/>
         <v>6363.5933863084483</v>
       </c>
-      <c r="M74" s="19">
+      <c r="M76" s="19">
         <v>2189.6104131855614</v>
       </c>
-      <c r="N74" s="19">
+      <c r="N76" s="19">
         <v>3499.6909835169613</v>
       </c>
-      <c r="O74" s="19">
+      <c r="O76" s="19">
         <v>547.40245832199946</v>
       </c>
-      <c r="P74" s="19">
+      <c r="P76" s="19">
         <v>5.1177584499260034</v>
       </c>
-      <c r="Q74" s="19">
+      <c r="Q76" s="19">
         <v>63.306209223999993</v>
       </c>
-      <c r="R74" s="19">
+      <c r="R76" s="19">
         <v>58.28962554000001</v>
       </c>
-      <c r="S74" s="20">
+      <c r="S76" s="20">
         <v>0.17593807</v>
       </c>
     </row>
-    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="21">
+    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="21">
         <v>2019</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C77" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="23">
-        <f t="shared" si="5"/>
+      <c r="D77" s="23">
+        <f t="shared" si="8"/>
         <v>9892.1436970006562</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E77" s="24">
         <v>3499.7139435000031</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F77" s="24">
         <v>4546.0874465006518</v>
       </c>
-      <c r="G75" s="24">
+      <c r="G77" s="24">
         <v>1267.5804000000005</v>
       </c>
-      <c r="H75" s="24">
+      <c r="H77" s="24">
         <v>224.06764100000001</v>
       </c>
-      <c r="I75" s="24">
+      <c r="I77" s="24">
         <v>293.47607299999999</v>
       </c>
-      <c r="J75" s="24">
+      <c r="J77" s="24">
         <v>50.833020000000005</v>
       </c>
-      <c r="K75" s="24">
+      <c r="K77" s="24">
         <v>10.385172999999998</v>
       </c>
-      <c r="L75" s="23">
-        <f t="shared" si="6"/>
+      <c r="L77" s="23">
+        <f t="shared" si="9"/>
         <v>6769.108553604312</v>
       </c>
-      <c r="M75" s="24">
+      <c r="M77" s="24">
         <v>2315.0380047690219</v>
       </c>
-      <c r="N75" s="24">
+      <c r="N77" s="24">
         <v>3695.4581032397491</v>
       </c>
-      <c r="O75" s="24">
+      <c r="O77" s="24">
         <v>592.54793959300025</v>
       </c>
-      <c r="P75" s="24">
+      <c r="P77" s="24">
         <v>8.0988788035407904</v>
       </c>
-      <c r="Q75" s="24">
+      <c r="Q77" s="24">
         <v>68.810378116999999</v>
       </c>
-      <c r="R75" s="24">
+      <c r="R77" s="24">
         <v>88.897206580000002</v>
       </c>
-      <c r="S75" s="25">
+      <c r="S77" s="25">
         <v>0.25804250200000001</v>
       </c>
     </row>
-    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="26">
+    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="26">
         <v>2018</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C78" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="28">
-        <f t="shared" si="5"/>
+      <c r="D78" s="28">
+        <f t="shared" si="8"/>
         <v>10362</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E78" s="29">
         <v>3606</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F78" s="29">
         <v>4918</v>
       </c>
-      <c r="G76" s="29">
+      <c r="G78" s="29">
         <v>1307</v>
       </c>
-      <c r="H76" s="29">
+      <c r="H78" s="29">
         <v>208</v>
       </c>
-      <c r="I76" s="29">
+      <c r="I78" s="29">
         <v>280</v>
       </c>
-      <c r="J76" s="29">
+      <c r="J78" s="29">
         <v>34</v>
       </c>
-      <c r="K76" s="29">
+      <c r="K78" s="29">
         <v>9</v>
       </c>
-      <c r="L76" s="28">
-        <f t="shared" si="6"/>
+      <c r="L78" s="28">
+        <f t="shared" si="9"/>
         <v>7145</v>
       </c>
-      <c r="M76" s="29">
+      <c r="M78" s="29">
         <v>2425</v>
       </c>
-      <c r="N76" s="29">
+      <c r="N78" s="29">
         <v>3948</v>
       </c>
-      <c r="O76" s="29">
+      <c r="O78" s="29">
         <v>638</v>
       </c>
-      <c r="P76" s="29">
+      <c r="P78" s="29">
         <v>8</v>
       </c>
-      <c r="Q76" s="29">
+      <c r="Q78" s="29">
         <v>74</v>
       </c>
-      <c r="R76" s="29">
+      <c r="R78" s="29">
         <v>52</v>
       </c>
-      <c r="S76" s="30"/>
-    </row>
-    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="13">
-        <f t="shared" si="5"/>
-        <v>10847</v>
-      </c>
-      <c r="E77" s="14">
-        <v>3612</v>
-      </c>
-      <c r="F77" s="14">
-        <v>5385</v>
-      </c>
-      <c r="G77" s="14">
-        <v>1299</v>
-      </c>
-      <c r="H77" s="14">
-        <v>213</v>
-      </c>
-      <c r="I77" s="14">
-        <v>284</v>
-      </c>
-      <c r="J77" s="14">
-        <v>38</v>
-      </c>
-      <c r="K77" s="14">
-        <v>16</v>
-      </c>
-      <c r="L77" s="13">
-        <f t="shared" si="6"/>
-        <v>7655</v>
-      </c>
-      <c r="M77" s="14">
-        <v>2466</v>
-      </c>
-      <c r="N77" s="14">
-        <v>4397</v>
-      </c>
-      <c r="O77" s="14">
-        <v>669</v>
-      </c>
-      <c r="P77" s="14">
-        <v>8</v>
-      </c>
-      <c r="Q77" s="14">
-        <v>74</v>
-      </c>
-      <c r="R77" s="14">
-        <v>41</v>
-      </c>
-      <c r="S77" s="15"/>
-    </row>
-    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="16">
-        <v>2018</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="18">
-        <f t="shared" si="5"/>
-        <v>10926</v>
-      </c>
-      <c r="E78" s="19">
-        <v>3805</v>
-      </c>
-      <c r="F78" s="19">
-        <v>5324</v>
-      </c>
-      <c r="G78" s="19">
-        <v>1340</v>
-      </c>
-      <c r="H78" s="19">
-        <v>137</v>
-      </c>
-      <c r="I78" s="19">
-        <v>273</v>
-      </c>
-      <c r="J78" s="19">
-        <v>27</v>
-      </c>
-      <c r="K78" s="19">
-        <v>20</v>
-      </c>
-      <c r="L78" s="18">
-        <f t="shared" si="6"/>
-        <v>7509</v>
-      </c>
-      <c r="M78" s="19">
-        <v>2604</v>
-      </c>
-      <c r="N78" s="19">
-        <v>4133</v>
-      </c>
-      <c r="O78" s="19">
-        <v>655</v>
-      </c>
-      <c r="P78" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q78" s="19">
-        <v>72</v>
-      </c>
-      <c r="R78" s="19">
-        <v>41</v>
-      </c>
-      <c r="S78" s="20"/>
+      <c r="S78" s="30"/>
     </row>
     <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B79" s="11">
         <v>2018</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D79" s="13">
-        <f t="shared" si="5"/>
-        <v>10257</v>
+        <f t="shared" si="8"/>
+        <v>10847</v>
       </c>
       <c r="E79" s="14">
-        <v>3485</v>
+        <v>3612</v>
       </c>
       <c r="F79" s="14">
-        <v>4900</v>
+        <v>5385</v>
       </c>
       <c r="G79" s="14">
-        <v>1349</v>
+        <v>1299</v>
       </c>
       <c r="H79" s="14">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I79" s="14">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="J79" s="14">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K79" s="14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L79" s="13">
-        <f t="shared" si="6"/>
-        <v>7135</v>
+        <f t="shared" si="9"/>
+        <v>7655</v>
       </c>
       <c r="M79" s="14">
-        <v>2350</v>
+        <v>2466</v>
       </c>
       <c r="N79" s="14">
-        <v>4008</v>
+        <v>4397</v>
       </c>
       <c r="O79" s="14">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="P79" s="14">
         <v>8</v>
       </c>
       <c r="Q79" s="14">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="R79" s="14">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S79" s="15"/>
     </row>
@@ -5507,54 +5511,54 @@
         <v>2018</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D80" s="18">
-        <f t="shared" si="5"/>
-        <v>10917</v>
+        <f t="shared" si="8"/>
+        <v>10926</v>
       </c>
       <c r="E80" s="19">
-        <v>3674</v>
+        <v>3805</v>
       </c>
       <c r="F80" s="19">
-        <v>5279</v>
+        <v>5324</v>
       </c>
       <c r="G80" s="19">
-        <v>1420</v>
+        <v>1340</v>
       </c>
       <c r="H80" s="19">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="I80" s="19">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J80" s="19">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K80" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L80" s="18">
-        <f t="shared" si="6"/>
-        <v>7620</v>
+        <f t="shared" si="9"/>
+        <v>7509</v>
       </c>
       <c r="M80" s="19">
-        <v>2514</v>
+        <v>2604</v>
       </c>
       <c r="N80" s="19">
-        <v>4292</v>
+        <v>4133</v>
       </c>
       <c r="O80" s="19">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="P80" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q80" s="19">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R80" s="19">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="S80" s="20"/>
     </row>
@@ -5563,51 +5567,51 @@
         <v>2018</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D81" s="13">
-        <f t="shared" si="5"/>
-        <v>11147</v>
+        <f t="shared" si="8"/>
+        <v>10257</v>
       </c>
       <c r="E81" s="14">
-        <v>3756</v>
+        <v>3485</v>
       </c>
       <c r="F81" s="14">
-        <v>5273</v>
+        <v>4900</v>
       </c>
       <c r="G81" s="14">
-        <v>1541</v>
+        <v>1349</v>
       </c>
       <c r="H81" s="14">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I81" s="14">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="J81" s="14">
         <v>42</v>
       </c>
       <c r="K81" s="14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L81" s="13">
-        <f t="shared" si="6"/>
-        <v>7610</v>
+        <f t="shared" si="9"/>
+        <v>7135</v>
       </c>
       <c r="M81" s="14">
-        <v>2530</v>
+        <v>2350</v>
       </c>
       <c r="N81" s="14">
-        <v>4228</v>
+        <v>4008</v>
       </c>
       <c r="O81" s="14">
-        <v>716</v>
+        <v>655</v>
       </c>
       <c r="P81" s="14">
         <v>8</v>
       </c>
       <c r="Q81" s="14">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="R81" s="14">
         <v>51</v>
@@ -5619,54 +5623,54 @@
         <v>2018</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D82" s="18">
-        <f t="shared" si="5"/>
-        <v>10948</v>
+        <f t="shared" si="8"/>
+        <v>10917</v>
       </c>
       <c r="E82" s="19">
-        <v>3657</v>
+        <v>3674</v>
       </c>
       <c r="F82" s="19">
-        <v>5338</v>
+        <v>5279</v>
       </c>
       <c r="G82" s="19">
-        <v>1355</v>
+        <v>1420</v>
       </c>
       <c r="H82" s="19">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="I82" s="19">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="J82" s="19">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K82" s="19">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L82" s="18">
-        <f t="shared" si="6"/>
-        <v>7627</v>
+        <f t="shared" si="9"/>
+        <v>7620</v>
       </c>
       <c r="M82" s="19">
-        <v>2524</v>
+        <v>2514</v>
       </c>
       <c r="N82" s="19">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="O82" s="19">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="P82" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q82" s="19">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R82" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S82" s="20"/>
     </row>
@@ -5675,54 +5679,54 @@
         <v>2018</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D83" s="13">
-        <f t="shared" si="5"/>
-        <v>11358</v>
+        <f t="shared" si="8"/>
+        <v>11147</v>
       </c>
       <c r="E83" s="14">
-        <v>3901</v>
+        <v>3756</v>
       </c>
       <c r="F83" s="14">
-        <v>5805</v>
+        <v>5273</v>
       </c>
       <c r="G83" s="14">
-        <v>1068</v>
+        <v>1541</v>
       </c>
       <c r="H83" s="14">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="I83" s="14">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J83" s="14">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="K83" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L83" s="13">
-        <f t="shared" si="6"/>
-        <v>7899</v>
+        <f t="shared" si="9"/>
+        <v>7610</v>
       </c>
       <c r="M83" s="14">
-        <v>2695</v>
+        <v>2530</v>
       </c>
       <c r="N83" s="14">
-        <v>4507</v>
+        <v>4228</v>
       </c>
       <c r="O83" s="14">
-        <v>556</v>
+        <v>716</v>
       </c>
       <c r="P83" s="14">
         <v>8</v>
       </c>
       <c r="Q83" s="14">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R83" s="14">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S83" s="15"/>
     </row>
@@ -5731,54 +5735,54 @@
         <v>2018</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D84" s="18">
-        <f t="shared" si="5"/>
-        <v>10769</v>
+        <f t="shared" si="8"/>
+        <v>10948</v>
       </c>
       <c r="E84" s="19">
-        <v>3736</v>
+        <v>3657</v>
       </c>
       <c r="F84" s="19">
-        <v>5158</v>
+        <v>5338</v>
       </c>
       <c r="G84" s="19">
-        <v>1304</v>
+        <v>1355</v>
       </c>
       <c r="H84" s="19">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="I84" s="19">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="J84" s="19">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K84" s="19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L84" s="18">
-        <f t="shared" si="6"/>
-        <v>7284</v>
+        <f t="shared" si="9"/>
+        <v>7627</v>
       </c>
       <c r="M84" s="19">
-        <v>2592</v>
+        <v>2524</v>
       </c>
       <c r="N84" s="19">
-        <v>3860</v>
+        <v>4291</v>
       </c>
       <c r="O84" s="19">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="P84" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q84" s="19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R84" s="19">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S84" s="20"/>
     </row>
@@ -5787,54 +5791,54 @@
         <v>2018</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D85" s="13">
-        <f t="shared" si="5"/>
-        <v>10595</v>
+        <f t="shared" si="8"/>
+        <v>11358</v>
       </c>
       <c r="E85" s="14">
-        <v>3510</v>
+        <v>3901</v>
       </c>
       <c r="F85" s="14">
-        <v>5158</v>
+        <v>5805</v>
       </c>
       <c r="G85" s="14">
-        <v>1332</v>
+        <v>1068</v>
       </c>
       <c r="H85" s="14">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="I85" s="14">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J85" s="14">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K85" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L85" s="13">
-        <f t="shared" si="6"/>
-        <v>7079</v>
+        <f t="shared" si="9"/>
+        <v>7899</v>
       </c>
       <c r="M85" s="14">
-        <v>2512</v>
+        <v>2695</v>
       </c>
       <c r="N85" s="14">
-        <v>3719</v>
+        <v>4507</v>
       </c>
       <c r="O85" s="14">
-        <v>718</v>
+        <v>556</v>
       </c>
       <c r="P85" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q85" s="14">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="R85" s="14">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S85" s="15"/>
     </row>
@@ -5843,125 +5847,237 @@
         <v>2018</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="18">
-        <f t="shared" si="5"/>
-        <v>9439</v>
+        <f t="shared" si="8"/>
+        <v>10769</v>
       </c>
       <c r="E86" s="19">
-        <v>3213</v>
+        <v>3736</v>
       </c>
       <c r="F86" s="19">
-        <v>4478</v>
+        <v>5158</v>
       </c>
       <c r="G86" s="19">
-        <v>1214</v>
+        <v>1304</v>
       </c>
       <c r="H86" s="19">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I86" s="19">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="J86" s="19">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K86" s="19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L86" s="18">
-        <f t="shared" si="6"/>
-        <v>6237</v>
+        <f t="shared" si="9"/>
+        <v>7284</v>
       </c>
       <c r="M86" s="19">
-        <v>2209</v>
+        <v>2592</v>
       </c>
       <c r="N86" s="19">
-        <v>3275</v>
+        <v>3860</v>
       </c>
       <c r="O86" s="19">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="P86" s="19">
         <v>8</v>
       </c>
       <c r="Q86" s="19">
+        <v>73</v>
+      </c>
+      <c r="R86" s="19">
+        <v>50</v>
+      </c>
+      <c r="S86" s="20"/>
+    </row>
+    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="13">
+        <f t="shared" si="8"/>
+        <v>10595</v>
+      </c>
+      <c r="E87" s="14">
+        <v>3510</v>
+      </c>
+      <c r="F87" s="14">
+        <v>5158</v>
+      </c>
+      <c r="G87" s="14">
+        <v>1332</v>
+      </c>
+      <c r="H87" s="14">
+        <v>223</v>
+      </c>
+      <c r="I87" s="14">
+        <v>307</v>
+      </c>
+      <c r="J87" s="14">
+        <v>50</v>
+      </c>
+      <c r="K87" s="14">
+        <v>15</v>
+      </c>
+      <c r="L87" s="13">
+        <f t="shared" si="9"/>
+        <v>7079</v>
+      </c>
+      <c r="M87" s="14">
+        <v>2512</v>
+      </c>
+      <c r="N87" s="14">
+        <v>3719</v>
+      </c>
+      <c r="O87" s="14">
+        <v>718</v>
+      </c>
+      <c r="P87" s="14">
+        <v>9</v>
+      </c>
+      <c r="Q87" s="14">
+        <v>68</v>
+      </c>
+      <c r="R87" s="14">
+        <v>53</v>
+      </c>
+      <c r="S87" s="15"/>
+    </row>
+    <row r="88" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="18">
+        <f t="shared" si="8"/>
+        <v>9439</v>
+      </c>
+      <c r="E88" s="19">
+        <v>3213</v>
+      </c>
+      <c r="F88" s="19">
+        <v>4478</v>
+      </c>
+      <c r="G88" s="19">
+        <v>1214</v>
+      </c>
+      <c r="H88" s="19">
+        <v>203</v>
+      </c>
+      <c r="I88" s="19">
+        <v>273</v>
+      </c>
+      <c r="J88" s="19">
+        <v>50</v>
+      </c>
+      <c r="K88" s="19">
+        <v>8</v>
+      </c>
+      <c r="L88" s="18">
+        <f t="shared" si="9"/>
+        <v>6237</v>
+      </c>
+      <c r="M88" s="19">
+        <v>2209</v>
+      </c>
+      <c r="N88" s="19">
+        <v>3275</v>
+      </c>
+      <c r="O88" s="19">
+        <v>646</v>
+      </c>
+      <c r="P88" s="19">
+        <v>8</v>
+      </c>
+      <c r="Q88" s="19">
         <v>60</v>
       </c>
-      <c r="R86" s="19">
+      <c r="R88" s="19">
         <v>39</v>
       </c>
-      <c r="S86" s="20"/>
-    </row>
-    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="21">
+      <c r="S88" s="20"/>
+    </row>
+    <row r="89" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="21">
         <v>2018</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C89" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="23">
-        <f t="shared" si="5"/>
+      <c r="D89" s="23">
+        <f t="shared" si="8"/>
         <v>10479</v>
       </c>
-      <c r="E87" s="24">
+      <c r="E89" s="24">
         <v>3653</v>
       </c>
-      <c r="F87" s="24">
+      <c r="F89" s="24">
         <v>4773</v>
       </c>
-      <c r="G87" s="24">
+      <c r="G89" s="24">
         <v>1398</v>
       </c>
-      <c r="H87" s="24">
+      <c r="H89" s="24">
         <v>287</v>
       </c>
-      <c r="I87" s="24">
+      <c r="I89" s="24">
         <v>312</v>
       </c>
-      <c r="J87" s="24">
+      <c r="J89" s="24">
         <v>47</v>
       </c>
-      <c r="K87" s="24">
+      <c r="K89" s="24">
         <v>9</v>
       </c>
-      <c r="L87" s="23">
-        <f t="shared" si="6"/>
+      <c r="L89" s="23">
+        <f t="shared" si="9"/>
         <v>7153</v>
       </c>
-      <c r="M87" s="24">
+      <c r="M89" s="24">
         <v>2519</v>
       </c>
-      <c r="N87" s="24">
+      <c r="N89" s="24">
         <v>3737</v>
       </c>
-      <c r="O87" s="24">
+      <c r="O89" s="24">
         <v>754</v>
       </c>
-      <c r="P87" s="24">
+      <c r="P89" s="24">
         <v>11</v>
       </c>
-      <c r="Q87" s="24">
+      <c r="Q89" s="24">
         <v>66</v>
       </c>
-      <c r="R87" s="24">
+      <c r="R89" s="24">
         <v>65</v>
       </c>
-      <c r="S87" s="25">
+      <c r="S89" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B88" s="31" t="s">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B90" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S89" s="32"/>
+      <c r="S91" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C2BBD8-5B1F-427D-8C7D-7886FF6FFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712C9C3-8FAF-424E-933C-00979DBDE16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_24" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -759,6 +759,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -779,13 +786,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -837,8 +837,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S89" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
-  <autoFilter ref="B5:S89" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S91" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="B5:S91" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1094,13 +1094,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:S91"/>
+  <dimension ref="B2:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.09765625" style="2" customWidth="1"/>
@@ -1124,21 +1124,21 @@
     <col min="20" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:19" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="33" t="s">
@@ -1162,7 +1162,7 @@
       <c r="R4" s="34"/>
       <c r="S4" s="35"/>
     </row>
-    <row r="5" spans="2:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1218,4866 +1218,4982 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ref="D6:D7" si="0">SUM(E6:K6)</f>
-        <v>10531.168920500006</v>
+        <v>9843.6933180000051</v>
       </c>
       <c r="E6" s="19">
-        <v>4403.8653655000062</v>
+        <v>4031.6968250000018</v>
       </c>
       <c r="F6" s="19">
-        <v>4561.0179649999991</v>
+        <v>4563.1205860000046</v>
       </c>
       <c r="G6" s="19">
-        <v>1249.3825690000003</v>
+        <v>950.4444809999992</v>
       </c>
       <c r="H6" s="19">
-        <v>185.75494600000002</v>
+        <v>152.39102800000003</v>
       </c>
       <c r="I6" s="19">
-        <v>92.695411999999536</v>
+        <v>98.085166999999331</v>
       </c>
       <c r="J6" s="19">
-        <v>22.807550000000003</v>
+        <v>38.523620000000001</v>
       </c>
       <c r="K6" s="19">
-        <v>15.645113000000002</v>
+        <v>9.4316110000000002</v>
       </c>
       <c r="L6" s="18">
-        <f>SUM(M6:S6)</f>
-        <v>7573.6432846844991</v>
+        <f t="shared" ref="L6:L7" si="1">SUM(M6:S6)</f>
+        <v>6953.4096669074952</v>
       </c>
       <c r="M6" s="19">
-        <v>2985.2792777564991</v>
+        <v>2686.275029911501</v>
       </c>
       <c r="N6" s="19">
-        <v>3977.6579078809991</v>
+        <v>3673.5190396059929</v>
       </c>
       <c r="O6" s="19">
-        <v>564.31985714999962</v>
+        <v>551.47404396000047</v>
       </c>
       <c r="P6" s="19">
-        <v>6.0120059109999984</v>
+        <v>5.4509899860000006</v>
       </c>
       <c r="Q6" s="19">
-        <v>24.991510190000174</v>
+        <v>25.072023331000192</v>
       </c>
       <c r="R6" s="19">
-        <v>15.075261706000004</v>
+        <v>11.490530379000001</v>
       </c>
       <c r="S6" s="20">
-        <v>0.30746408999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13">
+        <v>0.12800973399999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="21">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="23">
         <f t="shared" si="0"/>
-        <v>10293.216345500003</v>
-      </c>
-      <c r="E7" s="14">
-        <v>4074.3531224999974</v>
-      </c>
-      <c r="F7" s="14">
-        <v>4591.2098260000075</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1250.6662779999986</v>
-      </c>
-      <c r="H7" s="14">
-        <v>236.92333399999995</v>
-      </c>
-      <c r="I7" s="14">
-        <v>107.48781899999955</v>
-      </c>
-      <c r="J7" s="14">
-        <v>17.693559999999998</v>
-      </c>
-      <c r="K7" s="14">
-        <v>14.882406000000001</v>
-      </c>
-      <c r="L7" s="13">
-        <f>SUM(M7:S7)</f>
-        <v>7483.7337101601415</v>
-      </c>
-      <c r="M7" s="14">
-        <v>2727.5133536075004</v>
-      </c>
-      <c r="N7" s="14">
-        <v>4141.6578731970003</v>
-      </c>
-      <c r="O7" s="14">
-        <v>563.5016914100006</v>
-      </c>
-      <c r="P7" s="14">
-        <v>8.2360092920000021</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>29.147426476000163</v>
-      </c>
-      <c r="R7" s="14">
-        <v>13.431654407639998</v>
-      </c>
-      <c r="S7" s="15">
-        <v>0.24570176999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+        <v>10553.276212499992</v>
+      </c>
+      <c r="E7" s="24">
+        <v>4290.8263595000017</v>
+      </c>
+      <c r="F7" s="24">
+        <v>4842.1234059999906</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1029.4576040000004</v>
+      </c>
+      <c r="H7" s="24">
+        <v>229.21633600000001</v>
+      </c>
+      <c r="I7" s="24">
+        <v>105.83529699999956</v>
+      </c>
+      <c r="J7" s="24">
+        <v>46.891849999999984</v>
+      </c>
+      <c r="K7" s="24">
+        <v>8.9253600000000013</v>
+      </c>
+      <c r="L7" s="23">
+        <f t="shared" si="1"/>
+        <v>7654.6706844814944</v>
+      </c>
+      <c r="M7" s="24">
+        <v>2856.3638319094998</v>
+      </c>
+      <c r="N7" s="24">
+        <v>4139.2285466729945</v>
+      </c>
+      <c r="O7" s="24">
+        <v>607.44396194000035</v>
+      </c>
+      <c r="P7" s="24">
+        <v>7.9584968540000016</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>26.890831818000201</v>
+      </c>
+      <c r="R7" s="24">
+        <v>16.669521117000002</v>
+      </c>
+      <c r="S7" s="25">
+        <v>0.11549416999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>2024</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="18">
-        <f t="shared" ref="D8:D13" si="1">SUM(E8:K8)</f>
-        <v>10627.751215000002</v>
+        <f t="shared" ref="D8:D9" si="2">SUM(E8:K8)</f>
+        <v>10531.168920500006</v>
       </c>
       <c r="E8" s="19">
-        <v>4621.2502850000001</v>
+        <v>4403.8653655000062</v>
       </c>
       <c r="F8" s="19">
-        <v>4847.8326420000003</v>
+        <v>4561.0179649999991</v>
       </c>
       <c r="G8" s="19">
-        <v>883.41127600000004</v>
+        <v>1249.3825690000003</v>
       </c>
       <c r="H8" s="19">
-        <v>164.42353700000001</v>
+        <v>185.75494600000002</v>
       </c>
       <c r="I8" s="19">
-        <v>86.575890000000001</v>
+        <v>92.695411999999536</v>
       </c>
       <c r="J8" s="19">
-        <v>8.5300799999999999</v>
+        <v>22.807550000000003</v>
       </c>
       <c r="K8" s="19">
-        <v>15.727505000000001</v>
+        <v>15.645113000000002</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" ref="L6:L10" si="2">SUM(M8:S8)</f>
-        <v>7740.759690927599</v>
+        <f>SUM(M8:S8)</f>
+        <v>7573.5815223644986</v>
       </c>
       <c r="M8" s="19">
-        <v>3074.0600736719998</v>
+        <v>2985.2792777564991</v>
       </c>
       <c r="N8" s="19">
-        <v>4209.4804649380003</v>
+        <v>3977.6579078809991</v>
       </c>
       <c r="O8" s="19">
-        <v>420.6767304</v>
+        <v>564.31985714999962</v>
       </c>
       <c r="P8" s="19">
-        <v>5.6841813920000002</v>
+        <v>6.0120059109999984</v>
       </c>
       <c r="Q8" s="19">
-        <v>27.009476482</v>
+        <v>24.991510190000174</v>
       </c>
       <c r="R8" s="19">
-        <v>3.5642458335999998</v>
+        <v>15.075261706000004</v>
       </c>
       <c r="S8" s="20">
-        <v>0.28451820999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.24570176999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
         <v>2024</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="1"/>
-        <v>10170.542102500001</v>
+        <f t="shared" si="2"/>
+        <v>10293.216345500003</v>
       </c>
       <c r="E9" s="14">
-        <v>4225.2215324999997</v>
+        <v>4074.3531224999974</v>
       </c>
       <c r="F9" s="14">
-        <v>4638.9146110000001</v>
+        <v>4591.2098260000075</v>
       </c>
       <c r="G9" s="14">
-        <v>1003.004611</v>
+        <v>1250.6662779999986</v>
       </c>
       <c r="H9" s="14">
-        <v>176.79925700000001</v>
+        <v>236.92333399999995</v>
       </c>
       <c r="I9" s="14">
-        <v>101.900481</v>
+        <v>107.48781899999955</v>
       </c>
       <c r="J9" s="14">
-        <v>8.8647200000000002</v>
+        <v>17.693559999999998</v>
       </c>
       <c r="K9" s="14">
-        <v>15.83689</v>
+        <v>14.882406000000001</v>
       </c>
       <c r="L9" s="13">
-        <f t="shared" si="2"/>
-        <v>7310.5741896424306</v>
+        <f>SUM(M9:S9)</f>
+        <v>7483.7337101601415</v>
       </c>
       <c r="M9" s="14">
-        <v>2773.4403533764998</v>
+        <v>2727.5133536075004</v>
       </c>
       <c r="N9" s="14">
-        <v>3963.623746364</v>
+        <v>4141.6578731970003</v>
       </c>
       <c r="O9" s="14">
-        <v>532.89884495000001</v>
+        <v>563.5016914100006</v>
       </c>
       <c r="P9" s="14">
-        <v>5.771046664</v>
+        <v>8.2360092920000021</v>
       </c>
       <c r="Q9" s="14">
-        <v>25.803035709</v>
+        <v>29.147426476000163</v>
       </c>
       <c r="R9" s="14">
-        <v>8.7877683089299996</v>
+        <v>13.431654407639998</v>
       </c>
       <c r="S9" s="15">
-        <v>0.24939427</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+        <v>0.24570176999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>2024</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D10" s="18">
-        <f t="shared" si="1"/>
-        <v>11251.137121</v>
+        <f t="shared" ref="D10:D15" si="3">SUM(E10:K10)</f>
+        <v>10627.751215000002</v>
       </c>
       <c r="E10" s="19">
-        <v>4380.0285290000002</v>
+        <v>4621.2502850000001</v>
       </c>
       <c r="F10" s="19">
-        <v>5224.974502</v>
+        <v>4847.8326420000003</v>
       </c>
       <c r="G10" s="19">
-        <v>1317.7201729999999</v>
+        <v>883.41127600000004</v>
       </c>
       <c r="H10" s="19">
-        <v>177.187535</v>
+        <v>164.42353700000001</v>
       </c>
       <c r="I10" s="19">
-        <v>105.991382</v>
+        <v>86.575890000000001</v>
       </c>
       <c r="J10" s="19">
-        <v>30.662199999999999</v>
+        <v>8.5300799999999999</v>
       </c>
       <c r="K10" s="19">
-        <v>14.572800000000001</v>
+        <v>15.727505000000001</v>
       </c>
       <c r="L10" s="18">
-        <f t="shared" si="2"/>
-        <v>8231.3888027003995</v>
+        <f t="shared" ref="L10:L12" si="4">SUM(M10:S10)</f>
+        <v>7740.759690927599</v>
       </c>
       <c r="M10" s="19">
-        <v>2880.310271714</v>
+        <v>3074.0600736719998</v>
       </c>
       <c r="N10" s="19">
-        <v>4609.8136975879997</v>
+        <v>4209.4804649380003</v>
       </c>
       <c r="O10" s="19">
-        <v>698.22568952999995</v>
+        <v>420.6767304</v>
       </c>
       <c r="P10" s="19">
-        <v>5.5616272489999998</v>
+        <v>5.6841813920000002</v>
       </c>
       <c r="Q10" s="19">
-        <v>26.096916030999999</v>
+        <v>27.009476482</v>
       </c>
       <c r="R10" s="19">
-        <v>11.0747022284</v>
+        <v>3.5642458335999998</v>
       </c>
       <c r="S10" s="20">
-        <v>0.30589835999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+        <v>0.28451820999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <v>2024</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" si="1"/>
-        <v>11073.580067999997</v>
+        <f t="shared" si="3"/>
+        <v>10170.542102500001</v>
       </c>
       <c r="E11" s="14">
-        <v>4264.3103259999998</v>
+        <v>4225.2215324999997</v>
       </c>
       <c r="F11" s="14">
-        <v>5088.2590179999997</v>
+        <v>4638.9146110000001</v>
       </c>
       <c r="G11" s="14">
-        <v>1297.469726</v>
+        <v>1003.004611</v>
       </c>
       <c r="H11" s="14">
-        <v>268.56850200000002</v>
+        <v>176.79925700000001</v>
       </c>
       <c r="I11" s="14">
-        <v>126.038926</v>
+        <v>101.900481</v>
       </c>
       <c r="J11" s="14">
-        <v>8.8992199999999997</v>
+        <v>8.8647200000000002</v>
       </c>
       <c r="K11" s="14">
-        <v>20.03435</v>
+        <v>15.83689</v>
       </c>
       <c r="L11" s="13">
-        <f t="shared" ref="L8:L18" si="3">SUM(M11:S11)</f>
-        <v>7865.3882907427005</v>
+        <f t="shared" si="4"/>
+        <v>7310.5741896424306</v>
       </c>
       <c r="M11" s="14">
-        <v>2769.2323164145</v>
+        <v>2773.4403533764998</v>
       </c>
       <c r="N11" s="14">
-        <v>4334.8919746190004</v>
+        <v>3963.623746364</v>
       </c>
       <c r="O11" s="14">
-        <v>700.48098283000002</v>
+        <v>532.89884495000001</v>
       </c>
       <c r="P11" s="14">
-        <v>10.097477002</v>
+        <v>5.771046664</v>
       </c>
       <c r="Q11" s="14">
-        <v>37.109888814999998</v>
+        <v>25.803035709</v>
       </c>
       <c r="R11" s="14">
-        <v>13.1854440822</v>
+        <v>8.7877683089299996</v>
       </c>
       <c r="S11" s="15">
-        <v>0.39020697999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+        <v>0.24939427</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>2024</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="18">
-        <f t="shared" si="1"/>
-        <v>11161.666198499997</v>
+        <f t="shared" si="3"/>
+        <v>11251.137121</v>
       </c>
       <c r="E12" s="19">
-        <v>4078.3567754999999</v>
+        <v>4380.0285290000002</v>
       </c>
       <c r="F12" s="19">
-        <v>5481.9287759999997</v>
+        <v>5224.974502</v>
       </c>
       <c r="G12" s="19">
-        <v>1221.811635</v>
+        <v>1317.7201729999999</v>
       </c>
       <c r="H12" s="19">
-        <v>239.36940000000001</v>
+        <v>177.187535</v>
       </c>
       <c r="I12" s="19">
-        <v>105.50866000000001</v>
+        <v>105.991382</v>
       </c>
       <c r="J12" s="19">
-        <v>9.2501800000000003</v>
+        <v>30.662199999999999</v>
       </c>
       <c r="K12" s="19">
-        <v>25.440771999999999</v>
+        <v>14.572800000000001</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" si="3"/>
-        <v>7988.2967723501006</v>
+        <f t="shared" si="4"/>
+        <v>8231.3888027003995</v>
       </c>
       <c r="M12" s="19">
-        <v>2693.4096534265</v>
+        <v>2880.310271714</v>
       </c>
       <c r="N12" s="19">
-        <v>4598.9796150089996</v>
+        <v>4609.8136975879997</v>
       </c>
       <c r="O12" s="19">
-        <v>647.17524848999994</v>
+        <v>698.22568952999995</v>
       </c>
       <c r="P12" s="19">
-        <v>8.870226637</v>
+        <v>5.5616272489999998</v>
       </c>
       <c r="Q12" s="19">
-        <v>29.502148497</v>
+        <v>26.096916030999999</v>
       </c>
       <c r="R12" s="19">
-        <v>9.9230392236</v>
+        <v>11.0747022284</v>
       </c>
       <c r="S12" s="20">
-        <v>0.43684106700000003</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+        <v>0.30589835999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <v>2024</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="13">
-        <f t="shared" si="1"/>
-        <v>11385.153779999999</v>
+        <f t="shared" si="3"/>
+        <v>11073.580067999997</v>
       </c>
       <c r="E13" s="14">
-        <v>4088.3985170000001</v>
+        <v>4264.3103259999998</v>
       </c>
       <c r="F13" s="14">
-        <v>5559.3460809999997</v>
+        <v>5088.2590179999997</v>
       </c>
       <c r="G13" s="14">
-        <v>1362.2324040000001</v>
+        <v>1297.469726</v>
       </c>
       <c r="H13" s="14">
-        <v>242.53355500000001</v>
+        <v>268.56850200000002</v>
       </c>
       <c r="I13" s="14">
-        <v>103.72531499999999</v>
+        <v>126.038926</v>
       </c>
       <c r="J13" s="14">
-        <v>4.8760000000000003</v>
+        <v>8.8992199999999997</v>
       </c>
       <c r="K13" s="14">
-        <v>24.041907999999999</v>
+        <v>20.03435</v>
       </c>
       <c r="L13" s="13">
-        <f t="shared" si="3"/>
-        <v>8010.7375229999998</v>
+        <f t="shared" ref="L13:L20" si="5">SUM(M13:S13)</f>
+        <v>7865.3882907427005</v>
       </c>
       <c r="M13" s="14">
-        <v>2674.0050620000002</v>
+        <v>2769.2323164145</v>
       </c>
       <c r="N13" s="14">
-        <v>4545.2049290000004</v>
+        <v>4334.8919746190004</v>
       </c>
       <c r="O13" s="14">
-        <v>749.43216500000005</v>
+        <v>700.48098283000002</v>
       </c>
       <c r="P13" s="14">
-        <v>9.3834619999999997</v>
+        <v>10.097477002</v>
       </c>
       <c r="Q13" s="14">
-        <v>27.699843999999999</v>
+        <v>37.109888814999998</v>
       </c>
       <c r="R13" s="14">
-        <v>4.5218790000000002</v>
+        <v>13.1854440822</v>
       </c>
       <c r="S13" s="15">
-        <v>0.49018200000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+        <v>0.39020697999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>2024</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="18">
-        <f t="shared" ref="D14:D28" si="4">SUM(E14:K14)</f>
-        <v>11518.385950000002</v>
+        <f t="shared" si="3"/>
+        <v>11161.666198499997</v>
       </c>
       <c r="E14" s="19">
-        <v>4300.1912899999998</v>
+        <v>4078.3567754999999</v>
       </c>
       <c r="F14" s="19">
-        <v>5629.5263320000004</v>
+        <v>5481.9287759999997</v>
       </c>
       <c r="G14" s="19">
-        <v>1319.029931</v>
+        <v>1221.811635</v>
       </c>
       <c r="H14" s="19">
-        <v>139.10685699999999</v>
+        <v>239.36940000000001</v>
       </c>
       <c r="I14" s="19">
-        <v>105.14566000000001</v>
+        <v>105.50866000000001</v>
       </c>
       <c r="J14" s="19">
-        <v>0</v>
+        <v>9.2501800000000003</v>
       </c>
       <c r="K14" s="19">
-        <v>25.38588</v>
+        <v>25.440771999999999</v>
       </c>
       <c r="L14" s="18">
-        <f t="shared" si="3"/>
-        <v>8190.6107430000002</v>
+        <f t="shared" si="5"/>
+        <v>7988.2967723501006</v>
       </c>
       <c r="M14" s="19">
-        <v>2859.8718090000002</v>
+        <v>2693.4096534265</v>
       </c>
       <c r="N14" s="19">
-        <v>4557.1561849999998</v>
+        <v>4598.9796150089996</v>
       </c>
       <c r="O14" s="19">
-        <v>740.54377399999998</v>
+        <v>647.17524848999994</v>
       </c>
       <c r="P14" s="19">
-        <v>3.9488479999999999</v>
+        <v>8.870226637</v>
       </c>
       <c r="Q14" s="19">
-        <v>27.069296000000001</v>
+        <v>29.502148497</v>
       </c>
       <c r="R14" s="19">
-        <v>1.465068</v>
+        <v>9.9230392236</v>
       </c>
       <c r="S14" s="20">
-        <v>0.55576300000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+        <v>0.43684106700000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="11">
         <v>2024</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" si="4"/>
-        <v>12058.836555</v>
+        <f t="shared" si="3"/>
+        <v>11385.153779999999</v>
       </c>
       <c r="E15" s="14">
-        <v>4563.5082670000002</v>
+        <v>4088.3985170000001</v>
       </c>
       <c r="F15" s="14">
-        <v>5992.8884459999999</v>
+        <v>5559.3460809999997</v>
       </c>
       <c r="G15" s="14">
-        <v>1246.3373630000001</v>
+        <v>1362.2324040000001</v>
       </c>
       <c r="H15" s="14">
-        <v>139.10685699999999</v>
+        <v>242.53355500000001</v>
       </c>
       <c r="I15" s="14">
-        <v>96.219672000000003</v>
+        <v>103.72531499999999</v>
       </c>
       <c r="J15" s="14">
-        <v>0</v>
+        <v>4.8760000000000003</v>
       </c>
       <c r="K15" s="14">
-        <v>20.775950000000002</v>
+        <v>24.041907999999999</v>
       </c>
       <c r="L15" s="13">
-        <f t="shared" si="3"/>
-        <v>8839.7330359999996</v>
+        <f t="shared" si="5"/>
+        <v>8010.7375229999998</v>
       </c>
       <c r="M15" s="14">
-        <v>2957.5938150000002</v>
+        <v>2674.0050620000002</v>
       </c>
       <c r="N15" s="14">
-        <v>5127.0620630000003</v>
+        <v>4545.2049290000004</v>
       </c>
       <c r="O15" s="14">
-        <v>721.55657799999994</v>
+        <v>749.43216500000005</v>
       </c>
       <c r="P15" s="14">
-        <v>3.9488479999999999</v>
+        <v>9.3834619999999997</v>
       </c>
       <c r="Q15" s="14">
-        <v>26.56606</v>
+        <v>27.699843999999999</v>
       </c>
       <c r="R15" s="14">
-        <v>2.5492699999999999</v>
+        <v>4.5218790000000002</v>
       </c>
       <c r="S15" s="15">
-        <v>0.45640199999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+        <v>0.49018200000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
         <v>2024</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="18">
-        <f t="shared" si="4"/>
-        <v>11342.527755999999</v>
+        <f t="shared" ref="D16:D30" si="6">SUM(E16:K16)</f>
+        <v>11518.385950000002</v>
       </c>
       <c r="E16" s="19">
-        <v>4257.7457569999997</v>
+        <v>4300.1912899999998</v>
       </c>
       <c r="F16" s="19">
-        <v>5478.1561410000004</v>
+        <v>5629.5263320000004</v>
       </c>
       <c r="G16" s="19">
-        <v>1150.5672</v>
+        <v>1319.029931</v>
       </c>
       <c r="H16" s="19">
-        <v>347.88340299999999</v>
+        <v>139.10685699999999</v>
       </c>
       <c r="I16" s="19">
-        <v>97.409684999999996</v>
+        <v>105.14566000000001</v>
       </c>
       <c r="J16" s="19">
         <v>0</v>
       </c>
       <c r="K16" s="19">
+        <v>25.38588</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="5"/>
+        <v>8190.6107430000002</v>
+      </c>
+      <c r="M16" s="19">
+        <v>2859.8718090000002</v>
+      </c>
+      <c r="N16" s="19">
+        <v>4557.1561849999998</v>
+      </c>
+      <c r="O16" s="19">
+        <v>740.54377399999998</v>
+      </c>
+      <c r="P16" s="19">
+        <v>3.9488479999999999</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>27.069296000000001</v>
+      </c>
+      <c r="R16" s="19">
+        <v>1.465068</v>
+      </c>
+      <c r="S16" s="20">
+        <v>0.55576300000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="6"/>
+        <v>12058.836555</v>
+      </c>
+      <c r="E17" s="14">
+        <v>4563.5082670000002</v>
+      </c>
+      <c r="F17" s="14">
+        <v>5992.8884459999999</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1246.3373630000001</v>
+      </c>
+      <c r="H17" s="14">
+        <v>139.10685699999999</v>
+      </c>
+      <c r="I17" s="14">
+        <v>96.219672000000003</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <v>20.775950000000002</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="5"/>
+        <v>8839.7330359999996</v>
+      </c>
+      <c r="M17" s="14">
+        <v>2957.5938150000002</v>
+      </c>
+      <c r="N17" s="14">
+        <v>5127.0620630000003</v>
+      </c>
+      <c r="O17" s="14">
+        <v>721.55657799999994</v>
+      </c>
+      <c r="P17" s="14">
+        <v>3.9488479999999999</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>26.56606</v>
+      </c>
+      <c r="R17" s="14">
+        <v>2.5492699999999999</v>
+      </c>
+      <c r="S17" s="15">
+        <v>0.45640199999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>2024</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="6"/>
+        <v>11342.527755999999</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4257.7457569999997</v>
+      </c>
+      <c r="F18" s="19">
+        <v>5478.1561410000004</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1150.5672</v>
+      </c>
+      <c r="H18" s="19">
+        <v>347.88340299999999</v>
+      </c>
+      <c r="I18" s="19">
+        <v>97.409684999999996</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
         <v>10.76557</v>
       </c>
-      <c r="L16" s="18">
-        <f t="shared" si="3"/>
+      <c r="L18" s="18">
+        <f t="shared" si="5"/>
         <v>8187.4507680000006</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M18" s="19">
         <v>2792.3728390000001</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N18" s="19">
         <v>4673.1630869999999</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O18" s="19">
         <v>679.80545600000005</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P18" s="19">
         <v>8.3948649999999994</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q18" s="19">
         <v>26.664881000000001</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R18" s="19">
         <v>6.8661019999999997</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S18" s="20">
         <v>0.18353800000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B17" s="21">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="21">
         <v>2024</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="23">
-        <f t="shared" si="4"/>
+      <c r="D19" s="23">
+        <f t="shared" si="6"/>
         <v>11272.010199999999</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E19" s="24">
         <v>4393.4066000000003</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F19" s="24">
         <v>5359.7539999999999</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G19" s="24">
         <v>1270.1172999999999</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H19" s="24">
         <v>121.57129999999999</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I19" s="24">
         <v>106.0236</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J19" s="24">
         <v>0</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K19" s="24">
         <v>21.1374</v>
       </c>
-      <c r="L17" s="23">
-        <f t="shared" si="3"/>
+      <c r="L19" s="23">
+        <f t="shared" si="5"/>
         <v>8342.0510054124934</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M19" s="24">
         <v>2834.6025592114943</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N19" s="24">
         <v>4774.6108969999996</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O19" s="24">
         <v>698.27653098200028</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P19" s="24">
         <v>3.7847089999999994</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q19" s="24">
         <v>28.277445269000239</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R19" s="24">
         <v>2.0259563599999999</v>
       </c>
-      <c r="S17" s="25">
+      <c r="S19" s="25">
         <v>0.47290758999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="26">
+    <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="26">
         <v>2023</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="28">
-        <f t="shared" si="4"/>
+      <c r="D20" s="28">
+        <f t="shared" si="6"/>
         <v>10530.152879999996</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E20" s="29">
         <v>4309.4661199999991</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F20" s="29">
         <v>4678.9765120000002</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G20" s="29">
         <v>1229.369512</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H20" s="29">
         <v>196.09364099999999</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I20" s="29">
         <v>98.409154999999998</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J20" s="29">
         <v>0</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K20" s="29">
         <v>17.83794</v>
       </c>
-      <c r="L18" s="28">
-        <f t="shared" si="3"/>
+      <c r="L20" s="28">
+        <f t="shared" si="5"/>
         <v>7153.5113975900022</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M20" s="29">
         <v>2868.2873435319998</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N20" s="29">
         <v>3607.6925303660032</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O20" s="29">
         <v>642.81335444999979</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P20" s="29">
         <v>7.0967908270000004</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q20" s="29">
         <v>26.713847234999999</v>
       </c>
-      <c r="R18" s="29">
+      <c r="R20" s="29">
         <v>0.56659287000000003</v>
       </c>
-      <c r="S18" s="30">
+      <c r="S20" s="30">
         <v>0.34093830999999991</v>
       </c>
     </row>
-    <row r="19" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="4"/>
-        <v>10744.338341099994</v>
-      </c>
-      <c r="E19" s="14">
-        <v>4156.0361599999969</v>
-      </c>
-      <c r="F19" s="14">
-        <v>4940.157242999996</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1327.2145460000011</v>
-      </c>
-      <c r="H19" s="14">
-        <v>207.6338241</v>
-      </c>
-      <c r="I19" s="14">
-        <v>97.280187999999995</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0</v>
-      </c>
-      <c r="K19" s="14">
-        <v>16.016380000000002</v>
-      </c>
-      <c r="L19" s="13">
-        <f t="shared" ref="L19:L28" si="5">SUM(M19:S19)</f>
-        <v>7556.0425005755014</v>
-      </c>
-      <c r="M19" s="14">
-        <v>2765.572963916999</v>
-      </c>
-      <c r="N19" s="14">
-        <v>4124.8151506980021</v>
-      </c>
-      <c r="O19" s="14">
-        <v>633.25968550699997</v>
-      </c>
-      <c r="P19" s="14">
-        <v>7.8715812454999998</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>24.216846367999999</v>
-      </c>
-      <c r="R19" s="14">
-        <v>0</v>
-      </c>
-      <c r="S19" s="15">
-        <v>0.30627283999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="16">
-        <v>2023</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="18">
-        <f t="shared" si="4"/>
-        <v>11200.280935499999</v>
-      </c>
-      <c r="E20" s="19">
-        <v>4460.5444895000001</v>
-      </c>
-      <c r="F20" s="19">
-        <v>5121.4502369999991</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1286.7112570000011</v>
-      </c>
-      <c r="H20" s="19">
-        <v>230.92582300000001</v>
-      </c>
-      <c r="I20" s="19">
-        <v>86.957749000000007</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0</v>
-      </c>
-      <c r="K20" s="19">
-        <v>13.691380000000001</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="5"/>
-        <v>7919.0054692064978</v>
-      </c>
-      <c r="M20" s="19">
-        <v>2888.4215667424992</v>
-      </c>
-      <c r="N20" s="19">
-        <v>4289.1214162529986</v>
-      </c>
-      <c r="O20" s="19">
-        <v>709.70213744500006</v>
-      </c>
-      <c r="P20" s="19">
-        <v>8.7303510430000006</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>22.005873442999999</v>
-      </c>
-      <c r="R20" s="19">
-        <v>0.75646751999999995</v>
-      </c>
-      <c r="S20" s="20">
-        <v>0.26765675999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>2023</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="13">
-        <f t="shared" si="4"/>
-        <v>10782.032769499994</v>
+        <f t="shared" si="6"/>
+        <v>10744.338341099994</v>
       </c>
       <c r="E21" s="14">
-        <v>4218.6692064999988</v>
+        <v>4156.0361599999969</v>
       </c>
       <c r="F21" s="14">
-        <v>4942.4715439999973</v>
+        <v>4940.157242999996</v>
       </c>
       <c r="G21" s="14">
-        <v>1325.7413049999991</v>
+        <v>1327.2145460000011</v>
       </c>
       <c r="H21" s="14">
-        <v>196.98436699999999</v>
+        <v>207.6338241</v>
       </c>
       <c r="I21" s="14">
-        <v>89.481097000000005</v>
+        <v>97.280187999999995</v>
       </c>
       <c r="J21" s="14">
         <v>0</v>
       </c>
       <c r="K21" s="14">
-        <v>8.6852500000000017</v>
+        <v>16.016380000000002</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" si="5"/>
-        <v>7622.1182945060009</v>
+        <f t="shared" ref="L21:L30" si="7">SUM(M21:S21)</f>
+        <v>7556.0425005755014</v>
       </c>
       <c r="M21" s="14">
-        <v>2723.4188917840002</v>
+        <v>2765.572963916999</v>
       </c>
       <c r="N21" s="14">
-        <v>4168.1608000790002</v>
+        <v>4124.8151506980021</v>
       </c>
       <c r="O21" s="14">
-        <v>700.2680477920004</v>
+        <v>633.25968550699997</v>
       </c>
       <c r="P21" s="14">
-        <v>6.950576074999999</v>
+        <v>7.8715812454999998</v>
       </c>
       <c r="Q21" s="14">
-        <v>22.592782776</v>
+        <v>24.216846367999999</v>
       </c>
       <c r="R21" s="14">
-        <v>0.46685416000000002</v>
+        <v>0</v>
       </c>
       <c r="S21" s="15">
-        <v>0.26034183999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.30627283999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16">
         <v>2023</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D22" s="18">
-        <f t="shared" si="4"/>
-        <v>11165.0871135</v>
+        <f t="shared" si="6"/>
+        <v>11200.280935499999</v>
       </c>
       <c r="E22" s="19">
-        <v>4073.677195499999</v>
+        <v>4460.5444895000001</v>
       </c>
       <c r="F22" s="19">
-        <v>5295.6467410000023</v>
+        <v>5121.4502369999991</v>
       </c>
       <c r="G22" s="19">
-        <v>1455.9837610000011</v>
+        <v>1286.7112570000011</v>
       </c>
       <c r="H22" s="19">
-        <v>215.933054</v>
+        <v>230.92582300000001</v>
       </c>
       <c r="I22" s="19">
-        <v>102.351732</v>
+        <v>86.957749000000007</v>
       </c>
       <c r="J22" s="19">
         <v>0</v>
       </c>
       <c r="K22" s="19">
-        <v>21.494630000000001</v>
+        <v>13.691380000000001</v>
       </c>
       <c r="L22" s="18">
-        <f t="shared" si="5"/>
-        <v>7816.8766415225009</v>
+        <f t="shared" si="7"/>
+        <v>7919.0054692064978</v>
       </c>
       <c r="M22" s="19">
-        <v>2578.8196566694969</v>
+        <v>2888.4215667424992</v>
       </c>
       <c r="N22" s="19">
-        <v>4455.9987150990046</v>
+        <v>4289.1214162529986</v>
       </c>
       <c r="O22" s="19">
-        <v>747.21557059399993</v>
+        <v>709.70213744500006</v>
       </c>
       <c r="P22" s="19">
-        <v>8.0505219500000003</v>
+        <v>8.7303510430000006</v>
       </c>
       <c r="Q22" s="19">
-        <v>26.027712000000001</v>
+        <v>22.005873442999999</v>
       </c>
       <c r="R22" s="19">
-        <v>0.31483611000000011</v>
+        <v>0.75646751999999995</v>
       </c>
       <c r="S22" s="20">
-        <v>0.44962910000000011</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.26765675999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>2023</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D23" s="13">
-        <f t="shared" si="4"/>
-        <v>10990.944824000002</v>
+        <f t="shared" si="6"/>
+        <v>10782.032769499994</v>
       </c>
       <c r="E23" s="14">
-        <v>4146.4391699999987</v>
+        <v>4218.6692064999988</v>
       </c>
       <c r="F23" s="14">
-        <v>5135.3581670000012</v>
+        <v>4942.4715439999973</v>
       </c>
       <c r="G23" s="14">
-        <v>1381.008404000002</v>
+        <v>1325.7413049999991</v>
       </c>
       <c r="H23" s="14">
-        <v>211.989563</v>
+        <v>196.98436699999999</v>
       </c>
       <c r="I23" s="14">
-        <v>101.69627</v>
+        <v>89.481097000000005</v>
       </c>
       <c r="J23" s="14">
         <v>0</v>
       </c>
       <c r="K23" s="14">
-        <v>14.453250000000001</v>
+        <v>8.6852500000000017</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="5"/>
-        <v>7210.7837302764929</v>
+        <f t="shared" si="7"/>
+        <v>7622.1182945060009</v>
       </c>
       <c r="M23" s="14">
-        <v>2685.167804527498</v>
+        <v>2723.4188917840002</v>
       </c>
       <c r="N23" s="14">
-        <v>3862.1520296299959</v>
+        <v>4168.1608000790002</v>
       </c>
       <c r="O23" s="14">
-        <v>629.01834064099978</v>
+        <v>700.2680477920004</v>
       </c>
       <c r="P23" s="14">
-        <v>7.3305904510000008</v>
+        <v>6.950576074999999</v>
       </c>
       <c r="Q23" s="14">
-        <v>26.805101397000001</v>
+        <v>22.592782776</v>
       </c>
       <c r="R23" s="14">
-        <v>0</v>
+        <v>0.46685416000000002</v>
       </c>
       <c r="S23" s="15">
-        <v>0.30986362999999989</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.26034183999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16">
         <v>2023</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="18">
-        <f t="shared" si="4"/>
-        <v>10745.577094500002</v>
+        <f t="shared" si="6"/>
+        <v>11165.0871135</v>
       </c>
       <c r="E24" s="19">
-        <v>3986.183454499997</v>
+        <v>4073.677195499999</v>
       </c>
       <c r="F24" s="19">
-        <v>5182.5897230000064</v>
+        <v>5295.6467410000023</v>
       </c>
       <c r="G24" s="19">
-        <v>1263.786863</v>
+        <v>1455.9837610000011</v>
       </c>
       <c r="H24" s="19">
-        <v>194.382002</v>
+        <v>215.933054</v>
       </c>
       <c r="I24" s="19">
-        <v>110.79468199999999</v>
+        <v>102.351732</v>
       </c>
       <c r="J24" s="19">
         <v>0</v>
       </c>
       <c r="K24" s="19">
-        <v>7.8403699999999992</v>
+        <v>21.494630000000001</v>
       </c>
       <c r="L24" s="18">
-        <f t="shared" si="5"/>
-        <v>7727.3830689805</v>
+        <f t="shared" si="7"/>
+        <v>7816.8766415225009</v>
       </c>
       <c r="M24" s="19">
-        <v>2606.4418033855009</v>
+        <v>2578.8196566694969</v>
       </c>
       <c r="N24" s="19">
-        <v>4443.8483745960002</v>
+        <v>4455.9987150990046</v>
       </c>
       <c r="O24" s="19">
-        <v>641.33658918099911</v>
+        <v>747.21557059399993</v>
       </c>
       <c r="P24" s="19">
-        <v>7.5541058760000004</v>
+        <v>8.0505219500000003</v>
       </c>
       <c r="Q24" s="19">
-        <v>27.942127822</v>
+        <v>26.027712000000001</v>
       </c>
       <c r="R24" s="19">
-        <v>0</v>
+        <v>0.31483611000000011</v>
       </c>
       <c r="S24" s="20">
-        <v>0.26006812000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.44962910000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>2023</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="4"/>
-        <v>11106.930602500001</v>
+        <f t="shared" si="6"/>
+        <v>10990.944824000002</v>
       </c>
       <c r="E25" s="14">
-        <v>4188.3383045000028</v>
+        <v>4146.4391699999987</v>
       </c>
       <c r="F25" s="14">
-        <v>5334.9094389999982</v>
+        <v>5135.3581670000012</v>
       </c>
       <c r="G25" s="14">
-        <v>1326.3186040000001</v>
+        <v>1381.008404000002</v>
       </c>
       <c r="H25" s="14">
-        <v>160.06881000000001</v>
+        <v>211.989563</v>
       </c>
       <c r="I25" s="14">
-        <v>88.829708000000011</v>
+        <v>101.69627</v>
       </c>
       <c r="J25" s="14">
         <v>0</v>
       </c>
       <c r="K25" s="14">
-        <v>8.4657370000000007</v>
+        <v>14.453250000000001</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="5"/>
-        <v>7787.991672169991</v>
+        <f t="shared" si="7"/>
+        <v>7210.7837302764929</v>
       </c>
       <c r="M25" s="14">
-        <v>2697.017603467998</v>
+        <v>2685.167804527498</v>
       </c>
       <c r="N25" s="14">
-        <v>4364.7163814329933</v>
+        <v>3862.1520296299959</v>
       </c>
       <c r="O25" s="14">
-        <v>691.08870988800015</v>
+        <v>629.01834064099978</v>
       </c>
       <c r="P25" s="14">
-        <v>5.5462157990000014</v>
+        <v>7.3305904510000008</v>
       </c>
       <c r="Q25" s="14">
-        <v>28.462399068</v>
+        <v>26.805101397000001</v>
       </c>
       <c r="R25" s="14">
-        <v>0.92623683999999995</v>
+        <v>0</v>
       </c>
       <c r="S25" s="15">
-        <v>0.23412567400000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.30986362999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16">
         <v>2023</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" si="4"/>
-        <v>10801.941199499999</v>
+        <f t="shared" si="6"/>
+        <v>10745.577094500002</v>
       </c>
       <c r="E26" s="19">
-        <v>4120.2958385000038</v>
+        <v>3986.183454499997</v>
       </c>
       <c r="F26" s="19">
-        <v>5130.8270799999982</v>
+        <v>5182.5897230000064</v>
       </c>
       <c r="G26" s="19">
-        <v>1278.4442729999989</v>
+        <v>1263.786863</v>
       </c>
       <c r="H26" s="19">
-        <v>164.83443199999999</v>
+        <v>194.382002</v>
       </c>
       <c r="I26" s="19">
-        <v>97.153891000000002</v>
+        <v>110.79468199999999</v>
       </c>
       <c r="J26" s="19">
         <v>0</v>
       </c>
       <c r="K26" s="19">
-        <v>10.385685</v>
+        <v>7.8403699999999992</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="5"/>
-        <v>7607.3085941089976</v>
+        <f t="shared" si="7"/>
+        <v>7727.3830689805</v>
       </c>
       <c r="M26" s="19">
-        <v>2709.2393107859962</v>
+        <v>2606.4418033855009</v>
       </c>
       <c r="N26" s="19">
-        <v>4203.9729919080019</v>
+        <v>4443.8483745960002</v>
       </c>
       <c r="O26" s="19">
-        <v>660.44165793399986</v>
+        <v>641.33658918099911</v>
       </c>
       <c r="P26" s="19">
-        <v>5.9482127840000008</v>
+        <v>7.5541058760000004</v>
       </c>
       <c r="Q26" s="19">
-        <v>27.414852071999999</v>
+        <v>27.942127822</v>
       </c>
       <c r="R26" s="19">
         <v>0</v>
       </c>
       <c r="S26" s="20">
-        <v>0.29156862500000003</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.26006812000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>2023</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="4"/>
-        <v>11383.878990499992</v>
+        <f t="shared" si="6"/>
+        <v>11106.930602500001</v>
       </c>
       <c r="E27" s="14">
-        <v>4435.0004595000009</v>
+        <v>4188.3383045000028</v>
       </c>
       <c r="F27" s="14">
-        <v>5403.7461159999912</v>
+        <v>5334.9094389999982</v>
       </c>
       <c r="G27" s="14">
-        <v>1243.00846</v>
+        <v>1326.3186040000001</v>
       </c>
       <c r="H27" s="14">
-        <v>186.385561</v>
+        <v>160.06881000000001</v>
       </c>
       <c r="I27" s="14">
-        <v>105.50189399999999</v>
+        <v>88.829708000000011</v>
       </c>
       <c r="J27" s="14">
         <v>0</v>
       </c>
       <c r="K27" s="14">
-        <v>10.236499999999999</v>
+        <v>8.4657370000000007</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="5"/>
-        <v>8168.6527303565072</v>
+        <f t="shared" si="7"/>
+        <v>7787.991672169991</v>
       </c>
       <c r="M27" s="14">
-        <v>2855.8573844425018</v>
+        <v>2697.017603467998</v>
       </c>
       <c r="N27" s="14">
-        <v>4595.0981872000057</v>
+        <v>4364.7163814329933</v>
       </c>
       <c r="O27" s="14">
-        <v>683.3527228519996</v>
+        <v>691.08870988800015</v>
       </c>
       <c r="P27" s="14">
-        <v>6.7861570649999994</v>
+        <v>5.5462157990000014</v>
       </c>
       <c r="Q27" s="14">
-        <v>27.308684076999999</v>
+        <v>28.462399068</v>
       </c>
       <c r="R27" s="14">
-        <v>0</v>
+        <v>0.92623683999999995</v>
       </c>
       <c r="S27" s="15">
-        <v>0.24959471999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.23412567400000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16">
         <v>2023</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" si="4"/>
-        <v>10730.619191500007</v>
+        <f t="shared" si="6"/>
+        <v>10801.941199499999</v>
       </c>
       <c r="E28" s="19">
-        <v>4010.1023085000038</v>
+        <v>4120.2958385000038</v>
       </c>
       <c r="F28" s="19">
-        <v>5163.3377450000035</v>
+        <v>5130.8270799999982</v>
       </c>
       <c r="G28" s="19">
-        <v>1234.198350000001</v>
+        <v>1278.4442729999989</v>
       </c>
       <c r="H28" s="19">
-        <v>213.06129999999999</v>
+        <v>164.83443199999999</v>
       </c>
       <c r="I28" s="19">
-        <v>97.967708000000016</v>
+        <v>97.153891000000002</v>
       </c>
       <c r="J28" s="19">
         <v>0</v>
       </c>
       <c r="K28" s="19">
-        <v>11.951779999999999</v>
+        <v>10.385685</v>
       </c>
       <c r="L28" s="18">
-        <f t="shared" si="5"/>
-        <v>7460.9740902630037</v>
+        <f t="shared" si="7"/>
+        <v>7607.3085941089976</v>
       </c>
       <c r="M28" s="19">
-        <v>2587.8190024130022</v>
+        <v>2709.2393107859962</v>
       </c>
       <c r="N28" s="19">
-        <v>4189.8268443940005</v>
+        <v>4203.9729919080019</v>
       </c>
       <c r="O28" s="19">
-        <v>650.21660514200039</v>
+        <v>660.44165793399986</v>
       </c>
       <c r="P28" s="19">
-        <v>7.5242899999999997</v>
+        <v>5.9482127840000008</v>
       </c>
       <c r="Q28" s="19">
-        <v>25.314986824000002</v>
+        <v>27.414852071999999</v>
       </c>
       <c r="R28" s="19">
         <v>0</v>
       </c>
       <c r="S28" s="20">
+        <v>0.29156862500000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="6"/>
+        <v>11383.878990499992</v>
+      </c>
+      <c r="E29" s="14">
+        <v>4435.0004595000009</v>
+      </c>
+      <c r="F29" s="14">
+        <v>5403.7461159999912</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1243.00846</v>
+      </c>
+      <c r="H29" s="14">
+        <v>186.385561</v>
+      </c>
+      <c r="I29" s="14">
+        <v>105.50189399999999</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <v>10.236499999999999</v>
+      </c>
+      <c r="L29" s="13">
+        <f t="shared" si="7"/>
+        <v>8168.6527303565072</v>
+      </c>
+      <c r="M29" s="14">
+        <v>2855.8573844425018</v>
+      </c>
+      <c r="N29" s="14">
+        <v>4595.0981872000057</v>
+      </c>
+      <c r="O29" s="14">
+        <v>683.3527228519996</v>
+      </c>
+      <c r="P29" s="14">
+        <v>6.7861570649999994</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>27.308684076999999</v>
+      </c>
+      <c r="R29" s="14">
+        <v>0</v>
+      </c>
+      <c r="S29" s="15">
+        <v>0.24959471999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="16">
+        <v>2023</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" si="6"/>
+        <v>10730.619191500007</v>
+      </c>
+      <c r="E30" s="19">
+        <v>4010.1023085000038</v>
+      </c>
+      <c r="F30" s="19">
+        <v>5163.3377450000035</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1234.198350000001</v>
+      </c>
+      <c r="H30" s="19">
+        <v>213.06129999999999</v>
+      </c>
+      <c r="I30" s="19">
+        <v>97.967708000000016</v>
+      </c>
+      <c r="J30" s="19">
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
+        <v>11.951779999999999</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="7"/>
+        <v>7460.9740902630037</v>
+      </c>
+      <c r="M30" s="19">
+        <v>2587.8190024130022</v>
+      </c>
+      <c r="N30" s="19">
+        <v>4189.8268443940005</v>
+      </c>
+      <c r="O30" s="19">
+        <v>650.21660514200039</v>
+      </c>
+      <c r="P30" s="19">
+        <v>7.5242899999999997</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>25.314986824000002</v>
+      </c>
+      <c r="R30" s="19">
+        <v>0</v>
+      </c>
+      <c r="S30" s="20">
         <v>0.27236148999999987</v>
       </c>
     </row>
-    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="21">
+    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="21">
         <v>2023</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="23">
-        <f t="shared" ref="D29:D60" si="6">SUM(E29:K29)</f>
+      <c r="D31" s="23">
+        <f t="shared" ref="D31:D62" si="8">SUM(E31:K31)</f>
         <v>11294.197112000005</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E31" s="24">
         <v>4300.673847</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F31" s="24">
         <v>5333.398917000005</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G31" s="24">
         <v>1381.829727000001</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H31" s="24">
         <v>160.70500799999999</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I31" s="24">
         <v>108.434686</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J31" s="24">
         <v>0</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K31" s="24">
         <v>9.1549269999999989</v>
       </c>
-      <c r="L29" s="23">
-        <f t="shared" ref="L29:L60" si="7">SUM(M29:S29)</f>
+      <c r="L31" s="23">
+        <f t="shared" ref="L31:L62" si="9">SUM(M31:S31)</f>
         <v>8101.5730074171943</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M31" s="24">
         <v>2862.9090542549961</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N31" s="24">
         <v>4475.0428370511981</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O31" s="24">
         <v>730.13655983000001</v>
       </c>
-      <c r="P29" s="24">
+      <c r="P31" s="24">
         <v>5.6898014160000008</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q31" s="24">
         <v>26.430900990000001</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R31" s="24">
         <v>1.1467497600000001</v>
       </c>
-      <c r="S29" s="25">
+      <c r="S31" s="25">
         <v>0.21710411499999999</v>
       </c>
     </row>
-    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="26">
+    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="26">
         <v>2022</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="28">
-        <f t="shared" si="6"/>
+      <c r="D32" s="28">
+        <f t="shared" si="8"/>
         <v>10579.2088245</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E32" s="29">
         <v>3955.405141500004</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F32" s="29">
         <v>5023.7809259999967</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G32" s="29">
         <v>1253.435716</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H32" s="29">
         <v>210.841139</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I32" s="29">
         <v>127.258531</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J32" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K32" s="29">
         <v>8.4723710000000008</v>
       </c>
-      <c r="L30" s="28">
-        <f t="shared" si="7"/>
+      <c r="L32" s="28">
+        <f t="shared" si="9"/>
         <v>7201.2110358610043</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M32" s="29">
         <v>2606.642718893002</v>
       </c>
-      <c r="N30" s="29">
+      <c r="N32" s="29">
         <v>3840.3302240870012</v>
       </c>
-      <c r="O30" s="29">
+      <c r="O32" s="29">
         <v>714.07136763500023</v>
       </c>
-      <c r="P30" s="29">
+      <c r="P32" s="29">
         <v>8.1353823930000004</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="Q32" s="29">
         <v>29.287128408000001</v>
       </c>
-      <c r="R30" s="29">
+      <c r="R32" s="29">
         <v>2.5732544800000001</v>
       </c>
-      <c r="S30" s="30">
+      <c r="S32" s="30">
         <v>0.17095996499999999</v>
       </c>
     </row>
-    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="13">
-        <f t="shared" si="6"/>
-        <v>10527.497396789135</v>
-      </c>
-      <c r="E31" s="14">
-        <v>4108.8534605000023</v>
-      </c>
-      <c r="F31" s="14">
-        <v>4736.7273732891317</v>
-      </c>
-      <c r="G31" s="14">
-        <v>1295.0406599999999</v>
-      </c>
-      <c r="H31" s="14">
-        <v>221.15105</v>
-      </c>
-      <c r="I31" s="14">
-        <v>154.32011299999999</v>
-      </c>
-      <c r="J31" s="14">
-        <v>0</v>
-      </c>
-      <c r="K31" s="14">
-        <v>11.40474</v>
-      </c>
-      <c r="L31" s="13">
-        <f t="shared" si="7"/>
-        <v>7310.8355932755139</v>
-      </c>
-      <c r="M31" s="14">
-        <v>2729.828865026504</v>
-      </c>
-      <c r="N31" s="14">
-        <v>3871.547411277008</v>
-      </c>
-      <c r="O31" s="14">
-        <v>666.57566130000077</v>
-      </c>
-      <c r="P31" s="14">
-        <v>8.3173960500000028</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>33.740727692</v>
-      </c>
-      <c r="R31" s="14">
-        <v>0.53808</v>
-      </c>
-      <c r="S31" s="15">
-        <v>0.28745193000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="16">
-        <v>2022</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="18">
-        <f t="shared" si="6"/>
-        <v>10705.692828500001</v>
-      </c>
-      <c r="E32" s="19">
-        <v>4175.4008985000046</v>
-      </c>
-      <c r="F32" s="19">
-        <v>4906.9342349999952</v>
-      </c>
-      <c r="G32" s="19">
-        <v>1288.9225799999999</v>
-      </c>
-      <c r="H32" s="19">
-        <v>177.480175</v>
-      </c>
-      <c r="I32" s="19">
-        <v>150.03629000000001</v>
-      </c>
-      <c r="J32" s="19">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="K32" s="19">
-        <v>6.9111500000000001</v>
-      </c>
-      <c r="L32" s="18">
-        <f t="shared" si="7"/>
-        <v>7111.4425296700092</v>
-      </c>
-      <c r="M32" s="19">
-        <v>2632.704658141005</v>
-      </c>
-      <c r="N32" s="19">
-        <v>3750.413545484003</v>
-      </c>
-      <c r="O32" s="19">
-        <v>687.66725051200081</v>
-      </c>
-      <c r="P32" s="19">
-        <v>5.8990287250000009</v>
-      </c>
-      <c r="Q32" s="19">
-        <v>34.461750987999999</v>
-      </c>
-      <c r="R32" s="19">
-        <v>0.12333404000000001</v>
-      </c>
-      <c r="S32" s="20">
-        <v>0.17296178000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>2022</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" s="13">
-        <f t="shared" si="6"/>
-        <v>10716.722789500005</v>
+        <f t="shared" si="8"/>
+        <v>10527.497396789135</v>
       </c>
       <c r="E33" s="14">
-        <v>3921.109317500001</v>
+        <v>4108.8534605000023</v>
       </c>
       <c r="F33" s="14">
-        <v>5107.1348170000047</v>
+        <v>4736.7273732891317</v>
       </c>
       <c r="G33" s="14">
-        <v>1304.2582520000001</v>
+        <v>1295.0406599999999</v>
       </c>
       <c r="H33" s="14">
-        <v>224.00600600000001</v>
+        <v>221.15105</v>
       </c>
       <c r="I33" s="14">
-        <v>150.00181699999999</v>
+        <v>154.32011299999999</v>
       </c>
       <c r="J33" s="14">
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="K33" s="14">
-        <v>10.205080000000001</v>
+        <v>11.40474</v>
       </c>
       <c r="L33" s="13">
-        <f t="shared" si="7"/>
-        <v>7332.3824997811334</v>
+        <f t="shared" si="9"/>
+        <v>7310.8355932755139</v>
       </c>
       <c r="M33" s="14">
-        <v>2596.0057846039958</v>
+        <v>2729.828865026504</v>
       </c>
       <c r="N33" s="14">
-        <v>4043.7739947451369</v>
+        <v>3871.547411277008</v>
       </c>
       <c r="O33" s="14">
-        <v>650.93120328700036</v>
+        <v>666.57566130000077</v>
       </c>
       <c r="P33" s="14">
-        <v>8.6389721339999994</v>
+        <v>8.3173960500000028</v>
       </c>
       <c r="Q33" s="14">
-        <v>32.781240101000002</v>
+        <v>33.740727692</v>
       </c>
       <c r="R33" s="14">
-        <v>7.0588400000000003E-3</v>
+        <v>0.53808</v>
       </c>
       <c r="S33" s="15">
-        <v>0.24424607000000009</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.28745193000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16">
         <v>2022</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" si="6"/>
-        <v>11108.677028999993</v>
+        <f t="shared" si="8"/>
+        <v>10705.692828500001</v>
       </c>
       <c r="E34" s="19">
-        <v>3971.3969279999978</v>
+        <v>4175.4008985000046</v>
       </c>
       <c r="F34" s="19">
-        <v>5268.769131999994</v>
+        <v>4906.9342349999952</v>
       </c>
       <c r="G34" s="19">
-        <v>1417.7037560000001</v>
+        <v>1288.9225799999999</v>
       </c>
       <c r="H34" s="19">
-        <v>247.12264200000001</v>
+        <v>177.480175</v>
       </c>
       <c r="I34" s="19">
-        <v>188.83374499999999</v>
+        <v>150.03629000000001</v>
       </c>
       <c r="J34" s="19">
-        <v>0</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K34" s="19">
-        <v>14.850826</v>
+        <v>6.9111500000000001</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="7"/>
-        <v>7307.3132174754001</v>
+        <f t="shared" si="9"/>
+        <v>7111.4425296700092</v>
       </c>
       <c r="M34" s="19">
-        <v>2663.245486356001</v>
+        <v>2632.704658141005</v>
       </c>
       <c r="N34" s="19">
-        <v>3914.0197377269992</v>
+        <v>3750.413545484003</v>
       </c>
       <c r="O34" s="19">
-        <v>681.13219543499997</v>
+        <v>687.66725051200081</v>
       </c>
       <c r="P34" s="19">
-        <v>9.831694658</v>
+        <v>5.8990287250000009</v>
       </c>
       <c r="Q34" s="19">
-        <v>36.570021361999977</v>
+        <v>34.461750987999999</v>
       </c>
       <c r="R34" s="19">
-        <v>2.1579242694</v>
+        <v>0.12333404000000001</v>
       </c>
       <c r="S34" s="20">
-        <v>0.35615766800000009</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.17296178000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>2022</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D35" s="13">
-        <f t="shared" si="6"/>
-        <v>10611.250803000006</v>
+        <f t="shared" si="8"/>
+        <v>10716.722789500005</v>
       </c>
       <c r="E35" s="14">
-        <v>3793.7436850000049</v>
+        <v>3921.109317500001</v>
       </c>
       <c r="F35" s="14">
-        <v>5214.0921070000013</v>
+        <v>5107.1348170000047</v>
       </c>
       <c r="G35" s="14">
-        <v>1247.337679</v>
+        <v>1304.2582520000001</v>
       </c>
       <c r="H35" s="14">
-        <v>194.861605</v>
+        <v>224.00600600000001</v>
       </c>
       <c r="I35" s="14">
-        <v>147.825242</v>
+        <v>150.00181699999999</v>
       </c>
       <c r="J35" s="14">
-        <v>0</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K35" s="14">
-        <v>13.390485</v>
+        <v>10.205080000000001</v>
       </c>
       <c r="L35" s="13">
-        <f t="shared" si="7"/>
-        <v>7191.6636538718021</v>
+        <f t="shared" si="9"/>
+        <v>7332.3824997811334</v>
       </c>
       <c r="M35" s="14">
-        <v>2575.3834254900021</v>
+        <v>2596.0057846039958</v>
       </c>
       <c r="N35" s="14">
-        <v>3964.619205300799</v>
+        <v>4043.7739947451369</v>
       </c>
       <c r="O35" s="14">
-        <v>609.31836305400043</v>
+        <v>650.93120328700036</v>
       </c>
       <c r="P35" s="14">
-        <v>7.2582579850000002</v>
+        <v>8.6389721339999994</v>
       </c>
       <c r="Q35" s="14">
-        <v>34.682327189999988</v>
+        <v>32.781240101000002</v>
       </c>
       <c r="R35" s="14">
-        <v>0.11073023999999999</v>
+        <v>7.0588400000000003E-3</v>
       </c>
       <c r="S35" s="15">
-        <v>0.291344612</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.24424607000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16">
         <v>2022</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36" s="18">
-        <f t="shared" si="6"/>
-        <v>11385.632823130651</v>
+        <f t="shared" si="8"/>
+        <v>11108.677028999993</v>
       </c>
       <c r="E36" s="19">
-        <v>4133.1845675000104</v>
+        <v>3971.3969279999978</v>
       </c>
       <c r="F36" s="19">
-        <v>5576.317320630641</v>
+        <v>5268.769131999994</v>
       </c>
       <c r="G36" s="19">
-        <v>1291.3044649999999</v>
+        <v>1417.7037560000001</v>
       </c>
       <c r="H36" s="19">
-        <v>204.62748999999999</v>
+        <v>247.12264200000001</v>
       </c>
       <c r="I36" s="19">
-        <v>168.44151099999999</v>
+        <v>188.83374499999999</v>
       </c>
       <c r="J36" s="19">
         <v>0</v>
       </c>
       <c r="K36" s="19">
-        <v>11.757469</v>
+        <v>14.850826</v>
       </c>
       <c r="L36" s="18">
-        <f t="shared" si="7"/>
-        <v>7426.6647824039028</v>
+        <f t="shared" si="9"/>
+        <v>7307.3132174754001</v>
       </c>
       <c r="M36" s="19">
-        <v>2745.748891390494</v>
+        <v>2663.245486356001</v>
       </c>
       <c r="N36" s="19">
-        <v>4014.2422900054089</v>
+        <v>3914.0197377269992</v>
       </c>
       <c r="O36" s="19">
-        <v>622.1854161710005</v>
+        <v>681.13219543499997</v>
       </c>
       <c r="P36" s="19">
-        <v>8.0573326499999993</v>
+        <v>9.831694658</v>
       </c>
       <c r="Q36" s="19">
-        <v>35.484382947000007</v>
+        <v>36.570021361999977</v>
       </c>
       <c r="R36" s="19">
-        <v>0.60199296000000002</v>
+        <v>2.1579242694</v>
       </c>
       <c r="S36" s="20">
-        <v>0.34447628000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.35615766800000009</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>2022</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" s="13">
-        <f t="shared" si="6"/>
-        <v>10780.323722207198</v>
+        <f t="shared" si="8"/>
+        <v>10611.250803000006</v>
       </c>
       <c r="E37" s="14">
-        <v>4137.0850310000033</v>
+        <v>3793.7436850000049</v>
       </c>
       <c r="F37" s="14">
-        <v>5186.775923207193</v>
+        <v>5214.0921070000013</v>
       </c>
       <c r="G37" s="14">
-        <v>1080.597673</v>
+        <v>1247.337679</v>
       </c>
       <c r="H37" s="14">
-        <v>208.890287</v>
+        <v>194.861605</v>
       </c>
       <c r="I37" s="14">
-        <v>154.938333</v>
+        <v>147.825242</v>
       </c>
       <c r="J37" s="14">
         <v>0</v>
       </c>
       <c r="K37" s="14">
-        <v>12.036474999999999</v>
+        <v>13.390485</v>
       </c>
       <c r="L37" s="13">
-        <f t="shared" si="7"/>
-        <v>7413.4131095932507</v>
+        <f t="shared" si="9"/>
+        <v>7191.6636538718021</v>
       </c>
       <c r="M37" s="14">
-        <v>2681.1217716099991</v>
+        <v>2575.3834254900021</v>
       </c>
       <c r="N37" s="14">
-        <v>4205.8755796282521</v>
+        <v>3964.619205300799</v>
       </c>
       <c r="O37" s="14">
-        <v>483.91754051100008</v>
+        <v>609.31836305400043</v>
       </c>
       <c r="P37" s="14">
-        <v>8.2003226500000004</v>
+        <v>7.2582579850000002</v>
       </c>
       <c r="Q37" s="14">
-        <v>32.794367653999998</v>
+        <v>34.682327189999988</v>
       </c>
       <c r="R37" s="14">
-        <v>1.2866841600000001</v>
+        <v>0.11073023999999999</v>
       </c>
       <c r="S37" s="15">
-        <v>0.21684338000000011</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.291344612</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16">
         <v>2022</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D38" s="18">
-        <f t="shared" si="6"/>
-        <v>10829.844413999997</v>
+        <f t="shared" si="8"/>
+        <v>11385.632823130651</v>
       </c>
       <c r="E38" s="19">
-        <v>3962.7175100000009</v>
+        <v>4133.1845675000104</v>
       </c>
       <c r="F38" s="19">
-        <v>5192.2296089999963</v>
+        <v>5576.317320630641</v>
       </c>
       <c r="G38" s="19">
-        <v>1309.012232</v>
+        <v>1291.3044649999999</v>
       </c>
       <c r="H38" s="19">
-        <v>181.97084000000001</v>
+        <v>204.62748999999999</v>
       </c>
       <c r="I38" s="19">
-        <v>167.812794</v>
+        <v>168.44151099999999</v>
       </c>
       <c r="J38" s="19">
         <v>0</v>
       </c>
       <c r="K38" s="19">
-        <v>16.101429</v>
+        <v>11.757469</v>
       </c>
       <c r="L38" s="18">
-        <f t="shared" si="7"/>
-        <v>7275.2969263750037</v>
+        <f t="shared" si="9"/>
+        <v>7426.6647824039028</v>
       </c>
       <c r="M38" s="19">
-        <v>2575.7223572010021</v>
+        <v>2745.748891390494</v>
       </c>
       <c r="N38" s="19">
-        <v>4067.0187656300018</v>
+        <v>4014.2422900054089</v>
       </c>
       <c r="O38" s="19">
-        <v>589.9259630600003</v>
+        <v>622.1854161710005</v>
       </c>
       <c r="P38" s="19">
-        <v>7.1673460699999998</v>
+        <v>8.0573326499999993</v>
       </c>
       <c r="Q38" s="19">
-        <v>34.542283277999999</v>
+        <v>35.484382947000007</v>
       </c>
       <c r="R38" s="19">
-        <v>0.48420864000000002</v>
+        <v>0.60199296000000002</v>
       </c>
       <c r="S38" s="20">
-        <v>0.43600249600000002</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.34447628000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>2022</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39" s="13">
-        <f t="shared" si="6"/>
-        <v>10958.977161499999</v>
+        <f t="shared" si="8"/>
+        <v>10780.323722207198</v>
       </c>
       <c r="E39" s="14">
-        <v>4038.936546500001</v>
+        <v>4137.0850310000033</v>
       </c>
       <c r="F39" s="14">
-        <v>5268.3369729999977</v>
+        <v>5186.775923207193</v>
       </c>
       <c r="G39" s="14">
-        <v>1291.416300000001</v>
+        <v>1080.597673</v>
       </c>
       <c r="H39" s="14">
-        <v>177.95099999999999</v>
+        <v>208.890287</v>
       </c>
       <c r="I39" s="14">
-        <v>167.63478000000001</v>
+        <v>154.938333</v>
       </c>
       <c r="J39" s="14">
         <v>0</v>
       </c>
       <c r="K39" s="14">
-        <v>14.701561999999999</v>
+        <v>12.036474999999999</v>
       </c>
       <c r="L39" s="13">
-        <f t="shared" si="7"/>
-        <v>7541.4980275314938</v>
+        <f t="shared" si="9"/>
+        <v>7413.4131095932507</v>
       </c>
       <c r="M39" s="14">
-        <v>2660.8203641194968</v>
+        <v>2681.1217716099991</v>
       </c>
       <c r="N39" s="14">
-        <v>4208.7790816289962</v>
+        <v>4205.8755796282521</v>
       </c>
       <c r="O39" s="14">
-        <v>621.14192796600003</v>
+        <v>483.91754051100008</v>
       </c>
       <c r="P39" s="14">
-        <v>6.623209000000001</v>
+        <v>8.2003226500000004</v>
       </c>
       <c r="Q39" s="14">
-        <v>35.708474217000003</v>
+        <v>32.794367653999998</v>
       </c>
       <c r="R39" s="14">
-        <v>8.0218468600000001</v>
+        <v>1.2866841600000001</v>
       </c>
       <c r="S39" s="15">
-        <v>0.40312374000000012</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.21684338000000011</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16">
         <v>2022</v>
       </c>
       <c r="C40" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="18">
+        <f t="shared" si="8"/>
+        <v>10829.844413999997</v>
+      </c>
+      <c r="E40" s="19">
+        <v>3962.7175100000009</v>
+      </c>
+      <c r="F40" s="19">
+        <v>5192.2296089999963</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1309.012232</v>
+      </c>
+      <c r="H40" s="19">
+        <v>181.97084000000001</v>
+      </c>
+      <c r="I40" s="19">
+        <v>167.812794</v>
+      </c>
+      <c r="J40" s="19">
+        <v>0</v>
+      </c>
+      <c r="K40" s="19">
+        <v>16.101429</v>
+      </c>
+      <c r="L40" s="18">
+        <f t="shared" si="9"/>
+        <v>7275.2969263750037</v>
+      </c>
+      <c r="M40" s="19">
+        <v>2575.7223572010021</v>
+      </c>
+      <c r="N40" s="19">
+        <v>4067.0187656300018</v>
+      </c>
+      <c r="O40" s="19">
+        <v>589.9259630600003</v>
+      </c>
+      <c r="P40" s="19">
+        <v>7.1673460699999998</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>34.542283277999999</v>
+      </c>
+      <c r="R40" s="19">
+        <v>0.48420864000000002</v>
+      </c>
+      <c r="S40" s="20">
+        <v>0.43600249600000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="8"/>
+        <v>10958.977161499999</v>
+      </c>
+      <c r="E41" s="14">
+        <v>4038.936546500001</v>
+      </c>
+      <c r="F41" s="14">
+        <v>5268.3369729999977</v>
+      </c>
+      <c r="G41" s="14">
+        <v>1291.416300000001</v>
+      </c>
+      <c r="H41" s="14">
+        <v>177.95099999999999</v>
+      </c>
+      <c r="I41" s="14">
+        <v>167.63478000000001</v>
+      </c>
+      <c r="J41" s="14">
+        <v>0</v>
+      </c>
+      <c r="K41" s="14">
+        <v>14.701561999999999</v>
+      </c>
+      <c r="L41" s="13">
+        <f t="shared" si="9"/>
+        <v>7541.4980275314938</v>
+      </c>
+      <c r="M41" s="14">
+        <v>2660.8203641194968</v>
+      </c>
+      <c r="N41" s="14">
+        <v>4208.7790816289962</v>
+      </c>
+      <c r="O41" s="14">
+        <v>621.14192796600003</v>
+      </c>
+      <c r="P41" s="14">
+        <v>6.623209000000001</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>35.708474217000003</v>
+      </c>
+      <c r="R41" s="14">
+        <v>8.0218468600000001</v>
+      </c>
+      <c r="S41" s="15">
+        <v>0.40312374000000012</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="16">
+        <v>2022</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="18">
-        <f t="shared" si="6"/>
+      <c r="D42" s="18">
+        <f t="shared" si="8"/>
         <v>9793.3689548991515</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E42" s="19">
         <v>3583.161939000001</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F42" s="19">
         <v>4789.6931648991504</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G42" s="19">
         <v>1070.14833</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H42" s="19">
         <v>173.86282</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I42" s="19">
         <v>164.508713</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J42" s="19">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K42" s="19">
         <v>11.987488000000001</v>
       </c>
-      <c r="L40" s="18">
-        <f t="shared" si="7"/>
+      <c r="L42" s="18">
+        <f t="shared" si="9"/>
         <v>6646.5983968474375</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M42" s="19">
         <v>2374.907421244</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N42" s="19">
         <v>3680.0897351094382</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O42" s="19">
         <v>540.62561002199982</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P42" s="19">
         <v>6.8062315400000006</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="Q42" s="19">
         <v>35.044869748000004</v>
       </c>
-      <c r="R40" s="19">
+      <c r="R42" s="19">
         <v>8.8324161199999995</v>
       </c>
-      <c r="S40" s="20">
+      <c r="S42" s="20">
         <v>0.29211306399999998</v>
       </c>
     </row>
-    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="21">
+    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="21">
         <v>2022</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C43" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="23">
-        <f t="shared" si="6"/>
+      <c r="D43" s="23">
+        <f t="shared" si="8"/>
         <v>10457.860871849636</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E43" s="24">
         <v>3811.0277475000012</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F43" s="24">
         <v>5081.9953543496349</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G43" s="24">
         <v>1163.869772</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H43" s="24">
         <v>216.800228</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I43" s="24">
         <v>164.64285100000001</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J43" s="24">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K43" s="24">
         <v>19.518419000000002</v>
       </c>
-      <c r="L41" s="23">
-        <f t="shared" si="7"/>
+      <c r="L43" s="23">
+        <f t="shared" si="9"/>
         <v>7312.9253518064897</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M43" s="24">
         <v>2516.776008406498</v>
       </c>
-      <c r="N41" s="24">
+      <c r="N43" s="24">
         <v>4165.2929514439929</v>
       </c>
-      <c r="O41" s="24">
+      <c r="O43" s="24">
         <v>584.89580469299949</v>
       </c>
-      <c r="P41" s="24">
+      <c r="P43" s="24">
         <v>7.9409832089999988</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="Q43" s="24">
         <v>36.984346221000003</v>
       </c>
-      <c r="R41" s="24">
+      <c r="R43" s="24">
         <v>0.54593274000000003</v>
       </c>
-      <c r="S41" s="25">
+      <c r="S43" s="25">
         <v>0.48932509299999999</v>
       </c>
     </row>
-    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="26">
+    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="26">
         <v>2021</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C44" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="28">
-        <f t="shared" si="6"/>
+      <c r="D44" s="28">
+        <f t="shared" si="8"/>
         <v>10554.11629972851</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E44" s="29">
         <v>3704.487701</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F44" s="29">
         <v>5168.8270517285082</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G44" s="29">
         <v>1210.66284</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H44" s="29">
         <v>278.57299999999998</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I44" s="29">
         <v>176.88040100000001</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J44" s="29">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K44" s="29">
         <v>14.676906000000001</v>
       </c>
-      <c r="L42" s="28">
-        <f t="shared" si="7"/>
+      <c r="L44" s="28">
+        <f t="shared" si="9"/>
         <v>7559.4957620836176</v>
       </c>
-      <c r="M42" s="29">
+      <c r="M44" s="29">
         <v>2454.9251451284981</v>
       </c>
-      <c r="N42" s="29">
+      <c r="N44" s="29">
         <v>4486.1274373061196</v>
       </c>
-      <c r="O42" s="29">
+      <c r="O44" s="29">
         <v>564.50741046500013</v>
       </c>
-      <c r="P42" s="29">
+      <c r="P44" s="29">
         <v>10.346456243</v>
       </c>
-      <c r="Q42" s="29">
+      <c r="Q44" s="29">
         <v>38.567701272999997</v>
       </c>
-      <c r="R42" s="29">
+      <c r="R44" s="29">
         <v>4.6980338499999998</v>
       </c>
-      <c r="S42" s="30">
+      <c r="S44" s="30">
         <v>0.32357781800000007</v>
       </c>
     </row>
-    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="13">
-        <f t="shared" si="6"/>
-        <v>10628.511753666689</v>
-      </c>
-      <c r="E43" s="14">
-        <v>3832.8486825000009</v>
-      </c>
-      <c r="F43" s="14">
-        <v>5157.1098371666867</v>
-      </c>
-      <c r="G43" s="14">
-        <v>1198.8120699999999</v>
-      </c>
-      <c r="H43" s="14">
-        <v>250.82408899999999</v>
-      </c>
-      <c r="I43" s="14">
-        <v>171.39998600000001</v>
-      </c>
-      <c r="J43" s="14">
-        <v>0.48580000000000001</v>
-      </c>
-      <c r="K43" s="14">
-        <v>17.031289000000001</v>
-      </c>
-      <c r="L43" s="13">
-        <f t="shared" si="7"/>
-        <v>7572.3847293000135</v>
-      </c>
-      <c r="M43" s="14">
-        <v>2487.2945403209969</v>
-      </c>
-      <c r="N43" s="14">
-        <v>4430.0140454000166</v>
-      </c>
-      <c r="O43" s="14">
-        <v>607.02709147300016</v>
-      </c>
-      <c r="P43" s="14">
-        <v>8.3345901050000002</v>
-      </c>
-      <c r="Q43" s="14">
-        <v>35.035225039999993</v>
-      </c>
-      <c r="R43" s="14">
-        <v>4.35235971</v>
-      </c>
-      <c r="S43" s="15">
-        <v>0.32687725099999992</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="16">
-        <v>2021</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="18">
-        <f t="shared" si="6"/>
-        <v>10447.886890621772</v>
-      </c>
-      <c r="E44" s="19">
-        <v>3568.6820320000061</v>
-      </c>
-      <c r="F44" s="19">
-        <v>5290.506152621766</v>
-      </c>
-      <c r="G44" s="19">
-        <v>1189.51099</v>
-      </c>
-      <c r="H44" s="19">
-        <v>218.87152699999999</v>
-      </c>
-      <c r="I44" s="19">
-        <v>164.760099</v>
-      </c>
-      <c r="J44" s="19">
-        <v>0</v>
-      </c>
-      <c r="K44" s="19">
-        <v>15.556089999999999</v>
-      </c>
-      <c r="L44" s="18">
-        <f t="shared" si="7"/>
-        <v>7454.4569883743907</v>
-      </c>
-      <c r="M44" s="19">
-        <v>2252.2121829349981</v>
-      </c>
-      <c r="N44" s="19">
-        <v>4555.9238501633918</v>
-      </c>
-      <c r="O44" s="19">
-        <v>598.34848022000062</v>
-      </c>
-      <c r="P44" s="19">
-        <v>8.6802298340000004</v>
-      </c>
-      <c r="Q44" s="19">
-        <v>36.737191042000013</v>
-      </c>
-      <c r="R44" s="19">
-        <v>2.1651060200000001</v>
-      </c>
-      <c r="S44" s="20">
-        <v>0.38994815999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>2021</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" s="13">
-        <f t="shared" si="6"/>
-        <v>10310.171017315373</v>
+        <f t="shared" si="8"/>
+        <v>10628.511753666689</v>
       </c>
       <c r="E45" s="14">
-        <v>3660.1919630000002</v>
+        <v>3832.8486825000009</v>
       </c>
       <c r="F45" s="14">
-        <v>5125.4300873153752</v>
+        <v>5157.1098371666867</v>
       </c>
       <c r="G45" s="14">
-        <v>1106.3341800000001</v>
+        <v>1198.8120699999999</v>
       </c>
       <c r="H45" s="14">
-        <v>225.05336800000001</v>
+        <v>250.82408899999999</v>
       </c>
       <c r="I45" s="14">
-        <v>173.367749</v>
+        <v>171.39998600000001</v>
       </c>
       <c r="J45" s="14">
-        <v>0</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="K45" s="14">
-        <v>19.793669999999999</v>
+        <v>17.031289000000001</v>
       </c>
       <c r="L45" s="13">
-        <f t="shared" si="7"/>
-        <v>7455.9332633507911</v>
+        <f t="shared" si="9"/>
+        <v>7572.3847293000135</v>
       </c>
       <c r="M45" s="14">
-        <v>2336.1774044905001</v>
+        <v>2487.2945403209969</v>
       </c>
       <c r="N45" s="14">
-        <v>4499.0870851722912</v>
+        <v>4430.0140454000166</v>
       </c>
       <c r="O45" s="14">
-        <v>574.36416933199996</v>
+        <v>607.02709147300016</v>
       </c>
       <c r="P45" s="14">
-        <v>9.2197258459999993</v>
+        <v>8.3345901050000002</v>
       </c>
       <c r="Q45" s="14">
-        <v>33.827011099000003</v>
+        <v>35.035225039999993</v>
       </c>
       <c r="R45" s="14">
-        <v>2.7609138199999999</v>
+        <v>4.35235971</v>
       </c>
       <c r="S45" s="15">
-        <v>0.49695359099999997</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.32687725099999992</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="16">
         <v>2021</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D46" s="18">
-        <f t="shared" si="6"/>
-        <v>10858.20812040527</v>
+        <f t="shared" si="8"/>
+        <v>10447.886890621772</v>
       </c>
       <c r="E46" s="19">
-        <v>3521.7041924999971</v>
+        <v>3568.6820320000061</v>
       </c>
       <c r="F46" s="19">
-        <v>5688.3567339052724</v>
+        <v>5290.506152621766</v>
       </c>
       <c r="G46" s="19">
-        <v>1217.1854400000011</v>
+        <v>1189.51099</v>
       </c>
       <c r="H46" s="19">
-        <v>237.21059299999999</v>
+        <v>218.87152699999999</v>
       </c>
       <c r="I46" s="19">
-        <v>181.48093</v>
+        <v>164.760099</v>
       </c>
       <c r="J46" s="19">
-        <v>8.4000000000000012E-3</v>
+        <v>0</v>
       </c>
       <c r="K46" s="19">
-        <v>12.261831000000001</v>
+        <v>15.556089999999999</v>
       </c>
       <c r="L46" s="18">
-        <f t="shared" si="7"/>
-        <v>7799.3527436193035</v>
+        <f t="shared" si="9"/>
+        <v>7454.4569883743907</v>
       </c>
       <c r="M46" s="19">
-        <v>2294.5162238704979</v>
+        <v>2252.2121829349981</v>
       </c>
       <c r="N46" s="19">
-        <v>4842.6990967668053</v>
+        <v>4555.9238501633918</v>
       </c>
       <c r="O46" s="19">
-        <v>615.63413392999996</v>
+        <v>598.34848022000062</v>
       </c>
       <c r="P46" s="19">
-        <v>8.5407225140000023</v>
+        <v>8.6802298340000004</v>
       </c>
       <c r="Q46" s="19">
-        <v>34.95596040800001</v>
+        <v>36.737191042000013</v>
       </c>
       <c r="R46" s="19">
-        <v>2.7197566399999999</v>
+        <v>2.1651060200000001</v>
       </c>
       <c r="S46" s="20">
-        <v>0.28684948999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.38994815999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="11">
         <v>2021</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D47" s="13">
-        <f t="shared" si="6"/>
-        <v>11255.030800119688</v>
+        <f t="shared" si="8"/>
+        <v>10310.171017315373</v>
       </c>
       <c r="E47" s="14">
-        <v>3793.7436850000049</v>
+        <v>3660.1919630000002</v>
       </c>
       <c r="F47" s="14">
-        <v>5713.976884119681</v>
+        <v>5125.4300873153752</v>
       </c>
       <c r="G47" s="14">
-        <v>1315.6355450000001</v>
+        <v>1106.3341800000001</v>
       </c>
       <c r="H47" s="14">
-        <v>235.601181</v>
+        <v>225.05336800000001</v>
       </c>
       <c r="I47" s="14">
-        <v>181.74973800000001</v>
+        <v>173.367749</v>
       </c>
       <c r="J47" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="14">
-        <v>14.308767</v>
+        <v>19.793669999999999</v>
       </c>
       <c r="L47" s="13">
-        <f t="shared" si="7"/>
-        <v>8093.1738756910991</v>
+        <f t="shared" si="9"/>
+        <v>7455.9332633507911</v>
       </c>
       <c r="M47" s="14">
-        <v>2575.3834254900021</v>
+        <v>2336.1774044905001</v>
       </c>
       <c r="N47" s="14">
-        <v>4833.7327735580984</v>
+        <v>4499.0870851722912</v>
       </c>
       <c r="O47" s="14">
-        <v>635.0188110539998</v>
+        <v>574.36416933199996</v>
       </c>
       <c r="P47" s="14">
-        <v>8.7395811469999991</v>
+        <v>9.2197258459999993</v>
       </c>
       <c r="Q47" s="14">
-        <v>36.949788237000007</v>
+        <v>33.827011099000003</v>
       </c>
       <c r="R47" s="14">
-        <v>3.0379556999999999</v>
+        <v>2.7609138199999999</v>
       </c>
       <c r="S47" s="15">
-        <v>0.31154050500000008</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.49695359099999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="16">
         <v>2021</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48" s="18">
-        <f t="shared" si="6"/>
-        <v>11085.875192119853</v>
+        <f t="shared" si="8"/>
+        <v>10858.20812040527</v>
       </c>
       <c r="E48" s="19">
-        <v>4014.4691365000031</v>
+        <v>3521.7041924999971</v>
       </c>
       <c r="F48" s="19">
-        <v>5377.2218746198478</v>
+        <v>5688.3567339052724</v>
       </c>
       <c r="G48" s="19">
-        <v>1234.1497800000011</v>
+        <v>1217.1854400000011</v>
       </c>
       <c r="H48" s="19">
-        <v>253.12753699999999</v>
+        <v>237.21059299999999</v>
       </c>
       <c r="I48" s="19">
-        <v>192.660923</v>
+        <v>181.48093</v>
       </c>
       <c r="J48" s="19">
-        <v>2.1499999999999998E-2</v>
+        <v>8.4000000000000012E-3</v>
       </c>
       <c r="K48" s="19">
-        <v>14.224441000000001</v>
+        <v>12.261831000000001</v>
       </c>
       <c r="L48" s="18">
-        <f t="shared" si="7"/>
-        <v>7726.6787146596171</v>
+        <f t="shared" si="9"/>
+        <v>7799.3527436193035</v>
       </c>
       <c r="M48" s="19">
-        <v>2629.796765055999</v>
+        <v>2294.5162238704979</v>
       </c>
       <c r="N48" s="19">
-        <v>4464.5122847686171</v>
+        <v>4842.6990967668053</v>
       </c>
       <c r="O48" s="19">
-        <v>581.68120659000044</v>
+        <v>615.63413392999996</v>
       </c>
       <c r="P48" s="19">
-        <v>9.1290644990000001</v>
+        <v>8.5407225140000023</v>
       </c>
       <c r="Q48" s="19">
-        <v>36.782584659999998</v>
+        <v>34.95596040800001</v>
       </c>
       <c r="R48" s="19">
-        <v>4.3888587000000001</v>
+        <v>2.7197566399999999</v>
       </c>
       <c r="S48" s="20">
-        <v>0.38795038599999998</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.28684948999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="11">
         <v>2021</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D49" s="13">
-        <f t="shared" si="6"/>
-        <v>12022.900882797225</v>
+        <f t="shared" si="8"/>
+        <v>11255.030800119688</v>
       </c>
       <c r="E49" s="14">
-        <v>4361.3740710000029</v>
+        <v>3793.7436850000049</v>
       </c>
       <c r="F49" s="14">
-        <v>5936.7487387972214</v>
+        <v>5713.976884119681</v>
       </c>
       <c r="G49" s="14">
-        <v>1232.430877999999</v>
+        <v>1315.6355450000001</v>
       </c>
       <c r="H49" s="14">
-        <v>263.60899599999999</v>
+        <v>235.601181</v>
       </c>
       <c r="I49" s="14">
-        <v>207.02036000000001</v>
+        <v>181.74973800000001</v>
       </c>
       <c r="J49" s="14">
-        <v>1.9199999999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K49" s="14">
-        <v>21.698639</v>
+        <v>14.308767</v>
       </c>
       <c r="L49" s="13">
-        <f t="shared" si="7"/>
-        <v>8508.790074300683</v>
+        <f t="shared" si="9"/>
+        <v>8093.1738756910991</v>
       </c>
       <c r="M49" s="14">
-        <v>2922.9896007830021</v>
+        <v>2575.3834254900021</v>
       </c>
       <c r="N49" s="14">
-        <v>4940.7335945086788</v>
+        <v>4833.7327735580984</v>
       </c>
       <c r="O49" s="14">
-        <v>590.43121132199985</v>
+        <v>635.0188110539998</v>
       </c>
       <c r="P49" s="14">
-        <v>9.6548794559999997</v>
+        <v>8.7395811469999991</v>
       </c>
       <c r="Q49" s="14">
-        <v>41.925393185999987</v>
+        <v>36.949788237000007</v>
       </c>
       <c r="R49" s="14">
-        <v>2.55537546</v>
+        <v>3.0379556999999999</v>
       </c>
       <c r="S49" s="15">
-        <v>0.50001958499999988</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.31154050500000008</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="16">
         <v>2021</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D50" s="18">
-        <f t="shared" si="6"/>
-        <v>11202.965129249227</v>
+        <f t="shared" si="8"/>
+        <v>11085.875192119853</v>
       </c>
       <c r="E50" s="19">
-        <v>4088.1791725000012</v>
+        <v>4014.4691365000031</v>
       </c>
       <c r="F50" s="19">
-        <v>5398.3324937492234</v>
+        <v>5377.2218746198478</v>
       </c>
       <c r="G50" s="19">
-        <v>1215.8369100000009</v>
+        <v>1234.1497800000011</v>
       </c>
       <c r="H50" s="19">
-        <v>280.81724400000002</v>
+        <v>253.12753699999999</v>
       </c>
       <c r="I50" s="19">
-        <v>191.078067</v>
+        <v>192.660923</v>
       </c>
       <c r="J50" s="19">
-        <v>3.2000000000000001E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="K50" s="19">
-        <v>28.689242</v>
+        <v>14.224441000000001</v>
       </c>
       <c r="L50" s="18">
-        <f t="shared" si="7"/>
-        <v>7831.1461965570006</v>
+        <f t="shared" si="9"/>
+        <v>7726.6787146596171</v>
       </c>
       <c r="M50" s="19">
-        <v>2687.4059335134998</v>
+        <v>2629.796765055999</v>
       </c>
       <c r="N50" s="19">
-        <v>4476.268327207501</v>
+        <v>4464.5122847686171</v>
       </c>
       <c r="O50" s="19">
-        <v>612.56275004999998</v>
+        <v>581.68120659000044</v>
       </c>
       <c r="P50" s="19">
-        <v>10.506913092</v>
+        <v>9.1290644990000001</v>
       </c>
       <c r="Q50" s="19">
-        <v>37.034007258999999</v>
+        <v>36.782584659999998</v>
       </c>
       <c r="R50" s="19">
-        <v>6.8037442799999992</v>
+        <v>4.3888587000000001</v>
       </c>
       <c r="S50" s="20">
-        <v>0.56452115499999989</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.38795038599999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="11">
         <v>2021</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D51" s="13">
-        <f t="shared" si="6"/>
-        <v>11472.620926703923</v>
+        <f t="shared" si="8"/>
+        <v>12022.900882797225</v>
       </c>
       <c r="E51" s="14">
-        <v>4090.808027499997</v>
+        <v>4361.3740710000029</v>
       </c>
       <c r="F51" s="14">
-        <v>5662.2790862039283</v>
+        <v>5936.7487387972214</v>
       </c>
       <c r="G51" s="14">
-        <v>1207.80692</v>
+        <v>1232.430877999999</v>
       </c>
       <c r="H51" s="14">
-        <v>294.74798299999998</v>
+        <v>263.60899599999999</v>
       </c>
       <c r="I51" s="14">
-        <v>196.56426200000001</v>
+        <v>207.02036000000001</v>
       </c>
       <c r="J51" s="14">
-        <v>2.7E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="K51" s="14">
-        <v>20.387647999999999</v>
+        <v>21.698639</v>
       </c>
       <c r="L51" s="13">
-        <f t="shared" si="7"/>
-        <v>8142.6430797048588</v>
+        <f t="shared" si="9"/>
+        <v>8508.790074300683</v>
       </c>
       <c r="M51" s="14">
-        <v>2745.9354684965042</v>
+        <v>2922.9896007830021</v>
       </c>
       <c r="N51" s="14">
-        <v>4736.7506870613533</v>
+        <v>4940.7335945086788</v>
       </c>
       <c r="O51" s="14">
-        <v>604.7617960900003</v>
+        <v>590.43121132199985</v>
       </c>
       <c r="P51" s="14">
-        <v>8.8911368260000003</v>
+        <v>9.6548794559999997</v>
       </c>
       <c r="Q51" s="14">
-        <v>41.498002944</v>
+        <v>41.925393185999987</v>
       </c>
       <c r="R51" s="14">
-        <v>4.35843588</v>
+        <v>2.55537546</v>
       </c>
       <c r="S51" s="15">
-        <v>0.44755240699999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.50001958499999988</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="16">
         <v>2021</v>
       </c>
       <c r="C52" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="18">
+        <f t="shared" si="8"/>
+        <v>11202.965129249227</v>
+      </c>
+      <c r="E52" s="19">
+        <v>4088.1791725000012</v>
+      </c>
+      <c r="F52" s="19">
+        <v>5398.3324937492234</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1215.8369100000009</v>
+      </c>
+      <c r="H52" s="19">
+        <v>280.81724400000002</v>
+      </c>
+      <c r="I52" s="19">
+        <v>191.078067</v>
+      </c>
+      <c r="J52" s="19">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K52" s="19">
+        <v>28.689242</v>
+      </c>
+      <c r="L52" s="18">
+        <f t="shared" si="9"/>
+        <v>7831.1461965570006</v>
+      </c>
+      <c r="M52" s="19">
+        <v>2687.4059335134998</v>
+      </c>
+      <c r="N52" s="19">
+        <v>4476.268327207501</v>
+      </c>
+      <c r="O52" s="19">
+        <v>612.56275004999998</v>
+      </c>
+      <c r="P52" s="19">
+        <v>10.506913092</v>
+      </c>
+      <c r="Q52" s="19">
+        <v>37.034007258999999</v>
+      </c>
+      <c r="R52" s="19">
+        <v>6.8037442799999992</v>
+      </c>
+      <c r="S52" s="20">
+        <v>0.56452115499999989</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="8"/>
+        <v>11472.620926703923</v>
+      </c>
+      <c r="E53" s="14">
+        <v>4090.808027499997</v>
+      </c>
+      <c r="F53" s="14">
+        <v>5662.2790862039283</v>
+      </c>
+      <c r="G53" s="14">
+        <v>1207.80692</v>
+      </c>
+      <c r="H53" s="14">
+        <v>294.74798299999998</v>
+      </c>
+      <c r="I53" s="14">
+        <v>196.56426200000001</v>
+      </c>
+      <c r="J53" s="14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K53" s="14">
+        <v>20.387647999999999</v>
+      </c>
+      <c r="L53" s="13">
+        <f t="shared" si="9"/>
+        <v>8142.6430797048588</v>
+      </c>
+      <c r="M53" s="14">
+        <v>2745.9354684965042</v>
+      </c>
+      <c r="N53" s="14">
+        <v>4736.7506870613533</v>
+      </c>
+      <c r="O53" s="14">
+        <v>604.7617960900003</v>
+      </c>
+      <c r="P53" s="14">
+        <v>8.8911368260000003</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>41.498002944</v>
+      </c>
+      <c r="R53" s="14">
+        <v>4.35843588</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0.44755240699999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="18">
-        <f t="shared" si="6"/>
+      <c r="D54" s="18">
+        <f t="shared" si="8"/>
         <v>9383.1106395317038</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E54" s="19">
         <v>3368.883307499998</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F54" s="19">
         <v>4573.2690100317068</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G54" s="19">
         <v>1036.92257</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H54" s="19">
         <v>234.75769500000001</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I54" s="19">
         <v>161.20675999999989</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J54" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K54" s="19">
         <v>8.0472970000000004</v>
       </c>
-      <c r="L52" s="18">
-        <f t="shared" si="7"/>
+      <c r="L54" s="18">
+        <f t="shared" si="9"/>
         <v>6633.7415436800029</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M54" s="19">
         <v>2289.3534260344968</v>
       </c>
-      <c r="N52" s="19">
+      <c r="N54" s="19">
         <v>3773.8464727675068</v>
       </c>
-      <c r="O52" s="19">
+      <c r="O54" s="19">
         <v>527.36503372999948</v>
       </c>
-      <c r="P52" s="19">
+      <c r="P54" s="19">
         <v>8.0640420000000006</v>
       </c>
-      <c r="Q52" s="19">
+      <c r="Q54" s="19">
         <v>32.601814822999998</v>
       </c>
-      <c r="R52" s="19">
+      <c r="R54" s="19">
         <v>2.3511389399999998</v>
       </c>
-      <c r="S52" s="20">
+      <c r="S54" s="20">
         <v>0.159615385</v>
       </c>
     </row>
-    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="21">
+    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="21">
         <v>2021</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C55" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="23">
-        <f t="shared" si="6"/>
+      <c r="D55" s="23">
+        <f t="shared" si="8"/>
         <v>10668.087908957505</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E55" s="24">
         <v>4020.238264000001</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F55" s="24">
         <v>5144.8473599575036</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G55" s="24">
         <v>1116.808546</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H55" s="24">
         <v>177.10898</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I55" s="24">
         <v>186.84795500000001</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J55" s="24">
         <v>5.1790099999999999</v>
       </c>
-      <c r="K53" s="24">
+      <c r="K55" s="24">
         <v>17.057794000000001</v>
       </c>
-      <c r="L53" s="23">
-        <f t="shared" si="7"/>
+      <c r="L55" s="23">
+        <f t="shared" si="9"/>
         <v>7658.9491725908874</v>
       </c>
-      <c r="M53" s="24">
+      <c r="M55" s="24">
         <v>2719.7331992549998</v>
       </c>
-      <c r="N53" s="24">
+      <c r="N55" s="24">
         <v>4347.3157786078864</v>
       </c>
-      <c r="O53" s="24">
+      <c r="O55" s="24">
         <v>544.13671407200002</v>
       </c>
-      <c r="P53" s="24">
+      <c r="P55" s="24">
         <v>7.3822649800000004</v>
       </c>
-      <c r="Q53" s="24">
+      <c r="Q55" s="24">
         <v>37.287069709999997</v>
       </c>
-      <c r="R53" s="24">
+      <c r="R55" s="24">
         <v>2.7605594199999999</v>
       </c>
-      <c r="S53" s="25">
+      <c r="S55" s="25">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="26">
+    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="26">
         <v>2020</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C56" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="28">
-        <f t="shared" si="6"/>
+      <c r="D56" s="28">
+        <f t="shared" si="8"/>
         <v>10425.345499100005</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E56" s="29">
         <v>3898.4186785000038</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F56" s="29">
         <v>4882.8448936000004</v>
       </c>
-      <c r="G54" s="29">
+      <c r="G56" s="29">
         <v>1069.05969</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H56" s="29">
         <v>347.73810900000001</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I56" s="29">
         <v>196.70733799999999</v>
       </c>
-      <c r="J54" s="29">
+      <c r="J56" s="29">
         <v>18.026479999999999</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K56" s="29">
         <v>12.55031</v>
       </c>
-      <c r="L54" s="28">
-        <f t="shared" si="7"/>
+      <c r="L56" s="28">
+        <f t="shared" si="9"/>
         <v>7353.1727623347024</v>
       </c>
-      <c r="M54" s="29">
+      <c r="M56" s="29">
         <v>2625.9467366160002</v>
       </c>
-      <c r="N54" s="29">
+      <c r="N56" s="29">
         <v>4157.4580108327018</v>
       </c>
-      <c r="O54" s="29">
+      <c r="O56" s="29">
         <v>517.70569403000059</v>
       </c>
-      <c r="P54" s="29">
+      <c r="P56" s="29">
         <v>9.0617785400000006</v>
       </c>
-      <c r="Q54" s="29">
+      <c r="Q56" s="29">
         <v>36.825079076000002</v>
       </c>
-      <c r="R54" s="29">
+      <c r="R56" s="29">
         <v>5.8351311600000004</v>
       </c>
-      <c r="S54" s="30">
+      <c r="S56" s="30">
         <v>0.34033207999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="13">
-        <f t="shared" si="6"/>
-        <v>10381.153690500003</v>
-      </c>
-      <c r="E55" s="14">
-        <v>3792.1774099999998</v>
-      </c>
-      <c r="F55" s="14">
-        <v>5016.643987500006</v>
-      </c>
-      <c r="G55" s="14">
-        <v>1022.91</v>
-      </c>
-      <c r="H55" s="14">
-        <v>376.49241599999999</v>
-      </c>
-      <c r="I55" s="14">
-        <v>156.720607</v>
-      </c>
-      <c r="J55" s="14">
-        <v>6.5342300000000009</v>
-      </c>
-      <c r="K55" s="14">
-        <v>9.6750399999999974</v>
-      </c>
-      <c r="L55" s="13">
-        <f t="shared" si="7"/>
-        <v>7352.5100897651027</v>
-      </c>
-      <c r="M55" s="14">
-        <v>2476.4938742799982</v>
-      </c>
-      <c r="N55" s="14">
-        <v>4312.6025955031046</v>
-      </c>
-      <c r="O55" s="14">
-        <v>515.07792600000016</v>
-      </c>
-      <c r="P55" s="14">
-        <v>11.231821312999999</v>
-      </c>
-      <c r="Q55" s="14">
-        <v>34.256908838999998</v>
-      </c>
-      <c r="R55" s="14">
-        <v>2.6046938000000002</v>
-      </c>
-      <c r="S55" s="15">
-        <v>0.24227003</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="18">
-        <f t="shared" si="6"/>
-        <v>10304.857817457816</v>
-      </c>
-      <c r="E56" s="19">
-        <v>3959.7610744999961</v>
-      </c>
-      <c r="F56" s="19">
-        <v>4749.0987938578201</v>
-      </c>
-      <c r="G56" s="19">
-        <v>1197.7530099999999</v>
-      </c>
-      <c r="H56" s="19">
-        <v>186.51679809999999</v>
-      </c>
-      <c r="I56" s="19">
-        <v>178.59754699999999</v>
-      </c>
-      <c r="J56" s="19">
-        <v>16.072800000000001</v>
-      </c>
-      <c r="K56" s="19">
-        <v>17.057794000000001</v>
-      </c>
-      <c r="L56" s="18">
-        <f t="shared" si="7"/>
-        <v>7334.9599437122397</v>
-      </c>
-      <c r="M56" s="19">
-        <v>2713.3960539770019</v>
-      </c>
-      <c r="N56" s="19">
-        <v>4023.2553769225378</v>
-      </c>
-      <c r="O56" s="19">
-        <v>542.79762977000007</v>
-      </c>
-      <c r="P56" s="19">
-        <v>7.5060893896999996</v>
-      </c>
-      <c r="Q56" s="19">
-        <v>42.505763026999993</v>
-      </c>
-      <c r="R56" s="19">
-        <v>5.1654440799999994</v>
-      </c>
-      <c r="S56" s="20">
-        <v>0.33358654599999998</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11">
         <v>2020</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" s="13">
-        <f t="shared" si="6"/>
-        <v>10010.860705133222</v>
+        <f t="shared" si="8"/>
+        <v>10381.153690500003</v>
       </c>
       <c r="E57" s="14">
-        <v>4074.659214000003</v>
+        <v>3792.1774099999998</v>
       </c>
       <c r="F57" s="14">
-        <v>4534.2935971332181</v>
+        <v>5016.643987500006</v>
       </c>
       <c r="G57" s="14">
-        <v>1007.21459</v>
+        <v>1022.91</v>
       </c>
       <c r="H57" s="14">
-        <v>218.893238</v>
+        <v>376.49241599999999</v>
       </c>
       <c r="I57" s="14">
-        <v>160.24086600000001</v>
+        <v>156.720607</v>
       </c>
       <c r="J57" s="14">
-        <v>0.98</v>
+        <v>6.5342300000000009</v>
       </c>
       <c r="K57" s="14">
-        <v>14.5792</v>
+        <v>9.6750399999999974</v>
       </c>
       <c r="L57" s="13">
-        <f t="shared" si="7"/>
-        <v>7046.4603867411315</v>
+        <f t="shared" si="9"/>
+        <v>7352.5100897651027</v>
       </c>
       <c r="M57" s="14">
-        <v>2750.463505591501</v>
+        <v>2476.4938742799982</v>
       </c>
       <c r="N57" s="14">
-        <v>3736.9267533866309</v>
+        <v>4312.6025955031046</v>
       </c>
       <c r="O57" s="14">
-        <v>516.3334641199998</v>
+        <v>515.07792600000016</v>
       </c>
       <c r="P57" s="14">
-        <v>8.9935901099999995</v>
+        <v>11.231821312999999</v>
       </c>
       <c r="Q57" s="14">
-        <v>32.577175492999999</v>
+        <v>34.256908838999998</v>
       </c>
       <c r="R57" s="14">
-        <v>0.73748120000000006</v>
+        <v>2.6046938000000002</v>
       </c>
       <c r="S57" s="15">
-        <v>0.42841684000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.24227003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="16">
         <v>2020</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D58" s="18">
-        <f t="shared" si="6"/>
-        <v>10140.746236042156</v>
+        <f t="shared" si="8"/>
+        <v>10304.857817457816</v>
       </c>
       <c r="E58" s="19">
-        <v>3720.288184500002</v>
+        <v>3959.7610744999961</v>
       </c>
       <c r="F58" s="19">
-        <v>4994.2514095421539</v>
+        <v>4749.0987938578201</v>
       </c>
       <c r="G58" s="19">
-        <v>1027.58536</v>
+        <v>1197.7530099999999</v>
       </c>
       <c r="H58" s="19">
-        <v>187.64308500000001</v>
+        <v>186.51679809999999</v>
       </c>
       <c r="I58" s="19">
-        <v>186.38118700000001</v>
+        <v>178.59754699999999</v>
       </c>
       <c r="J58" s="19">
-        <v>13.8596</v>
+        <v>16.072800000000001</v>
       </c>
       <c r="K58" s="19">
-        <v>10.737410000000001</v>
+        <v>17.057794000000001</v>
       </c>
       <c r="L58" s="18">
-        <f t="shared" si="7"/>
-        <v>7449.2591429184022</v>
+        <f t="shared" si="9"/>
+        <v>7334.9599437122397</v>
       </c>
       <c r="M58" s="19">
-        <v>2487.3447639574988</v>
+        <v>2713.3960539770019</v>
       </c>
       <c r="N58" s="19">
-        <v>4328.973769747904</v>
+        <v>4023.2553769225378</v>
       </c>
       <c r="O58" s="19">
-        <v>579.49765215000036</v>
+        <v>542.79762977000007</v>
       </c>
       <c r="P58" s="19">
-        <v>7.4413398099999997</v>
+        <v>7.5060893896999996</v>
       </c>
       <c r="Q58" s="19">
-        <v>39.990465413000003</v>
+        <v>42.505763026999993</v>
       </c>
       <c r="R58" s="19">
-        <v>5.7537497800000006</v>
+        <v>5.1654440799999994</v>
       </c>
       <c r="S58" s="20">
-        <v>0.25740205999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.33358654599999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="11">
         <v>2020</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D59" s="13">
-        <f t="shared" si="6"/>
-        <v>10156.497411288225</v>
+        <f t="shared" si="8"/>
+        <v>10010.860705133222</v>
       </c>
       <c r="E59" s="14">
-        <v>3613.696181999997</v>
+        <v>4074.659214000003</v>
       </c>
       <c r="F59" s="14">
-        <v>4968.204788288228</v>
+        <v>4534.2935971332181</v>
       </c>
       <c r="G59" s="14">
-        <v>1194.003549999999</v>
+        <v>1007.21459</v>
       </c>
       <c r="H59" s="14">
-        <v>179.13738699999999</v>
+        <v>218.893238</v>
       </c>
       <c r="I59" s="14">
-        <v>177.43138400000001</v>
+        <v>160.24086600000001</v>
       </c>
       <c r="J59" s="14">
-        <v>13.854179999999999</v>
+        <v>0.98</v>
       </c>
       <c r="K59" s="14">
-        <v>10.16994</v>
+        <v>14.5792</v>
       </c>
       <c r="L59" s="13">
-        <f t="shared" si="7"/>
-        <v>7380.5613200561647</v>
+        <f t="shared" si="9"/>
+        <v>7046.4603867411315</v>
       </c>
       <c r="M59" s="14">
-        <v>2428.846732166</v>
+        <v>2750.463505591501</v>
       </c>
       <c r="N59" s="14">
-        <v>4258.745057885164</v>
+        <v>3736.9267533866309</v>
       </c>
       <c r="O59" s="14">
-        <v>616.52099685999997</v>
+        <v>516.3334641199998</v>
       </c>
       <c r="P59" s="14">
-        <v>6.897613637000001</v>
+        <v>8.9935901099999995</v>
       </c>
       <c r="Q59" s="14">
-        <v>46.615575728000003</v>
+        <v>32.577175492999999</v>
       </c>
       <c r="R59" s="14">
-        <v>22.688503149999999</v>
+        <v>0.73748120000000006</v>
       </c>
       <c r="S59" s="15">
-        <v>0.24684063000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.42841684000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="16">
         <v>2020</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D60" s="18">
-        <f t="shared" si="6"/>
-        <v>9413.8401068405965</v>
+        <f t="shared" si="8"/>
+        <v>10140.746236042156</v>
       </c>
       <c r="E60" s="19">
-        <v>3299.4981385000028</v>
+        <v>3720.288184500002</v>
       </c>
       <c r="F60" s="19">
-        <v>4750.320989340591</v>
+        <v>4994.2514095421539</v>
       </c>
       <c r="G60" s="19">
-        <v>1032.4139100000009</v>
+        <v>1027.58536</v>
       </c>
       <c r="H60" s="19">
-        <v>122.951718</v>
+        <v>187.64308500000001</v>
       </c>
       <c r="I60" s="19">
-        <v>176.151501</v>
+        <v>186.38118700000001</v>
       </c>
       <c r="J60" s="19">
-        <v>19.795500000000001</v>
+        <v>13.8596</v>
       </c>
       <c r="K60" s="19">
-        <v>12.708349999999999</v>
+        <v>10.737410000000001</v>
       </c>
       <c r="L60" s="18">
-        <f t="shared" si="7"/>
-        <v>6838.7530584626184</v>
+        <f t="shared" si="9"/>
+        <v>7449.2591429184022</v>
       </c>
       <c r="M60" s="19">
-        <v>2178.930646833498</v>
+        <v>2487.3447639574988</v>
       </c>
       <c r="N60" s="19">
-        <v>4081.32299100612</v>
+        <v>4328.973769747904</v>
       </c>
       <c r="O60" s="19">
-        <v>505.39333284999958</v>
+        <v>579.49765215000036</v>
       </c>
       <c r="P60" s="19">
-        <v>4.1486682360000007</v>
+        <v>7.4413398099999997</v>
       </c>
       <c r="Q60" s="19">
-        <v>48.516144666999992</v>
+        <v>39.990465413000003</v>
       </c>
       <c r="R60" s="19">
-        <v>20.1564771</v>
+        <v>5.7537497800000006</v>
       </c>
       <c r="S60" s="20">
-        <v>0.28479777000000012</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.25740205999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="11">
         <v>2020</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D61" s="13">
-        <f t="shared" ref="D61:D89" si="8">SUM(E61:K61)</f>
-        <v>8958.3282716603189</v>
+        <f t="shared" si="8"/>
+        <v>10156.497411288225</v>
       </c>
       <c r="E61" s="14">
-        <v>2963.8515250000032</v>
+        <v>3613.696181999997</v>
       </c>
       <c r="F61" s="14">
-        <v>4578.9250176603191</v>
+        <v>4968.204788288228</v>
       </c>
       <c r="G61" s="14">
-        <v>1046.3265299999989</v>
+        <v>1194.003549999999</v>
       </c>
       <c r="H61" s="14">
-        <v>141.62878699999999</v>
+        <v>179.13738699999999</v>
       </c>
       <c r="I61" s="14">
-        <v>181.326382</v>
+        <v>177.43138400000001</v>
       </c>
       <c r="J61" s="14">
-        <v>35.391770000000001</v>
+        <v>13.854179999999999</v>
       </c>
       <c r="K61" s="14">
-        <v>10.878259999999999</v>
+        <v>10.16994</v>
       </c>
       <c r="L61" s="13">
-        <f t="shared" ref="L61:L89" si="9">SUM(M61:S61)</f>
-        <v>6599.7211012138414</v>
+        <f t="shared" si="9"/>
+        <v>7380.5613200561647</v>
       </c>
       <c r="M61" s="14">
-        <v>1955.6864974084999</v>
+        <v>2428.846732166</v>
       </c>
       <c r="N61" s="14">
-        <v>4070.699793715341</v>
+        <v>4258.745057885164</v>
       </c>
       <c r="O61" s="14">
-        <v>490.43616353999971</v>
+        <v>616.52099685999997</v>
       </c>
       <c r="P61" s="14">
-        <v>4.9919812889999999</v>
+        <v>6.897613637000001</v>
       </c>
       <c r="Q61" s="14">
-        <v>49.262628410999987</v>
+        <v>46.615575728000003</v>
       </c>
       <c r="R61" s="14">
-        <v>28.479580210000002</v>
+        <v>22.688503149999999</v>
       </c>
       <c r="S61" s="15">
-        <v>0.16445663999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.24684063000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="16">
         <v>2020</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D62" s="18">
         <f t="shared" si="8"/>
-        <v>9180.7559098961865</v>
+        <v>9413.8401068405965</v>
       </c>
       <c r="E62" s="19">
-        <v>3045.684487</v>
+        <v>3299.4981385000028</v>
       </c>
       <c r="F62" s="19">
-        <v>4586.6569688961881</v>
+        <v>4750.320989340591</v>
       </c>
       <c r="G62" s="19">
-        <v>1232.8326999999999</v>
+        <v>1032.4139100000009</v>
       </c>
       <c r="H62" s="19">
-        <v>80.286566999999991</v>
+        <v>122.951718</v>
       </c>
       <c r="I62" s="19">
-        <v>185.73497699999999</v>
+        <v>176.151501</v>
       </c>
       <c r="J62" s="19">
-        <v>37.784360000000007</v>
+        <v>19.795500000000001</v>
       </c>
       <c r="K62" s="19">
-        <v>11.77585</v>
+        <v>12.708349999999999</v>
       </c>
       <c r="L62" s="18">
         <f t="shared" si="9"/>
-        <v>6563.6809044984548</v>
+        <v>6838.7530584626184</v>
       </c>
       <c r="M62" s="19">
-        <v>2092.363650120501</v>
+        <v>2178.930646833498</v>
       </c>
       <c r="N62" s="19">
-        <v>3810.8671320719541</v>
+        <v>4081.32299100612</v>
       </c>
       <c r="O62" s="19">
-        <v>576.76851579999936</v>
+        <v>505.39333284999958</v>
       </c>
       <c r="P62" s="19">
-        <v>2.1857480950000001</v>
+        <v>4.1486682360000007</v>
       </c>
       <c r="Q62" s="19">
-        <v>48.091960541000013</v>
+        <v>48.516144666999992</v>
       </c>
       <c r="R62" s="19">
-        <v>33.146718739999997</v>
+        <v>20.1564771</v>
       </c>
       <c r="S62" s="20">
-        <v>0.25717912999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.28479777000000012</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11">
         <v>2020</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D63" s="13">
-        <f t="shared" si="8"/>
-        <v>10838.533316456946</v>
+        <f t="shared" ref="D63:D91" si="10">SUM(E63:K63)</f>
+        <v>8958.3282716603189</v>
       </c>
       <c r="E63" s="14">
-        <v>3989.0247625000002</v>
+        <v>2963.8515250000032</v>
       </c>
       <c r="F63" s="14">
-        <v>5227.3044649569474</v>
+        <v>4578.9250176603191</v>
       </c>
       <c r="G63" s="14">
-        <v>1164.59097</v>
+        <v>1046.3265299999989</v>
       </c>
       <c r="H63" s="14">
-        <v>195.326954</v>
+        <v>141.62878699999999</v>
       </c>
       <c r="I63" s="14">
-        <v>192.162305</v>
+        <v>181.326382</v>
       </c>
       <c r="J63" s="14">
-        <v>55.761529999999993</v>
+        <v>35.391770000000001</v>
       </c>
       <c r="K63" s="14">
-        <v>14.36233</v>
+        <v>10.878259999999999</v>
       </c>
       <c r="L63" s="13">
-        <f t="shared" si="9"/>
-        <v>7720.3875207885012</v>
+        <f t="shared" ref="L63:L91" si="11">SUM(M63:S63)</f>
+        <v>6599.7211012138414</v>
       </c>
       <c r="M63" s="14">
-        <v>2719.9630072755008</v>
+        <v>1955.6864974084999</v>
       </c>
       <c r="N63" s="14">
-        <v>4308.5178526390009</v>
+        <v>4070.699793715341</v>
       </c>
       <c r="O63" s="14">
-        <v>550.02743308999959</v>
+        <v>490.43616353999971</v>
       </c>
       <c r="P63" s="14">
-        <v>7.8376115140000007</v>
+        <v>4.9919812889999999</v>
       </c>
       <c r="Q63" s="14">
-        <v>49.157905969999987</v>
+        <v>49.262628410999987</v>
       </c>
       <c r="R63" s="14">
-        <v>84.630515320000001</v>
+        <v>28.479580210000002</v>
       </c>
       <c r="S63" s="15">
-        <v>0.25319498000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.16445663999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="16">
         <v>2020</v>
       </c>
       <c r="C64" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="18">
+        <f t="shared" si="10"/>
+        <v>9180.7559098961865</v>
+      </c>
+      <c r="E64" s="19">
+        <v>3045.684487</v>
+      </c>
+      <c r="F64" s="19">
+        <v>4586.6569688961881</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1232.8326999999999</v>
+      </c>
+      <c r="H64" s="19">
+        <v>80.286566999999991</v>
+      </c>
+      <c r="I64" s="19">
+        <v>185.73497699999999</v>
+      </c>
+      <c r="J64" s="19">
+        <v>37.784360000000007</v>
+      </c>
+      <c r="K64" s="19">
+        <v>11.77585</v>
+      </c>
+      <c r="L64" s="18">
+        <f t="shared" si="11"/>
+        <v>6563.6809044984548</v>
+      </c>
+      <c r="M64" s="19">
+        <v>2092.363650120501</v>
+      </c>
+      <c r="N64" s="19">
+        <v>3810.8671320719541</v>
+      </c>
+      <c r="O64" s="19">
+        <v>576.76851579999936</v>
+      </c>
+      <c r="P64" s="19">
+        <v>2.1857480950000001</v>
+      </c>
+      <c r="Q64" s="19">
+        <v>48.091960541000013</v>
+      </c>
+      <c r="R64" s="19">
+        <v>33.146718739999997</v>
+      </c>
+      <c r="S64" s="20">
+        <v>0.25717912999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" si="10"/>
+        <v>10838.533316456946</v>
+      </c>
+      <c r="E65" s="14">
+        <v>3989.0247625000002</v>
+      </c>
+      <c r="F65" s="14">
+        <v>5227.3044649569474</v>
+      </c>
+      <c r="G65" s="14">
+        <v>1164.59097</v>
+      </c>
+      <c r="H65" s="14">
+        <v>195.326954</v>
+      </c>
+      <c r="I65" s="14">
+        <v>192.162305</v>
+      </c>
+      <c r="J65" s="14">
+        <v>55.761529999999993</v>
+      </c>
+      <c r="K65" s="14">
+        <v>14.36233</v>
+      </c>
+      <c r="L65" s="13">
+        <f t="shared" si="11"/>
+        <v>7720.3875207885012</v>
+      </c>
+      <c r="M65" s="14">
+        <v>2719.9630072755008</v>
+      </c>
+      <c r="N65" s="14">
+        <v>4308.5178526390009</v>
+      </c>
+      <c r="O65" s="14">
+        <v>550.02743308999959</v>
+      </c>
+      <c r="P65" s="14">
+        <v>7.8376115140000007</v>
+      </c>
+      <c r="Q65" s="14">
+        <v>49.157905969999987</v>
+      </c>
+      <c r="R65" s="14">
+        <v>84.630515320000001</v>
+      </c>
+      <c r="S65" s="15">
+        <v>0.25319498000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="16">
+        <v>2020</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="18">
-        <f t="shared" si="8"/>
+      <c r="D66" s="18">
+        <f t="shared" si="10"/>
         <v>10299.350069510732</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E66" s="19">
         <v>3823.384485499997</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F66" s="19">
         <v>4951.899973010738</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G66" s="19">
         <v>1126.6304699999989</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H66" s="19">
         <v>155.82070999999999</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I66" s="19">
         <v>189.46652100000011</v>
       </c>
-      <c r="J64" s="19">
+      <c r="J66" s="19">
         <v>42.813149999999993</v>
       </c>
-      <c r="K64" s="19">
+      <c r="K66" s="19">
         <v>9.3347600000000028</v>
       </c>
-      <c r="L64" s="18">
-        <f t="shared" si="9"/>
+      <c r="L66" s="18">
+        <f t="shared" si="11"/>
         <v>7398.4236104454985</v>
       </c>
-      <c r="M64" s="19">
+      <c r="M66" s="19">
         <v>2611.3807745675008</v>
       </c>
-      <c r="N64" s="19">
+      <c r="N66" s="19">
         <v>4099.994935206998</v>
       </c>
-      <c r="O64" s="19">
+      <c r="O66" s="19">
         <v>576.65962569999999</v>
       </c>
-      <c r="P64" s="19">
+      <c r="P66" s="19">
         <v>5.8101744709999998</v>
       </c>
-      <c r="Q64" s="19">
+      <c r="Q66" s="19">
         <v>48.975136419999998</v>
       </c>
-      <c r="R64" s="19">
+      <c r="R66" s="19">
         <v>55.332080869999999</v>
       </c>
-      <c r="S64" s="20">
+      <c r="S66" s="20">
         <v>0.2708832100000001</v>
       </c>
     </row>
-    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="21">
+    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="21">
         <v>2020</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C67" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="23">
-        <f t="shared" si="8"/>
+      <c r="D67" s="23">
+        <f t="shared" si="10"/>
         <v>10271.035696436747</v>
       </c>
-      <c r="E65" s="24">
+      <c r="E67" s="24">
         <v>3815.537451499998</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F67" s="24">
         <v>4795.4483429367501</v>
       </c>
-      <c r="G65" s="24">
+      <c r="G67" s="24">
         <v>1231.876279999999</v>
       </c>
-      <c r="H65" s="24">
+      <c r="H67" s="24">
         <v>149.16394</v>
       </c>
-      <c r="I65" s="24">
+      <c r="I67" s="24">
         <v>225.18540200000001</v>
       </c>
-      <c r="J65" s="24">
+      <c r="J67" s="24">
         <v>42.674029999999988</v>
       </c>
-      <c r="K65" s="24">
+      <c r="K67" s="24">
         <v>11.15025</v>
       </c>
-      <c r="L65" s="23">
-        <f t="shared" si="9"/>
+      <c r="L67" s="23">
+        <f t="shared" si="11"/>
         <v>7185.7383871704087</v>
       </c>
-      <c r="M65" s="24">
+      <c r="M67" s="24">
         <v>2557.950665571791</v>
       </c>
-      <c r="N65" s="24">
+      <c r="N67" s="24">
         <v>3902.6936190776169</v>
       </c>
-      <c r="O65" s="24">
+      <c r="O67" s="24">
         <v>613.68125601999952</v>
       </c>
-      <c r="P65" s="24">
+      <c r="P67" s="24">
         <v>5.5450976610000007</v>
       </c>
-      <c r="Q65" s="24">
+      <c r="Q67" s="24">
         <v>54.17302995</v>
       </c>
-      <c r="R65" s="24">
+      <c r="R67" s="24">
         <v>51.401263659999998</v>
       </c>
-      <c r="S65" s="25">
+      <c r="S67" s="25">
         <v>0.29345523000000012</v>
       </c>
     </row>
-    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="26">
+    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="26">
         <v>2019</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C68" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="28">
-        <f t="shared" si="8"/>
+      <c r="D68" s="28">
+        <f t="shared" si="10"/>
         <v>10047.312890842448</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E68" s="29">
         <v>3660.8761419999978</v>
       </c>
-      <c r="F66" s="29">
+      <c r="F68" s="29">
         <v>4803.7000258424505</v>
       </c>
-      <c r="G66" s="29">
+      <c r="G68" s="29">
         <v>1177.5281500000008</v>
       </c>
-      <c r="H66" s="29">
+      <c r="H68" s="29">
         <v>122.89328999999999</v>
       </c>
-      <c r="I66" s="29">
+      <c r="I68" s="29">
         <v>230.92350300000001</v>
       </c>
-      <c r="J66" s="29">
+      <c r="J68" s="29">
         <v>42.637639999999998</v>
       </c>
-      <c r="K66" s="29">
+      <c r="K68" s="29">
         <v>8.7541399999999996</v>
       </c>
-      <c r="L66" s="28">
-        <f t="shared" si="9"/>
+      <c r="L68" s="28">
+        <f t="shared" si="11"/>
         <v>7283.4758425855061</v>
       </c>
-      <c r="M66" s="29">
+      <c r="M68" s="29">
         <v>2545.6933826471468</v>
       </c>
-      <c r="N66" s="29">
+      <c r="N68" s="29">
         <v>4050.2897667273596</v>
       </c>
-      <c r="O66" s="29">
+      <c r="O68" s="29">
         <v>573.5496261799999</v>
       </c>
-      <c r="P66" s="29">
+      <c r="P68" s="29">
         <v>4.2298997729999996</v>
       </c>
-      <c r="Q66" s="29">
+      <c r="Q68" s="29">
         <v>56.884561087999998</v>
       </c>
-      <c r="R66" s="29">
+      <c r="R68" s="29">
         <v>52.609621790000006</v>
       </c>
-      <c r="S66" s="30">
+      <c r="S68" s="30">
         <v>0.21898438000000003</v>
       </c>
     </row>
-    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="13">
-        <f t="shared" si="8"/>
-        <v>10280.781962591729</v>
-      </c>
-      <c r="E67" s="14">
-        <v>3610.9266754999981</v>
-      </c>
-      <c r="F67" s="14">
-        <v>5041.7983650917313</v>
-      </c>
-      <c r="G67" s="14">
-        <v>1236.3706200000001</v>
-      </c>
-      <c r="H67" s="14">
-        <v>119.94541900000002</v>
-      </c>
-      <c r="I67" s="14">
-        <v>216.296423</v>
-      </c>
-      <c r="J67" s="14">
-        <v>44.749820000000007</v>
-      </c>
-      <c r="K67" s="14">
-        <v>10.694639999999998</v>
-      </c>
-      <c r="L67" s="13">
-        <f t="shared" si="9"/>
-        <v>7555.8940235339123</v>
-      </c>
-      <c r="M67" s="14">
-        <v>2480.4706212095998</v>
-      </c>
-      <c r="N67" s="14">
-        <v>4344.3803465193132</v>
-      </c>
-      <c r="O67" s="14">
-        <v>612.67386856000019</v>
-      </c>
-      <c r="P67" s="14">
-        <v>4.0122463450000003</v>
-      </c>
-      <c r="Q67" s="14">
-        <v>58.796987859999994</v>
-      </c>
-      <c r="R67" s="14">
-        <v>55.348814779999998</v>
-      </c>
-      <c r="S67" s="15">
-        <v>0.21113825999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="16">
-        <v>2019</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="18">
-        <f t="shared" si="8"/>
-        <v>10705.327866000001</v>
-      </c>
-      <c r="E68" s="19">
-        <v>3801.481272</v>
-      </c>
-      <c r="F68" s="19">
-        <v>5236.960086</v>
-      </c>
-      <c r="G68" s="19">
-        <v>1235.93461</v>
-      </c>
-      <c r="H68" s="19">
-        <v>160.86355499999999</v>
-      </c>
-      <c r="I68" s="19">
-        <v>213.47005300000001</v>
-      </c>
-      <c r="J68" s="19">
-        <v>45.65587</v>
-      </c>
-      <c r="K68" s="19">
-        <v>10.96242</v>
-      </c>
-      <c r="L68" s="18">
-        <f t="shared" si="9"/>
-        <v>7564.1221808391301</v>
-      </c>
-      <c r="M68" s="19">
-        <v>2532.7762513215766</v>
-      </c>
-      <c r="N68" s="19">
-        <v>4297.3858559405544</v>
-      </c>
-      <c r="O68" s="19">
-        <v>606.66118932999996</v>
-      </c>
-      <c r="P68" s="19">
-        <v>5.7111421819999997</v>
-      </c>
-      <c r="Q68" s="19">
-        <v>64.496729185000007</v>
-      </c>
-      <c r="R68" s="19">
-        <v>56.887522270000005</v>
-      </c>
-      <c r="S68" s="20">
-        <v>0.20349060999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11">
         <v>2019</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D69" s="13">
-        <f t="shared" si="8"/>
-        <v>10313.251420927023</v>
+        <f t="shared" si="10"/>
+        <v>10280.781962591729</v>
       </c>
       <c r="E69" s="14">
-        <v>3763.4243204999998</v>
+        <v>3610.9266754999981</v>
       </c>
       <c r="F69" s="14">
-        <v>4794.4036324270237</v>
+        <v>5041.7983650917313</v>
       </c>
       <c r="G69" s="14">
-        <v>1259.9243900000008</v>
+        <v>1236.3706200000001</v>
       </c>
       <c r="H69" s="14">
-        <v>164.26299700000001</v>
+        <v>119.94541900000002</v>
       </c>
       <c r="I69" s="14">
-        <v>251.636821</v>
+        <v>216.296423</v>
       </c>
       <c r="J69" s="14">
-        <v>66.981439999999992</v>
+        <v>44.749820000000007</v>
       </c>
       <c r="K69" s="14">
-        <v>12.61782</v>
+        <v>10.694639999999998</v>
       </c>
       <c r="L69" s="13">
-        <f t="shared" si="9"/>
-        <v>7368.223949700222</v>
+        <f t="shared" si="11"/>
+        <v>7555.8940235339123</v>
       </c>
       <c r="M69" s="14">
-        <v>2492.5831110034319</v>
+        <v>2480.4706212095998</v>
       </c>
       <c r="N69" s="14">
-        <v>4168.1941198527893</v>
+        <v>4344.3803465193132</v>
       </c>
       <c r="O69" s="14">
-        <v>564.70797957000025</v>
+        <v>612.67386856000019</v>
       </c>
       <c r="P69" s="14">
-        <v>6.7826120650000004</v>
+        <v>4.0122463450000003</v>
       </c>
       <c r="Q69" s="14">
-        <v>68.621584789000011</v>
+        <v>58.796987859999994</v>
       </c>
       <c r="R69" s="14">
-        <v>67.080573079999994</v>
+        <v>55.348814779999998</v>
       </c>
       <c r="S69" s="15">
-        <v>0.25396934000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.21113825999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="16">
         <v>2019</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D70" s="18">
-        <f t="shared" si="8"/>
-        <v>11096.380692382061</v>
+        <f t="shared" si="10"/>
+        <v>10705.327866000001</v>
       </c>
       <c r="E70" s="19">
-        <v>3917.8476439999995</v>
+        <v>3801.481272</v>
       </c>
       <c r="F70" s="19">
-        <v>5305.3281943820612</v>
+        <v>5236.960086</v>
       </c>
       <c r="G70" s="19">
-        <v>1265.0673000000011</v>
+        <v>1235.93461</v>
       </c>
       <c r="H70" s="19">
-        <v>254.105448</v>
+        <v>160.86355499999999</v>
       </c>
       <c r="I70" s="19">
-        <v>282.87777699999998</v>
+        <v>213.47005300000001</v>
       </c>
       <c r="J70" s="19">
-        <v>52.912410000000001</v>
+        <v>45.65587</v>
       </c>
       <c r="K70" s="19">
-        <v>18.241918999999999</v>
+        <v>10.96242</v>
       </c>
       <c r="L70" s="18">
-        <f t="shared" si="9"/>
-        <v>7875.1347427823239</v>
+        <f t="shared" si="11"/>
+        <v>7564.1221808391301</v>
       </c>
       <c r="M70" s="19">
-        <v>2623.4929048545905</v>
+        <v>2532.7762513215766</v>
       </c>
       <c r="N70" s="19">
-        <v>4528.0558628127355</v>
+        <v>4297.3858559405544</v>
       </c>
       <c r="O70" s="19">
-        <v>599.40095962999965</v>
+        <v>606.66118932999996</v>
       </c>
       <c r="P70" s="19">
-        <v>7.1929457959999992</v>
+        <v>5.7111421819999997</v>
       </c>
       <c r="Q70" s="19">
-        <v>67.383048192999993</v>
+        <v>64.496729185000007</v>
       </c>
       <c r="R70" s="19">
-        <v>49.255862180000001</v>
+        <v>56.887522270000005</v>
       </c>
       <c r="S70" s="20">
-        <v>0.353159316</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.20349060999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="11">
         <v>2019</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D71" s="13">
-        <f t="shared" si="8"/>
-        <v>11150.650438969102</v>
+        <f t="shared" si="10"/>
+        <v>10313.251420927023</v>
       </c>
       <c r="E71" s="14">
-        <v>3873.3662050000003</v>
+        <v>3763.4243204999998</v>
       </c>
       <c r="F71" s="14">
-        <v>5476.5920749691022</v>
+        <v>4794.4036324270237</v>
       </c>
       <c r="G71" s="14">
-        <v>1295.4921899999999</v>
+        <v>1259.9243900000008</v>
       </c>
       <c r="H71" s="14">
-        <v>130.167182</v>
+        <v>164.26299700000001</v>
       </c>
       <c r="I71" s="14">
-        <v>270.20667400000008</v>
+        <v>251.636821</v>
       </c>
       <c r="J71" s="14">
-        <v>95.357079999999996</v>
+        <v>66.981439999999992</v>
       </c>
       <c r="K71" s="14">
-        <v>9.4690329999999996</v>
+        <v>12.61782</v>
       </c>
       <c r="L71" s="13">
-        <f t="shared" si="9"/>
-        <v>8143.3902304466164</v>
+        <f t="shared" si="11"/>
+        <v>7368.223949700222</v>
       </c>
       <c r="M71" s="14">
-        <v>2699.0426404251648</v>
+        <v>2492.5831110034319</v>
       </c>
       <c r="N71" s="14">
-        <v>4690.7340326165104</v>
+        <v>4168.1941198527893</v>
       </c>
       <c r="O71" s="14">
-        <v>626.75042356999995</v>
+        <v>564.70797957000025</v>
       </c>
       <c r="P71" s="14">
-        <v>4.2158850049414749</v>
+        <v>6.7826120650000004</v>
       </c>
       <c r="Q71" s="14">
-        <v>69.891604407999992</v>
+        <v>68.621584789000011</v>
       </c>
       <c r="R71" s="14">
-        <v>52.570641740000006</v>
+        <v>67.080573079999994</v>
       </c>
       <c r="S71" s="15">
-        <v>0.18500268199999997</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.25396934000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="16">
         <v>2019</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D72" s="18">
-        <f t="shared" si="8"/>
-        <v>10374.818673051463</v>
+        <f t="shared" si="10"/>
+        <v>11096.380692382061</v>
       </c>
       <c r="E72" s="19">
-        <v>3549.9224370000029</v>
+        <v>3917.8476439999995</v>
       </c>
       <c r="F72" s="19">
-        <v>5071.1049410514588</v>
+        <v>5305.3281943820612</v>
       </c>
       <c r="G72" s="19">
-        <v>1261.1353490000001</v>
+        <v>1265.0673000000011</v>
       </c>
       <c r="H72" s="19">
-        <v>189.70297400000001</v>
+        <v>254.105448</v>
       </c>
       <c r="I72" s="19">
-        <v>241.36934199999999</v>
+        <v>282.87777699999998</v>
       </c>
       <c r="J72" s="19">
-        <v>51.38608</v>
+        <v>52.912410000000001</v>
       </c>
       <c r="K72" s="19">
-        <v>10.197550000000003</v>
+        <v>18.241918999999999</v>
       </c>
       <c r="L72" s="18">
-        <f t="shared" si="9"/>
-        <v>7532.8116285687038</v>
+        <f t="shared" si="11"/>
+        <v>7875.1347427823239</v>
       </c>
       <c r="M72" s="19">
-        <v>2498.5873912253655</v>
+        <v>2623.4929048545905</v>
       </c>
       <c r="N72" s="19">
-        <v>4294.5408771924649</v>
+        <v>4528.0558628127355</v>
       </c>
       <c r="O72" s="19">
-        <v>618.46245641899986</v>
+        <v>599.40095962999965</v>
       </c>
       <c r="P72" s="19">
-        <v>7.1837945668734235</v>
+        <v>7.1929457959999992</v>
       </c>
       <c r="Q72" s="19">
-        <v>67.283344745000008</v>
+        <v>67.383048192999993</v>
       </c>
       <c r="R72" s="19">
-        <v>46.514204849999999</v>
+        <v>49.255862180000001</v>
       </c>
       <c r="S72" s="20">
-        <v>0.23955957</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.353159316</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="11">
         <v>2019</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D73" s="13">
-        <f t="shared" si="8"/>
-        <v>10971.576587143792</v>
+        <f t="shared" si="10"/>
+        <v>11150.650438969102</v>
       </c>
       <c r="E73" s="14">
-        <v>3859.9412885000029</v>
+        <v>3873.3662050000003</v>
       </c>
       <c r="F73" s="14">
-        <v>5135.6499426437886</v>
+        <v>5476.5920749691022</v>
       </c>
       <c r="G73" s="14">
-        <v>1398.7275000000011</v>
+        <v>1295.4921899999999</v>
       </c>
       <c r="H73" s="14">
-        <v>201.93910199999996</v>
+        <v>130.167182</v>
       </c>
       <c r="I73" s="14">
-        <v>308.40207399999997</v>
+        <v>270.20667400000008</v>
       </c>
       <c r="J73" s="14">
-        <v>52.276800000000001</v>
+        <v>95.357079999999996</v>
       </c>
       <c r="K73" s="14">
-        <v>14.63988</v>
+        <v>9.4690329999999996</v>
       </c>
       <c r="L73" s="13">
-        <f t="shared" si="9"/>
-        <v>7918.5192805454762</v>
+        <f t="shared" si="11"/>
+        <v>8143.3902304466164</v>
       </c>
       <c r="M73" s="14">
-        <v>2715.5986838884046</v>
+        <v>2699.0426404251648</v>
       </c>
       <c r="N73" s="14">
-        <v>4370.5287118188699</v>
+        <v>4690.7340326165104</v>
       </c>
       <c r="O73" s="14">
-        <v>688.65007213000047</v>
+        <v>626.75042356999995</v>
       </c>
       <c r="P73" s="14">
-        <v>6.9957881702000009</v>
+        <v>4.2158850049414749</v>
       </c>
       <c r="Q73" s="14">
-        <v>77.028830357999993</v>
+        <v>69.891604407999992</v>
       </c>
       <c r="R73" s="14">
-        <v>59.42133875999999</v>
+        <v>52.570641740000006</v>
       </c>
       <c r="S73" s="15">
-        <v>0.29585541999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.18500268199999997</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="16">
         <v>2019</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D74" s="18">
-        <f t="shared" si="8"/>
-        <v>10534.153393500883</v>
+        <f t="shared" si="10"/>
+        <v>10374.818673051463</v>
       </c>
       <c r="E74" s="19">
-        <v>3675.3372790000017</v>
+        <v>3549.9224370000029</v>
       </c>
       <c r="F74" s="19">
-        <v>5077.1043255008817</v>
+        <v>5071.1049410514588</v>
       </c>
       <c r="G74" s="19">
-        <v>1229.5152699999999</v>
+        <v>1261.1353490000001</v>
       </c>
       <c r="H74" s="19">
-        <v>205.91515200000003</v>
+        <v>189.70297400000001</v>
       </c>
       <c r="I74" s="19">
-        <v>272.06735700000002</v>
+        <v>241.36934199999999</v>
       </c>
       <c r="J74" s="19">
-        <v>57.111829999999998</v>
+        <v>51.38608</v>
       </c>
       <c r="K74" s="19">
-        <v>17.102179999999997</v>
+        <v>10.197550000000003</v>
       </c>
       <c r="L74" s="18">
-        <f t="shared" si="9"/>
-        <v>7390.6301600856887</v>
+        <f t="shared" si="11"/>
+        <v>7532.8116285687038</v>
       </c>
       <c r="M74" s="19">
-        <v>2482.4826125118411</v>
+        <v>2498.5873912253655</v>
       </c>
       <c r="N74" s="19">
-        <v>4183.7452393018466</v>
+        <v>4294.5408771924649</v>
       </c>
       <c r="O74" s="19">
-        <v>594.52454974000057</v>
+        <v>618.46245641899986</v>
       </c>
       <c r="P74" s="19">
-        <v>6.8929467899999999</v>
+        <v>7.1837945668734235</v>
       </c>
       <c r="Q74" s="19">
-        <v>61.99332402200001</v>
+        <v>67.283344745000008</v>
       </c>
       <c r="R74" s="19">
-        <v>60.632588310000003</v>
+        <v>46.514204849999999</v>
       </c>
       <c r="S74" s="20">
-        <v>0.35889941000000009</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.23955957</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11">
         <v>2019</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D75" s="13">
-        <f t="shared" si="8"/>
-        <v>10581.052353198915</v>
+        <f t="shared" si="10"/>
+        <v>10971.576587143792</v>
       </c>
       <c r="E75" s="14">
-        <v>3752.7021304999998</v>
+        <v>3859.9412885000029</v>
       </c>
       <c r="F75" s="14">
-        <v>5042.9410756989164</v>
+        <v>5135.6499426437886</v>
       </c>
       <c r="G75" s="14">
-        <v>1226.6793299999995</v>
+        <v>1398.7275000000011</v>
       </c>
       <c r="H75" s="14">
-        <v>227.34326400000003</v>
+        <v>201.93910199999996</v>
       </c>
       <c r="I75" s="14">
-        <v>273.29974500000003</v>
+        <v>308.40207399999997</v>
       </c>
       <c r="J75" s="14">
-        <v>46.615569999999991</v>
+        <v>52.276800000000001</v>
       </c>
       <c r="K75" s="14">
-        <v>11.471238</v>
+        <v>14.63988</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="9"/>
-        <v>7316.8442337622519</v>
+        <f t="shared" si="11"/>
+        <v>7918.5192805454762</v>
       </c>
       <c r="M75" s="14">
-        <v>2584.8546054208359</v>
+        <v>2715.5986838884046</v>
       </c>
       <c r="N75" s="14">
-        <v>3971.3774654550916</v>
+        <v>4370.5287118188699</v>
       </c>
       <c r="O75" s="14">
-        <v>628.3360908439995</v>
+        <v>688.65007213000047</v>
       </c>
       <c r="P75" s="14">
-        <v>8.5075610303260056</v>
+        <v>6.9957881702000009</v>
       </c>
       <c r="Q75" s="14">
-        <v>68.783462650000004</v>
+        <v>77.028830357999993</v>
       </c>
       <c r="R75" s="14">
-        <v>54.71253209999999</v>
+        <v>59.42133875999999</v>
       </c>
       <c r="S75" s="15">
-        <v>0.27251626200000001</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+        <v>0.29585541999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="16">
         <v>2019</v>
       </c>
       <c r="C76" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="18">
+        <f t="shared" si="10"/>
+        <v>10534.153393500883</v>
+      </c>
+      <c r="E76" s="19">
+        <v>3675.3372790000017</v>
+      </c>
+      <c r="F76" s="19">
+        <v>5077.1043255008817</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1229.5152699999999</v>
+      </c>
+      <c r="H76" s="19">
+        <v>205.91515200000003</v>
+      </c>
+      <c r="I76" s="19">
+        <v>272.06735700000002</v>
+      </c>
+      <c r="J76" s="19">
+        <v>57.111829999999998</v>
+      </c>
+      <c r="K76" s="19">
+        <v>17.102179999999997</v>
+      </c>
+      <c r="L76" s="18">
+        <f t="shared" si="11"/>
+        <v>7390.6301600856887</v>
+      </c>
+      <c r="M76" s="19">
+        <v>2482.4826125118411</v>
+      </c>
+      <c r="N76" s="19">
+        <v>4183.7452393018466</v>
+      </c>
+      <c r="O76" s="19">
+        <v>594.52454974000057</v>
+      </c>
+      <c r="P76" s="19">
+        <v>6.8929467899999999</v>
+      </c>
+      <c r="Q76" s="19">
+        <v>61.99332402200001</v>
+      </c>
+      <c r="R76" s="19">
+        <v>60.632588310000003</v>
+      </c>
+      <c r="S76" s="20">
+        <v>0.35889941000000009</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="13">
+        <f t="shared" si="10"/>
+        <v>10581.052353198915</v>
+      </c>
+      <c r="E77" s="14">
+        <v>3752.7021304999998</v>
+      </c>
+      <c r="F77" s="14">
+        <v>5042.9410756989164</v>
+      </c>
+      <c r="G77" s="14">
+        <v>1226.6793299999995</v>
+      </c>
+      <c r="H77" s="14">
+        <v>227.34326400000003</v>
+      </c>
+      <c r="I77" s="14">
+        <v>273.29974500000003</v>
+      </c>
+      <c r="J77" s="14">
+        <v>46.615569999999991</v>
+      </c>
+      <c r="K77" s="14">
+        <v>11.471238</v>
+      </c>
+      <c r="L77" s="13">
+        <f t="shared" si="11"/>
+        <v>7316.8442337622519</v>
+      </c>
+      <c r="M77" s="14">
+        <v>2584.8546054208359</v>
+      </c>
+      <c r="N77" s="14">
+        <v>3971.3774654550916</v>
+      </c>
+      <c r="O77" s="14">
+        <v>628.3360908439995</v>
+      </c>
+      <c r="P77" s="14">
+        <v>8.5075610303260056</v>
+      </c>
+      <c r="Q77" s="14">
+        <v>68.783462650000004</v>
+      </c>
+      <c r="R77" s="14">
+        <v>54.71253209999999</v>
+      </c>
+      <c r="S77" s="15">
+        <v>0.27251626200000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="18">
-        <f t="shared" si="8"/>
+      <c r="D78" s="18">
+        <f t="shared" si="10"/>
         <v>9241.6055505618933</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E78" s="19">
         <v>3275.5849539999986</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F78" s="19">
         <v>4370.160919561893</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G78" s="19">
         <v>1126.2545300000011</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H78" s="19">
         <v>152.85569699999999</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I78" s="19">
         <v>259.99696999999998</v>
       </c>
-      <c r="J76" s="19">
+      <c r="J78" s="19">
         <v>46.582780000000007</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K78" s="19">
         <v>10.169700000000002</v>
       </c>
-      <c r="L76" s="18">
-        <f t="shared" si="9"/>
+      <c r="L78" s="18">
+        <f t="shared" si="11"/>
         <v>6363.5933863084483</v>
       </c>
-      <c r="M76" s="19">
+      <c r="M78" s="19">
         <v>2189.6104131855614</v>
       </c>
-      <c r="N76" s="19">
+      <c r="N78" s="19">
         <v>3499.6909835169613</v>
       </c>
-      <c r="O76" s="19">
+      <c r="O78" s="19">
         <v>547.40245832199946</v>
       </c>
-      <c r="P76" s="19">
+      <c r="P78" s="19">
         <v>5.1177584499260034</v>
       </c>
-      <c r="Q76" s="19">
+      <c r="Q78" s="19">
         <v>63.306209223999993</v>
       </c>
-      <c r="R76" s="19">
+      <c r="R78" s="19">
         <v>58.28962554000001</v>
       </c>
-      <c r="S76" s="20">
+      <c r="S78" s="20">
         <v>0.17593807</v>
       </c>
     </row>
-    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="21">
+    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="21">
         <v>2019</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C79" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="23">
-        <f t="shared" si="8"/>
+      <c r="D79" s="23">
+        <f t="shared" si="10"/>
         <v>9892.1436970006562</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E79" s="24">
         <v>3499.7139435000031</v>
       </c>
-      <c r="F77" s="24">
+      <c r="F79" s="24">
         <v>4546.0874465006518</v>
       </c>
-      <c r="G77" s="24">
+      <c r="G79" s="24">
         <v>1267.5804000000005</v>
       </c>
-      <c r="H77" s="24">
+      <c r="H79" s="24">
         <v>224.06764100000001</v>
       </c>
-      <c r="I77" s="24">
+      <c r="I79" s="24">
         <v>293.47607299999999</v>
       </c>
-      <c r="J77" s="24">
+      <c r="J79" s="24">
         <v>50.833020000000005</v>
       </c>
-      <c r="K77" s="24">
+      <c r="K79" s="24">
         <v>10.385172999999998</v>
       </c>
-      <c r="L77" s="23">
-        <f t="shared" si="9"/>
+      <c r="L79" s="23">
+        <f t="shared" si="11"/>
         <v>6769.108553604312</v>
       </c>
-      <c r="M77" s="24">
+      <c r="M79" s="24">
         <v>2315.0380047690219</v>
       </c>
-      <c r="N77" s="24">
+      <c r="N79" s="24">
         <v>3695.4581032397491</v>
       </c>
-      <c r="O77" s="24">
+      <c r="O79" s="24">
         <v>592.54793959300025</v>
       </c>
-      <c r="P77" s="24">
+      <c r="P79" s="24">
         <v>8.0988788035407904</v>
       </c>
-      <c r="Q77" s="24">
+      <c r="Q79" s="24">
         <v>68.810378116999999</v>
       </c>
-      <c r="R77" s="24">
+      <c r="R79" s="24">
         <v>88.897206580000002</v>
       </c>
-      <c r="S77" s="25">
+      <c r="S79" s="25">
         <v>0.25804250200000001</v>
       </c>
     </row>
-    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="26">
+    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="26">
         <v>2018</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C80" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="28">
-        <f t="shared" si="8"/>
+      <c r="D80" s="28">
+        <f t="shared" si="10"/>
         <v>10362</v>
       </c>
-      <c r="E78" s="29">
+      <c r="E80" s="29">
         <v>3606</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F80" s="29">
         <v>4918</v>
       </c>
-      <c r="G78" s="29">
+      <c r="G80" s="29">
         <v>1307</v>
       </c>
-      <c r="H78" s="29">
+      <c r="H80" s="29">
         <v>208</v>
       </c>
-      <c r="I78" s="29">
+      <c r="I80" s="29">
         <v>280</v>
       </c>
-      <c r="J78" s="29">
+      <c r="J80" s="29">
         <v>34</v>
       </c>
-      <c r="K78" s="29">
+      <c r="K80" s="29">
         <v>9</v>
       </c>
-      <c r="L78" s="28">
-        <f t="shared" si="9"/>
+      <c r="L80" s="28">
+        <f t="shared" si="11"/>
         <v>7145</v>
       </c>
-      <c r="M78" s="29">
+      <c r="M80" s="29">
         <v>2425</v>
       </c>
-      <c r="N78" s="29">
+      <c r="N80" s="29">
         <v>3948</v>
       </c>
-      <c r="O78" s="29">
+      <c r="O80" s="29">
         <v>638</v>
       </c>
-      <c r="P78" s="29">
+      <c r="P80" s="29">
         <v>8</v>
       </c>
-      <c r="Q78" s="29">
+      <c r="Q80" s="29">
         <v>74</v>
       </c>
-      <c r="R78" s="29">
+      <c r="R80" s="29">
         <v>52</v>
       </c>
-      <c r="S78" s="30"/>
-    </row>
-    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="13">
-        <f t="shared" si="8"/>
-        <v>10847</v>
-      </c>
-      <c r="E79" s="14">
-        <v>3612</v>
-      </c>
-      <c r="F79" s="14">
-        <v>5385</v>
-      </c>
-      <c r="G79" s="14">
-        <v>1299</v>
-      </c>
-      <c r="H79" s="14">
-        <v>213</v>
-      </c>
-      <c r="I79" s="14">
-        <v>284</v>
-      </c>
-      <c r="J79" s="14">
-        <v>38</v>
-      </c>
-      <c r="K79" s="14">
-        <v>16</v>
-      </c>
-      <c r="L79" s="13">
-        <f t="shared" si="9"/>
-        <v>7655</v>
-      </c>
-      <c r="M79" s="14">
-        <v>2466</v>
-      </c>
-      <c r="N79" s="14">
-        <v>4397</v>
-      </c>
-      <c r="O79" s="14">
-        <v>669</v>
-      </c>
-      <c r="P79" s="14">
-        <v>8</v>
-      </c>
-      <c r="Q79" s="14">
-        <v>74</v>
-      </c>
-      <c r="R79" s="14">
-        <v>41</v>
-      </c>
-      <c r="S79" s="15"/>
-    </row>
-    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="16">
-        <v>2018</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="18">
-        <f t="shared" si="8"/>
-        <v>10926</v>
-      </c>
-      <c r="E80" s="19">
-        <v>3805</v>
-      </c>
-      <c r="F80" s="19">
-        <v>5324</v>
-      </c>
-      <c r="G80" s="19">
-        <v>1340</v>
-      </c>
-      <c r="H80" s="19">
-        <v>137</v>
-      </c>
-      <c r="I80" s="19">
-        <v>273</v>
-      </c>
-      <c r="J80" s="19">
-        <v>27</v>
-      </c>
-      <c r="K80" s="19">
-        <v>20</v>
-      </c>
-      <c r="L80" s="18">
-        <f t="shared" si="9"/>
-        <v>7509</v>
-      </c>
-      <c r="M80" s="19">
-        <v>2604</v>
-      </c>
-      <c r="N80" s="19">
-        <v>4133</v>
-      </c>
-      <c r="O80" s="19">
-        <v>655</v>
-      </c>
-      <c r="P80" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q80" s="19">
-        <v>72</v>
-      </c>
-      <c r="R80" s="19">
-        <v>41</v>
-      </c>
-      <c r="S80" s="20"/>
-    </row>
-    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="S80" s="30"/>
+    </row>
+    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="11">
         <v>2018</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D81" s="13">
-        <f t="shared" si="8"/>
-        <v>10257</v>
+        <f t="shared" si="10"/>
+        <v>10847</v>
       </c>
       <c r="E81" s="14">
-        <v>3485</v>
+        <v>3612</v>
       </c>
       <c r="F81" s="14">
-        <v>4900</v>
+        <v>5385</v>
       </c>
       <c r="G81" s="14">
-        <v>1349</v>
+        <v>1299</v>
       </c>
       <c r="H81" s="14">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I81" s="14">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="J81" s="14">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K81" s="14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L81" s="13">
-        <f t="shared" si="9"/>
-        <v>7135</v>
+        <f t="shared" si="11"/>
+        <v>7655</v>
       </c>
       <c r="M81" s="14">
-        <v>2350</v>
+        <v>2466</v>
       </c>
       <c r="N81" s="14">
-        <v>4008</v>
+        <v>4397</v>
       </c>
       <c r="O81" s="14">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="P81" s="14">
         <v>8</v>
       </c>
       <c r="Q81" s="14">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="R81" s="14">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S81" s="15"/>
     </row>
-    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="16">
         <v>2018</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D82" s="18">
-        <f t="shared" si="8"/>
-        <v>10917</v>
+        <f t="shared" si="10"/>
+        <v>10926</v>
       </c>
       <c r="E82" s="19">
-        <v>3674</v>
+        <v>3805</v>
       </c>
       <c r="F82" s="19">
-        <v>5279</v>
+        <v>5324</v>
       </c>
       <c r="G82" s="19">
-        <v>1420</v>
+        <v>1340</v>
       </c>
       <c r="H82" s="19">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="I82" s="19">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J82" s="19">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K82" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L82" s="18">
-        <f t="shared" si="9"/>
-        <v>7620</v>
+        <f t="shared" si="11"/>
+        <v>7509</v>
       </c>
       <c r="M82" s="19">
-        <v>2514</v>
+        <v>2604</v>
       </c>
       <c r="N82" s="19">
-        <v>4292</v>
+        <v>4133</v>
       </c>
       <c r="O82" s="19">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="P82" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q82" s="19">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R82" s="19">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="S82" s="20"/>
     </row>
-    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="11">
         <v>2018</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D83" s="13">
-        <f t="shared" si="8"/>
-        <v>11147</v>
+        <f t="shared" si="10"/>
+        <v>10257</v>
       </c>
       <c r="E83" s="14">
-        <v>3756</v>
+        <v>3485</v>
       </c>
       <c r="F83" s="14">
-        <v>5273</v>
+        <v>4900</v>
       </c>
       <c r="G83" s="14">
-        <v>1541</v>
+        <v>1349</v>
       </c>
       <c r="H83" s="14">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I83" s="14">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="J83" s="14">
         <v>42</v>
       </c>
       <c r="K83" s="14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L83" s="13">
-        <f t="shared" si="9"/>
-        <v>7610</v>
+        <f t="shared" si="11"/>
+        <v>7135</v>
       </c>
       <c r="M83" s="14">
-        <v>2530</v>
+        <v>2350</v>
       </c>
       <c r="N83" s="14">
-        <v>4228</v>
+        <v>4008</v>
       </c>
       <c r="O83" s="14">
-        <v>716</v>
+        <v>655</v>
       </c>
       <c r="P83" s="14">
         <v>8</v>
       </c>
       <c r="Q83" s="14">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="R83" s="14">
         <v>51</v>
       </c>
       <c r="S83" s="15"/>
     </row>
-    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="16">
         <v>2018</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D84" s="18">
-        <f t="shared" si="8"/>
-        <v>10948</v>
+        <f t="shared" si="10"/>
+        <v>10917</v>
       </c>
       <c r="E84" s="19">
-        <v>3657</v>
+        <v>3674</v>
       </c>
       <c r="F84" s="19">
-        <v>5338</v>
+        <v>5279</v>
       </c>
       <c r="G84" s="19">
-        <v>1355</v>
+        <v>1420</v>
       </c>
       <c r="H84" s="19">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="I84" s="19">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="J84" s="19">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K84" s="19">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L84" s="18">
-        <f t="shared" si="9"/>
-        <v>7627</v>
+        <f t="shared" si="11"/>
+        <v>7620</v>
       </c>
       <c r="M84" s="19">
-        <v>2524</v>
+        <v>2514</v>
       </c>
       <c r="N84" s="19">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="O84" s="19">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="P84" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q84" s="19">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R84" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S84" s="20"/>
     </row>
-    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="11">
         <v>2018</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D85" s="13">
-        <f t="shared" si="8"/>
-        <v>11358</v>
+        <f t="shared" si="10"/>
+        <v>11147</v>
       </c>
       <c r="E85" s="14">
-        <v>3901</v>
+        <v>3756</v>
       </c>
       <c r="F85" s="14">
-        <v>5805</v>
+        <v>5273</v>
       </c>
       <c r="G85" s="14">
-        <v>1068</v>
+        <v>1541</v>
       </c>
       <c r="H85" s="14">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="I85" s="14">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J85" s="14">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="K85" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L85" s="13">
-        <f t="shared" si="9"/>
-        <v>7899</v>
+        <f t="shared" si="11"/>
+        <v>7610</v>
       </c>
       <c r="M85" s="14">
-        <v>2695</v>
+        <v>2530</v>
       </c>
       <c r="N85" s="14">
-        <v>4507</v>
+        <v>4228</v>
       </c>
       <c r="O85" s="14">
-        <v>556</v>
+        <v>716</v>
       </c>
       <c r="P85" s="14">
         <v>8</v>
       </c>
       <c r="Q85" s="14">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R85" s="14">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S85" s="15"/>
     </row>
-    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="16">
         <v>2018</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D86" s="18">
-        <f t="shared" si="8"/>
-        <v>10769</v>
+        <f t="shared" si="10"/>
+        <v>10948</v>
       </c>
       <c r="E86" s="19">
-        <v>3736</v>
+        <v>3657</v>
       </c>
       <c r="F86" s="19">
-        <v>5158</v>
+        <v>5338</v>
       </c>
       <c r="G86" s="19">
-        <v>1304</v>
+        <v>1355</v>
       </c>
       <c r="H86" s="19">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="I86" s="19">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="J86" s="19">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K86" s="19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L86" s="18">
-        <f t="shared" si="9"/>
-        <v>7284</v>
+        <f t="shared" si="11"/>
+        <v>7627</v>
       </c>
       <c r="M86" s="19">
-        <v>2592</v>
+        <v>2524</v>
       </c>
       <c r="N86" s="19">
-        <v>3860</v>
+        <v>4291</v>
       </c>
       <c r="O86" s="19">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="P86" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q86" s="19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R86" s="19">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S86" s="20"/>
     </row>
-    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="11">
         <v>2018</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D87" s="13">
-        <f t="shared" si="8"/>
-        <v>10595</v>
+        <f t="shared" si="10"/>
+        <v>11358</v>
       </c>
       <c r="E87" s="14">
-        <v>3510</v>
+        <v>3901</v>
       </c>
       <c r="F87" s="14">
-        <v>5158</v>
+        <v>5805</v>
       </c>
       <c r="G87" s="14">
-        <v>1332</v>
+        <v>1068</v>
       </c>
       <c r="H87" s="14">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="I87" s="14">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J87" s="14">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K87" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L87" s="13">
-        <f t="shared" si="9"/>
-        <v>7079</v>
+        <f t="shared" si="11"/>
+        <v>7899</v>
       </c>
       <c r="M87" s="14">
-        <v>2512</v>
+        <v>2695</v>
       </c>
       <c r="N87" s="14">
-        <v>3719</v>
+        <v>4507</v>
       </c>
       <c r="O87" s="14">
-        <v>718</v>
+        <v>556</v>
       </c>
       <c r="P87" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q87" s="14">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="R87" s="14">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S87" s="15"/>
     </row>
-    <row r="88" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="16">
         <v>2018</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="18">
-        <f t="shared" si="8"/>
-        <v>9439</v>
+        <f t="shared" si="10"/>
+        <v>10769</v>
       </c>
       <c r="E88" s="19">
-        <v>3213</v>
+        <v>3736</v>
       </c>
       <c r="F88" s="19">
-        <v>4478</v>
+        <v>5158</v>
       </c>
       <c r="G88" s="19">
-        <v>1214</v>
+        <v>1304</v>
       </c>
       <c r="H88" s="19">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I88" s="19">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="J88" s="19">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K88" s="19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L88" s="18">
-        <f t="shared" si="9"/>
-        <v>6237</v>
+        <f t="shared" si="11"/>
+        <v>7284</v>
       </c>
       <c r="M88" s="19">
-        <v>2209</v>
+        <v>2592</v>
       </c>
       <c r="N88" s="19">
-        <v>3275</v>
+        <v>3860</v>
       </c>
       <c r="O88" s="19">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="P88" s="19">
         <v>8</v>
       </c>
       <c r="Q88" s="19">
+        <v>73</v>
+      </c>
+      <c r="R88" s="19">
+        <v>50</v>
+      </c>
+      <c r="S88" s="20"/>
+    </row>
+    <row r="89" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="13">
+        <f t="shared" si="10"/>
+        <v>10595</v>
+      </c>
+      <c r="E89" s="14">
+        <v>3510</v>
+      </c>
+      <c r="F89" s="14">
+        <v>5158</v>
+      </c>
+      <c r="G89" s="14">
+        <v>1332</v>
+      </c>
+      <c r="H89" s="14">
+        <v>223</v>
+      </c>
+      <c r="I89" s="14">
+        <v>307</v>
+      </c>
+      <c r="J89" s="14">
+        <v>50</v>
+      </c>
+      <c r="K89" s="14">
+        <v>15</v>
+      </c>
+      <c r="L89" s="13">
+        <f t="shared" si="11"/>
+        <v>7079</v>
+      </c>
+      <c r="M89" s="14">
+        <v>2512</v>
+      </c>
+      <c r="N89" s="14">
+        <v>3719</v>
+      </c>
+      <c r="O89" s="14">
+        <v>718</v>
+      </c>
+      <c r="P89" s="14">
+        <v>9</v>
+      </c>
+      <c r="Q89" s="14">
+        <v>68</v>
+      </c>
+      <c r="R89" s="14">
+        <v>53</v>
+      </c>
+      <c r="S89" s="15"/>
+    </row>
+    <row r="90" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="18">
+        <f t="shared" si="10"/>
+        <v>9439</v>
+      </c>
+      <c r="E90" s="19">
+        <v>3213</v>
+      </c>
+      <c r="F90" s="19">
+        <v>4478</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1214</v>
+      </c>
+      <c r="H90" s="19">
+        <v>203</v>
+      </c>
+      <c r="I90" s="19">
+        <v>273</v>
+      </c>
+      <c r="J90" s="19">
+        <v>50</v>
+      </c>
+      <c r="K90" s="19">
+        <v>8</v>
+      </c>
+      <c r="L90" s="18">
+        <f t="shared" si="11"/>
+        <v>6237</v>
+      </c>
+      <c r="M90" s="19">
+        <v>2209</v>
+      </c>
+      <c r="N90" s="19">
+        <v>3275</v>
+      </c>
+      <c r="O90" s="19">
+        <v>646</v>
+      </c>
+      <c r="P90" s="19">
+        <v>8</v>
+      </c>
+      <c r="Q90" s="19">
         <v>60</v>
       </c>
-      <c r="R88" s="19">
+      <c r="R90" s="19">
         <v>39</v>
       </c>
-      <c r="S88" s="20"/>
-    </row>
-    <row r="89" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="21">
+      <c r="S90" s="20"/>
+    </row>
+    <row r="91" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="21">
         <v>2018</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C91" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="23">
-        <f t="shared" si="8"/>
+      <c r="D91" s="23">
+        <f t="shared" si="10"/>
         <v>10479</v>
       </c>
-      <c r="E89" s="24">
+      <c r="E91" s="24">
         <v>3653</v>
       </c>
-      <c r="F89" s="24">
+      <c r="F91" s="24">
         <v>4773</v>
       </c>
-      <c r="G89" s="24">
+      <c r="G91" s="24">
         <v>1398</v>
       </c>
-      <c r="H89" s="24">
+      <c r="H91" s="24">
         <v>287</v>
       </c>
-      <c r="I89" s="24">
+      <c r="I91" s="24">
         <v>312</v>
       </c>
-      <c r="J89" s="24">
+      <c r="J91" s="24">
         <v>47</v>
       </c>
-      <c r="K89" s="24">
+      <c r="K91" s="24">
         <v>9</v>
       </c>
-      <c r="L89" s="23">
-        <f t="shared" si="9"/>
+      <c r="L91" s="23">
+        <f t="shared" si="11"/>
         <v>7153</v>
       </c>
-      <c r="M89" s="24">
+      <c r="M91" s="24">
         <v>2519</v>
       </c>
-      <c r="N89" s="24">
+      <c r="N91" s="24">
         <v>3737</v>
       </c>
-      <c r="O89" s="24">
+      <c r="O91" s="24">
         <v>754</v>
       </c>
-      <c r="P89" s="24">
+      <c r="P91" s="24">
         <v>11</v>
       </c>
-      <c r="Q89" s="24">
+      <c r="Q91" s="24">
         <v>66</v>
       </c>
-      <c r="R89" s="24">
+      <c r="R91" s="24">
         <v>65</v>
       </c>
-      <c r="S89" s="25">
+      <c r="S91" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B90" s="31" t="s">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B92" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S91" s="32"/>
+      <c r="S93" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712C9C3-8FAF-424E-933C-00979DBDE16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1FEC91-5A92-4B9F-94C2-E5A165CB2EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -837,8 +837,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S91" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
-  <autoFilter ref="B5:S91" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S92" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="B5:S92" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1094,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:S93"/>
+  <dimension ref="B2:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1219,4981 +1219,5039 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
+      <c r="B6" s="11">
         <v>2025</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="13">
+        <f>SUM(E6:K6)</f>
+        <v>10927.892002000011</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4435.7745550000018</v>
+      </c>
+      <c r="F6" s="14">
+        <v>5024.5415970000076</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1090.9339200000015</v>
+      </c>
+      <c r="H6" s="14">
+        <v>229.21633600000001</v>
+      </c>
+      <c r="I6" s="14">
+        <v>99.205000999999484</v>
+      </c>
+      <c r="J6" s="14">
+        <v>30.011460000000003</v>
+      </c>
+      <c r="K6" s="14">
+        <v>18.209133000000001</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" ref="L6:L8" si="0">SUM(M6:S6)</f>
+        <v>7725.0347721108756</v>
+      </c>
+      <c r="M6" s="14">
+        <v>3016.1032193044975</v>
+      </c>
+      <c r="N6" s="14">
+        <v>4078.6155363089974</v>
+      </c>
+      <c r="O6" s="14">
+        <v>584.30928663000009</v>
+      </c>
+      <c r="P6" s="14">
+        <v>7.9584968540000016</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>26.241235341000138</v>
+      </c>
+      <c r="R6" s="14">
+        <v>11.55864156738</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0.24835610499999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="18">
-        <f t="shared" ref="D6:D7" si="0">SUM(E6:K6)</f>
+      <c r="D7" s="18">
+        <f t="shared" ref="D7:D8" si="1">SUM(E7:K7)</f>
         <v>9843.6933180000051</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E7" s="19">
         <v>4031.6968250000018</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F7" s="19">
         <v>4563.1205860000046</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G7" s="19">
         <v>950.4444809999992</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H7" s="19">
         <v>152.39102800000003</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I7" s="19">
         <v>98.085166999999331</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J7" s="19">
         <v>38.523620000000001</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K7" s="19">
         <v>9.4316110000000002</v>
       </c>
-      <c r="L6" s="18">
-        <f t="shared" ref="L6:L7" si="1">SUM(M6:S6)</f>
+      <c r="L7" s="18">
+        <f t="shared" si="0"/>
         <v>6953.4096669074952</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M7" s="19">
         <v>2686.275029911501</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N7" s="19">
         <v>3673.5190396059929</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O7" s="19">
         <v>551.47404396000047</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P7" s="19">
         <v>5.4509899860000006</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q7" s="19">
         <v>25.072023331000192</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R7" s="19">
         <v>11.490530379000001</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S7" s="20">
         <v>0.12800973399999999</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="21">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="21">
         <v>2025</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D8" s="23">
+        <f t="shared" si="1"/>
+        <v>10553.276212499992</v>
+      </c>
+      <c r="E8" s="24">
+        <v>4290.8263595000017</v>
+      </c>
+      <c r="F8" s="24">
+        <v>4842.1234059999906</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1029.4576040000004</v>
+      </c>
+      <c r="H8" s="24">
+        <v>229.21633600000001</v>
+      </c>
+      <c r="I8" s="24">
+        <v>105.83529699999956</v>
+      </c>
+      <c r="J8" s="24">
+        <v>46.891849999999984</v>
+      </c>
+      <c r="K8" s="24">
+        <v>8.9253600000000013</v>
+      </c>
+      <c r="L8" s="23">
         <f t="shared" si="0"/>
-        <v>10553.276212499992</v>
-      </c>
-      <c r="E7" s="24">
-        <v>4290.8263595000017</v>
-      </c>
-      <c r="F7" s="24">
-        <v>4842.1234059999906</v>
-      </c>
-      <c r="G7" s="24">
-        <v>1029.4576040000004</v>
-      </c>
-      <c r="H7" s="24">
-        <v>229.21633600000001</v>
-      </c>
-      <c r="I7" s="24">
-        <v>105.83529699999956</v>
-      </c>
-      <c r="J7" s="24">
-        <v>46.891849999999984</v>
-      </c>
-      <c r="K7" s="24">
-        <v>8.9253600000000013</v>
-      </c>
-      <c r="L7" s="23">
-        <f t="shared" si="1"/>
         <v>7654.6706844814944</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M8" s="24">
         <v>2856.3638319094998</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N8" s="24">
         <v>4139.2285466729945</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O8" s="24">
         <v>607.44396194000035</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P8" s="24">
         <v>7.9584968540000016</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q8" s="24">
         <v>26.890831818000201</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R8" s="24">
         <v>16.669521117000002</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S8" s="25">
         <v>0.11549416999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="16">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="16">
         <v>2024</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="18">
-        <f t="shared" ref="D8:D9" si="2">SUM(E8:K8)</f>
+      <c r="D9" s="18">
+        <f t="shared" ref="D9:D10" si="2">SUM(E9:K9)</f>
         <v>10531.168920500006</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E9" s="19">
         <v>4403.8653655000062</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F9" s="19">
         <v>4561.0179649999991</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G9" s="19">
         <v>1249.3825690000003</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H9" s="19">
         <v>185.75494600000002</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I9" s="19">
         <v>92.695411999999536</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J9" s="19">
         <v>22.807550000000003</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K9" s="19">
         <v>15.645113000000002</v>
       </c>
-      <c r="L8" s="18">
-        <f>SUM(M8:S8)</f>
+      <c r="L9" s="18">
+        <f>SUM(M9:S9)</f>
         <v>7573.5815223644986</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M9" s="19">
         <v>2985.2792777564991</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N9" s="19">
         <v>3977.6579078809991</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O9" s="19">
         <v>564.31985714999962</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P9" s="19">
         <v>6.0120059109999984</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q9" s="19">
         <v>24.991510190000174</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R9" s="19">
         <v>15.075261706000004</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S9" s="20">
         <v>0.24570176999999996</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="11">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <f t="shared" si="2"/>
         <v>10293.216345500003</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E10" s="14">
         <v>4074.3531224999974</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F10" s="14">
         <v>4591.2098260000075</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="14">
         <v>1250.6662779999986</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="14">
         <v>236.92333399999995</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>107.48781899999955</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J10" s="14">
         <v>17.693559999999998</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K10" s="14">
         <v>14.882406000000001</v>
       </c>
-      <c r="L9" s="13">
-        <f>SUM(M9:S9)</f>
+      <c r="L10" s="13">
+        <f>SUM(M10:S10)</f>
         <v>7483.7337101601415</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M10" s="14">
         <v>2727.5133536075004</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N10" s="14">
         <v>4141.6578731970003</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O10" s="14">
         <v>563.5016914100006</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P10" s="14">
         <v>8.2360092920000021</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q10" s="14">
         <v>29.147426476000163</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R10" s="14">
         <v>13.431654407639998</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S10" s="15">
         <v>0.24570176999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="16">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
         <v>2024</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="18">
-        <f t="shared" ref="D10:D15" si="3">SUM(E10:K10)</f>
+      <c r="D11" s="18">
+        <f t="shared" ref="D11:D16" si="3">SUM(E11:K11)</f>
         <v>10627.751215000002</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E11" s="19">
         <v>4621.2502850000001</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F11" s="19">
         <v>4847.8326420000003</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G11" s="19">
         <v>883.41127600000004</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H11" s="19">
         <v>164.42353700000001</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I11" s="19">
         <v>86.575890000000001</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J11" s="19">
         <v>8.5300799999999999</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K11" s="19">
         <v>15.727505000000001</v>
       </c>
-      <c r="L10" s="18">
-        <f t="shared" ref="L10:L12" si="4">SUM(M10:S10)</f>
+      <c r="L11" s="18">
+        <f t="shared" ref="L11:L13" si="4">SUM(M11:S11)</f>
         <v>7740.759690927599</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M11" s="19">
         <v>3074.0600736719998</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N11" s="19">
         <v>4209.4804649380003</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O11" s="19">
         <v>420.6767304</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P11" s="19">
         <v>5.6841813920000002</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q11" s="19">
         <v>27.009476482</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R11" s="19">
         <v>3.5642458335999998</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S11" s="20">
         <v>0.28451820999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
+    <row r="12" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <f t="shared" si="3"/>
         <v>10170.542102500001</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="14">
         <v>4225.2215324999997</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F12" s="14">
         <v>4638.9146110000001</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="14">
         <v>1003.004611</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="14">
         <v>176.79925700000001</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="14">
         <v>101.900481</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="14">
         <v>8.8647200000000002</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="14">
         <v>15.83689</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L12" s="13">
         <f t="shared" si="4"/>
         <v>7310.5741896424306</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M12" s="14">
         <v>2773.4403533764998</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N12" s="14">
         <v>3963.623746364</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O12" s="14">
         <v>532.89884495000001</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P12" s="14">
         <v>5.771046664</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q12" s="14">
         <v>25.803035709</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R12" s="14">
         <v>8.7877683089299996</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S12" s="15">
         <v>0.24939427</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="16">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
         <v>2024</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D13" s="18">
         <f t="shared" si="3"/>
         <v>11251.137121</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E13" s="19">
         <v>4380.0285290000002</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F13" s="19">
         <v>5224.974502</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G13" s="19">
         <v>1317.7201729999999</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H13" s="19">
         <v>177.187535</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I13" s="19">
         <v>105.991382</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J13" s="19">
         <v>30.662199999999999</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K13" s="19">
         <v>14.572800000000001</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L13" s="18">
         <f t="shared" si="4"/>
         <v>8231.3888027003995</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M13" s="19">
         <v>2880.310271714</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N13" s="19">
         <v>4609.8136975879997</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O13" s="19">
         <v>698.22568952999995</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P13" s="19">
         <v>5.5616272489999998</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q13" s="19">
         <v>26.096916030999999</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R13" s="19">
         <v>11.0747022284</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S13" s="20">
         <v>0.30589835999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <f t="shared" si="3"/>
         <v>11073.580067999997</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E14" s="14">
         <v>4264.3103259999998</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F14" s="14">
         <v>5088.2590179999997</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="14">
         <v>1297.469726</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H14" s="14">
         <v>268.56850200000002</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="14">
         <v>126.038926</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J14" s="14">
         <v>8.8992199999999997</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K14" s="14">
         <v>20.03435</v>
       </c>
-      <c r="L13" s="13">
-        <f t="shared" ref="L13:L20" si="5">SUM(M13:S13)</f>
+      <c r="L14" s="13">
+        <f t="shared" ref="L14:L21" si="5">SUM(M14:S14)</f>
         <v>7865.3882907427005</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M14" s="14">
         <v>2769.2323164145</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N14" s="14">
         <v>4334.8919746190004</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O14" s="14">
         <v>700.48098283000002</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P14" s="14">
         <v>10.097477002</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q14" s="14">
         <v>37.109888814999998</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R14" s="14">
         <v>13.1854440822</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S14" s="15">
         <v>0.39020697999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="16">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="16">
         <v>2024</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D15" s="18">
         <f t="shared" si="3"/>
         <v>11161.666198499997</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E15" s="19">
         <v>4078.3567754999999</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F15" s="19">
         <v>5481.9287759999997</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G15" s="19">
         <v>1221.811635</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H15" s="19">
         <v>239.36940000000001</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I15" s="19">
         <v>105.50866000000001</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J15" s="19">
         <v>9.2501800000000003</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K15" s="19">
         <v>25.440771999999999</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L15" s="18">
         <f t="shared" si="5"/>
         <v>7988.2967723501006</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M15" s="19">
         <v>2693.4096534265</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N15" s="19">
         <v>4598.9796150089996</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O15" s="19">
         <v>647.17524848999994</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P15" s="19">
         <v>8.870226637</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q15" s="19">
         <v>29.502148497</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R15" s="19">
         <v>9.9230392236</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S15" s="20">
         <v>0.43684106700000003</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <f t="shared" si="3"/>
         <v>11385.153779999999</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="14">
         <v>4088.3985170000001</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="14">
         <v>5559.3460809999997</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="14">
         <v>1362.2324040000001</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="14">
         <v>242.53355500000001</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>103.72531499999999</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J16" s="14">
         <v>4.8760000000000003</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K16" s="14">
         <v>24.041907999999999</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L16" s="13">
         <f t="shared" si="5"/>
         <v>8010.7375229999998</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M16" s="14">
         <v>2674.0050620000002</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N16" s="14">
         <v>4545.2049290000004</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O16" s="14">
         <v>749.43216500000005</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P16" s="14">
         <v>9.3834619999999997</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q16" s="14">
         <v>27.699843999999999</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R16" s="14">
         <v>4.5218790000000002</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S16" s="15">
         <v>0.49018200000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="16">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
         <v>2024</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="18">
-        <f t="shared" ref="D16:D30" si="6">SUM(E16:K16)</f>
+      <c r="D17" s="18">
+        <f t="shared" ref="D17:D31" si="6">SUM(E17:K17)</f>
         <v>11518.385950000002</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E17" s="19">
         <v>4300.1912899999998</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F17" s="19">
         <v>5629.5263320000004</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G17" s="19">
         <v>1319.029931</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H17" s="19">
         <v>139.10685699999999</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I17" s="19">
         <v>105.14566000000001</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J17" s="19">
         <v>0</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K17" s="19">
         <v>25.38588</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L17" s="18">
         <f t="shared" si="5"/>
         <v>8190.6107430000002</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M17" s="19">
         <v>2859.8718090000002</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N17" s="19">
         <v>4557.1561849999998</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O17" s="19">
         <v>740.54377399999998</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P17" s="19">
         <v>3.9488479999999999</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q17" s="19">
         <v>27.069296000000001</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R17" s="19">
         <v>1.465068</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S17" s="20">
         <v>0.55576300000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <f t="shared" si="6"/>
         <v>12058.836555</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="14">
         <v>4563.5082670000002</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F18" s="14">
         <v>5992.8884459999999</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="14">
         <v>1246.3373630000001</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H18" s="14">
         <v>139.10685699999999</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="14">
         <v>96.219672000000003</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J18" s="14">
         <v>0</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K18" s="14">
         <v>20.775950000000002</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L18" s="13">
         <f t="shared" si="5"/>
         <v>8839.7330359999996</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M18" s="14">
         <v>2957.5938150000002</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N18" s="14">
         <v>5127.0620630000003</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O18" s="14">
         <v>721.55657799999994</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P18" s="14">
         <v>3.9488479999999999</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q18" s="14">
         <v>26.56606</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R18" s="14">
         <v>2.5492699999999999</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S18" s="15">
         <v>0.45640199999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="16">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
         <v>2024</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D19" s="18">
         <f t="shared" si="6"/>
         <v>11342.527755999999</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E19" s="19">
         <v>4257.7457569999997</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F19" s="19">
         <v>5478.1561410000004</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G19" s="19">
         <v>1150.5672</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H19" s="19">
         <v>347.88340299999999</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I19" s="19">
         <v>97.409684999999996</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J19" s="19">
         <v>0</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K19" s="19">
         <v>10.76557</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L19" s="18">
         <f t="shared" si="5"/>
         <v>8187.4507680000006</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M19" s="19">
         <v>2792.3728390000001</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N19" s="19">
         <v>4673.1630869999999</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O19" s="19">
         <v>679.80545600000005</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P19" s="19">
         <v>8.3948649999999994</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q19" s="19">
         <v>26.664881000000001</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R19" s="19">
         <v>6.8661019999999997</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S19" s="20">
         <v>0.18353800000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="21">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="21">
         <v>2024</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D20" s="23">
         <f t="shared" si="6"/>
         <v>11272.010199999999</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E20" s="24">
         <v>4393.4066000000003</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F20" s="24">
         <v>5359.7539999999999</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G20" s="24">
         <v>1270.1172999999999</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H20" s="24">
         <v>121.57129999999999</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I20" s="24">
         <v>106.0236</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J20" s="24">
         <v>0</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K20" s="24">
         <v>21.1374</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L20" s="23">
         <f t="shared" si="5"/>
         <v>8342.0510054124934</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M20" s="24">
         <v>2834.6025592114943</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N20" s="24">
         <v>4774.6108969999996</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O20" s="24">
         <v>698.27653098200028</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P20" s="24">
         <v>3.7847089999999994</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q20" s="24">
         <v>28.277445269000239</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R20" s="24">
         <v>2.0259563599999999</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S20" s="25">
         <v>0.47290758999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26">
+    <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="26">
         <v>2023</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D21" s="28">
         <f t="shared" si="6"/>
         <v>10530.152879999996</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E21" s="29">
         <v>4309.4661199999991</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F21" s="29">
         <v>4678.9765120000002</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G21" s="29">
         <v>1229.369512</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H21" s="29">
         <v>196.09364099999999</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I21" s="29">
         <v>98.409154999999998</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J21" s="29">
         <v>0</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K21" s="29">
         <v>17.83794</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L21" s="28">
         <f t="shared" si="5"/>
         <v>7153.5113975900022</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M21" s="29">
         <v>2868.2873435319998</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N21" s="29">
         <v>3607.6925303660032</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O21" s="29">
         <v>642.81335444999979</v>
       </c>
-      <c r="P20" s="29">
+      <c r="P21" s="29">
         <v>7.0967908270000004</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="Q21" s="29">
         <v>26.713847234999999</v>
       </c>
-      <c r="R20" s="29">
+      <c r="R21" s="29">
         <v>0.56659287000000003</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S21" s="30">
         <v>0.34093830999999991</v>
       </c>
     </row>
-    <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11">
+    <row r="22" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <f t="shared" si="6"/>
         <v>10744.338341099994</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>4156.0361599999969</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F22" s="14">
         <v>4940.157242999996</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="14">
         <v>1327.2145460000011</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="14">
         <v>207.6338241</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>97.280187999999995</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="14">
         <v>0</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="14">
         <v>16.016380000000002</v>
       </c>
-      <c r="L21" s="13">
-        <f t="shared" ref="L21:L30" si="7">SUM(M21:S21)</f>
+      <c r="L22" s="13">
+        <f t="shared" ref="L22:L31" si="7">SUM(M22:S22)</f>
         <v>7556.0425005755014</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M22" s="14">
         <v>2765.572963916999</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N22" s="14">
         <v>4124.8151506980021</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O22" s="14">
         <v>633.25968550699997</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P22" s="14">
         <v>7.8715812454999998</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q22" s="14">
         <v>24.216846367999999</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R22" s="14">
         <v>0</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S22" s="15">
         <v>0.30627283999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16">
+    <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
         <v>2023</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D23" s="18">
         <f t="shared" si="6"/>
         <v>11200.280935499999</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E23" s="19">
         <v>4460.5444895000001</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F23" s="19">
         <v>5121.4502369999991</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G23" s="19">
         <v>1286.7112570000011</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H23" s="19">
         <v>230.92582300000001</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I23" s="19">
         <v>86.957749000000007</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J23" s="19">
         <v>0</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K23" s="19">
         <v>13.691380000000001</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L23" s="18">
         <f t="shared" si="7"/>
         <v>7919.0054692064978</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M23" s="19">
         <v>2888.4215667424992</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N23" s="19">
         <v>4289.1214162529986</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O23" s="19">
         <v>709.70213744500006</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P23" s="19">
         <v>8.7303510430000006</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q23" s="19">
         <v>22.005873442999999</v>
       </c>
-      <c r="R22" s="19">
+      <c r="R23" s="19">
         <v>0.75646751999999995</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S23" s="20">
         <v>0.26765675999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11">
+    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <f t="shared" si="6"/>
         <v>10782.032769499994</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E24" s="14">
         <v>4218.6692064999988</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F24" s="14">
         <v>4942.4715439999973</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G24" s="14">
         <v>1325.7413049999991</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H24" s="14">
         <v>196.98436699999999</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="14">
         <v>89.481097000000005</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J24" s="14">
         <v>0</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K24" s="14">
         <v>8.6852500000000017</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L24" s="13">
         <f t="shared" si="7"/>
         <v>7622.1182945060009</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M24" s="14">
         <v>2723.4188917840002</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N24" s="14">
         <v>4168.1608000790002</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O24" s="14">
         <v>700.2680477920004</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P24" s="14">
         <v>6.950576074999999</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q24" s="14">
         <v>22.592782776</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R24" s="14">
         <v>0.46685416000000002</v>
       </c>
-      <c r="S23" s="15">
+      <c r="S24" s="15">
         <v>0.26034183999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16">
+    <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
         <v>2023</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D25" s="18">
         <f t="shared" si="6"/>
         <v>11165.0871135</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E25" s="19">
         <v>4073.677195499999</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F25" s="19">
         <v>5295.6467410000023</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G25" s="19">
         <v>1455.9837610000011</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H25" s="19">
         <v>215.933054</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I25" s="19">
         <v>102.351732</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J25" s="19">
         <v>0</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K25" s="19">
         <v>21.494630000000001</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L25" s="18">
         <f t="shared" si="7"/>
         <v>7816.8766415225009</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M25" s="19">
         <v>2578.8196566694969</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N25" s="19">
         <v>4455.9987150990046</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O25" s="19">
         <v>747.21557059399993</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P25" s="19">
         <v>8.0505219500000003</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q25" s="19">
         <v>26.027712000000001</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R25" s="19">
         <v>0.31483611000000011</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S25" s="20">
         <v>0.44962910000000011</v>
       </c>
     </row>
-    <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11">
+    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <f t="shared" si="6"/>
         <v>10990.944824000002</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="14">
         <v>4146.4391699999987</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F26" s="14">
         <v>5135.3581670000012</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G26" s="14">
         <v>1381.008404000002</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="14">
         <v>211.989563</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>101.69627</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J26" s="14">
         <v>0</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K26" s="14">
         <v>14.453250000000001</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L26" s="13">
         <f t="shared" si="7"/>
         <v>7210.7837302764929</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M26" s="14">
         <v>2685.167804527498</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N26" s="14">
         <v>3862.1520296299959</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O26" s="14">
         <v>629.01834064099978</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P26" s="14">
         <v>7.3305904510000008</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q26" s="14">
         <v>26.805101397000001</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R26" s="14">
         <v>0</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S26" s="15">
         <v>0.30986362999999989</v>
       </c>
     </row>
-    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16">
+    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="16">
         <v>2023</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D27" s="18">
         <f t="shared" si="6"/>
         <v>10745.577094500002</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E27" s="19">
         <v>3986.183454499997</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F27" s="19">
         <v>5182.5897230000064</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G27" s="19">
         <v>1263.786863</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H27" s="19">
         <v>194.382002</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I27" s="19">
         <v>110.79468199999999</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J27" s="19">
         <v>0</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K27" s="19">
         <v>7.8403699999999992</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L27" s="18">
         <f t="shared" si="7"/>
         <v>7727.3830689805</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M27" s="19">
         <v>2606.4418033855009</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N27" s="19">
         <v>4443.8483745960002</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O27" s="19">
         <v>641.33658918099911</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P27" s="19">
         <v>7.5541058760000004</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q27" s="19">
         <v>27.942127822</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R27" s="19">
         <v>0</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S27" s="20">
         <v>0.26006812000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11">
+    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <f t="shared" si="6"/>
         <v>11106.930602500001</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="14">
         <v>4188.3383045000028</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F28" s="14">
         <v>5334.9094389999982</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="14">
         <v>1326.3186040000001</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="14">
         <v>160.06881000000001</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>88.829708000000011</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J28" s="14">
         <v>0</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K28" s="14">
         <v>8.4657370000000007</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L28" s="13">
         <f t="shared" si="7"/>
         <v>7787.991672169991</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M28" s="14">
         <v>2697.017603467998</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N28" s="14">
         <v>4364.7163814329933</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O28" s="14">
         <v>691.08870988800015</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P28" s="14">
         <v>5.5462157990000014</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q28" s="14">
         <v>28.462399068</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R28" s="14">
         <v>0.92623683999999995</v>
       </c>
-      <c r="S27" s="15">
+      <c r="S28" s="15">
         <v>0.23412567400000001</v>
       </c>
     </row>
-    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
+    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="16">
         <v>2023</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D29" s="18">
         <f t="shared" si="6"/>
         <v>10801.941199499999</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E29" s="19">
         <v>4120.2958385000038</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F29" s="19">
         <v>5130.8270799999982</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G29" s="19">
         <v>1278.4442729999989</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H29" s="19">
         <v>164.83443199999999</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I29" s="19">
         <v>97.153891000000002</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J29" s="19">
         <v>0</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K29" s="19">
         <v>10.385685</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L29" s="18">
         <f t="shared" si="7"/>
         <v>7607.3085941089976</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M29" s="19">
         <v>2709.2393107859962</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N29" s="19">
         <v>4203.9729919080019</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O29" s="19">
         <v>660.44165793399986</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P29" s="19">
         <v>5.9482127840000008</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q29" s="19">
         <v>27.414852071999999</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R29" s="19">
         <v>0</v>
       </c>
-      <c r="S28" s="20">
+      <c r="S29" s="20">
         <v>0.29156862500000003</v>
       </c>
     </row>
-    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11">
+    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="11">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <f t="shared" si="6"/>
         <v>11383.878990499992</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="14">
         <v>4435.0004595000009</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F30" s="14">
         <v>5403.7461159999912</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G30" s="14">
         <v>1243.00846</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="14">
         <v>186.385561</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I30" s="14">
         <v>105.50189399999999</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J30" s="14">
         <v>0</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K30" s="14">
         <v>10.236499999999999</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L30" s="13">
         <f t="shared" si="7"/>
         <v>8168.6527303565072</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M30" s="14">
         <v>2855.8573844425018</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N30" s="14">
         <v>4595.0981872000057</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O30" s="14">
         <v>683.3527228519996</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P30" s="14">
         <v>6.7861570649999994</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q30" s="14">
         <v>27.308684076999999</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R30" s="14">
         <v>0</v>
       </c>
-      <c r="S29" s="15">
+      <c r="S30" s="15">
         <v>0.24959471999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16">
+    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16">
         <v>2023</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D31" s="18">
         <f t="shared" si="6"/>
         <v>10730.619191500007</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E31" s="19">
         <v>4010.1023085000038</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F31" s="19">
         <v>5163.3377450000035</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G31" s="19">
         <v>1234.198350000001</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H31" s="19">
         <v>213.06129999999999</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I31" s="19">
         <v>97.967708000000016</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J31" s="19">
         <v>0</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K31" s="19">
         <v>11.951779999999999</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L31" s="18">
         <f t="shared" si="7"/>
         <v>7460.9740902630037</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M31" s="19">
         <v>2587.8190024130022</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N31" s="19">
         <v>4189.8268443940005</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O31" s="19">
         <v>650.21660514200039</v>
       </c>
-      <c r="P30" s="19">
+      <c r="P31" s="19">
         <v>7.5242899999999997</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="Q31" s="19">
         <v>25.314986824000002</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R31" s="19">
         <v>0</v>
       </c>
-      <c r="S30" s="20">
+      <c r="S31" s="20">
         <v>0.27236148999999987</v>
       </c>
     </row>
-    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21">
+    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="21">
         <v>2023</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="23">
-        <f t="shared" ref="D31:D62" si="8">SUM(E31:K31)</f>
+      <c r="D32" s="23">
+        <f t="shared" ref="D32:D63" si="8">SUM(E32:K32)</f>
         <v>11294.197112000005</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E32" s="24">
         <v>4300.673847</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F32" s="24">
         <v>5333.398917000005</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G32" s="24">
         <v>1381.829727000001</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H32" s="24">
         <v>160.70500799999999</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I32" s="24">
         <v>108.434686</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J32" s="24">
         <v>0</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K32" s="24">
         <v>9.1549269999999989</v>
       </c>
-      <c r="L31" s="23">
-        <f t="shared" ref="L31:L62" si="9">SUM(M31:S31)</f>
+      <c r="L32" s="23">
+        <f t="shared" ref="L32:L63" si="9">SUM(M32:S32)</f>
         <v>8101.5730074171943</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M32" s="24">
         <v>2862.9090542549961</v>
       </c>
-      <c r="N31" s="24">
+      <c r="N32" s="24">
         <v>4475.0428370511981</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O32" s="24">
         <v>730.13655983000001</v>
       </c>
-      <c r="P31" s="24">
+      <c r="P32" s="24">
         <v>5.6898014160000008</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q32" s="24">
         <v>26.430900990000001</v>
       </c>
-      <c r="R31" s="24">
+      <c r="R32" s="24">
         <v>1.1467497600000001</v>
       </c>
-      <c r="S31" s="25">
+      <c r="S32" s="25">
         <v>0.21710411499999999</v>
       </c>
     </row>
-    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26">
+    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="26">
         <v>2022</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C33" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D33" s="28">
         <f t="shared" si="8"/>
         <v>10579.2088245</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E33" s="29">
         <v>3955.405141500004</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F33" s="29">
         <v>5023.7809259999967</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G33" s="29">
         <v>1253.435716</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H33" s="29">
         <v>210.841139</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I33" s="29">
         <v>127.258531</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J33" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K33" s="29">
         <v>8.4723710000000008</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L33" s="28">
         <f t="shared" si="9"/>
         <v>7201.2110358610043</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M33" s="29">
         <v>2606.642718893002</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N33" s="29">
         <v>3840.3302240870012</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O33" s="29">
         <v>714.07136763500023</v>
       </c>
-      <c r="P32" s="29">
+      <c r="P33" s="29">
         <v>8.1353823930000004</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q33" s="29">
         <v>29.287128408000001</v>
       </c>
-      <c r="R32" s="29">
+      <c r="R33" s="29">
         <v>2.5732544800000001</v>
       </c>
-      <c r="S32" s="30">
+      <c r="S33" s="30">
         <v>0.17095996499999999</v>
       </c>
     </row>
-    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="11">
+    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <f t="shared" si="8"/>
         <v>10527.497396789135</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="14">
         <v>4108.8534605000023</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F34" s="14">
         <v>4736.7273732891317</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="14">
         <v>1295.0406599999999</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="14">
         <v>221.15105</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I34" s="14">
         <v>154.32011299999999</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J34" s="14">
         <v>0</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K34" s="14">
         <v>11.40474</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L34" s="13">
         <f t="shared" si="9"/>
         <v>7310.8355932755139</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M34" s="14">
         <v>2729.828865026504</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <v>3871.547411277008</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O34" s="14">
         <v>666.57566130000077</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P34" s="14">
         <v>8.3173960500000028</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q34" s="14">
         <v>33.740727692</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R34" s="14">
         <v>0.53808</v>
       </c>
-      <c r="S33" s="15">
+      <c r="S34" s="15">
         <v>0.28745193000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16">
+    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="16">
         <v>2022</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D35" s="18">
         <f t="shared" si="8"/>
         <v>10705.692828500001</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E35" s="19">
         <v>4175.4008985000046</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F35" s="19">
         <v>4906.9342349999952</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G35" s="19">
         <v>1288.9225799999999</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H35" s="19">
         <v>177.480175</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I35" s="19">
         <v>150.03629000000001</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J35" s="19">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K35" s="19">
         <v>6.9111500000000001</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L35" s="18">
         <f t="shared" si="9"/>
         <v>7111.4425296700092</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M35" s="19">
         <v>2632.704658141005</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N35" s="19">
         <v>3750.413545484003</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O35" s="19">
         <v>687.66725051200081</v>
       </c>
-      <c r="P34" s="19">
+      <c r="P35" s="19">
         <v>5.8990287250000009</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q35" s="19">
         <v>34.461750987999999</v>
       </c>
-      <c r="R34" s="19">
+      <c r="R35" s="19">
         <v>0.12333404000000001</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S35" s="20">
         <v>0.17296178000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11">
+    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <f t="shared" si="8"/>
         <v>10716.722789500005</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E36" s="14">
         <v>3921.109317500001</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F36" s="14">
         <v>5107.1348170000047</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="14">
         <v>1304.2582520000001</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H36" s="14">
         <v>224.00600600000001</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I36" s="14">
         <v>150.00181699999999</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J36" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K36" s="14">
         <v>10.205080000000001</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L36" s="13">
         <f t="shared" si="9"/>
         <v>7332.3824997811334</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M36" s="14">
         <v>2596.0057846039958</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N36" s="14">
         <v>4043.7739947451369</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O36" s="14">
         <v>650.93120328700036</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P36" s="14">
         <v>8.6389721339999994</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q36" s="14">
         <v>32.781240101000002</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R36" s="14">
         <v>7.0588400000000003E-3</v>
       </c>
-      <c r="S35" s="15">
+      <c r="S36" s="15">
         <v>0.24424607000000009</v>
       </c>
     </row>
-    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16">
+    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16">
         <v>2022</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D37" s="18">
         <f t="shared" si="8"/>
         <v>11108.677028999993</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E37" s="19">
         <v>3971.3969279999978</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F37" s="19">
         <v>5268.769131999994</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G37" s="19">
         <v>1417.7037560000001</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H37" s="19">
         <v>247.12264200000001</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I37" s="19">
         <v>188.83374499999999</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J37" s="19">
         <v>0</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K37" s="19">
         <v>14.850826</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L37" s="18">
         <f t="shared" si="9"/>
         <v>7307.3132174754001</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M37" s="19">
         <v>2663.245486356001</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N37" s="19">
         <v>3914.0197377269992</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O37" s="19">
         <v>681.13219543499997</v>
       </c>
-      <c r="P36" s="19">
+      <c r="P37" s="19">
         <v>9.831694658</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="Q37" s="19">
         <v>36.570021361999977</v>
       </c>
-      <c r="R36" s="19">
+      <c r="R37" s="19">
         <v>2.1579242694</v>
       </c>
-      <c r="S36" s="20">
+      <c r="S37" s="20">
         <v>0.35615766800000009</v>
       </c>
     </row>
-    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="11">
+    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <f t="shared" si="8"/>
         <v>10611.250803000006</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="14">
         <v>3793.7436850000049</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F38" s="14">
         <v>5214.0921070000013</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="14">
         <v>1247.337679</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H38" s="14">
         <v>194.861605</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="14">
         <v>147.825242</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J38" s="14">
         <v>0</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K38" s="14">
         <v>13.390485</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L38" s="13">
         <f t="shared" si="9"/>
         <v>7191.6636538718021</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M38" s="14">
         <v>2575.3834254900021</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N38" s="14">
         <v>3964.619205300799</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O38" s="14">
         <v>609.31836305400043</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P38" s="14">
         <v>7.2582579850000002</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q38" s="14">
         <v>34.682327189999988</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R38" s="14">
         <v>0.11073023999999999</v>
       </c>
-      <c r="S37" s="15">
+      <c r="S38" s="15">
         <v>0.291344612</v>
       </c>
     </row>
-    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="16">
+    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="16">
         <v>2022</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D39" s="18">
         <f t="shared" si="8"/>
         <v>11385.632823130651</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E39" s="19">
         <v>4133.1845675000104</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F39" s="19">
         <v>5576.317320630641</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G39" s="19">
         <v>1291.3044649999999</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H39" s="19">
         <v>204.62748999999999</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I39" s="19">
         <v>168.44151099999999</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J39" s="19">
         <v>0</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K39" s="19">
         <v>11.757469</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L39" s="18">
         <f t="shared" si="9"/>
         <v>7426.6647824039028</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M39" s="19">
         <v>2745.748891390494</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N39" s="19">
         <v>4014.2422900054089</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O39" s="19">
         <v>622.1854161710005</v>
       </c>
-      <c r="P38" s="19">
+      <c r="P39" s="19">
         <v>8.0573326499999993</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="Q39" s="19">
         <v>35.484382947000007</v>
       </c>
-      <c r="R38" s="19">
+      <c r="R39" s="19">
         <v>0.60199296000000002</v>
       </c>
-      <c r="S38" s="20">
+      <c r="S39" s="20">
         <v>0.34447628000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11">
+    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <f t="shared" si="8"/>
         <v>10780.323722207198</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>4137.0850310000033</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="14">
         <v>5186.775923207193</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <v>1080.597673</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H40" s="14">
         <v>208.890287</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="14">
         <v>154.938333</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J40" s="14">
         <v>0</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K40" s="14">
         <v>12.036474999999999</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L40" s="13">
         <f t="shared" si="9"/>
         <v>7413.4131095932507</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M40" s="14">
         <v>2681.1217716099991</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N40" s="14">
         <v>4205.8755796282521</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O40" s="14">
         <v>483.91754051100008</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P40" s="14">
         <v>8.2003226500000004</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q40" s="14">
         <v>32.794367653999998</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R40" s="14">
         <v>1.2866841600000001</v>
       </c>
-      <c r="S39" s="15">
+      <c r="S40" s="15">
         <v>0.21684338000000011</v>
       </c>
     </row>
-    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16">
+    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="16">
         <v>2022</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D41" s="18">
         <f t="shared" si="8"/>
         <v>10829.844413999997</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E41" s="19">
         <v>3962.7175100000009</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F41" s="19">
         <v>5192.2296089999963</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G41" s="19">
         <v>1309.012232</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H41" s="19">
         <v>181.97084000000001</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I41" s="19">
         <v>167.812794</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J41" s="19">
         <v>0</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K41" s="19">
         <v>16.101429</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L41" s="18">
         <f t="shared" si="9"/>
         <v>7275.2969263750037</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M41" s="19">
         <v>2575.7223572010021</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N41" s="19">
         <v>4067.0187656300018</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O41" s="19">
         <v>589.9259630600003</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P41" s="19">
         <v>7.1673460699999998</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="Q41" s="19">
         <v>34.542283277999999</v>
       </c>
-      <c r="R40" s="19">
+      <c r="R41" s="19">
         <v>0.48420864000000002</v>
       </c>
-      <c r="S40" s="20">
+      <c r="S41" s="20">
         <v>0.43600249600000002</v>
       </c>
     </row>
-    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="11">
+    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="11">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <f t="shared" si="8"/>
         <v>10958.977161499999</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>4038.936546500001</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F42" s="14">
         <v>5268.3369729999977</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="14">
         <v>1291.416300000001</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H42" s="14">
         <v>177.95099999999999</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I42" s="14">
         <v>167.63478000000001</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J42" s="14">
         <v>0</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K42" s="14">
         <v>14.701561999999999</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L42" s="13">
         <f t="shared" si="9"/>
         <v>7541.4980275314938</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M42" s="14">
         <v>2660.8203641194968</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N42" s="14">
         <v>4208.7790816289962</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O42" s="14">
         <v>621.14192796600003</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P42" s="14">
         <v>6.623209000000001</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q42" s="14">
         <v>35.708474217000003</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R42" s="14">
         <v>8.0218468600000001</v>
       </c>
-      <c r="S41" s="15">
+      <c r="S42" s="15">
         <v>0.40312374000000012</v>
       </c>
     </row>
-    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="16">
+    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="16">
         <v>2022</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C43" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D43" s="18">
         <f t="shared" si="8"/>
         <v>9793.3689548991515</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E43" s="19">
         <v>3583.161939000001</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F43" s="19">
         <v>4789.6931648991504</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G43" s="19">
         <v>1070.14833</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H43" s="19">
         <v>173.86282</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I43" s="19">
         <v>164.508713</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J43" s="19">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K43" s="19">
         <v>11.987488000000001</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L43" s="18">
         <f t="shared" si="9"/>
         <v>6646.5983968474375</v>
       </c>
-      <c r="M42" s="19">
+      <c r="M43" s="19">
         <v>2374.907421244</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N43" s="19">
         <v>3680.0897351094382</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O43" s="19">
         <v>540.62561002199982</v>
       </c>
-      <c r="P42" s="19">
+      <c r="P43" s="19">
         <v>6.8062315400000006</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="Q43" s="19">
         <v>35.044869748000004</v>
       </c>
-      <c r="R42" s="19">
+      <c r="R43" s="19">
         <v>8.8324161199999995</v>
       </c>
-      <c r="S42" s="20">
+      <c r="S43" s="20">
         <v>0.29211306399999998</v>
       </c>
     </row>
-    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="21">
+    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="21">
         <v>2022</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D44" s="23">
         <f t="shared" si="8"/>
         <v>10457.860871849636</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E44" s="24">
         <v>3811.0277475000012</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F44" s="24">
         <v>5081.9953543496349</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G44" s="24">
         <v>1163.869772</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H44" s="24">
         <v>216.800228</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I44" s="24">
         <v>164.64285100000001</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J44" s="24">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K44" s="24">
         <v>19.518419000000002</v>
       </c>
-      <c r="L43" s="23">
+      <c r="L44" s="23">
         <f t="shared" si="9"/>
         <v>7312.9253518064897</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M44" s="24">
         <v>2516.776008406498</v>
       </c>
-      <c r="N43" s="24">
+      <c r="N44" s="24">
         <v>4165.2929514439929</v>
       </c>
-      <c r="O43" s="24">
+      <c r="O44" s="24">
         <v>584.89580469299949</v>
       </c>
-      <c r="P43" s="24">
+      <c r="P44" s="24">
         <v>7.9409832089999988</v>
       </c>
-      <c r="Q43" s="24">
+      <c r="Q44" s="24">
         <v>36.984346221000003</v>
       </c>
-      <c r="R43" s="24">
+      <c r="R44" s="24">
         <v>0.54593274000000003</v>
       </c>
-      <c r="S43" s="25">
+      <c r="S44" s="25">
         <v>0.48932509299999999</v>
       </c>
     </row>
-    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26">
+    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="26">
         <v>2021</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C45" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D45" s="28">
         <f t="shared" si="8"/>
         <v>10554.11629972851</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E45" s="29">
         <v>3704.487701</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F45" s="29">
         <v>5168.8270517285082</v>
       </c>
-      <c r="G44" s="29">
+      <c r="G45" s="29">
         <v>1210.66284</v>
       </c>
-      <c r="H44" s="29">
+      <c r="H45" s="29">
         <v>278.57299999999998</v>
       </c>
-      <c r="I44" s="29">
+      <c r="I45" s="29">
         <v>176.88040100000001</v>
       </c>
-      <c r="J44" s="29">
+      <c r="J45" s="29">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K45" s="29">
         <v>14.676906000000001</v>
       </c>
-      <c r="L44" s="28">
+      <c r="L45" s="28">
         <f t="shared" si="9"/>
         <v>7559.4957620836176</v>
       </c>
-      <c r="M44" s="29">
+      <c r="M45" s="29">
         <v>2454.9251451284981</v>
       </c>
-      <c r="N44" s="29">
+      <c r="N45" s="29">
         <v>4486.1274373061196</v>
       </c>
-      <c r="O44" s="29">
+      <c r="O45" s="29">
         <v>564.50741046500013</v>
       </c>
-      <c r="P44" s="29">
+      <c r="P45" s="29">
         <v>10.346456243</v>
       </c>
-      <c r="Q44" s="29">
+      <c r="Q45" s="29">
         <v>38.567701272999997</v>
       </c>
-      <c r="R44" s="29">
+      <c r="R45" s="29">
         <v>4.6980338499999998</v>
       </c>
-      <c r="S44" s="30">
+      <c r="S45" s="30">
         <v>0.32357781800000007</v>
       </c>
     </row>
-    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="11">
+    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <f t="shared" si="8"/>
         <v>10628.511753666689</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="14">
         <v>3832.8486825000009</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="14">
         <v>5157.1098371666867</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <v>1198.8120699999999</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="14">
         <v>250.82408899999999</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I46" s="14">
         <v>171.39998600000001</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J46" s="14">
         <v>0.48580000000000001</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K46" s="14">
         <v>17.031289000000001</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L46" s="13">
         <f t="shared" si="9"/>
         <v>7572.3847293000135</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M46" s="14">
         <v>2487.2945403209969</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N46" s="14">
         <v>4430.0140454000166</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O46" s="14">
         <v>607.02709147300016</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P46" s="14">
         <v>8.3345901050000002</v>
       </c>
-      <c r="Q45" s="14">
+      <c r="Q46" s="14">
         <v>35.035225039999993</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R46" s="14">
         <v>4.35235971</v>
       </c>
-      <c r="S45" s="15">
+      <c r="S46" s="15">
         <v>0.32687725099999992</v>
       </c>
     </row>
-    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="16">
+    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="16">
         <v>2021</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C47" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D47" s="18">
         <f t="shared" si="8"/>
         <v>10447.886890621772</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E47" s="19">
         <v>3568.6820320000061</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F47" s="19">
         <v>5290.506152621766</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G47" s="19">
         <v>1189.51099</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H47" s="19">
         <v>218.87152699999999</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I47" s="19">
         <v>164.760099</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J47" s="19">
         <v>0</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K47" s="19">
         <v>15.556089999999999</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L47" s="18">
         <f t="shared" si="9"/>
         <v>7454.4569883743907</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M47" s="19">
         <v>2252.2121829349981</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N47" s="19">
         <v>4555.9238501633918</v>
       </c>
-      <c r="O46" s="19">
+      <c r="O47" s="19">
         <v>598.34848022000062</v>
       </c>
-      <c r="P46" s="19">
+      <c r="P47" s="19">
         <v>8.6802298340000004</v>
       </c>
-      <c r="Q46" s="19">
+      <c r="Q47" s="19">
         <v>36.737191042000013</v>
       </c>
-      <c r="R46" s="19">
+      <c r="R47" s="19">
         <v>2.1651060200000001</v>
       </c>
-      <c r="S46" s="20">
+      <c r="S47" s="20">
         <v>0.38994815999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="11">
+    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <f t="shared" si="8"/>
         <v>10310.171017315373</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="14">
         <v>3660.1919630000002</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F48" s="14">
         <v>5125.4300873153752</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="14">
         <v>1106.3341800000001</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H48" s="14">
         <v>225.05336800000001</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I48" s="14">
         <v>173.367749</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J48" s="14">
         <v>0</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K48" s="14">
         <v>19.793669999999999</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L48" s="13">
         <f t="shared" si="9"/>
         <v>7455.9332633507911</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M48" s="14">
         <v>2336.1774044905001</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N48" s="14">
         <v>4499.0870851722912</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O48" s="14">
         <v>574.36416933199996</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P48" s="14">
         <v>9.2197258459999993</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="Q48" s="14">
         <v>33.827011099000003</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R48" s="14">
         <v>2.7609138199999999</v>
       </c>
-      <c r="S47" s="15">
+      <c r="S48" s="15">
         <v>0.49695359099999997</v>
       </c>
     </row>
-    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="16">
+    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="16">
         <v>2021</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C49" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D49" s="18">
         <f t="shared" si="8"/>
         <v>10858.20812040527</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E49" s="19">
         <v>3521.7041924999971</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F49" s="19">
         <v>5688.3567339052724</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G49" s="19">
         <v>1217.1854400000011</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H49" s="19">
         <v>237.21059299999999</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I49" s="19">
         <v>181.48093</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J49" s="19">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K49" s="19">
         <v>12.261831000000001</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L49" s="18">
         <f t="shared" si="9"/>
         <v>7799.3527436193035</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M49" s="19">
         <v>2294.5162238704979</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N49" s="19">
         <v>4842.6990967668053</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O49" s="19">
         <v>615.63413392999996</v>
       </c>
-      <c r="P48" s="19">
+      <c r="P49" s="19">
         <v>8.5407225140000023</v>
       </c>
-      <c r="Q48" s="19">
+      <c r="Q49" s="19">
         <v>34.95596040800001</v>
       </c>
-      <c r="R48" s="19">
+      <c r="R49" s="19">
         <v>2.7197566399999999</v>
       </c>
-      <c r="S48" s="20">
+      <c r="S49" s="20">
         <v>0.28684948999999998</v>
       </c>
     </row>
-    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="11">
+    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <f t="shared" si="8"/>
         <v>11255.030800119688</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E50" s="14">
         <v>3793.7436850000049</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F50" s="14">
         <v>5713.976884119681</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="14">
         <v>1315.6355450000001</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H50" s="14">
         <v>235.601181</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I50" s="14">
         <v>181.74973800000001</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J50" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K50" s="14">
         <v>14.308767</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L50" s="13">
         <f t="shared" si="9"/>
         <v>8093.1738756910991</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M50" s="14">
         <v>2575.3834254900021</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N50" s="14">
         <v>4833.7327735580984</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O50" s="14">
         <v>635.0188110539998</v>
       </c>
-      <c r="P49" s="14">
+      <c r="P50" s="14">
         <v>8.7395811469999991</v>
       </c>
-      <c r="Q49" s="14">
+      <c r="Q50" s="14">
         <v>36.949788237000007</v>
       </c>
-      <c r="R49" s="14">
+      <c r="R50" s="14">
         <v>3.0379556999999999</v>
       </c>
-      <c r="S49" s="15">
+      <c r="S50" s="15">
         <v>0.31154050500000008</v>
       </c>
     </row>
-    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="16">
+    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="16">
         <v>2021</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D51" s="18">
         <f t="shared" si="8"/>
         <v>11085.875192119853</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E51" s="19">
         <v>4014.4691365000031</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F51" s="19">
         <v>5377.2218746198478</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G51" s="19">
         <v>1234.1497800000011</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H51" s="19">
         <v>253.12753699999999</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I51" s="19">
         <v>192.660923</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J51" s="19">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K51" s="19">
         <v>14.224441000000001</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L51" s="18">
         <f t="shared" si="9"/>
         <v>7726.6787146596171</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M51" s="19">
         <v>2629.796765055999</v>
       </c>
-      <c r="N50" s="19">
+      <c r="N51" s="19">
         <v>4464.5122847686171</v>
       </c>
-      <c r="O50" s="19">
+      <c r="O51" s="19">
         <v>581.68120659000044</v>
       </c>
-      <c r="P50" s="19">
+      <c r="P51" s="19">
         <v>9.1290644990000001</v>
       </c>
-      <c r="Q50" s="19">
+      <c r="Q51" s="19">
         <v>36.782584659999998</v>
       </c>
-      <c r="R50" s="19">
+      <c r="R51" s="19">
         <v>4.3888587000000001</v>
       </c>
-      <c r="S50" s="20">
+      <c r="S51" s="20">
         <v>0.38795038599999998</v>
       </c>
     </row>
-    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="11">
+    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <f t="shared" si="8"/>
         <v>12022.900882797225</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E52" s="14">
         <v>4361.3740710000029</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F52" s="14">
         <v>5936.7487387972214</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="14">
         <v>1232.430877999999</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H52" s="14">
         <v>263.60899599999999</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I52" s="14">
         <v>207.02036000000001</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J52" s="14">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K52" s="14">
         <v>21.698639</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L52" s="13">
         <f t="shared" si="9"/>
         <v>8508.790074300683</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M52" s="14">
         <v>2922.9896007830021</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N52" s="14">
         <v>4940.7335945086788</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O52" s="14">
         <v>590.43121132199985</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P52" s="14">
         <v>9.6548794559999997</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="Q52" s="14">
         <v>41.925393185999987</v>
       </c>
-      <c r="R51" s="14">
+      <c r="R52" s="14">
         <v>2.55537546</v>
       </c>
-      <c r="S51" s="15">
+      <c r="S52" s="15">
         <v>0.50001958499999988</v>
       </c>
     </row>
-    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="16">
+    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="16">
         <v>2021</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D53" s="18">
         <f t="shared" si="8"/>
         <v>11202.965129249227</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E53" s="19">
         <v>4088.1791725000012</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F53" s="19">
         <v>5398.3324937492234</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G53" s="19">
         <v>1215.8369100000009</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H53" s="19">
         <v>280.81724400000002</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I53" s="19">
         <v>191.078067</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J53" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K53" s="19">
         <v>28.689242</v>
       </c>
-      <c r="L52" s="18">
+      <c r="L53" s="18">
         <f t="shared" si="9"/>
         <v>7831.1461965570006</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M53" s="19">
         <v>2687.4059335134998</v>
       </c>
-      <c r="N52" s="19">
+      <c r="N53" s="19">
         <v>4476.268327207501</v>
       </c>
-      <c r="O52" s="19">
+      <c r="O53" s="19">
         <v>612.56275004999998</v>
       </c>
-      <c r="P52" s="19">
+      <c r="P53" s="19">
         <v>10.506913092</v>
       </c>
-      <c r="Q52" s="19">
+      <c r="Q53" s="19">
         <v>37.034007258999999</v>
       </c>
-      <c r="R52" s="19">
+      <c r="R53" s="19">
         <v>6.8037442799999992</v>
       </c>
-      <c r="S52" s="20">
+      <c r="S53" s="20">
         <v>0.56452115499999989</v>
       </c>
     </row>
-    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="11">
+    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="11">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <f t="shared" si="8"/>
         <v>11472.620926703923</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E54" s="14">
         <v>4090.808027499997</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F54" s="14">
         <v>5662.2790862039283</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G54" s="14">
         <v>1207.80692</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H54" s="14">
         <v>294.74798299999998</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I54" s="14">
         <v>196.56426200000001</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J54" s="14">
         <v>2.7E-2</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K54" s="14">
         <v>20.387647999999999</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L54" s="13">
         <f t="shared" si="9"/>
         <v>8142.6430797048588</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M54" s="14">
         <v>2745.9354684965042</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N54" s="14">
         <v>4736.7506870613533</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O54" s="14">
         <v>604.7617960900003</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P54" s="14">
         <v>8.8911368260000003</v>
       </c>
-      <c r="Q53" s="14">
+      <c r="Q54" s="14">
         <v>41.498002944</v>
       </c>
-      <c r="R53" s="14">
+      <c r="R54" s="14">
         <v>4.35843588</v>
       </c>
-      <c r="S53" s="15">
+      <c r="S54" s="15">
         <v>0.44755240699999999</v>
       </c>
     </row>
-    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="16">
+    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="16">
         <v>2021</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D55" s="18">
         <f t="shared" si="8"/>
         <v>9383.1106395317038</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E55" s="19">
         <v>3368.883307499998</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F55" s="19">
         <v>4573.2690100317068</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G55" s="19">
         <v>1036.92257</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H55" s="19">
         <v>234.75769500000001</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I55" s="19">
         <v>161.20675999999989</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J55" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K55" s="19">
         <v>8.0472970000000004</v>
       </c>
-      <c r="L54" s="18">
+      <c r="L55" s="18">
         <f t="shared" si="9"/>
         <v>6633.7415436800029</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M55" s="19">
         <v>2289.3534260344968</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N55" s="19">
         <v>3773.8464727675068</v>
       </c>
-      <c r="O54" s="19">
+      <c r="O55" s="19">
         <v>527.36503372999948</v>
       </c>
-      <c r="P54" s="19">
+      <c r="P55" s="19">
         <v>8.0640420000000006</v>
       </c>
-      <c r="Q54" s="19">
+      <c r="Q55" s="19">
         <v>32.601814822999998</v>
       </c>
-      <c r="R54" s="19">
+      <c r="R55" s="19">
         <v>2.3511389399999998</v>
       </c>
-      <c r="S54" s="20">
+      <c r="S55" s="20">
         <v>0.159615385</v>
       </c>
     </row>
-    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="21">
+    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="21">
         <v>2021</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C56" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D56" s="23">
         <f t="shared" si="8"/>
         <v>10668.087908957505</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E56" s="24">
         <v>4020.238264000001</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F56" s="24">
         <v>5144.8473599575036</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G56" s="24">
         <v>1116.808546</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H56" s="24">
         <v>177.10898</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I56" s="24">
         <v>186.84795500000001</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J56" s="24">
         <v>5.1790099999999999</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K56" s="24">
         <v>17.057794000000001</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L56" s="23">
         <f t="shared" si="9"/>
         <v>7658.9491725908874</v>
       </c>
-      <c r="M55" s="24">
+      <c r="M56" s="24">
         <v>2719.7331992549998</v>
       </c>
-      <c r="N55" s="24">
+      <c r="N56" s="24">
         <v>4347.3157786078864</v>
       </c>
-      <c r="O55" s="24">
+      <c r="O56" s="24">
         <v>544.13671407200002</v>
       </c>
-      <c r="P55" s="24">
+      <c r="P56" s="24">
         <v>7.3822649800000004</v>
       </c>
-      <c r="Q55" s="24">
+      <c r="Q56" s="24">
         <v>37.287069709999997</v>
       </c>
-      <c r="R55" s="24">
+      <c r="R56" s="24">
         <v>2.7605594199999999</v>
       </c>
-      <c r="S55" s="25">
+      <c r="S56" s="25">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="26">
+    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="26">
         <v>2020</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C57" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D57" s="28">
         <f t="shared" si="8"/>
         <v>10425.345499100005</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E57" s="29">
         <v>3898.4186785000038</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F57" s="29">
         <v>4882.8448936000004</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G57" s="29">
         <v>1069.05969</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H57" s="29">
         <v>347.73810900000001</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I57" s="29">
         <v>196.70733799999999</v>
       </c>
-      <c r="J56" s="29">
+      <c r="J57" s="29">
         <v>18.026479999999999</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K57" s="29">
         <v>12.55031</v>
       </c>
-      <c r="L56" s="28">
+      <c r="L57" s="28">
         <f t="shared" si="9"/>
         <v>7353.1727623347024</v>
       </c>
-      <c r="M56" s="29">
+      <c r="M57" s="29">
         <v>2625.9467366160002</v>
       </c>
-      <c r="N56" s="29">
+      <c r="N57" s="29">
         <v>4157.4580108327018</v>
       </c>
-      <c r="O56" s="29">
+      <c r="O57" s="29">
         <v>517.70569403000059</v>
       </c>
-      <c r="P56" s="29">
+      <c r="P57" s="29">
         <v>9.0617785400000006</v>
       </c>
-      <c r="Q56" s="29">
+      <c r="Q57" s="29">
         <v>36.825079076000002</v>
       </c>
-      <c r="R56" s="29">
+      <c r="R57" s="29">
         <v>5.8351311600000004</v>
       </c>
-      <c r="S56" s="30">
+      <c r="S57" s="30">
         <v>0.34033207999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="11">
+    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <f t="shared" si="8"/>
         <v>10381.153690500003</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E58" s="14">
         <v>3792.1774099999998</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F58" s="14">
         <v>5016.643987500006</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="14">
         <v>1022.91</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H58" s="14">
         <v>376.49241599999999</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I58" s="14">
         <v>156.720607</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J58" s="14">
         <v>6.5342300000000009</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K58" s="14">
         <v>9.6750399999999974</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L58" s="13">
         <f t="shared" si="9"/>
         <v>7352.5100897651027</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M58" s="14">
         <v>2476.4938742799982</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N58" s="14">
         <v>4312.6025955031046</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O58" s="14">
         <v>515.07792600000016</v>
       </c>
-      <c r="P57" s="14">
+      <c r="P58" s="14">
         <v>11.231821312999999</v>
       </c>
-      <c r="Q57" s="14">
+      <c r="Q58" s="14">
         <v>34.256908838999998</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R58" s="14">
         <v>2.6046938000000002</v>
       </c>
-      <c r="S57" s="15">
+      <c r="S58" s="15">
         <v>0.24227003</v>
       </c>
     </row>
-    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="16">
+    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="16">
         <v>2020</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C59" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D59" s="18">
         <f t="shared" si="8"/>
         <v>10304.857817457816</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E59" s="19">
         <v>3959.7610744999961</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F59" s="19">
         <v>4749.0987938578201</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G59" s="19">
         <v>1197.7530099999999</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H59" s="19">
         <v>186.51679809999999</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I59" s="19">
         <v>178.59754699999999</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J59" s="19">
         <v>16.072800000000001</v>
       </c>
-      <c r="K58" s="19">
+      <c r="K59" s="19">
         <v>17.057794000000001</v>
       </c>
-      <c r="L58" s="18">
+      <c r="L59" s="18">
         <f t="shared" si="9"/>
         <v>7334.9599437122397</v>
       </c>
-      <c r="M58" s="19">
+      <c r="M59" s="19">
         <v>2713.3960539770019</v>
       </c>
-      <c r="N58" s="19">
+      <c r="N59" s="19">
         <v>4023.2553769225378</v>
       </c>
-      <c r="O58" s="19">
+      <c r="O59" s="19">
         <v>542.79762977000007</v>
       </c>
-      <c r="P58" s="19">
+      <c r="P59" s="19">
         <v>7.5060893896999996</v>
       </c>
-      <c r="Q58" s="19">
+      <c r="Q59" s="19">
         <v>42.505763026999993</v>
       </c>
-      <c r="R58" s="19">
+      <c r="R59" s="19">
         <v>5.1654440799999994</v>
       </c>
-      <c r="S58" s="20">
+      <c r="S59" s="20">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="11">
+    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <f t="shared" si="8"/>
         <v>10010.860705133222</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E60" s="14">
         <v>4074.659214000003</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F60" s="14">
         <v>4534.2935971332181</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <v>1007.21459</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="14">
         <v>218.893238</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I60" s="14">
         <v>160.24086600000001</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J60" s="14">
         <v>0.98</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K60" s="14">
         <v>14.5792</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L60" s="13">
         <f t="shared" si="9"/>
         <v>7046.4603867411315</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M60" s="14">
         <v>2750.463505591501</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N60" s="14">
         <v>3736.9267533866309</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O60" s="14">
         <v>516.3334641199998</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P60" s="14">
         <v>8.9935901099999995</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="Q60" s="14">
         <v>32.577175492999999</v>
       </c>
-      <c r="R59" s="14">
+      <c r="R60" s="14">
         <v>0.73748120000000006</v>
       </c>
-      <c r="S59" s="15">
+      <c r="S60" s="15">
         <v>0.42841684000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="16">
+    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="16">
         <v>2020</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C61" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D61" s="18">
         <f t="shared" si="8"/>
         <v>10140.746236042156</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E61" s="19">
         <v>3720.288184500002</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F61" s="19">
         <v>4994.2514095421539</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G61" s="19">
         <v>1027.58536</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H61" s="19">
         <v>187.64308500000001</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I61" s="19">
         <v>186.38118700000001</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J61" s="19">
         <v>13.8596</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K61" s="19">
         <v>10.737410000000001</v>
       </c>
-      <c r="L60" s="18">
+      <c r="L61" s="18">
         <f t="shared" si="9"/>
         <v>7449.2591429184022</v>
       </c>
-      <c r="M60" s="19">
+      <c r="M61" s="19">
         <v>2487.3447639574988</v>
       </c>
-      <c r="N60" s="19">
+      <c r="N61" s="19">
         <v>4328.973769747904</v>
       </c>
-      <c r="O60" s="19">
+      <c r="O61" s="19">
         <v>579.49765215000036</v>
       </c>
-      <c r="P60" s="19">
+      <c r="P61" s="19">
         <v>7.4413398099999997</v>
       </c>
-      <c r="Q60" s="19">
+      <c r="Q61" s="19">
         <v>39.990465413000003</v>
       </c>
-      <c r="R60" s="19">
+      <c r="R61" s="19">
         <v>5.7537497800000006</v>
       </c>
-      <c r="S60" s="20">
+      <c r="S61" s="20">
         <v>0.25740205999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="11">
+    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <f t="shared" si="8"/>
         <v>10156.497411288225</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E62" s="14">
         <v>3613.696181999997</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F62" s="14">
         <v>4968.204788288228</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="14">
         <v>1194.003549999999</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H62" s="14">
         <v>179.13738699999999</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I62" s="14">
         <v>177.43138400000001</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J62" s="14">
         <v>13.854179999999999</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K62" s="14">
         <v>10.16994</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L62" s="13">
         <f t="shared" si="9"/>
         <v>7380.5613200561647</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M62" s="14">
         <v>2428.846732166</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N62" s="14">
         <v>4258.745057885164</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O62" s="14">
         <v>616.52099685999997</v>
       </c>
-      <c r="P61" s="14">
+      <c r="P62" s="14">
         <v>6.897613637000001</v>
       </c>
-      <c r="Q61" s="14">
+      <c r="Q62" s="14">
         <v>46.615575728000003</v>
       </c>
-      <c r="R61" s="14">
+      <c r="R62" s="14">
         <v>22.688503149999999</v>
       </c>
-      <c r="S61" s="15">
+      <c r="S62" s="15">
         <v>0.24684063000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="16">
+    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="16">
         <v>2020</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D63" s="18">
         <f t="shared" si="8"/>
         <v>9413.8401068405965</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E63" s="19">
         <v>3299.4981385000028</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F63" s="19">
         <v>4750.320989340591</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G63" s="19">
         <v>1032.4139100000009</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H63" s="19">
         <v>122.951718</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I63" s="19">
         <v>176.151501</v>
       </c>
-      <c r="J62" s="19">
+      <c r="J63" s="19">
         <v>19.795500000000001</v>
       </c>
-      <c r="K62" s="19">
+      <c r="K63" s="19">
         <v>12.708349999999999</v>
       </c>
-      <c r="L62" s="18">
+      <c r="L63" s="18">
         <f t="shared" si="9"/>
         <v>6838.7530584626184</v>
       </c>
-      <c r="M62" s="19">
+      <c r="M63" s="19">
         <v>2178.930646833498</v>
       </c>
-      <c r="N62" s="19">
+      <c r="N63" s="19">
         <v>4081.32299100612</v>
       </c>
-      <c r="O62" s="19">
+      <c r="O63" s="19">
         <v>505.39333284999958</v>
       </c>
-      <c r="P62" s="19">
+      <c r="P63" s="19">
         <v>4.1486682360000007</v>
       </c>
-      <c r="Q62" s="19">
+      <c r="Q63" s="19">
         <v>48.516144666999992</v>
       </c>
-      <c r="R62" s="19">
+      <c r="R63" s="19">
         <v>20.1564771</v>
       </c>
-      <c r="S62" s="20">
+      <c r="S63" s="20">
         <v>0.28479777000000012</v>
       </c>
     </row>
-    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="11">
+    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="13">
-        <f t="shared" ref="D63:D91" si="10">SUM(E63:K63)</f>
+      <c r="D64" s="13">
+        <f t="shared" ref="D64:D92" si="10">SUM(E64:K64)</f>
         <v>8958.3282716603189</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E64" s="14">
         <v>2963.8515250000032</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F64" s="14">
         <v>4578.9250176603191</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="14">
         <v>1046.3265299999989</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H64" s="14">
         <v>141.62878699999999</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="14">
         <v>181.326382</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J64" s="14">
         <v>35.391770000000001</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K64" s="14">
         <v>10.878259999999999</v>
       </c>
-      <c r="L63" s="13">
-        <f t="shared" ref="L63:L91" si="11">SUM(M63:S63)</f>
+      <c r="L64" s="13">
+        <f t="shared" ref="L64:L92" si="11">SUM(M64:S64)</f>
         <v>6599.7211012138414</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M64" s="14">
         <v>1955.6864974084999</v>
       </c>
-      <c r="N63" s="14">
+      <c r="N64" s="14">
         <v>4070.699793715341</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O64" s="14">
         <v>490.43616353999971</v>
       </c>
-      <c r="P63" s="14">
+      <c r="P64" s="14">
         <v>4.9919812889999999</v>
       </c>
-      <c r="Q63" s="14">
+      <c r="Q64" s="14">
         <v>49.262628410999987</v>
       </c>
-      <c r="R63" s="14">
+      <c r="R64" s="14">
         <v>28.479580210000002</v>
       </c>
-      <c r="S63" s="15">
+      <c r="S64" s="15">
         <v>0.16445663999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="16">
+    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="16">
         <v>2020</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C65" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D65" s="18">
         <f t="shared" si="10"/>
         <v>9180.7559098961865</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E65" s="19">
         <v>3045.684487</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F65" s="19">
         <v>4586.6569688961881</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G65" s="19">
         <v>1232.8326999999999</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H65" s="19">
         <v>80.286566999999991</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I65" s="19">
         <v>185.73497699999999</v>
       </c>
-      <c r="J64" s="19">
+      <c r="J65" s="19">
         <v>37.784360000000007</v>
       </c>
-      <c r="K64" s="19">
+      <c r="K65" s="19">
         <v>11.77585</v>
       </c>
-      <c r="L64" s="18">
+      <c r="L65" s="18">
         <f t="shared" si="11"/>
         <v>6563.6809044984548</v>
       </c>
-      <c r="M64" s="19">
+      <c r="M65" s="19">
         <v>2092.363650120501</v>
       </c>
-      <c r="N64" s="19">
+      <c r="N65" s="19">
         <v>3810.8671320719541</v>
       </c>
-      <c r="O64" s="19">
+      <c r="O65" s="19">
         <v>576.76851579999936</v>
       </c>
-      <c r="P64" s="19">
+      <c r="P65" s="19">
         <v>2.1857480950000001</v>
       </c>
-      <c r="Q64" s="19">
+      <c r="Q65" s="19">
         <v>48.091960541000013</v>
       </c>
-      <c r="R64" s="19">
+      <c r="R65" s="19">
         <v>33.146718739999997</v>
       </c>
-      <c r="S64" s="20">
+      <c r="S65" s="20">
         <v>0.25717912999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="11">
+    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="11">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <f t="shared" si="10"/>
         <v>10838.533316456946</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E66" s="14">
         <v>3989.0247625000002</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F66" s="14">
         <v>5227.3044649569474</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G66" s="14">
         <v>1164.59097</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H66" s="14">
         <v>195.326954</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I66" s="14">
         <v>192.162305</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J66" s="14">
         <v>55.761529999999993</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K66" s="14">
         <v>14.36233</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L66" s="13">
         <f t="shared" si="11"/>
         <v>7720.3875207885012</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M66" s="14">
         <v>2719.9630072755008</v>
       </c>
-      <c r="N65" s="14">
+      <c r="N66" s="14">
         <v>4308.5178526390009</v>
       </c>
-      <c r="O65" s="14">
+      <c r="O66" s="14">
         <v>550.02743308999959</v>
       </c>
-      <c r="P65" s="14">
+      <c r="P66" s="14">
         <v>7.8376115140000007</v>
       </c>
-      <c r="Q65" s="14">
+      <c r="Q66" s="14">
         <v>49.157905969999987</v>
       </c>
-      <c r="R65" s="14">
+      <c r="R66" s="14">
         <v>84.630515320000001</v>
       </c>
-      <c r="S65" s="15">
+      <c r="S66" s="15">
         <v>0.25319498000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="16">
+    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="16">
         <v>2020</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C67" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D67" s="18">
         <f t="shared" si="10"/>
         <v>10299.350069510732</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E67" s="19">
         <v>3823.384485499997</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F67" s="19">
         <v>4951.899973010738</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G67" s="19">
         <v>1126.6304699999989</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H67" s="19">
         <v>155.82070999999999</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I67" s="19">
         <v>189.46652100000011</v>
       </c>
-      <c r="J66" s="19">
+      <c r="J67" s="19">
         <v>42.813149999999993</v>
       </c>
-      <c r="K66" s="19">
+      <c r="K67" s="19">
         <v>9.3347600000000028</v>
       </c>
-      <c r="L66" s="18">
+      <c r="L67" s="18">
         <f t="shared" si="11"/>
         <v>7398.4236104454985</v>
       </c>
-      <c r="M66" s="19">
+      <c r="M67" s="19">
         <v>2611.3807745675008</v>
       </c>
-      <c r="N66" s="19">
+      <c r="N67" s="19">
         <v>4099.994935206998</v>
       </c>
-      <c r="O66" s="19">
+      <c r="O67" s="19">
         <v>576.65962569999999</v>
       </c>
-      <c r="P66" s="19">
+      <c r="P67" s="19">
         <v>5.8101744709999998</v>
       </c>
-      <c r="Q66" s="19">
+      <c r="Q67" s="19">
         <v>48.975136419999998</v>
       </c>
-      <c r="R66" s="19">
+      <c r="R67" s="19">
         <v>55.332080869999999</v>
       </c>
-      <c r="S66" s="20">
+      <c r="S67" s="20">
         <v>0.2708832100000001</v>
       </c>
     </row>
-    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="21">
+    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="21">
         <v>2020</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C68" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D68" s="23">
         <f t="shared" si="10"/>
         <v>10271.035696436747</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E68" s="24">
         <v>3815.537451499998</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F68" s="24">
         <v>4795.4483429367501</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G68" s="24">
         <v>1231.876279999999</v>
       </c>
-      <c r="H67" s="24">
+      <c r="H68" s="24">
         <v>149.16394</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I68" s="24">
         <v>225.18540200000001</v>
       </c>
-      <c r="J67" s="24">
+      <c r="J68" s="24">
         <v>42.674029999999988</v>
       </c>
-      <c r="K67" s="24">
+      <c r="K68" s="24">
         <v>11.15025</v>
       </c>
-      <c r="L67" s="23">
+      <c r="L68" s="23">
         <f t="shared" si="11"/>
         <v>7185.7383871704087</v>
       </c>
-      <c r="M67" s="24">
+      <c r="M68" s="24">
         <v>2557.950665571791</v>
       </c>
-      <c r="N67" s="24">
+      <c r="N68" s="24">
         <v>3902.6936190776169</v>
       </c>
-      <c r="O67" s="24">
+      <c r="O68" s="24">
         <v>613.68125601999952</v>
       </c>
-      <c r="P67" s="24">
+      <c r="P68" s="24">
         <v>5.5450976610000007</v>
       </c>
-      <c r="Q67" s="24">
+      <c r="Q68" s="24">
         <v>54.17302995</v>
       </c>
-      <c r="R67" s="24">
+      <c r="R68" s="24">
         <v>51.401263659999998</v>
       </c>
-      <c r="S67" s="25">
+      <c r="S68" s="25">
         <v>0.29345523000000012</v>
       </c>
     </row>
-    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="26">
+    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="26">
         <v>2019</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C69" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="28">
+      <c r="D69" s="28">
         <f t="shared" si="10"/>
         <v>10047.312890842448</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E69" s="29">
         <v>3660.8761419999978</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F69" s="29">
         <v>4803.7000258424505</v>
       </c>
-      <c r="G68" s="29">
+      <c r="G69" s="29">
         <v>1177.5281500000008</v>
       </c>
-      <c r="H68" s="29">
+      <c r="H69" s="29">
         <v>122.89328999999999</v>
       </c>
-      <c r="I68" s="29">
+      <c r="I69" s="29">
         <v>230.92350300000001</v>
       </c>
-      <c r="J68" s="29">
+      <c r="J69" s="29">
         <v>42.637639999999998</v>
       </c>
-      <c r="K68" s="29">
+      <c r="K69" s="29">
         <v>8.7541399999999996</v>
       </c>
-      <c r="L68" s="28">
+      <c r="L69" s="28">
         <f t="shared" si="11"/>
         <v>7283.4758425855061</v>
       </c>
-      <c r="M68" s="29">
+      <c r="M69" s="29">
         <v>2545.6933826471468</v>
       </c>
-      <c r="N68" s="29">
+      <c r="N69" s="29">
         <v>4050.2897667273596</v>
       </c>
-      <c r="O68" s="29">
+      <c r="O69" s="29">
         <v>573.5496261799999</v>
       </c>
-      <c r="P68" s="29">
+      <c r="P69" s="29">
         <v>4.2298997729999996</v>
       </c>
-      <c r="Q68" s="29">
+      <c r="Q69" s="29">
         <v>56.884561087999998</v>
       </c>
-      <c r="R68" s="29">
+      <c r="R69" s="29">
         <v>52.609621790000006</v>
       </c>
-      <c r="S68" s="30">
+      <c r="S69" s="30">
         <v>0.21898438000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="11">
+    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <f t="shared" si="10"/>
         <v>10280.781962591729</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E70" s="14">
         <v>3610.9266754999981</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F70" s="14">
         <v>5041.7983650917313</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="14">
         <v>1236.3706200000001</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H70" s="14">
         <v>119.94541900000002</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I70" s="14">
         <v>216.296423</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J70" s="14">
         <v>44.749820000000007</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K70" s="14">
         <v>10.694639999999998</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L70" s="13">
         <f t="shared" si="11"/>
         <v>7555.8940235339123</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M70" s="14">
         <v>2480.4706212095998</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N70" s="14">
         <v>4344.3803465193132</v>
       </c>
-      <c r="O69" s="14">
+      <c r="O70" s="14">
         <v>612.67386856000019</v>
       </c>
-      <c r="P69" s="14">
+      <c r="P70" s="14">
         <v>4.0122463450000003</v>
       </c>
-      <c r="Q69" s="14">
+      <c r="Q70" s="14">
         <v>58.796987859999994</v>
       </c>
-      <c r="R69" s="14">
+      <c r="R70" s="14">
         <v>55.348814779999998</v>
       </c>
-      <c r="S69" s="15">
+      <c r="S70" s="15">
         <v>0.21113825999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="16">
+    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="16">
         <v>2019</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C71" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D71" s="18">
         <f t="shared" si="10"/>
         <v>10705.327866000001</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E71" s="19">
         <v>3801.481272</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F71" s="19">
         <v>5236.960086</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G71" s="19">
         <v>1235.93461</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H71" s="19">
         <v>160.86355499999999</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I71" s="19">
         <v>213.47005300000001</v>
       </c>
-      <c r="J70" s="19">
+      <c r="J71" s="19">
         <v>45.65587</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K71" s="19">
         <v>10.96242</v>
       </c>
-      <c r="L70" s="18">
+      <c r="L71" s="18">
         <f t="shared" si="11"/>
         <v>7564.1221808391301</v>
       </c>
-      <c r="M70" s="19">
+      <c r="M71" s="19">
         <v>2532.7762513215766</v>
       </c>
-      <c r="N70" s="19">
+      <c r="N71" s="19">
         <v>4297.3858559405544</v>
       </c>
-      <c r="O70" s="19">
+      <c r="O71" s="19">
         <v>606.66118932999996</v>
       </c>
-      <c r="P70" s="19">
+      <c r="P71" s="19">
         <v>5.7111421819999997</v>
       </c>
-      <c r="Q70" s="19">
+      <c r="Q71" s="19">
         <v>64.496729185000007</v>
       </c>
-      <c r="R70" s="19">
+      <c r="R71" s="19">
         <v>56.887522270000005</v>
       </c>
-      <c r="S70" s="20">
+      <c r="S71" s="20">
         <v>0.20349060999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="11">
+    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <f t="shared" si="10"/>
         <v>10313.251420927023</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E72" s="14">
         <v>3763.4243204999998</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F72" s="14">
         <v>4794.4036324270237</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G72" s="14">
         <v>1259.9243900000008</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H72" s="14">
         <v>164.26299700000001</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I72" s="14">
         <v>251.636821</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J72" s="14">
         <v>66.981439999999992</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K72" s="14">
         <v>12.61782</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L72" s="13">
         <f t="shared" si="11"/>
         <v>7368.223949700222</v>
       </c>
-      <c r="M71" s="14">
+      <c r="M72" s="14">
         <v>2492.5831110034319</v>
       </c>
-      <c r="N71" s="14">
+      <c r="N72" s="14">
         <v>4168.1941198527893</v>
       </c>
-      <c r="O71" s="14">
+      <c r="O72" s="14">
         <v>564.70797957000025</v>
       </c>
-      <c r="P71" s="14">
+      <c r="P72" s="14">
         <v>6.7826120650000004</v>
       </c>
-      <c r="Q71" s="14">
+      <c r="Q72" s="14">
         <v>68.621584789000011</v>
       </c>
-      <c r="R71" s="14">
+      <c r="R72" s="14">
         <v>67.080573079999994</v>
       </c>
-      <c r="S71" s="15">
+      <c r="S72" s="15">
         <v>0.25396934000000004</v>
       </c>
     </row>
-    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="16">
+    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="16">
         <v>2019</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C73" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D73" s="18">
         <f t="shared" si="10"/>
         <v>11096.380692382061</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E73" s="19">
         <v>3917.8476439999995</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F73" s="19">
         <v>5305.3281943820612</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G73" s="19">
         <v>1265.0673000000011</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H73" s="19">
         <v>254.105448</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I73" s="19">
         <v>282.87777699999998</v>
       </c>
-      <c r="J72" s="19">
+      <c r="J73" s="19">
         <v>52.912410000000001</v>
       </c>
-      <c r="K72" s="19">
+      <c r="K73" s="19">
         <v>18.241918999999999</v>
       </c>
-      <c r="L72" s="18">
+      <c r="L73" s="18">
         <f t="shared" si="11"/>
         <v>7875.1347427823239</v>
       </c>
-      <c r="M72" s="19">
+      <c r="M73" s="19">
         <v>2623.4929048545905</v>
       </c>
-      <c r="N72" s="19">
+      <c r="N73" s="19">
         <v>4528.0558628127355</v>
       </c>
-      <c r="O72" s="19">
+      <c r="O73" s="19">
         <v>599.40095962999965</v>
       </c>
-      <c r="P72" s="19">
+      <c r="P73" s="19">
         <v>7.1929457959999992</v>
       </c>
-      <c r="Q72" s="19">
+      <c r="Q73" s="19">
         <v>67.383048192999993</v>
       </c>
-      <c r="R72" s="19">
+      <c r="R73" s="19">
         <v>49.255862180000001</v>
       </c>
-      <c r="S72" s="20">
+      <c r="S73" s="20">
         <v>0.353159316</v>
       </c>
     </row>
-    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="11">
+    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <f t="shared" si="10"/>
         <v>11150.650438969102</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E74" s="14">
         <v>3873.3662050000003</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F74" s="14">
         <v>5476.5920749691022</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="14">
         <v>1295.4921899999999</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H74" s="14">
         <v>130.167182</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I74" s="14">
         <v>270.20667400000008</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J74" s="14">
         <v>95.357079999999996</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K74" s="14">
         <v>9.4690329999999996</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L74" s="13">
         <f t="shared" si="11"/>
         <v>8143.3902304466164</v>
       </c>
-      <c r="M73" s="14">
+      <c r="M74" s="14">
         <v>2699.0426404251648</v>
       </c>
-      <c r="N73" s="14">
+      <c r="N74" s="14">
         <v>4690.7340326165104</v>
       </c>
-      <c r="O73" s="14">
+      <c r="O74" s="14">
         <v>626.75042356999995</v>
       </c>
-      <c r="P73" s="14">
+      <c r="P74" s="14">
         <v>4.2158850049414749</v>
       </c>
-      <c r="Q73" s="14">
+      <c r="Q74" s="14">
         <v>69.891604407999992</v>
       </c>
-      <c r="R73" s="14">
+      <c r="R74" s="14">
         <v>52.570641740000006</v>
       </c>
-      <c r="S73" s="15">
+      <c r="S74" s="15">
         <v>0.18500268199999997</v>
       </c>
     </row>
-    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="16">
+    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="16">
         <v>2019</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C75" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D75" s="18">
         <f t="shared" si="10"/>
         <v>10374.818673051463</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E75" s="19">
         <v>3549.9224370000029</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F75" s="19">
         <v>5071.1049410514588</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G75" s="19">
         <v>1261.1353490000001</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H75" s="19">
         <v>189.70297400000001</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I75" s="19">
         <v>241.36934199999999</v>
       </c>
-      <c r="J74" s="19">
+      <c r="J75" s="19">
         <v>51.38608</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K75" s="19">
         <v>10.197550000000003</v>
       </c>
-      <c r="L74" s="18">
+      <c r="L75" s="18">
         <f t="shared" si="11"/>
         <v>7532.8116285687038</v>
       </c>
-      <c r="M74" s="19">
+      <c r="M75" s="19">
         <v>2498.5873912253655</v>
       </c>
-      <c r="N74" s="19">
+      <c r="N75" s="19">
         <v>4294.5408771924649</v>
       </c>
-      <c r="O74" s="19">
+      <c r="O75" s="19">
         <v>618.46245641899986</v>
       </c>
-      <c r="P74" s="19">
+      <c r="P75" s="19">
         <v>7.1837945668734235</v>
       </c>
-      <c r="Q74" s="19">
+      <c r="Q75" s="19">
         <v>67.283344745000008</v>
       </c>
-      <c r="R74" s="19">
+      <c r="R75" s="19">
         <v>46.514204849999999</v>
       </c>
-      <c r="S74" s="20">
+      <c r="S75" s="20">
         <v>0.23955957</v>
       </c>
     </row>
-    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="11">
+    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <f t="shared" si="10"/>
         <v>10971.576587143792</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E76" s="14">
         <v>3859.9412885000029</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F76" s="14">
         <v>5135.6499426437886</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="14">
         <v>1398.7275000000011</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H76" s="14">
         <v>201.93910199999996</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I76" s="14">
         <v>308.40207399999997</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J76" s="14">
         <v>52.276800000000001</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K76" s="14">
         <v>14.63988</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L76" s="13">
         <f t="shared" si="11"/>
         <v>7918.5192805454762</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M76" s="14">
         <v>2715.5986838884046</v>
       </c>
-      <c r="N75" s="14">
+      <c r="N76" s="14">
         <v>4370.5287118188699</v>
       </c>
-      <c r="O75" s="14">
+      <c r="O76" s="14">
         <v>688.65007213000047</v>
       </c>
-      <c r="P75" s="14">
+      <c r="P76" s="14">
         <v>6.9957881702000009</v>
       </c>
-      <c r="Q75" s="14">
+      <c r="Q76" s="14">
         <v>77.028830357999993</v>
       </c>
-      <c r="R75" s="14">
+      <c r="R76" s="14">
         <v>59.42133875999999</v>
       </c>
-      <c r="S75" s="15">
+      <c r="S76" s="15">
         <v>0.29585541999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="16">
+    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="16">
         <v>2019</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C77" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D77" s="18">
         <f t="shared" si="10"/>
         <v>10534.153393500883</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E77" s="19">
         <v>3675.3372790000017</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F77" s="19">
         <v>5077.1043255008817</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G77" s="19">
         <v>1229.5152699999999</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H77" s="19">
         <v>205.91515200000003</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I77" s="19">
         <v>272.06735700000002</v>
       </c>
-      <c r="J76" s="19">
+      <c r="J77" s="19">
         <v>57.111829999999998</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K77" s="19">
         <v>17.102179999999997</v>
       </c>
-      <c r="L76" s="18">
+      <c r="L77" s="18">
         <f t="shared" si="11"/>
         <v>7390.6301600856887</v>
       </c>
-      <c r="M76" s="19">
+      <c r="M77" s="19">
         <v>2482.4826125118411</v>
       </c>
-      <c r="N76" s="19">
+      <c r="N77" s="19">
         <v>4183.7452393018466</v>
       </c>
-      <c r="O76" s="19">
+      <c r="O77" s="19">
         <v>594.52454974000057</v>
       </c>
-      <c r="P76" s="19">
+      <c r="P77" s="19">
         <v>6.8929467899999999</v>
       </c>
-      <c r="Q76" s="19">
+      <c r="Q77" s="19">
         <v>61.99332402200001</v>
       </c>
-      <c r="R76" s="19">
+      <c r="R77" s="19">
         <v>60.632588310000003</v>
       </c>
-      <c r="S76" s="20">
+      <c r="S77" s="20">
         <v>0.35889941000000009</v>
       </c>
     </row>
-    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="11">
+    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="11">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <f t="shared" si="10"/>
         <v>10581.052353198915</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E78" s="14">
         <v>3752.7021304999998</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F78" s="14">
         <v>5042.9410756989164</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="14">
         <v>1226.6793299999995</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H78" s="14">
         <v>227.34326400000003</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I78" s="14">
         <v>273.29974500000003</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J78" s="14">
         <v>46.615569999999991</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K78" s="14">
         <v>11.471238</v>
       </c>
-      <c r="L77" s="13">
+      <c r="L78" s="13">
         <f t="shared" si="11"/>
         <v>7316.8442337622519</v>
       </c>
-      <c r="M77" s="14">
+      <c r="M78" s="14">
         <v>2584.8546054208359</v>
       </c>
-      <c r="N77" s="14">
+      <c r="N78" s="14">
         <v>3971.3774654550916</v>
       </c>
-      <c r="O77" s="14">
+      <c r="O78" s="14">
         <v>628.3360908439995</v>
       </c>
-      <c r="P77" s="14">
+      <c r="P78" s="14">
         <v>8.5075610303260056</v>
       </c>
-      <c r="Q77" s="14">
+      <c r="Q78" s="14">
         <v>68.783462650000004</v>
       </c>
-      <c r="R77" s="14">
+      <c r="R78" s="14">
         <v>54.71253209999999</v>
       </c>
-      <c r="S77" s="15">
+      <c r="S78" s="15">
         <v>0.27251626200000001</v>
       </c>
     </row>
-    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="16">
+    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="16">
         <v>2019</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C79" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D79" s="18">
         <f t="shared" si="10"/>
         <v>9241.6055505618933</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E79" s="19">
         <v>3275.5849539999986</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F79" s="19">
         <v>4370.160919561893</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G79" s="19">
         <v>1126.2545300000011</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H79" s="19">
         <v>152.85569699999999</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I79" s="19">
         <v>259.99696999999998</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J79" s="19">
         <v>46.582780000000007</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K79" s="19">
         <v>10.169700000000002</v>
       </c>
-      <c r="L78" s="18">
+      <c r="L79" s="18">
         <f t="shared" si="11"/>
         <v>6363.5933863084483</v>
       </c>
-      <c r="M78" s="19">
+      <c r="M79" s="19">
         <v>2189.6104131855614</v>
       </c>
-      <c r="N78" s="19">
+      <c r="N79" s="19">
         <v>3499.6909835169613</v>
       </c>
-      <c r="O78" s="19">
+      <c r="O79" s="19">
         <v>547.40245832199946</v>
       </c>
-      <c r="P78" s="19">
+      <c r="P79" s="19">
         <v>5.1177584499260034</v>
       </c>
-      <c r="Q78" s="19">
+      <c r="Q79" s="19">
         <v>63.306209223999993</v>
       </c>
-      <c r="R78" s="19">
+      <c r="R79" s="19">
         <v>58.28962554000001</v>
       </c>
-      <c r="S78" s="20">
+      <c r="S79" s="20">
         <v>0.17593807</v>
       </c>
     </row>
-    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="21">
+    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="21">
         <v>2019</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C80" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D80" s="23">
         <f t="shared" si="10"/>
         <v>9892.1436970006562</v>
       </c>
-      <c r="E79" s="24">
+      <c r="E80" s="24">
         <v>3499.7139435000031</v>
       </c>
-      <c r="F79" s="24">
+      <c r="F80" s="24">
         <v>4546.0874465006518</v>
       </c>
-      <c r="G79" s="24">
+      <c r="G80" s="24">
         <v>1267.5804000000005</v>
       </c>
-      <c r="H79" s="24">
+      <c r="H80" s="24">
         <v>224.06764100000001</v>
       </c>
-      <c r="I79" s="24">
+      <c r="I80" s="24">
         <v>293.47607299999999</v>
       </c>
-      <c r="J79" s="24">
+      <c r="J80" s="24">
         <v>50.833020000000005</v>
       </c>
-      <c r="K79" s="24">
+      <c r="K80" s="24">
         <v>10.385172999999998</v>
       </c>
-      <c r="L79" s="23">
+      <c r="L80" s="23">
         <f t="shared" si="11"/>
         <v>6769.108553604312</v>
       </c>
-      <c r="M79" s="24">
+      <c r="M80" s="24">
         <v>2315.0380047690219</v>
       </c>
-      <c r="N79" s="24">
+      <c r="N80" s="24">
         <v>3695.4581032397491</v>
       </c>
-      <c r="O79" s="24">
+      <c r="O80" s="24">
         <v>592.54793959300025</v>
       </c>
-      <c r="P79" s="24">
+      <c r="P80" s="24">
         <v>8.0988788035407904</v>
       </c>
-      <c r="Q79" s="24">
+      <c r="Q80" s="24">
         <v>68.810378116999999</v>
       </c>
-      <c r="R79" s="24">
+      <c r="R80" s="24">
         <v>88.897206580000002</v>
       </c>
-      <c r="S79" s="25">
+      <c r="S80" s="25">
         <v>0.25804250200000001</v>
       </c>
     </row>
-    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="26">
+    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="26">
         <v>2018</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C81" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="28">
+      <c r="D81" s="28">
         <f t="shared" si="10"/>
         <v>10362</v>
       </c>
-      <c r="E80" s="29">
+      <c r="E81" s="29">
         <v>3606</v>
       </c>
-      <c r="F80" s="29">
+      <c r="F81" s="29">
         <v>4918</v>
       </c>
-      <c r="G80" s="29">
+      <c r="G81" s="29">
         <v>1307</v>
       </c>
-      <c r="H80" s="29">
+      <c r="H81" s="29">
         <v>208</v>
       </c>
-      <c r="I80" s="29">
+      <c r="I81" s="29">
         <v>280</v>
       </c>
-      <c r="J80" s="29">
+      <c r="J81" s="29">
         <v>34</v>
       </c>
-      <c r="K80" s="29">
+      <c r="K81" s="29">
         <v>9</v>
       </c>
-      <c r="L80" s="28">
+      <c r="L81" s="28">
         <f t="shared" si="11"/>
         <v>7145</v>
       </c>
-      <c r="M80" s="29">
+      <c r="M81" s="29">
         <v>2425</v>
       </c>
-      <c r="N80" s="29">
+      <c r="N81" s="29">
         <v>3948</v>
       </c>
-      <c r="O80" s="29">
+      <c r="O81" s="29">
         <v>638</v>
       </c>
-      <c r="P80" s="29">
+      <c r="P81" s="29">
         <v>8</v>
       </c>
-      <c r="Q80" s="29">
+      <c r="Q81" s="29">
         <v>74</v>
       </c>
-      <c r="R80" s="29">
+      <c r="R81" s="29">
         <v>52</v>
       </c>
-      <c r="S80" s="30"/>
-    </row>
-    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="11">
+      <c r="S81" s="30"/>
+    </row>
+    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <f t="shared" si="10"/>
         <v>10847</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E82" s="14">
         <v>3612</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F82" s="14">
         <v>5385</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="14">
         <v>1299</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H82" s="14">
         <v>213</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I82" s="14">
         <v>284</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J82" s="14">
         <v>38</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K82" s="14">
         <v>16</v>
       </c>
-      <c r="L81" s="13">
+      <c r="L82" s="13">
         <f t="shared" si="11"/>
         <v>7655</v>
       </c>
-      <c r="M81" s="14">
+      <c r="M82" s="14">
         <v>2466</v>
       </c>
-      <c r="N81" s="14">
+      <c r="N82" s="14">
         <v>4397</v>
       </c>
-      <c r="O81" s="14">
+      <c r="O82" s="14">
         <v>669</v>
       </c>
-      <c r="P81" s="14">
+      <c r="P82" s="14">
         <v>8</v>
       </c>
-      <c r="Q81" s="14">
+      <c r="Q82" s="14">
         <v>74</v>
       </c>
-      <c r="R81" s="14">
+      <c r="R82" s="14">
         <v>41</v>
       </c>
-      <c r="S81" s="15"/>
-    </row>
-    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="16">
+      <c r="S82" s="15"/>
+    </row>
+    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="16">
         <v>2018</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C83" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D83" s="18">
         <f t="shared" si="10"/>
         <v>10926</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E83" s="19">
         <v>3805</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F83" s="19">
         <v>5324</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G83" s="19">
         <v>1340</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H83" s="19">
         <v>137</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I83" s="19">
         <v>273</v>
       </c>
-      <c r="J82" s="19">
+      <c r="J83" s="19">
         <v>27</v>
       </c>
-      <c r="K82" s="19">
+      <c r="K83" s="19">
         <v>20</v>
       </c>
-      <c r="L82" s="18">
+      <c r="L83" s="18">
         <f t="shared" si="11"/>
         <v>7509</v>
       </c>
-      <c r="M82" s="19">
+      <c r="M83" s="19">
         <v>2604</v>
       </c>
-      <c r="N82" s="19">
+      <c r="N83" s="19">
         <v>4133</v>
       </c>
-      <c r="O82" s="19">
+      <c r="O83" s="19">
         <v>655</v>
       </c>
-      <c r="P82" s="19">
+      <c r="P83" s="19">
         <v>4</v>
       </c>
-      <c r="Q82" s="19">
+      <c r="Q83" s="19">
         <v>72</v>
       </c>
-      <c r="R82" s="19">
+      <c r="R83" s="19">
         <v>41</v>
       </c>
-      <c r="S82" s="20"/>
-    </row>
-    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="11">
+      <c r="S83" s="20"/>
+    </row>
+    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <f t="shared" si="10"/>
         <v>10257</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E84" s="14">
         <v>3485</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F84" s="14">
         <v>4900</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="14">
         <v>1349</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H84" s="14">
         <v>208</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I84" s="14">
         <v>260</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J84" s="14">
         <v>42</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K84" s="14">
         <v>13</v>
       </c>
-      <c r="L83" s="13">
+      <c r="L84" s="13">
         <f t="shared" si="11"/>
         <v>7135</v>
       </c>
-      <c r="M83" s="14">
+      <c r="M84" s="14">
         <v>2350</v>
       </c>
-      <c r="N83" s="14">
+      <c r="N84" s="14">
         <v>4008</v>
       </c>
-      <c r="O83" s="14">
+      <c r="O84" s="14">
         <v>655</v>
       </c>
-      <c r="P83" s="14">
+      <c r="P84" s="14">
         <v>8</v>
       </c>
-      <c r="Q83" s="14">
+      <c r="Q84" s="14">
         <v>63</v>
       </c>
-      <c r="R83" s="14">
+      <c r="R84" s="14">
         <v>51</v>
       </c>
-      <c r="S83" s="15"/>
-    </row>
-    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="16">
+      <c r="S84" s="15"/>
+    </row>
+    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C85" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D85" s="18">
         <f t="shared" si="10"/>
         <v>10917</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E85" s="19">
         <v>3674</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F85" s="19">
         <v>5279</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G85" s="19">
         <v>1420</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H85" s="19">
         <v>210</v>
       </c>
-      <c r="I84" s="19">
+      <c r="I85" s="19">
         <v>270</v>
       </c>
-      <c r="J84" s="19">
+      <c r="J85" s="19">
         <v>45</v>
       </c>
-      <c r="K84" s="19">
+      <c r="K85" s="19">
         <v>19</v>
       </c>
-      <c r="L84" s="18">
+      <c r="L85" s="18">
         <f t="shared" si="11"/>
         <v>7620</v>
       </c>
-      <c r="M84" s="19">
+      <c r="M85" s="19">
         <v>2514</v>
       </c>
-      <c r="N84" s="19">
+      <c r="N85" s="19">
         <v>4292</v>
       </c>
-      <c r="O84" s="19">
+      <c r="O85" s="19">
         <v>680</v>
       </c>
-      <c r="P84" s="19">
+      <c r="P85" s="19">
         <v>8</v>
       </c>
-      <c r="Q84" s="19">
+      <c r="Q85" s="19">
         <v>69</v>
       </c>
-      <c r="R84" s="19">
+      <c r="R85" s="19">
         <v>57</v>
       </c>
-      <c r="S84" s="20"/>
-    </row>
-    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="11">
+      <c r="S85" s="20"/>
+    </row>
+    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="13">
         <f t="shared" si="10"/>
         <v>11147</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E86" s="14">
         <v>3756</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F86" s="14">
         <v>5273</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="14">
         <v>1541</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H86" s="14">
         <v>217</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I86" s="14">
         <v>308</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J86" s="14">
         <v>42</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K86" s="14">
         <v>10</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L86" s="13">
         <f t="shared" si="11"/>
         <v>7610</v>
       </c>
-      <c r="M85" s="14">
+      <c r="M86" s="14">
         <v>2530</v>
       </c>
-      <c r="N85" s="14">
+      <c r="N86" s="14">
         <v>4228</v>
       </c>
-      <c r="O85" s="14">
+      <c r="O86" s="14">
         <v>716</v>
       </c>
-      <c r="P85" s="14">
+      <c r="P86" s="14">
         <v>8</v>
       </c>
-      <c r="Q85" s="14">
+      <c r="Q86" s="14">
         <v>77</v>
       </c>
-      <c r="R85" s="14">
+      <c r="R86" s="14">
         <v>51</v>
       </c>
-      <c r="S85" s="15"/>
-    </row>
-    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="16">
+      <c r="S86" s="15"/>
+    </row>
+    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="16">
         <v>2018</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C87" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D87" s="18">
         <f t="shared" si="10"/>
         <v>10948</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E87" s="19">
         <v>3657</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F87" s="19">
         <v>5338</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G87" s="19">
         <v>1355</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H87" s="19">
         <v>247</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I87" s="19">
         <v>283</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J87" s="19">
         <v>56</v>
       </c>
-      <c r="K86" s="19">
+      <c r="K87" s="19">
         <v>12</v>
       </c>
-      <c r="L86" s="18">
+      <c r="L87" s="18">
         <f t="shared" si="11"/>
         <v>7627</v>
       </c>
-      <c r="M86" s="19">
+      <c r="M87" s="19">
         <v>2524</v>
       </c>
-      <c r="N86" s="19">
+      <c r="N87" s="19">
         <v>4291</v>
       </c>
-      <c r="O86" s="19">
+      <c r="O87" s="19">
         <v>673</v>
       </c>
-      <c r="P86" s="19">
+      <c r="P87" s="19">
         <v>9</v>
       </c>
-      <c r="Q86" s="19">
+      <c r="Q87" s="19">
         <v>74</v>
       </c>
-      <c r="R86" s="19">
+      <c r="R87" s="19">
         <v>56</v>
       </c>
-      <c r="S86" s="20"/>
-    </row>
-    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="11">
+      <c r="S87" s="20"/>
+    </row>
+    <row r="88" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="13">
         <f t="shared" si="10"/>
         <v>11358</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E88" s="14">
         <v>3901</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F88" s="14">
         <v>5805</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="14">
         <v>1068</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H88" s="14">
         <v>198</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I88" s="14">
         <v>302</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J88" s="14">
         <v>64</v>
       </c>
-      <c r="K87" s="14">
+      <c r="K88" s="14">
         <v>20</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L88" s="13">
         <f t="shared" si="11"/>
         <v>7899</v>
       </c>
-      <c r="M87" s="14">
+      <c r="M88" s="14">
         <v>2695</v>
       </c>
-      <c r="N87" s="14">
+      <c r="N88" s="14">
         <v>4507</v>
       </c>
-      <c r="O87" s="14">
+      <c r="O88" s="14">
         <v>556</v>
       </c>
-      <c r="P87" s="14">
+      <c r="P88" s="14">
         <v>8</v>
       </c>
-      <c r="Q87" s="14">
+      <c r="Q88" s="14">
         <v>78</v>
       </c>
-      <c r="R87" s="14">
+      <c r="R88" s="14">
         <v>55</v>
       </c>
-      <c r="S87" s="15"/>
-    </row>
-    <row r="88" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="16">
+      <c r="S88" s="15"/>
+    </row>
+    <row r="89" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="16">
         <v>2018</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C89" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D89" s="18">
         <f t="shared" si="10"/>
         <v>10769</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E89" s="19">
         <v>3736</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F89" s="19">
         <v>5158</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G89" s="19">
         <v>1304</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H89" s="19">
         <v>210</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I89" s="19">
         <v>309</v>
       </c>
-      <c r="J88" s="19">
+      <c r="J89" s="19">
         <v>38</v>
       </c>
-      <c r="K88" s="19">
+      <c r="K89" s="19">
         <v>14</v>
       </c>
-      <c r="L88" s="18">
+      <c r="L89" s="18">
         <f t="shared" si="11"/>
         <v>7284</v>
       </c>
-      <c r="M88" s="19">
+      <c r="M89" s="19">
         <v>2592</v>
       </c>
-      <c r="N88" s="19">
+      <c r="N89" s="19">
         <v>3860</v>
       </c>
-      <c r="O88" s="19">
+      <c r="O89" s="19">
         <v>701</v>
       </c>
-      <c r="P88" s="19">
+      <c r="P89" s="19">
         <v>8</v>
       </c>
-      <c r="Q88" s="19">
+      <c r="Q89" s="19">
         <v>73</v>
       </c>
-      <c r="R88" s="19">
+      <c r="R89" s="19">
         <v>50</v>
       </c>
-      <c r="S88" s="20"/>
-    </row>
-    <row r="89" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="11">
+      <c r="S89" s="20"/>
+    </row>
+    <row r="90" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D90" s="13">
         <f t="shared" si="10"/>
         <v>10595</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E90" s="14">
         <v>3510</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F90" s="14">
         <v>5158</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G90" s="14">
         <v>1332</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H90" s="14">
         <v>223</v>
       </c>
-      <c r="I89" s="14">
+      <c r="I90" s="14">
         <v>307</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J90" s="14">
         <v>50</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K90" s="14">
         <v>15</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L90" s="13">
         <f t="shared" si="11"/>
         <v>7079</v>
       </c>
-      <c r="M89" s="14">
+      <c r="M90" s="14">
         <v>2512</v>
       </c>
-      <c r="N89" s="14">
+      <c r="N90" s="14">
         <v>3719</v>
       </c>
-      <c r="O89" s="14">
+      <c r="O90" s="14">
         <v>718</v>
       </c>
-      <c r="P89" s="14">
+      <c r="P90" s="14">
         <v>9</v>
       </c>
-      <c r="Q89" s="14">
+      <c r="Q90" s="14">
         <v>68</v>
       </c>
-      <c r="R89" s="14">
+      <c r="R90" s="14">
         <v>53</v>
       </c>
-      <c r="S89" s="15"/>
-    </row>
-    <row r="90" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="16">
+      <c r="S90" s="15"/>
+    </row>
+    <row r="91" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="16">
         <v>2018</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C91" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D91" s="18">
         <f t="shared" si="10"/>
         <v>9439</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E91" s="19">
         <v>3213</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F91" s="19">
         <v>4478</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G91" s="19">
         <v>1214</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H91" s="19">
         <v>203</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I91" s="19">
         <v>273</v>
       </c>
-      <c r="J90" s="19">
+      <c r="J91" s="19">
         <v>50</v>
       </c>
-      <c r="K90" s="19">
+      <c r="K91" s="19">
         <v>8</v>
       </c>
-      <c r="L90" s="18">
+      <c r="L91" s="18">
         <f t="shared" si="11"/>
         <v>6237</v>
       </c>
-      <c r="M90" s="19">
+      <c r="M91" s="19">
         <v>2209</v>
       </c>
-      <c r="N90" s="19">
+      <c r="N91" s="19">
         <v>3275</v>
       </c>
-      <c r="O90" s="19">
+      <c r="O91" s="19">
         <v>646</v>
       </c>
-      <c r="P90" s="19">
+      <c r="P91" s="19">
         <v>8</v>
       </c>
-      <c r="Q90" s="19">
+      <c r="Q91" s="19">
         <v>60</v>
       </c>
-      <c r="R90" s="19">
+      <c r="R91" s="19">
         <v>39</v>
       </c>
-      <c r="S90" s="20"/>
-    </row>
-    <row r="91" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="21">
+      <c r="S91" s="20"/>
+    </row>
+    <row r="92" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="21">
         <v>2018</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C92" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D91" s="23">
+      <c r="D92" s="23">
         <f t="shared" si="10"/>
         <v>10479</v>
       </c>
-      <c r="E91" s="24">
+      <c r="E92" s="24">
         <v>3653</v>
       </c>
-      <c r="F91" s="24">
+      <c r="F92" s="24">
         <v>4773</v>
       </c>
-      <c r="G91" s="24">
+      <c r="G92" s="24">
         <v>1398</v>
       </c>
-      <c r="H91" s="24">
+      <c r="H92" s="24">
         <v>287</v>
       </c>
-      <c r="I91" s="24">
+      <c r="I92" s="24">
         <v>312</v>
       </c>
-      <c r="J91" s="24">
+      <c r="J92" s="24">
         <v>47</v>
       </c>
-      <c r="K91" s="24">
+      <c r="K92" s="24">
         <v>9</v>
       </c>
-      <c r="L91" s="23">
+      <c r="L92" s="23">
         <f t="shared" si="11"/>
         <v>7153</v>
       </c>
-      <c r="M91" s="24">
+      <c r="M92" s="24">
         <v>2519</v>
       </c>
-      <c r="N91" s="24">
+      <c r="N92" s="24">
         <v>3737</v>
       </c>
-      <c r="O91" s="24">
+      <c r="O92" s="24">
         <v>754</v>
       </c>
-      <c r="P91" s="24">
+      <c r="P92" s="24">
         <v>11</v>
       </c>
-      <c r="Q91" s="24">
+      <c r="Q92" s="24">
         <v>66</v>
       </c>
-      <c r="R91" s="24">
+      <c r="R92" s="24">
         <v>65</v>
       </c>
-      <c r="S91" s="25">
+      <c r="S92" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B92" s="31" t="s">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B93" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B93" s="2" t="s">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S93" s="32"/>
+      <c r="S94" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1FEC91-5A92-4B9F-94C2-E5A165CB2EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF724508-819C-42A6-84E9-8F402A937F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="36">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -837,8 +837,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S92" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
-  <autoFilter ref="B5:S92" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S94" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="B5:S94" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1094,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:S94"/>
+  <dimension ref="B2:S96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1223,57 +1223,57 @@
         <v>2025</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="13">
         <f>SUM(E6:K6)</f>
-        <v>10927.892002000011</v>
+        <v>10927.750393000006</v>
       </c>
       <c r="E6" s="14">
-        <v>4435.7745550000018</v>
+        <v>4257.8835799999961</v>
       </c>
       <c r="F6" s="14">
-        <v>5024.5415970000076</v>
+        <v>5169.591525000008</v>
       </c>
       <c r="G6" s="14">
-        <v>1090.9339200000015</v>
+        <v>1201.5528810000008</v>
       </c>
       <c r="H6" s="14">
-        <v>229.21633600000001</v>
+        <v>175.46551399999998</v>
       </c>
       <c r="I6" s="14">
-        <v>99.205000999999484</v>
+        <v>92.652422999999601</v>
       </c>
       <c r="J6" s="14">
-        <v>30.011460000000003</v>
+        <v>14.85238</v>
       </c>
       <c r="K6" s="14">
-        <v>18.209133000000001</v>
+        <v>15.752090000000003</v>
       </c>
       <c r="L6" s="13">
-        <f t="shared" ref="L6:L8" si="0">SUM(M6:S6)</f>
-        <v>7725.0347721108756</v>
+        <f>SUM(M6:S6)</f>
+        <v>7886.1075193430061</v>
       </c>
       <c r="M6" s="14">
-        <v>3016.1032193044975</v>
+        <v>2789.2510411525</v>
       </c>
       <c r="N6" s="14">
-        <v>4078.6155363089974</v>
+        <v>4399.4729652030073</v>
       </c>
       <c r="O6" s="14">
-        <v>584.30928663000009</v>
+        <v>653.67561044999911</v>
       </c>
       <c r="P6" s="14">
-        <v>7.9584968540000016</v>
+        <v>5.3302675270000002</v>
       </c>
       <c r="Q6" s="14">
-        <v>26.241235341000138</v>
+        <v>24.343588701000126</v>
       </c>
       <c r="R6" s="14">
-        <v>11.55864156738</v>
+        <v>13.848287289499998</v>
       </c>
       <c r="S6" s="15">
-        <v>0.24835610499999999</v>
+        <v>0.18575902</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
@@ -1281,231 +1281,231 @@
         <v>2025</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="18">
+        <f>SUM(E7:K7)</f>
+        <v>10884.204851500006</v>
+      </c>
+      <c r="E7" s="19">
+        <v>4508.7732594999979</v>
+      </c>
+      <c r="F7" s="19">
+        <v>4988.8350200000077</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1056.6947870000006</v>
+      </c>
+      <c r="H7" s="19">
+        <v>199.50949500000007</v>
+      </c>
+      <c r="I7" s="19">
+        <v>101.32985999999948</v>
+      </c>
+      <c r="J7" s="19">
+        <v>9.8657800000000009</v>
+      </c>
+      <c r="K7" s="19">
+        <v>19.196649999999998</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" ref="L6:L10" si="0">SUM(M7:S7)</f>
+        <v>8028.5555226960059</v>
+      </c>
+      <c r="M7" s="19">
+        <v>3020.5069057629985</v>
+      </c>
+      <c r="N7" s="19">
+        <v>4399.1468190690066</v>
+      </c>
+      <c r="O7" s="19">
+        <v>568.08017349999932</v>
+      </c>
+      <c r="P7" s="19">
+        <v>6.9090742859999974</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>25.393515567000151</v>
+      </c>
+      <c r="R7" s="19">
+        <v>8.297448901000001</v>
+      </c>
+      <c r="S7" s="20">
+        <v>0.22158560999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="13">
+        <f>SUM(E8:K8)</f>
+        <v>10927.892002000011</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4435.7745550000018</v>
+      </c>
+      <c r="F8" s="14">
+        <v>5024.5415970000076</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1090.9339200000015</v>
+      </c>
+      <c r="H8" s="14">
+        <v>229.21633600000001</v>
+      </c>
+      <c r="I8" s="14">
+        <v>99.205000999999484</v>
+      </c>
+      <c r="J8" s="14">
+        <v>30.011460000000003</v>
+      </c>
+      <c r="K8" s="14">
+        <v>18.209133000000001</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="0"/>
+        <v>7725.0347721108756</v>
+      </c>
+      <c r="M8" s="14">
+        <v>3016.1032193044975</v>
+      </c>
+      <c r="N8" s="14">
+        <v>4078.6155363089974</v>
+      </c>
+      <c r="O8" s="14">
+        <v>584.30928663000009</v>
+      </c>
+      <c r="P8" s="14">
+        <v>7.9584968540000016</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>26.241235341000138</v>
+      </c>
+      <c r="R8" s="14">
+        <v>11.55864156738</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0.24835610499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="18">
-        <f t="shared" ref="D7:D8" si="1">SUM(E7:K7)</f>
+      <c r="D9" s="18">
+        <f t="shared" ref="D9:D10" si="1">SUM(E9:K9)</f>
         <v>9843.6933180000051</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E9" s="19">
         <v>4031.6968250000018</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F9" s="19">
         <v>4563.1205860000046</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G9" s="19">
         <v>950.4444809999992</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H9" s="19">
         <v>152.39102800000003</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I9" s="19">
         <v>98.085166999999331</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J9" s="19">
         <v>38.523620000000001</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K9" s="19">
         <v>9.4316110000000002</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L9" s="18">
         <f t="shared" si="0"/>
         <v>6953.4096669074952</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M9" s="19">
         <v>2686.275029911501</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N9" s="19">
         <v>3673.5190396059929</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O9" s="19">
         <v>551.47404396000047</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P9" s="19">
         <v>5.4509899860000006</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q9" s="19">
         <v>25.072023331000192</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R9" s="19">
         <v>11.490530379000001</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S9" s="20">
         <v>0.12800973399999999</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="21">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="21">
         <v>2025</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D10" s="23">
         <f t="shared" si="1"/>
         <v>10553.276212499992</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E10" s="24">
         <v>4290.8263595000017</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F10" s="24">
         <v>4842.1234059999906</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G10" s="24">
         <v>1029.4576040000004</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H10" s="24">
         <v>229.21633600000001</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I10" s="24">
         <v>105.83529699999956</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J10" s="24">
         <v>46.891849999999984</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K10" s="24">
         <v>8.9253600000000013</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L10" s="23">
         <f t="shared" si="0"/>
         <v>7654.6706844814944</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M10" s="24">
         <v>2856.3638319094998</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N10" s="24">
         <v>4139.2285466729945</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O10" s="24">
         <v>607.44396194000035</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P10" s="24">
         <v>7.9584968540000016</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q10" s="24">
         <v>26.890831818000201</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R10" s="24">
         <v>16.669521117000002</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S10" s="25">
         <v>0.11549416999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="16">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="18">
-        <f t="shared" ref="D9:D10" si="2">SUM(E9:K9)</f>
-        <v>10531.168920500006</v>
-      </c>
-      <c r="E9" s="19">
-        <v>4403.8653655000062</v>
-      </c>
-      <c r="F9" s="19">
-        <v>4561.0179649999991</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1249.3825690000003</v>
-      </c>
-      <c r="H9" s="19">
-        <v>185.75494600000002</v>
-      </c>
-      <c r="I9" s="19">
-        <v>92.695411999999536</v>
-      </c>
-      <c r="J9" s="19">
-        <v>22.807550000000003</v>
-      </c>
-      <c r="K9" s="19">
-        <v>15.645113000000002</v>
-      </c>
-      <c r="L9" s="18">
-        <f>SUM(M9:S9)</f>
-        <v>7573.5815223644986</v>
-      </c>
-      <c r="M9" s="19">
-        <v>2985.2792777564991</v>
-      </c>
-      <c r="N9" s="19">
-        <v>3977.6579078809991</v>
-      </c>
-      <c r="O9" s="19">
-        <v>564.31985714999962</v>
-      </c>
-      <c r="P9" s="19">
-        <v>6.0120059109999984</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>24.991510190000174</v>
-      </c>
-      <c r="R9" s="19">
-        <v>15.075261706000004</v>
-      </c>
-      <c r="S9" s="20">
-        <v>0.24570176999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="2"/>
-        <v>10293.216345500003</v>
-      </c>
-      <c r="E10" s="14">
-        <v>4074.3531224999974</v>
-      </c>
-      <c r="F10" s="14">
-        <v>4591.2098260000075</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1250.6662779999986</v>
-      </c>
-      <c r="H10" s="14">
-        <v>236.92333399999995</v>
-      </c>
-      <c r="I10" s="14">
-        <v>107.48781899999955</v>
-      </c>
-      <c r="J10" s="14">
-        <v>17.693559999999998</v>
-      </c>
-      <c r="K10" s="14">
-        <v>14.882406000000001</v>
-      </c>
-      <c r="L10" s="13">
-        <f>SUM(M10:S10)</f>
-        <v>7483.7337101601415</v>
-      </c>
-      <c r="M10" s="14">
-        <v>2727.5133536075004</v>
-      </c>
-      <c r="N10" s="14">
-        <v>4141.6578731970003</v>
-      </c>
-      <c r="O10" s="14">
-        <v>563.5016914100006</v>
-      </c>
-      <c r="P10" s="14">
-        <v>8.2360092920000021</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>29.147426476000163</v>
-      </c>
-      <c r="R10" s="14">
-        <v>13.431654407639998</v>
-      </c>
-      <c r="S10" s="15">
-        <v>0.24570176999999996</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
@@ -1513,115 +1513,115 @@
         <v>2024</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="18">
-        <f t="shared" ref="D11:D16" si="3">SUM(E11:K11)</f>
-        <v>10627.751215000002</v>
+        <f t="shared" ref="D11:D12" si="2">SUM(E11:K11)</f>
+        <v>10531.168920500006</v>
       </c>
       <c r="E11" s="19">
-        <v>4621.2502850000001</v>
+        <v>4403.8653655000062</v>
       </c>
       <c r="F11" s="19">
-        <v>4847.8326420000003</v>
+        <v>4561.0179649999991</v>
       </c>
       <c r="G11" s="19">
-        <v>883.41127600000004</v>
+        <v>1249.3825690000003</v>
       </c>
       <c r="H11" s="19">
-        <v>164.42353700000001</v>
+        <v>185.75494600000002</v>
       </c>
       <c r="I11" s="19">
-        <v>86.575890000000001</v>
+        <v>92.695411999999536</v>
       </c>
       <c r="J11" s="19">
-        <v>8.5300799999999999</v>
+        <v>22.807550000000003</v>
       </c>
       <c r="K11" s="19">
-        <v>15.727505000000001</v>
+        <v>15.645113000000002</v>
       </c>
       <c r="L11" s="18">
-        <f t="shared" ref="L11:L13" si="4">SUM(M11:S11)</f>
-        <v>7740.759690927599</v>
+        <f>SUM(M11:S11)</f>
+        <v>7573.5815223644986</v>
       </c>
       <c r="M11" s="19">
-        <v>3074.0600736719998</v>
+        <v>2985.2792777564991</v>
       </c>
       <c r="N11" s="19">
-        <v>4209.4804649380003</v>
+        <v>3977.6579078809991</v>
       </c>
       <c r="O11" s="19">
-        <v>420.6767304</v>
+        <v>564.31985714999962</v>
       </c>
       <c r="P11" s="19">
-        <v>5.6841813920000002</v>
+        <v>6.0120059109999984</v>
       </c>
       <c r="Q11" s="19">
-        <v>27.009476482</v>
+        <v>24.991510190000174</v>
       </c>
       <c r="R11" s="19">
-        <v>3.5642458335999998</v>
+        <v>15.075261706000004</v>
       </c>
       <c r="S11" s="20">
-        <v>0.28451820999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.24570176999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
         <v>2024</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="13">
-        <f t="shared" si="3"/>
-        <v>10170.542102500001</v>
+        <f t="shared" si="2"/>
+        <v>10293.216345500003</v>
       </c>
       <c r="E12" s="14">
-        <v>4225.2215324999997</v>
+        <v>4074.3531224999974</v>
       </c>
       <c r="F12" s="14">
-        <v>4638.9146110000001</v>
+        <v>4591.2098260000075</v>
       </c>
       <c r="G12" s="14">
-        <v>1003.004611</v>
+        <v>1250.6662779999986</v>
       </c>
       <c r="H12" s="14">
-        <v>176.79925700000001</v>
+        <v>236.92333399999995</v>
       </c>
       <c r="I12" s="14">
-        <v>101.900481</v>
+        <v>107.48781899999955</v>
       </c>
       <c r="J12" s="14">
-        <v>8.8647200000000002</v>
+        <v>17.693559999999998</v>
       </c>
       <c r="K12" s="14">
-        <v>15.83689</v>
+        <v>14.882406000000001</v>
       </c>
       <c r="L12" s="13">
-        <f t="shared" si="4"/>
-        <v>7310.5741896424306</v>
+        <f>SUM(M12:S12)</f>
+        <v>7483.7337101601415</v>
       </c>
       <c r="M12" s="14">
-        <v>2773.4403533764998</v>
+        <v>2727.5133536075004</v>
       </c>
       <c r="N12" s="14">
-        <v>3963.623746364</v>
+        <v>4141.6578731970003</v>
       </c>
       <c r="O12" s="14">
-        <v>532.89884495000001</v>
+        <v>563.5016914100006</v>
       </c>
       <c r="P12" s="14">
-        <v>5.771046664</v>
+        <v>8.2360092920000021</v>
       </c>
       <c r="Q12" s="14">
-        <v>25.803035709</v>
+        <v>29.147426476000163</v>
       </c>
       <c r="R12" s="14">
-        <v>8.7877683089299996</v>
+        <v>13.431654407639998</v>
       </c>
       <c r="S12" s="15">
-        <v>0.24939427</v>
+        <v>0.24570176999999996</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
@@ -1629,115 +1629,115 @@
         <v>2024</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D13" s="18">
-        <f t="shared" si="3"/>
-        <v>11251.137121</v>
+        <f t="shared" ref="D13:D18" si="3">SUM(E13:K13)</f>
+        <v>10627.751215000002</v>
       </c>
       <c r="E13" s="19">
-        <v>4380.0285290000002</v>
+        <v>4621.2502850000001</v>
       </c>
       <c r="F13" s="19">
-        <v>5224.974502</v>
+        <v>4847.8326420000003</v>
       </c>
       <c r="G13" s="19">
-        <v>1317.7201729999999</v>
+        <v>883.41127600000004</v>
       </c>
       <c r="H13" s="19">
-        <v>177.187535</v>
+        <v>164.42353700000001</v>
       </c>
       <c r="I13" s="19">
-        <v>105.991382</v>
+        <v>86.575890000000001</v>
       </c>
       <c r="J13" s="19">
-        <v>30.662199999999999</v>
+        <v>8.5300799999999999</v>
       </c>
       <c r="K13" s="19">
-        <v>14.572800000000001</v>
+        <v>15.727505000000001</v>
       </c>
       <c r="L13" s="18">
-        <f t="shared" si="4"/>
-        <v>8231.3888027003995</v>
+        <f t="shared" ref="L13:L15" si="4">SUM(M13:S13)</f>
+        <v>7740.759690927599</v>
       </c>
       <c r="M13" s="19">
-        <v>2880.310271714</v>
+        <v>3074.0600736719998</v>
       </c>
       <c r="N13" s="19">
-        <v>4609.8136975879997</v>
+        <v>4209.4804649380003</v>
       </c>
       <c r="O13" s="19">
-        <v>698.22568952999995</v>
+        <v>420.6767304</v>
       </c>
       <c r="P13" s="19">
-        <v>5.5616272489999998</v>
+        <v>5.6841813920000002</v>
       </c>
       <c r="Q13" s="19">
-        <v>26.096916030999999</v>
+        <v>27.009476482</v>
       </c>
       <c r="R13" s="19">
-        <v>11.0747022284</v>
+        <v>3.5642458335999998</v>
       </c>
       <c r="S13" s="20">
-        <v>0.30589835999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+        <v>0.28451820999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11">
         <v>2024</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="3"/>
-        <v>11073.580067999997</v>
+        <v>10170.542102500001</v>
       </c>
       <c r="E14" s="14">
-        <v>4264.3103259999998</v>
+        <v>4225.2215324999997</v>
       </c>
       <c r="F14" s="14">
-        <v>5088.2590179999997</v>
+        <v>4638.9146110000001</v>
       </c>
       <c r="G14" s="14">
-        <v>1297.469726</v>
+        <v>1003.004611</v>
       </c>
       <c r="H14" s="14">
-        <v>268.56850200000002</v>
+        <v>176.79925700000001</v>
       </c>
       <c r="I14" s="14">
-        <v>126.038926</v>
+        <v>101.900481</v>
       </c>
       <c r="J14" s="14">
-        <v>8.8992199999999997</v>
+        <v>8.8647200000000002</v>
       </c>
       <c r="K14" s="14">
-        <v>20.03435</v>
+        <v>15.83689</v>
       </c>
       <c r="L14" s="13">
-        <f t="shared" ref="L14:L21" si="5">SUM(M14:S14)</f>
-        <v>7865.3882907427005</v>
+        <f t="shared" si="4"/>
+        <v>7310.5741896424306</v>
       </c>
       <c r="M14" s="14">
-        <v>2769.2323164145</v>
+        <v>2773.4403533764998</v>
       </c>
       <c r="N14" s="14">
-        <v>4334.8919746190004</v>
+        <v>3963.623746364</v>
       </c>
       <c r="O14" s="14">
-        <v>700.48098283000002</v>
+        <v>532.89884495000001</v>
       </c>
       <c r="P14" s="14">
-        <v>10.097477002</v>
+        <v>5.771046664</v>
       </c>
       <c r="Q14" s="14">
-        <v>37.109888814999998</v>
+        <v>25.803035709</v>
       </c>
       <c r="R14" s="14">
-        <v>13.1854440822</v>
+        <v>8.7877683089299996</v>
       </c>
       <c r="S14" s="15">
-        <v>0.39020697999999998</v>
+        <v>0.24939427</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
@@ -1745,57 +1745,57 @@
         <v>2024</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="3"/>
-        <v>11161.666198499997</v>
+        <v>11251.137121</v>
       </c>
       <c r="E15" s="19">
-        <v>4078.3567754999999</v>
+        <v>4380.0285290000002</v>
       </c>
       <c r="F15" s="19">
-        <v>5481.9287759999997</v>
+        <v>5224.974502</v>
       </c>
       <c r="G15" s="19">
-        <v>1221.811635</v>
+        <v>1317.7201729999999</v>
       </c>
       <c r="H15" s="19">
-        <v>239.36940000000001</v>
+        <v>177.187535</v>
       </c>
       <c r="I15" s="19">
-        <v>105.50866000000001</v>
+        <v>105.991382</v>
       </c>
       <c r="J15" s="19">
-        <v>9.2501800000000003</v>
+        <v>30.662199999999999</v>
       </c>
       <c r="K15" s="19">
-        <v>25.440771999999999</v>
+        <v>14.572800000000001</v>
       </c>
       <c r="L15" s="18">
-        <f t="shared" si="5"/>
-        <v>7988.2967723501006</v>
+        <f t="shared" si="4"/>
+        <v>8231.3888027003995</v>
       </c>
       <c r="M15" s="19">
-        <v>2693.4096534265</v>
+        <v>2880.310271714</v>
       </c>
       <c r="N15" s="19">
-        <v>4598.9796150089996</v>
+        <v>4609.8136975879997</v>
       </c>
       <c r="O15" s="19">
-        <v>647.17524848999994</v>
+        <v>698.22568952999995</v>
       </c>
       <c r="P15" s="19">
-        <v>8.870226637</v>
+        <v>5.5616272489999998</v>
       </c>
       <c r="Q15" s="19">
-        <v>29.502148497</v>
+        <v>26.096916030999999</v>
       </c>
       <c r="R15" s="19">
-        <v>9.9230392236</v>
+        <v>11.0747022284</v>
       </c>
       <c r="S15" s="20">
-        <v>0.43684106700000003</v>
+        <v>0.30589835999999998</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
@@ -1803,57 +1803,57 @@
         <v>2024</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" si="3"/>
-        <v>11385.153779999999</v>
+        <v>11073.580067999997</v>
       </c>
       <c r="E16" s="14">
-        <v>4088.3985170000001</v>
+        <v>4264.3103259999998</v>
       </c>
       <c r="F16" s="14">
-        <v>5559.3460809999997</v>
+        <v>5088.2590179999997</v>
       </c>
       <c r="G16" s="14">
-        <v>1362.2324040000001</v>
+        <v>1297.469726</v>
       </c>
       <c r="H16" s="14">
-        <v>242.53355500000001</v>
+        <v>268.56850200000002</v>
       </c>
       <c r="I16" s="14">
-        <v>103.72531499999999</v>
+        <v>126.038926</v>
       </c>
       <c r="J16" s="14">
-        <v>4.8760000000000003</v>
+        <v>8.8992199999999997</v>
       </c>
       <c r="K16" s="14">
-        <v>24.041907999999999</v>
+        <v>20.03435</v>
       </c>
       <c r="L16" s="13">
-        <f t="shared" si="5"/>
-        <v>8010.7375229999998</v>
+        <f t="shared" ref="L16:L23" si="5">SUM(M16:S16)</f>
+        <v>7865.3882907427005</v>
       </c>
       <c r="M16" s="14">
-        <v>2674.0050620000002</v>
+        <v>2769.2323164145</v>
       </c>
       <c r="N16" s="14">
-        <v>4545.2049290000004</v>
+        <v>4334.8919746190004</v>
       </c>
       <c r="O16" s="14">
-        <v>749.43216500000005</v>
+        <v>700.48098283000002</v>
       </c>
       <c r="P16" s="14">
-        <v>9.3834619999999997</v>
+        <v>10.097477002</v>
       </c>
       <c r="Q16" s="14">
-        <v>27.699843999999999</v>
+        <v>37.109888814999998</v>
       </c>
       <c r="R16" s="14">
-        <v>4.5218790000000002</v>
+        <v>13.1854440822</v>
       </c>
       <c r="S16" s="15">
-        <v>0.49018200000000001</v>
+        <v>0.39020697999999998</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
@@ -1861,57 +1861,57 @@
         <v>2024</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="18">
-        <f t="shared" ref="D17:D31" si="6">SUM(E17:K17)</f>
-        <v>11518.385950000002</v>
+        <f t="shared" si="3"/>
+        <v>11161.666198499997</v>
       </c>
       <c r="E17" s="19">
-        <v>4300.1912899999998</v>
+        <v>4078.3567754999999</v>
       </c>
       <c r="F17" s="19">
-        <v>5629.5263320000004</v>
+        <v>5481.9287759999997</v>
       </c>
       <c r="G17" s="19">
-        <v>1319.029931</v>
+        <v>1221.811635</v>
       </c>
       <c r="H17" s="19">
-        <v>139.10685699999999</v>
+        <v>239.36940000000001</v>
       </c>
       <c r="I17" s="19">
-        <v>105.14566000000001</v>
+        <v>105.50866000000001</v>
       </c>
       <c r="J17" s="19">
-        <v>0</v>
+        <v>9.2501800000000003</v>
       </c>
       <c r="K17" s="19">
-        <v>25.38588</v>
+        <v>25.440771999999999</v>
       </c>
       <c r="L17" s="18">
         <f t="shared" si="5"/>
-        <v>8190.6107430000002</v>
+        <v>7988.2967723501006</v>
       </c>
       <c r="M17" s="19">
-        <v>2859.8718090000002</v>
+        <v>2693.4096534265</v>
       </c>
       <c r="N17" s="19">
-        <v>4557.1561849999998</v>
+        <v>4598.9796150089996</v>
       </c>
       <c r="O17" s="19">
-        <v>740.54377399999998</v>
+        <v>647.17524848999994</v>
       </c>
       <c r="P17" s="19">
-        <v>3.9488479999999999</v>
+        <v>8.870226637</v>
       </c>
       <c r="Q17" s="19">
-        <v>27.069296000000001</v>
+        <v>29.502148497</v>
       </c>
       <c r="R17" s="19">
-        <v>1.465068</v>
+        <v>9.9230392236</v>
       </c>
       <c r="S17" s="20">
-        <v>0.55576300000000001</v>
+        <v>0.43684106700000003</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
@@ -1919,57 +1919,57 @@
         <v>2024</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="13">
-        <f t="shared" si="6"/>
-        <v>12058.836555</v>
+        <f t="shared" si="3"/>
+        <v>11385.153779999999</v>
       </c>
       <c r="E18" s="14">
-        <v>4563.5082670000002</v>
+        <v>4088.3985170000001</v>
       </c>
       <c r="F18" s="14">
-        <v>5992.8884459999999</v>
+        <v>5559.3460809999997</v>
       </c>
       <c r="G18" s="14">
-        <v>1246.3373630000001</v>
+        <v>1362.2324040000001</v>
       </c>
       <c r="H18" s="14">
-        <v>139.10685699999999</v>
+        <v>242.53355500000001</v>
       </c>
       <c r="I18" s="14">
-        <v>96.219672000000003</v>
+        <v>103.72531499999999</v>
       </c>
       <c r="J18" s="14">
-        <v>0</v>
+        <v>4.8760000000000003</v>
       </c>
       <c r="K18" s="14">
-        <v>20.775950000000002</v>
+        <v>24.041907999999999</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="5"/>
-        <v>8839.7330359999996</v>
+        <v>8010.7375229999998</v>
       </c>
       <c r="M18" s="14">
-        <v>2957.5938150000002</v>
+        <v>2674.0050620000002</v>
       </c>
       <c r="N18" s="14">
-        <v>5127.0620630000003</v>
+        <v>4545.2049290000004</v>
       </c>
       <c r="O18" s="14">
-        <v>721.55657799999994</v>
+        <v>749.43216500000005</v>
       </c>
       <c r="P18" s="14">
-        <v>3.9488479999999999</v>
+        <v>9.3834619999999997</v>
       </c>
       <c r="Q18" s="14">
-        <v>26.56606</v>
+        <v>27.699843999999999</v>
       </c>
       <c r="R18" s="14">
-        <v>2.5492699999999999</v>
+        <v>4.5218790000000002</v>
       </c>
       <c r="S18" s="15">
-        <v>0.45640199999999997</v>
+        <v>0.49018200000000001</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
@@ -1977,289 +1977,289 @@
         <v>2024</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" ref="D19:D33" si="6">SUM(E19:K19)</f>
+        <v>11518.385950000002</v>
+      </c>
+      <c r="E19" s="19">
+        <v>4300.1912899999998</v>
+      </c>
+      <c r="F19" s="19">
+        <v>5629.5263320000004</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1319.029931</v>
+      </c>
+      <c r="H19" s="19">
+        <v>139.10685699999999</v>
+      </c>
+      <c r="I19" s="19">
+        <v>105.14566000000001</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
+        <v>25.38588</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="5"/>
+        <v>8190.6107430000002</v>
+      </c>
+      <c r="M19" s="19">
+        <v>2859.8718090000002</v>
+      </c>
+      <c r="N19" s="19">
+        <v>4557.1561849999998</v>
+      </c>
+      <c r="O19" s="19">
+        <v>740.54377399999998</v>
+      </c>
+      <c r="P19" s="19">
+        <v>3.9488479999999999</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>27.069296000000001</v>
+      </c>
+      <c r="R19" s="19">
+        <v>1.465068</v>
+      </c>
+      <c r="S19" s="20">
+        <v>0.55576300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="6"/>
+        <v>12058.836555</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4563.5082670000002</v>
+      </c>
+      <c r="F20" s="14">
+        <v>5992.8884459999999</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1246.3373630000001</v>
+      </c>
+      <c r="H20" s="14">
+        <v>139.10685699999999</v>
+      </c>
+      <c r="I20" s="14">
+        <v>96.219672000000003</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <v>20.775950000000002</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="5"/>
+        <v>8839.7330359999996</v>
+      </c>
+      <c r="M20" s="14">
+        <v>2957.5938150000002</v>
+      </c>
+      <c r="N20" s="14">
+        <v>5127.0620630000003</v>
+      </c>
+      <c r="O20" s="14">
+        <v>721.55657799999994</v>
+      </c>
+      <c r="P20" s="14">
+        <v>3.9488479999999999</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>26.56606</v>
+      </c>
+      <c r="R20" s="14">
+        <v>2.5492699999999999</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0.45640199999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="16">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D21" s="18">
         <f t="shared" si="6"/>
         <v>11342.527755999999</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E21" s="19">
         <v>4257.7457569999997</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F21" s="19">
         <v>5478.1561410000004</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G21" s="19">
         <v>1150.5672</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H21" s="19">
         <v>347.88340299999999</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I21" s="19">
         <v>97.409684999999996</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J21" s="19">
         <v>0</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K21" s="19">
         <v>10.76557</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L21" s="18">
         <f t="shared" si="5"/>
         <v>8187.4507680000006</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M21" s="19">
         <v>2792.3728390000001</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N21" s="19">
         <v>4673.1630869999999</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O21" s="19">
         <v>679.80545600000005</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P21" s="19">
         <v>8.3948649999999994</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q21" s="19">
         <v>26.664881000000001</v>
       </c>
-      <c r="R19" s="19">
+      <c r="R21" s="19">
         <v>6.8661019999999997</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S21" s="20">
         <v>0.18353800000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="21">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="21">
         <v>2024</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D22" s="23">
         <f t="shared" si="6"/>
         <v>11272.010199999999</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E22" s="24">
         <v>4393.4066000000003</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F22" s="24">
         <v>5359.7539999999999</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G22" s="24">
         <v>1270.1172999999999</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H22" s="24">
         <v>121.57129999999999</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I22" s="24">
         <v>106.0236</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J22" s="24">
         <v>0</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K22" s="24">
         <v>21.1374</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L22" s="23">
         <f t="shared" si="5"/>
         <v>8342.0510054124934</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M22" s="24">
         <v>2834.6025592114943</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N22" s="24">
         <v>4774.6108969999996</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O22" s="24">
         <v>698.27653098200028</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P22" s="24">
         <v>3.7847089999999994</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q22" s="24">
         <v>28.277445269000239</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R22" s="24">
         <v>2.0259563599999999</v>
       </c>
-      <c r="S20" s="25">
+      <c r="S22" s="25">
         <v>0.47290758999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26">
+    <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="26">
         <v>2023</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D23" s="28">
         <f t="shared" si="6"/>
         <v>10530.152879999996</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E23" s="29">
         <v>4309.4661199999991</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F23" s="29">
         <v>4678.9765120000002</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G23" s="29">
         <v>1229.369512</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H23" s="29">
         <v>196.09364099999999</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I23" s="29">
         <v>98.409154999999998</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J23" s="29">
         <v>0</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K23" s="29">
         <v>17.83794</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L23" s="28">
         <f t="shared" si="5"/>
         <v>7153.5113975900022</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M23" s="29">
         <v>2868.2873435319998</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N23" s="29">
         <v>3607.6925303660032</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O23" s="29">
         <v>642.81335444999979</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P23" s="29">
         <v>7.0967908270000004</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q23" s="29">
         <v>26.713847234999999</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R23" s="29">
         <v>0.56659287000000003</v>
       </c>
-      <c r="S21" s="30">
+      <c r="S23" s="30">
         <v>0.34093830999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="13">
-        <f t="shared" si="6"/>
-        <v>10744.338341099994</v>
-      </c>
-      <c r="E22" s="14">
-        <v>4156.0361599999969</v>
-      </c>
-      <c r="F22" s="14">
-        <v>4940.157242999996</v>
-      </c>
-      <c r="G22" s="14">
-        <v>1327.2145460000011</v>
-      </c>
-      <c r="H22" s="14">
-        <v>207.6338241</v>
-      </c>
-      <c r="I22" s="14">
-        <v>97.280187999999995</v>
-      </c>
-      <c r="J22" s="14">
-        <v>0</v>
-      </c>
-      <c r="K22" s="14">
-        <v>16.016380000000002</v>
-      </c>
-      <c r="L22" s="13">
-        <f t="shared" ref="L22:L31" si="7">SUM(M22:S22)</f>
-        <v>7556.0425005755014</v>
-      </c>
-      <c r="M22" s="14">
-        <v>2765.572963916999</v>
-      </c>
-      <c r="N22" s="14">
-        <v>4124.8151506980021</v>
-      </c>
-      <c r="O22" s="14">
-        <v>633.25968550699997</v>
-      </c>
-      <c r="P22" s="14">
-        <v>7.8715812454999998</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>24.216846367999999</v>
-      </c>
-      <c r="R22" s="14">
-        <v>0</v>
-      </c>
-      <c r="S22" s="15">
-        <v>0.30627283999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="18">
-        <f t="shared" si="6"/>
-        <v>11200.280935499999</v>
-      </c>
-      <c r="E23" s="19">
-        <v>4460.5444895000001</v>
-      </c>
-      <c r="F23" s="19">
-        <v>5121.4502369999991</v>
-      </c>
-      <c r="G23" s="19">
-        <v>1286.7112570000011</v>
-      </c>
-      <c r="H23" s="19">
-        <v>230.92582300000001</v>
-      </c>
-      <c r="I23" s="19">
-        <v>86.957749000000007</v>
-      </c>
-      <c r="J23" s="19">
-        <v>0</v>
-      </c>
-      <c r="K23" s="19">
-        <v>13.691380000000001</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="7"/>
-        <v>7919.0054692064978</v>
-      </c>
-      <c r="M23" s="19">
-        <v>2888.4215667424992</v>
-      </c>
-      <c r="N23" s="19">
-        <v>4289.1214162529986</v>
-      </c>
-      <c r="O23" s="19">
-        <v>709.70213744500006</v>
-      </c>
-      <c r="P23" s="19">
-        <v>8.7303510430000006</v>
-      </c>
-      <c r="Q23" s="19">
-        <v>22.005873442999999</v>
-      </c>
-      <c r="R23" s="19">
-        <v>0.75646751999999995</v>
-      </c>
-      <c r="S23" s="20">
-        <v>0.26765675999999999</v>
       </c>
     </row>
     <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2267,57 +2267,57 @@
         <v>2023</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="6"/>
-        <v>10782.032769499994</v>
+        <v>10744.338341099994</v>
       </c>
       <c r="E24" s="14">
-        <v>4218.6692064999988</v>
+        <v>4156.0361599999969</v>
       </c>
       <c r="F24" s="14">
-        <v>4942.4715439999973</v>
+        <v>4940.157242999996</v>
       </c>
       <c r="G24" s="14">
-        <v>1325.7413049999991</v>
+        <v>1327.2145460000011</v>
       </c>
       <c r="H24" s="14">
-        <v>196.98436699999999</v>
+        <v>207.6338241</v>
       </c>
       <c r="I24" s="14">
-        <v>89.481097000000005</v>
+        <v>97.280187999999995</v>
       </c>
       <c r="J24" s="14">
         <v>0</v>
       </c>
       <c r="K24" s="14">
-        <v>8.6852500000000017</v>
+        <v>16.016380000000002</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" si="7"/>
-        <v>7622.1182945060009</v>
+        <f t="shared" ref="L24:L33" si="7">SUM(M24:S24)</f>
+        <v>7556.0425005755014</v>
       </c>
       <c r="M24" s="14">
-        <v>2723.4188917840002</v>
+        <v>2765.572963916999</v>
       </c>
       <c r="N24" s="14">
-        <v>4168.1608000790002</v>
+        <v>4124.8151506980021</v>
       </c>
       <c r="O24" s="14">
-        <v>700.2680477920004</v>
+        <v>633.25968550699997</v>
       </c>
       <c r="P24" s="14">
-        <v>6.950576074999999</v>
+        <v>7.8715812454999998</v>
       </c>
       <c r="Q24" s="14">
-        <v>22.592782776</v>
+        <v>24.216846367999999</v>
       </c>
       <c r="R24" s="14">
-        <v>0.46685416000000002</v>
+        <v>0</v>
       </c>
       <c r="S24" s="15">
-        <v>0.26034183999999999</v>
+        <v>0.30627283999999999</v>
       </c>
     </row>
     <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2325,57 +2325,57 @@
         <v>2023</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" si="6"/>
-        <v>11165.0871135</v>
+        <v>11200.280935499999</v>
       </c>
       <c r="E25" s="19">
-        <v>4073.677195499999</v>
+        <v>4460.5444895000001</v>
       </c>
       <c r="F25" s="19">
-        <v>5295.6467410000023</v>
+        <v>5121.4502369999991</v>
       </c>
       <c r="G25" s="19">
-        <v>1455.9837610000011</v>
+        <v>1286.7112570000011</v>
       </c>
       <c r="H25" s="19">
-        <v>215.933054</v>
+        <v>230.92582300000001</v>
       </c>
       <c r="I25" s="19">
-        <v>102.351732</v>
+        <v>86.957749000000007</v>
       </c>
       <c r="J25" s="19">
         <v>0</v>
       </c>
       <c r="K25" s="19">
-        <v>21.494630000000001</v>
+        <v>13.691380000000001</v>
       </c>
       <c r="L25" s="18">
         <f t="shared" si="7"/>
-        <v>7816.8766415225009</v>
+        <v>7919.0054692064978</v>
       </c>
       <c r="M25" s="19">
-        <v>2578.8196566694969</v>
+        <v>2888.4215667424992</v>
       </c>
       <c r="N25" s="19">
-        <v>4455.9987150990046</v>
+        <v>4289.1214162529986</v>
       </c>
       <c r="O25" s="19">
-        <v>747.21557059399993</v>
+        <v>709.70213744500006</v>
       </c>
       <c r="P25" s="19">
-        <v>8.0505219500000003</v>
+        <v>8.7303510430000006</v>
       </c>
       <c r="Q25" s="19">
-        <v>26.027712000000001</v>
+        <v>22.005873442999999</v>
       </c>
       <c r="R25" s="19">
-        <v>0.31483611000000011</v>
+        <v>0.75646751999999995</v>
       </c>
       <c r="S25" s="20">
-        <v>0.44962910000000011</v>
+        <v>0.26765675999999999</v>
       </c>
     </row>
     <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2383,57 +2383,57 @@
         <v>2023</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="6"/>
-        <v>10990.944824000002</v>
+        <v>10782.032769499994</v>
       </c>
       <c r="E26" s="14">
-        <v>4146.4391699999987</v>
+        <v>4218.6692064999988</v>
       </c>
       <c r="F26" s="14">
-        <v>5135.3581670000012</v>
+        <v>4942.4715439999973</v>
       </c>
       <c r="G26" s="14">
-        <v>1381.008404000002</v>
+        <v>1325.7413049999991</v>
       </c>
       <c r="H26" s="14">
-        <v>211.989563</v>
+        <v>196.98436699999999</v>
       </c>
       <c r="I26" s="14">
-        <v>101.69627</v>
+        <v>89.481097000000005</v>
       </c>
       <c r="J26" s="14">
         <v>0</v>
       </c>
       <c r="K26" s="14">
-        <v>14.453250000000001</v>
+        <v>8.6852500000000017</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="7"/>
-        <v>7210.7837302764929</v>
+        <v>7622.1182945060009</v>
       </c>
       <c r="M26" s="14">
-        <v>2685.167804527498</v>
+        <v>2723.4188917840002</v>
       </c>
       <c r="N26" s="14">
-        <v>3862.1520296299959</v>
+        <v>4168.1608000790002</v>
       </c>
       <c r="O26" s="14">
-        <v>629.01834064099978</v>
+        <v>700.2680477920004</v>
       </c>
       <c r="P26" s="14">
-        <v>7.3305904510000008</v>
+        <v>6.950576074999999</v>
       </c>
       <c r="Q26" s="14">
-        <v>26.805101397000001</v>
+        <v>22.592782776</v>
       </c>
       <c r="R26" s="14">
-        <v>0</v>
+        <v>0.46685416000000002</v>
       </c>
       <c r="S26" s="15">
-        <v>0.30986362999999989</v>
+        <v>0.26034183999999999</v>
       </c>
     </row>
     <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2441,57 +2441,57 @@
         <v>2023</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" si="6"/>
-        <v>10745.577094500002</v>
+        <v>11165.0871135</v>
       </c>
       <c r="E27" s="19">
-        <v>3986.183454499997</v>
+        <v>4073.677195499999</v>
       </c>
       <c r="F27" s="19">
-        <v>5182.5897230000064</v>
+        <v>5295.6467410000023</v>
       </c>
       <c r="G27" s="19">
-        <v>1263.786863</v>
+        <v>1455.9837610000011</v>
       </c>
       <c r="H27" s="19">
-        <v>194.382002</v>
+        <v>215.933054</v>
       </c>
       <c r="I27" s="19">
-        <v>110.79468199999999</v>
+        <v>102.351732</v>
       </c>
       <c r="J27" s="19">
         <v>0</v>
       </c>
       <c r="K27" s="19">
-        <v>7.8403699999999992</v>
+        <v>21.494630000000001</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="7"/>
-        <v>7727.3830689805</v>
+        <v>7816.8766415225009</v>
       </c>
       <c r="M27" s="19">
-        <v>2606.4418033855009</v>
+        <v>2578.8196566694969</v>
       </c>
       <c r="N27" s="19">
-        <v>4443.8483745960002</v>
+        <v>4455.9987150990046</v>
       </c>
       <c r="O27" s="19">
-        <v>641.33658918099911</v>
+        <v>747.21557059399993</v>
       </c>
       <c r="P27" s="19">
-        <v>7.5541058760000004</v>
+        <v>8.0505219500000003</v>
       </c>
       <c r="Q27" s="19">
-        <v>27.942127822</v>
+        <v>26.027712000000001</v>
       </c>
       <c r="R27" s="19">
-        <v>0</v>
+        <v>0.31483611000000011</v>
       </c>
       <c r="S27" s="20">
-        <v>0.26006812000000001</v>
+        <v>0.44962910000000011</v>
       </c>
     </row>
     <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2499,57 +2499,57 @@
         <v>2023</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="6"/>
-        <v>11106.930602500001</v>
+        <v>10990.944824000002</v>
       </c>
       <c r="E28" s="14">
-        <v>4188.3383045000028</v>
+        <v>4146.4391699999987</v>
       </c>
       <c r="F28" s="14">
-        <v>5334.9094389999982</v>
+        <v>5135.3581670000012</v>
       </c>
       <c r="G28" s="14">
-        <v>1326.3186040000001</v>
+        <v>1381.008404000002</v>
       </c>
       <c r="H28" s="14">
-        <v>160.06881000000001</v>
+        <v>211.989563</v>
       </c>
       <c r="I28" s="14">
-        <v>88.829708000000011</v>
+        <v>101.69627</v>
       </c>
       <c r="J28" s="14">
         <v>0</v>
       </c>
       <c r="K28" s="14">
-        <v>8.4657370000000007</v>
+        <v>14.453250000000001</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="7"/>
-        <v>7787.991672169991</v>
+        <v>7210.7837302764929</v>
       </c>
       <c r="M28" s="14">
-        <v>2697.017603467998</v>
+        <v>2685.167804527498</v>
       </c>
       <c r="N28" s="14">
-        <v>4364.7163814329933</v>
+        <v>3862.1520296299959</v>
       </c>
       <c r="O28" s="14">
-        <v>691.08870988800015</v>
+        <v>629.01834064099978</v>
       </c>
       <c r="P28" s="14">
-        <v>5.5462157990000014</v>
+        <v>7.3305904510000008</v>
       </c>
       <c r="Q28" s="14">
-        <v>28.462399068</v>
+        <v>26.805101397000001</v>
       </c>
       <c r="R28" s="14">
-        <v>0.92623683999999995</v>
+        <v>0</v>
       </c>
       <c r="S28" s="15">
-        <v>0.23412567400000001</v>
+        <v>0.30986362999999989</v>
       </c>
     </row>
     <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2557,57 +2557,57 @@
         <v>2023</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="18">
         <f t="shared" si="6"/>
-        <v>10801.941199499999</v>
+        <v>10745.577094500002</v>
       </c>
       <c r="E29" s="19">
-        <v>4120.2958385000038</v>
+        <v>3986.183454499997</v>
       </c>
       <c r="F29" s="19">
-        <v>5130.8270799999982</v>
+        <v>5182.5897230000064</v>
       </c>
       <c r="G29" s="19">
-        <v>1278.4442729999989</v>
+        <v>1263.786863</v>
       </c>
       <c r="H29" s="19">
-        <v>164.83443199999999</v>
+        <v>194.382002</v>
       </c>
       <c r="I29" s="19">
-        <v>97.153891000000002</v>
+        <v>110.79468199999999</v>
       </c>
       <c r="J29" s="19">
         <v>0</v>
       </c>
       <c r="K29" s="19">
-        <v>10.385685</v>
+        <v>7.8403699999999992</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="7"/>
-        <v>7607.3085941089976</v>
+        <v>7727.3830689805</v>
       </c>
       <c r="M29" s="19">
-        <v>2709.2393107859962</v>
+        <v>2606.4418033855009</v>
       </c>
       <c r="N29" s="19">
-        <v>4203.9729919080019</v>
+        <v>4443.8483745960002</v>
       </c>
       <c r="O29" s="19">
-        <v>660.44165793399986</v>
+        <v>641.33658918099911</v>
       </c>
       <c r="P29" s="19">
-        <v>5.9482127840000008</v>
+        <v>7.5541058760000004</v>
       </c>
       <c r="Q29" s="19">
-        <v>27.414852071999999</v>
+        <v>27.942127822</v>
       </c>
       <c r="R29" s="19">
         <v>0</v>
       </c>
       <c r="S29" s="20">
-        <v>0.29156862500000003</v>
+        <v>0.26006812000000001</v>
       </c>
     </row>
     <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2615,57 +2615,57 @@
         <v>2023</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="13">
         <f t="shared" si="6"/>
-        <v>11383.878990499992</v>
+        <v>11106.930602500001</v>
       </c>
       <c r="E30" s="14">
-        <v>4435.0004595000009</v>
+        <v>4188.3383045000028</v>
       </c>
       <c r="F30" s="14">
-        <v>5403.7461159999912</v>
+        <v>5334.9094389999982</v>
       </c>
       <c r="G30" s="14">
-        <v>1243.00846</v>
+        <v>1326.3186040000001</v>
       </c>
       <c r="H30" s="14">
-        <v>186.385561</v>
+        <v>160.06881000000001</v>
       </c>
       <c r="I30" s="14">
-        <v>105.50189399999999</v>
+        <v>88.829708000000011</v>
       </c>
       <c r="J30" s="14">
         <v>0</v>
       </c>
       <c r="K30" s="14">
-        <v>10.236499999999999</v>
+        <v>8.4657370000000007</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="7"/>
-        <v>8168.6527303565072</v>
+        <v>7787.991672169991</v>
       </c>
       <c r="M30" s="14">
-        <v>2855.8573844425018</v>
+        <v>2697.017603467998</v>
       </c>
       <c r="N30" s="14">
-        <v>4595.0981872000057</v>
+        <v>4364.7163814329933</v>
       </c>
       <c r="O30" s="14">
-        <v>683.3527228519996</v>
+        <v>691.08870988800015</v>
       </c>
       <c r="P30" s="14">
-        <v>6.7861570649999994</v>
+        <v>5.5462157990000014</v>
       </c>
       <c r="Q30" s="14">
-        <v>27.308684076999999</v>
+        <v>28.462399068</v>
       </c>
       <c r="R30" s="14">
-        <v>0</v>
+        <v>0.92623683999999995</v>
       </c>
       <c r="S30" s="15">
-        <v>0.24959471999999999</v>
+        <v>0.23412567400000001</v>
       </c>
     </row>
     <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2673,289 +2673,289 @@
         <v>2023</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="18">
         <f t="shared" si="6"/>
-        <v>10730.619191500007</v>
+        <v>10801.941199499999</v>
       </c>
       <c r="E31" s="19">
-        <v>4010.1023085000038</v>
+        <v>4120.2958385000038</v>
       </c>
       <c r="F31" s="19">
-        <v>5163.3377450000035</v>
+        <v>5130.8270799999982</v>
       </c>
       <c r="G31" s="19">
-        <v>1234.198350000001</v>
+        <v>1278.4442729999989</v>
       </c>
       <c r="H31" s="19">
-        <v>213.06129999999999</v>
+        <v>164.83443199999999</v>
       </c>
       <c r="I31" s="19">
-        <v>97.967708000000016</v>
+        <v>97.153891000000002</v>
       </c>
       <c r="J31" s="19">
         <v>0</v>
       </c>
       <c r="K31" s="19">
-        <v>11.951779999999999</v>
+        <v>10.385685</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" si="7"/>
-        <v>7460.9740902630037</v>
+        <v>7607.3085941089976</v>
       </c>
       <c r="M31" s="19">
-        <v>2587.8190024130022</v>
+        <v>2709.2393107859962</v>
       </c>
       <c r="N31" s="19">
-        <v>4189.8268443940005</v>
+        <v>4203.9729919080019</v>
       </c>
       <c r="O31" s="19">
-        <v>650.21660514200039</v>
+        <v>660.44165793399986</v>
       </c>
       <c r="P31" s="19">
-        <v>7.5242899999999997</v>
+        <v>5.9482127840000008</v>
       </c>
       <c r="Q31" s="19">
-        <v>25.314986824000002</v>
+        <v>27.414852071999999</v>
       </c>
       <c r="R31" s="19">
         <v>0</v>
       </c>
       <c r="S31" s="20">
+        <v>0.29156862500000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="6"/>
+        <v>11383.878990499992</v>
+      </c>
+      <c r="E32" s="14">
+        <v>4435.0004595000009</v>
+      </c>
+      <c r="F32" s="14">
+        <v>5403.7461159999912</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1243.00846</v>
+      </c>
+      <c r="H32" s="14">
+        <v>186.385561</v>
+      </c>
+      <c r="I32" s="14">
+        <v>105.50189399999999</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
+        <v>10.236499999999999</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" si="7"/>
+        <v>8168.6527303565072</v>
+      </c>
+      <c r="M32" s="14">
+        <v>2855.8573844425018</v>
+      </c>
+      <c r="N32" s="14">
+        <v>4595.0981872000057</v>
+      </c>
+      <c r="O32" s="14">
+        <v>683.3527228519996</v>
+      </c>
+      <c r="P32" s="14">
+        <v>6.7861570649999994</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>27.308684076999999</v>
+      </c>
+      <c r="R32" s="14">
+        <v>0</v>
+      </c>
+      <c r="S32" s="15">
+        <v>0.24959471999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="16">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" si="6"/>
+        <v>10730.619191500007</v>
+      </c>
+      <c r="E33" s="19">
+        <v>4010.1023085000038</v>
+      </c>
+      <c r="F33" s="19">
+        <v>5163.3377450000035</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1234.198350000001</v>
+      </c>
+      <c r="H33" s="19">
+        <v>213.06129999999999</v>
+      </c>
+      <c r="I33" s="19">
+        <v>97.967708000000016</v>
+      </c>
+      <c r="J33" s="19">
+        <v>0</v>
+      </c>
+      <c r="K33" s="19">
+        <v>11.951779999999999</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="7"/>
+        <v>7460.9740902630037</v>
+      </c>
+      <c r="M33" s="19">
+        <v>2587.8190024130022</v>
+      </c>
+      <c r="N33" s="19">
+        <v>4189.8268443940005</v>
+      </c>
+      <c r="O33" s="19">
+        <v>650.21660514200039</v>
+      </c>
+      <c r="P33" s="19">
+        <v>7.5242899999999997</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>25.314986824000002</v>
+      </c>
+      <c r="R33" s="19">
+        <v>0</v>
+      </c>
+      <c r="S33" s="20">
         <v>0.27236148999999987</v>
       </c>
     </row>
-    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21">
+    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="21">
         <v>2023</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C34" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="23">
-        <f t="shared" ref="D32:D63" si="8">SUM(E32:K32)</f>
+      <c r="D34" s="23">
+        <f t="shared" ref="D34:D65" si="8">SUM(E34:K34)</f>
         <v>11294.197112000005</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E34" s="24">
         <v>4300.673847</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F34" s="24">
         <v>5333.398917000005</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G34" s="24">
         <v>1381.829727000001</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H34" s="24">
         <v>160.70500799999999</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I34" s="24">
         <v>108.434686</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J34" s="24">
         <v>0</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K34" s="24">
         <v>9.1549269999999989</v>
       </c>
-      <c r="L32" s="23">
-        <f t="shared" ref="L32:L63" si="9">SUM(M32:S32)</f>
+      <c r="L34" s="23">
+        <f t="shared" ref="L34:L65" si="9">SUM(M34:S34)</f>
         <v>8101.5730074171943</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M34" s="24">
         <v>2862.9090542549961</v>
       </c>
-      <c r="N32" s="24">
+      <c r="N34" s="24">
         <v>4475.0428370511981</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O34" s="24">
         <v>730.13655983000001</v>
       </c>
-      <c r="P32" s="24">
+      <c r="P34" s="24">
         <v>5.6898014160000008</v>
       </c>
-      <c r="Q32" s="24">
+      <c r="Q34" s="24">
         <v>26.430900990000001</v>
       </c>
-      <c r="R32" s="24">
+      <c r="R34" s="24">
         <v>1.1467497600000001</v>
       </c>
-      <c r="S32" s="25">
+      <c r="S34" s="25">
         <v>0.21710411499999999</v>
       </c>
     </row>
-    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="26">
+    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="26">
         <v>2022</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D35" s="28">
         <f t="shared" si="8"/>
         <v>10579.2088245</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E35" s="29">
         <v>3955.405141500004</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F35" s="29">
         <v>5023.7809259999967</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G35" s="29">
         <v>1253.435716</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H35" s="29">
         <v>210.841139</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I35" s="29">
         <v>127.258531</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J35" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K35" s="29">
         <v>8.4723710000000008</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L35" s="28">
         <f t="shared" si="9"/>
         <v>7201.2110358610043</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M35" s="29">
         <v>2606.642718893002</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N35" s="29">
         <v>3840.3302240870012</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O35" s="29">
         <v>714.07136763500023</v>
       </c>
-      <c r="P33" s="29">
+      <c r="P35" s="29">
         <v>8.1353823930000004</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="Q35" s="29">
         <v>29.287128408000001</v>
       </c>
-      <c r="R33" s="29">
+      <c r="R35" s="29">
         <v>2.5732544800000001</v>
       </c>
-      <c r="S33" s="30">
+      <c r="S35" s="30">
         <v>0.17095996499999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="13">
-        <f t="shared" si="8"/>
-        <v>10527.497396789135</v>
-      </c>
-      <c r="E34" s="14">
-        <v>4108.8534605000023</v>
-      </c>
-      <c r="F34" s="14">
-        <v>4736.7273732891317</v>
-      </c>
-      <c r="G34" s="14">
-        <v>1295.0406599999999</v>
-      </c>
-      <c r="H34" s="14">
-        <v>221.15105</v>
-      </c>
-      <c r="I34" s="14">
-        <v>154.32011299999999</v>
-      </c>
-      <c r="J34" s="14">
-        <v>0</v>
-      </c>
-      <c r="K34" s="14">
-        <v>11.40474</v>
-      </c>
-      <c r="L34" s="13">
-        <f t="shared" si="9"/>
-        <v>7310.8355932755139</v>
-      </c>
-      <c r="M34" s="14">
-        <v>2729.828865026504</v>
-      </c>
-      <c r="N34" s="14">
-        <v>3871.547411277008</v>
-      </c>
-      <c r="O34" s="14">
-        <v>666.57566130000077</v>
-      </c>
-      <c r="P34" s="14">
-        <v>8.3173960500000028</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>33.740727692</v>
-      </c>
-      <c r="R34" s="14">
-        <v>0.53808</v>
-      </c>
-      <c r="S34" s="15">
-        <v>0.28745193000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="16">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="18">
-        <f t="shared" si="8"/>
-        <v>10705.692828500001</v>
-      </c>
-      <c r="E35" s="19">
-        <v>4175.4008985000046</v>
-      </c>
-      <c r="F35" s="19">
-        <v>4906.9342349999952</v>
-      </c>
-      <c r="G35" s="19">
-        <v>1288.9225799999999</v>
-      </c>
-      <c r="H35" s="19">
-        <v>177.480175</v>
-      </c>
-      <c r="I35" s="19">
-        <v>150.03629000000001</v>
-      </c>
-      <c r="J35" s="19">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="K35" s="19">
-        <v>6.9111500000000001</v>
-      </c>
-      <c r="L35" s="18">
-        <f t="shared" si="9"/>
-        <v>7111.4425296700092</v>
-      </c>
-      <c r="M35" s="19">
-        <v>2632.704658141005</v>
-      </c>
-      <c r="N35" s="19">
-        <v>3750.413545484003</v>
-      </c>
-      <c r="O35" s="19">
-        <v>687.66725051200081</v>
-      </c>
-      <c r="P35" s="19">
-        <v>5.8990287250000009</v>
-      </c>
-      <c r="Q35" s="19">
-        <v>34.461750987999999</v>
-      </c>
-      <c r="R35" s="19">
-        <v>0.12333404000000001</v>
-      </c>
-      <c r="S35" s="20">
-        <v>0.17296178000000001</v>
       </c>
     </row>
     <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -2963,57 +2963,57 @@
         <v>2022</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="8"/>
-        <v>10716.722789500005</v>
+        <v>10527.497396789135</v>
       </c>
       <c r="E36" s="14">
-        <v>3921.109317500001</v>
+        <v>4108.8534605000023</v>
       </c>
       <c r="F36" s="14">
-        <v>5107.1348170000047</v>
+        <v>4736.7273732891317</v>
       </c>
       <c r="G36" s="14">
-        <v>1304.2582520000001</v>
+        <v>1295.0406599999999</v>
       </c>
       <c r="H36" s="14">
-        <v>224.00600600000001</v>
+        <v>221.15105</v>
       </c>
       <c r="I36" s="14">
-        <v>150.00181699999999</v>
+        <v>154.32011299999999</v>
       </c>
       <c r="J36" s="14">
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="K36" s="14">
-        <v>10.205080000000001</v>
+        <v>11.40474</v>
       </c>
       <c r="L36" s="13">
         <f t="shared" si="9"/>
-        <v>7332.3824997811334</v>
+        <v>7310.8355932755139</v>
       </c>
       <c r="M36" s="14">
-        <v>2596.0057846039958</v>
+        <v>2729.828865026504</v>
       </c>
       <c r="N36" s="14">
-        <v>4043.7739947451369</v>
+        <v>3871.547411277008</v>
       </c>
       <c r="O36" s="14">
-        <v>650.93120328700036</v>
+        <v>666.57566130000077</v>
       </c>
       <c r="P36" s="14">
-        <v>8.6389721339999994</v>
+        <v>8.3173960500000028</v>
       </c>
       <c r="Q36" s="14">
-        <v>32.781240101000002</v>
+        <v>33.740727692</v>
       </c>
       <c r="R36" s="14">
-        <v>7.0588400000000003E-3</v>
+        <v>0.53808</v>
       </c>
       <c r="S36" s="15">
-        <v>0.24424607000000009</v>
+        <v>0.28745193000000002</v>
       </c>
     </row>
     <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3021,57 +3021,57 @@
         <v>2022</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="8"/>
-        <v>11108.677028999993</v>
+        <v>10705.692828500001</v>
       </c>
       <c r="E37" s="19">
-        <v>3971.3969279999978</v>
+        <v>4175.4008985000046</v>
       </c>
       <c r="F37" s="19">
-        <v>5268.769131999994</v>
+        <v>4906.9342349999952</v>
       </c>
       <c r="G37" s="19">
-        <v>1417.7037560000001</v>
+        <v>1288.9225799999999</v>
       </c>
       <c r="H37" s="19">
-        <v>247.12264200000001</v>
+        <v>177.480175</v>
       </c>
       <c r="I37" s="19">
-        <v>188.83374499999999</v>
+        <v>150.03629000000001</v>
       </c>
       <c r="J37" s="19">
-        <v>0</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K37" s="19">
-        <v>14.850826</v>
+        <v>6.9111500000000001</v>
       </c>
       <c r="L37" s="18">
         <f t="shared" si="9"/>
-        <v>7307.3132174754001</v>
+        <v>7111.4425296700092</v>
       </c>
       <c r="M37" s="19">
-        <v>2663.245486356001</v>
+        <v>2632.704658141005</v>
       </c>
       <c r="N37" s="19">
-        <v>3914.0197377269992</v>
+        <v>3750.413545484003</v>
       </c>
       <c r="O37" s="19">
-        <v>681.13219543499997</v>
+        <v>687.66725051200081</v>
       </c>
       <c r="P37" s="19">
-        <v>9.831694658</v>
+        <v>5.8990287250000009</v>
       </c>
       <c r="Q37" s="19">
-        <v>36.570021361999977</v>
+        <v>34.461750987999999</v>
       </c>
       <c r="R37" s="19">
-        <v>2.1579242694</v>
+        <v>0.12333404000000001</v>
       </c>
       <c r="S37" s="20">
-        <v>0.35615766800000009</v>
+        <v>0.17296178000000001</v>
       </c>
     </row>
     <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3079,57 +3079,57 @@
         <v>2022</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D38" s="13">
         <f t="shared" si="8"/>
-        <v>10611.250803000006</v>
+        <v>10716.722789500005</v>
       </c>
       <c r="E38" s="14">
-        <v>3793.7436850000049</v>
+        <v>3921.109317500001</v>
       </c>
       <c r="F38" s="14">
-        <v>5214.0921070000013</v>
+        <v>5107.1348170000047</v>
       </c>
       <c r="G38" s="14">
-        <v>1247.337679</v>
+        <v>1304.2582520000001</v>
       </c>
       <c r="H38" s="14">
-        <v>194.861605</v>
+        <v>224.00600600000001</v>
       </c>
       <c r="I38" s="14">
-        <v>147.825242</v>
+        <v>150.00181699999999</v>
       </c>
       <c r="J38" s="14">
-        <v>0</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K38" s="14">
-        <v>13.390485</v>
+        <v>10.205080000000001</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="9"/>
-        <v>7191.6636538718021</v>
+        <v>7332.3824997811334</v>
       </c>
       <c r="M38" s="14">
-        <v>2575.3834254900021</v>
+        <v>2596.0057846039958</v>
       </c>
       <c r="N38" s="14">
-        <v>3964.619205300799</v>
+        <v>4043.7739947451369</v>
       </c>
       <c r="O38" s="14">
-        <v>609.31836305400043</v>
+        <v>650.93120328700036</v>
       </c>
       <c r="P38" s="14">
-        <v>7.2582579850000002</v>
+        <v>8.6389721339999994</v>
       </c>
       <c r="Q38" s="14">
-        <v>34.682327189999988</v>
+        <v>32.781240101000002</v>
       </c>
       <c r="R38" s="14">
-        <v>0.11073023999999999</v>
+        <v>7.0588400000000003E-3</v>
       </c>
       <c r="S38" s="15">
-        <v>0.291344612</v>
+        <v>0.24424607000000009</v>
       </c>
     </row>
     <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3137,57 +3137,57 @@
         <v>2022</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="18">
         <f t="shared" si="8"/>
-        <v>11385.632823130651</v>
+        <v>11108.677028999993</v>
       </c>
       <c r="E39" s="19">
-        <v>4133.1845675000104</v>
+        <v>3971.3969279999978</v>
       </c>
       <c r="F39" s="19">
-        <v>5576.317320630641</v>
+        <v>5268.769131999994</v>
       </c>
       <c r="G39" s="19">
-        <v>1291.3044649999999</v>
+        <v>1417.7037560000001</v>
       </c>
       <c r="H39" s="19">
-        <v>204.62748999999999</v>
+        <v>247.12264200000001</v>
       </c>
       <c r="I39" s="19">
-        <v>168.44151099999999</v>
+        <v>188.83374499999999</v>
       </c>
       <c r="J39" s="19">
         <v>0</v>
       </c>
       <c r="K39" s="19">
-        <v>11.757469</v>
+        <v>14.850826</v>
       </c>
       <c r="L39" s="18">
         <f t="shared" si="9"/>
-        <v>7426.6647824039028</v>
+        <v>7307.3132174754001</v>
       </c>
       <c r="M39" s="19">
-        <v>2745.748891390494</v>
+        <v>2663.245486356001</v>
       </c>
       <c r="N39" s="19">
-        <v>4014.2422900054089</v>
+        <v>3914.0197377269992</v>
       </c>
       <c r="O39" s="19">
-        <v>622.1854161710005</v>
+        <v>681.13219543499997</v>
       </c>
       <c r="P39" s="19">
-        <v>8.0573326499999993</v>
+        <v>9.831694658</v>
       </c>
       <c r="Q39" s="19">
-        <v>35.484382947000007</v>
+        <v>36.570021361999977</v>
       </c>
       <c r="R39" s="19">
-        <v>0.60199296000000002</v>
+        <v>2.1579242694</v>
       </c>
       <c r="S39" s="20">
-        <v>0.34447628000000002</v>
+        <v>0.35615766800000009</v>
       </c>
     </row>
     <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3195,57 +3195,57 @@
         <v>2022</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="13">
         <f t="shared" si="8"/>
-        <v>10780.323722207198</v>
+        <v>10611.250803000006</v>
       </c>
       <c r="E40" s="14">
-        <v>4137.0850310000033</v>
+        <v>3793.7436850000049</v>
       </c>
       <c r="F40" s="14">
-        <v>5186.775923207193</v>
+        <v>5214.0921070000013</v>
       </c>
       <c r="G40" s="14">
-        <v>1080.597673</v>
+        <v>1247.337679</v>
       </c>
       <c r="H40" s="14">
-        <v>208.890287</v>
+        <v>194.861605</v>
       </c>
       <c r="I40" s="14">
-        <v>154.938333</v>
+        <v>147.825242</v>
       </c>
       <c r="J40" s="14">
         <v>0</v>
       </c>
       <c r="K40" s="14">
-        <v>12.036474999999999</v>
+        <v>13.390485</v>
       </c>
       <c r="L40" s="13">
         <f t="shared" si="9"/>
-        <v>7413.4131095932507</v>
+        <v>7191.6636538718021</v>
       </c>
       <c r="M40" s="14">
-        <v>2681.1217716099991</v>
+        <v>2575.3834254900021</v>
       </c>
       <c r="N40" s="14">
-        <v>4205.8755796282521</v>
+        <v>3964.619205300799</v>
       </c>
       <c r="O40" s="14">
-        <v>483.91754051100008</v>
+        <v>609.31836305400043</v>
       </c>
       <c r="P40" s="14">
-        <v>8.2003226500000004</v>
+        <v>7.2582579850000002</v>
       </c>
       <c r="Q40" s="14">
-        <v>32.794367653999998</v>
+        <v>34.682327189999988</v>
       </c>
       <c r="R40" s="14">
-        <v>1.2866841600000001</v>
+        <v>0.11073023999999999</v>
       </c>
       <c r="S40" s="15">
-        <v>0.21684338000000011</v>
+        <v>0.291344612</v>
       </c>
     </row>
     <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3253,57 +3253,57 @@
         <v>2022</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D41" s="18">
         <f t="shared" si="8"/>
-        <v>10829.844413999997</v>
+        <v>11385.632823130651</v>
       </c>
       <c r="E41" s="19">
-        <v>3962.7175100000009</v>
+        <v>4133.1845675000104</v>
       </c>
       <c r="F41" s="19">
-        <v>5192.2296089999963</v>
+        <v>5576.317320630641</v>
       </c>
       <c r="G41" s="19">
-        <v>1309.012232</v>
+        <v>1291.3044649999999</v>
       </c>
       <c r="H41" s="19">
-        <v>181.97084000000001</v>
+        <v>204.62748999999999</v>
       </c>
       <c r="I41" s="19">
-        <v>167.812794</v>
+        <v>168.44151099999999</v>
       </c>
       <c r="J41" s="19">
         <v>0</v>
       </c>
       <c r="K41" s="19">
-        <v>16.101429</v>
+        <v>11.757469</v>
       </c>
       <c r="L41" s="18">
         <f t="shared" si="9"/>
-        <v>7275.2969263750037</v>
+        <v>7426.6647824039028</v>
       </c>
       <c r="M41" s="19">
-        <v>2575.7223572010021</v>
+        <v>2745.748891390494</v>
       </c>
       <c r="N41" s="19">
-        <v>4067.0187656300018</v>
+        <v>4014.2422900054089</v>
       </c>
       <c r="O41" s="19">
-        <v>589.9259630600003</v>
+        <v>622.1854161710005</v>
       </c>
       <c r="P41" s="19">
-        <v>7.1673460699999998</v>
+        <v>8.0573326499999993</v>
       </c>
       <c r="Q41" s="19">
-        <v>34.542283277999999</v>
+        <v>35.484382947000007</v>
       </c>
       <c r="R41" s="19">
-        <v>0.48420864000000002</v>
+        <v>0.60199296000000002</v>
       </c>
       <c r="S41" s="20">
-        <v>0.43600249600000002</v>
+        <v>0.34447628000000002</v>
       </c>
     </row>
     <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3311,57 +3311,57 @@
         <v>2022</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D42" s="13">
         <f t="shared" si="8"/>
-        <v>10958.977161499999</v>
+        <v>10780.323722207198</v>
       </c>
       <c r="E42" s="14">
-        <v>4038.936546500001</v>
+        <v>4137.0850310000033</v>
       </c>
       <c r="F42" s="14">
-        <v>5268.3369729999977</v>
+        <v>5186.775923207193</v>
       </c>
       <c r="G42" s="14">
-        <v>1291.416300000001</v>
+        <v>1080.597673</v>
       </c>
       <c r="H42" s="14">
-        <v>177.95099999999999</v>
+        <v>208.890287</v>
       </c>
       <c r="I42" s="14">
-        <v>167.63478000000001</v>
+        <v>154.938333</v>
       </c>
       <c r="J42" s="14">
         <v>0</v>
       </c>
       <c r="K42" s="14">
-        <v>14.701561999999999</v>
+        <v>12.036474999999999</v>
       </c>
       <c r="L42" s="13">
         <f t="shared" si="9"/>
-        <v>7541.4980275314938</v>
+        <v>7413.4131095932507</v>
       </c>
       <c r="M42" s="14">
-        <v>2660.8203641194968</v>
+        <v>2681.1217716099991</v>
       </c>
       <c r="N42" s="14">
-        <v>4208.7790816289962</v>
+        <v>4205.8755796282521</v>
       </c>
       <c r="O42" s="14">
-        <v>621.14192796600003</v>
+        <v>483.91754051100008</v>
       </c>
       <c r="P42" s="14">
-        <v>6.623209000000001</v>
+        <v>8.2003226500000004</v>
       </c>
       <c r="Q42" s="14">
-        <v>35.708474217000003</v>
+        <v>32.794367653999998</v>
       </c>
       <c r="R42" s="14">
-        <v>8.0218468600000001</v>
+        <v>1.2866841600000001</v>
       </c>
       <c r="S42" s="15">
-        <v>0.40312374000000012</v>
+        <v>0.21684338000000011</v>
       </c>
     </row>
     <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3369,289 +3369,289 @@
         <v>2022</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="18">
         <f t="shared" si="8"/>
-        <v>9793.3689548991515</v>
+        <v>10829.844413999997</v>
       </c>
       <c r="E43" s="19">
-        <v>3583.161939000001</v>
+        <v>3962.7175100000009</v>
       </c>
       <c r="F43" s="19">
-        <v>4789.6931648991504</v>
+        <v>5192.2296089999963</v>
       </c>
       <c r="G43" s="19">
-        <v>1070.14833</v>
+        <v>1309.012232</v>
       </c>
       <c r="H43" s="19">
-        <v>173.86282</v>
+        <v>181.97084000000001</v>
       </c>
       <c r="I43" s="19">
-        <v>164.508713</v>
+        <v>167.812794</v>
       </c>
       <c r="J43" s="19">
-        <v>6.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="K43" s="19">
-        <v>11.987488000000001</v>
+        <v>16.101429</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" si="9"/>
+        <v>7275.2969263750037</v>
+      </c>
+      <c r="M43" s="19">
+        <v>2575.7223572010021</v>
+      </c>
+      <c r="N43" s="19">
+        <v>4067.0187656300018</v>
+      </c>
+      <c r="O43" s="19">
+        <v>589.9259630600003</v>
+      </c>
+      <c r="P43" s="19">
+        <v>7.1673460699999998</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>34.542283277999999</v>
+      </c>
+      <c r="R43" s="19">
+        <v>0.48420864000000002</v>
+      </c>
+      <c r="S43" s="20">
+        <v>0.43600249600000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="8"/>
+        <v>10958.977161499999</v>
+      </c>
+      <c r="E44" s="14">
+        <v>4038.936546500001</v>
+      </c>
+      <c r="F44" s="14">
+        <v>5268.3369729999977</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1291.416300000001</v>
+      </c>
+      <c r="H44" s="14">
+        <v>177.95099999999999</v>
+      </c>
+      <c r="I44" s="14">
+        <v>167.63478000000001</v>
+      </c>
+      <c r="J44" s="14">
+        <v>0</v>
+      </c>
+      <c r="K44" s="14">
+        <v>14.701561999999999</v>
+      </c>
+      <c r="L44" s="13">
+        <f t="shared" si="9"/>
+        <v>7541.4980275314938</v>
+      </c>
+      <c r="M44" s="14">
+        <v>2660.8203641194968</v>
+      </c>
+      <c r="N44" s="14">
+        <v>4208.7790816289962</v>
+      </c>
+      <c r="O44" s="14">
+        <v>621.14192796600003</v>
+      </c>
+      <c r="P44" s="14">
+        <v>6.623209000000001</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>35.708474217000003</v>
+      </c>
+      <c r="R44" s="14">
+        <v>8.0218468600000001</v>
+      </c>
+      <c r="S44" s="15">
+        <v>0.40312374000000012</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="16">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="18">
+        <f t="shared" si="8"/>
+        <v>9793.3689548991515</v>
+      </c>
+      <c r="E45" s="19">
+        <v>3583.161939000001</v>
+      </c>
+      <c r="F45" s="19">
+        <v>4789.6931648991504</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1070.14833</v>
+      </c>
+      <c r="H45" s="19">
+        <v>173.86282</v>
+      </c>
+      <c r="I45" s="19">
+        <v>164.508713</v>
+      </c>
+      <c r="J45" s="19">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="K45" s="19">
+        <v>11.987488000000001</v>
+      </c>
+      <c r="L45" s="18">
+        <f t="shared" si="9"/>
         <v>6646.5983968474375</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M45" s="19">
         <v>2374.907421244</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N45" s="19">
         <v>3680.0897351094382</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O45" s="19">
         <v>540.62561002199982</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P45" s="19">
         <v>6.8062315400000006</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q45" s="19">
         <v>35.044869748000004</v>
       </c>
-      <c r="R43" s="19">
+      <c r="R45" s="19">
         <v>8.8324161199999995</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S45" s="20">
         <v>0.29211306399999998</v>
       </c>
     </row>
-    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="21">
+    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="21">
         <v>2022</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C46" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D46" s="23">
         <f t="shared" si="8"/>
         <v>10457.860871849636</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E46" s="24">
         <v>3811.0277475000012</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F46" s="24">
         <v>5081.9953543496349</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G46" s="24">
         <v>1163.869772</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H46" s="24">
         <v>216.800228</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I46" s="24">
         <v>164.64285100000001</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J46" s="24">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K44" s="24">
+      <c r="K46" s="24">
         <v>19.518419000000002</v>
       </c>
-      <c r="L44" s="23">
+      <c r="L46" s="23">
         <f t="shared" si="9"/>
         <v>7312.9253518064897</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M46" s="24">
         <v>2516.776008406498</v>
       </c>
-      <c r="N44" s="24">
+      <c r="N46" s="24">
         <v>4165.2929514439929</v>
       </c>
-      <c r="O44" s="24">
+      <c r="O46" s="24">
         <v>584.89580469299949</v>
       </c>
-      <c r="P44" s="24">
+      <c r="P46" s="24">
         <v>7.9409832089999988</v>
       </c>
-      <c r="Q44" s="24">
+      <c r="Q46" s="24">
         <v>36.984346221000003</v>
       </c>
-      <c r="R44" s="24">
+      <c r="R46" s="24">
         <v>0.54593274000000003</v>
       </c>
-      <c r="S44" s="25">
+      <c r="S46" s="25">
         <v>0.48932509299999999</v>
       </c>
     </row>
-    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="26">
+    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="26">
         <v>2021</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C47" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D47" s="28">
         <f t="shared" si="8"/>
         <v>10554.11629972851</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E47" s="29">
         <v>3704.487701</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F47" s="29">
         <v>5168.8270517285082</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G47" s="29">
         <v>1210.66284</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H47" s="29">
         <v>278.57299999999998</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I47" s="29">
         <v>176.88040100000001</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J47" s="29">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K47" s="29">
         <v>14.676906000000001</v>
       </c>
-      <c r="L45" s="28">
+      <c r="L47" s="28">
         <f t="shared" si="9"/>
         <v>7559.4957620836176</v>
       </c>
-      <c r="M45" s="29">
+      <c r="M47" s="29">
         <v>2454.9251451284981</v>
       </c>
-      <c r="N45" s="29">
+      <c r="N47" s="29">
         <v>4486.1274373061196</v>
       </c>
-      <c r="O45" s="29">
+      <c r="O47" s="29">
         <v>564.50741046500013</v>
       </c>
-      <c r="P45" s="29">
+      <c r="P47" s="29">
         <v>10.346456243</v>
       </c>
-      <c r="Q45" s="29">
+      <c r="Q47" s="29">
         <v>38.567701272999997</v>
       </c>
-      <c r="R45" s="29">
+      <c r="R47" s="29">
         <v>4.6980338499999998</v>
       </c>
-      <c r="S45" s="30">
+      <c r="S47" s="30">
         <v>0.32357781800000007</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="13">
-        <f t="shared" si="8"/>
-        <v>10628.511753666689</v>
-      </c>
-      <c r="E46" s="14">
-        <v>3832.8486825000009</v>
-      </c>
-      <c r="F46" s="14">
-        <v>5157.1098371666867</v>
-      </c>
-      <c r="G46" s="14">
-        <v>1198.8120699999999</v>
-      </c>
-      <c r="H46" s="14">
-        <v>250.82408899999999</v>
-      </c>
-      <c r="I46" s="14">
-        <v>171.39998600000001</v>
-      </c>
-      <c r="J46" s="14">
-        <v>0.48580000000000001</v>
-      </c>
-      <c r="K46" s="14">
-        <v>17.031289000000001</v>
-      </c>
-      <c r="L46" s="13">
-        <f t="shared" si="9"/>
-        <v>7572.3847293000135</v>
-      </c>
-      <c r="M46" s="14">
-        <v>2487.2945403209969</v>
-      </c>
-      <c r="N46" s="14">
-        <v>4430.0140454000166</v>
-      </c>
-      <c r="O46" s="14">
-        <v>607.02709147300016</v>
-      </c>
-      <c r="P46" s="14">
-        <v>8.3345901050000002</v>
-      </c>
-      <c r="Q46" s="14">
-        <v>35.035225039999993</v>
-      </c>
-      <c r="R46" s="14">
-        <v>4.35235971</v>
-      </c>
-      <c r="S46" s="15">
-        <v>0.32687725099999992</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="16">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="18">
-        <f t="shared" si="8"/>
-        <v>10447.886890621772</v>
-      </c>
-      <c r="E47" s="19">
-        <v>3568.6820320000061</v>
-      </c>
-      <c r="F47" s="19">
-        <v>5290.506152621766</v>
-      </c>
-      <c r="G47" s="19">
-        <v>1189.51099</v>
-      </c>
-      <c r="H47" s="19">
-        <v>218.87152699999999</v>
-      </c>
-      <c r="I47" s="19">
-        <v>164.760099</v>
-      </c>
-      <c r="J47" s="19">
-        <v>0</v>
-      </c>
-      <c r="K47" s="19">
-        <v>15.556089999999999</v>
-      </c>
-      <c r="L47" s="18">
-        <f t="shared" si="9"/>
-        <v>7454.4569883743907</v>
-      </c>
-      <c r="M47" s="19">
-        <v>2252.2121829349981</v>
-      </c>
-      <c r="N47" s="19">
-        <v>4555.9238501633918</v>
-      </c>
-      <c r="O47" s="19">
-        <v>598.34848022000062</v>
-      </c>
-      <c r="P47" s="19">
-        <v>8.6802298340000004</v>
-      </c>
-      <c r="Q47" s="19">
-        <v>36.737191042000013</v>
-      </c>
-      <c r="R47" s="19">
-        <v>2.1651060200000001</v>
-      </c>
-      <c r="S47" s="20">
-        <v>0.38994815999999999</v>
       </c>
     </row>
     <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3659,57 +3659,57 @@
         <v>2021</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D48" s="13">
         <f t="shared" si="8"/>
-        <v>10310.171017315373</v>
+        <v>10628.511753666689</v>
       </c>
       <c r="E48" s="14">
-        <v>3660.1919630000002</v>
+        <v>3832.8486825000009</v>
       </c>
       <c r="F48" s="14">
-        <v>5125.4300873153752</v>
+        <v>5157.1098371666867</v>
       </c>
       <c r="G48" s="14">
-        <v>1106.3341800000001</v>
+        <v>1198.8120699999999</v>
       </c>
       <c r="H48" s="14">
-        <v>225.05336800000001</v>
+        <v>250.82408899999999</v>
       </c>
       <c r="I48" s="14">
-        <v>173.367749</v>
+        <v>171.39998600000001</v>
       </c>
       <c r="J48" s="14">
-        <v>0</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="K48" s="14">
-        <v>19.793669999999999</v>
+        <v>17.031289000000001</v>
       </c>
       <c r="L48" s="13">
         <f t="shared" si="9"/>
-        <v>7455.9332633507911</v>
+        <v>7572.3847293000135</v>
       </c>
       <c r="M48" s="14">
-        <v>2336.1774044905001</v>
+        <v>2487.2945403209969</v>
       </c>
       <c r="N48" s="14">
-        <v>4499.0870851722912</v>
+        <v>4430.0140454000166</v>
       </c>
       <c r="O48" s="14">
-        <v>574.36416933199996</v>
+        <v>607.02709147300016</v>
       </c>
       <c r="P48" s="14">
-        <v>9.2197258459999993</v>
+        <v>8.3345901050000002</v>
       </c>
       <c r="Q48" s="14">
-        <v>33.827011099000003</v>
+        <v>35.035225039999993</v>
       </c>
       <c r="R48" s="14">
-        <v>2.7609138199999999</v>
+        <v>4.35235971</v>
       </c>
       <c r="S48" s="15">
-        <v>0.49695359099999997</v>
+        <v>0.32687725099999992</v>
       </c>
     </row>
     <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3717,57 +3717,57 @@
         <v>2021</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D49" s="18">
         <f t="shared" si="8"/>
-        <v>10858.20812040527</v>
+        <v>10447.886890621772</v>
       </c>
       <c r="E49" s="19">
-        <v>3521.7041924999971</v>
+        <v>3568.6820320000061</v>
       </c>
       <c r="F49" s="19">
-        <v>5688.3567339052724</v>
+        <v>5290.506152621766</v>
       </c>
       <c r="G49" s="19">
-        <v>1217.1854400000011</v>
+        <v>1189.51099</v>
       </c>
       <c r="H49" s="19">
-        <v>237.21059299999999</v>
+        <v>218.87152699999999</v>
       </c>
       <c r="I49" s="19">
-        <v>181.48093</v>
+        <v>164.760099</v>
       </c>
       <c r="J49" s="19">
-        <v>8.4000000000000012E-3</v>
+        <v>0</v>
       </c>
       <c r="K49" s="19">
-        <v>12.261831000000001</v>
+        <v>15.556089999999999</v>
       </c>
       <c r="L49" s="18">
         <f t="shared" si="9"/>
-        <v>7799.3527436193035</v>
+        <v>7454.4569883743907</v>
       </c>
       <c r="M49" s="19">
-        <v>2294.5162238704979</v>
+        <v>2252.2121829349981</v>
       </c>
       <c r="N49" s="19">
-        <v>4842.6990967668053</v>
+        <v>4555.9238501633918</v>
       </c>
       <c r="O49" s="19">
-        <v>615.63413392999996</v>
+        <v>598.34848022000062</v>
       </c>
       <c r="P49" s="19">
-        <v>8.5407225140000023</v>
+        <v>8.6802298340000004</v>
       </c>
       <c r="Q49" s="19">
-        <v>34.95596040800001</v>
+        <v>36.737191042000013</v>
       </c>
       <c r="R49" s="19">
-        <v>2.7197566399999999</v>
+        <v>2.1651060200000001</v>
       </c>
       <c r="S49" s="20">
-        <v>0.28684948999999998</v>
+        <v>0.38994815999999999</v>
       </c>
     </row>
     <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3775,57 +3775,57 @@
         <v>2021</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D50" s="13">
         <f t="shared" si="8"/>
-        <v>11255.030800119688</v>
+        <v>10310.171017315373</v>
       </c>
       <c r="E50" s="14">
-        <v>3793.7436850000049</v>
+        <v>3660.1919630000002</v>
       </c>
       <c r="F50" s="14">
-        <v>5713.976884119681</v>
+        <v>5125.4300873153752</v>
       </c>
       <c r="G50" s="14">
-        <v>1315.6355450000001</v>
+        <v>1106.3341800000001</v>
       </c>
       <c r="H50" s="14">
-        <v>235.601181</v>
+        <v>225.05336800000001</v>
       </c>
       <c r="I50" s="14">
-        <v>181.74973800000001</v>
+        <v>173.367749</v>
       </c>
       <c r="J50" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K50" s="14">
-        <v>14.308767</v>
+        <v>19.793669999999999</v>
       </c>
       <c r="L50" s="13">
         <f t="shared" si="9"/>
-        <v>8093.1738756910991</v>
+        <v>7455.9332633507911</v>
       </c>
       <c r="M50" s="14">
-        <v>2575.3834254900021</v>
+        <v>2336.1774044905001</v>
       </c>
       <c r="N50" s="14">
-        <v>4833.7327735580984</v>
+        <v>4499.0870851722912</v>
       </c>
       <c r="O50" s="14">
-        <v>635.0188110539998</v>
+        <v>574.36416933199996</v>
       </c>
       <c r="P50" s="14">
-        <v>8.7395811469999991</v>
+        <v>9.2197258459999993</v>
       </c>
       <c r="Q50" s="14">
-        <v>36.949788237000007</v>
+        <v>33.827011099000003</v>
       </c>
       <c r="R50" s="14">
-        <v>3.0379556999999999</v>
+        <v>2.7609138199999999</v>
       </c>
       <c r="S50" s="15">
-        <v>0.31154050500000008</v>
+        <v>0.49695359099999997</v>
       </c>
     </row>
     <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3833,57 +3833,57 @@
         <v>2021</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51" s="18">
         <f t="shared" si="8"/>
-        <v>11085.875192119853</v>
+        <v>10858.20812040527</v>
       </c>
       <c r="E51" s="19">
-        <v>4014.4691365000031</v>
+        <v>3521.7041924999971</v>
       </c>
       <c r="F51" s="19">
-        <v>5377.2218746198478</v>
+        <v>5688.3567339052724</v>
       </c>
       <c r="G51" s="19">
-        <v>1234.1497800000011</v>
+        <v>1217.1854400000011</v>
       </c>
       <c r="H51" s="19">
-        <v>253.12753699999999</v>
+        <v>237.21059299999999</v>
       </c>
       <c r="I51" s="19">
-        <v>192.660923</v>
+        <v>181.48093</v>
       </c>
       <c r="J51" s="19">
-        <v>2.1499999999999998E-2</v>
+        <v>8.4000000000000012E-3</v>
       </c>
       <c r="K51" s="19">
-        <v>14.224441000000001</v>
+        <v>12.261831000000001</v>
       </c>
       <c r="L51" s="18">
         <f t="shared" si="9"/>
-        <v>7726.6787146596171</v>
+        <v>7799.3527436193035</v>
       </c>
       <c r="M51" s="19">
-        <v>2629.796765055999</v>
+        <v>2294.5162238704979</v>
       </c>
       <c r="N51" s="19">
-        <v>4464.5122847686171</v>
+        <v>4842.6990967668053</v>
       </c>
       <c r="O51" s="19">
-        <v>581.68120659000044</v>
+        <v>615.63413392999996</v>
       </c>
       <c r="P51" s="19">
-        <v>9.1290644990000001</v>
+        <v>8.5407225140000023</v>
       </c>
       <c r="Q51" s="19">
-        <v>36.782584659999998</v>
+        <v>34.95596040800001</v>
       </c>
       <c r="R51" s="19">
-        <v>4.3888587000000001</v>
+        <v>2.7197566399999999</v>
       </c>
       <c r="S51" s="20">
-        <v>0.38795038599999998</v>
+        <v>0.28684948999999998</v>
       </c>
     </row>
     <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3891,57 +3891,57 @@
         <v>2021</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="8"/>
-        <v>12022.900882797225</v>
+        <v>11255.030800119688</v>
       </c>
       <c r="E52" s="14">
-        <v>4361.3740710000029</v>
+        <v>3793.7436850000049</v>
       </c>
       <c r="F52" s="14">
-        <v>5936.7487387972214</v>
+        <v>5713.976884119681</v>
       </c>
       <c r="G52" s="14">
-        <v>1232.430877999999</v>
+        <v>1315.6355450000001</v>
       </c>
       <c r="H52" s="14">
-        <v>263.60899599999999</v>
+        <v>235.601181</v>
       </c>
       <c r="I52" s="14">
-        <v>207.02036000000001</v>
+        <v>181.74973800000001</v>
       </c>
       <c r="J52" s="14">
-        <v>1.9199999999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K52" s="14">
-        <v>21.698639</v>
+        <v>14.308767</v>
       </c>
       <c r="L52" s="13">
         <f t="shared" si="9"/>
-        <v>8508.790074300683</v>
+        <v>8093.1738756910991</v>
       </c>
       <c r="M52" s="14">
-        <v>2922.9896007830021</v>
+        <v>2575.3834254900021</v>
       </c>
       <c r="N52" s="14">
-        <v>4940.7335945086788</v>
+        <v>4833.7327735580984</v>
       </c>
       <c r="O52" s="14">
-        <v>590.43121132199985</v>
+        <v>635.0188110539998</v>
       </c>
       <c r="P52" s="14">
-        <v>9.6548794559999997</v>
+        <v>8.7395811469999991</v>
       </c>
       <c r="Q52" s="14">
-        <v>41.925393185999987</v>
+        <v>36.949788237000007</v>
       </c>
       <c r="R52" s="14">
-        <v>2.55537546</v>
+        <v>3.0379556999999999</v>
       </c>
       <c r="S52" s="15">
-        <v>0.50001958499999988</v>
+        <v>0.31154050500000008</v>
       </c>
     </row>
     <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -3949,57 +3949,57 @@
         <v>2021</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D53" s="18">
         <f t="shared" si="8"/>
-        <v>11202.965129249227</v>
+        <v>11085.875192119853</v>
       </c>
       <c r="E53" s="19">
-        <v>4088.1791725000012</v>
+        <v>4014.4691365000031</v>
       </c>
       <c r="F53" s="19">
-        <v>5398.3324937492234</v>
+        <v>5377.2218746198478</v>
       </c>
       <c r="G53" s="19">
-        <v>1215.8369100000009</v>
+        <v>1234.1497800000011</v>
       </c>
       <c r="H53" s="19">
-        <v>280.81724400000002</v>
+        <v>253.12753699999999</v>
       </c>
       <c r="I53" s="19">
-        <v>191.078067</v>
+        <v>192.660923</v>
       </c>
       <c r="J53" s="19">
-        <v>3.2000000000000001E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="K53" s="19">
-        <v>28.689242</v>
+        <v>14.224441000000001</v>
       </c>
       <c r="L53" s="18">
         <f t="shared" si="9"/>
-        <v>7831.1461965570006</v>
+        <v>7726.6787146596171</v>
       </c>
       <c r="M53" s="19">
-        <v>2687.4059335134998</v>
+        <v>2629.796765055999</v>
       </c>
       <c r="N53" s="19">
-        <v>4476.268327207501</v>
+        <v>4464.5122847686171</v>
       </c>
       <c r="O53" s="19">
-        <v>612.56275004999998</v>
+        <v>581.68120659000044</v>
       </c>
       <c r="P53" s="19">
-        <v>10.506913092</v>
+        <v>9.1290644990000001</v>
       </c>
       <c r="Q53" s="19">
-        <v>37.034007258999999</v>
+        <v>36.782584659999998</v>
       </c>
       <c r="R53" s="19">
-        <v>6.8037442799999992</v>
+        <v>4.3888587000000001</v>
       </c>
       <c r="S53" s="20">
-        <v>0.56452115499999989</v>
+        <v>0.38795038599999998</v>
       </c>
     </row>
     <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -4007,57 +4007,57 @@
         <v>2021</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D54" s="13">
         <f t="shared" si="8"/>
-        <v>11472.620926703923</v>
+        <v>12022.900882797225</v>
       </c>
       <c r="E54" s="14">
-        <v>4090.808027499997</v>
+        <v>4361.3740710000029</v>
       </c>
       <c r="F54" s="14">
-        <v>5662.2790862039283</v>
+        <v>5936.7487387972214</v>
       </c>
       <c r="G54" s="14">
-        <v>1207.80692</v>
+        <v>1232.430877999999</v>
       </c>
       <c r="H54" s="14">
-        <v>294.74798299999998</v>
+        <v>263.60899599999999</v>
       </c>
       <c r="I54" s="14">
-        <v>196.56426200000001</v>
+        <v>207.02036000000001</v>
       </c>
       <c r="J54" s="14">
-        <v>2.7E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="K54" s="14">
-        <v>20.387647999999999</v>
+        <v>21.698639</v>
       </c>
       <c r="L54" s="13">
         <f t="shared" si="9"/>
-        <v>8142.6430797048588</v>
+        <v>8508.790074300683</v>
       </c>
       <c r="M54" s="14">
-        <v>2745.9354684965042</v>
+        <v>2922.9896007830021</v>
       </c>
       <c r="N54" s="14">
-        <v>4736.7506870613533</v>
+        <v>4940.7335945086788</v>
       </c>
       <c r="O54" s="14">
-        <v>604.7617960900003</v>
+        <v>590.43121132199985</v>
       </c>
       <c r="P54" s="14">
-        <v>8.8911368260000003</v>
+        <v>9.6548794559999997</v>
       </c>
       <c r="Q54" s="14">
-        <v>41.498002944</v>
+        <v>41.925393185999987</v>
       </c>
       <c r="R54" s="14">
-        <v>4.35843588</v>
+        <v>2.55537546</v>
       </c>
       <c r="S54" s="15">
-        <v>0.44755240699999999</v>
+        <v>0.50001958499999988</v>
       </c>
     </row>
     <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -4065,289 +4065,289 @@
         <v>2021</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="18">
         <f t="shared" si="8"/>
-        <v>9383.1106395317038</v>
+        <v>11202.965129249227</v>
       </c>
       <c r="E55" s="19">
-        <v>3368.883307499998</v>
+        <v>4088.1791725000012</v>
       </c>
       <c r="F55" s="19">
-        <v>4573.2690100317068</v>
+        <v>5398.3324937492234</v>
       </c>
       <c r="G55" s="19">
-        <v>1036.92257</v>
+        <v>1215.8369100000009</v>
       </c>
       <c r="H55" s="19">
-        <v>234.75769500000001</v>
+        <v>280.81724400000002</v>
       </c>
       <c r="I55" s="19">
-        <v>161.20675999999989</v>
+        <v>191.078067</v>
       </c>
       <c r="J55" s="19">
-        <v>2.4E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="K55" s="19">
-        <v>8.0472970000000004</v>
+        <v>28.689242</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" si="9"/>
+        <v>7831.1461965570006</v>
+      </c>
+      <c r="M55" s="19">
+        <v>2687.4059335134998</v>
+      </c>
+      <c r="N55" s="19">
+        <v>4476.268327207501</v>
+      </c>
+      <c r="O55" s="19">
+        <v>612.56275004999998</v>
+      </c>
+      <c r="P55" s="19">
+        <v>10.506913092</v>
+      </c>
+      <c r="Q55" s="19">
+        <v>37.034007258999999</v>
+      </c>
+      <c r="R55" s="19">
+        <v>6.8037442799999992</v>
+      </c>
+      <c r="S55" s="20">
+        <v>0.56452115499999989</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="13">
+        <f t="shared" si="8"/>
+        <v>11472.620926703923</v>
+      </c>
+      <c r="E56" s="14">
+        <v>4090.808027499997</v>
+      </c>
+      <c r="F56" s="14">
+        <v>5662.2790862039283</v>
+      </c>
+      <c r="G56" s="14">
+        <v>1207.80692</v>
+      </c>
+      <c r="H56" s="14">
+        <v>294.74798299999998</v>
+      </c>
+      <c r="I56" s="14">
+        <v>196.56426200000001</v>
+      </c>
+      <c r="J56" s="14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K56" s="14">
+        <v>20.387647999999999</v>
+      </c>
+      <c r="L56" s="13">
+        <f t="shared" si="9"/>
+        <v>8142.6430797048588</v>
+      </c>
+      <c r="M56" s="14">
+        <v>2745.9354684965042</v>
+      </c>
+      <c r="N56" s="14">
+        <v>4736.7506870613533</v>
+      </c>
+      <c r="O56" s="14">
+        <v>604.7617960900003</v>
+      </c>
+      <c r="P56" s="14">
+        <v>8.8911368260000003</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>41.498002944</v>
+      </c>
+      <c r="R56" s="14">
+        <v>4.35843588</v>
+      </c>
+      <c r="S56" s="15">
+        <v>0.44755240699999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="18">
+        <f t="shared" si="8"/>
+        <v>9383.1106395317038</v>
+      </c>
+      <c r="E57" s="19">
+        <v>3368.883307499998</v>
+      </c>
+      <c r="F57" s="19">
+        <v>4573.2690100317068</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1036.92257</v>
+      </c>
+      <c r="H57" s="19">
+        <v>234.75769500000001</v>
+      </c>
+      <c r="I57" s="19">
+        <v>161.20675999999989</v>
+      </c>
+      <c r="J57" s="19">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K57" s="19">
+        <v>8.0472970000000004</v>
+      </c>
+      <c r="L57" s="18">
+        <f t="shared" si="9"/>
         <v>6633.7415436800029</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M57" s="19">
         <v>2289.3534260344968</v>
       </c>
-      <c r="N55" s="19">
+      <c r="N57" s="19">
         <v>3773.8464727675068</v>
       </c>
-      <c r="O55" s="19">
+      <c r="O57" s="19">
         <v>527.36503372999948</v>
       </c>
-      <c r="P55" s="19">
+      <c r="P57" s="19">
         <v>8.0640420000000006</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="Q57" s="19">
         <v>32.601814822999998</v>
       </c>
-      <c r="R55" s="19">
+      <c r="R57" s="19">
         <v>2.3511389399999998</v>
       </c>
-      <c r="S55" s="20">
+      <c r="S57" s="20">
         <v>0.159615385</v>
       </c>
     </row>
-    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="21">
+    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="21">
         <v>2021</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C58" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D58" s="23">
         <f t="shared" si="8"/>
         <v>10668.087908957505</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E58" s="24">
         <v>4020.238264000001</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F58" s="24">
         <v>5144.8473599575036</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G58" s="24">
         <v>1116.808546</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H58" s="24">
         <v>177.10898</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I58" s="24">
         <v>186.84795500000001</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J58" s="24">
         <v>5.1790099999999999</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K58" s="24">
         <v>17.057794000000001</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L58" s="23">
         <f t="shared" si="9"/>
         <v>7658.9491725908874</v>
       </c>
-      <c r="M56" s="24">
+      <c r="M58" s="24">
         <v>2719.7331992549998</v>
       </c>
-      <c r="N56" s="24">
+      <c r="N58" s="24">
         <v>4347.3157786078864</v>
       </c>
-      <c r="O56" s="24">
+      <c r="O58" s="24">
         <v>544.13671407200002</v>
       </c>
-      <c r="P56" s="24">
+      <c r="P58" s="24">
         <v>7.3822649800000004</v>
       </c>
-      <c r="Q56" s="24">
+      <c r="Q58" s="24">
         <v>37.287069709999997</v>
       </c>
-      <c r="R56" s="24">
+      <c r="R58" s="24">
         <v>2.7605594199999999</v>
       </c>
-      <c r="S56" s="25">
+      <c r="S58" s="25">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="26">
+    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="26">
         <v>2020</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C59" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D59" s="28">
         <f t="shared" si="8"/>
         <v>10425.345499100005</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E59" s="29">
         <v>3898.4186785000038</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F59" s="29">
         <v>4882.8448936000004</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G59" s="29">
         <v>1069.05969</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H59" s="29">
         <v>347.73810900000001</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I59" s="29">
         <v>196.70733799999999</v>
       </c>
-      <c r="J57" s="29">
+      <c r="J59" s="29">
         <v>18.026479999999999</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K59" s="29">
         <v>12.55031</v>
       </c>
-      <c r="L57" s="28">
+      <c r="L59" s="28">
         <f t="shared" si="9"/>
         <v>7353.1727623347024</v>
       </c>
-      <c r="M57" s="29">
+      <c r="M59" s="29">
         <v>2625.9467366160002</v>
       </c>
-      <c r="N57" s="29">
+      <c r="N59" s="29">
         <v>4157.4580108327018</v>
       </c>
-      <c r="O57" s="29">
+      <c r="O59" s="29">
         <v>517.70569403000059</v>
       </c>
-      <c r="P57" s="29">
+      <c r="P59" s="29">
         <v>9.0617785400000006</v>
       </c>
-      <c r="Q57" s="29">
+      <c r="Q59" s="29">
         <v>36.825079076000002</v>
       </c>
-      <c r="R57" s="29">
+      <c r="R59" s="29">
         <v>5.8351311600000004</v>
       </c>
-      <c r="S57" s="30">
+      <c r="S59" s="30">
         <v>0.34033207999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="13">
-        <f t="shared" si="8"/>
-        <v>10381.153690500003</v>
-      </c>
-      <c r="E58" s="14">
-        <v>3792.1774099999998</v>
-      </c>
-      <c r="F58" s="14">
-        <v>5016.643987500006</v>
-      </c>
-      <c r="G58" s="14">
-        <v>1022.91</v>
-      </c>
-      <c r="H58" s="14">
-        <v>376.49241599999999</v>
-      </c>
-      <c r="I58" s="14">
-        <v>156.720607</v>
-      </c>
-      <c r="J58" s="14">
-        <v>6.5342300000000009</v>
-      </c>
-      <c r="K58" s="14">
-        <v>9.6750399999999974</v>
-      </c>
-      <c r="L58" s="13">
-        <f t="shared" si="9"/>
-        <v>7352.5100897651027</v>
-      </c>
-      <c r="M58" s="14">
-        <v>2476.4938742799982</v>
-      </c>
-      <c r="N58" s="14">
-        <v>4312.6025955031046</v>
-      </c>
-      <c r="O58" s="14">
-        <v>515.07792600000016</v>
-      </c>
-      <c r="P58" s="14">
-        <v>11.231821312999999</v>
-      </c>
-      <c r="Q58" s="14">
-        <v>34.256908838999998</v>
-      </c>
-      <c r="R58" s="14">
-        <v>2.6046938000000002</v>
-      </c>
-      <c r="S58" s="15">
-        <v>0.24227003</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="18">
-        <f t="shared" si="8"/>
-        <v>10304.857817457816</v>
-      </c>
-      <c r="E59" s="19">
-        <v>3959.7610744999961</v>
-      </c>
-      <c r="F59" s="19">
-        <v>4749.0987938578201</v>
-      </c>
-      <c r="G59" s="19">
-        <v>1197.7530099999999</v>
-      </c>
-      <c r="H59" s="19">
-        <v>186.51679809999999</v>
-      </c>
-      <c r="I59" s="19">
-        <v>178.59754699999999</v>
-      </c>
-      <c r="J59" s="19">
-        <v>16.072800000000001</v>
-      </c>
-      <c r="K59" s="19">
-        <v>17.057794000000001</v>
-      </c>
-      <c r="L59" s="18">
-        <f t="shared" si="9"/>
-        <v>7334.9599437122397</v>
-      </c>
-      <c r="M59" s="19">
-        <v>2713.3960539770019</v>
-      </c>
-      <c r="N59" s="19">
-        <v>4023.2553769225378</v>
-      </c>
-      <c r="O59" s="19">
-        <v>542.79762977000007</v>
-      </c>
-      <c r="P59" s="19">
-        <v>7.5060893896999996</v>
-      </c>
-      <c r="Q59" s="19">
-        <v>42.505763026999993</v>
-      </c>
-      <c r="R59" s="19">
-        <v>5.1654440799999994</v>
-      </c>
-      <c r="S59" s="20">
-        <v>0.33358654599999998</v>
       </c>
     </row>
     <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -4355,57 +4355,57 @@
         <v>2020</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D60" s="13">
         <f t="shared" si="8"/>
-        <v>10010.860705133222</v>
+        <v>10381.153690500003</v>
       </c>
       <c r="E60" s="14">
-        <v>4074.659214000003</v>
+        <v>3792.1774099999998</v>
       </c>
       <c r="F60" s="14">
-        <v>4534.2935971332181</v>
+        <v>5016.643987500006</v>
       </c>
       <c r="G60" s="14">
-        <v>1007.21459</v>
+        <v>1022.91</v>
       </c>
       <c r="H60" s="14">
-        <v>218.893238</v>
+        <v>376.49241599999999</v>
       </c>
       <c r="I60" s="14">
-        <v>160.24086600000001</v>
+        <v>156.720607</v>
       </c>
       <c r="J60" s="14">
-        <v>0.98</v>
+        <v>6.5342300000000009</v>
       </c>
       <c r="K60" s="14">
-        <v>14.5792</v>
+        <v>9.6750399999999974</v>
       </c>
       <c r="L60" s="13">
         <f t="shared" si="9"/>
-        <v>7046.4603867411315</v>
+        <v>7352.5100897651027</v>
       </c>
       <c r="M60" s="14">
-        <v>2750.463505591501</v>
+        <v>2476.4938742799982</v>
       </c>
       <c r="N60" s="14">
-        <v>3736.9267533866309</v>
+        <v>4312.6025955031046</v>
       </c>
       <c r="O60" s="14">
-        <v>516.3334641199998</v>
+        <v>515.07792600000016</v>
       </c>
       <c r="P60" s="14">
-        <v>8.9935901099999995</v>
+        <v>11.231821312999999</v>
       </c>
       <c r="Q60" s="14">
-        <v>32.577175492999999</v>
+        <v>34.256908838999998</v>
       </c>
       <c r="R60" s="14">
-        <v>0.73748120000000006</v>
+        <v>2.6046938000000002</v>
       </c>
       <c r="S60" s="15">
-        <v>0.42841684000000002</v>
+        <v>0.24227003</v>
       </c>
     </row>
     <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -4413,57 +4413,57 @@
         <v>2020</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D61" s="18">
         <f t="shared" si="8"/>
-        <v>10140.746236042156</v>
+        <v>10304.857817457816</v>
       </c>
       <c r="E61" s="19">
-        <v>3720.288184500002</v>
+        <v>3959.7610744999961</v>
       </c>
       <c r="F61" s="19">
-        <v>4994.2514095421539</v>
+        <v>4749.0987938578201</v>
       </c>
       <c r="G61" s="19">
-        <v>1027.58536</v>
+        <v>1197.7530099999999</v>
       </c>
       <c r="H61" s="19">
-        <v>187.64308500000001</v>
+        <v>186.51679809999999</v>
       </c>
       <c r="I61" s="19">
-        <v>186.38118700000001</v>
+        <v>178.59754699999999</v>
       </c>
       <c r="J61" s="19">
-        <v>13.8596</v>
+        <v>16.072800000000001</v>
       </c>
       <c r="K61" s="19">
-        <v>10.737410000000001</v>
+        <v>17.057794000000001</v>
       </c>
       <c r="L61" s="18">
         <f t="shared" si="9"/>
-        <v>7449.2591429184022</v>
+        <v>7334.9599437122397</v>
       </c>
       <c r="M61" s="19">
-        <v>2487.3447639574988</v>
+        <v>2713.3960539770019</v>
       </c>
       <c r="N61" s="19">
-        <v>4328.973769747904</v>
+        <v>4023.2553769225378</v>
       </c>
       <c r="O61" s="19">
-        <v>579.49765215000036</v>
+        <v>542.79762977000007</v>
       </c>
       <c r="P61" s="19">
-        <v>7.4413398099999997</v>
+        <v>7.5060893896999996</v>
       </c>
       <c r="Q61" s="19">
-        <v>39.990465413000003</v>
+        <v>42.505763026999993</v>
       </c>
       <c r="R61" s="19">
-        <v>5.7537497800000006</v>
+        <v>5.1654440799999994</v>
       </c>
       <c r="S61" s="20">
-        <v>0.25740205999999999</v>
+        <v>0.33358654599999998</v>
       </c>
     </row>
     <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -4471,57 +4471,57 @@
         <v>2020</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D62" s="13">
         <f t="shared" si="8"/>
-        <v>10156.497411288225</v>
+        <v>10010.860705133222</v>
       </c>
       <c r="E62" s="14">
-        <v>3613.696181999997</v>
+        <v>4074.659214000003</v>
       </c>
       <c r="F62" s="14">
-        <v>4968.204788288228</v>
+        <v>4534.2935971332181</v>
       </c>
       <c r="G62" s="14">
-        <v>1194.003549999999</v>
+        <v>1007.21459</v>
       </c>
       <c r="H62" s="14">
-        <v>179.13738699999999</v>
+        <v>218.893238</v>
       </c>
       <c r="I62" s="14">
-        <v>177.43138400000001</v>
+        <v>160.24086600000001</v>
       </c>
       <c r="J62" s="14">
-        <v>13.854179999999999</v>
+        <v>0.98</v>
       </c>
       <c r="K62" s="14">
-        <v>10.16994</v>
+        <v>14.5792</v>
       </c>
       <c r="L62" s="13">
         <f t="shared" si="9"/>
-        <v>7380.5613200561647</v>
+        <v>7046.4603867411315</v>
       </c>
       <c r="M62" s="14">
-        <v>2428.846732166</v>
+        <v>2750.463505591501</v>
       </c>
       <c r="N62" s="14">
-        <v>4258.745057885164</v>
+        <v>3736.9267533866309</v>
       </c>
       <c r="O62" s="14">
-        <v>616.52099685999997</v>
+        <v>516.3334641199998</v>
       </c>
       <c r="P62" s="14">
-        <v>6.897613637000001</v>
+        <v>8.9935901099999995</v>
       </c>
       <c r="Q62" s="14">
-        <v>46.615575728000003</v>
+        <v>32.577175492999999</v>
       </c>
       <c r="R62" s="14">
-        <v>22.688503149999999</v>
+        <v>0.73748120000000006</v>
       </c>
       <c r="S62" s="15">
-        <v>0.24684063000000001</v>
+        <v>0.42841684000000002</v>
       </c>
     </row>
     <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -4529,57 +4529,57 @@
         <v>2020</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D63" s="18">
         <f t="shared" si="8"/>
-        <v>9413.8401068405965</v>
+        <v>10140.746236042156</v>
       </c>
       <c r="E63" s="19">
-        <v>3299.4981385000028</v>
+        <v>3720.288184500002</v>
       </c>
       <c r="F63" s="19">
-        <v>4750.320989340591</v>
+        <v>4994.2514095421539</v>
       </c>
       <c r="G63" s="19">
-        <v>1032.4139100000009</v>
+        <v>1027.58536</v>
       </c>
       <c r="H63" s="19">
-        <v>122.951718</v>
+        <v>187.64308500000001</v>
       </c>
       <c r="I63" s="19">
-        <v>176.151501</v>
+        <v>186.38118700000001</v>
       </c>
       <c r="J63" s="19">
-        <v>19.795500000000001</v>
+        <v>13.8596</v>
       </c>
       <c r="K63" s="19">
-        <v>12.708349999999999</v>
+        <v>10.737410000000001</v>
       </c>
       <c r="L63" s="18">
         <f t="shared" si="9"/>
-        <v>6838.7530584626184</v>
+        <v>7449.2591429184022</v>
       </c>
       <c r="M63" s="19">
-        <v>2178.930646833498</v>
+        <v>2487.3447639574988</v>
       </c>
       <c r="N63" s="19">
-        <v>4081.32299100612</v>
+        <v>4328.973769747904</v>
       </c>
       <c r="O63" s="19">
-        <v>505.39333284999958</v>
+        <v>579.49765215000036</v>
       </c>
       <c r="P63" s="19">
-        <v>4.1486682360000007</v>
+        <v>7.4413398099999997</v>
       </c>
       <c r="Q63" s="19">
-        <v>48.516144666999992</v>
+        <v>39.990465413000003</v>
       </c>
       <c r="R63" s="19">
-        <v>20.1564771</v>
+        <v>5.7537497800000006</v>
       </c>
       <c r="S63" s="20">
-        <v>0.28479777000000012</v>
+        <v>0.25740205999999999</v>
       </c>
     </row>
     <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -4587,57 +4587,57 @@
         <v>2020</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D64" s="13">
-        <f t="shared" ref="D64:D92" si="10">SUM(E64:K64)</f>
-        <v>8958.3282716603189</v>
+        <f t="shared" si="8"/>
+        <v>10156.497411288225</v>
       </c>
       <c r="E64" s="14">
-        <v>2963.8515250000032</v>
+        <v>3613.696181999997</v>
       </c>
       <c r="F64" s="14">
-        <v>4578.9250176603191</v>
+        <v>4968.204788288228</v>
       </c>
       <c r="G64" s="14">
-        <v>1046.3265299999989</v>
+        <v>1194.003549999999</v>
       </c>
       <c r="H64" s="14">
-        <v>141.62878699999999</v>
+        <v>179.13738699999999</v>
       </c>
       <c r="I64" s="14">
-        <v>181.326382</v>
+        <v>177.43138400000001</v>
       </c>
       <c r="J64" s="14">
-        <v>35.391770000000001</v>
+        <v>13.854179999999999</v>
       </c>
       <c r="K64" s="14">
-        <v>10.878259999999999</v>
+        <v>10.16994</v>
       </c>
       <c r="L64" s="13">
-        <f t="shared" ref="L64:L92" si="11">SUM(M64:S64)</f>
-        <v>6599.7211012138414</v>
+        <f t="shared" si="9"/>
+        <v>7380.5613200561647</v>
       </c>
       <c r="M64" s="14">
-        <v>1955.6864974084999</v>
+        <v>2428.846732166</v>
       </c>
       <c r="N64" s="14">
-        <v>4070.699793715341</v>
+        <v>4258.745057885164</v>
       </c>
       <c r="O64" s="14">
-        <v>490.43616353999971</v>
+        <v>616.52099685999997</v>
       </c>
       <c r="P64" s="14">
-        <v>4.9919812889999999</v>
+        <v>6.897613637000001</v>
       </c>
       <c r="Q64" s="14">
-        <v>49.262628410999987</v>
+        <v>46.615575728000003</v>
       </c>
       <c r="R64" s="14">
-        <v>28.479580210000002</v>
+        <v>22.688503149999999</v>
       </c>
       <c r="S64" s="15">
-        <v>0.16445663999999999</v>
+        <v>0.24684063000000001</v>
       </c>
     </row>
     <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -4645,57 +4645,57 @@
         <v>2020</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D65" s="18">
-        <f t="shared" si="10"/>
-        <v>9180.7559098961865</v>
+        <f t="shared" si="8"/>
+        <v>9413.8401068405965</v>
       </c>
       <c r="E65" s="19">
-        <v>3045.684487</v>
+        <v>3299.4981385000028</v>
       </c>
       <c r="F65" s="19">
-        <v>4586.6569688961881</v>
+        <v>4750.320989340591</v>
       </c>
       <c r="G65" s="19">
-        <v>1232.8326999999999</v>
+        <v>1032.4139100000009</v>
       </c>
       <c r="H65" s="19">
-        <v>80.286566999999991</v>
+        <v>122.951718</v>
       </c>
       <c r="I65" s="19">
-        <v>185.73497699999999</v>
+        <v>176.151501</v>
       </c>
       <c r="J65" s="19">
-        <v>37.784360000000007</v>
+        <v>19.795500000000001</v>
       </c>
       <c r="K65" s="19">
-        <v>11.77585</v>
+        <v>12.708349999999999</v>
       </c>
       <c r="L65" s="18">
-        <f t="shared" si="11"/>
-        <v>6563.6809044984548</v>
+        <f t="shared" si="9"/>
+        <v>6838.7530584626184</v>
       </c>
       <c r="M65" s="19">
-        <v>2092.363650120501</v>
+        <v>2178.930646833498</v>
       </c>
       <c r="N65" s="19">
-        <v>3810.8671320719541</v>
+        <v>4081.32299100612</v>
       </c>
       <c r="O65" s="19">
-        <v>576.76851579999936</v>
+        <v>505.39333284999958</v>
       </c>
       <c r="P65" s="19">
-        <v>2.1857480950000001</v>
+        <v>4.1486682360000007</v>
       </c>
       <c r="Q65" s="19">
-        <v>48.091960541000013</v>
+        <v>48.516144666999992</v>
       </c>
       <c r="R65" s="19">
-        <v>33.146718739999997</v>
+        <v>20.1564771</v>
       </c>
       <c r="S65" s="20">
-        <v>0.25717912999999998</v>
+        <v>0.28479777000000012</v>
       </c>
     </row>
     <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -4703,57 +4703,57 @@
         <v>2020</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D66" s="13">
-        <f t="shared" si="10"/>
-        <v>10838.533316456946</v>
+        <f t="shared" ref="D66:D94" si="10">SUM(E66:K66)</f>
+        <v>8958.3282716603189</v>
       </c>
       <c r="E66" s="14">
-        <v>3989.0247625000002</v>
+        <v>2963.8515250000032</v>
       </c>
       <c r="F66" s="14">
-        <v>5227.3044649569474</v>
+        <v>4578.9250176603191</v>
       </c>
       <c r="G66" s="14">
-        <v>1164.59097</v>
+        <v>1046.3265299999989</v>
       </c>
       <c r="H66" s="14">
-        <v>195.326954</v>
+        <v>141.62878699999999</v>
       </c>
       <c r="I66" s="14">
-        <v>192.162305</v>
+        <v>181.326382</v>
       </c>
       <c r="J66" s="14">
-        <v>55.761529999999993</v>
+        <v>35.391770000000001</v>
       </c>
       <c r="K66" s="14">
-        <v>14.36233</v>
+        <v>10.878259999999999</v>
       </c>
       <c r="L66" s="13">
-        <f t="shared" si="11"/>
-        <v>7720.3875207885012</v>
+        <f t="shared" ref="L66:L94" si="11">SUM(M66:S66)</f>
+        <v>6599.7211012138414</v>
       </c>
       <c r="M66" s="14">
-        <v>2719.9630072755008</v>
+        <v>1955.6864974084999</v>
       </c>
       <c r="N66" s="14">
-        <v>4308.5178526390009</v>
+        <v>4070.699793715341</v>
       </c>
       <c r="O66" s="14">
-        <v>550.02743308999959</v>
+        <v>490.43616353999971</v>
       </c>
       <c r="P66" s="14">
-        <v>7.8376115140000007</v>
+        <v>4.9919812889999999</v>
       </c>
       <c r="Q66" s="14">
-        <v>49.157905969999987</v>
+        <v>49.262628410999987</v>
       </c>
       <c r="R66" s="14">
-        <v>84.630515320000001</v>
+        <v>28.479580210000002</v>
       </c>
       <c r="S66" s="15">
-        <v>0.25319498000000001</v>
+        <v>0.16445663999999999</v>
       </c>
     </row>
     <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -4761,289 +4761,289 @@
         <v>2020</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="18">
         <f t="shared" si="10"/>
-        <v>10299.350069510732</v>
+        <v>9180.7559098961865</v>
       </c>
       <c r="E67" s="19">
-        <v>3823.384485499997</v>
+        <v>3045.684487</v>
       </c>
       <c r="F67" s="19">
-        <v>4951.899973010738</v>
+        <v>4586.6569688961881</v>
       </c>
       <c r="G67" s="19">
-        <v>1126.6304699999989</v>
+        <v>1232.8326999999999</v>
       </c>
       <c r="H67" s="19">
-        <v>155.82070999999999</v>
+        <v>80.286566999999991</v>
       </c>
       <c r="I67" s="19">
-        <v>189.46652100000011</v>
+        <v>185.73497699999999</v>
       </c>
       <c r="J67" s="19">
-        <v>42.813149999999993</v>
+        <v>37.784360000000007</v>
       </c>
       <c r="K67" s="19">
-        <v>9.3347600000000028</v>
+        <v>11.77585</v>
       </c>
       <c r="L67" s="18">
         <f t="shared" si="11"/>
+        <v>6563.6809044984548</v>
+      </c>
+      <c r="M67" s="19">
+        <v>2092.363650120501</v>
+      </c>
+      <c r="N67" s="19">
+        <v>3810.8671320719541</v>
+      </c>
+      <c r="O67" s="19">
+        <v>576.76851579999936</v>
+      </c>
+      <c r="P67" s="19">
+        <v>2.1857480950000001</v>
+      </c>
+      <c r="Q67" s="19">
+        <v>48.091960541000013</v>
+      </c>
+      <c r="R67" s="19">
+        <v>33.146718739999997</v>
+      </c>
+      <c r="S67" s="20">
+        <v>0.25717912999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="13">
+        <f t="shared" si="10"/>
+        <v>10838.533316456946</v>
+      </c>
+      <c r="E68" s="14">
+        <v>3989.0247625000002</v>
+      </c>
+      <c r="F68" s="14">
+        <v>5227.3044649569474</v>
+      </c>
+      <c r="G68" s="14">
+        <v>1164.59097</v>
+      </c>
+      <c r="H68" s="14">
+        <v>195.326954</v>
+      </c>
+      <c r="I68" s="14">
+        <v>192.162305</v>
+      </c>
+      <c r="J68" s="14">
+        <v>55.761529999999993</v>
+      </c>
+      <c r="K68" s="14">
+        <v>14.36233</v>
+      </c>
+      <c r="L68" s="13">
+        <f t="shared" si="11"/>
+        <v>7720.3875207885012</v>
+      </c>
+      <c r="M68" s="14">
+        <v>2719.9630072755008</v>
+      </c>
+      <c r="N68" s="14">
+        <v>4308.5178526390009</v>
+      </c>
+      <c r="O68" s="14">
+        <v>550.02743308999959</v>
+      </c>
+      <c r="P68" s="14">
+        <v>7.8376115140000007</v>
+      </c>
+      <c r="Q68" s="14">
+        <v>49.157905969999987</v>
+      </c>
+      <c r="R68" s="14">
+        <v>84.630515320000001</v>
+      </c>
+      <c r="S68" s="15">
+        <v>0.25319498000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="16">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="18">
+        <f t="shared" si="10"/>
+        <v>10299.350069510732</v>
+      </c>
+      <c r="E69" s="19">
+        <v>3823.384485499997</v>
+      </c>
+      <c r="F69" s="19">
+        <v>4951.899973010738</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1126.6304699999989</v>
+      </c>
+      <c r="H69" s="19">
+        <v>155.82070999999999</v>
+      </c>
+      <c r="I69" s="19">
+        <v>189.46652100000011</v>
+      </c>
+      <c r="J69" s="19">
+        <v>42.813149999999993</v>
+      </c>
+      <c r="K69" s="19">
+        <v>9.3347600000000028</v>
+      </c>
+      <c r="L69" s="18">
+        <f t="shared" si="11"/>
         <v>7398.4236104454985</v>
       </c>
-      <c r="M67" s="19">
+      <c r="M69" s="19">
         <v>2611.3807745675008</v>
       </c>
-      <c r="N67" s="19">
+      <c r="N69" s="19">
         <v>4099.994935206998</v>
       </c>
-      <c r="O67" s="19">
+      <c r="O69" s="19">
         <v>576.65962569999999</v>
       </c>
-      <c r="P67" s="19">
+      <c r="P69" s="19">
         <v>5.8101744709999998</v>
       </c>
-      <c r="Q67" s="19">
+      <c r="Q69" s="19">
         <v>48.975136419999998</v>
       </c>
-      <c r="R67" s="19">
+      <c r="R69" s="19">
         <v>55.332080869999999</v>
       </c>
-      <c r="S67" s="20">
+      <c r="S69" s="20">
         <v>0.2708832100000001</v>
       </c>
     </row>
-    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="21">
+    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="21">
         <v>2020</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C70" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D70" s="23">
         <f t="shared" si="10"/>
         <v>10271.035696436747</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E70" s="24">
         <v>3815.537451499998</v>
       </c>
-      <c r="F68" s="24">
+      <c r="F70" s="24">
         <v>4795.4483429367501</v>
       </c>
-      <c r="G68" s="24">
+      <c r="G70" s="24">
         <v>1231.876279999999</v>
       </c>
-      <c r="H68" s="24">
+      <c r="H70" s="24">
         <v>149.16394</v>
       </c>
-      <c r="I68" s="24">
+      <c r="I70" s="24">
         <v>225.18540200000001</v>
       </c>
-      <c r="J68" s="24">
+      <c r="J70" s="24">
         <v>42.674029999999988</v>
       </c>
-      <c r="K68" s="24">
+      <c r="K70" s="24">
         <v>11.15025</v>
       </c>
-      <c r="L68" s="23">
+      <c r="L70" s="23">
         <f t="shared" si="11"/>
         <v>7185.7383871704087</v>
       </c>
-      <c r="M68" s="24">
+      <c r="M70" s="24">
         <v>2557.950665571791</v>
       </c>
-      <c r="N68" s="24">
+      <c r="N70" s="24">
         <v>3902.6936190776169</v>
       </c>
-      <c r="O68" s="24">
+      <c r="O70" s="24">
         <v>613.68125601999952</v>
       </c>
-      <c r="P68" s="24">
+      <c r="P70" s="24">
         <v>5.5450976610000007</v>
       </c>
-      <c r="Q68" s="24">
+      <c r="Q70" s="24">
         <v>54.17302995</v>
       </c>
-      <c r="R68" s="24">
+      <c r="R70" s="24">
         <v>51.401263659999998</v>
       </c>
-      <c r="S68" s="25">
+      <c r="S70" s="25">
         <v>0.29345523000000012</v>
       </c>
     </row>
-    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="26">
+    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="26">
         <v>2019</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C71" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D71" s="28">
         <f t="shared" si="10"/>
         <v>10047.312890842448</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E71" s="29">
         <v>3660.8761419999978</v>
       </c>
-      <c r="F69" s="29">
+      <c r="F71" s="29">
         <v>4803.7000258424505</v>
       </c>
-      <c r="G69" s="29">
+      <c r="G71" s="29">
         <v>1177.5281500000008</v>
       </c>
-      <c r="H69" s="29">
+      <c r="H71" s="29">
         <v>122.89328999999999</v>
       </c>
-      <c r="I69" s="29">
+      <c r="I71" s="29">
         <v>230.92350300000001</v>
       </c>
-      <c r="J69" s="29">
+      <c r="J71" s="29">
         <v>42.637639999999998</v>
       </c>
-      <c r="K69" s="29">
+      <c r="K71" s="29">
         <v>8.7541399999999996</v>
       </c>
-      <c r="L69" s="28">
+      <c r="L71" s="28">
         <f t="shared" si="11"/>
         <v>7283.4758425855061</v>
       </c>
-      <c r="M69" s="29">
+      <c r="M71" s="29">
         <v>2545.6933826471468</v>
       </c>
-      <c r="N69" s="29">
+      <c r="N71" s="29">
         <v>4050.2897667273596</v>
       </c>
-      <c r="O69" s="29">
+      <c r="O71" s="29">
         <v>573.5496261799999</v>
       </c>
-      <c r="P69" s="29">
+      <c r="P71" s="29">
         <v>4.2298997729999996</v>
       </c>
-      <c r="Q69" s="29">
+      <c r="Q71" s="29">
         <v>56.884561087999998</v>
       </c>
-      <c r="R69" s="29">
+      <c r="R71" s="29">
         <v>52.609621790000006</v>
       </c>
-      <c r="S69" s="30">
+      <c r="S71" s="30">
         <v>0.21898438000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="13">
-        <f t="shared" si="10"/>
-        <v>10280.781962591729</v>
-      </c>
-      <c r="E70" s="14">
-        <v>3610.9266754999981</v>
-      </c>
-      <c r="F70" s="14">
-        <v>5041.7983650917313</v>
-      </c>
-      <c r="G70" s="14">
-        <v>1236.3706200000001</v>
-      </c>
-      <c r="H70" s="14">
-        <v>119.94541900000002</v>
-      </c>
-      <c r="I70" s="14">
-        <v>216.296423</v>
-      </c>
-      <c r="J70" s="14">
-        <v>44.749820000000007</v>
-      </c>
-      <c r="K70" s="14">
-        <v>10.694639999999998</v>
-      </c>
-      <c r="L70" s="13">
-        <f t="shared" si="11"/>
-        <v>7555.8940235339123</v>
-      </c>
-      <c r="M70" s="14">
-        <v>2480.4706212095998</v>
-      </c>
-      <c r="N70" s="14">
-        <v>4344.3803465193132</v>
-      </c>
-      <c r="O70" s="14">
-        <v>612.67386856000019</v>
-      </c>
-      <c r="P70" s="14">
-        <v>4.0122463450000003</v>
-      </c>
-      <c r="Q70" s="14">
-        <v>58.796987859999994</v>
-      </c>
-      <c r="R70" s="14">
-        <v>55.348814779999998</v>
-      </c>
-      <c r="S70" s="15">
-        <v>0.21113825999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="16">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="18">
-        <f t="shared" si="10"/>
-        <v>10705.327866000001</v>
-      </c>
-      <c r="E71" s="19">
-        <v>3801.481272</v>
-      </c>
-      <c r="F71" s="19">
-        <v>5236.960086</v>
-      </c>
-      <c r="G71" s="19">
-        <v>1235.93461</v>
-      </c>
-      <c r="H71" s="19">
-        <v>160.86355499999999</v>
-      </c>
-      <c r="I71" s="19">
-        <v>213.47005300000001</v>
-      </c>
-      <c r="J71" s="19">
-        <v>45.65587</v>
-      </c>
-      <c r="K71" s="19">
-        <v>10.96242</v>
-      </c>
-      <c r="L71" s="18">
-        <f t="shared" si="11"/>
-        <v>7564.1221808391301</v>
-      </c>
-      <c r="M71" s="19">
-        <v>2532.7762513215766</v>
-      </c>
-      <c r="N71" s="19">
-        <v>4297.3858559405544</v>
-      </c>
-      <c r="O71" s="19">
-        <v>606.66118932999996</v>
-      </c>
-      <c r="P71" s="19">
-        <v>5.7111421819999997</v>
-      </c>
-      <c r="Q71" s="19">
-        <v>64.496729185000007</v>
-      </c>
-      <c r="R71" s="19">
-        <v>56.887522270000005</v>
-      </c>
-      <c r="S71" s="20">
-        <v>0.20349060999999999</v>
       </c>
     </row>
     <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5051,57 +5051,57 @@
         <v>2019</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D72" s="13">
         <f t="shared" si="10"/>
-        <v>10313.251420927023</v>
+        <v>10280.781962591729</v>
       </c>
       <c r="E72" s="14">
-        <v>3763.4243204999998</v>
+        <v>3610.9266754999981</v>
       </c>
       <c r="F72" s="14">
-        <v>4794.4036324270237</v>
+        <v>5041.7983650917313</v>
       </c>
       <c r="G72" s="14">
-        <v>1259.9243900000008</v>
+        <v>1236.3706200000001</v>
       </c>
       <c r="H72" s="14">
-        <v>164.26299700000001</v>
+        <v>119.94541900000002</v>
       </c>
       <c r="I72" s="14">
-        <v>251.636821</v>
+        <v>216.296423</v>
       </c>
       <c r="J72" s="14">
-        <v>66.981439999999992</v>
+        <v>44.749820000000007</v>
       </c>
       <c r="K72" s="14">
-        <v>12.61782</v>
+        <v>10.694639999999998</v>
       </c>
       <c r="L72" s="13">
         <f t="shared" si="11"/>
-        <v>7368.223949700222</v>
+        <v>7555.8940235339123</v>
       </c>
       <c r="M72" s="14">
-        <v>2492.5831110034319</v>
+        <v>2480.4706212095998</v>
       </c>
       <c r="N72" s="14">
-        <v>4168.1941198527893</v>
+        <v>4344.3803465193132</v>
       </c>
       <c r="O72" s="14">
-        <v>564.70797957000025</v>
+        <v>612.67386856000019</v>
       </c>
       <c r="P72" s="14">
-        <v>6.7826120650000004</v>
+        <v>4.0122463450000003</v>
       </c>
       <c r="Q72" s="14">
-        <v>68.621584789000011</v>
+        <v>58.796987859999994</v>
       </c>
       <c r="R72" s="14">
-        <v>67.080573079999994</v>
+        <v>55.348814779999998</v>
       </c>
       <c r="S72" s="15">
-        <v>0.25396934000000004</v>
+        <v>0.21113825999999997</v>
       </c>
     </row>
     <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5109,57 +5109,57 @@
         <v>2019</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D73" s="18">
         <f t="shared" si="10"/>
-        <v>11096.380692382061</v>
+        <v>10705.327866000001</v>
       </c>
       <c r="E73" s="19">
-        <v>3917.8476439999995</v>
+        <v>3801.481272</v>
       </c>
       <c r="F73" s="19">
-        <v>5305.3281943820612</v>
+        <v>5236.960086</v>
       </c>
       <c r="G73" s="19">
-        <v>1265.0673000000011</v>
+        <v>1235.93461</v>
       </c>
       <c r="H73" s="19">
-        <v>254.105448</v>
+        <v>160.86355499999999</v>
       </c>
       <c r="I73" s="19">
-        <v>282.87777699999998</v>
+        <v>213.47005300000001</v>
       </c>
       <c r="J73" s="19">
-        <v>52.912410000000001</v>
+        <v>45.65587</v>
       </c>
       <c r="K73" s="19">
-        <v>18.241918999999999</v>
+        <v>10.96242</v>
       </c>
       <c r="L73" s="18">
         <f t="shared" si="11"/>
-        <v>7875.1347427823239</v>
+        <v>7564.1221808391301</v>
       </c>
       <c r="M73" s="19">
-        <v>2623.4929048545905</v>
+        <v>2532.7762513215766</v>
       </c>
       <c r="N73" s="19">
-        <v>4528.0558628127355</v>
+        <v>4297.3858559405544</v>
       </c>
       <c r="O73" s="19">
-        <v>599.40095962999965</v>
+        <v>606.66118932999996</v>
       </c>
       <c r="P73" s="19">
-        <v>7.1929457959999992</v>
+        <v>5.7111421819999997</v>
       </c>
       <c r="Q73" s="19">
-        <v>67.383048192999993</v>
+        <v>64.496729185000007</v>
       </c>
       <c r="R73" s="19">
-        <v>49.255862180000001</v>
+        <v>56.887522270000005</v>
       </c>
       <c r="S73" s="20">
-        <v>0.353159316</v>
+        <v>0.20349060999999999</v>
       </c>
     </row>
     <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5167,57 +5167,57 @@
         <v>2019</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D74" s="13">
         <f t="shared" si="10"/>
-        <v>11150.650438969102</v>
+        <v>10313.251420927023</v>
       </c>
       <c r="E74" s="14">
-        <v>3873.3662050000003</v>
+        <v>3763.4243204999998</v>
       </c>
       <c r="F74" s="14">
-        <v>5476.5920749691022</v>
+        <v>4794.4036324270237</v>
       </c>
       <c r="G74" s="14">
-        <v>1295.4921899999999</v>
+        <v>1259.9243900000008</v>
       </c>
       <c r="H74" s="14">
-        <v>130.167182</v>
+        <v>164.26299700000001</v>
       </c>
       <c r="I74" s="14">
-        <v>270.20667400000008</v>
+        <v>251.636821</v>
       </c>
       <c r="J74" s="14">
-        <v>95.357079999999996</v>
+        <v>66.981439999999992</v>
       </c>
       <c r="K74" s="14">
-        <v>9.4690329999999996</v>
+        <v>12.61782</v>
       </c>
       <c r="L74" s="13">
         <f t="shared" si="11"/>
-        <v>8143.3902304466164</v>
+        <v>7368.223949700222</v>
       </c>
       <c r="M74" s="14">
-        <v>2699.0426404251648</v>
+        <v>2492.5831110034319</v>
       </c>
       <c r="N74" s="14">
-        <v>4690.7340326165104</v>
+        <v>4168.1941198527893</v>
       </c>
       <c r="O74" s="14">
-        <v>626.75042356999995</v>
+        <v>564.70797957000025</v>
       </c>
       <c r="P74" s="14">
-        <v>4.2158850049414749</v>
+        <v>6.7826120650000004</v>
       </c>
       <c r="Q74" s="14">
-        <v>69.891604407999992</v>
+        <v>68.621584789000011</v>
       </c>
       <c r="R74" s="14">
-        <v>52.570641740000006</v>
+        <v>67.080573079999994</v>
       </c>
       <c r="S74" s="15">
-        <v>0.18500268199999997</v>
+        <v>0.25396934000000004</v>
       </c>
     </row>
     <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5225,57 +5225,57 @@
         <v>2019</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D75" s="18">
         <f t="shared" si="10"/>
-        <v>10374.818673051463</v>
+        <v>11096.380692382061</v>
       </c>
       <c r="E75" s="19">
-        <v>3549.9224370000029</v>
+        <v>3917.8476439999995</v>
       </c>
       <c r="F75" s="19">
-        <v>5071.1049410514588</v>
+        <v>5305.3281943820612</v>
       </c>
       <c r="G75" s="19">
-        <v>1261.1353490000001</v>
+        <v>1265.0673000000011</v>
       </c>
       <c r="H75" s="19">
-        <v>189.70297400000001</v>
+        <v>254.105448</v>
       </c>
       <c r="I75" s="19">
-        <v>241.36934199999999</v>
+        <v>282.87777699999998</v>
       </c>
       <c r="J75" s="19">
-        <v>51.38608</v>
+        <v>52.912410000000001</v>
       </c>
       <c r="K75" s="19">
-        <v>10.197550000000003</v>
+        <v>18.241918999999999</v>
       </c>
       <c r="L75" s="18">
         <f t="shared" si="11"/>
-        <v>7532.8116285687038</v>
+        <v>7875.1347427823239</v>
       </c>
       <c r="M75" s="19">
-        <v>2498.5873912253655</v>
+        <v>2623.4929048545905</v>
       </c>
       <c r="N75" s="19">
-        <v>4294.5408771924649</v>
+        <v>4528.0558628127355</v>
       </c>
       <c r="O75" s="19">
-        <v>618.46245641899986</v>
+        <v>599.40095962999965</v>
       </c>
       <c r="P75" s="19">
-        <v>7.1837945668734235</v>
+        <v>7.1929457959999992</v>
       </c>
       <c r="Q75" s="19">
-        <v>67.283344745000008</v>
+        <v>67.383048192999993</v>
       </c>
       <c r="R75" s="19">
-        <v>46.514204849999999</v>
+        <v>49.255862180000001</v>
       </c>
       <c r="S75" s="20">
-        <v>0.23955957</v>
+        <v>0.353159316</v>
       </c>
     </row>
     <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5283,57 +5283,57 @@
         <v>2019</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D76" s="13">
         <f t="shared" si="10"/>
-        <v>10971.576587143792</v>
+        <v>11150.650438969102</v>
       </c>
       <c r="E76" s="14">
-        <v>3859.9412885000029</v>
+        <v>3873.3662050000003</v>
       </c>
       <c r="F76" s="14">
-        <v>5135.6499426437886</v>
+        <v>5476.5920749691022</v>
       </c>
       <c r="G76" s="14">
-        <v>1398.7275000000011</v>
+        <v>1295.4921899999999</v>
       </c>
       <c r="H76" s="14">
-        <v>201.93910199999996</v>
+        <v>130.167182</v>
       </c>
       <c r="I76" s="14">
-        <v>308.40207399999997</v>
+        <v>270.20667400000008</v>
       </c>
       <c r="J76" s="14">
-        <v>52.276800000000001</v>
+        <v>95.357079999999996</v>
       </c>
       <c r="K76" s="14">
-        <v>14.63988</v>
+        <v>9.4690329999999996</v>
       </c>
       <c r="L76" s="13">
         <f t="shared" si="11"/>
-        <v>7918.5192805454762</v>
+        <v>8143.3902304466164</v>
       </c>
       <c r="M76" s="14">
-        <v>2715.5986838884046</v>
+        <v>2699.0426404251648</v>
       </c>
       <c r="N76" s="14">
-        <v>4370.5287118188699</v>
+        <v>4690.7340326165104</v>
       </c>
       <c r="O76" s="14">
-        <v>688.65007213000047</v>
+        <v>626.75042356999995</v>
       </c>
       <c r="P76" s="14">
-        <v>6.9957881702000009</v>
+        <v>4.2158850049414749</v>
       </c>
       <c r="Q76" s="14">
-        <v>77.028830357999993</v>
+        <v>69.891604407999992</v>
       </c>
       <c r="R76" s="14">
-        <v>59.42133875999999</v>
+        <v>52.570641740000006</v>
       </c>
       <c r="S76" s="15">
-        <v>0.29585541999999998</v>
+        <v>0.18500268199999997</v>
       </c>
     </row>
     <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5341,57 +5341,57 @@
         <v>2019</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D77" s="18">
         <f t="shared" si="10"/>
-        <v>10534.153393500883</v>
+        <v>10374.818673051463</v>
       </c>
       <c r="E77" s="19">
-        <v>3675.3372790000017</v>
+        <v>3549.9224370000029</v>
       </c>
       <c r="F77" s="19">
-        <v>5077.1043255008817</v>
+        <v>5071.1049410514588</v>
       </c>
       <c r="G77" s="19">
-        <v>1229.5152699999999</v>
+        <v>1261.1353490000001</v>
       </c>
       <c r="H77" s="19">
-        <v>205.91515200000003</v>
+        <v>189.70297400000001</v>
       </c>
       <c r="I77" s="19">
-        <v>272.06735700000002</v>
+        <v>241.36934199999999</v>
       </c>
       <c r="J77" s="19">
-        <v>57.111829999999998</v>
+        <v>51.38608</v>
       </c>
       <c r="K77" s="19">
-        <v>17.102179999999997</v>
+        <v>10.197550000000003</v>
       </c>
       <c r="L77" s="18">
         <f t="shared" si="11"/>
-        <v>7390.6301600856887</v>
+        <v>7532.8116285687038</v>
       </c>
       <c r="M77" s="19">
-        <v>2482.4826125118411</v>
+        <v>2498.5873912253655</v>
       </c>
       <c r="N77" s="19">
-        <v>4183.7452393018466</v>
+        <v>4294.5408771924649</v>
       </c>
       <c r="O77" s="19">
-        <v>594.52454974000057</v>
+        <v>618.46245641899986</v>
       </c>
       <c r="P77" s="19">
-        <v>6.8929467899999999</v>
+        <v>7.1837945668734235</v>
       </c>
       <c r="Q77" s="19">
-        <v>61.99332402200001</v>
+        <v>67.283344745000008</v>
       </c>
       <c r="R77" s="19">
-        <v>60.632588310000003</v>
+        <v>46.514204849999999</v>
       </c>
       <c r="S77" s="20">
-        <v>0.35889941000000009</v>
+        <v>0.23955957</v>
       </c>
     </row>
     <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5399,57 +5399,57 @@
         <v>2019</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D78" s="13">
         <f t="shared" si="10"/>
-        <v>10581.052353198915</v>
+        <v>10971.576587143792</v>
       </c>
       <c r="E78" s="14">
-        <v>3752.7021304999998</v>
+        <v>3859.9412885000029</v>
       </c>
       <c r="F78" s="14">
-        <v>5042.9410756989164</v>
+        <v>5135.6499426437886</v>
       </c>
       <c r="G78" s="14">
-        <v>1226.6793299999995</v>
+        <v>1398.7275000000011</v>
       </c>
       <c r="H78" s="14">
-        <v>227.34326400000003</v>
+        <v>201.93910199999996</v>
       </c>
       <c r="I78" s="14">
-        <v>273.29974500000003</v>
+        <v>308.40207399999997</v>
       </c>
       <c r="J78" s="14">
-        <v>46.615569999999991</v>
+        <v>52.276800000000001</v>
       </c>
       <c r="K78" s="14">
-        <v>11.471238</v>
+        <v>14.63988</v>
       </c>
       <c r="L78" s="13">
         <f t="shared" si="11"/>
-        <v>7316.8442337622519</v>
+        <v>7918.5192805454762</v>
       </c>
       <c r="M78" s="14">
-        <v>2584.8546054208359</v>
+        <v>2715.5986838884046</v>
       </c>
       <c r="N78" s="14">
-        <v>3971.3774654550916</v>
+        <v>4370.5287118188699</v>
       </c>
       <c r="O78" s="14">
-        <v>628.3360908439995</v>
+        <v>688.65007213000047</v>
       </c>
       <c r="P78" s="14">
-        <v>8.5075610303260056</v>
+        <v>6.9957881702000009</v>
       </c>
       <c r="Q78" s="14">
-        <v>68.783462650000004</v>
+        <v>77.028830357999993</v>
       </c>
       <c r="R78" s="14">
-        <v>54.71253209999999</v>
+        <v>59.42133875999999</v>
       </c>
       <c r="S78" s="15">
-        <v>0.27251626200000001</v>
+        <v>0.29585541999999998</v>
       </c>
     </row>
     <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5457,338 +5457,342 @@
         <v>2019</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="18">
         <f t="shared" si="10"/>
-        <v>9241.6055505618933</v>
+        <v>10534.153393500883</v>
       </c>
       <c r="E79" s="19">
-        <v>3275.5849539999986</v>
+        <v>3675.3372790000017</v>
       </c>
       <c r="F79" s="19">
-        <v>4370.160919561893</v>
+        <v>5077.1043255008817</v>
       </c>
       <c r="G79" s="19">
-        <v>1126.2545300000011</v>
+        <v>1229.5152699999999</v>
       </c>
       <c r="H79" s="19">
-        <v>152.85569699999999</v>
+        <v>205.91515200000003</v>
       </c>
       <c r="I79" s="19">
-        <v>259.99696999999998</v>
+        <v>272.06735700000002</v>
       </c>
       <c r="J79" s="19">
-        <v>46.582780000000007</v>
+        <v>57.111829999999998</v>
       </c>
       <c r="K79" s="19">
-        <v>10.169700000000002</v>
+        <v>17.102179999999997</v>
       </c>
       <c r="L79" s="18">
         <f t="shared" si="11"/>
+        <v>7390.6301600856887</v>
+      </c>
+      <c r="M79" s="19">
+        <v>2482.4826125118411</v>
+      </c>
+      <c r="N79" s="19">
+        <v>4183.7452393018466</v>
+      </c>
+      <c r="O79" s="19">
+        <v>594.52454974000057</v>
+      </c>
+      <c r="P79" s="19">
+        <v>6.8929467899999999</v>
+      </c>
+      <c r="Q79" s="19">
+        <v>61.99332402200001</v>
+      </c>
+      <c r="R79" s="19">
+        <v>60.632588310000003</v>
+      </c>
+      <c r="S79" s="20">
+        <v>0.35889941000000009</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="13">
+        <f t="shared" si="10"/>
+        <v>10581.052353198915</v>
+      </c>
+      <c r="E80" s="14">
+        <v>3752.7021304999998</v>
+      </c>
+      <c r="F80" s="14">
+        <v>5042.9410756989164</v>
+      </c>
+      <c r="G80" s="14">
+        <v>1226.6793299999995</v>
+      </c>
+      <c r="H80" s="14">
+        <v>227.34326400000003</v>
+      </c>
+      <c r="I80" s="14">
+        <v>273.29974500000003</v>
+      </c>
+      <c r="J80" s="14">
+        <v>46.615569999999991</v>
+      </c>
+      <c r="K80" s="14">
+        <v>11.471238</v>
+      </c>
+      <c r="L80" s="13">
+        <f t="shared" si="11"/>
+        <v>7316.8442337622519</v>
+      </c>
+      <c r="M80" s="14">
+        <v>2584.8546054208359</v>
+      </c>
+      <c r="N80" s="14">
+        <v>3971.3774654550916</v>
+      </c>
+      <c r="O80" s="14">
+        <v>628.3360908439995</v>
+      </c>
+      <c r="P80" s="14">
+        <v>8.5075610303260056</v>
+      </c>
+      <c r="Q80" s="14">
+        <v>68.783462650000004</v>
+      </c>
+      <c r="R80" s="14">
+        <v>54.71253209999999</v>
+      </c>
+      <c r="S80" s="15">
+        <v>0.27251626200000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="18">
+        <f t="shared" si="10"/>
+        <v>9241.6055505618933</v>
+      </c>
+      <c r="E81" s="19">
+        <v>3275.5849539999986</v>
+      </c>
+      <c r="F81" s="19">
+        <v>4370.160919561893</v>
+      </c>
+      <c r="G81" s="19">
+        <v>1126.2545300000011</v>
+      </c>
+      <c r="H81" s="19">
+        <v>152.85569699999999</v>
+      </c>
+      <c r="I81" s="19">
+        <v>259.99696999999998</v>
+      </c>
+      <c r="J81" s="19">
+        <v>46.582780000000007</v>
+      </c>
+      <c r="K81" s="19">
+        <v>10.169700000000002</v>
+      </c>
+      <c r="L81" s="18">
+        <f t="shared" si="11"/>
         <v>6363.5933863084483</v>
       </c>
-      <c r="M79" s="19">
+      <c r="M81" s="19">
         <v>2189.6104131855614</v>
       </c>
-      <c r="N79" s="19">
+      <c r="N81" s="19">
         <v>3499.6909835169613</v>
       </c>
-      <c r="O79" s="19">
+      <c r="O81" s="19">
         <v>547.40245832199946</v>
       </c>
-      <c r="P79" s="19">
+      <c r="P81" s="19">
         <v>5.1177584499260034</v>
       </c>
-      <c r="Q79" s="19">
+      <c r="Q81" s="19">
         <v>63.306209223999993</v>
       </c>
-      <c r="R79" s="19">
+      <c r="R81" s="19">
         <v>58.28962554000001</v>
       </c>
-      <c r="S79" s="20">
+      <c r="S81" s="20">
         <v>0.17593807</v>
       </c>
     </row>
-    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="21">
+    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="21">
         <v>2019</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C82" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D82" s="23">
         <f t="shared" si="10"/>
         <v>9892.1436970006562</v>
       </c>
-      <c r="E80" s="24">
+      <c r="E82" s="24">
         <v>3499.7139435000031</v>
       </c>
-      <c r="F80" s="24">
+      <c r="F82" s="24">
         <v>4546.0874465006518</v>
       </c>
-      <c r="G80" s="24">
+      <c r="G82" s="24">
         <v>1267.5804000000005</v>
       </c>
-      <c r="H80" s="24">
+      <c r="H82" s="24">
         <v>224.06764100000001</v>
       </c>
-      <c r="I80" s="24">
+      <c r="I82" s="24">
         <v>293.47607299999999</v>
       </c>
-      <c r="J80" s="24">
+      <c r="J82" s="24">
         <v>50.833020000000005</v>
       </c>
-      <c r="K80" s="24">
+      <c r="K82" s="24">
         <v>10.385172999999998</v>
       </c>
-      <c r="L80" s="23">
+      <c r="L82" s="23">
         <f t="shared" si="11"/>
         <v>6769.108553604312</v>
       </c>
-      <c r="M80" s="24">
+      <c r="M82" s="24">
         <v>2315.0380047690219</v>
       </c>
-      <c r="N80" s="24">
+      <c r="N82" s="24">
         <v>3695.4581032397491</v>
       </c>
-      <c r="O80" s="24">
+      <c r="O82" s="24">
         <v>592.54793959300025</v>
       </c>
-      <c r="P80" s="24">
+      <c r="P82" s="24">
         <v>8.0988788035407904</v>
       </c>
-      <c r="Q80" s="24">
+      <c r="Q82" s="24">
         <v>68.810378116999999</v>
       </c>
-      <c r="R80" s="24">
+      <c r="R82" s="24">
         <v>88.897206580000002</v>
       </c>
-      <c r="S80" s="25">
+      <c r="S82" s="25">
         <v>0.25804250200000001</v>
       </c>
     </row>
-    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="26">
+    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="26">
         <v>2018</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C83" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="28">
+      <c r="D83" s="28">
         <f t="shared" si="10"/>
         <v>10362</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E83" s="29">
         <v>3606</v>
       </c>
-      <c r="F81" s="29">
+      <c r="F83" s="29">
         <v>4918</v>
       </c>
-      <c r="G81" s="29">
+      <c r="G83" s="29">
         <v>1307</v>
       </c>
-      <c r="H81" s="29">
+      <c r="H83" s="29">
         <v>208</v>
       </c>
-      <c r="I81" s="29">
+      <c r="I83" s="29">
         <v>280</v>
       </c>
-      <c r="J81" s="29">
+      <c r="J83" s="29">
         <v>34</v>
       </c>
-      <c r="K81" s="29">
+      <c r="K83" s="29">
         <v>9</v>
       </c>
-      <c r="L81" s="28">
+      <c r="L83" s="28">
         <f t="shared" si="11"/>
         <v>7145</v>
       </c>
-      <c r="M81" s="29">
+      <c r="M83" s="29">
         <v>2425</v>
       </c>
-      <c r="N81" s="29">
+      <c r="N83" s="29">
         <v>3948</v>
       </c>
-      <c r="O81" s="29">
+      <c r="O83" s="29">
         <v>638</v>
       </c>
-      <c r="P81" s="29">
+      <c r="P83" s="29">
         <v>8</v>
       </c>
-      <c r="Q81" s="29">
+      <c r="Q83" s="29">
         <v>74</v>
       </c>
-      <c r="R81" s="29">
+      <c r="R83" s="29">
         <v>52</v>
       </c>
-      <c r="S81" s="30"/>
-    </row>
-    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82" s="13">
-        <f t="shared" si="10"/>
-        <v>10847</v>
-      </c>
-      <c r="E82" s="14">
-        <v>3612</v>
-      </c>
-      <c r="F82" s="14">
-        <v>5385</v>
-      </c>
-      <c r="G82" s="14">
-        <v>1299</v>
-      </c>
-      <c r="H82" s="14">
-        <v>213</v>
-      </c>
-      <c r="I82" s="14">
-        <v>284</v>
-      </c>
-      <c r="J82" s="14">
-        <v>38</v>
-      </c>
-      <c r="K82" s="14">
-        <v>16</v>
-      </c>
-      <c r="L82" s="13">
-        <f t="shared" si="11"/>
-        <v>7655</v>
-      </c>
-      <c r="M82" s="14">
-        <v>2466</v>
-      </c>
-      <c r="N82" s="14">
-        <v>4397</v>
-      </c>
-      <c r="O82" s="14">
-        <v>669</v>
-      </c>
-      <c r="P82" s="14">
-        <v>8</v>
-      </c>
-      <c r="Q82" s="14">
-        <v>74</v>
-      </c>
-      <c r="R82" s="14">
-        <v>41</v>
-      </c>
-      <c r="S82" s="15"/>
-    </row>
-    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="16">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="18">
-        <f t="shared" si="10"/>
-        <v>10926</v>
-      </c>
-      <c r="E83" s="19">
-        <v>3805</v>
-      </c>
-      <c r="F83" s="19">
-        <v>5324</v>
-      </c>
-      <c r="G83" s="19">
-        <v>1340</v>
-      </c>
-      <c r="H83" s="19">
-        <v>137</v>
-      </c>
-      <c r="I83" s="19">
-        <v>273</v>
-      </c>
-      <c r="J83" s="19">
-        <v>27</v>
-      </c>
-      <c r="K83" s="19">
-        <v>20</v>
-      </c>
-      <c r="L83" s="18">
-        <f t="shared" si="11"/>
-        <v>7509</v>
-      </c>
-      <c r="M83" s="19">
-        <v>2604</v>
-      </c>
-      <c r="N83" s="19">
-        <v>4133</v>
-      </c>
-      <c r="O83" s="19">
-        <v>655</v>
-      </c>
-      <c r="P83" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="19">
-        <v>72</v>
-      </c>
-      <c r="R83" s="19">
-        <v>41</v>
-      </c>
-      <c r="S83" s="20"/>
+      <c r="S83" s="30"/>
     </row>
     <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="11">
         <v>2018</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D84" s="13">
         <f t="shared" si="10"/>
-        <v>10257</v>
+        <v>10847</v>
       </c>
       <c r="E84" s="14">
-        <v>3485</v>
+        <v>3612</v>
       </c>
       <c r="F84" s="14">
-        <v>4900</v>
+        <v>5385</v>
       </c>
       <c r="G84" s="14">
-        <v>1349</v>
+        <v>1299</v>
       </c>
       <c r="H84" s="14">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I84" s="14">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="J84" s="14">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K84" s="14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L84" s="13">
         <f t="shared" si="11"/>
-        <v>7135</v>
+        <v>7655</v>
       </c>
       <c r="M84" s="14">
-        <v>2350</v>
+        <v>2466</v>
       </c>
       <c r="N84" s="14">
-        <v>4008</v>
+        <v>4397</v>
       </c>
       <c r="O84" s="14">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="P84" s="14">
         <v>8</v>
       </c>
       <c r="Q84" s="14">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="R84" s="14">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S84" s="15"/>
     </row>
@@ -5797,54 +5801,54 @@
         <v>2018</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="10"/>
-        <v>10917</v>
+        <v>10926</v>
       </c>
       <c r="E85" s="19">
-        <v>3674</v>
+        <v>3805</v>
       </c>
       <c r="F85" s="19">
-        <v>5279</v>
+        <v>5324</v>
       </c>
       <c r="G85" s="19">
-        <v>1420</v>
+        <v>1340</v>
       </c>
       <c r="H85" s="19">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="I85" s="19">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J85" s="19">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K85" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L85" s="18">
         <f t="shared" si="11"/>
-        <v>7620</v>
+        <v>7509</v>
       </c>
       <c r="M85" s="19">
-        <v>2514</v>
+        <v>2604</v>
       </c>
       <c r="N85" s="19">
-        <v>4292</v>
+        <v>4133</v>
       </c>
       <c r="O85" s="19">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="P85" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q85" s="19">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R85" s="19">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="S85" s="20"/>
     </row>
@@ -5853,51 +5857,51 @@
         <v>2018</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D86" s="13">
         <f t="shared" si="10"/>
-        <v>11147</v>
+        <v>10257</v>
       </c>
       <c r="E86" s="14">
-        <v>3756</v>
+        <v>3485</v>
       </c>
       <c r="F86" s="14">
-        <v>5273</v>
+        <v>4900</v>
       </c>
       <c r="G86" s="14">
-        <v>1541</v>
+        <v>1349</v>
       </c>
       <c r="H86" s="14">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I86" s="14">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="J86" s="14">
         <v>42</v>
       </c>
       <c r="K86" s="14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L86" s="13">
         <f t="shared" si="11"/>
-        <v>7610</v>
+        <v>7135</v>
       </c>
       <c r="M86" s="14">
-        <v>2530</v>
+        <v>2350</v>
       </c>
       <c r="N86" s="14">
-        <v>4228</v>
+        <v>4008</v>
       </c>
       <c r="O86" s="14">
-        <v>716</v>
+        <v>655</v>
       </c>
       <c r="P86" s="14">
         <v>8</v>
       </c>
       <c r="Q86" s="14">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="R86" s="14">
         <v>51</v>
@@ -5909,54 +5913,54 @@
         <v>2018</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="10"/>
-        <v>10948</v>
+        <v>10917</v>
       </c>
       <c r="E87" s="19">
-        <v>3657</v>
+        <v>3674</v>
       </c>
       <c r="F87" s="19">
-        <v>5338</v>
+        <v>5279</v>
       </c>
       <c r="G87" s="19">
-        <v>1355</v>
+        <v>1420</v>
       </c>
       <c r="H87" s="19">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="I87" s="19">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="J87" s="19">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K87" s="19">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L87" s="18">
         <f t="shared" si="11"/>
-        <v>7627</v>
+        <v>7620</v>
       </c>
       <c r="M87" s="19">
-        <v>2524</v>
+        <v>2514</v>
       </c>
       <c r="N87" s="19">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="O87" s="19">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="P87" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q87" s="19">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R87" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S87" s="20"/>
     </row>
@@ -5965,54 +5969,54 @@
         <v>2018</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D88" s="13">
         <f t="shared" si="10"/>
-        <v>11358</v>
+        <v>11147</v>
       </c>
       <c r="E88" s="14">
-        <v>3901</v>
+        <v>3756</v>
       </c>
       <c r="F88" s="14">
-        <v>5805</v>
+        <v>5273</v>
       </c>
       <c r="G88" s="14">
-        <v>1068</v>
+        <v>1541</v>
       </c>
       <c r="H88" s="14">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="I88" s="14">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J88" s="14">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="K88" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L88" s="13">
         <f t="shared" si="11"/>
-        <v>7899</v>
+        <v>7610</v>
       </c>
       <c r="M88" s="14">
-        <v>2695</v>
+        <v>2530</v>
       </c>
       <c r="N88" s="14">
-        <v>4507</v>
+        <v>4228</v>
       </c>
       <c r="O88" s="14">
-        <v>556</v>
+        <v>716</v>
       </c>
       <c r="P88" s="14">
         <v>8</v>
       </c>
       <c r="Q88" s="14">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R88" s="14">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S88" s="15"/>
     </row>
@@ -6021,54 +6025,54 @@
         <v>2018</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D89" s="18">
         <f t="shared" si="10"/>
-        <v>10769</v>
+        <v>10948</v>
       </c>
       <c r="E89" s="19">
-        <v>3736</v>
+        <v>3657</v>
       </c>
       <c r="F89" s="19">
-        <v>5158</v>
+        <v>5338</v>
       </c>
       <c r="G89" s="19">
-        <v>1304</v>
+        <v>1355</v>
       </c>
       <c r="H89" s="19">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="I89" s="19">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="J89" s="19">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K89" s="19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L89" s="18">
         <f t="shared" si="11"/>
-        <v>7284</v>
+        <v>7627</v>
       </c>
       <c r="M89" s="19">
-        <v>2592</v>
+        <v>2524</v>
       </c>
       <c r="N89" s="19">
-        <v>3860</v>
+        <v>4291</v>
       </c>
       <c r="O89" s="19">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="P89" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q89" s="19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R89" s="19">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S89" s="20"/>
     </row>
@@ -6077,54 +6081,54 @@
         <v>2018</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D90" s="13">
         <f t="shared" si="10"/>
-        <v>10595</v>
+        <v>11358</v>
       </c>
       <c r="E90" s="14">
-        <v>3510</v>
+        <v>3901</v>
       </c>
       <c r="F90" s="14">
-        <v>5158</v>
+        <v>5805</v>
       </c>
       <c r="G90" s="14">
-        <v>1332</v>
+        <v>1068</v>
       </c>
       <c r="H90" s="14">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="I90" s="14">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J90" s="14">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K90" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L90" s="13">
         <f t="shared" si="11"/>
-        <v>7079</v>
+        <v>7899</v>
       </c>
       <c r="M90" s="14">
-        <v>2512</v>
+        <v>2695</v>
       </c>
       <c r="N90" s="14">
-        <v>3719</v>
+        <v>4507</v>
       </c>
       <c r="O90" s="14">
-        <v>718</v>
+        <v>556</v>
       </c>
       <c r="P90" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q90" s="14">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="R90" s="14">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S90" s="15"/>
     </row>
@@ -6133,125 +6137,237 @@
         <v>2018</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="18">
         <f t="shared" si="10"/>
-        <v>9439</v>
+        <v>10769</v>
       </c>
       <c r="E91" s="19">
-        <v>3213</v>
+        <v>3736</v>
       </c>
       <c r="F91" s="19">
-        <v>4478</v>
+        <v>5158</v>
       </c>
       <c r="G91" s="19">
-        <v>1214</v>
+        <v>1304</v>
       </c>
       <c r="H91" s="19">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I91" s="19">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="J91" s="19">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K91" s="19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L91" s="18">
         <f t="shared" si="11"/>
-        <v>6237</v>
+        <v>7284</v>
       </c>
       <c r="M91" s="19">
-        <v>2209</v>
+        <v>2592</v>
       </c>
       <c r="N91" s="19">
-        <v>3275</v>
+        <v>3860</v>
       </c>
       <c r="O91" s="19">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="P91" s="19">
         <v>8</v>
       </c>
       <c r="Q91" s="19">
+        <v>73</v>
+      </c>
+      <c r="R91" s="19">
+        <v>50</v>
+      </c>
+      <c r="S91" s="20"/>
+    </row>
+    <row r="92" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="13">
+        <f t="shared" si="10"/>
+        <v>10595</v>
+      </c>
+      <c r="E92" s="14">
+        <v>3510</v>
+      </c>
+      <c r="F92" s="14">
+        <v>5158</v>
+      </c>
+      <c r="G92" s="14">
+        <v>1332</v>
+      </c>
+      <c r="H92" s="14">
+        <v>223</v>
+      </c>
+      <c r="I92" s="14">
+        <v>307</v>
+      </c>
+      <c r="J92" s="14">
+        <v>50</v>
+      </c>
+      <c r="K92" s="14">
+        <v>15</v>
+      </c>
+      <c r="L92" s="13">
+        <f t="shared" si="11"/>
+        <v>7079</v>
+      </c>
+      <c r="M92" s="14">
+        <v>2512</v>
+      </c>
+      <c r="N92" s="14">
+        <v>3719</v>
+      </c>
+      <c r="O92" s="14">
+        <v>718</v>
+      </c>
+      <c r="P92" s="14">
+        <v>9</v>
+      </c>
+      <c r="Q92" s="14">
+        <v>68</v>
+      </c>
+      <c r="R92" s="14">
+        <v>53</v>
+      </c>
+      <c r="S92" s="15"/>
+    </row>
+    <row r="93" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="18">
+        <f t="shared" si="10"/>
+        <v>9439</v>
+      </c>
+      <c r="E93" s="19">
+        <v>3213</v>
+      </c>
+      <c r="F93" s="19">
+        <v>4478</v>
+      </c>
+      <c r="G93" s="19">
+        <v>1214</v>
+      </c>
+      <c r="H93" s="19">
+        <v>203</v>
+      </c>
+      <c r="I93" s="19">
+        <v>273</v>
+      </c>
+      <c r="J93" s="19">
+        <v>50</v>
+      </c>
+      <c r="K93" s="19">
+        <v>8</v>
+      </c>
+      <c r="L93" s="18">
+        <f t="shared" si="11"/>
+        <v>6237</v>
+      </c>
+      <c r="M93" s="19">
+        <v>2209</v>
+      </c>
+      <c r="N93" s="19">
+        <v>3275</v>
+      </c>
+      <c r="O93" s="19">
+        <v>646</v>
+      </c>
+      <c r="P93" s="19">
+        <v>8</v>
+      </c>
+      <c r="Q93" s="19">
         <v>60</v>
       </c>
-      <c r="R91" s="19">
+      <c r="R93" s="19">
         <v>39</v>
       </c>
-      <c r="S91" s="20"/>
-    </row>
-    <row r="92" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="21">
+      <c r="S93" s="20"/>
+    </row>
+    <row r="94" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="21">
         <v>2018</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C94" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="23">
+      <c r="D94" s="23">
         <f t="shared" si="10"/>
         <v>10479</v>
       </c>
-      <c r="E92" s="24">
+      <c r="E94" s="24">
         <v>3653</v>
       </c>
-      <c r="F92" s="24">
+      <c r="F94" s="24">
         <v>4773</v>
       </c>
-      <c r="G92" s="24">
+      <c r="G94" s="24">
         <v>1398</v>
       </c>
-      <c r="H92" s="24">
+      <c r="H94" s="24">
         <v>287</v>
       </c>
-      <c r="I92" s="24">
+      <c r="I94" s="24">
         <v>312</v>
       </c>
-      <c r="J92" s="24">
+      <c r="J94" s="24">
         <v>47</v>
       </c>
-      <c r="K92" s="24">
+      <c r="K94" s="24">
         <v>9</v>
       </c>
-      <c r="L92" s="23">
+      <c r="L94" s="23">
         <f t="shared" si="11"/>
         <v>7153</v>
       </c>
-      <c r="M92" s="24">
+      <c r="M94" s="24">
         <v>2519</v>
       </c>
-      <c r="N92" s="24">
+      <c r="N94" s="24">
         <v>3737</v>
       </c>
-      <c r="O92" s="24">
+      <c r="O94" s="24">
         <v>754</v>
       </c>
-      <c r="P92" s="24">
+      <c r="P94" s="24">
         <v>11</v>
       </c>
-      <c r="Q92" s="24">
+      <c r="Q94" s="24">
         <v>66</v>
       </c>
-      <c r="R92" s="24">
+      <c r="R94" s="24">
         <v>65</v>
       </c>
-      <c r="S92" s="25">
+      <c r="S94" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B93" s="31" t="s">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B95" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B94" s="2" t="s">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S94" s="32"/>
+      <c r="S96" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Carga_por_empresa_F.xlsx
+++ b/Carga_por_empresa_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF724508-819C-42A6-84E9-8F402A937F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B38E9E-B747-4665-937A-407EB4A416C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -837,8 +837,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S94" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
-  <autoFilter ref="B5:S94" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}" name="Tabla1" displayName="Tabla1" ref="B5:S95" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="B5:S95" xr:uid="{2645A58F-7D1A-4A70-82D1-6C1959C7C1AB}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1094,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:S96"/>
+  <dimension ref="B2:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1219,5155 +1219,5213 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
+      <c r="B6" s="16">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(E6:K6)</f>
+        <v>10986.351431500001</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4304.9793734999985</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5161.5898610000004</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1196.8611950000004</v>
+      </c>
+      <c r="H6" s="19">
+        <v>163.32921500000012</v>
+      </c>
+      <c r="I6" s="19">
+        <v>97.290766999999633</v>
+      </c>
+      <c r="J6" s="19">
+        <v>51.950660000000006</v>
+      </c>
+      <c r="K6" s="19">
+        <v>10.350359999999998</v>
+      </c>
+      <c r="L6" s="18">
+        <f>SUM(M6:S6)</f>
+        <v>7900.567691778806</v>
+      </c>
+      <c r="M6" s="19">
+        <v>2801.9389045125013</v>
+      </c>
+      <c r="N6" s="19">
+        <v>4447.3211022873056</v>
+      </c>
+      <c r="O6" s="19">
+        <v>611.74225283999988</v>
+      </c>
+      <c r="P6" s="19">
+        <v>5.0406626500000007</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>26.367546445000112</v>
+      </c>
+      <c r="R6" s="19">
+        <v>8.0200345139999989</v>
+      </c>
+      <c r="S6" s="20">
+        <v>0.13718853</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="13">
-        <f>SUM(E6:K6)</f>
+      <c r="D7" s="13">
+        <f>SUM(E7:K7)</f>
         <v>10927.750393000006</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E7" s="14">
         <v>4257.8835799999961</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F7" s="14">
         <v>5169.591525000008</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G7" s="14">
         <v>1201.5528810000008</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H7" s="14">
         <v>175.46551399999998</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I7" s="14">
         <v>92.652422999999601</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J7" s="14">
         <v>14.85238</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K7" s="14">
         <v>15.752090000000003</v>
       </c>
-      <c r="L6" s="13">
-        <f>SUM(M6:S6)</f>
+      <c r="L7" s="13">
+        <f>SUM(M7:S7)</f>
         <v>7886.1075193430061</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M7" s="14">
         <v>2789.2510411525</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N7" s="14">
         <v>4399.4729652030073</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O7" s="14">
         <v>653.67561044999911</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P7" s="14">
         <v>5.3302675270000002</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q7" s="14">
         <v>24.343588701000126</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R7" s="14">
         <v>13.848287289499998</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S7" s="15">
         <v>0.18575902</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
         <v>2025</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="18">
-        <f>SUM(E7:K7)</f>
+      <c r="D8" s="18">
+        <f>SUM(E8:K8)</f>
         <v>10884.204851500006</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E8" s="19">
         <v>4508.7732594999979</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F8" s="19">
         <v>4988.8350200000077</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G8" s="19">
         <v>1056.6947870000006</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H8" s="19">
         <v>199.50949500000007</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I8" s="19">
         <v>101.32985999999948</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J8" s="19">
         <v>9.8657800000000009</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K8" s="19">
         <v>19.196649999999998</v>
       </c>
-      <c r="L7" s="18">
-        <f t="shared" ref="L6:L10" si="0">SUM(M7:S7)</f>
+      <c r="L8" s="18">
+        <f t="shared" ref="L8:L11" si="0">SUM(M8:S8)</f>
         <v>8028.5555226960059</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M8" s="19">
         <v>3020.5069057629985</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N8" s="19">
         <v>4399.1468190690066</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O8" s="19">
         <v>568.08017349999932</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P8" s="19">
         <v>6.9090742859999974</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q8" s="19">
         <v>25.393515567000151</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R8" s="19">
         <v>8.297448901000001</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S8" s="20">
         <v>0.22158560999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="11">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
         <v>2025</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13">
-        <f>SUM(E8:K8)</f>
+      <c r="D9" s="13">
+        <f>SUM(E9:K9)</f>
         <v>10927.892002000011</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="14">
         <v>4435.7745550000018</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F9" s="14">
         <v>5024.5415970000076</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G9" s="14">
         <v>1090.9339200000015</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H9" s="14">
         <v>229.21633600000001</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>99.205000999999484</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J9" s="14">
         <v>30.011460000000003</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K9" s="14">
         <v>18.209133000000001</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L9" s="13">
         <f t="shared" si="0"/>
         <v>7725.0347721108756</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M9" s="14">
         <v>3016.1032193044975</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N9" s="14">
         <v>4078.6155363089974</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O9" s="14">
         <v>584.30928663000009</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P9" s="14">
         <v>7.9584968540000016</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q9" s="14">
         <v>26.241235341000138</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R9" s="14">
         <v>11.55864156738</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S9" s="15">
         <v>0.24835610499999999</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="16">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
         <v>2025</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18">
-        <f t="shared" ref="D9:D10" si="1">SUM(E9:K9)</f>
+      <c r="D10" s="18">
+        <f t="shared" ref="D10:D11" si="1">SUM(E10:K10)</f>
         <v>9843.6933180000051</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E10" s="19">
         <v>4031.6968250000018</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F10" s="19">
         <v>4563.1205860000046</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G10" s="19">
         <v>950.4444809999992</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H10" s="19">
         <v>152.39102800000003</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I10" s="19">
         <v>98.085166999999331</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J10" s="19">
         <v>38.523620000000001</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K10" s="19">
         <v>9.4316110000000002</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L10" s="18">
         <f t="shared" si="0"/>
         <v>6953.4096669074952</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M10" s="19">
         <v>2686.275029911501</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N10" s="19">
         <v>3673.5190396059929</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O10" s="19">
         <v>551.47404396000047</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P10" s="19">
         <v>5.4509899860000006</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q10" s="19">
         <v>25.072023331000192</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R10" s="19">
         <v>11.490530379000001</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S10" s="20">
         <v>0.12800973399999999</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="21">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="21">
         <v>2025</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D11" s="23">
         <f t="shared" si="1"/>
         <v>10553.276212499992</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E11" s="24">
         <v>4290.8263595000017</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F11" s="24">
         <v>4842.1234059999906</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G11" s="24">
         <v>1029.4576040000004</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H11" s="24">
         <v>229.21633600000001</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I11" s="24">
         <v>105.83529699999956</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J11" s="24">
         <v>46.891849999999984</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K11" s="24">
         <v>8.9253600000000013</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L11" s="23">
         <f t="shared" si="0"/>
         <v>7654.6706844814944</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M11" s="24">
         <v>2856.3638319094998</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N11" s="24">
         <v>4139.2285466729945</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O11" s="24">
         <v>607.44396194000035</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P11" s="24">
         <v>7.9584968540000016</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q11" s="24">
         <v>26.890831818000201</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R11" s="24">
         <v>16.669521117000002</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S11" s="25">
         <v>0.11549416999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="16">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
         <v>2024</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="18">
-        <f t="shared" ref="D11:D12" si="2">SUM(E11:K11)</f>
+      <c r="D12" s="18">
+        <f t="shared" ref="D12:D13" si="2">SUM(E12:K12)</f>
         <v>10531.168920500006</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E12" s="19">
         <v>4403.8653655000062</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F12" s="19">
         <v>4561.0179649999991</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G12" s="19">
         <v>1249.3825690000003</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H12" s="19">
         <v>185.75494600000002</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I12" s="19">
         <v>92.695411999999536</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J12" s="19">
         <v>22.807550000000003</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K12" s="19">
         <v>15.645113000000002</v>
       </c>
-      <c r="L11" s="18">
-        <f>SUM(M11:S11)</f>
+      <c r="L12" s="18">
+        <f>SUM(M12:S12)</f>
         <v>7573.5815223644986</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M12" s="19">
         <v>2985.2792777564991</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N12" s="19">
         <v>3977.6579078809991</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O12" s="19">
         <v>564.31985714999962</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P12" s="19">
         <v>6.0120059109999984</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q12" s="19">
         <v>24.991510190000174</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R12" s="19">
         <v>15.075261706000004</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S12" s="20">
         <v>0.24570176999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="13">
         <f t="shared" si="2"/>
         <v>10293.216345500003</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="14">
         <v>4074.3531224999974</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F13" s="14">
         <v>4591.2098260000075</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="14">
         <v>1250.6662779999986</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H13" s="14">
         <v>236.92333399999995</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="14">
         <v>107.48781899999955</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J13" s="14">
         <v>17.693559999999998</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K13" s="14">
         <v>14.882406000000001</v>
       </c>
-      <c r="L12" s="13">
-        <f>SUM(M12:S12)</f>
+      <c r="L13" s="13">
+        <f>SUM(M13:S13)</f>
         <v>7483.7337101601415</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M13" s="14">
         <v>2727.5133536075004</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N13" s="14">
         <v>4141.6578731970003</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O13" s="14">
         <v>563.5016914100006</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P13" s="14">
         <v>8.2360092920000021</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q13" s="14">
         <v>29.147426476000163</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R13" s="14">
         <v>13.431654407639998</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S13" s="15">
         <v>0.24570176999999996</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="16">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
         <v>2024</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="18">
-        <f t="shared" ref="D13:D18" si="3">SUM(E13:K13)</f>
+      <c r="D14" s="18">
+        <f t="shared" ref="D14:D19" si="3">SUM(E14:K14)</f>
         <v>10627.751215000002</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E14" s="19">
         <v>4621.2502850000001</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F14" s="19">
         <v>4847.8326420000003</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G14" s="19">
         <v>883.41127600000004</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H14" s="19">
         <v>164.42353700000001</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I14" s="19">
         <v>86.575890000000001</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J14" s="19">
         <v>8.5300799999999999</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K14" s="19">
         <v>15.727505000000001</v>
       </c>
-      <c r="L13" s="18">
-        <f t="shared" ref="L13:L15" si="4">SUM(M13:S13)</f>
+      <c r="L14" s="18">
+        <f t="shared" ref="L14:L16" si="4">SUM(M14:S14)</f>
         <v>7740.759690927599</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M14" s="19">
         <v>3074.0600736719998</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N14" s="19">
         <v>4209.4804649380003</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O14" s="19">
         <v>420.6767304</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P14" s="19">
         <v>5.6841813920000002</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q14" s="19">
         <v>27.009476482</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R14" s="19">
         <v>3.5642458335999998</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S14" s="20">
         <v>0.28451820999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
+    <row r="15" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <f t="shared" si="3"/>
         <v>10170.542102500001</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E15" s="14">
         <v>4225.2215324999997</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F15" s="14">
         <v>4638.9146110000001</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="14">
         <v>1003.004611</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="14">
         <v>176.79925700000001</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>101.900481</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J15" s="14">
         <v>8.8647200000000002</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K15" s="14">
         <v>15.83689</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L15" s="13">
         <f t="shared" si="4"/>
         <v>7310.5741896424306</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M15" s="14">
         <v>2773.4403533764998</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N15" s="14">
         <v>3963.623746364</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O15" s="14">
         <v>532.89884495000001</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P15" s="14">
         <v>5.771046664</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q15" s="14">
         <v>25.803035709</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R15" s="14">
         <v>8.7877683089299996</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S15" s="15">
         <v>0.24939427</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="16">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
         <v>2024</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D16" s="18">
         <f t="shared" si="3"/>
         <v>11251.137121</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E16" s="19">
         <v>4380.0285290000002</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F16" s="19">
         <v>5224.974502</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G16" s="19">
         <v>1317.7201729999999</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H16" s="19">
         <v>177.187535</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I16" s="19">
         <v>105.991382</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J16" s="19">
         <v>30.662199999999999</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K16" s="19">
         <v>14.572800000000001</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L16" s="18">
         <f t="shared" si="4"/>
         <v>8231.3888027003995</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M16" s="19">
         <v>2880.310271714</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N16" s="19">
         <v>4609.8136975879997</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O16" s="19">
         <v>698.22568952999995</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P16" s="19">
         <v>5.5616272489999998</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q16" s="19">
         <v>26.096916030999999</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R16" s="19">
         <v>11.0747022284</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S16" s="20">
         <v>0.30589835999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <f t="shared" si="3"/>
         <v>11073.580067999997</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="14">
         <v>4264.3103259999998</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="14">
         <v>5088.2590179999997</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="14">
         <v>1297.469726</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H17" s="14">
         <v>268.56850200000002</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>126.038926</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J17" s="14">
         <v>8.8992199999999997</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="14">
         <v>20.03435</v>
       </c>
-      <c r="L16" s="13">
-        <f t="shared" ref="L16:L23" si="5">SUM(M16:S16)</f>
+      <c r="L17" s="13">
+        <f t="shared" ref="L17:L24" si="5">SUM(M17:S17)</f>
         <v>7865.3882907427005</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M17" s="14">
         <v>2769.2323164145</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N17" s="14">
         <v>4334.8919746190004</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O17" s="14">
         <v>700.48098283000002</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P17" s="14">
         <v>10.097477002</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q17" s="14">
         <v>37.109888814999998</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R17" s="14">
         <v>13.1854440822</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S17" s="15">
         <v>0.39020697999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="16">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
         <v>2024</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="18">
         <f t="shared" si="3"/>
         <v>11161.666198499997</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E18" s="19">
         <v>4078.3567754999999</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F18" s="19">
         <v>5481.9287759999997</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G18" s="19">
         <v>1221.811635</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H18" s="19">
         <v>239.36940000000001</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I18" s="19">
         <v>105.50866000000001</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J18" s="19">
         <v>9.2501800000000003</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K18" s="19">
         <v>25.440771999999999</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L18" s="18">
         <f t="shared" si="5"/>
         <v>7988.2967723501006</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M18" s="19">
         <v>2693.4096534265</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N18" s="19">
         <v>4598.9796150089996</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O18" s="19">
         <v>647.17524848999994</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P18" s="19">
         <v>8.870226637</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q18" s="19">
         <v>29.502148497</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R18" s="19">
         <v>9.9230392236</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S18" s="20">
         <v>0.43684106700000003</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="11">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <f t="shared" si="3"/>
         <v>11385.153779999999</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="14">
         <v>4088.3985170000001</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="14">
         <v>5559.3460809999997</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="14">
         <v>1362.2324040000001</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H19" s="14">
         <v>242.53355500000001</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>103.72531499999999</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="14">
         <v>4.8760000000000003</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="14">
         <v>24.041907999999999</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L19" s="13">
         <f t="shared" si="5"/>
         <v>8010.7375229999998</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M19" s="14">
         <v>2674.0050620000002</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N19" s="14">
         <v>4545.2049290000004</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O19" s="14">
         <v>749.43216500000005</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P19" s="14">
         <v>9.3834619999999997</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q19" s="14">
         <v>27.699843999999999</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R19" s="14">
         <v>4.5218790000000002</v>
       </c>
-      <c r="S18" s="15">
+      <c r="S19" s="15">
         <v>0.49018200000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="16">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
         <v>2024</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="18">
-        <f t="shared" ref="D19:D33" si="6">SUM(E19:K19)</f>
+      <c r="D20" s="18">
+        <f t="shared" ref="D20:D34" si="6">SUM(E20:K20)</f>
         <v>11518.385950000002</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E20" s="19">
         <v>4300.1912899999998</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F20" s="19">
         <v>5629.5263320000004</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G20" s="19">
         <v>1319.029931</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H20" s="19">
         <v>139.10685699999999</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I20" s="19">
         <v>105.14566000000001</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J20" s="19">
         <v>0</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K20" s="19">
         <v>25.38588</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L20" s="18">
         <f t="shared" si="5"/>
         <v>8190.6107430000002</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M20" s="19">
         <v>2859.8718090000002</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N20" s="19">
         <v>4557.1561849999998</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O20" s="19">
         <v>740.54377399999998</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P20" s="19">
         <v>3.9488479999999999</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q20" s="19">
         <v>27.069296000000001</v>
       </c>
-      <c r="R19" s="19">
+      <c r="R20" s="19">
         <v>1.465068</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S20" s="20">
         <v>0.55576300000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="11">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="11">
         <v>2024</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <f t="shared" si="6"/>
         <v>12058.836555</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E21" s="14">
         <v>4563.5082670000002</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F21" s="14">
         <v>5992.8884459999999</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="14">
         <v>1246.3373630000001</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H21" s="14">
         <v>139.10685699999999</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>96.219672000000003</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="14">
         <v>0</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K21" s="14">
         <v>20.775950000000002</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L21" s="13">
         <f t="shared" si="5"/>
         <v>8839.7330359999996</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M21" s="14">
         <v>2957.5938150000002</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N21" s="14">
         <v>5127.0620630000003</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O21" s="14">
         <v>721.55657799999994</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P21" s="14">
         <v>3.9488479999999999</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q21" s="14">
         <v>26.56606</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R21" s="14">
         <v>2.5492699999999999</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S21" s="15">
         <v>0.45640199999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="16">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
         <v>2024</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="18">
         <f t="shared" si="6"/>
         <v>11342.527755999999</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E22" s="19">
         <v>4257.7457569999997</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F22" s="19">
         <v>5478.1561410000004</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G22" s="19">
         <v>1150.5672</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H22" s="19">
         <v>347.88340299999999</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I22" s="19">
         <v>97.409684999999996</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J22" s="19">
         <v>0</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K22" s="19">
         <v>10.76557</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L22" s="18">
         <f t="shared" si="5"/>
         <v>8187.4507680000006</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M22" s="19">
         <v>2792.3728390000001</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N22" s="19">
         <v>4673.1630869999999</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O22" s="19">
         <v>679.80545600000005</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P22" s="19">
         <v>8.3948649999999994</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q22" s="19">
         <v>26.664881000000001</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R22" s="19">
         <v>6.8661019999999997</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S22" s="20">
         <v>0.18353800000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="21">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B23" s="21">
         <v>2024</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D23" s="23">
         <f t="shared" si="6"/>
         <v>11272.010199999999</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E23" s="24">
         <v>4393.4066000000003</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F23" s="24">
         <v>5359.7539999999999</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G23" s="24">
         <v>1270.1172999999999</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H23" s="24">
         <v>121.57129999999999</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I23" s="24">
         <v>106.0236</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J23" s="24">
         <v>0</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K23" s="24">
         <v>21.1374</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L23" s="23">
         <f t="shared" si="5"/>
         <v>8342.0510054124934</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M23" s="24">
         <v>2834.6025592114943</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N23" s="24">
         <v>4774.6108969999996</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O23" s="24">
         <v>698.27653098200028</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P23" s="24">
         <v>3.7847089999999994</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q23" s="24">
         <v>28.277445269000239</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R23" s="24">
         <v>2.0259563599999999</v>
       </c>
-      <c r="S22" s="25">
+      <c r="S23" s="25">
         <v>0.47290758999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26">
+    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="26">
         <v>2023</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D24" s="28">
         <f t="shared" si="6"/>
         <v>10530.152879999996</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E24" s="29">
         <v>4309.4661199999991</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F24" s="29">
         <v>4678.9765120000002</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G24" s="29">
         <v>1229.369512</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H24" s="29">
         <v>196.09364099999999</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I24" s="29">
         <v>98.409154999999998</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J24" s="29">
         <v>0</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K24" s="29">
         <v>17.83794</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L24" s="28">
         <f t="shared" si="5"/>
         <v>7153.5113975900022</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M24" s="29">
         <v>2868.2873435319998</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N24" s="29">
         <v>3607.6925303660032</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O24" s="29">
         <v>642.81335444999979</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P24" s="29">
         <v>7.0967908270000004</v>
       </c>
-      <c r="Q23" s="29">
+      <c r="Q24" s="29">
         <v>26.713847234999999</v>
       </c>
-      <c r="R23" s="29">
+      <c r="R24" s="29">
         <v>0.56659287000000003</v>
       </c>
-      <c r="S23" s="30">
+      <c r="S24" s="30">
         <v>0.34093830999999991</v>
       </c>
     </row>
-    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11">
+    <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <f t="shared" si="6"/>
         <v>10744.338341099994</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E25" s="14">
         <v>4156.0361599999969</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F25" s="14">
         <v>4940.157242999996</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G25" s="14">
         <v>1327.2145460000011</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <v>207.6338241</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="14">
         <v>97.280187999999995</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J25" s="14">
         <v>0</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K25" s="14">
         <v>16.016380000000002</v>
       </c>
-      <c r="L24" s="13">
-        <f t="shared" ref="L24:L33" si="7">SUM(M24:S24)</f>
+      <c r="L25" s="13">
+        <f t="shared" ref="L25:L34" si="7">SUM(M25:S25)</f>
         <v>7556.0425005755014</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M25" s="14">
         <v>2765.572963916999</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N25" s="14">
         <v>4124.8151506980021</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O25" s="14">
         <v>633.25968550699997</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P25" s="14">
         <v>7.8715812454999998</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q25" s="14">
         <v>24.216846367999999</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R25" s="14">
         <v>0</v>
       </c>
-      <c r="S24" s="15">
+      <c r="S25" s="15">
         <v>0.30627283999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16">
+    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16">
         <v>2023</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D26" s="18">
         <f t="shared" si="6"/>
         <v>11200.280935499999</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E26" s="19">
         <v>4460.5444895000001</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F26" s="19">
         <v>5121.4502369999991</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G26" s="19">
         <v>1286.7112570000011</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H26" s="19">
         <v>230.92582300000001</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I26" s="19">
         <v>86.957749000000007</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J26" s="19">
         <v>0</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K26" s="19">
         <v>13.691380000000001</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L26" s="18">
         <f t="shared" si="7"/>
         <v>7919.0054692064978</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M26" s="19">
         <v>2888.4215667424992</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N26" s="19">
         <v>4289.1214162529986</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O26" s="19">
         <v>709.70213744500006</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P26" s="19">
         <v>8.7303510430000006</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q26" s="19">
         <v>22.005873442999999</v>
       </c>
-      <c r="R25" s="19">
+      <c r="R26" s="19">
         <v>0.75646751999999995</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S26" s="20">
         <v>0.26765675999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11">
+    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <f t="shared" si="6"/>
         <v>10782.032769499994</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E27" s="14">
         <v>4218.6692064999988</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F27" s="14">
         <v>4942.4715439999973</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G27" s="14">
         <v>1325.7413049999991</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="14">
         <v>196.98436699999999</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>89.481097000000005</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J27" s="14">
         <v>0</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K27" s="14">
         <v>8.6852500000000017</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L27" s="13">
         <f t="shared" si="7"/>
         <v>7622.1182945060009</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M27" s="14">
         <v>2723.4188917840002</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N27" s="14">
         <v>4168.1608000790002</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O27" s="14">
         <v>700.2680477920004</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P27" s="14">
         <v>6.950576074999999</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q27" s="14">
         <v>22.592782776</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R27" s="14">
         <v>0.46685416000000002</v>
       </c>
-      <c r="S26" s="15">
+      <c r="S27" s="15">
         <v>0.26034183999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16">
+    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="16">
         <v>2023</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D28" s="18">
         <f t="shared" si="6"/>
         <v>11165.0871135</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="19">
         <v>4073.677195499999</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F28" s="19">
         <v>5295.6467410000023</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G28" s="19">
         <v>1455.9837610000011</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H28" s="19">
         <v>215.933054</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I28" s="19">
         <v>102.351732</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J28" s="19">
         <v>0</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K28" s="19">
         <v>21.494630000000001</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L28" s="18">
         <f t="shared" si="7"/>
         <v>7816.8766415225009</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M28" s="19">
         <v>2578.8196566694969</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N28" s="19">
         <v>4455.9987150990046</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O28" s="19">
         <v>747.21557059399993</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P28" s="19">
         <v>8.0505219500000003</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q28" s="19">
         <v>26.027712000000001</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R28" s="19">
         <v>0.31483611000000011</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S28" s="20">
         <v>0.44962910000000011</v>
       </c>
     </row>
-    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11">
+    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <f t="shared" si="6"/>
         <v>10990.944824000002</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="14">
         <v>4146.4391699999987</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F29" s="14">
         <v>5135.3581670000012</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <v>1381.008404000002</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>211.989563</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>101.69627</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J29" s="14">
         <v>0</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K29" s="14">
         <v>14.453250000000001</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L29" s="13">
         <f t="shared" si="7"/>
         <v>7210.7837302764929</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M29" s="14">
         <v>2685.167804527498</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N29" s="14">
         <v>3862.1520296299959</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O29" s="14">
         <v>629.01834064099978</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P29" s="14">
         <v>7.3305904510000008</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q29" s="14">
         <v>26.805101397000001</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R29" s="14">
         <v>0</v>
       </c>
-      <c r="S28" s="15">
+      <c r="S29" s="15">
         <v>0.30986362999999989</v>
       </c>
     </row>
-    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16">
+    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="16">
         <v>2023</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D30" s="18">
         <f t="shared" si="6"/>
         <v>10745.577094500002</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E30" s="19">
         <v>3986.183454499997</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F30" s="19">
         <v>5182.5897230000064</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G30" s="19">
         <v>1263.786863</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H30" s="19">
         <v>194.382002</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I30" s="19">
         <v>110.79468199999999</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J30" s="19">
         <v>0</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K30" s="19">
         <v>7.8403699999999992</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L30" s="18">
         <f t="shared" si="7"/>
         <v>7727.3830689805</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M30" s="19">
         <v>2606.4418033855009</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N30" s="19">
         <v>4443.8483745960002</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O30" s="19">
         <v>641.33658918099911</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P30" s="19">
         <v>7.5541058760000004</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q30" s="19">
         <v>27.942127822</v>
       </c>
-      <c r="R29" s="19">
+      <c r="R30" s="19">
         <v>0</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S30" s="20">
         <v>0.26006812000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11">
+    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="11">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <f t="shared" si="6"/>
         <v>11106.930602500001</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E31" s="14">
         <v>4188.3383045000028</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F31" s="14">
         <v>5334.9094389999982</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G31" s="14">
         <v>1326.3186040000001</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H31" s="14">
         <v>160.06881000000001</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I31" s="14">
         <v>88.829708000000011</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J31" s="14">
         <v>0</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K31" s="14">
         <v>8.4657370000000007</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L31" s="13">
         <f t="shared" si="7"/>
         <v>7787.991672169991</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M31" s="14">
         <v>2697.017603467998</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N31" s="14">
         <v>4364.7163814329933</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O31" s="14">
         <v>691.08870988800015</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P31" s="14">
         <v>5.5462157990000014</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q31" s="14">
         <v>28.462399068</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R31" s="14">
         <v>0.92623683999999995</v>
       </c>
-      <c r="S30" s="15">
+      <c r="S31" s="15">
         <v>0.23412567400000001</v>
       </c>
     </row>
-    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16">
+    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
         <v>2023</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D32" s="18">
         <f t="shared" si="6"/>
         <v>10801.941199499999</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E32" s="19">
         <v>4120.2958385000038</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F32" s="19">
         <v>5130.8270799999982</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G32" s="19">
         <v>1278.4442729999989</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H32" s="19">
         <v>164.83443199999999</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I32" s="19">
         <v>97.153891000000002</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J32" s="19">
         <v>0</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K32" s="19">
         <v>10.385685</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L32" s="18">
         <f t="shared" si="7"/>
         <v>7607.3085941089976</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M32" s="19">
         <v>2709.2393107859962</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N32" s="19">
         <v>4203.9729919080019</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O32" s="19">
         <v>660.44165793399986</v>
       </c>
-      <c r="P31" s="19">
+      <c r="P32" s="19">
         <v>5.9482127840000008</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="Q32" s="19">
         <v>27.414852071999999</v>
       </c>
-      <c r="R31" s="19">
+      <c r="R32" s="19">
         <v>0</v>
       </c>
-      <c r="S31" s="20">
+      <c r="S32" s="20">
         <v>0.29156862500000003</v>
       </c>
     </row>
-    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11">
+    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="11">
         <v>2023</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <f t="shared" si="6"/>
         <v>11383.878990499992</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <v>4435.0004595000009</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F33" s="14">
         <v>5403.7461159999912</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <v>1243.00846</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <v>186.385561</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="14">
         <v>105.50189399999999</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J33" s="14">
         <v>0</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K33" s="14">
         <v>10.236499999999999</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L33" s="13">
         <f t="shared" si="7"/>
         <v>8168.6527303565072</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M33" s="14">
         <v>2855.8573844425018</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <v>4595.0981872000057</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O33" s="14">
         <v>683.3527228519996</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P33" s="14">
         <v>6.7861570649999994</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q33" s="14">
         <v>27.308684076999999</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R33" s="14">
         <v>0</v>
       </c>
-      <c r="S32" s="15">
+      <c r="S33" s="15">
         <v>0.24959471999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="16">
+    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="16">
         <v>2023</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D34" s="18">
         <f t="shared" si="6"/>
         <v>10730.619191500007</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E34" s="19">
         <v>4010.1023085000038</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F34" s="19">
         <v>5163.3377450000035</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G34" s="19">
         <v>1234.198350000001</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H34" s="19">
         <v>213.06129999999999</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I34" s="19">
         <v>97.967708000000016</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J34" s="19">
         <v>0</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K34" s="19">
         <v>11.951779999999999</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L34" s="18">
         <f t="shared" si="7"/>
         <v>7460.9740902630037</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M34" s="19">
         <v>2587.8190024130022</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N34" s="19">
         <v>4189.8268443940005</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O34" s="19">
         <v>650.21660514200039</v>
       </c>
-      <c r="P33" s="19">
+      <c r="P34" s="19">
         <v>7.5242899999999997</v>
       </c>
-      <c r="Q33" s="19">
+      <c r="Q34" s="19">
         <v>25.314986824000002</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R34" s="19">
         <v>0</v>
       </c>
-      <c r="S33" s="20">
+      <c r="S34" s="20">
         <v>0.27236148999999987</v>
       </c>
     </row>
-    <row r="34" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21">
+    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="21">
         <v>2023</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="23">
-        <f t="shared" ref="D34:D65" si="8">SUM(E34:K34)</f>
+      <c r="D35" s="23">
+        <f t="shared" ref="D35:D66" si="8">SUM(E35:K35)</f>
         <v>11294.197112000005</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E35" s="24">
         <v>4300.673847</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F35" s="24">
         <v>5333.398917000005</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G35" s="24">
         <v>1381.829727000001</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H35" s="24">
         <v>160.70500799999999</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I35" s="24">
         <v>108.434686</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J35" s="24">
         <v>0</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K35" s="24">
         <v>9.1549269999999989</v>
       </c>
-      <c r="L34" s="23">
-        <f t="shared" ref="L34:L65" si="9">SUM(M34:S34)</f>
+      <c r="L35" s="23">
+        <f t="shared" ref="L35:L66" si="9">SUM(M35:S35)</f>
         <v>8101.5730074171943</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M35" s="24">
         <v>2862.9090542549961</v>
       </c>
-      <c r="N34" s="24">
+      <c r="N35" s="24">
         <v>4475.0428370511981</v>
       </c>
-      <c r="O34" s="24">
+      <c r="O35" s="24">
         <v>730.13655983000001</v>
       </c>
-      <c r="P34" s="24">
+      <c r="P35" s="24">
         <v>5.6898014160000008</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="Q35" s="24">
         <v>26.430900990000001</v>
       </c>
-      <c r="R34" s="24">
+      <c r="R35" s="24">
         <v>1.1467497600000001</v>
       </c>
-      <c r="S34" s="25">
+      <c r="S35" s="25">
         <v>0.21710411499999999</v>
       </c>
     </row>
-    <row r="35" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="26">
+    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="26">
         <v>2022</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C36" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D36" s="28">
         <f t="shared" si="8"/>
         <v>10579.2088245</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E36" s="29">
         <v>3955.405141500004</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F36" s="29">
         <v>5023.7809259999967</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G36" s="29">
         <v>1253.435716</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H36" s="29">
         <v>210.841139</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I36" s="29">
         <v>127.258531</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J36" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K36" s="29">
         <v>8.4723710000000008</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L36" s="28">
         <f t="shared" si="9"/>
         <v>7201.2110358610043</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M36" s="29">
         <v>2606.642718893002</v>
       </c>
-      <c r="N35" s="29">
+      <c r="N36" s="29">
         <v>3840.3302240870012</v>
       </c>
-      <c r="O35" s="29">
+      <c r="O36" s="29">
         <v>714.07136763500023</v>
       </c>
-      <c r="P35" s="29">
+      <c r="P36" s="29">
         <v>8.1353823930000004</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="Q36" s="29">
         <v>29.287128408000001</v>
       </c>
-      <c r="R35" s="29">
+      <c r="R36" s="29">
         <v>2.5732544800000001</v>
       </c>
-      <c r="S35" s="30">
+      <c r="S36" s="30">
         <v>0.17095996499999999</v>
       </c>
     </row>
-    <row r="36" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11">
+    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <f t="shared" si="8"/>
         <v>10527.497396789135</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="14">
         <v>4108.8534605000023</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="14">
         <v>4736.7273732891317</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <v>1295.0406599999999</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H37" s="14">
         <v>221.15105</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I37" s="14">
         <v>154.32011299999999</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J37" s="14">
         <v>0</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K37" s="14">
         <v>11.40474</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L37" s="13">
         <f t="shared" si="9"/>
         <v>7310.8355932755139</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M37" s="14">
         <v>2729.828865026504</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N37" s="14">
         <v>3871.547411277008</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O37" s="14">
         <v>666.57566130000077</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P37" s="14">
         <v>8.3173960500000028</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q37" s="14">
         <v>33.740727692</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R37" s="14">
         <v>0.53808</v>
       </c>
-      <c r="S36" s="15">
+      <c r="S37" s="15">
         <v>0.28745193000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16">
+    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="16">
         <v>2022</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D38" s="18">
         <f t="shared" si="8"/>
         <v>10705.692828500001</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E38" s="19">
         <v>4175.4008985000046</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F38" s="19">
         <v>4906.9342349999952</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G38" s="19">
         <v>1288.9225799999999</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H38" s="19">
         <v>177.480175</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I38" s="19">
         <v>150.03629000000001</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J38" s="19">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K38" s="19">
         <v>6.9111500000000001</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L38" s="18">
         <f t="shared" si="9"/>
         <v>7111.4425296700092</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M38" s="19">
         <v>2632.704658141005</v>
       </c>
-      <c r="N37" s="19">
+      <c r="N38" s="19">
         <v>3750.413545484003</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O38" s="19">
         <v>687.66725051200081</v>
       </c>
-      <c r="P37" s="19">
+      <c r="P38" s="19">
         <v>5.8990287250000009</v>
       </c>
-      <c r="Q37" s="19">
+      <c r="Q38" s="19">
         <v>34.461750987999999</v>
       </c>
-      <c r="R37" s="19">
+      <c r="R38" s="19">
         <v>0.12333404000000001</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S38" s="20">
         <v>0.17296178000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11">
+    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <f t="shared" si="8"/>
         <v>10716.722789500005</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E39" s="14">
         <v>3921.109317500001</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F39" s="14">
         <v>5107.1348170000047</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <v>1304.2582520000001</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H39" s="14">
         <v>224.00600600000001</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I39" s="14">
         <v>150.00181699999999</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J39" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K39" s="14">
         <v>10.205080000000001</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L39" s="13">
         <f t="shared" si="9"/>
         <v>7332.3824997811334</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M39" s="14">
         <v>2596.0057846039958</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N39" s="14">
         <v>4043.7739947451369</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O39" s="14">
         <v>650.93120328700036</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P39" s="14">
         <v>8.6389721339999994</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q39" s="14">
         <v>32.781240101000002</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R39" s="14">
         <v>7.0588400000000003E-3</v>
       </c>
-      <c r="S38" s="15">
+      <c r="S39" s="15">
         <v>0.24424607000000009</v>
       </c>
     </row>
-    <row r="39" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="16">
+    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="16">
         <v>2022</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D40" s="18">
         <f t="shared" si="8"/>
         <v>11108.677028999993</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E40" s="19">
         <v>3971.3969279999978</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F40" s="19">
         <v>5268.769131999994</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G40" s="19">
         <v>1417.7037560000001</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H40" s="19">
         <v>247.12264200000001</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I40" s="19">
         <v>188.83374499999999</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J40" s="19">
         <v>0</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K40" s="19">
         <v>14.850826</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L40" s="18">
         <f t="shared" si="9"/>
         <v>7307.3132174754001</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M40" s="19">
         <v>2663.245486356001</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N40" s="19">
         <v>3914.0197377269992</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O40" s="19">
         <v>681.13219543499997</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P40" s="19">
         <v>9.831694658</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q40" s="19">
         <v>36.570021361999977</v>
       </c>
-      <c r="R39" s="19">
+      <c r="R40" s="19">
         <v>2.1579242694</v>
       </c>
-      <c r="S39" s="20">
+      <c r="S40" s="20">
         <v>0.35615766800000009</v>
       </c>
     </row>
-    <row r="40" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="11">
+    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="11">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <f t="shared" si="8"/>
         <v>10611.250803000006</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>3793.7436850000049</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>5214.0921070000013</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <v>1247.337679</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H41" s="14">
         <v>194.861605</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I41" s="14">
         <v>147.825242</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J41" s="14">
         <v>0</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K41" s="14">
         <v>13.390485</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L41" s="13">
         <f t="shared" si="9"/>
         <v>7191.6636538718021</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M41" s="14">
         <v>2575.3834254900021</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N41" s="14">
         <v>3964.619205300799</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O41" s="14">
         <v>609.31836305400043</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P41" s="14">
         <v>7.2582579850000002</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q41" s="14">
         <v>34.682327189999988</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R41" s="14">
         <v>0.11073023999999999</v>
       </c>
-      <c r="S40" s="15">
+      <c r="S41" s="15">
         <v>0.291344612</v>
       </c>
     </row>
-    <row r="41" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="16">
+    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="16">
         <v>2022</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D42" s="18">
         <f t="shared" si="8"/>
         <v>11385.632823130651</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E42" s="19">
         <v>4133.1845675000104</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F42" s="19">
         <v>5576.317320630641</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G42" s="19">
         <v>1291.3044649999999</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H42" s="19">
         <v>204.62748999999999</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I42" s="19">
         <v>168.44151099999999</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J42" s="19">
         <v>0</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K42" s="19">
         <v>11.757469</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L42" s="18">
         <f t="shared" si="9"/>
         <v>7426.6647824039028</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M42" s="19">
         <v>2745.748891390494</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N42" s="19">
         <v>4014.2422900054089</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O42" s="19">
         <v>622.1854161710005</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P42" s="19">
         <v>8.0573326499999993</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q42" s="19">
         <v>35.484382947000007</v>
       </c>
-      <c r="R41" s="19">
+      <c r="R42" s="19">
         <v>0.60199296000000002</v>
       </c>
-      <c r="S41" s="20">
+      <c r="S42" s="20">
         <v>0.34447628000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="11">
+    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="11">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <f t="shared" si="8"/>
         <v>10780.323722207198</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="14">
         <v>4137.0850310000033</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F43" s="14">
         <v>5186.775923207193</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <v>1080.597673</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H43" s="14">
         <v>208.890287</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I43" s="14">
         <v>154.938333</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J43" s="14">
         <v>0</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K43" s="14">
         <v>12.036474999999999</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L43" s="13">
         <f t="shared" si="9"/>
         <v>7413.4131095932507</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M43" s="14">
         <v>2681.1217716099991</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N43" s="14">
         <v>4205.8755796282521</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O43" s="14">
         <v>483.91754051100008</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P43" s="14">
         <v>8.2003226500000004</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q43" s="14">
         <v>32.794367653999998</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R43" s="14">
         <v>1.2866841600000001</v>
       </c>
-      <c r="S42" s="15">
+      <c r="S43" s="15">
         <v>0.21684338000000011</v>
       </c>
     </row>
-    <row r="43" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16">
+    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="16">
         <v>2022</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D44" s="18">
         <f t="shared" si="8"/>
         <v>10829.844413999997</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E44" s="19">
         <v>3962.7175100000009</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F44" s="19">
         <v>5192.2296089999963</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G44" s="19">
         <v>1309.012232</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H44" s="19">
         <v>181.97084000000001</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I44" s="19">
         <v>167.812794</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J44" s="19">
         <v>0</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K44" s="19">
         <v>16.101429</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L44" s="18">
         <f t="shared" si="9"/>
         <v>7275.2969263750037</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M44" s="19">
         <v>2575.7223572010021</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N44" s="19">
         <v>4067.0187656300018</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O44" s="19">
         <v>589.9259630600003</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P44" s="19">
         <v>7.1673460699999998</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q44" s="19">
         <v>34.542283277999999</v>
       </c>
-      <c r="R43" s="19">
+      <c r="R44" s="19">
         <v>0.48420864000000002</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S44" s="20">
         <v>0.43600249600000002</v>
       </c>
     </row>
-    <row r="44" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="11">
+    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="11">
         <v>2022</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <f t="shared" si="8"/>
         <v>10958.977161499999</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E45" s="14">
         <v>4038.936546500001</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>5268.3369729999977</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>1291.416300000001</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H45" s="14">
         <v>177.95099999999999</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I45" s="14">
         <v>167.63478000000001</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J45" s="14">
         <v>0</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K45" s="14">
         <v>14.701561999999999</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L45" s="13">
         <f t="shared" si="9"/>
         <v>7541.4980275314938</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M45" s="14">
         <v>2660.8203641194968</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N45" s="14">
         <v>4208.7790816289962</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O45" s="14">
         <v>621.14192796600003</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P45" s="14">
         <v>6.623209000000001</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q45" s="14">
         <v>35.708474217000003</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R45" s="14">
         <v>8.0218468600000001</v>
       </c>
-      <c r="S44" s="15">
+      <c r="S45" s="15">
         <v>0.40312374000000012</v>
       </c>
     </row>
-    <row r="45" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="16">
+    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="16">
         <v>2022</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D46" s="18">
         <f t="shared" si="8"/>
         <v>9793.3689548991515</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E46" s="19">
         <v>3583.161939000001</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F46" s="19">
         <v>4789.6931648991504</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G46" s="19">
         <v>1070.14833</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H46" s="19">
         <v>173.86282</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I46" s="19">
         <v>164.508713</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J46" s="19">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K46" s="19">
         <v>11.987488000000001</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L46" s="18">
         <f t="shared" si="9"/>
         <v>6646.5983968474375</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M46" s="19">
         <v>2374.907421244</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N46" s="19">
         <v>3680.0897351094382</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O46" s="19">
         <v>540.62561002199982</v>
       </c>
-      <c r="P45" s="19">
+      <c r="P46" s="19">
         <v>6.8062315400000006</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="Q46" s="19">
         <v>35.044869748000004</v>
       </c>
-      <c r="R45" s="19">
+      <c r="R46" s="19">
         <v>8.8324161199999995</v>
       </c>
-      <c r="S45" s="20">
+      <c r="S46" s="20">
         <v>0.29211306399999998</v>
       </c>
     </row>
-    <row r="46" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="21">
+    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="21">
         <v>2022</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C47" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D47" s="23">
         <f t="shared" si="8"/>
         <v>10457.860871849636</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E47" s="24">
         <v>3811.0277475000012</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F47" s="24">
         <v>5081.9953543496349</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G47" s="24">
         <v>1163.869772</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H47" s="24">
         <v>216.800228</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I47" s="24">
         <v>164.64285100000001</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J47" s="24">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K47" s="24">
         <v>19.518419000000002</v>
       </c>
-      <c r="L46" s="23">
+      <c r="L47" s="23">
         <f t="shared" si="9"/>
         <v>7312.9253518064897</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M47" s="24">
         <v>2516.776008406498</v>
       </c>
-      <c r="N46" s="24">
+      <c r="N47" s="24">
         <v>4165.2929514439929</v>
       </c>
-      <c r="O46" s="24">
+      <c r="O47" s="24">
         <v>584.89580469299949</v>
       </c>
-      <c r="P46" s="24">
+      <c r="P47" s="24">
         <v>7.9409832089999988</v>
       </c>
-      <c r="Q46" s="24">
+      <c r="Q47" s="24">
         <v>36.984346221000003</v>
       </c>
-      <c r="R46" s="24">
+      <c r="R47" s="24">
         <v>0.54593274000000003</v>
       </c>
-      <c r="S46" s="25">
+      <c r="S47" s="25">
         <v>0.48932509299999999</v>
       </c>
     </row>
-    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="26">
+    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="26">
         <v>2021</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C48" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D48" s="28">
         <f t="shared" si="8"/>
         <v>10554.11629972851</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E48" s="29">
         <v>3704.487701</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F48" s="29">
         <v>5168.8270517285082</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G48" s="29">
         <v>1210.66284</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H48" s="29">
         <v>278.57299999999998</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I48" s="29">
         <v>176.88040100000001</v>
       </c>
-      <c r="J47" s="29">
+      <c r="J48" s="29">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K48" s="29">
         <v>14.676906000000001</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L48" s="28">
         <f t="shared" si="9"/>
         <v>7559.4957620836176</v>
       </c>
-      <c r="M47" s="29">
+      <c r="M48" s="29">
         <v>2454.9251451284981</v>
       </c>
-      <c r="N47" s="29">
+      <c r="N48" s="29">
         <v>4486.1274373061196</v>
       </c>
-      <c r="O47" s="29">
+      <c r="O48" s="29">
         <v>564.50741046500013</v>
       </c>
-      <c r="P47" s="29">
+      <c r="P48" s="29">
         <v>10.346456243</v>
       </c>
-      <c r="Q47" s="29">
+      <c r="Q48" s="29">
         <v>38.567701272999997</v>
       </c>
-      <c r="R47" s="29">
+      <c r="R48" s="29">
         <v>4.6980338499999998</v>
       </c>
-      <c r="S47" s="30">
+      <c r="S48" s="30">
         <v>0.32357781800000007</v>
       </c>
     </row>
-    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="11">
+    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <f t="shared" si="8"/>
         <v>10628.511753666689</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>3832.8486825000009</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>5157.1098371666867</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G49" s="14">
         <v>1198.8120699999999</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H49" s="14">
         <v>250.82408899999999</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I49" s="14">
         <v>171.39998600000001</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J49" s="14">
         <v>0.48580000000000001</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K49" s="14">
         <v>17.031289000000001</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L49" s="13">
         <f t="shared" si="9"/>
         <v>7572.3847293000135</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M49" s="14">
         <v>2487.2945403209969</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N49" s="14">
         <v>4430.0140454000166</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O49" s="14">
         <v>607.02709147300016</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P49" s="14">
         <v>8.3345901050000002</v>
       </c>
-      <c r="Q48" s="14">
+      <c r="Q49" s="14">
         <v>35.035225039999993</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R49" s="14">
         <v>4.35235971</v>
       </c>
-      <c r="S48" s="15">
+      <c r="S49" s="15">
         <v>0.32687725099999992</v>
       </c>
     </row>
-    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="16">
+    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="16">
         <v>2021</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D50" s="18">
         <f t="shared" si="8"/>
         <v>10447.886890621772</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E50" s="19">
         <v>3568.6820320000061</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F50" s="19">
         <v>5290.506152621766</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G50" s="19">
         <v>1189.51099</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H50" s="19">
         <v>218.87152699999999</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I50" s="19">
         <v>164.760099</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J50" s="19">
         <v>0</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K50" s="19">
         <v>15.556089999999999</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L50" s="18">
         <f t="shared" si="9"/>
         <v>7454.4569883743907</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M50" s="19">
         <v>2252.2121829349981</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N50" s="19">
         <v>4555.9238501633918</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O50" s="19">
         <v>598.34848022000062</v>
       </c>
-      <c r="P49" s="19">
+      <c r="P50" s="19">
         <v>8.6802298340000004</v>
       </c>
-      <c r="Q49" s="19">
+      <c r="Q50" s="19">
         <v>36.737191042000013</v>
       </c>
-      <c r="R49" s="19">
+      <c r="R50" s="19">
         <v>2.1651060200000001</v>
       </c>
-      <c r="S49" s="20">
+      <c r="S50" s="20">
         <v>0.38994815999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="11">
+    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <f t="shared" si="8"/>
         <v>10310.171017315373</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E51" s="14">
         <v>3660.1919630000002</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="14">
         <v>5125.4300873153752</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <v>1106.3341800000001</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H51" s="14">
         <v>225.05336800000001</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I51" s="14">
         <v>173.367749</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J51" s="14">
         <v>0</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K51" s="14">
         <v>19.793669999999999</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L51" s="13">
         <f t="shared" si="9"/>
         <v>7455.9332633507911</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M51" s="14">
         <v>2336.1774044905001</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N51" s="14">
         <v>4499.0870851722912</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O51" s="14">
         <v>574.36416933199996</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P51" s="14">
         <v>9.2197258459999993</v>
       </c>
-      <c r="Q50" s="14">
+      <c r="Q51" s="14">
         <v>33.827011099000003</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R51" s="14">
         <v>2.7609138199999999</v>
       </c>
-      <c r="S50" s="15">
+      <c r="S51" s="15">
         <v>0.49695359099999997</v>
       </c>
     </row>
-    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="16">
+    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="16">
         <v>2021</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D52" s="18">
         <f t="shared" si="8"/>
         <v>10858.20812040527</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E52" s="19">
         <v>3521.7041924999971</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F52" s="19">
         <v>5688.3567339052724</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G52" s="19">
         <v>1217.1854400000011</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H52" s="19">
         <v>237.21059299999999</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I52" s="19">
         <v>181.48093</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J52" s="19">
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K52" s="19">
         <v>12.261831000000001</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L52" s="18">
         <f t="shared" si="9"/>
         <v>7799.3527436193035</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M52" s="19">
         <v>2294.5162238704979</v>
       </c>
-      <c r="N51" s="19">
+      <c r="N52" s="19">
         <v>4842.6990967668053</v>
       </c>
-      <c r="O51" s="19">
+      <c r="O52" s="19">
         <v>615.63413392999996</v>
       </c>
-      <c r="P51" s="19">
+      <c r="P52" s="19">
         <v>8.5407225140000023</v>
       </c>
-      <c r="Q51" s="19">
+      <c r="Q52" s="19">
         <v>34.95596040800001</v>
       </c>
-      <c r="R51" s="19">
+      <c r="R52" s="19">
         <v>2.7197566399999999</v>
       </c>
-      <c r="S51" s="20">
+      <c r="S52" s="20">
         <v>0.28684948999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="11">
+    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="11">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <f t="shared" si="8"/>
         <v>11255.030800119688</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E53" s="14">
         <v>3793.7436850000049</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F53" s="14">
         <v>5713.976884119681</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <v>1315.6355450000001</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>235.601181</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I53" s="14">
         <v>181.74973800000001</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J53" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K53" s="14">
         <v>14.308767</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L53" s="13">
         <f t="shared" si="9"/>
         <v>8093.1738756910991</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M53" s="14">
         <v>2575.3834254900021</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N53" s="14">
         <v>4833.7327735580984</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O53" s="14">
         <v>635.0188110539998</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P53" s="14">
         <v>8.7395811469999991</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="Q53" s="14">
         <v>36.949788237000007</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R53" s="14">
         <v>3.0379556999999999</v>
       </c>
-      <c r="S52" s="15">
+      <c r="S53" s="15">
         <v>0.31154050500000008</v>
       </c>
     </row>
-    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="16">
+    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="16">
         <v>2021</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D54" s="18">
         <f t="shared" si="8"/>
         <v>11085.875192119853</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="19">
         <v>4014.4691365000031</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F54" s="19">
         <v>5377.2218746198478</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G54" s="19">
         <v>1234.1497800000011</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H54" s="19">
         <v>253.12753699999999</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I54" s="19">
         <v>192.660923</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J54" s="19">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K54" s="19">
         <v>14.224441000000001</v>
       </c>
-      <c r="L53" s="18">
+      <c r="L54" s="18">
         <f t="shared" si="9"/>
         <v>7726.6787146596171</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M54" s="19">
         <v>2629.796765055999</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N54" s="19">
         <v>4464.5122847686171</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O54" s="19">
         <v>581.68120659000044</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P54" s="19">
         <v>9.1290644990000001</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q54" s="19">
         <v>36.782584659999998</v>
       </c>
-      <c r="R53" s="19">
+      <c r="R54" s="19">
         <v>4.3888587000000001</v>
       </c>
-      <c r="S53" s="20">
+      <c r="S54" s="20">
         <v>0.38795038599999998</v>
       </c>
     </row>
-    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="11">
+    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="11">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <f t="shared" si="8"/>
         <v>12022.900882797225</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E55" s="14">
         <v>4361.3740710000029</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F55" s="14">
         <v>5936.7487387972214</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="14">
         <v>1232.430877999999</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H55" s="14">
         <v>263.60899599999999</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I55" s="14">
         <v>207.02036000000001</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J55" s="14">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K55" s="14">
         <v>21.698639</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L55" s="13">
         <f t="shared" si="9"/>
         <v>8508.790074300683</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M55" s="14">
         <v>2922.9896007830021</v>
       </c>
-      <c r="N54" s="14">
+      <c r="N55" s="14">
         <v>4940.7335945086788</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O55" s="14">
         <v>590.43121132199985</v>
       </c>
-      <c r="P54" s="14">
+      <c r="P55" s="14">
         <v>9.6548794559999997</v>
       </c>
-      <c r="Q54" s="14">
+      <c r="Q55" s="14">
         <v>41.925393185999987</v>
       </c>
-      <c r="R54" s="14">
+      <c r="R55" s="14">
         <v>2.55537546</v>
       </c>
-      <c r="S54" s="15">
+      <c r="S55" s="15">
         <v>0.50001958499999988</v>
       </c>
     </row>
-    <row r="55" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="16">
+    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="16">
         <v>2021</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C56" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D56" s="18">
         <f t="shared" si="8"/>
         <v>11202.965129249227</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E56" s="19">
         <v>4088.1791725000012</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F56" s="19">
         <v>5398.3324937492234</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G56" s="19">
         <v>1215.8369100000009</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H56" s="19">
         <v>280.81724400000002</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I56" s="19">
         <v>191.078067</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J56" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K56" s="19">
         <v>28.689242</v>
       </c>
-      <c r="L55" s="18">
+      <c r="L56" s="18">
         <f t="shared" si="9"/>
         <v>7831.1461965570006</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M56" s="19">
         <v>2687.4059335134998</v>
       </c>
-      <c r="N55" s="19">
+      <c r="N56" s="19">
         <v>4476.268327207501</v>
       </c>
-      <c r="O55" s="19">
+      <c r="O56" s="19">
         <v>612.56275004999998</v>
       </c>
-      <c r="P55" s="19">
+      <c r="P56" s="19">
         <v>10.506913092</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="Q56" s="19">
         <v>37.034007258999999</v>
       </c>
-      <c r="R55" s="19">
+      <c r="R56" s="19">
         <v>6.8037442799999992</v>
       </c>
-      <c r="S55" s="20">
+      <c r="S56" s="20">
         <v>0.56452115499999989</v>
       </c>
     </row>
-    <row r="56" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="11">
+    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="11">
         <v>2021</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <f t="shared" si="8"/>
         <v>11472.620926703923</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E57" s="14">
         <v>4090.808027499997</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F57" s="14">
         <v>5662.2790862039283</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="14">
         <v>1207.80692</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H57" s="14">
         <v>294.74798299999998</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I57" s="14">
         <v>196.56426200000001</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J57" s="14">
         <v>2.7E-2</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K57" s="14">
         <v>20.387647999999999</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L57" s="13">
         <f t="shared" si="9"/>
         <v>8142.6430797048588</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M57" s="14">
         <v>2745.9354684965042</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N57" s="14">
         <v>4736.7506870613533</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O57" s="14">
         <v>604.7617960900003</v>
       </c>
-      <c r="P56" s="14">
+      <c r="P57" s="14">
         <v>8.8911368260000003</v>
       </c>
-      <c r="Q56" s="14">
+      <c r="Q57" s="14">
         <v>41.498002944</v>
       </c>
-      <c r="R56" s="14">
+      <c r="R57" s="14">
         <v>4.35843588</v>
       </c>
-      <c r="S56" s="15">
+      <c r="S57" s="15">
         <v>0.44755240699999999</v>
       </c>
     </row>
-    <row r="57" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="16">
+    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="16">
         <v>2021</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D58" s="18">
         <f t="shared" si="8"/>
         <v>9383.1106395317038</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E58" s="19">
         <v>3368.883307499998</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F58" s="19">
         <v>4573.2690100317068</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G58" s="19">
         <v>1036.92257</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H58" s="19">
         <v>234.75769500000001</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I58" s="19">
         <v>161.20675999999989</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J58" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K58" s="19">
         <v>8.0472970000000004</v>
       </c>
-      <c r="L57" s="18">
+      <c r="L58" s="18">
         <f t="shared" si="9"/>
         <v>6633.7415436800029</v>
       </c>
-      <c r="M57" s="19">
+      <c r="M58" s="19">
         <v>2289.3534260344968</v>
       </c>
-      <c r="N57" s="19">
+      <c r="N58" s="19">
         <v>3773.8464727675068</v>
       </c>
-      <c r="O57" s="19">
+      <c r="O58" s="19">
         <v>527.36503372999948</v>
       </c>
-      <c r="P57" s="19">
+      <c r="P58" s="19">
         <v>8.0640420000000006</v>
       </c>
-      <c r="Q57" s="19">
+      <c r="Q58" s="19">
         <v>32.601814822999998</v>
       </c>
-      <c r="R57" s="19">
+      <c r="R58" s="19">
         <v>2.3511389399999998</v>
       </c>
-      <c r="S57" s="20">
+      <c r="S58" s="20">
         <v>0.159615385</v>
       </c>
     </row>
-    <row r="58" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="21">
+    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="21">
         <v>2021</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C59" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D59" s="23">
         <f t="shared" si="8"/>
         <v>10668.087908957505</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E59" s="24">
         <v>4020.238264000001</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F59" s="24">
         <v>5144.8473599575036</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G59" s="24">
         <v>1116.808546</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H59" s="24">
         <v>177.10898</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I59" s="24">
         <v>186.84795500000001</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J59" s="24">
         <v>5.1790099999999999</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K59" s="24">
         <v>17.057794000000001</v>
       </c>
-      <c r="L58" s="23">
+      <c r="L59" s="23">
         <f t="shared" si="9"/>
         <v>7658.9491725908874</v>
       </c>
-      <c r="M58" s="24">
+      <c r="M59" s="24">
         <v>2719.7331992549998</v>
       </c>
-      <c r="N58" s="24">
+      <c r="N59" s="24">
         <v>4347.3157786078864</v>
       </c>
-      <c r="O58" s="24">
+      <c r="O59" s="24">
         <v>544.13671407200002</v>
       </c>
-      <c r="P58" s="24">
+      <c r="P59" s="24">
         <v>7.3822649800000004</v>
       </c>
-      <c r="Q58" s="24">
+      <c r="Q59" s="24">
         <v>37.287069709999997</v>
       </c>
-      <c r="R58" s="24">
+      <c r="R59" s="24">
         <v>2.7605594199999999</v>
       </c>
-      <c r="S58" s="25">
+      <c r="S59" s="25">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="59" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="26">
+    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="26">
         <v>2020</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C60" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D60" s="28">
         <f t="shared" si="8"/>
         <v>10425.345499100005</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E60" s="29">
         <v>3898.4186785000038</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F60" s="29">
         <v>4882.8448936000004</v>
       </c>
-      <c r="G59" s="29">
+      <c r="G60" s="29">
         <v>1069.05969</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H60" s="29">
         <v>347.73810900000001</v>
       </c>
-      <c r="I59" s="29">
+      <c r="I60" s="29">
         <v>196.70733799999999</v>
       </c>
-      <c r="J59" s="29">
+      <c r="J60" s="29">
         <v>18.026479999999999</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K60" s="29">
         <v>12.55031</v>
       </c>
-      <c r="L59" s="28">
+      <c r="L60" s="28">
         <f t="shared" si="9"/>
         <v>7353.1727623347024</v>
       </c>
-      <c r="M59" s="29">
+      <c r="M60" s="29">
         <v>2625.9467366160002</v>
       </c>
-      <c r="N59" s="29">
+      <c r="N60" s="29">
         <v>4157.4580108327018</v>
       </c>
-      <c r="O59" s="29">
+      <c r="O60" s="29">
         <v>517.70569403000059</v>
       </c>
-      <c r="P59" s="29">
+      <c r="P60" s="29">
         <v>9.0617785400000006</v>
       </c>
-      <c r="Q59" s="29">
+      <c r="Q60" s="29">
         <v>36.825079076000002</v>
       </c>
-      <c r="R59" s="29">
+      <c r="R60" s="29">
         <v>5.8351311600000004</v>
       </c>
-      <c r="S59" s="30">
+      <c r="S60" s="30">
         <v>0.34033207999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="11">
+    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <f t="shared" si="8"/>
         <v>10381.153690500003</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E61" s="14">
         <v>3792.1774099999998</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F61" s="14">
         <v>5016.643987500006</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G61" s="14">
         <v>1022.91</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H61" s="14">
         <v>376.49241599999999</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I61" s="14">
         <v>156.720607</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J61" s="14">
         <v>6.5342300000000009</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="14">
         <v>9.6750399999999974</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L61" s="13">
         <f t="shared" si="9"/>
         <v>7352.5100897651027</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M61" s="14">
         <v>2476.4938742799982</v>
       </c>
-      <c r="N60" s="14">
+      <c r="N61" s="14">
         <v>4312.6025955031046</v>
       </c>
-      <c r="O60" s="14">
+      <c r="O61" s="14">
         <v>515.07792600000016</v>
       </c>
-      <c r="P60" s="14">
+      <c r="P61" s="14">
         <v>11.231821312999999</v>
       </c>
-      <c r="Q60" s="14">
+      <c r="Q61" s="14">
         <v>34.256908838999998</v>
       </c>
-      <c r="R60" s="14">
+      <c r="R61" s="14">
         <v>2.6046938000000002</v>
       </c>
-      <c r="S60" s="15">
+      <c r="S61" s="15">
         <v>0.24227003</v>
       </c>
     </row>
-    <row r="61" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="16">
+    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="16">
         <v>2020</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C62" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D62" s="18">
         <f t="shared" si="8"/>
         <v>10304.857817457816</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E62" s="19">
         <v>3959.7610744999961</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F62" s="19">
         <v>4749.0987938578201</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G62" s="19">
         <v>1197.7530099999999</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H62" s="19">
         <v>186.51679809999999</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I62" s="19">
         <v>178.59754699999999</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J62" s="19">
         <v>16.072800000000001</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K62" s="19">
         <v>17.057794000000001</v>
       </c>
-      <c r="L61" s="18">
+      <c r="L62" s="18">
         <f t="shared" si="9"/>
         <v>7334.9599437122397</v>
       </c>
-      <c r="M61" s="19">
+      <c r="M62" s="19">
         <v>2713.3960539770019</v>
       </c>
-      <c r="N61" s="19">
+      <c r="N62" s="19">
         <v>4023.2553769225378</v>
       </c>
-      <c r="O61" s="19">
+      <c r="O62" s="19">
         <v>542.79762977000007</v>
       </c>
-      <c r="P61" s="19">
+      <c r="P62" s="19">
         <v>7.5060893896999996</v>
       </c>
-      <c r="Q61" s="19">
+      <c r="Q62" s="19">
         <v>42.505763026999993</v>
       </c>
-      <c r="R61" s="19">
+      <c r="R62" s="19">
         <v>5.1654440799999994</v>
       </c>
-      <c r="S61" s="20">
+      <c r="S62" s="20">
         <v>0.33358654599999998</v>
       </c>
     </row>
-    <row r="62" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="11">
+    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <f t="shared" si="8"/>
         <v>10010.860705133222</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E63" s="14">
         <v>4074.659214000003</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>4534.2935971332181</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <v>1007.21459</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H63" s="14">
         <v>218.893238</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I63" s="14">
         <v>160.24086600000001</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J63" s="14">
         <v>0.98</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K63" s="14">
         <v>14.5792</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L63" s="13">
         <f t="shared" si="9"/>
         <v>7046.4603867411315</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M63" s="14">
         <v>2750.463505591501</v>
       </c>
-      <c r="N62" s="14">
+      <c r="N63" s="14">
         <v>3736.9267533866309</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O63" s="14">
         <v>516.3334641199998</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P63" s="14">
         <v>8.9935901099999995</v>
       </c>
-      <c r="Q62" s="14">
+      <c r="Q63" s="14">
         <v>32.577175492999999</v>
       </c>
-      <c r="R62" s="14">
+      <c r="R63" s="14">
         <v>0.73748120000000006</v>
       </c>
-      <c r="S62" s="15">
+      <c r="S63" s="15">
         <v>0.42841684000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="16">
+    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="16">
         <v>2020</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D64" s="18">
         <f t="shared" si="8"/>
         <v>10140.746236042156</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E64" s="19">
         <v>3720.288184500002</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F64" s="19">
         <v>4994.2514095421539</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G64" s="19">
         <v>1027.58536</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H64" s="19">
         <v>187.64308500000001</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I64" s="19">
         <v>186.38118700000001</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J64" s="19">
         <v>13.8596</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K64" s="19">
         <v>10.737410000000001</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L64" s="18">
         <f t="shared" si="9"/>
         <v>7449.2591429184022</v>
       </c>
-      <c r="M63" s="19">
+      <c r="M64" s="19">
         <v>2487.3447639574988</v>
       </c>
-      <c r="N63" s="19">
+      <c r="N64" s="19">
         <v>4328.973769747904</v>
       </c>
-      <c r="O63" s="19">
+      <c r="O64" s="19">
         <v>579.49765215000036</v>
       </c>
-      <c r="P63" s="19">
+      <c r="P64" s="19">
         <v>7.4413398099999997</v>
       </c>
-      <c r="Q63" s="19">
+      <c r="Q64" s="19">
         <v>39.990465413000003</v>
       </c>
-      <c r="R63" s="19">
+      <c r="R64" s="19">
         <v>5.7537497800000006</v>
       </c>
-      <c r="S63" s="20">
+      <c r="S64" s="20">
         <v>0.25740205999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="11">
+    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="11">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <f t="shared" si="8"/>
         <v>10156.497411288225</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>3613.696181999997</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="14">
         <v>4968.204788288228</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <v>1194.003549999999</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H65" s="14">
         <v>179.13738699999999</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I65" s="14">
         <v>177.43138400000001</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J65" s="14">
         <v>13.854179999999999</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K65" s="14">
         <v>10.16994</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L65" s="13">
         <f t="shared" si="9"/>
         <v>7380.5613200561647</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M65" s="14">
         <v>2428.846732166</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N65" s="14">
         <v>4258.745057885164</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O65" s="14">
         <v>616.52099685999997</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P65" s="14">
         <v>6.897613637000001</v>
       </c>
-      <c r="Q64" s="14">
+      <c r="Q65" s="14">
         <v>46.615575728000003</v>
       </c>
-      <c r="R64" s="14">
+      <c r="R65" s="14">
         <v>22.688503149999999</v>
       </c>
-      <c r="S64" s="15">
+      <c r="S65" s="15">
         <v>0.24684063000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="16">
+    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="16">
         <v>2020</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C66" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D66" s="18">
         <f t="shared" si="8"/>
         <v>9413.8401068405965</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E66" s="19">
         <v>3299.4981385000028</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F66" s="19">
         <v>4750.320989340591</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G66" s="19">
         <v>1032.4139100000009</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H66" s="19">
         <v>122.951718</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I66" s="19">
         <v>176.151501</v>
       </c>
-      <c r="J65" s="19">
+      <c r="J66" s="19">
         <v>19.795500000000001</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K66" s="19">
         <v>12.708349999999999</v>
       </c>
-      <c r="L65" s="18">
+      <c r="L66" s="18">
         <f t="shared" si="9"/>
         <v>6838.7530584626184</v>
       </c>
-      <c r="M65" s="19">
+      <c r="M66" s="19">
         <v>2178.930646833498</v>
       </c>
-      <c r="N65" s="19">
+      <c r="N66" s="19">
         <v>4081.32299100612</v>
       </c>
-      <c r="O65" s="19">
+      <c r="O66" s="19">
         <v>505.39333284999958</v>
       </c>
-      <c r="P65" s="19">
+      <c r="P66" s="19">
         <v>4.1486682360000007</v>
       </c>
-      <c r="Q65" s="19">
+      <c r="Q66" s="19">
         <v>48.516144666999992</v>
       </c>
-      <c r="R65" s="19">
+      <c r="R66" s="19">
         <v>20.1564771</v>
       </c>
-      <c r="S65" s="20">
+      <c r="S66" s="20">
         <v>0.28479777000000012</v>
       </c>
     </row>
-    <row r="66" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="11">
+    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="11">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="13">
-        <f t="shared" ref="D66:D94" si="10">SUM(E66:K66)</f>
+      <c r="D67" s="13">
+        <f t="shared" ref="D67:D95" si="10">SUM(E67:K67)</f>
         <v>8958.3282716603189</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E67" s="14">
         <v>2963.8515250000032</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F67" s="14">
         <v>4578.9250176603191</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="14">
         <v>1046.3265299999989</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H67" s="14">
         <v>141.62878699999999</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I67" s="14">
         <v>181.326382</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J67" s="14">
         <v>35.391770000000001</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K67" s="14">
         <v>10.878259999999999</v>
       </c>
-      <c r="L66" s="13">
-        <f t="shared" ref="L66:L94" si="11">SUM(M66:S66)</f>
+      <c r="L67" s="13">
+        <f t="shared" ref="L67:L95" si="11">SUM(M67:S67)</f>
         <v>6599.7211012138414</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M67" s="14">
         <v>1955.6864974084999</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N67" s="14">
         <v>4070.699793715341</v>
       </c>
-      <c r="O66" s="14">
+      <c r="O67" s="14">
         <v>490.43616353999971</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P67" s="14">
         <v>4.9919812889999999</v>
       </c>
-      <c r="Q66" s="14">
+      <c r="Q67" s="14">
         <v>49.262628410999987</v>
       </c>
-      <c r="R66" s="14">
+      <c r="R67" s="14">
         <v>28.479580210000002</v>
       </c>
-      <c r="S66" s="15">
+      <c r="S67" s="15">
         <v>0.16445663999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="16">
+    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="16">
         <v>2020</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C68" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D68" s="18">
         <f t="shared" si="10"/>
         <v>9180.7559098961865</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E68" s="19">
         <v>3045.684487</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F68" s="19">
         <v>4586.6569688961881</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G68" s="19">
         <v>1232.8326999999999</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H68" s="19">
         <v>80.286566999999991</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I68" s="19">
         <v>185.73497699999999</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J68" s="19">
         <v>37.784360000000007</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K68" s="19">
         <v>11.77585</v>
       </c>
-      <c r="L67" s="18">
+      <c r="L68" s="18">
         <f t="shared" si="11"/>
         <v>6563.6809044984548</v>
       </c>
-      <c r="M67" s="19">
+      <c r="M68" s="19">
         <v>2092.363650120501</v>
       </c>
-      <c r="N67" s="19">
+      <c r="N68" s="19">
         <v>3810.8671320719541</v>
       </c>
-      <c r="O67" s="19">
+      <c r="O68" s="19">
         <v>576.76851579999936</v>
       </c>
-      <c r="P67" s="19">
+      <c r="P68" s="19">
         <v>2.1857480950000001</v>
       </c>
-      <c r="Q67" s="19">
+      <c r="Q68" s="19">
         <v>48.091960541000013</v>
       </c>
-      <c r="R67" s="19">
+      <c r="R68" s="19">
         <v>33.146718739999997</v>
       </c>
-      <c r="S67" s="20">
+      <c r="S68" s="20">
         <v>0.25717912999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="11">
+    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="11">
         <v>2020</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <f t="shared" si="10"/>
         <v>10838.533316456946</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="14">
         <v>3989.0247625000002</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F69" s="14">
         <v>5227.3044649569474</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <v>1164.59097</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H69" s="14">
         <v>195.326954</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I69" s="14">
         <v>192.162305</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J69" s="14">
         <v>55.761529999999993</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K69" s="14">
         <v>14.36233</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L69" s="13">
         <f t="shared" si="11"/>
         <v>7720.3875207885012</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M69" s="14">
         <v>2719.9630072755008</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N69" s="14">
         <v>4308.5178526390009</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O69" s="14">
         <v>550.02743308999959</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P69" s="14">
         <v>7.8376115140000007</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q69" s="14">
         <v>49.157905969999987</v>
       </c>
-      <c r="R68" s="14">
+      <c r="R69" s="14">
         <v>84.630515320000001</v>
       </c>
-      <c r="S68" s="15">
+      <c r="S69" s="15">
         <v>0.25319498000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="16">
+    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="16">
         <v>2020</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C70" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D70" s="18">
         <f t="shared" si="10"/>
         <v>10299.350069510732</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E70" s="19">
         <v>3823.384485499997</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F70" s="19">
         <v>4951.899973010738</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G70" s="19">
         <v>1126.6304699999989</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H70" s="19">
         <v>155.82070999999999</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I70" s="19">
         <v>189.46652100000011</v>
       </c>
-      <c r="J69" s="19">
+      <c r="J70" s="19">
         <v>42.813149999999993</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K70" s="19">
         <v>9.3347600000000028</v>
       </c>
-      <c r="L69" s="18">
+      <c r="L70" s="18">
         <f t="shared" si="11"/>
         <v>7398.4236104454985</v>
       </c>
-      <c r="M69" s="19">
+      <c r="M70" s="19">
         <v>2611.3807745675008</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N70" s="19">
         <v>4099.994935206998</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O70" s="19">
         <v>576.65962569999999</v>
       </c>
-      <c r="P69" s="19">
+      <c r="P70" s="19">
         <v>5.8101744709999998</v>
       </c>
-      <c r="Q69" s="19">
+      <c r="Q70" s="19">
         <v>48.975136419999998</v>
       </c>
-      <c r="R69" s="19">
+      <c r="R70" s="19">
         <v>55.332080869999999</v>
       </c>
-      <c r="S69" s="20">
+      <c r="S70" s="20">
         <v>0.2708832100000001</v>
       </c>
     </row>
-    <row r="70" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="21">
+    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="21">
         <v>2020</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C71" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D71" s="23">
         <f t="shared" si="10"/>
         <v>10271.035696436747</v>
       </c>
-      <c r="E70" s="24">
+      <c r="E71" s="24">
         <v>3815.537451499998</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F71" s="24">
         <v>4795.4483429367501</v>
       </c>
-      <c r="G70" s="24">
+      <c r="G71" s="24">
         <v>1231.876279999999</v>
       </c>
-      <c r="H70" s="24">
+      <c r="H71" s="24">
         <v>149.16394</v>
       </c>
-      <c r="I70" s="24">
+      <c r="I71" s="24">
         <v>225.18540200000001</v>
       </c>
-      <c r="J70" s="24">
+      <c r="J71" s="24">
         <v>42.674029999999988</v>
       </c>
-      <c r="K70" s="24">
+      <c r="K71" s="24">
         <v>11.15025</v>
       </c>
-      <c r="L70" s="23">
+      <c r="L71" s="23">
         <f t="shared" si="11"/>
         <v>7185.7383871704087</v>
       </c>
-      <c r="M70" s="24">
+      <c r="M71" s="24">
         <v>2557.950665571791</v>
       </c>
-      <c r="N70" s="24">
+      <c r="N71" s="24">
         <v>3902.6936190776169</v>
       </c>
-      <c r="O70" s="24">
+      <c r="O71" s="24">
         <v>613.68125601999952</v>
       </c>
-      <c r="P70" s="24">
+      <c r="P71" s="24">
         <v>5.5450976610000007</v>
       </c>
-      <c r="Q70" s="24">
+      <c r="Q71" s="24">
         <v>54.17302995</v>
       </c>
-      <c r="R70" s="24">
+      <c r="R71" s="24">
         <v>51.401263659999998</v>
       </c>
-      <c r="S70" s="25">
+      <c r="S71" s="25">
         <v>0.29345523000000012</v>
       </c>
     </row>
-    <row r="71" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="26">
+    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="26">
         <v>2019</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C72" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="28">
+      <c r="D72" s="28">
         <f t="shared" si="10"/>
         <v>10047.312890842448</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E72" s="29">
         <v>3660.8761419999978</v>
       </c>
-      <c r="F71" s="29">
+      <c r="F72" s="29">
         <v>4803.7000258424505</v>
       </c>
-      <c r="G71" s="29">
+      <c r="G72" s="29">
         <v>1177.5281500000008</v>
       </c>
-      <c r="H71" s="29">
+      <c r="H72" s="29">
         <v>122.89328999999999</v>
       </c>
-      <c r="I71" s="29">
+      <c r="I72" s="29">
         <v>230.92350300000001</v>
       </c>
-      <c r="J71" s="29">
+      <c r="J72" s="29">
         <v>42.637639999999998</v>
       </c>
-      <c r="K71" s="29">
+      <c r="K72" s="29">
         <v>8.7541399999999996</v>
       </c>
-      <c r="L71" s="28">
+      <c r="L72" s="28">
         <f t="shared" si="11"/>
         <v>7283.4758425855061</v>
       </c>
-      <c r="M71" s="29">
+      <c r="M72" s="29">
         <v>2545.6933826471468</v>
       </c>
-      <c r="N71" s="29">
+      <c r="N72" s="29">
         <v>4050.2897667273596</v>
       </c>
-      <c r="O71" s="29">
+      <c r="O72" s="29">
         <v>573.5496261799999</v>
       </c>
-      <c r="P71" s="29">
+      <c r="P72" s="29">
         <v>4.2298997729999996</v>
       </c>
-      <c r="Q71" s="29">
+      <c r="Q72" s="29">
         <v>56.884561087999998</v>
       </c>
-      <c r="R71" s="29">
+      <c r="R72" s="29">
         <v>52.609621790000006</v>
       </c>
-      <c r="S71" s="30">
+      <c r="S72" s="30">
         <v>0.21898438000000003</v>
       </c>
     </row>
-    <row r="72" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="11">
+    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <f t="shared" si="10"/>
         <v>10280.781962591729</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E73" s="14">
         <v>3610.9266754999981</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F73" s="14">
         <v>5041.7983650917313</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="14">
         <v>1236.3706200000001</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H73" s="14">
         <v>119.94541900000002</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I73" s="14">
         <v>216.296423</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J73" s="14">
         <v>44.749820000000007</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K73" s="14">
         <v>10.694639999999998</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L73" s="13">
         <f t="shared" si="11"/>
         <v>7555.8940235339123</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M73" s="14">
         <v>2480.4706212095998</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N73" s="14">
         <v>4344.3803465193132</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O73" s="14">
         <v>612.67386856000019</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P73" s="14">
         <v>4.0122463450000003</v>
       </c>
-      <c r="Q72" s="14">
+      <c r="Q73" s="14">
         <v>58.796987859999994</v>
       </c>
-      <c r="R72" s="14">
+      <c r="R73" s="14">
         <v>55.348814779999998</v>
       </c>
-      <c r="S72" s="15">
+      <c r="S73" s="15">
         <v>0.21113825999999997</v>
       </c>
     </row>
-    <row r="73" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="16">
+    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="16">
         <v>2019</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C74" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D74" s="18">
         <f t="shared" si="10"/>
         <v>10705.327866000001</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E74" s="19">
         <v>3801.481272</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F74" s="19">
         <v>5236.960086</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G74" s="19">
         <v>1235.93461</v>
       </c>
-      <c r="H73" s="19">
+      <c r="H74" s="19">
         <v>160.86355499999999</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I74" s="19">
         <v>213.47005300000001</v>
       </c>
-      <c r="J73" s="19">
+      <c r="J74" s="19">
         <v>45.65587</v>
       </c>
-      <c r="K73" s="19">
+      <c r="K74" s="19">
         <v>10.96242</v>
       </c>
-      <c r="L73" s="18">
+      <c r="L74" s="18">
         <f t="shared" si="11"/>
         <v>7564.1221808391301</v>
       </c>
-      <c r="M73" s="19">
+      <c r="M74" s="19">
         <v>2532.7762513215766</v>
       </c>
-      <c r="N73" s="19">
+      <c r="N74" s="19">
         <v>4297.3858559405544</v>
       </c>
-      <c r="O73" s="19">
+      <c r="O74" s="19">
         <v>606.66118932999996</v>
       </c>
-      <c r="P73" s="19">
+      <c r="P74" s="19">
         <v>5.7111421819999997</v>
       </c>
-      <c r="Q73" s="19">
+      <c r="Q74" s="19">
         <v>64.496729185000007</v>
       </c>
-      <c r="R73" s="19">
+      <c r="R74" s="19">
         <v>56.887522270000005</v>
       </c>
-      <c r="S73" s="20">
+      <c r="S74" s="20">
         <v>0.20349060999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="11">
+    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <f t="shared" si="10"/>
         <v>10313.251420927023</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E75" s="14">
         <v>3763.4243204999998</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F75" s="14">
         <v>4794.4036324270237</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <v>1259.9243900000008</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H75" s="14">
         <v>164.26299700000001</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I75" s="14">
         <v>251.636821</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J75" s="14">
         <v>66.981439999999992</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K75" s="14">
         <v>12.61782</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L75" s="13">
         <f t="shared" si="11"/>
         <v>7368.223949700222</v>
       </c>
-      <c r="M74" s="14">
+      <c r="M75" s="14">
         <v>2492.5831110034319</v>
       </c>
-      <c r="N74" s="14">
+      <c r="N75" s="14">
         <v>4168.1941198527893</v>
       </c>
-      <c r="O74" s="14">
+      <c r="O75" s="14">
         <v>564.70797957000025</v>
       </c>
-      <c r="P74" s="14">
+      <c r="P75" s="14">
         <v>6.7826120650000004</v>
       </c>
-      <c r="Q74" s="14">
+      <c r="Q75" s="14">
         <v>68.621584789000011</v>
       </c>
-      <c r="R74" s="14">
+      <c r="R75" s="14">
         <v>67.080573079999994</v>
       </c>
-      <c r="S74" s="15">
+      <c r="S75" s="15">
         <v>0.25396934000000004</v>
       </c>
     </row>
-    <row r="75" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="16">
+    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="16">
         <v>2019</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C76" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D76" s="18">
         <f t="shared" si="10"/>
         <v>11096.380692382061</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E76" s="19">
         <v>3917.8476439999995</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F76" s="19">
         <v>5305.3281943820612</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G76" s="19">
         <v>1265.0673000000011</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H76" s="19">
         <v>254.105448</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I76" s="19">
         <v>282.87777699999998</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J76" s="19">
         <v>52.912410000000001</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K76" s="19">
         <v>18.241918999999999</v>
       </c>
-      <c r="L75" s="18">
+      <c r="L76" s="18">
         <f t="shared" si="11"/>
         <v>7875.1347427823239</v>
       </c>
-      <c r="M75" s="19">
+      <c r="M76" s="19">
         <v>2623.4929048545905</v>
       </c>
-      <c r="N75" s="19">
+      <c r="N76" s="19">
         <v>4528.0558628127355</v>
       </c>
-      <c r="O75" s="19">
+      <c r="O76" s="19">
         <v>599.40095962999965</v>
       </c>
-      <c r="P75" s="19">
+      <c r="P76" s="19">
         <v>7.1929457959999992</v>
       </c>
-      <c r="Q75" s="19">
+      <c r="Q76" s="19">
         <v>67.383048192999993</v>
       </c>
-      <c r="R75" s="19">
+      <c r="R76" s="19">
         <v>49.255862180000001</v>
       </c>
-      <c r="S75" s="20">
+      <c r="S76" s="20">
         <v>0.353159316</v>
       </c>
     </row>
-    <row r="76" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="11">
+    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="11">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <f t="shared" si="10"/>
         <v>11150.650438969102</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E77" s="14">
         <v>3873.3662050000003</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F77" s="14">
         <v>5476.5920749691022</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <v>1295.4921899999999</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H77" s="14">
         <v>130.167182</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I77" s="14">
         <v>270.20667400000008</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J77" s="14">
         <v>95.357079999999996</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K77" s="14">
         <v>9.4690329999999996</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L77" s="13">
         <f t="shared" si="11"/>
         <v>8143.3902304466164</v>
       </c>
-      <c r="M76" s="14">
+      <c r="M77" s="14">
         <v>2699.0426404251648</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N77" s="14">
         <v>4690.7340326165104</v>
       </c>
-      <c r="O76" s="14">
+      <c r="O77" s="14">
         <v>626.75042356999995</v>
       </c>
-      <c r="P76" s="14">
+      <c r="P77" s="14">
         <v>4.2158850049414749</v>
       </c>
-      <c r="Q76" s="14">
+      <c r="Q77" s="14">
         <v>69.891604407999992</v>
       </c>
-      <c r="R76" s="14">
+      <c r="R77" s="14">
         <v>52.570641740000006</v>
       </c>
-      <c r="S76" s="15">
+      <c r="S77" s="15">
         <v>0.18500268199999997</v>
       </c>
     </row>
-    <row r="77" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="16">
+    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="16">
         <v>2019</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C78" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D78" s="18">
         <f t="shared" si="10"/>
         <v>10374.818673051463</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="19">
         <v>3549.9224370000029</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="19">
         <v>5071.1049410514588</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G78" s="19">
         <v>1261.1353490000001</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H78" s="19">
         <v>189.70297400000001</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I78" s="19">
         <v>241.36934199999999</v>
       </c>
-      <c r="J77" s="19">
+      <c r="J78" s="19">
         <v>51.38608</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K78" s="19">
         <v>10.197550000000003</v>
       </c>
-      <c r="L77" s="18">
+      <c r="L78" s="18">
         <f t="shared" si="11"/>
         <v>7532.8116285687038</v>
       </c>
-      <c r="M77" s="19">
+      <c r="M78" s="19">
         <v>2498.5873912253655</v>
       </c>
-      <c r="N77" s="19">
+      <c r="N78" s="19">
         <v>4294.5408771924649</v>
       </c>
-      <c r="O77" s="19">
+      <c r="O78" s="19">
         <v>618.46245641899986</v>
       </c>
-      <c r="P77" s="19">
+      <c r="P78" s="19">
         <v>7.1837945668734235</v>
       </c>
-      <c r="Q77" s="19">
+      <c r="Q78" s="19">
         <v>67.283344745000008</v>
       </c>
-      <c r="R77" s="19">
+      <c r="R78" s="19">
         <v>46.514204849999999</v>
       </c>
-      <c r="S77" s="20">
+      <c r="S78" s="20">
         <v>0.23955957</v>
       </c>
     </row>
-    <row r="78" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="11">
+    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="11">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <f t="shared" si="10"/>
         <v>10971.576587143792</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E79" s="14">
         <v>3859.9412885000029</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F79" s="14">
         <v>5135.6499426437886</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <v>1398.7275000000011</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H79" s="14">
         <v>201.93910199999996</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I79" s="14">
         <v>308.40207399999997</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J79" s="14">
         <v>52.276800000000001</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K79" s="14">
         <v>14.63988</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L79" s="13">
         <f t="shared" si="11"/>
         <v>7918.5192805454762</v>
       </c>
-      <c r="M78" s="14">
+      <c r="M79" s="14">
         <v>2715.5986838884046</v>
       </c>
-      <c r="N78" s="14">
+      <c r="N79" s="14">
         <v>4370.5287118188699</v>
       </c>
-      <c r="O78" s="14">
+      <c r="O79" s="14">
         <v>688.65007213000047</v>
       </c>
-      <c r="P78" s="14">
+      <c r="P79" s="14">
         <v>6.9957881702000009</v>
       </c>
-      <c r="Q78" s="14">
+      <c r="Q79" s="14">
         <v>77.028830357999993</v>
       </c>
-      <c r="R78" s="14">
+      <c r="R79" s="14">
         <v>59.42133875999999</v>
       </c>
-      <c r="S78" s="15">
+      <c r="S79" s="15">
         <v>0.29585541999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="16">
+    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="16">
         <v>2019</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C80" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D80" s="18">
         <f t="shared" si="10"/>
         <v>10534.153393500883</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E80" s="19">
         <v>3675.3372790000017</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F80" s="19">
         <v>5077.1043255008817</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G80" s="19">
         <v>1229.5152699999999</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H80" s="19">
         <v>205.91515200000003</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I80" s="19">
         <v>272.06735700000002</v>
       </c>
-      <c r="J79" s="19">
+      <c r="J80" s="19">
         <v>57.111829999999998</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K80" s="19">
         <v>17.102179999999997</v>
       </c>
-      <c r="L79" s="18">
+      <c r="L80" s="18">
         <f t="shared" si="11"/>
         <v>7390.6301600856887</v>
       </c>
-      <c r="M79" s="19">
+      <c r="M80" s="19">
         <v>2482.4826125118411</v>
       </c>
-      <c r="N79" s="19">
+      <c r="N80" s="19">
         <v>4183.7452393018466</v>
       </c>
-      <c r="O79" s="19">
+      <c r="O80" s="19">
         <v>594.52454974000057</v>
       </c>
-      <c r="P79" s="19">
+      <c r="P80" s="19">
         <v>6.8929467899999999</v>
       </c>
-      <c r="Q79" s="19">
+      <c r="Q80" s="19">
         <v>61.99332402200001</v>
       </c>
-      <c r="R79" s="19">
+      <c r="R80" s="19">
         <v>60.632588310000003</v>
       </c>
-      <c r="S79" s="20">
+      <c r="S80" s="20">
         <v>0.35889941000000009</v>
       </c>
     </row>
-    <row r="80" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="11">
+    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="11">
         <v>2019</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <f t="shared" si="10"/>
         <v>10581.052353198915</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E81" s="14">
         <v>3752.7021304999998</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F81" s="14">
         <v>5042.9410756989164</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G81" s="14">
         <v>1226.6793299999995</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H81" s="14">
         <v>227.34326400000003</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I81" s="14">
         <v>273.29974500000003</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J81" s="14">
         <v>46.615569999999991</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K81" s="14">
         <v>11.471238</v>
       </c>
-      <c r="L80" s="13">
+      <c r="L81" s="13">
         <f t="shared" si="11"/>
         <v>7316.8442337622519</v>
       </c>
-      <c r="M80" s="14">
+      <c r="M81" s="14">
         <v>2584.8546054208359</v>
       </c>
-      <c r="N80" s="14">
+      <c r="N81" s="14">
         <v>3971.3774654550916</v>
       </c>
-      <c r="O80" s="14">
+      <c r="O81" s="14">
         <v>628.3360908439995</v>
       </c>
-      <c r="P80" s="14">
+      <c r="P81" s="14">
         <v>8.5075610303260056</v>
       </c>
-      <c r="Q80" s="14">
+      <c r="Q81" s="14">
         <v>68.783462650000004</v>
       </c>
-      <c r="R80" s="14">
+      <c r="R81" s="14">
         <v>54.71253209999999</v>
       </c>
-      <c r="S80" s="15">
+      <c r="S81" s="15">
         <v>0.27251626200000001</v>
       </c>
     </row>
-    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="16">
+    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="16">
         <v>2019</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C82" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D82" s="18">
         <f t="shared" si="10"/>
         <v>9241.6055505618933</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E82" s="19">
         <v>3275.5849539999986</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F82" s="19">
         <v>4370.160919561893</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G82" s="19">
         <v>1126.2545300000011</v>
       </c>
-      <c r="H81" s="19">
+      <c r="H82" s="19">
         <v>152.85569699999999</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I82" s="19">
         <v>259.99696999999998</v>
       </c>
-      <c r="J81" s="19">
+      <c r="J82" s="19">
         <v>46.582780000000007</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K82" s="19">
         <v>10.169700000000002</v>
       </c>
-      <c r="L81" s="18">
+      <c r="L82" s="18">
         <f t="shared" si="11"/>
         <v>6363.5933863084483</v>
       </c>
-      <c r="M81" s="19">
+      <c r="M82" s="19">
         <v>2189.6104131855614</v>
       </c>
-      <c r="N81" s="19">
+      <c r="N82" s="19">
         <v>3499.6909835169613</v>
       </c>
-      <c r="O81" s="19">
+      <c r="O82" s="19">
         <v>547.40245832199946</v>
       </c>
-      <c r="P81" s="19">
+      <c r="P82" s="19">
         <v>5.1177584499260034</v>
       </c>
-      <c r="Q81" s="19">
+      <c r="Q82" s="19">
         <v>63.306209223999993</v>
       </c>
-      <c r="R81" s="19">
+      <c r="R82" s="19">
         <v>58.28962554000001</v>
       </c>
-      <c r="S81" s="20">
+      <c r="S82" s="20">
         <v>0.17593807</v>
       </c>
     </row>
-    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="21">
+    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="21">
         <v>2019</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C83" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D83" s="23">
         <f t="shared" si="10"/>
         <v>9892.1436970006562</v>
       </c>
-      <c r="E82" s="24">
+      <c r="E83" s="24">
         <v>3499.7139435000031</v>
       </c>
-      <c r="F82" s="24">
+      <c r="F83" s="24">
         <v>4546.0874465006518</v>
       </c>
-      <c r="G82" s="24">
+      <c r="G83" s="24">
         <v>1267.5804000000005</v>
       </c>
-      <c r="H82" s="24">
+      <c r="H83" s="24">
         <v>224.06764100000001</v>
       </c>
-      <c r="I82" s="24">
+      <c r="I83" s="24">
         <v>293.47607299999999</v>
       </c>
-      <c r="J82" s="24">
+      <c r="J83" s="24">
         <v>50.833020000000005</v>
       </c>
-      <c r="K82" s="24">
+      <c r="K83" s="24">
         <v>10.385172999999998</v>
       </c>
-      <c r="L82" s="23">
+      <c r="L83" s="23">
         <f t="shared" si="11"/>
         <v>6769.108553604312</v>
       </c>
-      <c r="M82" s="24">
+      <c r="M83" s="24">
         <v>2315.0380047690219</v>
       </c>
-      <c r="N82" s="24">
+      <c r="N83" s="24">
         <v>3695.4581032397491</v>
       </c>
-      <c r="O82" s="24">
+      <c r="O83" s="24">
         <v>592.54793959300025</v>
       </c>
-      <c r="P82" s="24">
+      <c r="P83" s="24">
         <v>8.0988788035407904</v>
       </c>
-      <c r="Q82" s="24">
+      <c r="Q83" s="24">
         <v>68.810378116999999</v>
       </c>
-      <c r="R82" s="24">
+      <c r="R83" s="24">
         <v>88.897206580000002</v>
       </c>
-      <c r="S82" s="25">
+      <c r="S83" s="25">
         <v>0.25804250200000001</v>
       </c>
     </row>
-    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="26">
+    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="26">
         <v>2018</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C84" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="28">
+      <c r="D84" s="28">
         <f t="shared" si="10"/>
         <v>10362</v>
       </c>
-      <c r="E83" s="29">
+      <c r="E84" s="29">
         <v>3606</v>
       </c>
-      <c r="F83" s="29">
+      <c r="F84" s="29">
         <v>4918</v>
       </c>
-      <c r="G83" s="29">
+      <c r="G84" s="29">
         <v>1307</v>
       </c>
-      <c r="H83" s="29">
+      <c r="H84" s="29">
         <v>208</v>
       </c>
-      <c r="I83" s="29">
+      <c r="I84" s="29">
         <v>280</v>
       </c>
-      <c r="J83" s="29">
+      <c r="J84" s="29">
         <v>34</v>
       </c>
-      <c r="K83" s="29">
+      <c r="K84" s="29">
         <v>9</v>
       </c>
-      <c r="L83" s="28">
+      <c r="L84" s="28">
         <f t="shared" si="11"/>
         <v>7145</v>
       </c>
-      <c r="M83" s="29">
+      <c r="M84" s="29">
         <v>2425</v>
       </c>
-      <c r="N83" s="29">
+      <c r="N84" s="29">
         <v>3948</v>
       </c>
-      <c r="O83" s="29">
+      <c r="O84" s="29">
         <v>638</v>
       </c>
-      <c r="P83" s="29">
+      <c r="P84" s="29">
         <v>8</v>
       </c>
-      <c r="Q83" s="29">
+      <c r="Q84" s="29">
         <v>74</v>
       </c>
-      <c r="R83" s="29">
+      <c r="R84" s="29">
         <v>52</v>
       </c>
-      <c r="S83" s="30"/>
-    </row>
-    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="11">
+      <c r="S84" s="30"/>
+    </row>
+    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <f t="shared" si="10"/>
         <v>10847</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E85" s="14">
         <v>3612</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F85" s="14">
         <v>5385</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="14">
         <v>1299</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H85" s="14">
         <v>213</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I85" s="14">
         <v>284</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J85" s="14">
         <v>38</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K85" s="14">
         <v>16</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L85" s="13">
         <f t="shared" si="11"/>
         <v>7655</v>
       </c>
-      <c r="M84" s="14">
+      <c r="M85" s="14">
         <v>2466</v>
       </c>
-      <c r="N84" s="14">
+      <c r="N85" s="14">
         <v>4397</v>
       </c>
-      <c r="O84" s="14">
+      <c r="O85" s="14">
         <v>669</v>
       </c>
-      <c r="P84" s="14">
+      <c r="P85" s="14">
         <v>8</v>
       </c>
-      <c r="Q84" s="14">
+      <c r="Q85" s="14">
         <v>74</v>
       </c>
-      <c r="R84" s="14">
+      <c r="R85" s="14">
         <v>41</v>
       </c>
-      <c r="S84" s="15"/>
-    </row>
-    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="16">
+      <c r="S85" s="15"/>
+    </row>
+    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C86" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D86" s="18">
         <f t="shared" si="10"/>
         <v>10926</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E86" s="19">
         <v>3805</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F86" s="19">
         <v>5324</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G86" s="19">
         <v>1340</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H86" s="19">
         <v>137</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I86" s="19">
         <v>273</v>
       </c>
-      <c r="J85" s="19">
+      <c r="J86" s="19">
         <v>27</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K86" s="19">
         <v>20</v>
       </c>
-      <c r="L85" s="18">
+      <c r="L86" s="18">
         <f t="shared" si="11"/>
         <v>7509</v>
       </c>
-      <c r="M85" s="19">
+      <c r="M86" s="19">
         <v>2604</v>
       </c>
-      <c r="N85" s="19">
+      <c r="N86" s="19">
         <v>4133</v>
       </c>
-      <c r="O85" s="19">
+      <c r="O86" s="19">
         <v>655</v>
       </c>
-      <c r="P85" s="19">
+      <c r="P86" s="19">
         <v>4</v>
       </c>
-      <c r="Q85" s="19">
+      <c r="Q86" s="19">
         <v>72</v>
       </c>
-      <c r="R85" s="19">
+      <c r="R86" s="19">
         <v>41</v>
       </c>
-      <c r="S85" s="20"/>
-    </row>
-    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="11">
+      <c r="S86" s="20"/>
+    </row>
+    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <f t="shared" si="10"/>
         <v>10257</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E87" s="14">
         <v>3485</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F87" s="14">
         <v>4900</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <v>1349</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H87" s="14">
         <v>208</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I87" s="14">
         <v>260</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J87" s="14">
         <v>42</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K87" s="14">
         <v>13</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L87" s="13">
         <f t="shared" si="11"/>
         <v>7135</v>
       </c>
-      <c r="M86" s="14">
+      <c r="M87" s="14">
         <v>2350</v>
       </c>
-      <c r="N86" s="14">
+      <c r="N87" s="14">
         <v>4008</v>
       </c>
-      <c r="O86" s="14">
+      <c r="O87" s="14">
         <v>655</v>
       </c>
-      <c r="P86" s="14">
+      <c r="P87" s="14">
         <v>8</v>
       </c>
-      <c r="Q86" s="14">
+      <c r="Q87" s="14">
         <v>63</v>
       </c>
-      <c r="R86" s="14">
+      <c r="R87" s="14">
         <v>51</v>
       </c>
-      <c r="S86" s="15"/>
-    </row>
-    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="16">
+      <c r="S87" s="15"/>
+    </row>
+    <row r="88" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="16">
         <v>2018</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C88" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D88" s="18">
         <f t="shared" si="10"/>
         <v>10917</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E88" s="19">
         <v>3674</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F88" s="19">
         <v>5279</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G88" s="19">
         <v>1420</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H88" s="19">
         <v>210</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I88" s="19">
         <v>270</v>
       </c>
-      <c r="J87" s="19">
+      <c r="J88" s="19">
         <v>45</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K88" s="19">
         <v>19</v>
       </c>
-      <c r="L87" s="18">
+      <c r="L88" s="18">
         <f t="shared" si="11"/>
         <v>7620</v>
       </c>
-      <c r="M87" s="19">
+      <c r="M88" s="19">
         <v>2514</v>
       </c>
-      <c r="N87" s="19">
+      <c r="N88" s="19">
         <v>4292</v>
       </c>
-      <c r="O87" s="19">
+      <c r="O88" s="19">
         <v>680</v>
       </c>
-      <c r="P87" s="19">
+      <c r="P88" s="19">
         <v>8</v>
       </c>
-      <c r="Q87" s="19">
+      <c r="Q88" s="19">
         <v>69</v>
       </c>
-      <c r="R87" s="19">
+      <c r="R88" s="19">
         <v>57</v>
       </c>
-      <c r="S87" s="20"/>
-    </row>
-    <row r="88" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="11">
+      <c r="S88" s="20"/>
+    </row>
+    <row r="89" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D89" s="13">
         <f t="shared" si="10"/>
         <v>11147</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E89" s="14">
         <v>3756</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F89" s="14">
         <v>5273</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <v>1541</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H89" s="14">
         <v>217</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I89" s="14">
         <v>308</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J89" s="14">
         <v>42</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K89" s="14">
         <v>10</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L89" s="13">
         <f t="shared" si="11"/>
         <v>7610</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M89" s="14">
         <v>2530</v>
       </c>
-      <c r="N88" s="14">
+      <c r="N89" s="14">
         <v>4228</v>
       </c>
-      <c r="O88" s="14">
+      <c r="O89" s="14">
         <v>716</v>
       </c>
-      <c r="P88" s="14">
+      <c r="P89" s="14">
         <v>8</v>
       </c>
-      <c r="Q88" s="14">
+      <c r="Q89" s="14">
         <v>77</v>
       </c>
-      <c r="R88" s="14">
+      <c r="R89" s="14">
         <v>51</v>
       </c>
-      <c r="S88" s="15"/>
-    </row>
-    <row r="89" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="16">
+      <c r="S89" s="15"/>
+    </row>
+    <row r="90" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="16">
         <v>2018</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C90" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D90" s="18">
         <f t="shared" si="10"/>
         <v>10948</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E90" s="19">
         <v>3657</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F90" s="19">
         <v>5338</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G90" s="19">
         <v>1355</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H90" s="19">
         <v>247</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I90" s="19">
         <v>283</v>
       </c>
-      <c r="J89" s="19">
+      <c r="J90" s="19">
         <v>56</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K90" s="19">
         <v>12</v>
       </c>
-      <c r="L89" s="18">
+      <c r="L90" s="18">
         <f t="shared" si="11"/>
         <v>7627</v>
       </c>
-      <c r="M89" s="19">
+      <c r="M90" s="19">
         <v>2524</v>
       </c>
-      <c r="N89" s="19">
+      <c r="N90" s="19">
         <v>4291</v>
       </c>
-      <c r="O89" s="19">
+      <c r="O90" s="19">
         <v>673</v>
       </c>
-      <c r="P89" s="19">
+      <c r="P90" s="19">
         <v>9</v>
       </c>
-      <c r="Q89" s="19">
+      <c r="Q90" s="19">
         <v>74</v>
       </c>
-      <c r="R89" s="19">
+      <c r="R90" s="19">
         <v>56</v>
       </c>
-      <c r="S89" s="20"/>
-    </row>
-    <row r="90" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="11">
+      <c r="S90" s="20"/>
+    </row>
+    <row r="91" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="11">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D91" s="13">
         <f t="shared" si="10"/>
         <v>11358</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E91" s="14">
         <v>3901</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F91" s="14">
         <v>5805</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G91" s="14">
         <v>1068</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H91" s="14">
         <v>198</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I91" s="14">
         <v>302</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J91" s="14">
         <v>64</v>
       </c>
-      <c r="K90" s="14">
+      <c r="K91" s="14">
         <v>20</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L91" s="13">
         <f t="shared" si="11"/>
         <v>7899</v>
       </c>
-      <c r="M90" s="14">
+      <c r="M91" s="14">
         <v>2695</v>
       </c>
-      <c r="N90" s="14">
+      <c r="N91" s="14">
         <v>4507</v>
       </c>
-      <c r="O90" s="14">
+      <c r="O91" s="14">
         <v>556</v>
       </c>
-      <c r="P90" s="14">
+      <c r="P91" s="14">
         <v>8</v>
       </c>
-      <c r="Q90" s="14">
+      <c r="Q91" s="14">
         <v>78</v>
       </c>
-      <c r="R90" s="14">
+      <c r="R91" s="14">
         <v>55</v>
       </c>
-      <c r="S90" s="15"/>
-    </row>
-    <row r="91" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="16">
+      <c r="S91" s="15"/>
+    </row>
+    <row r="92" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="16">
         <v>2018</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C92" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D92" s="18">
         <f t="shared" si="10"/>
         <v>10769</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E92" s="19">
         <v>3736</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F92" s="19">
         <v>5158</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G92" s="19">
         <v>1304</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H92" s="19">
         <v>210</v>
       </c>
-      <c r="I91" s="19">
+      <c r="I92" s="19">
         <v>309</v>
       </c>
-      <c r="J91" s="19">
+      <c r="J92" s="19">
         <v>38</v>
       </c>
-      <c r="K91" s="19">
+      <c r="K92" s="19">
         <v>14</v>
       </c>
-      <c r="L91" s="18">
+      <c r="L92" s="18">
         <f t="shared" si="11"/>
         <v>7284</v>
       </c>
-      <c r="M91" s="19">
+      <c r="M92" s="19">
         <v>2592</v>
       </c>
-      <c r="N91" s="19">
+      <c r="N92" s="19">
         <v>3860</v>
       </c>
-      <c r="O91" s="19">
+      <c r="O92" s="19">
         <v>701</v>
       </c>
-      <c r="P91" s="19">
+      <c r="P92" s="19">
         <v>8</v>
       </c>
-      <c r="Q91" s="19">
+      <c r="Q92" s="19">
         <v>73</v>
       </c>
-      <c r="R91" s="19">
+      <c r="R92" s="19">
         <v>50</v>
       </c>
-      <c r="S91" s="20"/>
-    </row>
-    <row r="92" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="11">
+      <c r="S92" s="20"/>
+    </row>
+    <row r="93" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="11">
         <v>2018</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D93" s="13">
         <f t="shared" si="10"/>
         <v>10595</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E93" s="14">
         <v>3510</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F93" s="14">
         <v>5158</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G93" s="14">
         <v>1332</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H93" s="14">
         <v>223</v>
       </c>
-      <c r="I92" s="14">
+      <c r="I93" s="14">
         <v>307</v>
       </c>
-      <c r="J92" s="14">
+      <c r="J93" s="14">
         <v>50</v>
       </c>
-      <c r="K92" s="14">
+      <c r="K93" s="14">
         <v>15</v>
       </c>
-      <c r="L92" s="13">
+      <c r="L93" s="13">
         <f t="shared" si="11"/>
         <v>7079</v>
       </c>
-      <c r="M92" s="14">
+      <c r="M93" s="14">
         <v>2512</v>
       </c>
-      <c r="N92" s="14">
+      <c r="N93" s="14">
         <v>3719</v>
       </c>
-      <c r="O92" s="14">
+      <c r="O93" s="14">
         <v>718</v>
       </c>
-      <c r="P92" s="14">
+      <c r="P93" s="14">
         <v>9</v>
       </c>
-      <c r="Q92" s="14">
+      <c r="Q93" s="14">
         <v>68</v>
       </c>
-      <c r="R92" s="14">
+      <c r="R93" s="14">
         <v>53</v>
       </c>
-      <c r="S92" s="15"/>
-    </row>
-    <row r="93" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="16">
+      <c r="S93" s="15"/>
+    </row>
+    <row r="94" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="16">
         <v>2018</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C94" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D94" s="18">
         <f t="shared" si="10"/>
         <v>9439</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E94" s="19">
         <v>3213</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F94" s="19">
         <v>4478</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G94" s="19">
         <v>1214</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H94" s="19">
         <v>203</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I94" s="19">
         <v>273</v>
       </c>
-      <c r="J93" s="19">
+      <c r="J94" s="19">
         <v>50</v>
       </c>
-      <c r="K93" s="19">
+      <c r="K94" s="19">
         <v>8</v>
       </c>
-      <c r="L93" s="18">
+      <c r="L94" s="18">
         <f t="shared" si="11"/>
         <v>6237</v>
       </c>
-      <c r="M93" s="19">
+      <c r="M94" s="19">
         <v>2209</v>
       </c>
-      <c r="N93" s="19">
+      <c r="N94" s="19">
         <v>3275</v>
       </c>
-      <c r="O93" s="19">
+      <c r="O94" s="19">
         <v>646</v>
       </c>
-      <c r="P93" s="19">
+      <c r="P94" s="19">
         <v>8</v>
       </c>
-      <c r="Q93" s="19">
+      <c r="Q94" s="19">
         <v>60</v>
       </c>
-      <c r="R93" s="19">
+      <c r="R94" s="19">
         <v>39</v>
       </c>
-      <c r="S93" s="20"/>
-    </row>
-    <row r="94" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="21">
+      <c r="S94" s="20"/>
+    </row>
+    <row r="95" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="21">
         <v>2018</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C95" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="23">
+      <c r="D95" s="23">
         <f t="shared" si="10"/>
         <v>10479</v>
       </c>
-      <c r="E94" s="24">
+      <c r="E95" s="24">
         <v>3653</v>
       </c>
-      <c r="F94" s="24">
+      <c r="F95" s="24">
         <v>4773</v>
       </c>
-      <c r="G94" s="24">
+      <c r="G95" s="24">
         <v>1398</v>
       </c>
-      <c r="H94" s="24">
+      <c r="H95" s="24">
         <v>287</v>
       </c>
-      <c r="I94" s="24">
+      <c r="I95" s="24">
         <v>312</v>
       </c>
-      <c r="J94" s="24">
+      <c r="J95" s="24">
         <v>47</v>
       </c>
-      <c r="K94" s="24">
+      <c r="K95" s="24">
         <v>9</v>
       </c>
-      <c r="L94" s="23">
+      <c r="L95" s="23">
         <f t="shared" si="11"/>
         <v>7153</v>
       </c>
-      <c r="M94" s="24">
+      <c r="M95" s="24">
         <v>2519</v>
       </c>
-      <c r="N94" s="24">
+      <c r="N95" s="24">
         <v>3737</v>
       </c>
-      <c r="O94" s="24">
+      <c r="O95" s="24">
         <v>754</v>
       </c>
-      <c r="P94" s="24">
+      <c r="P95" s="24">
         <v>11</v>
       </c>
-      <c r="Q94" s="24">
+      <c r="Q95" s="24">
         <v>66</v>
       </c>
-      <c r="R94" s="24">
+      <c r="R95" s="24">
         <v>65</v>
       </c>
-      <c r="S94" s="25">
+      <c r="S95" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B95" s="31" t="s">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B96" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B96" s="2" t="s">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S96" s="32"/>
+      <c r="S97" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
